--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -317,66 +317,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -419,55 +359,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>약관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동의</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>필수 값 체크</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -476,279 +367,15 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾기</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾기</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고객</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>별점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니 내 취소</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>결제 수단 선택</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -856,52 +483,248 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
+    <t>담당자 선정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선, 박지수, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선, 박지수, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 사항 명세서</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>문의 이력</t>
+  </si>
+  <si>
+    <t>상단 고정 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 건강 추천 결과표</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+  </si>
+  <si>
+    <t>장바구니 내 수량 조절</t>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강기능식품 조회 서비스</t>
+  </si>
+  <si>
+    <t>맞춤형 건강 분석</t>
+  </si>
+  <si>
+    <t>회원 목록</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세 정보 관리</t>
+  </si>
+  <si>
+    <t>상품 상태 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 사항</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상태 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 건강 통계 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 상품 통계 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 통계 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 전체 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 정보 자동화</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상태 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 조건</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 조건</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 문의</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 중복 확인</t>
+  </si>
+  <si>
+    <t>비밀번호 무결성 검사</t>
+  </si>
+  <si>
+    <t>개인 정보 확인/수정</t>
+  </si>
+  <si>
+    <t>찜 조회</t>
+  </si>
+  <si>
+    <t>상품 페이지</t>
+  </si>
+  <si>
+    <t>필수 약관 동의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 이력</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 문의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명 검색</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <t>진유혁</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자 선정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 김민선, 박지수, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 김민선, 박지수, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정의</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 사항 명세서</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>이메일</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
     </r>
     <r>
       <rPr>
@@ -919,7 +742,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중복</t>
+      <t>분석</t>
     </r>
     <r>
       <rPr>
@@ -927,8 +750,11 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> at Web</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -937,12 +763,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확인</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>비밀번호</t>
+      <t>로그인</t>
     </r>
     <r>
       <rPr>
@@ -950,8 +771,11 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> at Web</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -960,211 +784,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>무결성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>개인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이력</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>찜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-  </si>
-  <si>
-    <t>문의 이력</t>
-  </si>
-  <si>
-    <t>상단 고정 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤 건강 추천 결과표</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내역</t>
-    </r>
-  </si>
-  <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>상품</t>
+      <t>마이</t>
     </r>
     <r>
       <rPr>
@@ -1184,22 +804,96 @@
       </rPr>
       <t>페이지</t>
     </r>
-  </si>
-  <si>
-    <t>상세정보</t>
-  </si>
-  <si>
-    <t>장바구니 내 수량 조절</t>
-  </si>
-  <si>
-    <t>구매</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>건강기능식품 조회 서비스</t>
-  </si>
-  <si>
-    <t>맞춤형 건강 분석</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1267,98 +961,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>장바구니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 목록</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 상세 정보 관리</t>
-  </si>
-  <si>
-    <t>상품 상태 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 등록 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 내역</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 사항</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상태 분석</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤 건강 통계 분석</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기 상품 통계 분석</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출 통계 분석</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 전체 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 정보 자동화</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상태 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 - 인터셉터</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>관리자</t>
     </r>
     <r>
@@ -1493,30 +1095,110 @@
       </rPr>
       <t>지원</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 - 통계 분석</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 - 주문 관리</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터셉터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2233,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2591,66 +2273,33 @@
     <xf numFmtId="14" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="27" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2675,6 +2324,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2690,20 +2343,53 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3022,7 +2708,7 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC87"/>
+  <dimension ref="A1:BC89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3097,40 +2783,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="156" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="C2" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -3211,41 +2897,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="161" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="158" t="s">
+      <c r="J4" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="159" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="150" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="147"/>
+      <c r="AB4" s="147"/>
+      <c r="AC4" s="147"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -3275,40 +2961,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="157">
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148">
         <v>45611</v>
       </c>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3450,160 +3136,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="129" t="s">
+      <c r="D8" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="134" t="s">
+      <c r="J8" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="138" t="s">
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138" t="s">
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="142" t="s">
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="146" t="s">
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146" t="s">
+      <c r="AE8" s="135"/>
+      <c r="AF8" s="135"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="150" t="s">
+      <c r="AJ8" s="135"/>
+      <c r="AK8" s="135"/>
+      <c r="AL8" s="135"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AO8" s="151"/>
-      <c r="AP8" s="151"/>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="151"/>
-      <c r="AS8" s="127" t="s">
+      <c r="AO8" s="140"/>
+      <c r="AP8" s="140"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="140"/>
+      <c r="AS8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="127"/>
-      <c r="AU8" s="127"/>
-      <c r="AV8" s="127"/>
-      <c r="AW8" s="127"/>
-      <c r="AX8" s="127" t="s">
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="153"/>
+      <c r="AV8" s="153"/>
+      <c r="AW8" s="153"/>
+      <c r="AX8" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="127"/>
-      <c r="AZ8" s="127"/>
-      <c r="BA8" s="127"/>
-      <c r="BB8" s="127"/>
+      <c r="AY8" s="153"/>
+      <c r="AZ8" s="153"/>
+      <c r="BA8" s="153"/>
+      <c r="BB8" s="153"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="147"/>
-      <c r="AK9" s="147"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="149"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="153"/>
-      <c r="AQ9" s="153"/>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="128"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="128"/>
-      <c r="AV9" s="128"/>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="128"/>
-      <c r="AY9" s="128"/>
-      <c r="AZ9" s="128"/>
-      <c r="BA9" s="128"/>
-      <c r="BB9" s="128"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="137"/>
+      <c r="AH9" s="137"/>
+      <c r="AI9" s="137"/>
+      <c r="AJ9" s="137"/>
+      <c r="AK9" s="137"/>
+      <c r="AL9" s="137"/>
+      <c r="AM9" s="138"/>
+      <c r="AN9" s="141"/>
+      <c r="AO9" s="142"/>
+      <c r="AP9" s="142"/>
+      <c r="AQ9" s="142"/>
+      <c r="AR9" s="142"/>
+      <c r="AS9" s="154"/>
+      <c r="AT9" s="154"/>
+      <c r="AU9" s="154"/>
+      <c r="AV9" s="154"/>
+      <c r="AW9" s="154"/>
+      <c r="AX9" s="154"/>
+      <c r="AY9" s="154"/>
+      <c r="AZ9" s="154"/>
+      <c r="BA9" s="154"/>
+      <c r="BB9" s="154"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3496,7 @@
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="87" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F12" s="70">
         <v>45558</v>
@@ -3937,11 +3623,11 @@
         <v>2.1</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="85" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F14" s="64">
         <v>45558</v>
@@ -4008,11 +3694,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="85" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F15" s="64">
         <v>45559</v>
@@ -4079,11 +3765,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="115" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F16" s="70">
         <v>45560</v>
@@ -4214,13 +3900,13 @@
       </c>
       <c r="D18" s="89"/>
       <c r="E18" s="85" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F18" s="64">
         <v>45560</v>
       </c>
       <c r="G18" s="126" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H18" s="33" t="e">
         <f>NETWORKDAYS(F18,G18)</f>
@@ -4231,9 +3917,9 @@
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="166"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
       <c r="O18" s="92"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
@@ -4285,13 +3971,13 @@
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="115" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G19" s="125" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="H19" s="33" t="e">
         <f>NETWORKDAYS(F19,G19)</f>
@@ -4355,8 +4041,8 @@
         <v>29</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="85" t="s">
-        <v>65</v>
+      <c r="E20" s="115" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="64">
         <v>45561</v>
@@ -4426,14 +4112,14 @@
         <v>31</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="85" t="s">
-        <v>64</v>
+      <c r="E21" s="115" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="64">
         <v>45561</v>
       </c>
       <c r="G21" s="125" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="H21" s="33" t="e">
         <f>NETWORKDAYS(F21,G21)</f>
@@ -4445,8 +4131,8 @@
       <c r="J21" s="38"/>
       <c r="K21" s="39"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="165"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="131"/>
       <c r="O21" s="92"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="37"/>
@@ -4497,21 +4183,21 @@
         <v>30</v>
       </c>
       <c r="D22" s="69"/>
-      <c r="E22" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="70">
-        <v>45351</v>
-      </c>
-      <c r="G22" s="70">
-        <v>45351</v>
-      </c>
-      <c r="H22" s="71">
+      <c r="E22" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="71" t="e">
         <f t="shared" ref="H22" si="1">NETWORKDAYS(F22,G22)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="39"/>
@@ -4692,8 +4378,8 @@
     <row r="25" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>42</v>
+      <c r="D25" s="85" t="s">
+        <v>99</v>
       </c>
       <c r="E25" s="118"/>
       <c r="F25" s="64">
@@ -4703,7 +4389,7 @@
         <v>45565</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25:H73" si="2">NETWORKDAYS(F25,G25)</f>
+        <f t="shared" ref="H25:H75" si="2">NETWORKDAYS(F25,G25)</f>
         <v>1</v>
       </c>
       <c r="I25" s="65">
@@ -4760,7 +4446,7 @@
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
       <c r="D26" s="85" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="64">
@@ -4770,7 +4456,7 @@
         <v>45565</v>
       </c>
       <c r="H26" s="33">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(F26,G26)</f>
         <v>1</v>
       </c>
       <c r="I26" s="65">
@@ -4823,11 +4509,11 @@
       <c r="BB26" s="103"/>
       <c r="BC26" s="30"/>
     </row>
-    <row r="27" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="85" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E27" s="118"/>
       <c r="F27" s="64">
@@ -4837,7 +4523,7 @@
         <v>45565</v>
       </c>
       <c r="H27" s="33">
-        <f t="shared" si="2"/>
+        <f>NETWORKDAYS(F27,G27)</f>
         <v>1</v>
       </c>
       <c r="I27" s="65">
@@ -4894,7 +4580,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="85" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E28" s="118"/>
       <c r="F28" s="64">
@@ -4961,7 +4647,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E29" s="118"/>
       <c r="F29" s="64">
@@ -5024,15 +4710,12 @@
       <c r="BB29" s="103"/>
       <c r="BC29" s="30"/>
     </row>
-    <row r="30" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="32"/>
+    <row r="30" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="85" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="118"/>
       <c r="F30" s="64">
         <v>45565</v>
@@ -5047,59 +4730,62 @@
       <c r="I30" s="65">
         <v>0</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="95"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="94"/>
       <c r="O30" s="91"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="100"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="99"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="112"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="114"/>
-      <c r="AX30" s="99"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="43"/>
-      <c r="BB30" s="104"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="103"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="103"/>
       <c r="BC30" s="30"/>
     </row>
-    <row r="31" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32" t="s">
-        <v>45</v>
-      </c>
+    <row r="31" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="117"/>
+      <c r="B31" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="85"/>
       <c r="E31" s="118"/>
       <c r="F31" s="64">
         <v>45565</v>
@@ -5164,8 +4850,8 @@
     <row r="32" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B32" s="31"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="32" t="s">
-        <v>46</v>
+      <c r="D32" s="85" t="s">
+        <v>88</v>
       </c>
       <c r="E32" s="118"/>
       <c r="F32" s="64">
@@ -5231,8 +4917,8 @@
     <row r="33" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="32" t="s">
-        <v>54</v>
+      <c r="D33" s="85" t="s">
+        <v>89</v>
       </c>
       <c r="E33" s="118"/>
       <c r="F33" s="64">
@@ -5299,7 +4985,7 @@
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="85" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E34" s="118"/>
       <c r="F34" s="64">
@@ -5362,15 +5048,12 @@
       <c r="BB34" s="104"/>
       <c r="BC34" s="30"/>
     </row>
-    <row r="35" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="32"/>
+    <row r="35" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="85" t="s">
+        <v>42</v>
+      </c>
       <c r="E35" s="118"/>
       <c r="F35" s="64">
         <v>45565</v>
@@ -5432,12 +5115,15 @@
       <c r="BB35" s="104"/>
       <c r="BC35" s="30"/>
     </row>
-    <row r="36" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="85" t="s">
-        <v>76</v>
-      </c>
+    <row r="36" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A36" s="117"/>
+      <c r="B36" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="85"/>
       <c r="E36" s="118"/>
       <c r="F36" s="64">
         <v>45565</v>
@@ -5499,11 +5185,11 @@
       <c r="BB36" s="104"/>
       <c r="BC36" s="30"/>
     </row>
-    <row r="37" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="85" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="64">
@@ -5569,8 +5255,8 @@
     <row r="38" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="32" t="s">
-        <v>48</v>
+      <c r="D38" s="85" t="s">
+        <v>96</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="64">
@@ -5637,7 +5323,7 @@
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="85" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E39" s="118"/>
       <c r="F39" s="64">
@@ -5704,7 +5390,7 @@
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="85" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="64">
@@ -5771,7 +5457,7 @@
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="85" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E41" s="118"/>
       <c r="F41" s="64">
@@ -5838,7 +5524,7 @@
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="85" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="64">
@@ -5905,7 +5591,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="85" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E43" s="118"/>
       <c r="F43" s="64">
@@ -5969,13 +5655,11 @@
       <c r="BC43" s="30"/>
     </row>
     <row r="44" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B44" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="32"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="85" t="s">
+        <v>60</v>
+      </c>
       <c r="E44" s="118"/>
       <c r="F44" s="64">
         <v>45565</v>
@@ -5990,58 +5674,58 @@
       <c r="I44" s="65">
         <v>0</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="94"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="95"/>
       <c r="O44" s="91"/>
       <c r="P44" s="44"/>
       <c r="Q44" s="44"/>
       <c r="R44" s="44"/>
       <c r="S44" s="100"/>
-      <c r="T44" s="98"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="105"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="108"/>
-      <c r="AI44" s="105"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="108"/>
-      <c r="AN44" s="105"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="108"/>
-      <c r="AS44" s="105"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
-      <c r="AV44" s="47"/>
-      <c r="AW44" s="108"/>
-      <c r="AX44" s="105"/>
-      <c r="AY44" s="47"/>
-      <c r="AZ44" s="47"/>
-      <c r="BA44" s="47"/>
-      <c r="BB44" s="108"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="110"/>
+      <c r="AI44" s="99"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="99"/>
+      <c r="AO44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="104"/>
+      <c r="AS44" s="112"/>
+      <c r="AT44" s="50"/>
+      <c r="AU44" s="50"/>
+      <c r="AV44" s="50"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="99"/>
+      <c r="AY44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="43"/>
+      <c r="BB44" s="104"/>
       <c r="BC44" s="30"/>
     </row>
     <row r="45" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B45" s="31"/>
       <c r="C45" s="32"/>
       <c r="D45" s="85" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E45" s="118"/>
       <c r="F45" s="64">
@@ -6057,59 +5741,61 @@
       <c r="I45" s="65">
         <v>0</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="94"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="95"/>
       <c r="O45" s="91"/>
       <c r="P45" s="44"/>
       <c r="Q45" s="44"/>
       <c r="R45" s="44"/>
       <c r="S45" s="100"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="105"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="47"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="105"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="47"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="108"/>
-      <c r="AN45" s="105"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="108"/>
-      <c r="AS45" s="105"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="108"/>
-      <c r="AX45" s="105"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="108"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="112"/>
+      <c r="AT45" s="50"/>
+      <c r="AU45" s="50"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="114"/>
+      <c r="AX45" s="99"/>
+      <c r="AY45" s="43"/>
+      <c r="AZ45" s="43"/>
+      <c r="BA45" s="43"/>
+      <c r="BB45" s="104"/>
       <c r="BC45" s="30"/>
     </row>
     <row r="46" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="85" t="s">
-        <v>84</v>
-      </c>
+      <c r="B46" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="85"/>
       <c r="E46" s="118"/>
       <c r="F46" s="64">
         <v>45565</v>
@@ -6171,11 +5857,11 @@
       <c r="BB46" s="108"/>
       <c r="BC46" s="30"/>
     </row>
-    <row r="47" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="31"/>
       <c r="C47" s="32"/>
       <c r="D47" s="85" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E47" s="118"/>
       <c r="F47" s="64">
@@ -6185,7 +5871,7 @@
         <v>45565</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H47" si="3">NETWORKDAYS(F47,G47)</f>
         <v>1</v>
       </c>
       <c r="I47" s="65">
@@ -6206,47 +5892,44 @@
       <c r="V47" s="46"/>
       <c r="W47" s="46"/>
       <c r="X47" s="103"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
-      <c r="AG47" s="49"/>
-      <c r="AH47" s="110"/>
-      <c r="AI47" s="106"/>
-      <c r="AJ47" s="49"/>
-      <c r="AK47" s="49"/>
-      <c r="AL47" s="49"/>
-      <c r="AM47" s="110"/>
-      <c r="AN47" s="106"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="110"/>
-      <c r="AS47" s="106"/>
-      <c r="AT47" s="49"/>
-      <c r="AU47" s="49"/>
-      <c r="AV47" s="49"/>
-      <c r="AW47" s="110"/>
-      <c r="AX47" s="106"/>
-      <c r="AY47" s="49"/>
-      <c r="AZ47" s="49"/>
-      <c r="BA47" s="49"/>
-      <c r="BB47" s="110"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="108"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="108"/>
+      <c r="AI47" s="105"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="108"/>
+      <c r="AN47" s="105"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="108"/>
+      <c r="AS47" s="105"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="108"/>
+      <c r="AX47" s="105"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="108"/>
       <c r="BC47" s="30"/>
     </row>
-    <row r="48" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A48" s="117"/>
-      <c r="B48" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="32"/>
+    <row r="48" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="85" t="s">
+        <v>62</v>
+      </c>
       <c r="E48" s="118"/>
       <c r="F48" s="64">
         <v>45565</v>
@@ -6276,43 +5959,43 @@
       <c r="V48" s="46"/>
       <c r="W48" s="46"/>
       <c r="X48" s="103"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="110"/>
-      <c r="AI48" s="106"/>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="110"/>
-      <c r="AN48" s="106"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="110"/>
-      <c r="AS48" s="106"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="49"/>
-      <c r="AW48" s="110"/>
-      <c r="AX48" s="106"/>
-      <c r="AY48" s="49"/>
-      <c r="AZ48" s="49"/>
-      <c r="BA48" s="49"/>
-      <c r="BB48" s="110"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="108"/>
+      <c r="AD48" s="105"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="108"/>
+      <c r="AI48" s="105"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="108"/>
+      <c r="AN48" s="105"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="108"/>
+      <c r="AS48" s="105"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="108"/>
+      <c r="AX48" s="105"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="108"/>
       <c r="BC48" s="30"/>
     </row>
     <row r="49" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="32" t="s">
-        <v>86</v>
+      <c r="D49" s="85" t="s">
+        <v>63</v>
       </c>
       <c r="E49" s="118"/>
       <c r="F49" s="64">
@@ -6343,43 +6026,43 @@
       <c r="V49" s="46"/>
       <c r="W49" s="46"/>
       <c r="X49" s="103"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="110"/>
-      <c r="AI49" s="106"/>
-      <c r="AJ49" s="49"/>
-      <c r="AK49" s="49"/>
-      <c r="AL49" s="49"/>
-      <c r="AM49" s="110"/>
-      <c r="AN49" s="106"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
-      <c r="AQ49" s="49"/>
-      <c r="AR49" s="110"/>
-      <c r="AS49" s="106"/>
-      <c r="AT49" s="49"/>
-      <c r="AU49" s="49"/>
-      <c r="AV49" s="49"/>
-      <c r="AW49" s="110"/>
-      <c r="AX49" s="106"/>
-      <c r="AY49" s="49"/>
-      <c r="AZ49" s="49"/>
-      <c r="BA49" s="49"/>
-      <c r="BB49" s="110"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="108"/>
+      <c r="AI49" s="105"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="108"/>
+      <c r="AN49" s="105"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="108"/>
+      <c r="AS49" s="105"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="108"/>
+      <c r="AX49" s="105"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="108"/>
       <c r="BC49" s="30"/>
     </row>
     <row r="50" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
       <c r="D50" s="85" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="64">
@@ -6442,12 +6125,15 @@
       <c r="BB50" s="110"/>
       <c r="BC50" s="30"/>
     </row>
-    <row r="51" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="85" t="s">
-        <v>88</v>
-      </c>
+    <row r="51" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A51" s="117"/>
+      <c r="B51" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="85"/>
       <c r="E51" s="118"/>
       <c r="F51" s="64">
         <v>45565</v>
@@ -6512,8 +6198,8 @@
     <row r="52" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="32" t="s">
-        <v>51</v>
+      <c r="D52" s="85" t="s">
+        <v>104</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="64">
@@ -6577,14 +6263,11 @@
       <c r="BC52" s="30"/>
     </row>
     <row r="53" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="120"/>
-      <c r="B53" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="85" t="s">
+        <v>98</v>
+      </c>
       <c r="E53" s="118"/>
       <c r="F53" s="64">
         <v>45565</v>
@@ -6593,7 +6276,7 @@
         <v>45565</v>
       </c>
       <c r="H53" s="33">
-        <f>NETWORKDAYS(F53,G53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I53" s="65">
@@ -6647,11 +6330,10 @@
       <c r="BC53" s="30"/>
     </row>
     <row r="54" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A54" s="120"/>
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
       <c r="D54" s="85" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="64">
@@ -6661,7 +6343,7 @@
         <v>45565</v>
       </c>
       <c r="H54" s="33">
-        <f>NETWORKDAYS(F54,G54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I54" s="65">
@@ -6715,11 +6397,14 @@
       <c r="BC54" s="30"/>
     </row>
     <row r="55" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="85" t="s">
-        <v>52</v>
-      </c>
+      <c r="A55" s="120"/>
+      <c r="B55" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="85"/>
       <c r="E55" s="118"/>
       <c r="F55" s="64">
         <v>45565</v>
@@ -6782,10 +6467,11 @@
       <c r="BC55" s="30"/>
     </row>
     <row r="56" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A56" s="120"/>
       <c r="B56" s="31"/>
       <c r="C56" s="32"/>
       <c r="D56" s="85" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="64">
@@ -6816,43 +6502,43 @@
       <c r="V56" s="46"/>
       <c r="W56" s="46"/>
       <c r="X56" s="103"/>
-      <c r="Y56" s="105"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="105"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="105"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="47"/>
-      <c r="AL56" s="47"/>
-      <c r="AM56" s="108"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
-      <c r="AQ56" s="47"/>
-      <c r="AR56" s="108"/>
-      <c r="AS56" s="105"/>
-      <c r="AT56" s="47"/>
-      <c r="AU56" s="47"/>
-      <c r="AV56" s="47"/>
-      <c r="AW56" s="108"/>
-      <c r="AX56" s="105"/>
-      <c r="AY56" s="47"/>
-      <c r="AZ56" s="47"/>
-      <c r="BA56" s="47"/>
-      <c r="BB56" s="108"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="110"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="110"/>
+      <c r="AI56" s="106"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="49"/>
+      <c r="AL56" s="49"/>
+      <c r="AM56" s="110"/>
+      <c r="AN56" s="106"/>
+      <c r="AO56" s="49"/>
+      <c r="AP56" s="49"/>
+      <c r="AQ56" s="49"/>
+      <c r="AR56" s="110"/>
+      <c r="AS56" s="106"/>
+      <c r="AT56" s="49"/>
+      <c r="AU56" s="49"/>
+      <c r="AV56" s="49"/>
+      <c r="AW56" s="110"/>
+      <c r="AX56" s="106"/>
+      <c r="AY56" s="49"/>
+      <c r="AZ56" s="49"/>
+      <c r="BA56" s="49"/>
+      <c r="BB56" s="110"/>
       <c r="BC56" s="30"/>
     </row>
     <row r="57" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
       <c r="D57" s="85" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="64">
@@ -6883,47 +6569,45 @@
       <c r="V57" s="46"/>
       <c r="W57" s="46"/>
       <c r="X57" s="103"/>
-      <c r="Y57" s="105"/>
-      <c r="Z57" s="47"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="108"/>
-      <c r="AD57" s="105"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="108"/>
-      <c r="AI57" s="105"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="47"/>
-      <c r="AL57" s="47"/>
-      <c r="AM57" s="108"/>
-      <c r="AN57" s="105"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
-      <c r="AQ57" s="47"/>
-      <c r="AR57" s="108"/>
-      <c r="AS57" s="105"/>
-      <c r="AT57" s="47"/>
-      <c r="AU57" s="47"/>
-      <c r="AV57" s="47"/>
-      <c r="AW57" s="108"/>
-      <c r="AX57" s="105"/>
-      <c r="AY57" s="47"/>
-      <c r="AZ57" s="47"/>
-      <c r="BA57" s="47"/>
-      <c r="BB57" s="108"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="110"/>
+      <c r="AI57" s="106"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="49"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="110"/>
+      <c r="AN57" s="106"/>
+      <c r="AO57" s="49"/>
+      <c r="AP57" s="49"/>
+      <c r="AQ57" s="49"/>
+      <c r="AR57" s="110"/>
+      <c r="AS57" s="106"/>
+      <c r="AT57" s="49"/>
+      <c r="AU57" s="49"/>
+      <c r="AV57" s="49"/>
+      <c r="AW57" s="110"/>
+      <c r="AX57" s="106"/>
+      <c r="AY57" s="49"/>
+      <c r="AZ57" s="49"/>
+      <c r="BA57" s="49"/>
+      <c r="BB57" s="110"/>
       <c r="BC57" s="30"/>
     </row>
-    <row r="58" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B58" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="64"/>
+    <row r="58" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="118"/>
       <c r="F58" s="64">
         <v>45565</v>
       </c>
@@ -6931,7 +6615,7 @@
         <v>45565</v>
       </c>
       <c r="H58" s="33">
-        <f t="shared" ref="H58:H60" si="3">NETWORKDAYS(F58,G58)</f>
+        <f>NETWORKDAYS(F58,G58)</f>
         <v>1</v>
       </c>
       <c r="I58" s="65">
@@ -6952,45 +6636,45 @@
       <c r="V58" s="46"/>
       <c r="W58" s="46"/>
       <c r="X58" s="103"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="106"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="110"/>
-      <c r="AI58" s="106"/>
-      <c r="AJ58" s="49"/>
-      <c r="AK58" s="49"/>
-      <c r="AL58" s="49"/>
-      <c r="AM58" s="110"/>
-      <c r="AN58" s="106"/>
-      <c r="AO58" s="49"/>
-      <c r="AP58" s="49"/>
-      <c r="AQ58" s="49"/>
-      <c r="AR58" s="110"/>
-      <c r="AS58" s="106"/>
-      <c r="AT58" s="49"/>
-      <c r="AU58" s="49"/>
-      <c r="AV58" s="49"/>
-      <c r="AW58" s="110"/>
-      <c r="AX58" s="106"/>
-      <c r="AY58" s="49"/>
-      <c r="AZ58" s="49"/>
-      <c r="BA58" s="49"/>
-      <c r="BB58" s="110"/>
+      <c r="Y58" s="105"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="108"/>
+      <c r="AD58" s="105"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="108"/>
+      <c r="AI58" s="105"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="108"/>
+      <c r="AN58" s="105"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
+      <c r="AQ58" s="47"/>
+      <c r="AR58" s="108"/>
+      <c r="AS58" s="105"/>
+      <c r="AT58" s="47"/>
+      <c r="AU58" s="47"/>
+      <c r="AV58" s="47"/>
+      <c r="AW58" s="108"/>
+      <c r="AX58" s="105"/>
+      <c r="AY58" s="47"/>
+      <c r="AZ58" s="47"/>
+      <c r="BA58" s="47"/>
+      <c r="BB58" s="108"/>
       <c r="BC58" s="30"/>
     </row>
-    <row r="59" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="64"/>
+      <c r="D59" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="118"/>
       <c r="F59" s="64">
         <v>45565</v>
       </c>
@@ -6998,10 +6682,10 @@
         <v>45565</v>
       </c>
       <c r="H59" s="33">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(F59,G59)</f>
         <v>1</v>
       </c>
-      <c r="I59" s="163">
+      <c r="I59" s="65">
         <v>0</v>
       </c>
       <c r="J59" s="34"/>
@@ -7019,44 +6703,46 @@
       <c r="V59" s="46"/>
       <c r="W59" s="46"/>
       <c r="X59" s="103"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="106"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="110"/>
-      <c r="AN59" s="106"/>
-      <c r="AO59" s="49"/>
-      <c r="AP59" s="49"/>
-      <c r="AQ59" s="49"/>
-      <c r="AR59" s="110"/>
-      <c r="AS59" s="106"/>
-      <c r="AT59" s="49"/>
-      <c r="AU59" s="49"/>
-      <c r="AV59" s="49"/>
-      <c r="AW59" s="110"/>
-      <c r="AX59" s="106"/>
-      <c r="AY59" s="49"/>
-      <c r="AZ59" s="49"/>
-      <c r="BA59" s="49"/>
-      <c r="BB59" s="110"/>
+      <c r="Y59" s="105"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="105"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="105"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="47"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="108"/>
+      <c r="AN59" s="105"/>
+      <c r="AO59" s="47"/>
+      <c r="AP59" s="47"/>
+      <c r="AQ59" s="47"/>
+      <c r="AR59" s="108"/>
+      <c r="AS59" s="105"/>
+      <c r="AT59" s="47"/>
+      <c r="AU59" s="47"/>
+      <c r="AV59" s="47"/>
+      <c r="AW59" s="108"/>
+      <c r="AX59" s="105"/>
+      <c r="AY59" s="47"/>
+      <c r="AZ59" s="47"/>
+      <c r="BA59" s="47"/>
+      <c r="BB59" s="108"/>
       <c r="BC59" s="30"/>
     </row>
     <row r="60" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="118" t="s">
-        <v>92</v>
-      </c>
+      <c r="B60" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="118"/>
       <c r="E60" s="64"/>
       <c r="F60" s="64">
         <v>45565</v>
@@ -7065,10 +6751,10 @@
         <v>45565</v>
       </c>
       <c r="H60" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H60:H63" si="4">NETWORKDAYS(F60,G60)</f>
         <v>1</v>
       </c>
-      <c r="I60" s="162">
+      <c r="I60" s="65">
         <v>0</v>
       </c>
       <c r="J60" s="34"/>
@@ -7118,15 +6804,13 @@
       <c r="BB60" s="110"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B61" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="118"/>
+    <row r="61" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="64"/>
       <c r="F61" s="64">
         <v>45565</v>
       </c>
@@ -7134,10 +6818,10 @@
         <v>45565</v>
       </c>
       <c r="H61" s="33">
-        <f t="shared" ref="H61:H64" si="4">NETWORKDAYS(F61,G61)</f>
+        <f t="shared" ref="H61" si="5">NETWORKDAYS(F61,G61)</f>
         <v>1</v>
       </c>
-      <c r="I61" s="162">
+      <c r="I61" s="65">
         <v>0</v>
       </c>
       <c r="J61" s="34"/>
@@ -7190,10 +6874,10 @@
     <row r="62" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="118"/>
+      <c r="D62" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="64"/>
       <c r="F62" s="64">
         <v>45565</v>
       </c>
@@ -7204,7 +6888,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I62" s="162">
+      <c r="I62" s="129">
         <v>0</v>
       </c>
       <c r="J62" s="34"/>
@@ -7257,10 +6941,10 @@
     <row r="63" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="118"/>
+      <c r="D63" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="64"/>
       <c r="F63" s="64">
         <v>45565</v>
       </c>
@@ -7271,7 +6955,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I63" s="162">
+      <c r="I63" s="128">
         <v>0</v>
       </c>
       <c r="J63" s="34"/>
@@ -7322,11 +7006,13 @@
       <c r="BC63" s="30"/>
     </row>
     <row r="64" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="85" t="s">
-        <v>57</v>
-      </c>
+      <c r="B64" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="85"/>
       <c r="E64" s="118"/>
       <c r="F64" s="64">
         <v>45565</v>
@@ -7335,10 +7021,10 @@
         <v>45565</v>
       </c>
       <c r="H64" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H64:H67" si="6">NETWORKDAYS(F64,G64)</f>
         <v>1</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="128">
         <v>0</v>
       </c>
       <c r="J64" s="34"/>
@@ -7356,46 +7042,44 @@
       <c r="V64" s="46"/>
       <c r="W64" s="46"/>
       <c r="X64" s="103"/>
-      <c r="Y64" s="105"/>
-      <c r="Z64" s="47"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="108"/>
-      <c r="AD64" s="105"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="47"/>
-      <c r="AH64" s="108"/>
-      <c r="AI64" s="105"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="47"/>
-      <c r="AL64" s="47"/>
-      <c r="AM64" s="108"/>
-      <c r="AN64" s="105"/>
-      <c r="AO64" s="47"/>
-      <c r="AP64" s="47"/>
-      <c r="AQ64" s="47"/>
-      <c r="AR64" s="108"/>
-      <c r="AS64" s="105"/>
-      <c r="AT64" s="47"/>
-      <c r="AU64" s="47"/>
-      <c r="AV64" s="47"/>
-      <c r="AW64" s="108"/>
-      <c r="AX64" s="105"/>
-      <c r="AY64" s="47"/>
-      <c r="AZ64" s="47"/>
-      <c r="BA64" s="47"/>
-      <c r="BB64" s="108"/>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="110"/>
+      <c r="AD64" s="106"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="110"/>
+      <c r="AI64" s="106"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="110"/>
+      <c r="AN64" s="106"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="49"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="110"/>
+      <c r="AS64" s="106"/>
+      <c r="AT64" s="49"/>
+      <c r="AU64" s="49"/>
+      <c r="AV64" s="49"/>
+      <c r="AW64" s="110"/>
+      <c r="AX64" s="106"/>
+      <c r="AY64" s="49"/>
+      <c r="AZ64" s="49"/>
+      <c r="BA64" s="49"/>
+      <c r="BB64" s="110"/>
       <c r="BC64" s="30"/>
     </row>
     <row r="65" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B65" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="32"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="85" t="s">
+        <v>69</v>
+      </c>
       <c r="E65" s="118"/>
       <c r="F65" s="64">
         <v>45565</v>
@@ -7404,10 +7088,10 @@
         <v>45565</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I65" s="162">
+      <c r="I65" s="128">
         <v>0</v>
       </c>
       <c r="J65" s="34"/>
@@ -7461,7 +7145,7 @@
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
       <c r="D66" s="85" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E66" s="118"/>
       <c r="F66" s="64">
@@ -7471,10 +7155,10 @@
         <v>45565</v>
       </c>
       <c r="H66" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I66" s="162">
+      <c r="I66" s="128">
         <v>0</v>
       </c>
       <c r="J66" s="34"/>
@@ -7528,7 +7212,7 @@
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
       <c r="D67" s="85" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="64">
@@ -7538,10 +7222,10 @@
         <v>45565</v>
       </c>
       <c r="H67" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I67" s="162">
+      <c r="I67" s="65">
         <v>0</v>
       </c>
       <c r="J67" s="34"/>
@@ -7559,44 +7243,46 @@
       <c r="V67" s="46"/>
       <c r="W67" s="46"/>
       <c r="X67" s="103"/>
-      <c r="Y67" s="106"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="106"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="110"/>
-      <c r="AI67" s="106"/>
-      <c r="AJ67" s="49"/>
-      <c r="AK67" s="49"/>
-      <c r="AL67" s="49"/>
-      <c r="AM67" s="110"/>
-      <c r="AN67" s="106"/>
-      <c r="AO67" s="49"/>
-      <c r="AP67" s="49"/>
-      <c r="AQ67" s="49"/>
-      <c r="AR67" s="110"/>
-      <c r="AS67" s="106"/>
-      <c r="AT67" s="49"/>
-      <c r="AU67" s="49"/>
-      <c r="AV67" s="49"/>
-      <c r="AW67" s="110"/>
-      <c r="AX67" s="106"/>
-      <c r="AY67" s="49"/>
-      <c r="AZ67" s="49"/>
-      <c r="BA67" s="49"/>
-      <c r="BB67" s="110"/>
+      <c r="Y67" s="105"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="105"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="47"/>
+      <c r="AH67" s="108"/>
+      <c r="AI67" s="105"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="47"/>
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="105"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="108"/>
+      <c r="AS67" s="105"/>
+      <c r="AT67" s="47"/>
+      <c r="AU67" s="47"/>
+      <c r="AV67" s="47"/>
+      <c r="AW67" s="108"/>
+      <c r="AX67" s="105"/>
+      <c r="AY67" s="47"/>
+      <c r="AZ67" s="47"/>
+      <c r="BA67" s="47"/>
+      <c r="BB67" s="108"/>
       <c r="BC67" s="30"/>
     </row>
     <row r="68" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="85" t="s">
-        <v>99</v>
-      </c>
+      <c r="B68" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="85"/>
       <c r="E68" s="118"/>
       <c r="F68" s="64">
         <v>45565</v>
@@ -7608,7 +7294,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I68" s="162">
+      <c r="I68" s="128">
         <v>0</v>
       </c>
       <c r="J68" s="34"/>
@@ -7626,46 +7312,44 @@
       <c r="V68" s="46"/>
       <c r="W68" s="46"/>
       <c r="X68" s="103"/>
-      <c r="Y68" s="105"/>
-      <c r="Z68" s="47"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="108"/>
-      <c r="AD68" s="105"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="47"/>
-      <c r="AH68" s="108"/>
-      <c r="AI68" s="105"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="47"/>
-      <c r="AL68" s="47"/>
-      <c r="AM68" s="108"/>
-      <c r="AN68" s="105"/>
-      <c r="AO68" s="47"/>
-      <c r="AP68" s="47"/>
-      <c r="AQ68" s="47"/>
-      <c r="AR68" s="108"/>
-      <c r="AS68" s="105"/>
-      <c r="AT68" s="47"/>
-      <c r="AU68" s="47"/>
-      <c r="AV68" s="47"/>
-      <c r="AW68" s="108"/>
-      <c r="AX68" s="105"/>
-      <c r="AY68" s="47"/>
-      <c r="AZ68" s="47"/>
-      <c r="BA68" s="47"/>
-      <c r="BB68" s="108"/>
+      <c r="Y68" s="106"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="110"/>
+      <c r="AD68" s="106"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="110"/>
+      <c r="AI68" s="106"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+      <c r="AL68" s="49"/>
+      <c r="AM68" s="110"/>
+      <c r="AN68" s="106"/>
+      <c r="AO68" s="49"/>
+      <c r="AP68" s="49"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="110"/>
+      <c r="AS68" s="106"/>
+      <c r="AT68" s="49"/>
+      <c r="AU68" s="49"/>
+      <c r="AV68" s="49"/>
+      <c r="AW68" s="110"/>
+      <c r="AX68" s="106"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="49"/>
+      <c r="BA68" s="49"/>
+      <c r="BB68" s="110"/>
       <c r="BC68" s="30"/>
     </row>
     <row r="69" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B69" s="124">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="85" t="s">
+        <v>71</v>
+      </c>
       <c r="E69" s="118"/>
       <c r="F69" s="64">
         <v>45565</v>
@@ -7677,7 +7361,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I69" s="162">
+      <c r="I69" s="128">
         <v>0</v>
       </c>
       <c r="J69" s="34"/>
@@ -7731,7 +7415,7 @@
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
       <c r="D70" s="85" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="64">
@@ -7741,10 +7425,10 @@
         <v>45565</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" ref="H70" si="5">NETWORKDAYS(F70,G70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I70" s="162">
+      <c r="I70" s="128">
         <v>0</v>
       </c>
       <c r="J70" s="34"/>
@@ -7794,11 +7478,11 @@
       <c r="BB70" s="110"/>
       <c r="BC70" s="30"/>
     </row>
-    <row r="71" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B71" s="86"/>
-      <c r="C71" s="85"/>
+    <row r="71" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="85" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E71" s="118"/>
       <c r="F71" s="64">
@@ -7811,7 +7495,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I71" s="162">
+      <c r="I71" s="128">
         <v>0</v>
       </c>
       <c r="J71" s="34"/>
@@ -7829,44 +7513,46 @@
       <c r="V71" s="46"/>
       <c r="W71" s="46"/>
       <c r="X71" s="103"/>
-      <c r="Y71" s="106"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="106"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="110"/>
-      <c r="AI71" s="106"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="49"/>
-      <c r="AL71" s="49"/>
-      <c r="AM71" s="110"/>
-      <c r="AN71" s="106"/>
-      <c r="AO71" s="49"/>
-      <c r="AP71" s="49"/>
-      <c r="AQ71" s="49"/>
-      <c r="AR71" s="110"/>
-      <c r="AS71" s="106"/>
-      <c r="AT71" s="49"/>
-      <c r="AU71" s="49"/>
-      <c r="AV71" s="49"/>
-      <c r="AW71" s="110"/>
-      <c r="AX71" s="106"/>
-      <c r="AY71" s="49"/>
-      <c r="AZ71" s="49"/>
-      <c r="BA71" s="49"/>
-      <c r="BB71" s="110"/>
+      <c r="Y71" s="105"/>
+      <c r="Z71" s="47"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="108"/>
+      <c r="AD71" s="105"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="105"/>
+      <c r="AJ71" s="47"/>
+      <c r="AK71" s="47"/>
+      <c r="AL71" s="47"/>
+      <c r="AM71" s="108"/>
+      <c r="AN71" s="105"/>
+      <c r="AO71" s="47"/>
+      <c r="AP71" s="47"/>
+      <c r="AQ71" s="47"/>
+      <c r="AR71" s="108"/>
+      <c r="AS71" s="105"/>
+      <c r="AT71" s="47"/>
+      <c r="AU71" s="47"/>
+      <c r="AV71" s="47"/>
+      <c r="AW71" s="108"/>
+      <c r="AX71" s="105"/>
+      <c r="AY71" s="47"/>
+      <c r="AZ71" s="47"/>
+      <c r="BA71" s="47"/>
+      <c r="BB71" s="108"/>
       <c r="BC71" s="30"/>
     </row>
-    <row r="72" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B72" s="86"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85" t="s">
-        <v>102</v>
-      </c>
+    <row r="72" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B72" s="124">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="85"/>
       <c r="E72" s="118"/>
       <c r="F72" s="64">
         <v>45565</v>
@@ -7878,7 +7564,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I72" s="162">
+      <c r="I72" s="128">
         <v>0</v>
       </c>
       <c r="J72" s="34"/>
@@ -7928,11 +7614,11 @@
       <c r="BB72" s="110"/>
       <c r="BC72" s="30"/>
     </row>
-    <row r="73" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B73" s="86"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="32" t="s">
-        <v>55</v>
+    <row r="73" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="85" t="s">
+        <v>93</v>
       </c>
       <c r="E73" s="118"/>
       <c r="F73" s="64">
@@ -7942,10 +7628,10 @@
         <v>45565</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H73" si="7">NETWORKDAYS(F73,G73)</f>
         <v>1</v>
       </c>
-      <c r="I73" s="162">
+      <c r="I73" s="128">
         <v>0</v>
       </c>
       <c r="J73" s="34"/>
@@ -7995,14 +7681,12 @@
       <c r="BB73" s="110"/>
       <c r="BC73" s="30"/>
     </row>
-    <row r="74" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="32"/>
+    <row r="74" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B74" s="86"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="85" t="s">
+        <v>74</v>
+      </c>
       <c r="E74" s="118"/>
       <c r="F74" s="64">
         <v>45565</v>
@@ -8011,10 +7695,10 @@
         <v>45565</v>
       </c>
       <c r="H74" s="33">
-        <f t="shared" ref="H74:H78" si="6">NETWORKDAYS(F74,G74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I74" s="162">
+      <c r="I74" s="128">
         <v>0</v>
       </c>
       <c r="J74" s="34"/>
@@ -8064,11 +7748,11 @@
       <c r="BB74" s="110"/>
       <c r="BC74" s="30"/>
     </row>
-    <row r="75" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="75" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B75" s="86"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="32" t="s">
-        <v>103</v>
+      <c r="C75" s="32"/>
+      <c r="D75" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="64">
@@ -8078,10 +7762,10 @@
         <v>45565</v>
       </c>
       <c r="H75" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I75" s="162">
+      <c r="I75" s="128">
         <v>0</v>
       </c>
       <c r="J75" s="34"/>
@@ -8132,11 +7816,13 @@
       <c r="BC75" s="30"/>
     </row>
     <row r="76" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B76" s="86"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="B76" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="85"/>
       <c r="E76" s="118"/>
       <c r="F76" s="64">
         <v>45565</v>
@@ -8145,10 +7831,10 @@
         <v>45565</v>
       </c>
       <c r="H76" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H76:H80" si="8">NETWORKDAYS(F76,G76)</f>
         <v>1</v>
       </c>
-      <c r="I76" s="162">
+      <c r="I76" s="128">
         <v>0</v>
       </c>
       <c r="J76" s="34"/>
@@ -8200,9 +7886,9 @@
     </row>
     <row r="77" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B77" s="86"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="32" t="s">
-        <v>105</v>
+      <c r="C77" s="32"/>
+      <c r="D77" s="85" t="s">
+        <v>76</v>
       </c>
       <c r="E77" s="118"/>
       <c r="F77" s="64">
@@ -8212,10 +7898,10 @@
         <v>45565</v>
       </c>
       <c r="H77" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I77" s="162">
+      <c r="I77" s="128">
         <v>0</v>
       </c>
       <c r="J77" s="34"/>
@@ -8267,9 +7953,9 @@
     </row>
     <row r="78" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B78" s="86"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="32" t="s">
-        <v>106</v>
+      <c r="C78" s="32"/>
+      <c r="D78" s="85" t="s">
+        <v>77</v>
       </c>
       <c r="E78" s="118"/>
       <c r="F78" s="64">
@@ -8279,10 +7965,10 @@
         <v>45565</v>
       </c>
       <c r="H78" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I78" s="162">
+      <c r="I78" s="128">
         <v>0</v>
       </c>
       <c r="J78" s="34"/>
@@ -8333,13 +8019,11 @@
       <c r="BC78" s="30"/>
     </row>
     <row r="79" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B79" s="31">
-        <v>4.12</v>
-      </c>
-      <c r="C79" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="32"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="85" t="s">
+        <v>78</v>
+      </c>
       <c r="E79" s="118"/>
       <c r="F79" s="64">
         <v>45565</v>
@@ -8348,10 +8032,10 @@
         <v>45565</v>
       </c>
       <c r="H79" s="33">
-        <f t="shared" ref="H79:H82" si="7">NETWORKDAYS(F79,G79)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I79" s="162">
+      <c r="I79" s="128">
         <v>0</v>
       </c>
       <c r="J79" s="34"/>
@@ -8402,10 +8086,10 @@
       <c r="BC79" s="30"/>
     </row>
     <row r="80" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B80" s="31"/>
+      <c r="B80" s="86"/>
       <c r="C80" s="32"/>
       <c r="D80" s="85" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="64">
@@ -8415,10 +8099,10 @@
         <v>45565</v>
       </c>
       <c r="H80" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I80" s="162">
+      <c r="I80" s="128">
         <v>0</v>
       </c>
       <c r="J80" s="34"/>
@@ -8469,11 +8153,13 @@
       <c r="BC80" s="30"/>
     </row>
     <row r="81" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B81" s="86"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85" t="s">
-        <v>108</v>
-      </c>
+      <c r="B81" s="31">
+        <v>4.12</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="85"/>
       <c r="E81" s="118"/>
       <c r="F81" s="64">
         <v>45565</v>
@@ -8482,10 +8168,10 @@
         <v>45565</v>
       </c>
       <c r="H81" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H81:H84" si="9">NETWORKDAYS(F81,G81)</f>
         <v>1</v>
       </c>
-      <c r="I81" s="162">
+      <c r="I81" s="128">
         <v>0</v>
       </c>
       <c r="J81" s="34"/>
@@ -8536,10 +8222,10 @@
       <c r="BC81" s="30"/>
     </row>
     <row r="82" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B82" s="86"/>
-      <c r="C82" s="85"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="85" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E82" s="118"/>
       <c r="F82" s="64">
@@ -8549,10 +8235,10 @@
         <v>45565</v>
       </c>
       <c r="H82" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I82" s="162">
+      <c r="I82" s="128">
         <v>0</v>
       </c>
       <c r="J82" s="34"/>
@@ -8602,16 +8288,13 @@
       <c r="BB82" s="110"/>
       <c r="BC82" s="30"/>
     </row>
-    <row r="83" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A83" s="117"/>
-      <c r="B83" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="85"/>
+    <row r="83" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B83" s="86"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="118"/>
       <c r="F83" s="64">
         <v>45565</v>
       </c>
@@ -8619,10 +8302,10 @@
         <v>45565</v>
       </c>
       <c r="H83" s="33">
-        <f t="shared" ref="H83:H85" si="8">NETWORKDAYS(F83,G83)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I83" s="162">
+      <c r="I83" s="128">
         <v>0</v>
       </c>
       <c r="J83" s="34"/>
@@ -8672,11 +8355,11 @@
       <c r="BB83" s="110"/>
       <c r="BC83" s="30"/>
     </row>
-    <row r="84" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="31"/>
+    <row r="84" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B84" s="86"/>
       <c r="C84" s="32"/>
       <c r="D84" s="85" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="64">
@@ -8686,10 +8369,10 @@
         <v>45565</v>
       </c>
       <c r="H84" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I84" s="65">
+      <c r="I84" s="128">
         <v>0</v>
       </c>
       <c r="J84" s="34"/>
@@ -8739,13 +8422,13 @@
       <c r="BB84" s="110"/>
       <c r="BC84" s="30"/>
     </row>
-    <row r="85" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="85" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A85" s="117"/>
-      <c r="B85" s="86">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>40</v>
+      <c r="B85" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="D85" s="85"/>
       <c r="E85" s="85"/>
@@ -8756,10 +8439,10 @@
         <v>45565</v>
       </c>
       <c r="H85" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H85:H87" si="10">NETWORKDAYS(F85,G85)</f>
         <v>1</v>
       </c>
-      <c r="I85" s="65">
+      <c r="I85" s="128">
         <v>0</v>
       </c>
       <c r="J85" s="34"/>
@@ -8809,88 +8492,95 @@
       <c r="BB85" s="110"/>
       <c r="BC85" s="30"/>
     </row>
-    <row r="86" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B86" s="55">
-        <v>5</v>
-      </c>
-      <c r="C86" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="58"/>
-      <c r="S86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="58"/>
-      <c r="V86" s="58"/>
-      <c r="W86" s="58"/>
-      <c r="X86" s="58"/>
-      <c r="Y86" s="58"/>
-      <c r="Z86" s="58"/>
-      <c r="AA86" s="58"/>
-      <c r="AB86" s="58"/>
-      <c r="AC86" s="58"/>
-      <c r="AD86" s="58"/>
-      <c r="AE86" s="58"/>
-      <c r="AF86" s="58"/>
-      <c r="AG86" s="58"/>
-      <c r="AH86" s="58"/>
-      <c r="AI86" s="58"/>
-      <c r="AJ86" s="58"/>
-      <c r="AK86" s="58"/>
-      <c r="AL86" s="58"/>
-      <c r="AM86" s="58"/>
-      <c r="AN86" s="58"/>
-      <c r="AO86" s="58"/>
-      <c r="AP86" s="58"/>
-      <c r="AQ86" s="58"/>
-      <c r="AR86" s="58"/>
-      <c r="AS86" s="58"/>
-      <c r="AT86" s="58"/>
-      <c r="AU86" s="58"/>
-      <c r="AV86" s="58"/>
-      <c r="AW86" s="58"/>
-      <c r="AX86" s="58"/>
-      <c r="AY86" s="58"/>
-      <c r="AZ86" s="58"/>
-      <c r="BA86" s="58"/>
-      <c r="BB86" s="58"/>
-      <c r="BC86" s="54"/>
+    <row r="86" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="118"/>
+      <c r="F86" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G86" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H86" s="33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="65">
+        <v>0</v>
+      </c>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="91"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="100"/>
+      <c r="T86" s="98"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="103"/>
+      <c r="Y86" s="106"/>
+      <c r="Z86" s="49"/>
+      <c r="AA86" s="49"/>
+      <c r="AB86" s="49"/>
+      <c r="AC86" s="110"/>
+      <c r="AD86" s="106"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="49"/>
+      <c r="AH86" s="110"/>
+      <c r="AI86" s="106"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="49"/>
+      <c r="AL86" s="49"/>
+      <c r="AM86" s="110"/>
+      <c r="AN86" s="106"/>
+      <c r="AO86" s="49"/>
+      <c r="AP86" s="49"/>
+      <c r="AQ86" s="49"/>
+      <c r="AR86" s="110"/>
+      <c r="AS86" s="106"/>
+      <c r="AT86" s="49"/>
+      <c r="AU86" s="49"/>
+      <c r="AV86" s="49"/>
+      <c r="AW86" s="110"/>
+      <c r="AX86" s="106"/>
+      <c r="AY86" s="49"/>
+      <c r="AZ86" s="49"/>
+      <c r="BA86" s="49"/>
+      <c r="BB86" s="110"/>
+      <c r="BC86" s="30"/>
     </row>
-    <row r="87" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="87" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A87" s="117"/>
-      <c r="B87" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C87" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="70">
-        <v>45564</v>
-      </c>
-      <c r="G87" s="70">
-        <v>45394</v>
-      </c>
-      <c r="H87" s="71">
-        <f>NETWORKDAYS(F87,G87)</f>
-        <v>-121</v>
-      </c>
-      <c r="I87" s="72">
+      <c r="B87" s="86">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G87" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H87" s="33">
+        <f t="shared" si="10"/>
         <v>1</v>
+      </c>
+      <c r="I87" s="65">
+        <v>0</v>
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="35"/>
@@ -8907,52 +8597,170 @@
       <c r="V87" s="46"/>
       <c r="W87" s="46"/>
       <c r="X87" s="103"/>
-      <c r="Y87" s="98"/>
-      <c r="Z87" s="46"/>
-      <c r="AA87" s="46"/>
-      <c r="AB87" s="46"/>
-      <c r="AC87" s="103"/>
-      <c r="AD87" s="105"/>
-      <c r="AE87" s="47"/>
-      <c r="AF87" s="47"/>
-      <c r="AG87" s="47"/>
-      <c r="AH87" s="108"/>
-      <c r="AI87" s="98"/>
-      <c r="AJ87" s="46"/>
-      <c r="AK87" s="46"/>
-      <c r="AL87" s="46"/>
-      <c r="AM87" s="46"/>
-      <c r="AN87" s="46"/>
-      <c r="AO87" s="46"/>
-      <c r="AP87" s="46"/>
-      <c r="AQ87" s="46"/>
-      <c r="AR87" s="46"/>
-      <c r="AS87" s="46"/>
-      <c r="AT87" s="46"/>
-      <c r="AU87" s="46"/>
-      <c r="AV87" s="46"/>
-      <c r="AW87" s="46"/>
-      <c r="AX87" s="46"/>
-      <c r="AY87" s="46"/>
-      <c r="AZ87" s="46"/>
-      <c r="BA87" s="46"/>
-      <c r="BB87" s="46"/>
+      <c r="Y87" s="106"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="110"/>
+      <c r="AD87" s="106"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="49"/>
+      <c r="AH87" s="110"/>
+      <c r="AI87" s="106"/>
+      <c r="AJ87" s="49"/>
+      <c r="AK87" s="49"/>
+      <c r="AL87" s="49"/>
+      <c r="AM87" s="110"/>
+      <c r="AN87" s="106"/>
+      <c r="AO87" s="49"/>
+      <c r="AP87" s="49"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="110"/>
+      <c r="AS87" s="106"/>
+      <c r="AT87" s="49"/>
+      <c r="AU87" s="49"/>
+      <c r="AV87" s="49"/>
+      <c r="AW87" s="110"/>
+      <c r="AX87" s="106"/>
+      <c r="AY87" s="49"/>
+      <c r="AZ87" s="49"/>
+      <c r="BA87" s="49"/>
+      <c r="BB87" s="110"/>
       <c r="BC87" s="30"/>
+    </row>
+    <row r="88" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B88" s="55">
+        <v>5</v>
+      </c>
+      <c r="C88" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="58"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58"/>
+      <c r="U88" s="58"/>
+      <c r="V88" s="58"/>
+      <c r="W88" s="58"/>
+      <c r="X88" s="58"/>
+      <c r="Y88" s="58"/>
+      <c r="Z88" s="58"/>
+      <c r="AA88" s="58"/>
+      <c r="AB88" s="58"/>
+      <c r="AC88" s="58"/>
+      <c r="AD88" s="58"/>
+      <c r="AE88" s="58"/>
+      <c r="AF88" s="58"/>
+      <c r="AG88" s="58"/>
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
+      <c r="AJ88" s="58"/>
+      <c r="AK88" s="58"/>
+      <c r="AL88" s="58"/>
+      <c r="AM88" s="58"/>
+      <c r="AN88" s="58"/>
+      <c r="AO88" s="58"/>
+      <c r="AP88" s="58"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="58"/>
+      <c r="AS88" s="58"/>
+      <c r="AT88" s="58"/>
+      <c r="AU88" s="58"/>
+      <c r="AV88" s="58"/>
+      <c r="AW88" s="58"/>
+      <c r="AX88" s="58"/>
+      <c r="AY88" s="58"/>
+      <c r="AZ88" s="58"/>
+      <c r="BA88" s="58"/>
+      <c r="BB88" s="58"/>
+      <c r="BC88" s="54"/>
+    </row>
+    <row r="89" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A89" s="117"/>
+      <c r="B89" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C89" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="87"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="70">
+        <v>45564</v>
+      </c>
+      <c r="G89" s="70">
+        <v>45394</v>
+      </c>
+      <c r="H89" s="71">
+        <f>NETWORKDAYS(F89,G89)</f>
+        <v>-121</v>
+      </c>
+      <c r="I89" s="72">
+        <v>1</v>
+      </c>
+      <c r="J89" s="34"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="91"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="100"/>
+      <c r="T89" s="98"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="103"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="103"/>
+      <c r="AD89" s="105"/>
+      <c r="AE89" s="47"/>
+      <c r="AF89" s="47"/>
+      <c r="AG89" s="47"/>
+      <c r="AH89" s="108"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="46"/>
+      <c r="AL89" s="46"/>
+      <c r="AM89" s="46"/>
+      <c r="AN89" s="46"/>
+      <c r="AO89" s="46"/>
+      <c r="AP89" s="46"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="46"/>
+      <c r="AS89" s="46"/>
+      <c r="AT89" s="46"/>
+      <c r="AU89" s="46"/>
+      <c r="AV89" s="46"/>
+      <c r="AW89" s="46"/>
+      <c r="AX89" s="46"/>
+      <c r="AY89" s="46"/>
+      <c r="AZ89" s="46"/>
+      <c r="BA89" s="46"/>
+      <c r="BB89" s="46"/>
+      <c r="BC89" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -8969,10 +8777,22 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="I84:I1048576 I1:I57">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="I86:I1048576 I1:I26 I28:I36 I38:I46 I48:I59">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$129</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -706,63 +706,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>로그인</t>
     </r>
     <r>
@@ -961,6 +904,243 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞춤형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at App</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>관리자</t>
     </r>
     <r>
@@ -980,14 +1160,6 @@
         <charset val="129"/>
       </rPr>
       <t>회원관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1038,14 +1210,6 @@
       </rPr>
       <t>관리</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1095,13 +1259,54 @@
       </rPr>
       <t>지원</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve"> at Web</t>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1152,14 +1357,6 @@
       </rPr>
       <t>관리</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1190,14 +1387,6 @@
         <charset val="129"/>
       </rPr>
       <t>인터셉터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1915,7 +2104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2289,17 +2478,70 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,10 +2566,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2342,54 +2580,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2708,7 +2898,7 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC89"/>
+  <dimension ref="A1:BC129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2783,40 +2973,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -2897,41 +3087,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="152" t="s">
+      <c r="D4" s="140"/>
+      <c r="E4" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="150" t="s">
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="147"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -2961,40 +3151,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="155" t="s">
+      <c r="D5" s="140"/>
+      <c r="E5" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="146" t="s">
+      <c r="J5" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148">
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="165">
         <v>45611</v>
       </c>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3136,160 +3326,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="156" t="s">
+      <c r="J8" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="160" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160" t="s">
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="164" t="s">
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="135" t="s">
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="135"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="135" t="s">
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="135"/>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="135"/>
-      <c r="AM8" s="136"/>
-      <c r="AN8" s="139" t="s">
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="AO8" s="140"/>
-      <c r="AP8" s="140"/>
-      <c r="AQ8" s="140"/>
-      <c r="AR8" s="140"/>
-      <c r="AS8" s="153" t="s">
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="153"/>
-      <c r="AU8" s="153"/>
-      <c r="AV8" s="153"/>
-      <c r="AW8" s="153"/>
-      <c r="AX8" s="153" t="s">
+      <c r="AT8" s="135"/>
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="135"/>
+      <c r="AX8" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="153"/>
-      <c r="AZ8" s="153"/>
-      <c r="BA8" s="153"/>
-      <c r="BB8" s="153"/>
+      <c r="AY8" s="135"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="135"/>
+      <c r="BB8" s="135"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="137"/>
-      <c r="AG9" s="137"/>
-      <c r="AH9" s="137"/>
-      <c r="AI9" s="137"/>
-      <c r="AJ9" s="137"/>
-      <c r="AK9" s="137"/>
-      <c r="AL9" s="137"/>
-      <c r="AM9" s="138"/>
-      <c r="AN9" s="141"/>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="154"/>
-      <c r="AT9" s="154"/>
-      <c r="AU9" s="154"/>
-      <c r="AV9" s="154"/>
-      <c r="AW9" s="154"/>
-      <c r="AX9" s="154"/>
-      <c r="AY9" s="154"/>
-      <c r="AZ9" s="154"/>
-      <c r="BA9" s="154"/>
-      <c r="BB9" s="154"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="155"/>
+      <c r="AG9" s="155"/>
+      <c r="AH9" s="155"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="155"/>
+      <c r="AK9" s="155"/>
+      <c r="AL9" s="155"/>
+      <c r="AM9" s="157"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="161"/>
+      <c r="AP9" s="161"/>
+      <c r="AQ9" s="161"/>
+      <c r="AR9" s="161"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="136"/>
+      <c r="AX9" s="136"/>
+      <c r="AY9" s="136"/>
+      <c r="AZ9" s="136"/>
+      <c r="BA9" s="136"/>
+      <c r="BB9" s="136"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +4021,7 @@
       <c r="BB16" s="104"/>
       <c r="BC16" s="30"/>
     </row>
-    <row r="17" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1">
+    <row r="17" spans="2:55" s="61" customFormat="1" ht="21" customHeight="1">
       <c r="B17" s="55">
         <v>3</v>
       </c>
@@ -3891,7 +4081,7 @@
       <c r="BB17" s="58"/>
       <c r="BC17" s="54"/>
     </row>
-    <row r="18" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B18" s="31">
         <v>3.1</v>
       </c>
@@ -3962,44 +4152,44 @@
       <c r="BB18" s="103"/>
       <c r="BC18" s="30"/>
     </row>
-    <row r="19" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="19" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B19" s="31">
         <v>3.2</v>
       </c>
-      <c r="C19" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="78"/>
+      <c r="C19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="32"/>
       <c r="E19" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="33" t="e">
+        <v>53</v>
+      </c>
+      <c r="F19" s="64">
+        <v>45561</v>
+      </c>
+      <c r="G19" s="64">
+        <v>45562</v>
+      </c>
+      <c r="H19" s="33">
         <f>NETWORKDAYS(F19,G19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="65">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I19" s="66">
+        <v>1</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="39"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="101"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
       <c r="O19" s="92"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="101"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="95"/>
       <c r="Y19" s="97"/>
       <c r="Z19" s="41"/>
@@ -4033,12 +4223,12 @@
       <c r="BB19" s="104"/>
       <c r="BC19" s="30"/>
     </row>
-    <row r="20" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="20" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B20" s="31">
         <v>3.3</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="115" t="s">
@@ -4047,23 +4237,23 @@
       <c r="F20" s="64">
         <v>45561</v>
       </c>
-      <c r="G20" s="64">
-        <v>45562</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="33" t="e">
         <f>NETWORKDAYS(F20,G20)</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="66">
-        <v>1</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0.5</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="131"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="37"/>
+      <c r="P20" s="45"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="101"/>
@@ -4104,44 +4294,44 @@
       <c r="BB20" s="104"/>
       <c r="BC20" s="30"/>
     </row>
-    <row r="21" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B21" s="31">
         <v>3.4</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="32"/>
+      <c r="C21" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="78"/>
       <c r="E21" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="64">
-        <v>45561</v>
+        <v>108</v>
+      </c>
+      <c r="F21" s="125" t="s">
+        <v>83</v>
       </c>
       <c r="G21" s="125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H21" s="33" t="e">
         <f>NETWORKDAYS(F21,G21)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I21" s="65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="39"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="101"/>
       <c r="O21" s="92"/>
-      <c r="P21" s="45"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
       <c r="S21" s="101"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
       <c r="X21" s="95"/>
       <c r="Y21" s="97"/>
       <c r="Z21" s="41"/>
@@ -4175,7 +4365,7 @@
       <c r="BB21" s="104"/>
       <c r="BC21" s="30"/>
     </row>
-    <row r="22" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="22" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B22" s="73">
         <v>3.5</v>
       </c>
@@ -4186,10 +4376,10 @@
       <c r="E22" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="168" t="s">
+      <c r="F22" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="168" t="s">
+      <c r="G22" s="134" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="71" t="e">
@@ -4245,7 +4435,7 @@
       <c r="BB22" s="104"/>
       <c r="BC22" s="30"/>
     </row>
-    <row r="23" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1">
+    <row r="23" spans="2:55" s="61" customFormat="1" ht="21" customHeight="1">
       <c r="B23" s="55">
         <v>4</v>
       </c>
@@ -4305,8 +4495,7 @@
       <c r="BB23" s="58"/>
       <c r="BC23" s="54"/>
     </row>
-    <row r="24" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A24" s="117"/>
+    <row r="24" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B24" s="31">
         <v>4.0999999999999996</v>
       </c>
@@ -4375,7 +4564,7 @@
       <c r="BB24" s="103"/>
       <c r="BC24" s="30"/>
     </row>
-    <row r="25" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="85" t="s">
@@ -4389,7 +4578,7 @@
         <v>45565</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25:H75" si="2">NETWORKDAYS(F25,G25)</f>
+        <f t="shared" ref="H25:H63" si="2">NETWORKDAYS(F25,G25)</f>
         <v>1</v>
       </c>
       <c r="I25" s="65">
@@ -4442,7 +4631,7 @@
       <c r="BB25" s="103"/>
       <c r="BC25" s="30"/>
     </row>
-    <row r="26" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
       <c r="D26" s="85" t="s">
@@ -4509,7 +4698,7 @@
       <c r="BB26" s="103"/>
       <c r="BC26" s="30"/>
     </row>
-    <row r="27" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="85" t="s">
@@ -4576,7 +4765,7 @@
       <c r="BB27" s="103"/>
       <c r="BC27" s="30"/>
     </row>
-    <row r="28" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="85" t="s">
@@ -4590,7 +4779,7 @@
         <v>45565</v>
       </c>
       <c r="H28" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H28:H63" si="3">NETWORKDAYS(F28,G28)</f>
         <v>1</v>
       </c>
       <c r="I28" s="65">
@@ -4643,7 +4832,7 @@
       <c r="BB28" s="103"/>
       <c r="BC28" s="30"/>
     </row>
-    <row r="29" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="85" t="s">
@@ -4657,7 +4846,7 @@
         <v>45565</v>
       </c>
       <c r="H29" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I29" s="65">
@@ -4710,7 +4899,7 @@
       <c r="BB29" s="103"/>
       <c r="BC29" s="30"/>
     </row>
-    <row r="30" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="85" t="s">
@@ -4724,7 +4913,7 @@
         <v>45565</v>
       </c>
       <c r="H30" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I30" s="65">
@@ -4777,13 +4966,12 @@
       <c r="BB30" s="103"/>
       <c r="BC30" s="30"/>
     </row>
-    <row r="31" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="117"/>
+    <row r="31" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B31" s="31">
         <v>4.2</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="118"/>
@@ -4794,7 +4982,7 @@
         <v>45565</v>
       </c>
       <c r="H31" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I31" s="65">
@@ -4847,7 +5035,7 @@
       <c r="BB31" s="104"/>
       <c r="BC31" s="30"/>
     </row>
-    <row r="32" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B32" s="31"/>
       <c r="C32" s="32"/>
       <c r="D32" s="85" t="s">
@@ -4861,7 +5049,7 @@
         <v>45565</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I32" s="65">
@@ -4914,7 +5102,7 @@
       <c r="BB32" s="104"/>
       <c r="BC32" s="30"/>
     </row>
-    <row r="33" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="85" t="s">
@@ -4928,7 +5116,7 @@
         <v>45565</v>
       </c>
       <c r="H33" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I33" s="65">
@@ -4981,7 +5169,7 @@
       <c r="BB33" s="104"/>
       <c r="BC33" s="30"/>
     </row>
-    <row r="34" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="85" t="s">
@@ -4995,7 +5183,7 @@
         <v>45565</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I34" s="65">
@@ -5048,7 +5236,7 @@
       <c r="BB34" s="104"/>
       <c r="BC34" s="30"/>
     </row>
-    <row r="35" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B35" s="31"/>
       <c r="C35" s="32"/>
       <c r="D35" s="85" t="s">
@@ -5062,7 +5250,7 @@
         <v>45565</v>
       </c>
       <c r="H35" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I35" s="65">
@@ -5115,13 +5303,12 @@
       <c r="BB35" s="104"/>
       <c r="BC35" s="30"/>
     </row>
-    <row r="36" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="117"/>
+    <row r="36" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B36" s="31">
         <v>4.3</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="85"/>
       <c r="E36" s="118"/>
@@ -5132,7 +5319,7 @@
         <v>45565</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I36" s="65">
@@ -5185,7 +5372,7 @@
       <c r="BB36" s="104"/>
       <c r="BC36" s="30"/>
     </row>
-    <row r="37" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="85" t="s">
@@ -5199,7 +5386,7 @@
         <v>45565</v>
       </c>
       <c r="H37" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I37" s="65">
@@ -5252,7 +5439,7 @@
       <c r="BB37" s="104"/>
       <c r="BC37" s="30"/>
     </row>
-    <row r="38" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="85" t="s">
@@ -5266,7 +5453,7 @@
         <v>45565</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I38" s="65">
@@ -5319,7 +5506,7 @@
       <c r="BB38" s="104"/>
       <c r="BC38" s="30"/>
     </row>
-    <row r="39" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="39" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="85" t="s">
@@ -5333,7 +5520,7 @@
         <v>45565</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I39" s="65">
@@ -5386,7 +5573,7 @@
       <c r="BB39" s="104"/>
       <c r="BC39" s="30"/>
     </row>
-    <row r="40" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="40" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="85" t="s">
@@ -5400,7 +5587,7 @@
         <v>45565</v>
       </c>
       <c r="H40" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I40" s="65">
@@ -5453,7 +5640,7 @@
       <c r="BB40" s="104"/>
       <c r="BC40" s="30"/>
     </row>
-    <row r="41" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="41" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="85" t="s">
@@ -5467,7 +5654,7 @@
         <v>45565</v>
       </c>
       <c r="H41" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I41" s="65">
@@ -5520,7 +5707,7 @@
       <c r="BB41" s="104"/>
       <c r="BC41" s="30"/>
     </row>
-    <row r="42" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="42" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="85" t="s">
@@ -5534,7 +5721,7 @@
         <v>45565</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I42" s="65">
@@ -5587,7 +5774,7 @@
       <c r="BB42" s="104"/>
       <c r="BC42" s="30"/>
     </row>
-    <row r="43" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="43" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="85" t="s">
@@ -5601,7 +5788,7 @@
         <v>45565</v>
       </c>
       <c r="H43" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I43" s="65">
@@ -5654,7 +5841,7 @@
       <c r="BB43" s="104"/>
       <c r="BC43" s="30"/>
     </row>
-    <row r="44" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="44" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="85" t="s">
@@ -5668,7 +5855,7 @@
         <v>45565</v>
       </c>
       <c r="H44" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I44" s="65">
@@ -5721,7 +5908,7 @@
       <c r="BB44" s="104"/>
       <c r="BC44" s="30"/>
     </row>
-    <row r="45" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="45" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B45" s="31"/>
       <c r="C45" s="32"/>
       <c r="D45" s="85" t="s">
@@ -5735,7 +5922,7 @@
         <v>45565</v>
       </c>
       <c r="H45" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I45" s="65">
@@ -5788,12 +5975,12 @@
       <c r="BB45" s="104"/>
       <c r="BC45" s="30"/>
     </row>
-    <row r="46" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="46" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B46" s="31">
         <v>4.4000000000000004</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="85"/>
       <c r="E46" s="118"/>
@@ -5804,7 +5991,7 @@
         <v>45565</v>
       </c>
       <c r="H46" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I46" s="65">
@@ -5857,7 +6044,7 @@
       <c r="BB46" s="108"/>
       <c r="BC46" s="30"/>
     </row>
-    <row r="47" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="47" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="31"/>
       <c r="C47" s="32"/>
       <c r="D47" s="85" t="s">
@@ -5871,7 +6058,7 @@
         <v>45565</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" ref="H47" si="3">NETWORKDAYS(F47,G47)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I47" s="65">
@@ -5924,7 +6111,7 @@
       <c r="BB47" s="108"/>
       <c r="BC47" s="30"/>
     </row>
-    <row r="48" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B48" s="31"/>
       <c r="C48" s="32"/>
       <c r="D48" s="85" t="s">
@@ -5938,7 +6125,7 @@
         <v>45565</v>
       </c>
       <c r="H48" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I48" s="65">
@@ -5991,7 +6178,7 @@
       <c r="BB48" s="108"/>
       <c r="BC48" s="30"/>
     </row>
-    <row r="49" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
       <c r="D49" s="85" t="s">
@@ -6005,7 +6192,7 @@
         <v>45565</v>
       </c>
       <c r="H49" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I49" s="65">
@@ -6058,7 +6245,7 @@
       <c r="BB49" s="108"/>
       <c r="BC49" s="30"/>
     </row>
-    <row r="50" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
       <c r="D50" s="85" t="s">
@@ -6072,7 +6259,7 @@
         <v>45565</v>
       </c>
       <c r="H50" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I50" s="65">
@@ -6125,13 +6312,12 @@
       <c r="BB50" s="110"/>
       <c r="BC50" s="30"/>
     </row>
-    <row r="51" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="117"/>
+    <row r="51" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B51" s="31">
         <v>4.5</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="85"/>
       <c r="E51" s="118"/>
@@ -6142,7 +6328,7 @@
         <v>45565</v>
       </c>
       <c r="H51" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I51" s="65">
@@ -6195,7 +6381,7 @@
       <c r="BB51" s="110"/>
       <c r="BC51" s="30"/>
     </row>
-    <row r="52" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
       <c r="D52" s="85" t="s">
@@ -6209,7 +6395,7 @@
         <v>45565</v>
       </c>
       <c r="H52" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I52" s="65">
@@ -6262,7 +6448,7 @@
       <c r="BB52" s="110"/>
       <c r="BC52" s="30"/>
     </row>
-    <row r="53" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="85" t="s">
@@ -6276,7 +6462,7 @@
         <v>45565</v>
       </c>
       <c r="H53" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I53" s="65">
@@ -6329,7 +6515,7 @@
       <c r="BB53" s="110"/>
       <c r="BC53" s="30"/>
     </row>
-    <row r="54" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
       <c r="D54" s="85" t="s">
@@ -6343,7 +6529,7 @@
         <v>45565</v>
       </c>
       <c r="H54" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I54" s="65">
@@ -6396,13 +6582,12 @@
       <c r="BB54" s="110"/>
       <c r="BC54" s="30"/>
     </row>
-    <row r="55" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A55" s="120"/>
+    <row r="55" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B55" s="31">
         <v>4.5999999999999996</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="85"/>
       <c r="E55" s="118"/>
@@ -6466,8 +6651,7 @@
       <c r="BB55" s="110"/>
       <c r="BC55" s="30"/>
     </row>
-    <row r="56" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A56" s="120"/>
+    <row r="56" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B56" s="31"/>
       <c r="C56" s="32"/>
       <c r="D56" s="85" t="s">
@@ -6534,7 +6718,7 @@
       <c r="BB56" s="110"/>
       <c r="BC56" s="30"/>
     </row>
-    <row r="57" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
       <c r="D57" s="85" t="s">
@@ -6601,7 +6785,7 @@
       <c r="BB57" s="110"/>
       <c r="BC57" s="30"/>
     </row>
-    <row r="58" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
       <c r="D58" s="85" t="s">
@@ -6668,7 +6852,7 @@
       <c r="BB58" s="108"/>
       <c r="BC58" s="30"/>
     </row>
-    <row r="59" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
       <c r="D59" s="85" t="s">
@@ -6735,12 +6919,12 @@
       <c r="BB59" s="108"/>
       <c r="BC59" s="30"/>
     </row>
-    <row r="60" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B60" s="31">
         <v>4.7</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="118"/>
       <c r="E60" s="64"/>
@@ -6804,11 +6988,11 @@
       <c r="BB60" s="110"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
       <c r="D61" s="118" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="64">
@@ -6818,7 +7002,7 @@
         <v>45565</v>
       </c>
       <c r="H61" s="33">
-        <f t="shared" ref="H61" si="5">NETWORKDAYS(F61,G61)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I61" s="65">
@@ -6871,7 +7055,7 @@
       <c r="BB61" s="110"/>
       <c r="BC61" s="30"/>
     </row>
-    <row r="62" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
       <c r="D62" s="118" t="s">
@@ -6938,7 +7122,7 @@
       <c r="BB62" s="110"/>
       <c r="BC62" s="30"/>
     </row>
-    <row r="63" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="63" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
       <c r="D63" s="118" t="s">
@@ -7005,14 +7189,15 @@
       <c r="BB63" s="110"/>
       <c r="BC63" s="30"/>
     </row>
-    <row r="64" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="64" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="117"/>
       <c r="B64" s="31">
         <v>4.8</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="85"/>
+        <v>115</v>
+      </c>
+      <c r="D64" s="32"/>
       <c r="E64" s="118"/>
       <c r="F64" s="64">
         <v>45565</v>
@@ -7021,10 +7206,10 @@
         <v>45565</v>
       </c>
       <c r="H64" s="33">
-        <f t="shared" ref="H64:H67" si="6">NETWORKDAYS(F64,G64)</f>
+        <f>NETWORKDAYS(F64,G64)</f>
         <v>1</v>
       </c>
-      <c r="I64" s="128">
+      <c r="I64" s="65">
         <v>0</v>
       </c>
       <c r="J64" s="34"/>
@@ -7042,43 +7227,43 @@
       <c r="V64" s="46"/>
       <c r="W64" s="46"/>
       <c r="X64" s="103"/>
-      <c r="Y64" s="106"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="106"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="110"/>
-      <c r="AI64" s="106"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="110"/>
-      <c r="AN64" s="106"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="49"/>
-      <c r="AQ64" s="49"/>
-      <c r="AR64" s="110"/>
-      <c r="AS64" s="106"/>
-      <c r="AT64" s="49"/>
-      <c r="AU64" s="49"/>
-      <c r="AV64" s="49"/>
-      <c r="AW64" s="110"/>
-      <c r="AX64" s="106"/>
-      <c r="AY64" s="49"/>
-      <c r="AZ64" s="49"/>
-      <c r="BA64" s="49"/>
-      <c r="BB64" s="110"/>
+      <c r="Y64" s="98"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="103"/>
+      <c r="AD64" s="105"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="108"/>
+      <c r="AI64" s="98"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="46"/>
+      <c r="AL64" s="46"/>
+      <c r="AM64" s="103"/>
+      <c r="AN64" s="98"/>
+      <c r="AO64" s="46"/>
+      <c r="AP64" s="46"/>
+      <c r="AQ64" s="46"/>
+      <c r="AR64" s="103"/>
+      <c r="AS64" s="111"/>
+      <c r="AT64" s="48"/>
+      <c r="AU64" s="48"/>
+      <c r="AV64" s="48"/>
+      <c r="AW64" s="113"/>
+      <c r="AX64" s="98"/>
+      <c r="AY64" s="46"/>
+      <c r="AZ64" s="46"/>
+      <c r="BA64" s="46"/>
+      <c r="BB64" s="103"/>
       <c r="BC64" s="30"/>
     </row>
-    <row r="65" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
       <c r="D65" s="85" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E65" s="118"/>
       <c r="F65" s="64">
@@ -7088,10 +7273,10 @@
         <v>45565</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H65:H115" si="5">NETWORKDAYS(F65,G65)</f>
         <v>1</v>
       </c>
-      <c r="I65" s="128">
+      <c r="I65" s="65">
         <v>0</v>
       </c>
       <c r="J65" s="34"/>
@@ -7109,43 +7294,43 @@
       <c r="V65" s="46"/>
       <c r="W65" s="46"/>
       <c r="X65" s="103"/>
-      <c r="Y65" s="106"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="110"/>
-      <c r="AI65" s="106"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="49"/>
-      <c r="AL65" s="49"/>
-      <c r="AM65" s="110"/>
-      <c r="AN65" s="106"/>
-      <c r="AO65" s="49"/>
-      <c r="AP65" s="49"/>
-      <c r="AQ65" s="49"/>
-      <c r="AR65" s="110"/>
-      <c r="AS65" s="106"/>
-      <c r="AT65" s="49"/>
-      <c r="AU65" s="49"/>
-      <c r="AV65" s="49"/>
-      <c r="AW65" s="110"/>
-      <c r="AX65" s="106"/>
-      <c r="AY65" s="49"/>
-      <c r="AZ65" s="49"/>
-      <c r="BA65" s="49"/>
-      <c r="BB65" s="110"/>
+      <c r="Y65" s="98"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="103"/>
+      <c r="AD65" s="105"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="108"/>
+      <c r="AI65" s="98"/>
+      <c r="AJ65" s="46"/>
+      <c r="AK65" s="46"/>
+      <c r="AL65" s="46"/>
+      <c r="AM65" s="103"/>
+      <c r="AN65" s="98"/>
+      <c r="AO65" s="46"/>
+      <c r="AP65" s="46"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="103"/>
+      <c r="AS65" s="111"/>
+      <c r="AT65" s="48"/>
+      <c r="AU65" s="48"/>
+      <c r="AV65" s="48"/>
+      <c r="AW65" s="113"/>
+      <c r="AX65" s="98"/>
+      <c r="AY65" s="46"/>
+      <c r="AZ65" s="46"/>
+      <c r="BA65" s="46"/>
+      <c r="BB65" s="103"/>
       <c r="BC65" s="30"/>
     </row>
-    <row r="66" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
       <c r="D66" s="85" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E66" s="118"/>
       <c r="F66" s="64">
@@ -7155,10 +7340,10 @@
         <v>45565</v>
       </c>
       <c r="H66" s="33">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(F66,G66)</f>
         <v>1</v>
       </c>
-      <c r="I66" s="128">
+      <c r="I66" s="65">
         <v>0</v>
       </c>
       <c r="J66" s="34"/>
@@ -7176,43 +7361,43 @@
       <c r="V66" s="46"/>
       <c r="W66" s="46"/>
       <c r="X66" s="103"/>
-      <c r="Y66" s="106"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="110"/>
-      <c r="AD66" s="106"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="110"/>
-      <c r="AI66" s="106"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="49"/>
-      <c r="AL66" s="49"/>
-      <c r="AM66" s="110"/>
-      <c r="AN66" s="106"/>
-      <c r="AO66" s="49"/>
-      <c r="AP66" s="49"/>
-      <c r="AQ66" s="49"/>
-      <c r="AR66" s="110"/>
-      <c r="AS66" s="106"/>
-      <c r="AT66" s="49"/>
-      <c r="AU66" s="49"/>
-      <c r="AV66" s="49"/>
-      <c r="AW66" s="110"/>
-      <c r="AX66" s="106"/>
-      <c r="AY66" s="49"/>
-      <c r="AZ66" s="49"/>
-      <c r="BA66" s="49"/>
-      <c r="BB66" s="110"/>
+      <c r="Y66" s="98"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="103"/>
+      <c r="AD66" s="105"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="108"/>
+      <c r="AI66" s="98"/>
+      <c r="AJ66" s="46"/>
+      <c r="AK66" s="46"/>
+      <c r="AL66" s="46"/>
+      <c r="AM66" s="103"/>
+      <c r="AN66" s="98"/>
+      <c r="AO66" s="46"/>
+      <c r="AP66" s="46"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="103"/>
+      <c r="AS66" s="111"/>
+      <c r="AT66" s="48"/>
+      <c r="AU66" s="48"/>
+      <c r="AV66" s="48"/>
+      <c r="AW66" s="113"/>
+      <c r="AX66" s="98"/>
+      <c r="AY66" s="46"/>
+      <c r="AZ66" s="46"/>
+      <c r="BA66" s="46"/>
+      <c r="BB66" s="103"/>
       <c r="BC66" s="30"/>
     </row>
-    <row r="67" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
       <c r="D67" s="85" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="64">
@@ -7222,7 +7407,7 @@
         <v>45565</v>
       </c>
       <c r="H67" s="33">
-        <f t="shared" si="6"/>
+        <f>NETWORKDAYS(F67,G67)</f>
         <v>1</v>
       </c>
       <c r="I67" s="65">
@@ -7243,46 +7428,44 @@
       <c r="V67" s="46"/>
       <c r="W67" s="46"/>
       <c r="X67" s="103"/>
-      <c r="Y67" s="105"/>
-      <c r="Z67" s="47"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="108"/>
+      <c r="Y67" s="98"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="103"/>
       <c r="AD67" s="105"/>
       <c r="AE67" s="47"/>
       <c r="AF67" s="47"/>
       <c r="AG67" s="47"/>
       <c r="AH67" s="108"/>
-      <c r="AI67" s="105"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="47"/>
-      <c r="AL67" s="47"/>
-      <c r="AM67" s="108"/>
-      <c r="AN67" s="105"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
-      <c r="AQ67" s="47"/>
-      <c r="AR67" s="108"/>
-      <c r="AS67" s="105"/>
-      <c r="AT67" s="47"/>
-      <c r="AU67" s="47"/>
-      <c r="AV67" s="47"/>
-      <c r="AW67" s="108"/>
-      <c r="AX67" s="105"/>
-      <c r="AY67" s="47"/>
-      <c r="AZ67" s="47"/>
-      <c r="BA67" s="47"/>
-      <c r="BB67" s="108"/>
+      <c r="AI67" s="98"/>
+      <c r="AJ67" s="46"/>
+      <c r="AK67" s="46"/>
+      <c r="AL67" s="46"/>
+      <c r="AM67" s="103"/>
+      <c r="AN67" s="98"/>
+      <c r="AO67" s="46"/>
+      <c r="AP67" s="46"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="103"/>
+      <c r="AS67" s="111"/>
+      <c r="AT67" s="48"/>
+      <c r="AU67" s="48"/>
+      <c r="AV67" s="48"/>
+      <c r="AW67" s="113"/>
+      <c r="AX67" s="98"/>
+      <c r="AY67" s="46"/>
+      <c r="AZ67" s="46"/>
+      <c r="BA67" s="46"/>
+      <c r="BB67" s="103"/>
       <c r="BC67" s="30"/>
     </row>
-    <row r="68" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B68" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="85"/>
+    <row r="68" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="85" t="s">
+        <v>95</v>
+      </c>
       <c r="E68" s="118"/>
       <c r="F68" s="64">
         <v>45565</v>
@@ -7291,10 +7474,10 @@
         <v>45565</v>
       </c>
       <c r="H68" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I68" s="128">
+      <c r="I68" s="65">
         <v>0</v>
       </c>
       <c r="J68" s="34"/>
@@ -7312,43 +7495,43 @@
       <c r="V68" s="46"/>
       <c r="W68" s="46"/>
       <c r="X68" s="103"/>
-      <c r="Y68" s="106"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="106"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="106"/>
-      <c r="AJ68" s="49"/>
-      <c r="AK68" s="49"/>
-      <c r="AL68" s="49"/>
-      <c r="AM68" s="110"/>
-      <c r="AN68" s="106"/>
-      <c r="AO68" s="49"/>
-      <c r="AP68" s="49"/>
-      <c r="AQ68" s="49"/>
-      <c r="AR68" s="110"/>
-      <c r="AS68" s="106"/>
-      <c r="AT68" s="49"/>
-      <c r="AU68" s="49"/>
-      <c r="AV68" s="49"/>
-      <c r="AW68" s="110"/>
-      <c r="AX68" s="106"/>
-      <c r="AY68" s="49"/>
-      <c r="AZ68" s="49"/>
-      <c r="BA68" s="49"/>
-      <c r="BB68" s="110"/>
+      <c r="Y68" s="98"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46"/>
+      <c r="AC68" s="103"/>
+      <c r="AD68" s="105"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+      <c r="AH68" s="108"/>
+      <c r="AI68" s="98"/>
+      <c r="AJ68" s="46"/>
+      <c r="AK68" s="46"/>
+      <c r="AL68" s="46"/>
+      <c r="AM68" s="103"/>
+      <c r="AN68" s="98"/>
+      <c r="AO68" s="46"/>
+      <c r="AP68" s="46"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="103"/>
+      <c r="AS68" s="111"/>
+      <c r="AT68" s="48"/>
+      <c r="AU68" s="48"/>
+      <c r="AV68" s="48"/>
+      <c r="AW68" s="113"/>
+      <c r="AX68" s="98"/>
+      <c r="AY68" s="46"/>
+      <c r="AZ68" s="46"/>
+      <c r="BA68" s="46"/>
+      <c r="BB68" s="103"/>
       <c r="BC68" s="30"/>
     </row>
-    <row r="69" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B69" s="31"/>
       <c r="C69" s="32"/>
       <c r="D69" s="85" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="64">
@@ -7358,10 +7541,10 @@
         <v>45565</v>
       </c>
       <c r="H69" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I69" s="128">
+      <c r="I69" s="65">
         <v>0</v>
       </c>
       <c r="J69" s="34"/>
@@ -7379,43 +7562,43 @@
       <c r="V69" s="46"/>
       <c r="W69" s="46"/>
       <c r="X69" s="103"/>
-      <c r="Y69" s="106"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="106"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="110"/>
-      <c r="AI69" s="106"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="49"/>
-      <c r="AM69" s="110"/>
-      <c r="AN69" s="106"/>
-      <c r="AO69" s="49"/>
-      <c r="AP69" s="49"/>
-      <c r="AQ69" s="49"/>
-      <c r="AR69" s="110"/>
-      <c r="AS69" s="106"/>
-      <c r="AT69" s="49"/>
-      <c r="AU69" s="49"/>
-      <c r="AV69" s="49"/>
-      <c r="AW69" s="110"/>
-      <c r="AX69" s="106"/>
-      <c r="AY69" s="49"/>
-      <c r="AZ69" s="49"/>
-      <c r="BA69" s="49"/>
-      <c r="BB69" s="110"/>
+      <c r="Y69" s="98"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="103"/>
+      <c r="AD69" s="105"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="108"/>
+      <c r="AI69" s="98"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="103"/>
+      <c r="AN69" s="98"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="46"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="103"/>
+      <c r="AS69" s="111"/>
+      <c r="AT69" s="48"/>
+      <c r="AU69" s="48"/>
+      <c r="AV69" s="48"/>
+      <c r="AW69" s="113"/>
+      <c r="AX69" s="98"/>
+      <c r="AY69" s="46"/>
+      <c r="AZ69" s="46"/>
+      <c r="BA69" s="46"/>
+      <c r="BB69" s="103"/>
       <c r="BC69" s="30"/>
     </row>
-    <row r="70" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
       <c r="D70" s="85" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="64">
@@ -7425,10 +7608,10 @@
         <v>45565</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I70" s="128">
+      <c r="I70" s="65">
         <v>0</v>
       </c>
       <c r="J70" s="34"/>
@@ -7446,44 +7629,47 @@
       <c r="V70" s="46"/>
       <c r="W70" s="46"/>
       <c r="X70" s="103"/>
-      <c r="Y70" s="106"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="106"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="110"/>
-      <c r="AI70" s="106"/>
-      <c r="AJ70" s="49"/>
-      <c r="AK70" s="49"/>
-      <c r="AL70" s="49"/>
-      <c r="AM70" s="110"/>
-      <c r="AN70" s="106"/>
-      <c r="AO70" s="49"/>
-      <c r="AP70" s="49"/>
-      <c r="AQ70" s="49"/>
-      <c r="AR70" s="110"/>
-      <c r="AS70" s="106"/>
-      <c r="AT70" s="49"/>
-      <c r="AU70" s="49"/>
-      <c r="AV70" s="49"/>
-      <c r="AW70" s="110"/>
-      <c r="AX70" s="106"/>
-      <c r="AY70" s="49"/>
-      <c r="AZ70" s="49"/>
-      <c r="BA70" s="49"/>
-      <c r="BB70" s="110"/>
+      <c r="Y70" s="98"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="103"/>
+      <c r="AD70" s="105"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="108"/>
+      <c r="AI70" s="98"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="103"/>
+      <c r="AN70" s="98"/>
+      <c r="AO70" s="46"/>
+      <c r="AP70" s="46"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="103"/>
+      <c r="AS70" s="111"/>
+      <c r="AT70" s="48"/>
+      <c r="AU70" s="48"/>
+      <c r="AV70" s="48"/>
+      <c r="AW70" s="113"/>
+      <c r="AX70" s="98"/>
+      <c r="AY70" s="46"/>
+      <c r="AZ70" s="46"/>
+      <c r="BA70" s="46"/>
+      <c r="BB70" s="103"/>
       <c r="BC70" s="30"/>
     </row>
-    <row r="71" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="85" t="s">
-        <v>73</v>
-      </c>
+    <row r="71" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="117"/>
+      <c r="B71" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="85"/>
       <c r="E71" s="118"/>
       <c r="F71" s="64">
         <v>45565</v>
@@ -7492,67 +7678,65 @@
         <v>45565</v>
       </c>
       <c r="H71" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I71" s="128">
+      <c r="I71" s="65">
         <v>0</v>
       </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="94"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="95"/>
       <c r="O71" s="91"/>
       <c r="P71" s="44"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="44"/>
       <c r="S71" s="100"/>
-      <c r="T71" s="98"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
-      <c r="X71" s="103"/>
-      <c r="Y71" s="105"/>
-      <c r="Z71" s="47"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="108"/>
-      <c r="AD71" s="105"/>
-      <c r="AE71" s="47"/>
-      <c r="AF71" s="47"/>
-      <c r="AG71" s="47"/>
-      <c r="AH71" s="108"/>
-      <c r="AI71" s="105"/>
-      <c r="AJ71" s="47"/>
-      <c r="AK71" s="47"/>
-      <c r="AL71" s="47"/>
-      <c r="AM71" s="108"/>
-      <c r="AN71" s="105"/>
-      <c r="AO71" s="47"/>
-      <c r="AP71" s="47"/>
-      <c r="AQ71" s="47"/>
-      <c r="AR71" s="108"/>
-      <c r="AS71" s="105"/>
-      <c r="AT71" s="47"/>
-      <c r="AU71" s="47"/>
-      <c r="AV71" s="47"/>
-      <c r="AW71" s="108"/>
-      <c r="AX71" s="105"/>
-      <c r="AY71" s="47"/>
-      <c r="AZ71" s="47"/>
-      <c r="BA71" s="47"/>
-      <c r="BB71" s="108"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="104"/>
+      <c r="AD71" s="106"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="110"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="43"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="104"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
+      <c r="AQ71" s="43"/>
+      <c r="AR71" s="104"/>
+      <c r="AS71" s="112"/>
+      <c r="AT71" s="50"/>
+      <c r="AU71" s="50"/>
+      <c r="AV71" s="50"/>
+      <c r="AW71" s="114"/>
+      <c r="AX71" s="99"/>
+      <c r="AY71" s="43"/>
+      <c r="AZ71" s="43"/>
+      <c r="BA71" s="43"/>
+      <c r="BB71" s="104"/>
       <c r="BC71" s="30"/>
     </row>
-    <row r="72" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B72" s="124">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="85"/>
+    <row r="72" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="85" t="s">
+        <v>88</v>
+      </c>
       <c r="E72" s="118"/>
       <c r="F72" s="64">
         <v>45565</v>
@@ -7561,64 +7745,64 @@
         <v>45565</v>
       </c>
       <c r="H72" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I72" s="128">
+      <c r="I72" s="65">
         <v>0</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="94"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="95"/>
       <c r="O72" s="91"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="44"/>
       <c r="S72" s="100"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
-      <c r="X72" s="103"/>
-      <c r="Y72" s="106"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="110"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="104"/>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="104"/>
       <c r="AD72" s="106"/>
       <c r="AE72" s="49"/>
       <c r="AF72" s="49"/>
       <c r="AG72" s="49"/>
       <c r="AH72" s="110"/>
-      <c r="AI72" s="106"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="49"/>
-      <c r="AL72" s="49"/>
-      <c r="AM72" s="110"/>
-      <c r="AN72" s="106"/>
-      <c r="AO72" s="49"/>
-      <c r="AP72" s="49"/>
-      <c r="AQ72" s="49"/>
-      <c r="AR72" s="110"/>
-      <c r="AS72" s="106"/>
-      <c r="AT72" s="49"/>
-      <c r="AU72" s="49"/>
-      <c r="AV72" s="49"/>
-      <c r="AW72" s="110"/>
-      <c r="AX72" s="106"/>
-      <c r="AY72" s="49"/>
-      <c r="AZ72" s="49"/>
-      <c r="BA72" s="49"/>
-      <c r="BB72" s="110"/>
+      <c r="AI72" s="99"/>
+      <c r="AJ72" s="43"/>
+      <c r="AK72" s="43"/>
+      <c r="AL72" s="43"/>
+      <c r="AM72" s="104"/>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="43"/>
+      <c r="AP72" s="43"/>
+      <c r="AQ72" s="43"/>
+      <c r="AR72" s="104"/>
+      <c r="AS72" s="112"/>
+      <c r="AT72" s="50"/>
+      <c r="AU72" s="50"/>
+      <c r="AV72" s="50"/>
+      <c r="AW72" s="114"/>
+      <c r="AX72" s="99"/>
+      <c r="AY72" s="43"/>
+      <c r="AZ72" s="43"/>
+      <c r="BA72" s="43"/>
+      <c r="BB72" s="104"/>
       <c r="BC72" s="30"/>
     </row>
-    <row r="73" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="73" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B73" s="31"/>
       <c r="C73" s="32"/>
       <c r="D73" s="85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E73" s="118"/>
       <c r="F73" s="64">
@@ -7628,64 +7812,64 @@
         <v>45565</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" ref="H73" si="7">NETWORKDAYS(F73,G73)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I73" s="128">
+      <c r="I73" s="65">
         <v>0</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="94"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="95"/>
       <c r="O73" s="91"/>
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
       <c r="R73" s="44"/>
       <c r="S73" s="100"/>
-      <c r="T73" s="98"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="103"/>
-      <c r="Y73" s="106"/>
-      <c r="Z73" s="49"/>
-      <c r="AA73" s="49"/>
-      <c r="AB73" s="49"/>
-      <c r="AC73" s="110"/>
+      <c r="T73" s="99"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="104"/>
+      <c r="Y73" s="99"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="104"/>
       <c r="AD73" s="106"/>
       <c r="AE73" s="49"/>
       <c r="AF73" s="49"/>
       <c r="AG73" s="49"/>
       <c r="AH73" s="110"/>
-      <c r="AI73" s="106"/>
-      <c r="AJ73" s="49"/>
-      <c r="AK73" s="49"/>
-      <c r="AL73" s="49"/>
-      <c r="AM73" s="110"/>
-      <c r="AN73" s="106"/>
-      <c r="AO73" s="49"/>
-      <c r="AP73" s="49"/>
-      <c r="AQ73" s="49"/>
-      <c r="AR73" s="110"/>
-      <c r="AS73" s="106"/>
-      <c r="AT73" s="49"/>
-      <c r="AU73" s="49"/>
-      <c r="AV73" s="49"/>
-      <c r="AW73" s="110"/>
-      <c r="AX73" s="106"/>
-      <c r="AY73" s="49"/>
-      <c r="AZ73" s="49"/>
-      <c r="BA73" s="49"/>
-      <c r="BB73" s="110"/>
+      <c r="AI73" s="99"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="104"/>
+      <c r="AN73" s="99"/>
+      <c r="AO73" s="43"/>
+      <c r="AP73" s="43"/>
+      <c r="AQ73" s="43"/>
+      <c r="AR73" s="104"/>
+      <c r="AS73" s="112"/>
+      <c r="AT73" s="50"/>
+      <c r="AU73" s="50"/>
+      <c r="AV73" s="50"/>
+      <c r="AW73" s="114"/>
+      <c r="AX73" s="99"/>
+      <c r="AY73" s="43"/>
+      <c r="AZ73" s="43"/>
+      <c r="BA73" s="43"/>
+      <c r="BB73" s="104"/>
       <c r="BC73" s="30"/>
     </row>
-    <row r="74" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="86"/>
+    <row r="74" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B74" s="31"/>
       <c r="C74" s="32"/>
       <c r="D74" s="85" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E74" s="118"/>
       <c r="F74" s="64">
@@ -7695,64 +7879,64 @@
         <v>45565</v>
       </c>
       <c r="H74" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I74" s="128">
+      <c r="I74" s="65">
         <v>0</v>
       </c>
-      <c r="J74" s="34"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="94"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="95"/>
       <c r="O74" s="91"/>
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
       <c r="R74" s="44"/>
       <c r="S74" s="100"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="X74" s="103"/>
-      <c r="Y74" s="106"/>
-      <c r="Z74" s="49"/>
-      <c r="AA74" s="49"/>
-      <c r="AB74" s="49"/>
-      <c r="AC74" s="110"/>
+      <c r="T74" s="99"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="104"/>
+      <c r="Y74" s="99"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="104"/>
       <c r="AD74" s="106"/>
       <c r="AE74" s="49"/>
       <c r="AF74" s="49"/>
       <c r="AG74" s="49"/>
       <c r="AH74" s="110"/>
-      <c r="AI74" s="106"/>
-      <c r="AJ74" s="49"/>
-      <c r="AK74" s="49"/>
-      <c r="AL74" s="49"/>
-      <c r="AM74" s="110"/>
-      <c r="AN74" s="106"/>
-      <c r="AO74" s="49"/>
-      <c r="AP74" s="49"/>
-      <c r="AQ74" s="49"/>
-      <c r="AR74" s="110"/>
-      <c r="AS74" s="106"/>
-      <c r="AT74" s="49"/>
-      <c r="AU74" s="49"/>
-      <c r="AV74" s="49"/>
-      <c r="AW74" s="110"/>
-      <c r="AX74" s="106"/>
-      <c r="AY74" s="49"/>
-      <c r="AZ74" s="49"/>
-      <c r="BA74" s="49"/>
-      <c r="BB74" s="110"/>
+      <c r="AI74" s="99"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="43"/>
+      <c r="AM74" s="104"/>
+      <c r="AN74" s="99"/>
+      <c r="AO74" s="43"/>
+      <c r="AP74" s="43"/>
+      <c r="AQ74" s="43"/>
+      <c r="AR74" s="104"/>
+      <c r="AS74" s="112"/>
+      <c r="AT74" s="50"/>
+      <c r="AU74" s="50"/>
+      <c r="AV74" s="50"/>
+      <c r="AW74" s="114"/>
+      <c r="AX74" s="99"/>
+      <c r="AY74" s="43"/>
+      <c r="AZ74" s="43"/>
+      <c r="BA74" s="43"/>
+      <c r="BB74" s="104"/>
       <c r="BC74" s="30"/>
     </row>
-    <row r="75" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B75" s="86"/>
+    <row r="75" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B75" s="31"/>
       <c r="C75" s="32"/>
       <c r="D75" s="85" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="64">
@@ -7762,65 +7946,66 @@
         <v>45565</v>
       </c>
       <c r="H75" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I75" s="128">
+      <c r="I75" s="65">
         <v>0</v>
       </c>
-      <c r="J75" s="34"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="94"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="95"/>
       <c r="O75" s="91"/>
       <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
       <c r="R75" s="44"/>
       <c r="S75" s="100"/>
-      <c r="T75" s="98"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
-      <c r="X75" s="103"/>
-      <c r="Y75" s="106"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="49"/>
-      <c r="AC75" s="110"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="104"/>
+      <c r="Y75" s="99"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="104"/>
       <c r="AD75" s="106"/>
       <c r="AE75" s="49"/>
       <c r="AF75" s="49"/>
       <c r="AG75" s="49"/>
       <c r="AH75" s="110"/>
-      <c r="AI75" s="106"/>
-      <c r="AJ75" s="49"/>
-      <c r="AK75" s="49"/>
-      <c r="AL75" s="49"/>
-      <c r="AM75" s="110"/>
-      <c r="AN75" s="106"/>
-      <c r="AO75" s="49"/>
-      <c r="AP75" s="49"/>
-      <c r="AQ75" s="49"/>
-      <c r="AR75" s="110"/>
-      <c r="AS75" s="106"/>
-      <c r="AT75" s="49"/>
-      <c r="AU75" s="49"/>
-      <c r="AV75" s="49"/>
-      <c r="AW75" s="110"/>
-      <c r="AX75" s="106"/>
-      <c r="AY75" s="49"/>
-      <c r="AZ75" s="49"/>
-      <c r="BA75" s="49"/>
-      <c r="BB75" s="110"/>
+      <c r="AI75" s="99"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="104"/>
+      <c r="AN75" s="99"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
+      <c r="AQ75" s="43"/>
+      <c r="AR75" s="104"/>
+      <c r="AS75" s="112"/>
+      <c r="AT75" s="50"/>
+      <c r="AU75" s="50"/>
+      <c r="AV75" s="50"/>
+      <c r="AW75" s="114"/>
+      <c r="AX75" s="99"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="104"/>
       <c r="BC75" s="30"/>
     </row>
-    <row r="76" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B76" s="31">
-        <v>4.1100000000000003</v>
+    <row r="76" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A76" s="117"/>
+      <c r="B76" s="124">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D76" s="85"/>
       <c r="E76" s="118"/>
@@ -7831,64 +8016,64 @@
         <v>45565</v>
       </c>
       <c r="H76" s="33">
-        <f t="shared" ref="H76:H80" si="8">NETWORKDAYS(F76,G76)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I76" s="128">
+      <c r="I76" s="65">
         <v>0</v>
       </c>
-      <c r="J76" s="34"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="94"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="95"/>
       <c r="O76" s="91"/>
       <c r="P76" s="44"/>
       <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
       <c r="S76" s="100"/>
-      <c r="T76" s="98"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
-      <c r="X76" s="103"/>
-      <c r="Y76" s="106"/>
-      <c r="Z76" s="49"/>
-      <c r="AA76" s="49"/>
-      <c r="AB76" s="49"/>
-      <c r="AC76" s="110"/>
+      <c r="T76" s="99"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="104"/>
+      <c r="Y76" s="99"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="104"/>
       <c r="AD76" s="106"/>
       <c r="AE76" s="49"/>
       <c r="AF76" s="49"/>
       <c r="AG76" s="49"/>
       <c r="AH76" s="110"/>
-      <c r="AI76" s="106"/>
-      <c r="AJ76" s="49"/>
-      <c r="AK76" s="49"/>
-      <c r="AL76" s="49"/>
-      <c r="AM76" s="110"/>
-      <c r="AN76" s="106"/>
-      <c r="AO76" s="49"/>
-      <c r="AP76" s="49"/>
-      <c r="AQ76" s="49"/>
-      <c r="AR76" s="110"/>
-      <c r="AS76" s="106"/>
-      <c r="AT76" s="49"/>
-      <c r="AU76" s="49"/>
-      <c r="AV76" s="49"/>
-      <c r="AW76" s="110"/>
-      <c r="AX76" s="106"/>
-      <c r="AY76" s="49"/>
-      <c r="AZ76" s="49"/>
-      <c r="BA76" s="49"/>
-      <c r="BB76" s="110"/>
+      <c r="AI76" s="99"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+      <c r="AM76" s="104"/>
+      <c r="AN76" s="99"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AR76" s="104"/>
+      <c r="AS76" s="112"/>
+      <c r="AT76" s="50"/>
+      <c r="AU76" s="50"/>
+      <c r="AV76" s="50"/>
+      <c r="AW76" s="114"/>
+      <c r="AX76" s="99"/>
+      <c r="AY76" s="43"/>
+      <c r="AZ76" s="43"/>
+      <c r="BA76" s="43"/>
+      <c r="BB76" s="104"/>
       <c r="BC76" s="30"/>
     </row>
-    <row r="77" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B77" s="86"/>
+    <row r="77" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B77" s="31"/>
       <c r="C77" s="32"/>
       <c r="D77" s="85" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E77" s="118"/>
       <c r="F77" s="64">
@@ -7898,64 +8083,64 @@
         <v>45565</v>
       </c>
       <c r="H77" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I77" s="128">
+      <c r="I77" s="65">
         <v>0</v>
       </c>
-      <c r="J77" s="34"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="94"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="95"/>
       <c r="O77" s="91"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="44"/>
       <c r="R77" s="44"/>
       <c r="S77" s="100"/>
-      <c r="T77" s="98"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
-      <c r="X77" s="103"/>
-      <c r="Y77" s="106"/>
-      <c r="Z77" s="49"/>
-      <c r="AA77" s="49"/>
-      <c r="AB77" s="49"/>
-      <c r="AC77" s="110"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="104"/>
+      <c r="Y77" s="99"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="104"/>
       <c r="AD77" s="106"/>
       <c r="AE77" s="49"/>
       <c r="AF77" s="49"/>
       <c r="AG77" s="49"/>
       <c r="AH77" s="110"/>
-      <c r="AI77" s="106"/>
-      <c r="AJ77" s="49"/>
-      <c r="AK77" s="49"/>
-      <c r="AL77" s="49"/>
-      <c r="AM77" s="110"/>
-      <c r="AN77" s="106"/>
-      <c r="AO77" s="49"/>
-      <c r="AP77" s="49"/>
-      <c r="AQ77" s="49"/>
-      <c r="AR77" s="110"/>
-      <c r="AS77" s="106"/>
-      <c r="AT77" s="49"/>
-      <c r="AU77" s="49"/>
-      <c r="AV77" s="49"/>
-      <c r="AW77" s="110"/>
-      <c r="AX77" s="106"/>
-      <c r="AY77" s="49"/>
-      <c r="AZ77" s="49"/>
-      <c r="BA77" s="49"/>
-      <c r="BB77" s="110"/>
+      <c r="AI77" s="99"/>
+      <c r="AJ77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="43"/>
+      <c r="AM77" s="104"/>
+      <c r="AN77" s="99"/>
+      <c r="AO77" s="43"/>
+      <c r="AP77" s="43"/>
+      <c r="AQ77" s="43"/>
+      <c r="AR77" s="104"/>
+      <c r="AS77" s="112"/>
+      <c r="AT77" s="50"/>
+      <c r="AU77" s="50"/>
+      <c r="AV77" s="50"/>
+      <c r="AW77" s="114"/>
+      <c r="AX77" s="99"/>
+      <c r="AY77" s="43"/>
+      <c r="AZ77" s="43"/>
+      <c r="BA77" s="43"/>
+      <c r="BB77" s="104"/>
       <c r="BC77" s="30"/>
     </row>
-    <row r="78" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B78" s="86"/>
+    <row r="78" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B78" s="31"/>
       <c r="C78" s="32"/>
       <c r="D78" s="85" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E78" s="118"/>
       <c r="F78" s="64">
@@ -7965,64 +8150,64 @@
         <v>45565</v>
       </c>
       <c r="H78" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I78" s="128">
+      <c r="I78" s="65">
         <v>0</v>
       </c>
-      <c r="J78" s="34"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="94"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="95"/>
       <c r="O78" s="91"/>
       <c r="P78" s="44"/>
       <c r="Q78" s="44"/>
       <c r="R78" s="44"/>
       <c r="S78" s="100"/>
-      <c r="T78" s="98"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
-      <c r="X78" s="103"/>
-      <c r="Y78" s="106"/>
-      <c r="Z78" s="49"/>
-      <c r="AA78" s="49"/>
-      <c r="AB78" s="49"/>
-      <c r="AC78" s="110"/>
+      <c r="T78" s="99"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="104"/>
+      <c r="Y78" s="99"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="104"/>
       <c r="AD78" s="106"/>
       <c r="AE78" s="49"/>
       <c r="AF78" s="49"/>
       <c r="AG78" s="49"/>
       <c r="AH78" s="110"/>
-      <c r="AI78" s="106"/>
-      <c r="AJ78" s="49"/>
-      <c r="AK78" s="49"/>
-      <c r="AL78" s="49"/>
-      <c r="AM78" s="110"/>
-      <c r="AN78" s="106"/>
-      <c r="AO78" s="49"/>
-      <c r="AP78" s="49"/>
-      <c r="AQ78" s="49"/>
-      <c r="AR78" s="110"/>
-      <c r="AS78" s="106"/>
-      <c r="AT78" s="49"/>
-      <c r="AU78" s="49"/>
-      <c r="AV78" s="49"/>
-      <c r="AW78" s="110"/>
-      <c r="AX78" s="106"/>
-      <c r="AY78" s="49"/>
-      <c r="AZ78" s="49"/>
-      <c r="BA78" s="49"/>
-      <c r="BB78" s="110"/>
+      <c r="AI78" s="99"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+      <c r="AM78" s="104"/>
+      <c r="AN78" s="99"/>
+      <c r="AO78" s="43"/>
+      <c r="AP78" s="43"/>
+      <c r="AQ78" s="43"/>
+      <c r="AR78" s="104"/>
+      <c r="AS78" s="112"/>
+      <c r="AT78" s="50"/>
+      <c r="AU78" s="50"/>
+      <c r="AV78" s="50"/>
+      <c r="AW78" s="114"/>
+      <c r="AX78" s="99"/>
+      <c r="AY78" s="43"/>
+      <c r="AZ78" s="43"/>
+      <c r="BA78" s="43"/>
+      <c r="BB78" s="104"/>
       <c r="BC78" s="30"/>
     </row>
-    <row r="79" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B79" s="86"/>
+    <row r="79" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B79" s="31"/>
       <c r="C79" s="32"/>
       <c r="D79" s="85" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E79" s="118"/>
       <c r="F79" s="64">
@@ -8032,64 +8217,64 @@
         <v>45565</v>
       </c>
       <c r="H79" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I79" s="128">
+      <c r="I79" s="65">
         <v>0</v>
       </c>
-      <c r="J79" s="34"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="94"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="95"/>
       <c r="O79" s="91"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="44"/>
       <c r="R79" s="44"/>
       <c r="S79" s="100"/>
-      <c r="T79" s="98"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
-      <c r="X79" s="103"/>
-      <c r="Y79" s="106"/>
-      <c r="Z79" s="49"/>
-      <c r="AA79" s="49"/>
-      <c r="AB79" s="49"/>
-      <c r="AC79" s="110"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="104"/>
+      <c r="Y79" s="99"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="104"/>
       <c r="AD79" s="106"/>
       <c r="AE79" s="49"/>
       <c r="AF79" s="49"/>
       <c r="AG79" s="49"/>
       <c r="AH79" s="110"/>
-      <c r="AI79" s="106"/>
-      <c r="AJ79" s="49"/>
-      <c r="AK79" s="49"/>
-      <c r="AL79" s="49"/>
-      <c r="AM79" s="110"/>
-      <c r="AN79" s="106"/>
-      <c r="AO79" s="49"/>
-      <c r="AP79" s="49"/>
-      <c r="AQ79" s="49"/>
-      <c r="AR79" s="110"/>
-      <c r="AS79" s="106"/>
-      <c r="AT79" s="49"/>
-      <c r="AU79" s="49"/>
-      <c r="AV79" s="49"/>
-      <c r="AW79" s="110"/>
-      <c r="AX79" s="106"/>
-      <c r="AY79" s="49"/>
-      <c r="AZ79" s="49"/>
-      <c r="BA79" s="49"/>
-      <c r="BB79" s="110"/>
+      <c r="AI79" s="99"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+      <c r="AM79" s="104"/>
+      <c r="AN79" s="99"/>
+      <c r="AO79" s="43"/>
+      <c r="AP79" s="43"/>
+      <c r="AQ79" s="43"/>
+      <c r="AR79" s="104"/>
+      <c r="AS79" s="112"/>
+      <c r="AT79" s="50"/>
+      <c r="AU79" s="50"/>
+      <c r="AV79" s="50"/>
+      <c r="AW79" s="114"/>
+      <c r="AX79" s="99"/>
+      <c r="AY79" s="43"/>
+      <c r="AZ79" s="43"/>
+      <c r="BA79" s="43"/>
+      <c r="BB79" s="104"/>
       <c r="BC79" s="30"/>
     </row>
-    <row r="80" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B80" s="86"/>
+    <row r="80" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B80" s="31"/>
       <c r="C80" s="32"/>
       <c r="D80" s="85" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="64">
@@ -8099,67 +8284,65 @@
         <v>45565</v>
       </c>
       <c r="H80" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I80" s="128">
+      <c r="I80" s="65">
         <v>0</v>
       </c>
-      <c r="J80" s="34"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="94"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="95"/>
       <c r="O80" s="91"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
       <c r="S80" s="100"/>
-      <c r="T80" s="98"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
-      <c r="X80" s="103"/>
-      <c r="Y80" s="106"/>
-      <c r="Z80" s="49"/>
-      <c r="AA80" s="49"/>
-      <c r="AB80" s="49"/>
-      <c r="AC80" s="110"/>
+      <c r="T80" s="99"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="104"/>
+      <c r="Y80" s="99"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="104"/>
       <c r="AD80" s="106"/>
       <c r="AE80" s="49"/>
       <c r="AF80" s="49"/>
       <c r="AG80" s="49"/>
       <c r="AH80" s="110"/>
-      <c r="AI80" s="106"/>
-      <c r="AJ80" s="49"/>
-      <c r="AK80" s="49"/>
-      <c r="AL80" s="49"/>
-      <c r="AM80" s="110"/>
-      <c r="AN80" s="106"/>
-      <c r="AO80" s="49"/>
-      <c r="AP80" s="49"/>
-      <c r="AQ80" s="49"/>
-      <c r="AR80" s="110"/>
-      <c r="AS80" s="106"/>
-      <c r="AT80" s="49"/>
-      <c r="AU80" s="49"/>
-      <c r="AV80" s="49"/>
-      <c r="AW80" s="110"/>
-      <c r="AX80" s="106"/>
-      <c r="AY80" s="49"/>
-      <c r="AZ80" s="49"/>
-      <c r="BA80" s="49"/>
-      <c r="BB80" s="110"/>
+      <c r="AI80" s="99"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+      <c r="AM80" s="104"/>
+      <c r="AN80" s="99"/>
+      <c r="AO80" s="43"/>
+      <c r="AP80" s="43"/>
+      <c r="AQ80" s="43"/>
+      <c r="AR80" s="104"/>
+      <c r="AS80" s="112"/>
+      <c r="AT80" s="50"/>
+      <c r="AU80" s="50"/>
+      <c r="AV80" s="50"/>
+      <c r="AW80" s="114"/>
+      <c r="AX80" s="99"/>
+      <c r="AY80" s="43"/>
+      <c r="AZ80" s="43"/>
+      <c r="BA80" s="43"/>
+      <c r="BB80" s="104"/>
       <c r="BC80" s="30"/>
     </row>
-    <row r="81" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B81" s="31">
-        <v>4.12</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="85"/>
+    <row r="81" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="85" t="s">
+        <v>97</v>
+      </c>
       <c r="E81" s="118"/>
       <c r="F81" s="64">
         <v>45565</v>
@@ -8168,64 +8351,64 @@
         <v>45565</v>
       </c>
       <c r="H81" s="33">
-        <f t="shared" ref="H81:H84" si="9">NETWORKDAYS(F81,G81)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I81" s="128">
+      <c r="I81" s="65">
         <v>0</v>
       </c>
-      <c r="J81" s="34"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="94"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="95"/>
       <c r="O81" s="91"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="44"/>
       <c r="R81" s="44"/>
       <c r="S81" s="100"/>
-      <c r="T81" s="98"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
-      <c r="X81" s="103"/>
-      <c r="Y81" s="106"/>
-      <c r="Z81" s="49"/>
-      <c r="AA81" s="49"/>
-      <c r="AB81" s="49"/>
-      <c r="AC81" s="110"/>
+      <c r="T81" s="99"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="104"/>
+      <c r="Y81" s="99"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="104"/>
       <c r="AD81" s="106"/>
       <c r="AE81" s="49"/>
       <c r="AF81" s="49"/>
       <c r="AG81" s="49"/>
       <c r="AH81" s="110"/>
-      <c r="AI81" s="106"/>
-      <c r="AJ81" s="49"/>
-      <c r="AK81" s="49"/>
-      <c r="AL81" s="49"/>
-      <c r="AM81" s="110"/>
-      <c r="AN81" s="106"/>
-      <c r="AO81" s="49"/>
-      <c r="AP81" s="49"/>
-      <c r="AQ81" s="49"/>
-      <c r="AR81" s="110"/>
-      <c r="AS81" s="106"/>
-      <c r="AT81" s="49"/>
-      <c r="AU81" s="49"/>
-      <c r="AV81" s="49"/>
-      <c r="AW81" s="110"/>
-      <c r="AX81" s="106"/>
-      <c r="AY81" s="49"/>
-      <c r="AZ81" s="49"/>
-      <c r="BA81" s="49"/>
-      <c r="BB81" s="110"/>
+      <c r="AI81" s="99"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="43"/>
+      <c r="AM81" s="104"/>
+      <c r="AN81" s="99"/>
+      <c r="AO81" s="43"/>
+      <c r="AP81" s="43"/>
+      <c r="AQ81" s="43"/>
+      <c r="AR81" s="104"/>
+      <c r="AS81" s="112"/>
+      <c r="AT81" s="50"/>
+      <c r="AU81" s="50"/>
+      <c r="AV81" s="50"/>
+      <c r="AW81" s="114"/>
+      <c r="AX81" s="99"/>
+      <c r="AY81" s="43"/>
+      <c r="AZ81" s="43"/>
+      <c r="BA81" s="43"/>
+      <c r="BB81" s="104"/>
       <c r="BC81" s="30"/>
     </row>
-    <row r="82" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="82" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="85" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E82" s="118"/>
       <c r="F82" s="64">
@@ -8235,64 +8418,64 @@
         <v>45565</v>
       </c>
       <c r="H82" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I82" s="128">
+      <c r="I82" s="65">
         <v>0</v>
       </c>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="94"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="95"/>
       <c r="O82" s="91"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
       <c r="R82" s="44"/>
       <c r="S82" s="100"/>
-      <c r="T82" s="98"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="46"/>
-      <c r="X82" s="103"/>
-      <c r="Y82" s="106"/>
-      <c r="Z82" s="49"/>
-      <c r="AA82" s="49"/>
-      <c r="AB82" s="49"/>
-      <c r="AC82" s="110"/>
+      <c r="T82" s="99"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="99"/>
+      <c r="Z82" s="43"/>
+      <c r="AA82" s="43"/>
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="104"/>
       <c r="AD82" s="106"/>
       <c r="AE82" s="49"/>
       <c r="AF82" s="49"/>
       <c r="AG82" s="49"/>
       <c r="AH82" s="110"/>
-      <c r="AI82" s="106"/>
-      <c r="AJ82" s="49"/>
-      <c r="AK82" s="49"/>
-      <c r="AL82" s="49"/>
-      <c r="AM82" s="110"/>
-      <c r="AN82" s="106"/>
-      <c r="AO82" s="49"/>
-      <c r="AP82" s="49"/>
-      <c r="AQ82" s="49"/>
-      <c r="AR82" s="110"/>
-      <c r="AS82" s="106"/>
-      <c r="AT82" s="49"/>
-      <c r="AU82" s="49"/>
-      <c r="AV82" s="49"/>
-      <c r="AW82" s="110"/>
-      <c r="AX82" s="106"/>
-      <c r="AY82" s="49"/>
-      <c r="AZ82" s="49"/>
-      <c r="BA82" s="49"/>
-      <c r="BB82" s="110"/>
+      <c r="AI82" s="99"/>
+      <c r="AJ82" s="43"/>
+      <c r="AK82" s="43"/>
+      <c r="AL82" s="43"/>
+      <c r="AM82" s="104"/>
+      <c r="AN82" s="99"/>
+      <c r="AO82" s="43"/>
+      <c r="AP82" s="43"/>
+      <c r="AQ82" s="43"/>
+      <c r="AR82" s="104"/>
+      <c r="AS82" s="112"/>
+      <c r="AT82" s="50"/>
+      <c r="AU82" s="50"/>
+      <c r="AV82" s="50"/>
+      <c r="AW82" s="114"/>
+      <c r="AX82" s="99"/>
+      <c r="AY82" s="43"/>
+      <c r="AZ82" s="43"/>
+      <c r="BA82" s="43"/>
+      <c r="BB82" s="104"/>
       <c r="BC82" s="30"/>
     </row>
-    <row r="83" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B83" s="86"/>
+    <row r="83" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="85" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E83" s="118"/>
       <c r="F83" s="64">
@@ -8302,64 +8485,64 @@
         <v>45565</v>
       </c>
       <c r="H83" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I83" s="128">
+      <c r="I83" s="65">
         <v>0</v>
       </c>
-      <c r="J83" s="34"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="94"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="95"/>
       <c r="O83" s="91"/>
       <c r="P83" s="44"/>
       <c r="Q83" s="44"/>
       <c r="R83" s="44"/>
       <c r="S83" s="100"/>
-      <c r="T83" s="98"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="46"/>
-      <c r="X83" s="103"/>
-      <c r="Y83" s="106"/>
-      <c r="Z83" s="49"/>
-      <c r="AA83" s="49"/>
-      <c r="AB83" s="49"/>
-      <c r="AC83" s="110"/>
+      <c r="T83" s="99"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="104"/>
+      <c r="Y83" s="99"/>
+      <c r="Z83" s="43"/>
+      <c r="AA83" s="43"/>
+      <c r="AB83" s="43"/>
+      <c r="AC83" s="104"/>
       <c r="AD83" s="106"/>
       <c r="AE83" s="49"/>
       <c r="AF83" s="49"/>
       <c r="AG83" s="49"/>
       <c r="AH83" s="110"/>
-      <c r="AI83" s="106"/>
-      <c r="AJ83" s="49"/>
-      <c r="AK83" s="49"/>
-      <c r="AL83" s="49"/>
-      <c r="AM83" s="110"/>
-      <c r="AN83" s="106"/>
-      <c r="AO83" s="49"/>
-      <c r="AP83" s="49"/>
-      <c r="AQ83" s="49"/>
-      <c r="AR83" s="110"/>
-      <c r="AS83" s="106"/>
-      <c r="AT83" s="49"/>
-      <c r="AU83" s="49"/>
-      <c r="AV83" s="49"/>
-      <c r="AW83" s="110"/>
-      <c r="AX83" s="106"/>
-      <c r="AY83" s="49"/>
-      <c r="AZ83" s="49"/>
-      <c r="BA83" s="49"/>
-      <c r="BB83" s="110"/>
+      <c r="AI83" s="99"/>
+      <c r="AJ83" s="43"/>
+      <c r="AK83" s="43"/>
+      <c r="AL83" s="43"/>
+      <c r="AM83" s="104"/>
+      <c r="AN83" s="99"/>
+      <c r="AO83" s="43"/>
+      <c r="AP83" s="43"/>
+      <c r="AQ83" s="43"/>
+      <c r="AR83" s="104"/>
+      <c r="AS83" s="112"/>
+      <c r="AT83" s="50"/>
+      <c r="AU83" s="50"/>
+      <c r="AV83" s="50"/>
+      <c r="AW83" s="114"/>
+      <c r="AX83" s="99"/>
+      <c r="AY83" s="43"/>
+      <c r="AZ83" s="43"/>
+      <c r="BA83" s="43"/>
+      <c r="BB83" s="104"/>
       <c r="BC83" s="30"/>
     </row>
-    <row r="84" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="86"/>
+    <row r="84" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="85" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="64">
@@ -8369,69 +8552,66 @@
         <v>45565</v>
       </c>
       <c r="H84" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I84" s="128">
+      <c r="I84" s="65">
         <v>0</v>
       </c>
-      <c r="J84" s="34"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="94"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="95"/>
       <c r="O84" s="91"/>
       <c r="P84" s="44"/>
       <c r="Q84" s="44"/>
       <c r="R84" s="44"/>
       <c r="S84" s="100"/>
-      <c r="T84" s="98"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
-      <c r="X84" s="103"/>
-      <c r="Y84" s="106"/>
-      <c r="Z84" s="49"/>
-      <c r="AA84" s="49"/>
-      <c r="AB84" s="49"/>
-      <c r="AC84" s="110"/>
+      <c r="T84" s="99"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="104"/>
+      <c r="Y84" s="99"/>
+      <c r="Z84" s="43"/>
+      <c r="AA84" s="43"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="104"/>
       <c r="AD84" s="106"/>
       <c r="AE84" s="49"/>
       <c r="AF84" s="49"/>
       <c r="AG84" s="49"/>
       <c r="AH84" s="110"/>
-      <c r="AI84" s="106"/>
-      <c r="AJ84" s="49"/>
-      <c r="AK84" s="49"/>
-      <c r="AL84" s="49"/>
-      <c r="AM84" s="110"/>
-      <c r="AN84" s="106"/>
-      <c r="AO84" s="49"/>
-      <c r="AP84" s="49"/>
-      <c r="AQ84" s="49"/>
-      <c r="AR84" s="110"/>
-      <c r="AS84" s="106"/>
-      <c r="AT84" s="49"/>
-      <c r="AU84" s="49"/>
-      <c r="AV84" s="49"/>
-      <c r="AW84" s="110"/>
-      <c r="AX84" s="106"/>
-      <c r="AY84" s="49"/>
-      <c r="AZ84" s="49"/>
-      <c r="BA84" s="49"/>
-      <c r="BB84" s="110"/>
+      <c r="AI84" s="99"/>
+      <c r="AJ84" s="43"/>
+      <c r="AK84" s="43"/>
+      <c r="AL84" s="43"/>
+      <c r="AM84" s="104"/>
+      <c r="AN84" s="99"/>
+      <c r="AO84" s="43"/>
+      <c r="AP84" s="43"/>
+      <c r="AQ84" s="43"/>
+      <c r="AR84" s="104"/>
+      <c r="AS84" s="112"/>
+      <c r="AT84" s="50"/>
+      <c r="AU84" s="50"/>
+      <c r="AV84" s="50"/>
+      <c r="AW84" s="114"/>
+      <c r="AX84" s="99"/>
+      <c r="AY84" s="43"/>
+      <c r="AZ84" s="43"/>
+      <c r="BA84" s="43"/>
+      <c r="BB84" s="104"/>
       <c r="BC84" s="30"/>
     </row>
-    <row r="85" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A85" s="117"/>
-      <c r="B85" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
+    <row r="85" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="118"/>
       <c r="F85" s="64">
         <v>45565</v>
       </c>
@@ -8439,65 +8619,67 @@
         <v>45565</v>
       </c>
       <c r="H85" s="33">
-        <f t="shared" ref="H85:H87" si="10">NETWORKDAYS(F85,G85)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I85" s="128">
+      <c r="I85" s="65">
         <v>0</v>
       </c>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="94"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="95"/>
       <c r="O85" s="91"/>
       <c r="P85" s="44"/>
       <c r="Q85" s="44"/>
       <c r="R85" s="44"/>
       <c r="S85" s="100"/>
-      <c r="T85" s="98"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
-      <c r="X85" s="103"/>
-      <c r="Y85" s="106"/>
-      <c r="Z85" s="49"/>
-      <c r="AA85" s="49"/>
-      <c r="AB85" s="49"/>
-      <c r="AC85" s="110"/>
+      <c r="T85" s="99"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="104"/>
+      <c r="Y85" s="99"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="43"/>
+      <c r="AB85" s="43"/>
+      <c r="AC85" s="104"/>
       <c r="AD85" s="106"/>
       <c r="AE85" s="49"/>
       <c r="AF85" s="49"/>
       <c r="AG85" s="49"/>
       <c r="AH85" s="110"/>
-      <c r="AI85" s="106"/>
-      <c r="AJ85" s="49"/>
-      <c r="AK85" s="49"/>
-      <c r="AL85" s="49"/>
-      <c r="AM85" s="110"/>
-      <c r="AN85" s="106"/>
-      <c r="AO85" s="49"/>
-      <c r="AP85" s="49"/>
-      <c r="AQ85" s="49"/>
-      <c r="AR85" s="110"/>
-      <c r="AS85" s="106"/>
-      <c r="AT85" s="49"/>
-      <c r="AU85" s="49"/>
-      <c r="AV85" s="49"/>
-      <c r="AW85" s="110"/>
-      <c r="AX85" s="106"/>
-      <c r="AY85" s="49"/>
-      <c r="AZ85" s="49"/>
-      <c r="BA85" s="49"/>
-      <c r="BB85" s="110"/>
+      <c r="AI85" s="99"/>
+      <c r="AJ85" s="43"/>
+      <c r="AK85" s="43"/>
+      <c r="AL85" s="43"/>
+      <c r="AM85" s="104"/>
+      <c r="AN85" s="99"/>
+      <c r="AO85" s="43"/>
+      <c r="AP85" s="43"/>
+      <c r="AQ85" s="43"/>
+      <c r="AR85" s="104"/>
+      <c r="AS85" s="112"/>
+      <c r="AT85" s="50"/>
+      <c r="AU85" s="50"/>
+      <c r="AV85" s="50"/>
+      <c r="AW85" s="114"/>
+      <c r="AX85" s="99"/>
+      <c r="AY85" s="43"/>
+      <c r="AZ85" s="43"/>
+      <c r="BA85" s="43"/>
+      <c r="BB85" s="104"/>
       <c r="BC85" s="30"/>
     </row>
     <row r="86" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B86" s="31"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="85" t="s">
-        <v>45</v>
-      </c>
+      <c r="B86" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="85"/>
       <c r="E86" s="118"/>
       <c r="F86" s="64">
         <v>45565</v>
@@ -8506,7 +8688,7 @@
         <v>45565</v>
       </c>
       <c r="H86" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I86" s="65">
@@ -8527,48 +8709,45 @@
       <c r="V86" s="46"/>
       <c r="W86" s="46"/>
       <c r="X86" s="103"/>
-      <c r="Y86" s="106"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="49"/>
-      <c r="AB86" s="49"/>
-      <c r="AC86" s="110"/>
-      <c r="AD86" s="106"/>
-      <c r="AE86" s="49"/>
-      <c r="AF86" s="49"/>
-      <c r="AG86" s="49"/>
-      <c r="AH86" s="110"/>
-      <c r="AI86" s="106"/>
-      <c r="AJ86" s="49"/>
-      <c r="AK86" s="49"/>
-      <c r="AL86" s="49"/>
-      <c r="AM86" s="110"/>
-      <c r="AN86" s="106"/>
-      <c r="AO86" s="49"/>
-      <c r="AP86" s="49"/>
-      <c r="AQ86" s="49"/>
-      <c r="AR86" s="110"/>
-      <c r="AS86" s="106"/>
-      <c r="AT86" s="49"/>
-      <c r="AU86" s="49"/>
-      <c r="AV86" s="49"/>
-      <c r="AW86" s="110"/>
-      <c r="AX86" s="106"/>
-      <c r="AY86" s="49"/>
-      <c r="AZ86" s="49"/>
-      <c r="BA86" s="49"/>
-      <c r="BB86" s="110"/>
+      <c r="Y86" s="105"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="108"/>
+      <c r="AD86" s="105"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="47"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="108"/>
+      <c r="AI86" s="105"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="47"/>
+      <c r="AL86" s="47"/>
+      <c r="AM86" s="108"/>
+      <c r="AN86" s="105"/>
+      <c r="AO86" s="47"/>
+      <c r="AP86" s="47"/>
+      <c r="AQ86" s="47"/>
+      <c r="AR86" s="108"/>
+      <c r="AS86" s="105"/>
+      <c r="AT86" s="47"/>
+      <c r="AU86" s="47"/>
+      <c r="AV86" s="47"/>
+      <c r="AW86" s="108"/>
+      <c r="AX86" s="105"/>
+      <c r="AY86" s="47"/>
+      <c r="AZ86" s="47"/>
+      <c r="BA86" s="47"/>
+      <c r="BB86" s="108"/>
       <c r="BC86" s="30"/>
     </row>
-    <row r="87" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A87" s="117"/>
-      <c r="B87" s="86">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
+    <row r="87" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="118"/>
       <c r="F87" s="64">
         <v>45565</v>
       </c>
@@ -8576,7 +8755,7 @@
         <v>45565</v>
       </c>
       <c r="H87" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H87" si="6">NETWORKDAYS(F87,G87)</f>
         <v>1</v>
       </c>
       <c r="I87" s="65">
@@ -8597,120 +8776,124 @@
       <c r="V87" s="46"/>
       <c r="W87" s="46"/>
       <c r="X87" s="103"/>
-      <c r="Y87" s="106"/>
-      <c r="Z87" s="49"/>
-      <c r="AA87" s="49"/>
-      <c r="AB87" s="49"/>
-      <c r="AC87" s="110"/>
-      <c r="AD87" s="106"/>
-      <c r="AE87" s="49"/>
-      <c r="AF87" s="49"/>
-      <c r="AG87" s="49"/>
-      <c r="AH87" s="110"/>
-      <c r="AI87" s="106"/>
-      <c r="AJ87" s="49"/>
-      <c r="AK87" s="49"/>
-      <c r="AL87" s="49"/>
-      <c r="AM87" s="110"/>
-      <c r="AN87" s="106"/>
-      <c r="AO87" s="49"/>
-      <c r="AP87" s="49"/>
-      <c r="AQ87" s="49"/>
-      <c r="AR87" s="110"/>
-      <c r="AS87" s="106"/>
-      <c r="AT87" s="49"/>
-      <c r="AU87" s="49"/>
-      <c r="AV87" s="49"/>
-      <c r="AW87" s="110"/>
-      <c r="AX87" s="106"/>
-      <c r="AY87" s="49"/>
-      <c r="AZ87" s="49"/>
-      <c r="BA87" s="49"/>
-      <c r="BB87" s="110"/>
+      <c r="Y87" s="105"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="108"/>
+      <c r="AD87" s="105"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="108"/>
+      <c r="AI87" s="105"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="47"/>
+      <c r="AM87" s="108"/>
+      <c r="AN87" s="105"/>
+      <c r="AO87" s="47"/>
+      <c r="AP87" s="47"/>
+      <c r="AQ87" s="47"/>
+      <c r="AR87" s="108"/>
+      <c r="AS87" s="105"/>
+      <c r="AT87" s="47"/>
+      <c r="AU87" s="47"/>
+      <c r="AV87" s="47"/>
+      <c r="AW87" s="108"/>
+      <c r="AX87" s="105"/>
+      <c r="AY87" s="47"/>
+      <c r="AZ87" s="47"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="108"/>
       <c r="BC87" s="30"/>
     </row>
-    <row r="88" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B88" s="55">
-        <v>5</v>
-      </c>
-      <c r="C88" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="58"/>
-      <c r="S88" s="58"/>
-      <c r="T88" s="58"/>
-      <c r="U88" s="58"/>
-      <c r="V88" s="58"/>
-      <c r="W88" s="58"/>
-      <c r="X88" s="58"/>
-      <c r="Y88" s="58"/>
-      <c r="Z88" s="58"/>
-      <c r="AA88" s="58"/>
-      <c r="AB88" s="58"/>
-      <c r="AC88" s="58"/>
-      <c r="AD88" s="58"/>
-      <c r="AE88" s="58"/>
-      <c r="AF88" s="58"/>
-      <c r="AG88" s="58"/>
-      <c r="AH88" s="58"/>
-      <c r="AI88" s="58"/>
-      <c r="AJ88" s="58"/>
-      <c r="AK88" s="58"/>
-      <c r="AL88" s="58"/>
-      <c r="AM88" s="58"/>
-      <c r="AN88" s="58"/>
-      <c r="AO88" s="58"/>
-      <c r="AP88" s="58"/>
-      <c r="AQ88" s="58"/>
-      <c r="AR88" s="58"/>
-      <c r="AS88" s="58"/>
-      <c r="AT88" s="58"/>
-      <c r="AU88" s="58"/>
-      <c r="AV88" s="58"/>
-      <c r="AW88" s="58"/>
-      <c r="AX88" s="58"/>
-      <c r="AY88" s="58"/>
-      <c r="AZ88" s="58"/>
-      <c r="BA88" s="58"/>
-      <c r="BB88" s="58"/>
-      <c r="BC88" s="54"/>
-    </row>
-    <row r="89" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A89" s="117"/>
-      <c r="B89" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C89" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="87"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="70">
-        <v>45564</v>
-      </c>
-      <c r="G89" s="70">
-        <v>45394</v>
-      </c>
-      <c r="H89" s="71">
-        <f>NETWORKDAYS(F89,G89)</f>
-        <v>-121</v>
-      </c>
-      <c r="I89" s="72">
+    <row r="88" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="118"/>
+      <c r="F88" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G88" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H88" s="33">
+        <f t="shared" si="5"/>
         <v>1</v>
+      </c>
+      <c r="I88" s="65">
+        <v>0</v>
+      </c>
+      <c r="J88" s="34"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="91"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="100"/>
+      <c r="T88" s="98"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="103"/>
+      <c r="Y88" s="105"/>
+      <c r="Z88" s="47"/>
+      <c r="AA88" s="47"/>
+      <c r="AB88" s="47"/>
+      <c r="AC88" s="108"/>
+      <c r="AD88" s="105"/>
+      <c r="AE88" s="47"/>
+      <c r="AF88" s="47"/>
+      <c r="AG88" s="47"/>
+      <c r="AH88" s="108"/>
+      <c r="AI88" s="105"/>
+      <c r="AJ88" s="47"/>
+      <c r="AK88" s="47"/>
+      <c r="AL88" s="47"/>
+      <c r="AM88" s="108"/>
+      <c r="AN88" s="105"/>
+      <c r="AO88" s="47"/>
+      <c r="AP88" s="47"/>
+      <c r="AQ88" s="47"/>
+      <c r="AR88" s="108"/>
+      <c r="AS88" s="105"/>
+      <c r="AT88" s="47"/>
+      <c r="AU88" s="47"/>
+      <c r="AV88" s="47"/>
+      <c r="AW88" s="108"/>
+      <c r="AX88" s="105"/>
+      <c r="AY88" s="47"/>
+      <c r="AZ88" s="47"/>
+      <c r="BA88" s="47"/>
+      <c r="BB88" s="108"/>
+      <c r="BC88" s="30"/>
+    </row>
+    <row r="89" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="118"/>
+      <c r="F89" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G89" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H89" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="65">
+        <v>0</v>
       </c>
       <c r="J89" s="34"/>
       <c r="K89" s="35"/>
@@ -8727,40 +8910,2753 @@
       <c r="V89" s="46"/>
       <c r="W89" s="46"/>
       <c r="X89" s="103"/>
-      <c r="Y89" s="98"/>
-      <c r="Z89" s="46"/>
-      <c r="AA89" s="46"/>
-      <c r="AB89" s="46"/>
-      <c r="AC89" s="103"/>
+      <c r="Y89" s="105"/>
+      <c r="Z89" s="47"/>
+      <c r="AA89" s="47"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="108"/>
       <c r="AD89" s="105"/>
       <c r="AE89" s="47"/>
       <c r="AF89" s="47"/>
       <c r="AG89" s="47"/>
       <c r="AH89" s="108"/>
-      <c r="AI89" s="98"/>
-      <c r="AJ89" s="46"/>
-      <c r="AK89" s="46"/>
-      <c r="AL89" s="46"/>
-      <c r="AM89" s="46"/>
-      <c r="AN89" s="46"/>
-      <c r="AO89" s="46"/>
-      <c r="AP89" s="46"/>
-      <c r="AQ89" s="46"/>
-      <c r="AR89" s="46"/>
-      <c r="AS89" s="46"/>
-      <c r="AT89" s="46"/>
-      <c r="AU89" s="46"/>
-      <c r="AV89" s="46"/>
-      <c r="AW89" s="46"/>
-      <c r="AX89" s="46"/>
-      <c r="AY89" s="46"/>
-      <c r="AZ89" s="46"/>
-      <c r="BA89" s="46"/>
-      <c r="BB89" s="46"/>
+      <c r="AI89" s="105"/>
+      <c r="AJ89" s="47"/>
+      <c r="AK89" s="47"/>
+      <c r="AL89" s="47"/>
+      <c r="AM89" s="108"/>
+      <c r="AN89" s="105"/>
+      <c r="AO89" s="47"/>
+      <c r="AP89" s="47"/>
+      <c r="AQ89" s="47"/>
+      <c r="AR89" s="108"/>
+      <c r="AS89" s="105"/>
+      <c r="AT89" s="47"/>
+      <c r="AU89" s="47"/>
+      <c r="AV89" s="47"/>
+      <c r="AW89" s="108"/>
+      <c r="AX89" s="105"/>
+      <c r="AY89" s="47"/>
+      <c r="AZ89" s="47"/>
+      <c r="BA89" s="47"/>
+      <c r="BB89" s="108"/>
       <c r="BC89" s="30"/>
+    </row>
+    <row r="90" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="118"/>
+      <c r="F90" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G90" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H90" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="65">
+        <v>0</v>
+      </c>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="100"/>
+      <c r="T90" s="98"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="103"/>
+      <c r="Y90" s="106"/>
+      <c r="Z90" s="49"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="110"/>
+      <c r="AD90" s="106"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="49"/>
+      <c r="AH90" s="110"/>
+      <c r="AI90" s="106"/>
+      <c r="AJ90" s="49"/>
+      <c r="AK90" s="49"/>
+      <c r="AL90" s="49"/>
+      <c r="AM90" s="110"/>
+      <c r="AN90" s="106"/>
+      <c r="AO90" s="49"/>
+      <c r="AP90" s="49"/>
+      <c r="AQ90" s="49"/>
+      <c r="AR90" s="110"/>
+      <c r="AS90" s="106"/>
+      <c r="AT90" s="49"/>
+      <c r="AU90" s="49"/>
+      <c r="AV90" s="49"/>
+      <c r="AW90" s="110"/>
+      <c r="AX90" s="106"/>
+      <c r="AY90" s="49"/>
+      <c r="AZ90" s="49"/>
+      <c r="BA90" s="49"/>
+      <c r="BB90" s="110"/>
+      <c r="BC90" s="30"/>
+    </row>
+    <row r="91" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A91" s="117"/>
+      <c r="B91" s="31">
+        <v>4.12</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="85"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G91" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H91" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I91" s="65">
+        <v>0</v>
+      </c>
+      <c r="J91" s="34"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="91"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="100"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="103"/>
+      <c r="Y91" s="106"/>
+      <c r="Z91" s="49"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="110"/>
+      <c r="AD91" s="106"/>
+      <c r="AE91" s="49"/>
+      <c r="AF91" s="49"/>
+      <c r="AG91" s="49"/>
+      <c r="AH91" s="110"/>
+      <c r="AI91" s="106"/>
+      <c r="AJ91" s="49"/>
+      <c r="AK91" s="49"/>
+      <c r="AL91" s="49"/>
+      <c r="AM91" s="110"/>
+      <c r="AN91" s="106"/>
+      <c r="AO91" s="49"/>
+      <c r="AP91" s="49"/>
+      <c r="AQ91" s="49"/>
+      <c r="AR91" s="110"/>
+      <c r="AS91" s="106"/>
+      <c r="AT91" s="49"/>
+      <c r="AU91" s="49"/>
+      <c r="AV91" s="49"/>
+      <c r="AW91" s="110"/>
+      <c r="AX91" s="106"/>
+      <c r="AY91" s="49"/>
+      <c r="AZ91" s="49"/>
+      <c r="BA91" s="49"/>
+      <c r="BB91" s="110"/>
+      <c r="BC91" s="30"/>
+    </row>
+    <row r="92" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="118"/>
+      <c r="F92" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G92" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H92" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I92" s="65">
+        <v>0</v>
+      </c>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="91"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="100"/>
+      <c r="T92" s="98"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="103"/>
+      <c r="Y92" s="106"/>
+      <c r="Z92" s="49"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="110"/>
+      <c r="AD92" s="106"/>
+      <c r="AE92" s="49"/>
+      <c r="AF92" s="49"/>
+      <c r="AG92" s="49"/>
+      <c r="AH92" s="110"/>
+      <c r="AI92" s="106"/>
+      <c r="AJ92" s="49"/>
+      <c r="AK92" s="49"/>
+      <c r="AL92" s="49"/>
+      <c r="AM92" s="110"/>
+      <c r="AN92" s="106"/>
+      <c r="AO92" s="49"/>
+      <c r="AP92" s="49"/>
+      <c r="AQ92" s="49"/>
+      <c r="AR92" s="110"/>
+      <c r="AS92" s="106"/>
+      <c r="AT92" s="49"/>
+      <c r="AU92" s="49"/>
+      <c r="AV92" s="49"/>
+      <c r="AW92" s="110"/>
+      <c r="AX92" s="106"/>
+      <c r="AY92" s="49"/>
+      <c r="AZ92" s="49"/>
+      <c r="BA92" s="49"/>
+      <c r="BB92" s="110"/>
+      <c r="BC92" s="30"/>
+    </row>
+    <row r="93" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="118"/>
+      <c r="F93" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G93" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H93" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I93" s="65">
+        <v>0</v>
+      </c>
+      <c r="J93" s="34"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="91"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="100"/>
+      <c r="T93" s="98"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="103"/>
+      <c r="Y93" s="106"/>
+      <c r="Z93" s="49"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="110"/>
+      <c r="AD93" s="106"/>
+      <c r="AE93" s="49"/>
+      <c r="AF93" s="49"/>
+      <c r="AG93" s="49"/>
+      <c r="AH93" s="110"/>
+      <c r="AI93" s="106"/>
+      <c r="AJ93" s="49"/>
+      <c r="AK93" s="49"/>
+      <c r="AL93" s="49"/>
+      <c r="AM93" s="110"/>
+      <c r="AN93" s="106"/>
+      <c r="AO93" s="49"/>
+      <c r="AP93" s="49"/>
+      <c r="AQ93" s="49"/>
+      <c r="AR93" s="110"/>
+      <c r="AS93" s="106"/>
+      <c r="AT93" s="49"/>
+      <c r="AU93" s="49"/>
+      <c r="AV93" s="49"/>
+      <c r="AW93" s="110"/>
+      <c r="AX93" s="106"/>
+      <c r="AY93" s="49"/>
+      <c r="AZ93" s="49"/>
+      <c r="BA93" s="49"/>
+      <c r="BB93" s="110"/>
+      <c r="BC93" s="30"/>
+    </row>
+    <row r="94" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="118"/>
+      <c r="F94" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G94" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H94" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I94" s="65">
+        <v>0</v>
+      </c>
+      <c r="J94" s="34"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="91"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="100"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="46"/>
+      <c r="V94" s="46"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="103"/>
+      <c r="Y94" s="106"/>
+      <c r="Z94" s="49"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="110"/>
+      <c r="AD94" s="106"/>
+      <c r="AE94" s="49"/>
+      <c r="AF94" s="49"/>
+      <c r="AG94" s="49"/>
+      <c r="AH94" s="110"/>
+      <c r="AI94" s="106"/>
+      <c r="AJ94" s="49"/>
+      <c r="AK94" s="49"/>
+      <c r="AL94" s="49"/>
+      <c r="AM94" s="110"/>
+      <c r="AN94" s="106"/>
+      <c r="AO94" s="49"/>
+      <c r="AP94" s="49"/>
+      <c r="AQ94" s="49"/>
+      <c r="AR94" s="110"/>
+      <c r="AS94" s="106"/>
+      <c r="AT94" s="49"/>
+      <c r="AU94" s="49"/>
+      <c r="AV94" s="49"/>
+      <c r="AW94" s="110"/>
+      <c r="AX94" s="106"/>
+      <c r="AY94" s="49"/>
+      <c r="AZ94" s="49"/>
+      <c r="BA94" s="49"/>
+      <c r="BB94" s="110"/>
+      <c r="BC94" s="30"/>
+    </row>
+    <row r="95" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A95" s="120"/>
+      <c r="B95" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="85"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G95" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H95" s="33">
+        <f>NETWORKDAYS(F95,G95)</f>
+        <v>1</v>
+      </c>
+      <c r="I95" s="65">
+        <v>0</v>
+      </c>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="94"/>
+      <c r="O95" s="91"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="100"/>
+      <c r="T95" s="98"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="46"/>
+      <c r="X95" s="103"/>
+      <c r="Y95" s="106"/>
+      <c r="Z95" s="49"/>
+      <c r="AA95" s="49"/>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="110"/>
+      <c r="AD95" s="106"/>
+      <c r="AE95" s="49"/>
+      <c r="AF95" s="49"/>
+      <c r="AG95" s="49"/>
+      <c r="AH95" s="110"/>
+      <c r="AI95" s="106"/>
+      <c r="AJ95" s="49"/>
+      <c r="AK95" s="49"/>
+      <c r="AL95" s="49"/>
+      <c r="AM95" s="110"/>
+      <c r="AN95" s="106"/>
+      <c r="AO95" s="49"/>
+      <c r="AP95" s="49"/>
+      <c r="AQ95" s="49"/>
+      <c r="AR95" s="110"/>
+      <c r="AS95" s="106"/>
+      <c r="AT95" s="49"/>
+      <c r="AU95" s="49"/>
+      <c r="AV95" s="49"/>
+      <c r="AW95" s="110"/>
+      <c r="AX95" s="106"/>
+      <c r="AY95" s="49"/>
+      <c r="AZ95" s="49"/>
+      <c r="BA95" s="49"/>
+      <c r="BB95" s="110"/>
+      <c r="BC95" s="30"/>
+    </row>
+    <row r="96" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A96" s="120"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="118"/>
+      <c r="F96" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G96" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H96" s="33">
+        <f>NETWORKDAYS(F96,G96)</f>
+        <v>1</v>
+      </c>
+      <c r="I96" s="65">
+        <v>0</v>
+      </c>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="94"/>
+      <c r="O96" s="91"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="100"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="46"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
+      <c r="X96" s="103"/>
+      <c r="Y96" s="106"/>
+      <c r="Z96" s="49"/>
+      <c r="AA96" s="49"/>
+      <c r="AB96" s="49"/>
+      <c r="AC96" s="110"/>
+      <c r="AD96" s="106"/>
+      <c r="AE96" s="49"/>
+      <c r="AF96" s="49"/>
+      <c r="AG96" s="49"/>
+      <c r="AH96" s="110"/>
+      <c r="AI96" s="106"/>
+      <c r="AJ96" s="49"/>
+      <c r="AK96" s="49"/>
+      <c r="AL96" s="49"/>
+      <c r="AM96" s="110"/>
+      <c r="AN96" s="106"/>
+      <c r="AO96" s="49"/>
+      <c r="AP96" s="49"/>
+      <c r="AQ96" s="49"/>
+      <c r="AR96" s="110"/>
+      <c r="AS96" s="106"/>
+      <c r="AT96" s="49"/>
+      <c r="AU96" s="49"/>
+      <c r="AV96" s="49"/>
+      <c r="AW96" s="110"/>
+      <c r="AX96" s="106"/>
+      <c r="AY96" s="49"/>
+      <c r="AZ96" s="49"/>
+      <c r="BA96" s="49"/>
+      <c r="BB96" s="110"/>
+      <c r="BC96" s="30"/>
+    </row>
+    <row r="97" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B97" s="31"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="118"/>
+      <c r="F97" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G97" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H97" s="33">
+        <f>NETWORKDAYS(F97,G97)</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="65">
+        <v>0</v>
+      </c>
+      <c r="J97" s="34"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="94"/>
+      <c r="O97" s="91"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="44"/>
+      <c r="S97" s="100"/>
+      <c r="T97" s="98"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="103"/>
+      <c r="Y97" s="106"/>
+      <c r="Z97" s="49"/>
+      <c r="AA97" s="49"/>
+      <c r="AB97" s="49"/>
+      <c r="AC97" s="110"/>
+      <c r="AD97" s="106"/>
+      <c r="AE97" s="49"/>
+      <c r="AF97" s="49"/>
+      <c r="AG97" s="49"/>
+      <c r="AH97" s="110"/>
+      <c r="AI97" s="106"/>
+      <c r="AJ97" s="49"/>
+      <c r="AK97" s="49"/>
+      <c r="AL97" s="49"/>
+      <c r="AM97" s="110"/>
+      <c r="AN97" s="106"/>
+      <c r="AO97" s="49"/>
+      <c r="AP97" s="49"/>
+      <c r="AQ97" s="49"/>
+      <c r="AR97" s="110"/>
+      <c r="AS97" s="106"/>
+      <c r="AT97" s="49"/>
+      <c r="AU97" s="49"/>
+      <c r="AV97" s="49"/>
+      <c r="AW97" s="110"/>
+      <c r="AX97" s="106"/>
+      <c r="AY97" s="49"/>
+      <c r="AZ97" s="49"/>
+      <c r="BA97" s="49"/>
+      <c r="BB97" s="110"/>
+      <c r="BC97" s="30"/>
+    </row>
+    <row r="98" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B98" s="31"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="118"/>
+      <c r="F98" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G98" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H98" s="33">
+        <f>NETWORKDAYS(F98,G98)</f>
+        <v>1</v>
+      </c>
+      <c r="I98" s="65">
+        <v>0</v>
+      </c>
+      <c r="J98" s="34"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="94"/>
+      <c r="O98" s="91"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="100"/>
+      <c r="T98" s="98"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="103"/>
+      <c r="Y98" s="105"/>
+      <c r="Z98" s="47"/>
+      <c r="AA98" s="47"/>
+      <c r="AB98" s="47"/>
+      <c r="AC98" s="108"/>
+      <c r="AD98" s="105"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="108"/>
+      <c r="AI98" s="105"/>
+      <c r="AJ98" s="47"/>
+      <c r="AK98" s="47"/>
+      <c r="AL98" s="47"/>
+      <c r="AM98" s="108"/>
+      <c r="AN98" s="105"/>
+      <c r="AO98" s="47"/>
+      <c r="AP98" s="47"/>
+      <c r="AQ98" s="47"/>
+      <c r="AR98" s="108"/>
+      <c r="AS98" s="105"/>
+      <c r="AT98" s="47"/>
+      <c r="AU98" s="47"/>
+      <c r="AV98" s="47"/>
+      <c r="AW98" s="108"/>
+      <c r="AX98" s="105"/>
+      <c r="AY98" s="47"/>
+      <c r="AZ98" s="47"/>
+      <c r="BA98" s="47"/>
+      <c r="BB98" s="108"/>
+      <c r="BC98" s="30"/>
+    </row>
+    <row r="99" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="118"/>
+      <c r="F99" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G99" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H99" s="33">
+        <f>NETWORKDAYS(F99,G99)</f>
+        <v>1</v>
+      </c>
+      <c r="I99" s="65">
+        <v>0</v>
+      </c>
+      <c r="J99" s="34"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="94"/>
+      <c r="O99" s="91"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="44"/>
+      <c r="S99" s="100"/>
+      <c r="T99" s="98"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="103"/>
+      <c r="Y99" s="105"/>
+      <c r="Z99" s="47"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="47"/>
+      <c r="AC99" s="108"/>
+      <c r="AD99" s="105"/>
+      <c r="AE99" s="47"/>
+      <c r="AF99" s="47"/>
+      <c r="AG99" s="47"/>
+      <c r="AH99" s="108"/>
+      <c r="AI99" s="105"/>
+      <c r="AJ99" s="47"/>
+      <c r="AK99" s="47"/>
+      <c r="AL99" s="47"/>
+      <c r="AM99" s="108"/>
+      <c r="AN99" s="105"/>
+      <c r="AO99" s="47"/>
+      <c r="AP99" s="47"/>
+      <c r="AQ99" s="47"/>
+      <c r="AR99" s="108"/>
+      <c r="AS99" s="105"/>
+      <c r="AT99" s="47"/>
+      <c r="AU99" s="47"/>
+      <c r="AV99" s="47"/>
+      <c r="AW99" s="108"/>
+      <c r="AX99" s="105"/>
+      <c r="AY99" s="47"/>
+      <c r="AZ99" s="47"/>
+      <c r="BA99" s="47"/>
+      <c r="BB99" s="108"/>
+      <c r="BC99" s="30"/>
+    </row>
+    <row r="100" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B100" s="31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="118"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G100" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H100" s="33">
+        <f t="shared" ref="H100:H103" si="7">NETWORKDAYS(F100,G100)</f>
+        <v>1</v>
+      </c>
+      <c r="I100" s="65">
+        <v>0</v>
+      </c>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="94"/>
+      <c r="O100" s="91"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="44"/>
+      <c r="S100" s="100"/>
+      <c r="T100" s="98"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="103"/>
+      <c r="Y100" s="106"/>
+      <c r="Z100" s="49"/>
+      <c r="AA100" s="49"/>
+      <c r="AB100" s="49"/>
+      <c r="AC100" s="110"/>
+      <c r="AD100" s="106"/>
+      <c r="AE100" s="49"/>
+      <c r="AF100" s="49"/>
+      <c r="AG100" s="49"/>
+      <c r="AH100" s="110"/>
+      <c r="AI100" s="106"/>
+      <c r="AJ100" s="49"/>
+      <c r="AK100" s="49"/>
+      <c r="AL100" s="49"/>
+      <c r="AM100" s="110"/>
+      <c r="AN100" s="106"/>
+      <c r="AO100" s="49"/>
+      <c r="AP100" s="49"/>
+      <c r="AQ100" s="49"/>
+      <c r="AR100" s="110"/>
+      <c r="AS100" s="106"/>
+      <c r="AT100" s="49"/>
+      <c r="AU100" s="49"/>
+      <c r="AV100" s="49"/>
+      <c r="AW100" s="110"/>
+      <c r="AX100" s="106"/>
+      <c r="AY100" s="49"/>
+      <c r="AZ100" s="49"/>
+      <c r="BA100" s="49"/>
+      <c r="BB100" s="110"/>
+      <c r="BC100" s="30"/>
+    </row>
+    <row r="101" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B101" s="31"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G101" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H101" s="33">
+        <f t="shared" ref="H101" si="8">NETWORKDAYS(F101,G101)</f>
+        <v>1</v>
+      </c>
+      <c r="I101" s="65">
+        <v>0</v>
+      </c>
+      <c r="J101" s="34"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="94"/>
+      <c r="O101" s="91"/>
+      <c r="P101" s="44"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="44"/>
+      <c r="S101" s="100"/>
+      <c r="T101" s="98"/>
+      <c r="U101" s="46"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="103"/>
+      <c r="Y101" s="106"/>
+      <c r="Z101" s="49"/>
+      <c r="AA101" s="49"/>
+      <c r="AB101" s="49"/>
+      <c r="AC101" s="110"/>
+      <c r="AD101" s="106"/>
+      <c r="AE101" s="49"/>
+      <c r="AF101" s="49"/>
+      <c r="AG101" s="49"/>
+      <c r="AH101" s="110"/>
+      <c r="AI101" s="106"/>
+      <c r="AJ101" s="49"/>
+      <c r="AK101" s="49"/>
+      <c r="AL101" s="49"/>
+      <c r="AM101" s="110"/>
+      <c r="AN101" s="106"/>
+      <c r="AO101" s="49"/>
+      <c r="AP101" s="49"/>
+      <c r="AQ101" s="49"/>
+      <c r="AR101" s="110"/>
+      <c r="AS101" s="106"/>
+      <c r="AT101" s="49"/>
+      <c r="AU101" s="49"/>
+      <c r="AV101" s="49"/>
+      <c r="AW101" s="110"/>
+      <c r="AX101" s="106"/>
+      <c r="AY101" s="49"/>
+      <c r="AZ101" s="49"/>
+      <c r="BA101" s="49"/>
+      <c r="BB101" s="110"/>
+      <c r="BC101" s="30"/>
+    </row>
+    <row r="102" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G102" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H102" s="33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I102" s="129">
+        <v>0</v>
+      </c>
+      <c r="J102" s="34"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="94"/>
+      <c r="O102" s="91"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="44"/>
+      <c r="S102" s="100"/>
+      <c r="T102" s="98"/>
+      <c r="U102" s="46"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="103"/>
+      <c r="Y102" s="106"/>
+      <c r="Z102" s="49"/>
+      <c r="AA102" s="49"/>
+      <c r="AB102" s="49"/>
+      <c r="AC102" s="110"/>
+      <c r="AD102" s="106"/>
+      <c r="AE102" s="49"/>
+      <c r="AF102" s="49"/>
+      <c r="AG102" s="49"/>
+      <c r="AH102" s="110"/>
+      <c r="AI102" s="106"/>
+      <c r="AJ102" s="49"/>
+      <c r="AK102" s="49"/>
+      <c r="AL102" s="49"/>
+      <c r="AM102" s="110"/>
+      <c r="AN102" s="106"/>
+      <c r="AO102" s="49"/>
+      <c r="AP102" s="49"/>
+      <c r="AQ102" s="49"/>
+      <c r="AR102" s="110"/>
+      <c r="AS102" s="106"/>
+      <c r="AT102" s="49"/>
+      <c r="AU102" s="49"/>
+      <c r="AV102" s="49"/>
+      <c r="AW102" s="110"/>
+      <c r="AX102" s="106"/>
+      <c r="AY102" s="49"/>
+      <c r="AZ102" s="49"/>
+      <c r="BA102" s="49"/>
+      <c r="BB102" s="110"/>
+      <c r="BC102" s="30"/>
+    </row>
+    <row r="103" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G103" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H103" s="33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="128">
+        <v>0</v>
+      </c>
+      <c r="J103" s="34"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="91"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="44"/>
+      <c r="S103" s="100"/>
+      <c r="T103" s="98"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="103"/>
+      <c r="Y103" s="106"/>
+      <c r="Z103" s="49"/>
+      <c r="AA103" s="49"/>
+      <c r="AB103" s="49"/>
+      <c r="AC103" s="110"/>
+      <c r="AD103" s="106"/>
+      <c r="AE103" s="49"/>
+      <c r="AF103" s="49"/>
+      <c r="AG103" s="49"/>
+      <c r="AH103" s="110"/>
+      <c r="AI103" s="106"/>
+      <c r="AJ103" s="49"/>
+      <c r="AK103" s="49"/>
+      <c r="AL103" s="49"/>
+      <c r="AM103" s="110"/>
+      <c r="AN103" s="106"/>
+      <c r="AO103" s="49"/>
+      <c r="AP103" s="49"/>
+      <c r="AQ103" s="49"/>
+      <c r="AR103" s="110"/>
+      <c r="AS103" s="106"/>
+      <c r="AT103" s="49"/>
+      <c r="AU103" s="49"/>
+      <c r="AV103" s="49"/>
+      <c r="AW103" s="110"/>
+      <c r="AX103" s="106"/>
+      <c r="AY103" s="49"/>
+      <c r="AZ103" s="49"/>
+      <c r="BA103" s="49"/>
+      <c r="BB103" s="110"/>
+      <c r="BC103" s="30"/>
+    </row>
+    <row r="104" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B104" s="31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="85"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G104" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H104" s="33">
+        <f t="shared" ref="H104:H107" si="9">NETWORKDAYS(F104,G104)</f>
+        <v>1</v>
+      </c>
+      <c r="I104" s="128">
+        <v>0</v>
+      </c>
+      <c r="J104" s="34"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="94"/>
+      <c r="O104" s="91"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="100"/>
+      <c r="T104" s="98"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="103"/>
+      <c r="Y104" s="106"/>
+      <c r="Z104" s="49"/>
+      <c r="AA104" s="49"/>
+      <c r="AB104" s="49"/>
+      <c r="AC104" s="110"/>
+      <c r="AD104" s="106"/>
+      <c r="AE104" s="49"/>
+      <c r="AF104" s="49"/>
+      <c r="AG104" s="49"/>
+      <c r="AH104" s="110"/>
+      <c r="AI104" s="106"/>
+      <c r="AJ104" s="49"/>
+      <c r="AK104" s="49"/>
+      <c r="AL104" s="49"/>
+      <c r="AM104" s="110"/>
+      <c r="AN104" s="106"/>
+      <c r="AO104" s="49"/>
+      <c r="AP104" s="49"/>
+      <c r="AQ104" s="49"/>
+      <c r="AR104" s="110"/>
+      <c r="AS104" s="106"/>
+      <c r="AT104" s="49"/>
+      <c r="AU104" s="49"/>
+      <c r="AV104" s="49"/>
+      <c r="AW104" s="110"/>
+      <c r="AX104" s="106"/>
+      <c r="AY104" s="49"/>
+      <c r="AZ104" s="49"/>
+      <c r="BA104" s="49"/>
+      <c r="BB104" s="110"/>
+      <c r="BC104" s="30"/>
+    </row>
+    <row r="105" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B105" s="31"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="118"/>
+      <c r="F105" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G105" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H105" s="33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="128">
+        <v>0</v>
+      </c>
+      <c r="J105" s="34"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="94"/>
+      <c r="O105" s="91"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="44"/>
+      <c r="R105" s="44"/>
+      <c r="S105" s="100"/>
+      <c r="T105" s="98"/>
+      <c r="U105" s="46"/>
+      <c r="V105" s="46"/>
+      <c r="W105" s="46"/>
+      <c r="X105" s="103"/>
+      <c r="Y105" s="106"/>
+      <c r="Z105" s="49"/>
+      <c r="AA105" s="49"/>
+      <c r="AB105" s="49"/>
+      <c r="AC105" s="110"/>
+      <c r="AD105" s="106"/>
+      <c r="AE105" s="49"/>
+      <c r="AF105" s="49"/>
+      <c r="AG105" s="49"/>
+      <c r="AH105" s="110"/>
+      <c r="AI105" s="106"/>
+      <c r="AJ105" s="49"/>
+      <c r="AK105" s="49"/>
+      <c r="AL105" s="49"/>
+      <c r="AM105" s="110"/>
+      <c r="AN105" s="106"/>
+      <c r="AO105" s="49"/>
+      <c r="AP105" s="49"/>
+      <c r="AQ105" s="49"/>
+      <c r="AR105" s="110"/>
+      <c r="AS105" s="106"/>
+      <c r="AT105" s="49"/>
+      <c r="AU105" s="49"/>
+      <c r="AV105" s="49"/>
+      <c r="AW105" s="110"/>
+      <c r="AX105" s="106"/>
+      <c r="AY105" s="49"/>
+      <c r="AZ105" s="49"/>
+      <c r="BA105" s="49"/>
+      <c r="BB105" s="110"/>
+      <c r="BC105" s="30"/>
+    </row>
+    <row r="106" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="118"/>
+      <c r="F106" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G106" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H106" s="33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I106" s="128">
+        <v>0</v>
+      </c>
+      <c r="J106" s="34"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="94"/>
+      <c r="O106" s="91"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="100"/>
+      <c r="T106" s="98"/>
+      <c r="U106" s="46"/>
+      <c r="V106" s="46"/>
+      <c r="W106" s="46"/>
+      <c r="X106" s="103"/>
+      <c r="Y106" s="106"/>
+      <c r="Z106" s="49"/>
+      <c r="AA106" s="49"/>
+      <c r="AB106" s="49"/>
+      <c r="AC106" s="110"/>
+      <c r="AD106" s="106"/>
+      <c r="AE106" s="49"/>
+      <c r="AF106" s="49"/>
+      <c r="AG106" s="49"/>
+      <c r="AH106" s="110"/>
+      <c r="AI106" s="106"/>
+      <c r="AJ106" s="49"/>
+      <c r="AK106" s="49"/>
+      <c r="AL106" s="49"/>
+      <c r="AM106" s="110"/>
+      <c r="AN106" s="106"/>
+      <c r="AO106" s="49"/>
+      <c r="AP106" s="49"/>
+      <c r="AQ106" s="49"/>
+      <c r="AR106" s="110"/>
+      <c r="AS106" s="106"/>
+      <c r="AT106" s="49"/>
+      <c r="AU106" s="49"/>
+      <c r="AV106" s="49"/>
+      <c r="AW106" s="110"/>
+      <c r="AX106" s="106"/>
+      <c r="AY106" s="49"/>
+      <c r="AZ106" s="49"/>
+      <c r="BA106" s="49"/>
+      <c r="BB106" s="110"/>
+      <c r="BC106" s="30"/>
+    </row>
+    <row r="107" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B107" s="31"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="118"/>
+      <c r="F107" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G107" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H107" s="33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I107" s="65">
+        <v>0</v>
+      </c>
+      <c r="J107" s="34"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="94"/>
+      <c r="O107" s="91"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="100"/>
+      <c r="T107" s="98"/>
+      <c r="U107" s="46"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="46"/>
+      <c r="X107" s="103"/>
+      <c r="Y107" s="105"/>
+      <c r="Z107" s="47"/>
+      <c r="AA107" s="47"/>
+      <c r="AB107" s="47"/>
+      <c r="AC107" s="108"/>
+      <c r="AD107" s="105"/>
+      <c r="AE107" s="47"/>
+      <c r="AF107" s="47"/>
+      <c r="AG107" s="47"/>
+      <c r="AH107" s="108"/>
+      <c r="AI107" s="105"/>
+      <c r="AJ107" s="47"/>
+      <c r="AK107" s="47"/>
+      <c r="AL107" s="47"/>
+      <c r="AM107" s="108"/>
+      <c r="AN107" s="105"/>
+      <c r="AO107" s="47"/>
+      <c r="AP107" s="47"/>
+      <c r="AQ107" s="47"/>
+      <c r="AR107" s="108"/>
+      <c r="AS107" s="105"/>
+      <c r="AT107" s="47"/>
+      <c r="AU107" s="47"/>
+      <c r="AV107" s="47"/>
+      <c r="AW107" s="108"/>
+      <c r="AX107" s="105"/>
+      <c r="AY107" s="47"/>
+      <c r="AZ107" s="47"/>
+      <c r="BA107" s="47"/>
+      <c r="BB107" s="108"/>
+      <c r="BC107" s="30"/>
+    </row>
+    <row r="108" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B108" s="31">
+        <v>4.16</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" s="85"/>
+      <c r="E108" s="118"/>
+      <c r="F108" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G108" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H108" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I108" s="128">
+        <v>0</v>
+      </c>
+      <c r="J108" s="34"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="94"/>
+      <c r="O108" s="91"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="100"/>
+      <c r="T108" s="98"/>
+      <c r="U108" s="46"/>
+      <c r="V108" s="46"/>
+      <c r="W108" s="46"/>
+      <c r="X108" s="103"/>
+      <c r="Y108" s="106"/>
+      <c r="Z108" s="49"/>
+      <c r="AA108" s="49"/>
+      <c r="AB108" s="49"/>
+      <c r="AC108" s="110"/>
+      <c r="AD108" s="106"/>
+      <c r="AE108" s="49"/>
+      <c r="AF108" s="49"/>
+      <c r="AG108" s="49"/>
+      <c r="AH108" s="110"/>
+      <c r="AI108" s="106"/>
+      <c r="AJ108" s="49"/>
+      <c r="AK108" s="49"/>
+      <c r="AL108" s="49"/>
+      <c r="AM108" s="110"/>
+      <c r="AN108" s="106"/>
+      <c r="AO108" s="49"/>
+      <c r="AP108" s="49"/>
+      <c r="AQ108" s="49"/>
+      <c r="AR108" s="110"/>
+      <c r="AS108" s="106"/>
+      <c r="AT108" s="49"/>
+      <c r="AU108" s="49"/>
+      <c r="AV108" s="49"/>
+      <c r="AW108" s="110"/>
+      <c r="AX108" s="106"/>
+      <c r="AY108" s="49"/>
+      <c r="AZ108" s="49"/>
+      <c r="BA108" s="49"/>
+      <c r="BB108" s="110"/>
+      <c r="BC108" s="30"/>
+    </row>
+    <row r="109" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B109" s="31"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="118"/>
+      <c r="F109" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G109" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H109" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="128">
+        <v>0</v>
+      </c>
+      <c r="J109" s="34"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="94"/>
+      <c r="O109" s="91"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="100"/>
+      <c r="T109" s="98"/>
+      <c r="U109" s="46"/>
+      <c r="V109" s="46"/>
+      <c r="W109" s="46"/>
+      <c r="X109" s="103"/>
+      <c r="Y109" s="106"/>
+      <c r="Z109" s="49"/>
+      <c r="AA109" s="49"/>
+      <c r="AB109" s="49"/>
+      <c r="AC109" s="110"/>
+      <c r="AD109" s="106"/>
+      <c r="AE109" s="49"/>
+      <c r="AF109" s="49"/>
+      <c r="AG109" s="49"/>
+      <c r="AH109" s="110"/>
+      <c r="AI109" s="106"/>
+      <c r="AJ109" s="49"/>
+      <c r="AK109" s="49"/>
+      <c r="AL109" s="49"/>
+      <c r="AM109" s="110"/>
+      <c r="AN109" s="106"/>
+      <c r="AO109" s="49"/>
+      <c r="AP109" s="49"/>
+      <c r="AQ109" s="49"/>
+      <c r="AR109" s="110"/>
+      <c r="AS109" s="106"/>
+      <c r="AT109" s="49"/>
+      <c r="AU109" s="49"/>
+      <c r="AV109" s="49"/>
+      <c r="AW109" s="110"/>
+      <c r="AX109" s="106"/>
+      <c r="AY109" s="49"/>
+      <c r="AZ109" s="49"/>
+      <c r="BA109" s="49"/>
+      <c r="BB109" s="110"/>
+      <c r="BC109" s="30"/>
+    </row>
+    <row r="110" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" s="118"/>
+      <c r="F110" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G110" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H110" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I110" s="128">
+        <v>0</v>
+      </c>
+      <c r="J110" s="34"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="94"/>
+      <c r="O110" s="91"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="100"/>
+      <c r="T110" s="98"/>
+      <c r="U110" s="46"/>
+      <c r="V110" s="46"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="103"/>
+      <c r="Y110" s="106"/>
+      <c r="Z110" s="49"/>
+      <c r="AA110" s="49"/>
+      <c r="AB110" s="49"/>
+      <c r="AC110" s="110"/>
+      <c r="AD110" s="106"/>
+      <c r="AE110" s="49"/>
+      <c r="AF110" s="49"/>
+      <c r="AG110" s="49"/>
+      <c r="AH110" s="110"/>
+      <c r="AI110" s="106"/>
+      <c r="AJ110" s="49"/>
+      <c r="AK110" s="49"/>
+      <c r="AL110" s="49"/>
+      <c r="AM110" s="110"/>
+      <c r="AN110" s="106"/>
+      <c r="AO110" s="49"/>
+      <c r="AP110" s="49"/>
+      <c r="AQ110" s="49"/>
+      <c r="AR110" s="110"/>
+      <c r="AS110" s="106"/>
+      <c r="AT110" s="49"/>
+      <c r="AU110" s="49"/>
+      <c r="AV110" s="49"/>
+      <c r="AW110" s="110"/>
+      <c r="AX110" s="106"/>
+      <c r="AY110" s="49"/>
+      <c r="AZ110" s="49"/>
+      <c r="BA110" s="49"/>
+      <c r="BB110" s="110"/>
+      <c r="BC110" s="30"/>
+    </row>
+    <row r="111" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B111" s="31"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="118"/>
+      <c r="F111" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G111" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H111" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I111" s="128">
+        <v>0</v>
+      </c>
+      <c r="J111" s="34"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="94"/>
+      <c r="O111" s="91"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="100"/>
+      <c r="T111" s="98"/>
+      <c r="U111" s="46"/>
+      <c r="V111" s="46"/>
+      <c r="W111" s="46"/>
+      <c r="X111" s="103"/>
+      <c r="Y111" s="105"/>
+      <c r="Z111" s="47"/>
+      <c r="AA111" s="47"/>
+      <c r="AB111" s="47"/>
+      <c r="AC111" s="108"/>
+      <c r="AD111" s="105"/>
+      <c r="AE111" s="47"/>
+      <c r="AF111" s="47"/>
+      <c r="AG111" s="47"/>
+      <c r="AH111" s="108"/>
+      <c r="AI111" s="105"/>
+      <c r="AJ111" s="47"/>
+      <c r="AK111" s="47"/>
+      <c r="AL111" s="47"/>
+      <c r="AM111" s="108"/>
+      <c r="AN111" s="105"/>
+      <c r="AO111" s="47"/>
+      <c r="AP111" s="47"/>
+      <c r="AQ111" s="47"/>
+      <c r="AR111" s="108"/>
+      <c r="AS111" s="105"/>
+      <c r="AT111" s="47"/>
+      <c r="AU111" s="47"/>
+      <c r="AV111" s="47"/>
+      <c r="AW111" s="108"/>
+      <c r="AX111" s="105"/>
+      <c r="AY111" s="47"/>
+      <c r="AZ111" s="47"/>
+      <c r="BA111" s="47"/>
+      <c r="BB111" s="108"/>
+      <c r="BC111" s="30"/>
+    </row>
+    <row r="112" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B112" s="124">
+        <v>4.17</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" s="85"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G112" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H112" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I112" s="128">
+        <v>0</v>
+      </c>
+      <c r="J112" s="34"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="94"/>
+      <c r="O112" s="91"/>
+      <c r="P112" s="44"/>
+      <c r="Q112" s="44"/>
+      <c r="R112" s="44"/>
+      <c r="S112" s="100"/>
+      <c r="T112" s="98"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
+      <c r="W112" s="46"/>
+      <c r="X112" s="103"/>
+      <c r="Y112" s="106"/>
+      <c r="Z112" s="49"/>
+      <c r="AA112" s="49"/>
+      <c r="AB112" s="49"/>
+      <c r="AC112" s="110"/>
+      <c r="AD112" s="106"/>
+      <c r="AE112" s="49"/>
+      <c r="AF112" s="49"/>
+      <c r="AG112" s="49"/>
+      <c r="AH112" s="110"/>
+      <c r="AI112" s="106"/>
+      <c r="AJ112" s="49"/>
+      <c r="AK112" s="49"/>
+      <c r="AL112" s="49"/>
+      <c r="AM112" s="110"/>
+      <c r="AN112" s="106"/>
+      <c r="AO112" s="49"/>
+      <c r="AP112" s="49"/>
+      <c r="AQ112" s="49"/>
+      <c r="AR112" s="110"/>
+      <c r="AS112" s="106"/>
+      <c r="AT112" s="49"/>
+      <c r="AU112" s="49"/>
+      <c r="AV112" s="49"/>
+      <c r="AW112" s="110"/>
+      <c r="AX112" s="106"/>
+      <c r="AY112" s="49"/>
+      <c r="AZ112" s="49"/>
+      <c r="BA112" s="49"/>
+      <c r="BB112" s="110"/>
+      <c r="BC112" s="30"/>
+    </row>
+    <row r="113" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B113" s="31"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" s="118"/>
+      <c r="F113" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G113" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H113" s="33">
+        <f t="shared" ref="H113" si="10">NETWORKDAYS(F113,G113)</f>
+        <v>1</v>
+      </c>
+      <c r="I113" s="128">
+        <v>0</v>
+      </c>
+      <c r="J113" s="34"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="94"/>
+      <c r="O113" s="91"/>
+      <c r="P113" s="44"/>
+      <c r="Q113" s="44"/>
+      <c r="R113" s="44"/>
+      <c r="S113" s="100"/>
+      <c r="T113" s="98"/>
+      <c r="U113" s="46"/>
+      <c r="V113" s="46"/>
+      <c r="W113" s="46"/>
+      <c r="X113" s="103"/>
+      <c r="Y113" s="106"/>
+      <c r="Z113" s="49"/>
+      <c r="AA113" s="49"/>
+      <c r="AB113" s="49"/>
+      <c r="AC113" s="110"/>
+      <c r="AD113" s="106"/>
+      <c r="AE113" s="49"/>
+      <c r="AF113" s="49"/>
+      <c r="AG113" s="49"/>
+      <c r="AH113" s="110"/>
+      <c r="AI113" s="106"/>
+      <c r="AJ113" s="49"/>
+      <c r="AK113" s="49"/>
+      <c r="AL113" s="49"/>
+      <c r="AM113" s="110"/>
+      <c r="AN113" s="106"/>
+      <c r="AO113" s="49"/>
+      <c r="AP113" s="49"/>
+      <c r="AQ113" s="49"/>
+      <c r="AR113" s="110"/>
+      <c r="AS113" s="106"/>
+      <c r="AT113" s="49"/>
+      <c r="AU113" s="49"/>
+      <c r="AV113" s="49"/>
+      <c r="AW113" s="110"/>
+      <c r="AX113" s="106"/>
+      <c r="AY113" s="49"/>
+      <c r="AZ113" s="49"/>
+      <c r="BA113" s="49"/>
+      <c r="BB113" s="110"/>
+      <c r="BC113" s="30"/>
+    </row>
+    <row r="114" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B114" s="86"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="118"/>
+      <c r="F114" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G114" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H114" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I114" s="128">
+        <v>0</v>
+      </c>
+      <c r="J114" s="34"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="91"/>
+      <c r="P114" s="44"/>
+      <c r="Q114" s="44"/>
+      <c r="R114" s="44"/>
+      <c r="S114" s="100"/>
+      <c r="T114" s="98"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="46"/>
+      <c r="W114" s="46"/>
+      <c r="X114" s="103"/>
+      <c r="Y114" s="106"/>
+      <c r="Z114" s="49"/>
+      <c r="AA114" s="49"/>
+      <c r="AB114" s="49"/>
+      <c r="AC114" s="110"/>
+      <c r="AD114" s="106"/>
+      <c r="AE114" s="49"/>
+      <c r="AF114" s="49"/>
+      <c r="AG114" s="49"/>
+      <c r="AH114" s="110"/>
+      <c r="AI114" s="106"/>
+      <c r="AJ114" s="49"/>
+      <c r="AK114" s="49"/>
+      <c r="AL114" s="49"/>
+      <c r="AM114" s="110"/>
+      <c r="AN114" s="106"/>
+      <c r="AO114" s="49"/>
+      <c r="AP114" s="49"/>
+      <c r="AQ114" s="49"/>
+      <c r="AR114" s="110"/>
+      <c r="AS114" s="106"/>
+      <c r="AT114" s="49"/>
+      <c r="AU114" s="49"/>
+      <c r="AV114" s="49"/>
+      <c r="AW114" s="110"/>
+      <c r="AX114" s="106"/>
+      <c r="AY114" s="49"/>
+      <c r="AZ114" s="49"/>
+      <c r="BA114" s="49"/>
+      <c r="BB114" s="110"/>
+      <c r="BC114" s="30"/>
+    </row>
+    <row r="115" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B115" s="86"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="118"/>
+      <c r="F115" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G115" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H115" s="33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I115" s="128">
+        <v>0</v>
+      </c>
+      <c r="J115" s="34"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="94"/>
+      <c r="O115" s="91"/>
+      <c r="P115" s="44"/>
+      <c r="Q115" s="44"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="100"/>
+      <c r="T115" s="98"/>
+      <c r="U115" s="46"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="46"/>
+      <c r="X115" s="103"/>
+      <c r="Y115" s="106"/>
+      <c r="Z115" s="49"/>
+      <c r="AA115" s="49"/>
+      <c r="AB115" s="49"/>
+      <c r="AC115" s="110"/>
+      <c r="AD115" s="106"/>
+      <c r="AE115" s="49"/>
+      <c r="AF115" s="49"/>
+      <c r="AG115" s="49"/>
+      <c r="AH115" s="110"/>
+      <c r="AI115" s="106"/>
+      <c r="AJ115" s="49"/>
+      <c r="AK115" s="49"/>
+      <c r="AL115" s="49"/>
+      <c r="AM115" s="110"/>
+      <c r="AN115" s="106"/>
+      <c r="AO115" s="49"/>
+      <c r="AP115" s="49"/>
+      <c r="AQ115" s="49"/>
+      <c r="AR115" s="110"/>
+      <c r="AS115" s="106"/>
+      <c r="AT115" s="49"/>
+      <c r="AU115" s="49"/>
+      <c r="AV115" s="49"/>
+      <c r="AW115" s="110"/>
+      <c r="AX115" s="106"/>
+      <c r="AY115" s="49"/>
+      <c r="AZ115" s="49"/>
+      <c r="BA115" s="49"/>
+      <c r="BB115" s="110"/>
+      <c r="BC115" s="30"/>
+    </row>
+    <row r="116" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B116" s="31">
+        <v>4.18</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="85"/>
+      <c r="E116" s="118"/>
+      <c r="F116" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G116" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H116" s="33">
+        <f t="shared" ref="H116:H120" si="11">NETWORKDAYS(F116,G116)</f>
+        <v>1</v>
+      </c>
+      <c r="I116" s="128">
+        <v>0</v>
+      </c>
+      <c r="J116" s="34"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="94"/>
+      <c r="O116" s="91"/>
+      <c r="P116" s="44"/>
+      <c r="Q116" s="44"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="100"/>
+      <c r="T116" s="98"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
+      <c r="X116" s="103"/>
+      <c r="Y116" s="106"/>
+      <c r="Z116" s="49"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="110"/>
+      <c r="AD116" s="106"/>
+      <c r="AE116" s="49"/>
+      <c r="AF116" s="49"/>
+      <c r="AG116" s="49"/>
+      <c r="AH116" s="110"/>
+      <c r="AI116" s="106"/>
+      <c r="AJ116" s="49"/>
+      <c r="AK116" s="49"/>
+      <c r="AL116" s="49"/>
+      <c r="AM116" s="110"/>
+      <c r="AN116" s="106"/>
+      <c r="AO116" s="49"/>
+      <c r="AP116" s="49"/>
+      <c r="AQ116" s="49"/>
+      <c r="AR116" s="110"/>
+      <c r="AS116" s="106"/>
+      <c r="AT116" s="49"/>
+      <c r="AU116" s="49"/>
+      <c r="AV116" s="49"/>
+      <c r="AW116" s="110"/>
+      <c r="AX116" s="106"/>
+      <c r="AY116" s="49"/>
+      <c r="AZ116" s="49"/>
+      <c r="BA116" s="49"/>
+      <c r="BB116" s="110"/>
+      <c r="BC116" s="30"/>
+    </row>
+    <row r="117" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B117" s="86"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="118"/>
+      <c r="F117" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G117" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H117" s="33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="128">
+        <v>0</v>
+      </c>
+      <c r="J117" s="34"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="94"/>
+      <c r="O117" s="91"/>
+      <c r="P117" s="44"/>
+      <c r="Q117" s="44"/>
+      <c r="R117" s="44"/>
+      <c r="S117" s="100"/>
+      <c r="T117" s="98"/>
+      <c r="U117" s="46"/>
+      <c r="V117" s="46"/>
+      <c r="W117" s="46"/>
+      <c r="X117" s="103"/>
+      <c r="Y117" s="106"/>
+      <c r="Z117" s="49"/>
+      <c r="AA117" s="49"/>
+      <c r="AB117" s="49"/>
+      <c r="AC117" s="110"/>
+      <c r="AD117" s="106"/>
+      <c r="AE117" s="49"/>
+      <c r="AF117" s="49"/>
+      <c r="AG117" s="49"/>
+      <c r="AH117" s="110"/>
+      <c r="AI117" s="106"/>
+      <c r="AJ117" s="49"/>
+      <c r="AK117" s="49"/>
+      <c r="AL117" s="49"/>
+      <c r="AM117" s="110"/>
+      <c r="AN117" s="106"/>
+      <c r="AO117" s="49"/>
+      <c r="AP117" s="49"/>
+      <c r="AQ117" s="49"/>
+      <c r="AR117" s="110"/>
+      <c r="AS117" s="106"/>
+      <c r="AT117" s="49"/>
+      <c r="AU117" s="49"/>
+      <c r="AV117" s="49"/>
+      <c r="AW117" s="110"/>
+      <c r="AX117" s="106"/>
+      <c r="AY117" s="49"/>
+      <c r="AZ117" s="49"/>
+      <c r="BA117" s="49"/>
+      <c r="BB117" s="110"/>
+      <c r="BC117" s="30"/>
+    </row>
+    <row r="118" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B118" s="86"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="118"/>
+      <c r="F118" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G118" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H118" s="33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="128">
+        <v>0</v>
+      </c>
+      <c r="J118" s="34"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="94"/>
+      <c r="O118" s="91"/>
+      <c r="P118" s="44"/>
+      <c r="Q118" s="44"/>
+      <c r="R118" s="44"/>
+      <c r="S118" s="100"/>
+      <c r="T118" s="98"/>
+      <c r="U118" s="46"/>
+      <c r="V118" s="46"/>
+      <c r="W118" s="46"/>
+      <c r="X118" s="103"/>
+      <c r="Y118" s="106"/>
+      <c r="Z118" s="49"/>
+      <c r="AA118" s="49"/>
+      <c r="AB118" s="49"/>
+      <c r="AC118" s="110"/>
+      <c r="AD118" s="106"/>
+      <c r="AE118" s="49"/>
+      <c r="AF118" s="49"/>
+      <c r="AG118" s="49"/>
+      <c r="AH118" s="110"/>
+      <c r="AI118" s="106"/>
+      <c r="AJ118" s="49"/>
+      <c r="AK118" s="49"/>
+      <c r="AL118" s="49"/>
+      <c r="AM118" s="110"/>
+      <c r="AN118" s="106"/>
+      <c r="AO118" s="49"/>
+      <c r="AP118" s="49"/>
+      <c r="AQ118" s="49"/>
+      <c r="AR118" s="110"/>
+      <c r="AS118" s="106"/>
+      <c r="AT118" s="49"/>
+      <c r="AU118" s="49"/>
+      <c r="AV118" s="49"/>
+      <c r="AW118" s="110"/>
+      <c r="AX118" s="106"/>
+      <c r="AY118" s="49"/>
+      <c r="AZ118" s="49"/>
+      <c r="BA118" s="49"/>
+      <c r="BB118" s="110"/>
+      <c r="BC118" s="30"/>
+    </row>
+    <row r="119" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B119" s="86"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="118"/>
+      <c r="F119" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G119" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H119" s="33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I119" s="128">
+        <v>0</v>
+      </c>
+      <c r="J119" s="34"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="94"/>
+      <c r="O119" s="91"/>
+      <c r="P119" s="44"/>
+      <c r="Q119" s="44"/>
+      <c r="R119" s="44"/>
+      <c r="S119" s="100"/>
+      <c r="T119" s="98"/>
+      <c r="U119" s="46"/>
+      <c r="V119" s="46"/>
+      <c r="W119" s="46"/>
+      <c r="X119" s="103"/>
+      <c r="Y119" s="106"/>
+      <c r="Z119" s="49"/>
+      <c r="AA119" s="49"/>
+      <c r="AB119" s="49"/>
+      <c r="AC119" s="110"/>
+      <c r="AD119" s="106"/>
+      <c r="AE119" s="49"/>
+      <c r="AF119" s="49"/>
+      <c r="AG119" s="49"/>
+      <c r="AH119" s="110"/>
+      <c r="AI119" s="106"/>
+      <c r="AJ119" s="49"/>
+      <c r="AK119" s="49"/>
+      <c r="AL119" s="49"/>
+      <c r="AM119" s="110"/>
+      <c r="AN119" s="106"/>
+      <c r="AO119" s="49"/>
+      <c r="AP119" s="49"/>
+      <c r="AQ119" s="49"/>
+      <c r="AR119" s="110"/>
+      <c r="AS119" s="106"/>
+      <c r="AT119" s="49"/>
+      <c r="AU119" s="49"/>
+      <c r="AV119" s="49"/>
+      <c r="AW119" s="110"/>
+      <c r="AX119" s="106"/>
+      <c r="AY119" s="49"/>
+      <c r="AZ119" s="49"/>
+      <c r="BA119" s="49"/>
+      <c r="BB119" s="110"/>
+      <c r="BC119" s="30"/>
+    </row>
+    <row r="120" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B120" s="86"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120" s="118"/>
+      <c r="F120" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G120" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H120" s="33">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I120" s="128">
+        <v>0</v>
+      </c>
+      <c r="J120" s="34"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="94"/>
+      <c r="O120" s="91"/>
+      <c r="P120" s="44"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="44"/>
+      <c r="S120" s="100"/>
+      <c r="T120" s="98"/>
+      <c r="U120" s="46"/>
+      <c r="V120" s="46"/>
+      <c r="W120" s="46"/>
+      <c r="X120" s="103"/>
+      <c r="Y120" s="106"/>
+      <c r="Z120" s="49"/>
+      <c r="AA120" s="49"/>
+      <c r="AB120" s="49"/>
+      <c r="AC120" s="110"/>
+      <c r="AD120" s="106"/>
+      <c r="AE120" s="49"/>
+      <c r="AF120" s="49"/>
+      <c r="AG120" s="49"/>
+      <c r="AH120" s="110"/>
+      <c r="AI120" s="106"/>
+      <c r="AJ120" s="49"/>
+      <c r="AK120" s="49"/>
+      <c r="AL120" s="49"/>
+      <c r="AM120" s="110"/>
+      <c r="AN120" s="106"/>
+      <c r="AO120" s="49"/>
+      <c r="AP120" s="49"/>
+      <c r="AQ120" s="49"/>
+      <c r="AR120" s="110"/>
+      <c r="AS120" s="106"/>
+      <c r="AT120" s="49"/>
+      <c r="AU120" s="49"/>
+      <c r="AV120" s="49"/>
+      <c r="AW120" s="110"/>
+      <c r="AX120" s="106"/>
+      <c r="AY120" s="49"/>
+      <c r="AZ120" s="49"/>
+      <c r="BA120" s="49"/>
+      <c r="BB120" s="110"/>
+      <c r="BC120" s="30"/>
+    </row>
+    <row r="121" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B121" s="31">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="85"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G121" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H121" s="33">
+        <f t="shared" ref="H121:H124" si="12">NETWORKDAYS(F121,G121)</f>
+        <v>1</v>
+      </c>
+      <c r="I121" s="128">
+        <v>0</v>
+      </c>
+      <c r="J121" s="34"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="94"/>
+      <c r="O121" s="91"/>
+      <c r="P121" s="44"/>
+      <c r="Q121" s="44"/>
+      <c r="R121" s="44"/>
+      <c r="S121" s="100"/>
+      <c r="T121" s="98"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
+      <c r="W121" s="46"/>
+      <c r="X121" s="103"/>
+      <c r="Y121" s="106"/>
+      <c r="Z121" s="49"/>
+      <c r="AA121" s="49"/>
+      <c r="AB121" s="49"/>
+      <c r="AC121" s="110"/>
+      <c r="AD121" s="106"/>
+      <c r="AE121" s="49"/>
+      <c r="AF121" s="49"/>
+      <c r="AG121" s="49"/>
+      <c r="AH121" s="110"/>
+      <c r="AI121" s="106"/>
+      <c r="AJ121" s="49"/>
+      <c r="AK121" s="49"/>
+      <c r="AL121" s="49"/>
+      <c r="AM121" s="110"/>
+      <c r="AN121" s="106"/>
+      <c r="AO121" s="49"/>
+      <c r="AP121" s="49"/>
+      <c r="AQ121" s="49"/>
+      <c r="AR121" s="110"/>
+      <c r="AS121" s="106"/>
+      <c r="AT121" s="49"/>
+      <c r="AU121" s="49"/>
+      <c r="AV121" s="49"/>
+      <c r="AW121" s="110"/>
+      <c r="AX121" s="106"/>
+      <c r="AY121" s="49"/>
+      <c r="AZ121" s="49"/>
+      <c r="BA121" s="49"/>
+      <c r="BB121" s="110"/>
+      <c r="BC121" s="30"/>
+    </row>
+    <row r="122" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B122" s="31"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E122" s="118"/>
+      <c r="F122" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G122" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H122" s="33">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I122" s="128">
+        <v>0</v>
+      </c>
+      <c r="J122" s="34"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="94"/>
+      <c r="O122" s="91"/>
+      <c r="P122" s="44"/>
+      <c r="Q122" s="44"/>
+      <c r="R122" s="44"/>
+      <c r="S122" s="100"/>
+      <c r="T122" s="98"/>
+      <c r="U122" s="46"/>
+      <c r="V122" s="46"/>
+      <c r="W122" s="46"/>
+      <c r="X122" s="103"/>
+      <c r="Y122" s="106"/>
+      <c r="Z122" s="49"/>
+      <c r="AA122" s="49"/>
+      <c r="AB122" s="49"/>
+      <c r="AC122" s="110"/>
+      <c r="AD122" s="106"/>
+      <c r="AE122" s="49"/>
+      <c r="AF122" s="49"/>
+      <c r="AG122" s="49"/>
+      <c r="AH122" s="110"/>
+      <c r="AI122" s="106"/>
+      <c r="AJ122" s="49"/>
+      <c r="AK122" s="49"/>
+      <c r="AL122" s="49"/>
+      <c r="AM122" s="110"/>
+      <c r="AN122" s="106"/>
+      <c r="AO122" s="49"/>
+      <c r="AP122" s="49"/>
+      <c r="AQ122" s="49"/>
+      <c r="AR122" s="110"/>
+      <c r="AS122" s="106"/>
+      <c r="AT122" s="49"/>
+      <c r="AU122" s="49"/>
+      <c r="AV122" s="49"/>
+      <c r="AW122" s="110"/>
+      <c r="AX122" s="106"/>
+      <c r="AY122" s="49"/>
+      <c r="AZ122" s="49"/>
+      <c r="BA122" s="49"/>
+      <c r="BB122" s="110"/>
+      <c r="BC122" s="30"/>
+    </row>
+    <row r="123" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B123" s="86"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" s="118"/>
+      <c r="F123" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G123" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H123" s="33">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I123" s="128">
+        <v>0</v>
+      </c>
+      <c r="J123" s="34"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="94"/>
+      <c r="O123" s="91"/>
+      <c r="P123" s="44"/>
+      <c r="Q123" s="44"/>
+      <c r="R123" s="44"/>
+      <c r="S123" s="100"/>
+      <c r="T123" s="98"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
+      <c r="X123" s="103"/>
+      <c r="Y123" s="106"/>
+      <c r="Z123" s="49"/>
+      <c r="AA123" s="49"/>
+      <c r="AB123" s="49"/>
+      <c r="AC123" s="110"/>
+      <c r="AD123" s="106"/>
+      <c r="AE123" s="49"/>
+      <c r="AF123" s="49"/>
+      <c r="AG123" s="49"/>
+      <c r="AH123" s="110"/>
+      <c r="AI123" s="106"/>
+      <c r="AJ123" s="49"/>
+      <c r="AK123" s="49"/>
+      <c r="AL123" s="49"/>
+      <c r="AM123" s="110"/>
+      <c r="AN123" s="106"/>
+      <c r="AO123" s="49"/>
+      <c r="AP123" s="49"/>
+      <c r="AQ123" s="49"/>
+      <c r="AR123" s="110"/>
+      <c r="AS123" s="106"/>
+      <c r="AT123" s="49"/>
+      <c r="AU123" s="49"/>
+      <c r="AV123" s="49"/>
+      <c r="AW123" s="110"/>
+      <c r="AX123" s="106"/>
+      <c r="AY123" s="49"/>
+      <c r="AZ123" s="49"/>
+      <c r="BA123" s="49"/>
+      <c r="BB123" s="110"/>
+      <c r="BC123" s="30"/>
+    </row>
+    <row r="124" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B124" s="86"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="118"/>
+      <c r="F124" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G124" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H124" s="33">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="128">
+        <v>0</v>
+      </c>
+      <c r="J124" s="34"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="94"/>
+      <c r="O124" s="91"/>
+      <c r="P124" s="44"/>
+      <c r="Q124" s="44"/>
+      <c r="R124" s="44"/>
+      <c r="S124" s="100"/>
+      <c r="T124" s="98"/>
+      <c r="U124" s="46"/>
+      <c r="V124" s="46"/>
+      <c r="W124" s="46"/>
+      <c r="X124" s="103"/>
+      <c r="Y124" s="106"/>
+      <c r="Z124" s="49"/>
+      <c r="AA124" s="49"/>
+      <c r="AB124" s="49"/>
+      <c r="AC124" s="110"/>
+      <c r="AD124" s="106"/>
+      <c r="AE124" s="49"/>
+      <c r="AF124" s="49"/>
+      <c r="AG124" s="49"/>
+      <c r="AH124" s="110"/>
+      <c r="AI124" s="106"/>
+      <c r="AJ124" s="49"/>
+      <c r="AK124" s="49"/>
+      <c r="AL124" s="49"/>
+      <c r="AM124" s="110"/>
+      <c r="AN124" s="106"/>
+      <c r="AO124" s="49"/>
+      <c r="AP124" s="49"/>
+      <c r="AQ124" s="49"/>
+      <c r="AR124" s="110"/>
+      <c r="AS124" s="106"/>
+      <c r="AT124" s="49"/>
+      <c r="AU124" s="49"/>
+      <c r="AV124" s="49"/>
+      <c r="AW124" s="110"/>
+      <c r="AX124" s="106"/>
+      <c r="AY124" s="49"/>
+      <c r="AZ124" s="49"/>
+      <c r="BA124" s="49"/>
+      <c r="BB124" s="110"/>
+      <c r="BC124" s="30"/>
+    </row>
+    <row r="125" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A125" s="117"/>
+      <c r="B125" s="124">
+        <v>4.2</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G125" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H125" s="33">
+        <f t="shared" ref="H125:H127" si="13">NETWORKDAYS(F125,G125)</f>
+        <v>1</v>
+      </c>
+      <c r="I125" s="128">
+        <v>0</v>
+      </c>
+      <c r="J125" s="34"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="94"/>
+      <c r="O125" s="91"/>
+      <c r="P125" s="44"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="44"/>
+      <c r="S125" s="100"/>
+      <c r="T125" s="98"/>
+      <c r="U125" s="46"/>
+      <c r="V125" s="46"/>
+      <c r="W125" s="46"/>
+      <c r="X125" s="103"/>
+      <c r="Y125" s="106"/>
+      <c r="Z125" s="49"/>
+      <c r="AA125" s="49"/>
+      <c r="AB125" s="49"/>
+      <c r="AC125" s="110"/>
+      <c r="AD125" s="106"/>
+      <c r="AE125" s="49"/>
+      <c r="AF125" s="49"/>
+      <c r="AG125" s="49"/>
+      <c r="AH125" s="110"/>
+      <c r="AI125" s="106"/>
+      <c r="AJ125" s="49"/>
+      <c r="AK125" s="49"/>
+      <c r="AL125" s="49"/>
+      <c r="AM125" s="110"/>
+      <c r="AN125" s="106"/>
+      <c r="AO125" s="49"/>
+      <c r="AP125" s="49"/>
+      <c r="AQ125" s="49"/>
+      <c r="AR125" s="110"/>
+      <c r="AS125" s="106"/>
+      <c r="AT125" s="49"/>
+      <c r="AU125" s="49"/>
+      <c r="AV125" s="49"/>
+      <c r="AW125" s="110"/>
+      <c r="AX125" s="106"/>
+      <c r="AY125" s="49"/>
+      <c r="AZ125" s="49"/>
+      <c r="BA125" s="49"/>
+      <c r="BB125" s="110"/>
+      <c r="BC125" s="30"/>
+    </row>
+    <row r="126" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B126" s="31"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="118"/>
+      <c r="F126" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G126" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H126" s="33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I126" s="65">
+        <v>0</v>
+      </c>
+      <c r="J126" s="34"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="94"/>
+      <c r="O126" s="91"/>
+      <c r="P126" s="44"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="44"/>
+      <c r="S126" s="100"/>
+      <c r="T126" s="98"/>
+      <c r="U126" s="46"/>
+      <c r="V126" s="46"/>
+      <c r="W126" s="46"/>
+      <c r="X126" s="103"/>
+      <c r="Y126" s="106"/>
+      <c r="Z126" s="49"/>
+      <c r="AA126" s="49"/>
+      <c r="AB126" s="49"/>
+      <c r="AC126" s="110"/>
+      <c r="AD126" s="106"/>
+      <c r="AE126" s="49"/>
+      <c r="AF126" s="49"/>
+      <c r="AG126" s="49"/>
+      <c r="AH126" s="110"/>
+      <c r="AI126" s="106"/>
+      <c r="AJ126" s="49"/>
+      <c r="AK126" s="49"/>
+      <c r="AL126" s="49"/>
+      <c r="AM126" s="110"/>
+      <c r="AN126" s="106"/>
+      <c r="AO126" s="49"/>
+      <c r="AP126" s="49"/>
+      <c r="AQ126" s="49"/>
+      <c r="AR126" s="110"/>
+      <c r="AS126" s="106"/>
+      <c r="AT126" s="49"/>
+      <c r="AU126" s="49"/>
+      <c r="AV126" s="49"/>
+      <c r="AW126" s="110"/>
+      <c r="AX126" s="106"/>
+      <c r="AY126" s="49"/>
+      <c r="AZ126" s="49"/>
+      <c r="BA126" s="49"/>
+      <c r="BB126" s="110"/>
+      <c r="BC126" s="30"/>
+    </row>
+    <row r="127" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A127" s="117"/>
+      <c r="B127" s="86">
+        <v>4.21</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G127" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H127" s="33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I127" s="65">
+        <v>0</v>
+      </c>
+      <c r="J127" s="34"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="94"/>
+      <c r="O127" s="91"/>
+      <c r="P127" s="44"/>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="44"/>
+      <c r="S127" s="100"/>
+      <c r="T127" s="98"/>
+      <c r="U127" s="46"/>
+      <c r="V127" s="46"/>
+      <c r="W127" s="46"/>
+      <c r="X127" s="103"/>
+      <c r="Y127" s="106"/>
+      <c r="Z127" s="49"/>
+      <c r="AA127" s="49"/>
+      <c r="AB127" s="49"/>
+      <c r="AC127" s="110"/>
+      <c r="AD127" s="106"/>
+      <c r="AE127" s="49"/>
+      <c r="AF127" s="49"/>
+      <c r="AG127" s="49"/>
+      <c r="AH127" s="110"/>
+      <c r="AI127" s="106"/>
+      <c r="AJ127" s="49"/>
+      <c r="AK127" s="49"/>
+      <c r="AL127" s="49"/>
+      <c r="AM127" s="110"/>
+      <c r="AN127" s="106"/>
+      <c r="AO127" s="49"/>
+      <c r="AP127" s="49"/>
+      <c r="AQ127" s="49"/>
+      <c r="AR127" s="110"/>
+      <c r="AS127" s="106"/>
+      <c r="AT127" s="49"/>
+      <c r="AU127" s="49"/>
+      <c r="AV127" s="49"/>
+      <c r="AW127" s="110"/>
+      <c r="AX127" s="106"/>
+      <c r="AY127" s="49"/>
+      <c r="AZ127" s="49"/>
+      <c r="BA127" s="49"/>
+      <c r="BB127" s="110"/>
+      <c r="BC127" s="30"/>
+    </row>
+    <row r="128" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B128" s="55">
+        <v>5</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="56"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="58"/>
+      <c r="K128" s="59"/>
+      <c r="L128" s="60"/>
+      <c r="M128" s="60"/>
+      <c r="N128" s="58"/>
+      <c r="O128" s="58"/>
+      <c r="P128" s="58"/>
+      <c r="Q128" s="58"/>
+      <c r="R128" s="58"/>
+      <c r="S128" s="58"/>
+      <c r="T128" s="58"/>
+      <c r="U128" s="58"/>
+      <c r="V128" s="58"/>
+      <c r="W128" s="58"/>
+      <c r="X128" s="58"/>
+      <c r="Y128" s="58"/>
+      <c r="Z128" s="58"/>
+      <c r="AA128" s="58"/>
+      <c r="AB128" s="58"/>
+      <c r="AC128" s="58"/>
+      <c r="AD128" s="58"/>
+      <c r="AE128" s="58"/>
+      <c r="AF128" s="58"/>
+      <c r="AG128" s="58"/>
+      <c r="AH128" s="58"/>
+      <c r="AI128" s="58"/>
+      <c r="AJ128" s="58"/>
+      <c r="AK128" s="58"/>
+      <c r="AL128" s="58"/>
+      <c r="AM128" s="58"/>
+      <c r="AN128" s="58"/>
+      <c r="AO128" s="58"/>
+      <c r="AP128" s="58"/>
+      <c r="AQ128" s="58"/>
+      <c r="AR128" s="58"/>
+      <c r="AS128" s="58"/>
+      <c r="AT128" s="58"/>
+      <c r="AU128" s="58"/>
+      <c r="AV128" s="58"/>
+      <c r="AW128" s="58"/>
+      <c r="AX128" s="58"/>
+      <c r="AY128" s="58"/>
+      <c r="AZ128" s="58"/>
+      <c r="BA128" s="58"/>
+      <c r="BB128" s="58"/>
+      <c r="BC128" s="54"/>
+    </row>
+    <row r="129" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A129" s="117"/>
+      <c r="B129" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C129" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="87"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="70">
+        <v>45564</v>
+      </c>
+      <c r="G129" s="70">
+        <v>45394</v>
+      </c>
+      <c r="H129" s="71">
+        <f>NETWORKDAYS(F129,G129)</f>
+        <v>-121</v>
+      </c>
+      <c r="I129" s="72">
+        <v>1</v>
+      </c>
+      <c r="J129" s="34"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="94"/>
+      <c r="O129" s="91"/>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="44"/>
+      <c r="S129" s="100"/>
+      <c r="T129" s="98"/>
+      <c r="U129" s="46"/>
+      <c r="V129" s="46"/>
+      <c r="W129" s="46"/>
+      <c r="X129" s="103"/>
+      <c r="Y129" s="98"/>
+      <c r="Z129" s="46"/>
+      <c r="AA129" s="46"/>
+      <c r="AB129" s="46"/>
+      <c r="AC129" s="103"/>
+      <c r="AD129" s="105"/>
+      <c r="AE129" s="47"/>
+      <c r="AF129" s="47"/>
+      <c r="AG129" s="47"/>
+      <c r="AH129" s="108"/>
+      <c r="AI129" s="98"/>
+      <c r="AJ129" s="46"/>
+      <c r="AK129" s="46"/>
+      <c r="AL129" s="46"/>
+      <c r="AM129" s="46"/>
+      <c r="AN129" s="46"/>
+      <c r="AO129" s="46"/>
+      <c r="AP129" s="46"/>
+      <c r="AQ129" s="46"/>
+      <c r="AR129" s="46"/>
+      <c r="AS129" s="46"/>
+      <c r="AT129" s="46"/>
+      <c r="AU129" s="46"/>
+      <c r="AV129" s="46"/>
+      <c r="AW129" s="46"/>
+      <c r="AX129" s="46"/>
+      <c r="AY129" s="46"/>
+      <c r="AZ129" s="46"/>
+      <c r="BA129" s="46"/>
+      <c r="BB129" s="46"/>
+      <c r="BC129" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -8777,22 +11673,10 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="I86:I1048576 I1:I26 I28:I36 I38:I46 I48:I59">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="I126:I1048576 I68:I76 I78:I86 I88:I99 I64:I66 I1:I23">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1388,6 +1388,18 @@
       </rPr>
       <t>인터셉터</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 부여</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 조건</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2104,7 +2116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2482,66 +2494,18 @@
     <xf numFmtId="14" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,6 +2530,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2580,6 +2548,51 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2898,9 +2911,11 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC129"/>
+  <dimension ref="A1:BC132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -2973,40 +2988,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -3087,41 +3102,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="169" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="167" t="s">
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="140"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="150"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -3151,40 +3166,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="141" t="s">
+      <c r="J5" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="165">
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="151">
         <v>45611</v>
       </c>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3326,160 +3341,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="137" t="s">
+      <c r="F8" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="142" t="s">
+      <c r="J8" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="146" t="s">
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146" t="s">
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="150" t="s">
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="154" t="s">
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="154"/>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="154" t="s">
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="138"/>
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="138"/>
+      <c r="AI8" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="154"/>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="156"/>
-      <c r="AN8" s="158" t="s">
+      <c r="AJ8" s="138"/>
+      <c r="AK8" s="138"/>
+      <c r="AL8" s="138"/>
+      <c r="AM8" s="139"/>
+      <c r="AN8" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="AO8" s="159"/>
-      <c r="AP8" s="159"/>
-      <c r="AQ8" s="159"/>
-      <c r="AR8" s="159"/>
-      <c r="AS8" s="135" t="s">
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="135"/>
-      <c r="AU8" s="135"/>
-      <c r="AV8" s="135"/>
-      <c r="AW8" s="135"/>
-      <c r="AX8" s="135" t="s">
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
+      <c r="AX8" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="135"/>
-      <c r="AZ8" s="135"/>
-      <c r="BA8" s="135"/>
-      <c r="BB8" s="135"/>
+      <c r="AY8" s="156"/>
+      <c r="AZ8" s="156"/>
+      <c r="BA8" s="156"/>
+      <c r="BB8" s="156"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="155"/>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="155"/>
-      <c r="AL9" s="155"/>
-      <c r="AM9" s="157"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="161"/>
-      <c r="AP9" s="161"/>
-      <c r="AQ9" s="161"/>
-      <c r="AR9" s="161"/>
-      <c r="AS9" s="136"/>
-      <c r="AT9" s="136"/>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="136"/>
-      <c r="AX9" s="136"/>
-      <c r="AY9" s="136"/>
-      <c r="AZ9" s="136"/>
-      <c r="BA9" s="136"/>
-      <c r="BB9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="140"/>
+      <c r="AM9" s="141"/>
+      <c r="AN9" s="144"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="157"/>
+      <c r="AT9" s="157"/>
+      <c r="AU9" s="157"/>
+      <c r="AV9" s="157"/>
+      <c r="AW9" s="157"/>
+      <c r="AX9" s="157"/>
+      <c r="AY9" s="157"/>
+      <c r="AZ9" s="157"/>
+      <c r="BA9" s="157"/>
+      <c r="BB9" s="157"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>45565</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25:H63" si="2">NETWORKDAYS(F25,G25)</f>
+        <f t="shared" ref="H25" si="2">NETWORKDAYS(F25,G25)</f>
         <v>1</v>
       </c>
       <c r="I25" s="65">
@@ -4779,7 +4794,7 @@
         <v>45565</v>
       </c>
       <c r="H28" s="33">
-        <f t="shared" ref="H28:H63" si="3">NETWORKDAYS(F28,G28)</f>
+        <f t="shared" ref="H28:H55" si="3">NETWORKDAYS(F28,G28)</f>
         <v>1</v>
       </c>
       <c r="I28" s="65">
@@ -6178,7 +6193,7 @@
       <c r="BB48" s="108"/>
       <c r="BC48" s="30"/>
     </row>
-    <row r="49" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
       <c r="D49" s="85" t="s">
@@ -6245,7 +6260,7 @@
       <c r="BB49" s="108"/>
       <c r="BC49" s="30"/>
     </row>
-    <row r="50" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="50" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
       <c r="D50" s="85" t="s">
@@ -6312,7 +6327,7 @@
       <c r="BB50" s="110"/>
       <c r="BC50" s="30"/>
     </row>
-    <row r="51" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="51" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B51" s="31">
         <v>4.5</v>
       </c>
@@ -6381,11 +6396,11 @@
       <c r="BB51" s="110"/>
       <c r="BC51" s="30"/>
     </row>
-    <row r="52" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="2:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
       <c r="D52" s="85" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="64">
@@ -6448,11 +6463,11 @@
       <c r="BB52" s="110"/>
       <c r="BC52" s="30"/>
     </row>
-    <row r="53" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="85" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E53" s="118"/>
       <c r="F53" s="64">
@@ -6515,11 +6530,11 @@
       <c r="BB53" s="110"/>
       <c r="BC53" s="30"/>
     </row>
-    <row r="54" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
       <c r="D54" s="85" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="64">
@@ -6582,14 +6597,12 @@
       <c r="BB54" s="110"/>
       <c r="BC54" s="30"/>
     </row>
-    <row r="55" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B55" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="85"/>
+    <row r="55" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="85" t="s">
+        <v>64</v>
+      </c>
       <c r="E55" s="118"/>
       <c r="F55" s="64">
         <v>45565</v>
@@ -6598,7 +6611,7 @@
         <v>45565</v>
       </c>
       <c r="H55" s="33">
-        <f>NETWORKDAYS(F55,G55)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I55" s="65">
@@ -6651,12 +6664,14 @@
       <c r="BB55" s="110"/>
       <c r="BC55" s="30"/>
     </row>
-    <row r="56" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="85" t="s">
-        <v>65</v>
-      </c>
+    <row r="56" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B56" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="85"/>
       <c r="E56" s="118"/>
       <c r="F56" s="64">
         <v>45565</v>
@@ -6718,11 +6733,11 @@
       <c r="BB56" s="110"/>
       <c r="BC56" s="30"/>
     </row>
-    <row r="57" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="57" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
       <c r="D57" s="85" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="64">
@@ -6785,11 +6800,11 @@
       <c r="BB57" s="110"/>
       <c r="BC57" s="30"/>
     </row>
-    <row r="58" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="2:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
       <c r="D58" s="85" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="64">
@@ -6820,43 +6835,43 @@
       <c r="V58" s="46"/>
       <c r="W58" s="46"/>
       <c r="X58" s="103"/>
-      <c r="Y58" s="105"/>
-      <c r="Z58" s="47"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="108"/>
-      <c r="AD58" s="105"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="108"/>
-      <c r="AI58" s="105"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="47"/>
-      <c r="AL58" s="47"/>
-      <c r="AM58" s="108"/>
-      <c r="AN58" s="105"/>
-      <c r="AO58" s="47"/>
-      <c r="AP58" s="47"/>
-      <c r="AQ58" s="47"/>
-      <c r="AR58" s="108"/>
-      <c r="AS58" s="105"/>
-      <c r="AT58" s="47"/>
-      <c r="AU58" s="47"/>
-      <c r="AV58" s="47"/>
-      <c r="AW58" s="108"/>
-      <c r="AX58" s="105"/>
-      <c r="AY58" s="47"/>
-      <c r="AZ58" s="47"/>
-      <c r="BA58" s="47"/>
-      <c r="BB58" s="108"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="110"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="110"/>
+      <c r="AI58" s="106"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="49"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="110"/>
+      <c r="AN58" s="106"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="49"/>
+      <c r="AQ58" s="49"/>
+      <c r="AR58" s="110"/>
+      <c r="AS58" s="106"/>
+      <c r="AT58" s="49"/>
+      <c r="AU58" s="49"/>
+      <c r="AV58" s="49"/>
+      <c r="AW58" s="110"/>
+      <c r="AX58" s="106"/>
+      <c r="AY58" s="49"/>
+      <c r="AZ58" s="49"/>
+      <c r="BA58" s="49"/>
+      <c r="BB58" s="110"/>
       <c r="BC58" s="30"/>
     </row>
-    <row r="59" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="59" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
       <c r="D59" s="85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="64">
@@ -6887,47 +6902,45 @@
       <c r="V59" s="46"/>
       <c r="W59" s="46"/>
       <c r="X59" s="103"/>
-      <c r="Y59" s="105"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="108"/>
-      <c r="AD59" s="105"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="108"/>
-      <c r="AI59" s="105"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="47"/>
-      <c r="AL59" s="47"/>
-      <c r="AM59" s="108"/>
-      <c r="AN59" s="105"/>
-      <c r="AO59" s="47"/>
-      <c r="AP59" s="47"/>
-      <c r="AQ59" s="47"/>
-      <c r="AR59" s="108"/>
-      <c r="AS59" s="105"/>
-      <c r="AT59" s="47"/>
-      <c r="AU59" s="47"/>
-      <c r="AV59" s="47"/>
-      <c r="AW59" s="108"/>
-      <c r="AX59" s="105"/>
-      <c r="AY59" s="47"/>
-      <c r="AZ59" s="47"/>
-      <c r="BA59" s="47"/>
-      <c r="BB59" s="108"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="110"/>
+      <c r="AD59" s="106"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="110"/>
+      <c r="AI59" s="106"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="49"/>
+      <c r="AM59" s="110"/>
+      <c r="AN59" s="106"/>
+      <c r="AO59" s="49"/>
+      <c r="AP59" s="49"/>
+      <c r="AQ59" s="49"/>
+      <c r="AR59" s="110"/>
+      <c r="AS59" s="106"/>
+      <c r="AT59" s="49"/>
+      <c r="AU59" s="49"/>
+      <c r="AV59" s="49"/>
+      <c r="AW59" s="110"/>
+      <c r="AX59" s="106"/>
+      <c r="AY59" s="49"/>
+      <c r="AZ59" s="49"/>
+      <c r="BA59" s="49"/>
+      <c r="BB59" s="110"/>
       <c r="BC59" s="30"/>
     </row>
-    <row r="60" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B60" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="64"/>
+    <row r="60" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="118"/>
       <c r="F60" s="64">
         <v>45565</v>
       </c>
@@ -6935,7 +6948,7 @@
         <v>45565</v>
       </c>
       <c r="H60" s="33">
-        <f t="shared" ref="H60:H63" si="4">NETWORKDAYS(F60,G60)</f>
+        <f>NETWORKDAYS(F60,G60)</f>
         <v>1</v>
       </c>
       <c r="I60" s="65">
@@ -6956,45 +6969,45 @@
       <c r="V60" s="46"/>
       <c r="W60" s="46"/>
       <c r="X60" s="103"/>
-      <c r="Y60" s="106"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="106"/>
-      <c r="AE60" s="49"/>
-      <c r="AF60" s="49"/>
-      <c r="AG60" s="49"/>
-      <c r="AH60" s="110"/>
-      <c r="AI60" s="106"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="49"/>
-      <c r="AL60" s="49"/>
-      <c r="AM60" s="110"/>
-      <c r="AN60" s="106"/>
-      <c r="AO60" s="49"/>
-      <c r="AP60" s="49"/>
-      <c r="AQ60" s="49"/>
-      <c r="AR60" s="110"/>
-      <c r="AS60" s="106"/>
-      <c r="AT60" s="49"/>
-      <c r="AU60" s="49"/>
-      <c r="AV60" s="49"/>
-      <c r="AW60" s="110"/>
-      <c r="AX60" s="106"/>
-      <c r="AY60" s="49"/>
-      <c r="AZ60" s="49"/>
-      <c r="BA60" s="49"/>
-      <c r="BB60" s="110"/>
+      <c r="Y60" s="105"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="105"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="105"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="108"/>
+      <c r="AN60" s="105"/>
+      <c r="AO60" s="47"/>
+      <c r="AP60" s="47"/>
+      <c r="AQ60" s="47"/>
+      <c r="AR60" s="108"/>
+      <c r="AS60" s="105"/>
+      <c r="AT60" s="47"/>
+      <c r="AU60" s="47"/>
+      <c r="AV60" s="47"/>
+      <c r="AW60" s="108"/>
+      <c r="AX60" s="105"/>
+      <c r="AY60" s="47"/>
+      <c r="AZ60" s="47"/>
+      <c r="BA60" s="47"/>
+      <c r="BB60" s="108"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="61" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="64"/>
+      <c r="D61" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="118"/>
       <c r="F61" s="64">
         <v>45565</v>
       </c>
@@ -7002,7 +7015,7 @@
         <v>45565</v>
       </c>
       <c r="H61" s="33">
-        <f t="shared" si="4"/>
+        <f>NETWORKDAYS(F61,G61)</f>
         <v>1</v>
       </c>
       <c r="I61" s="65">
@@ -7023,44 +7036,46 @@
       <c r="V61" s="46"/>
       <c r="W61" s="46"/>
       <c r="X61" s="103"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="110"/>
-      <c r="AI61" s="106"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="49"/>
-      <c r="AL61" s="49"/>
-      <c r="AM61" s="110"/>
-      <c r="AN61" s="106"/>
-      <c r="AO61" s="49"/>
-      <c r="AP61" s="49"/>
-      <c r="AQ61" s="49"/>
-      <c r="AR61" s="110"/>
-      <c r="AS61" s="106"/>
-      <c r="AT61" s="49"/>
-      <c r="AU61" s="49"/>
-      <c r="AV61" s="49"/>
-      <c r="AW61" s="110"/>
-      <c r="AX61" s="106"/>
-      <c r="AY61" s="49"/>
-      <c r="AZ61" s="49"/>
-      <c r="BA61" s="49"/>
-      <c r="BB61" s="110"/>
+      <c r="Y61" s="105"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="105"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="105"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="108"/>
+      <c r="AN61" s="105"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
+      <c r="AQ61" s="47"/>
+      <c r="AR61" s="108"/>
+      <c r="AS61" s="105"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="108"/>
+      <c r="AX61" s="105"/>
+      <c r="AY61" s="47"/>
+      <c r="AZ61" s="47"/>
+      <c r="BA61" s="47"/>
+      <c r="BB61" s="108"/>
       <c r="BC61" s="30"/>
     </row>
-    <row r="62" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="118" t="s">
-        <v>67</v>
-      </c>
+    <row r="62" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B62" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="118"/>
       <c r="E62" s="64"/>
       <c r="F62" s="64">
         <v>45565</v>
@@ -7069,10 +7084,10 @@
         <v>45565</v>
       </c>
       <c r="H62" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H62:H65" si="4">NETWORKDAYS(F62,G62)</f>
         <v>1</v>
       </c>
-      <c r="I62" s="129">
+      <c r="I62" s="65">
         <v>0</v>
       </c>
       <c r="J62" s="34"/>
@@ -7122,11 +7137,11 @@
       <c r="BB62" s="110"/>
       <c r="BC62" s="30"/>
     </row>
-    <row r="63" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="63" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
       <c r="D63" s="118" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64">
@@ -7139,7 +7154,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I63" s="128">
+      <c r="I63" s="65">
         <v>0</v>
       </c>
       <c r="J63" s="34"/>
@@ -7189,16 +7204,13 @@
       <c r="BB63" s="110"/>
       <c r="BC63" s="30"/>
     </row>
-    <row r="64" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="118"/>
+    <row r="64" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="64"/>
       <c r="F64" s="64">
         <v>45565</v>
       </c>
@@ -7206,10 +7218,10 @@
         <v>45565</v>
       </c>
       <c r="H64" s="33">
-        <f>NETWORKDAYS(F64,G64)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="129">
         <v>0</v>
       </c>
       <c r="J64" s="34"/>
@@ -7227,45 +7239,45 @@
       <c r="V64" s="46"/>
       <c r="W64" s="46"/>
       <c r="X64" s="103"/>
-      <c r="Y64" s="98"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="46"/>
-      <c r="AC64" s="103"/>
-      <c r="AD64" s="105"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="47"/>
-      <c r="AH64" s="108"/>
-      <c r="AI64" s="98"/>
-      <c r="AJ64" s="46"/>
-      <c r="AK64" s="46"/>
-      <c r="AL64" s="46"/>
-      <c r="AM64" s="103"/>
-      <c r="AN64" s="98"/>
-      <c r="AO64" s="46"/>
-      <c r="AP64" s="46"/>
-      <c r="AQ64" s="46"/>
-      <c r="AR64" s="103"/>
-      <c r="AS64" s="111"/>
-      <c r="AT64" s="48"/>
-      <c r="AU64" s="48"/>
-      <c r="AV64" s="48"/>
-      <c r="AW64" s="113"/>
-      <c r="AX64" s="98"/>
-      <c r="AY64" s="46"/>
-      <c r="AZ64" s="46"/>
-      <c r="BA64" s="46"/>
-      <c r="BB64" s="103"/>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="110"/>
+      <c r="AD64" s="106"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="110"/>
+      <c r="AI64" s="106"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="110"/>
+      <c r="AN64" s="106"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="49"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="110"/>
+      <c r="AS64" s="106"/>
+      <c r="AT64" s="49"/>
+      <c r="AU64" s="49"/>
+      <c r="AV64" s="49"/>
+      <c r="AW64" s="110"/>
+      <c r="AX64" s="106"/>
+      <c r="AY64" s="49"/>
+      <c r="AZ64" s="49"/>
+      <c r="BA64" s="49"/>
+      <c r="BB64" s="110"/>
       <c r="BC64" s="30"/>
     </row>
-    <row r="65" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="118"/>
+      <c r="D65" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="64"/>
       <c r="F65" s="64">
         <v>45565</v>
       </c>
@@ -7273,10 +7285,10 @@
         <v>45565</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" ref="H65:H115" si="5">NETWORKDAYS(F65,G65)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I65" s="65">
+      <c r="I65" s="128">
         <v>0</v>
       </c>
       <c r="J65" s="34"/>
@@ -7294,44 +7306,47 @@
       <c r="V65" s="46"/>
       <c r="W65" s="46"/>
       <c r="X65" s="103"/>
-      <c r="Y65" s="98"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
-      <c r="AB65" s="46"/>
-      <c r="AC65" s="103"/>
-      <c r="AD65" s="105"/>
-      <c r="AE65" s="47"/>
-      <c r="AF65" s="47"/>
-      <c r="AG65" s="47"/>
-      <c r="AH65" s="108"/>
-      <c r="AI65" s="98"/>
-      <c r="AJ65" s="46"/>
-      <c r="AK65" s="46"/>
-      <c r="AL65" s="46"/>
-      <c r="AM65" s="103"/>
-      <c r="AN65" s="98"/>
-      <c r="AO65" s="46"/>
-      <c r="AP65" s="46"/>
-      <c r="AQ65" s="46"/>
-      <c r="AR65" s="103"/>
-      <c r="AS65" s="111"/>
-      <c r="AT65" s="48"/>
-      <c r="AU65" s="48"/>
-      <c r="AV65" s="48"/>
-      <c r="AW65" s="113"/>
-      <c r="AX65" s="98"/>
-      <c r="AY65" s="46"/>
-      <c r="AZ65" s="46"/>
-      <c r="BA65" s="46"/>
-      <c r="BB65" s="103"/>
+      <c r="Y65" s="106"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="106"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="110"/>
+      <c r="AI65" s="106"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49"/>
+      <c r="AL65" s="49"/>
+      <c r="AM65" s="110"/>
+      <c r="AN65" s="106"/>
+      <c r="AO65" s="49"/>
+      <c r="AP65" s="49"/>
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="110"/>
+      <c r="AS65" s="106"/>
+      <c r="AT65" s="49"/>
+      <c r="AU65" s="49"/>
+      <c r="AV65" s="49"/>
+      <c r="AW65" s="110"/>
+      <c r="AX65" s="106"/>
+      <c r="AY65" s="49"/>
+      <c r="AZ65" s="49"/>
+      <c r="BA65" s="49"/>
+      <c r="BB65" s="110"/>
       <c r="BC65" s="30"/>
     </row>
-    <row r="66" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="85" t="s">
-        <v>94</v>
-      </c>
+    <row r="66" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="117"/>
+      <c r="B66" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="32"/>
       <c r="E66" s="118"/>
       <c r="F66" s="64">
         <v>45565</v>
@@ -7393,11 +7408,11 @@
       <c r="BB66" s="103"/>
       <c r="BC66" s="30"/>
     </row>
-    <row r="67" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
       <c r="D67" s="85" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="64">
@@ -7407,7 +7422,7 @@
         <v>45565</v>
       </c>
       <c r="H67" s="33">
-        <f>NETWORKDAYS(F67,G67)</f>
+        <f t="shared" ref="H67:H118" si="5">NETWORKDAYS(F67,G67)</f>
         <v>1</v>
       </c>
       <c r="I67" s="65">
@@ -7464,7 +7479,7 @@
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
       <c r="D68" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E68" s="118"/>
       <c r="F68" s="64">
@@ -7474,7 +7489,7 @@
         <v>45565</v>
       </c>
       <c r="H68" s="33">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(F68,G68)</f>
         <v>1</v>
       </c>
       <c r="I68" s="65">
@@ -7527,11 +7542,11 @@
       <c r="BB68" s="103"/>
       <c r="BC68" s="30"/>
     </row>
-    <row r="69" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B69" s="31"/>
       <c r="C69" s="32"/>
       <c r="D69" s="85" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="64">
@@ -7541,7 +7556,7 @@
         <v>45565</v>
       </c>
       <c r="H69" s="33">
-        <f t="shared" si="5"/>
+        <f>NETWORKDAYS(F69,G69)</f>
         <v>1</v>
       </c>
       <c r="I69" s="65">
@@ -7598,7 +7613,7 @@
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
       <c r="D70" s="85" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="64">
@@ -7661,15 +7676,12 @@
       <c r="BB70" s="103"/>
       <c r="BC70" s="30"/>
     </row>
-    <row r="71" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A71" s="117"/>
-      <c r="B71" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="85"/>
+    <row r="71" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="85" t="s">
+        <v>40</v>
+      </c>
       <c r="E71" s="118"/>
       <c r="F71" s="64">
         <v>45565</v>
@@ -7684,58 +7696,58 @@
       <c r="I71" s="65">
         <v>0</v>
       </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="95"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="94"/>
       <c r="O71" s="91"/>
       <c r="P71" s="44"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="44"/>
       <c r="S71" s="100"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="104"/>
-      <c r="Y71" s="99"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="104"/>
-      <c r="AD71" s="106"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="110"/>
-      <c r="AI71" s="99"/>
-      <c r="AJ71" s="43"/>
-      <c r="AK71" s="43"/>
-      <c r="AL71" s="43"/>
-      <c r="AM71" s="104"/>
-      <c r="AN71" s="99"/>
-      <c r="AO71" s="43"/>
-      <c r="AP71" s="43"/>
-      <c r="AQ71" s="43"/>
-      <c r="AR71" s="104"/>
-      <c r="AS71" s="112"/>
-      <c r="AT71" s="50"/>
-      <c r="AU71" s="50"/>
-      <c r="AV71" s="50"/>
-      <c r="AW71" s="114"/>
-      <c r="AX71" s="99"/>
-      <c r="AY71" s="43"/>
-      <c r="AZ71" s="43"/>
-      <c r="BA71" s="43"/>
-      <c r="BB71" s="104"/>
+      <c r="T71" s="98"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="103"/>
+      <c r="Y71" s="98"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="103"/>
+      <c r="AD71" s="105"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="98"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="103"/>
+      <c r="AN71" s="98"/>
+      <c r="AO71" s="46"/>
+      <c r="AP71" s="46"/>
+      <c r="AQ71" s="46"/>
+      <c r="AR71" s="103"/>
+      <c r="AS71" s="111"/>
+      <c r="AT71" s="48"/>
+      <c r="AU71" s="48"/>
+      <c r="AV71" s="48"/>
+      <c r="AW71" s="113"/>
+      <c r="AX71" s="98"/>
+      <c r="AY71" s="46"/>
+      <c r="AZ71" s="46"/>
+      <c r="BA71" s="46"/>
+      <c r="BB71" s="103"/>
       <c r="BC71" s="30"/>
     </row>
     <row r="72" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B72" s="31"/>
       <c r="C72" s="32"/>
       <c r="D72" s="85" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E72" s="118"/>
       <c r="F72" s="64">
@@ -7751,59 +7763,62 @@
       <c r="I72" s="65">
         <v>0</v>
       </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="95"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="94"/>
       <c r="O72" s="91"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="44"/>
       <c r="S72" s="100"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="104"/>
-      <c r="Y72" s="99"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="104"/>
-      <c r="AD72" s="106"/>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="110"/>
-      <c r="AI72" s="99"/>
-      <c r="AJ72" s="43"/>
-      <c r="AK72" s="43"/>
-      <c r="AL72" s="43"/>
-      <c r="AM72" s="104"/>
-      <c r="AN72" s="99"/>
-      <c r="AO72" s="43"/>
-      <c r="AP72" s="43"/>
-      <c r="AQ72" s="43"/>
-      <c r="AR72" s="104"/>
-      <c r="AS72" s="112"/>
-      <c r="AT72" s="50"/>
-      <c r="AU72" s="50"/>
-      <c r="AV72" s="50"/>
-      <c r="AW72" s="114"/>
-      <c r="AX72" s="99"/>
-      <c r="AY72" s="43"/>
-      <c r="AZ72" s="43"/>
-      <c r="BA72" s="43"/>
-      <c r="BB72" s="104"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="103"/>
+      <c r="Y72" s="98"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="103"/>
+      <c r="AD72" s="105"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="108"/>
+      <c r="AI72" s="98"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="103"/>
+      <c r="AN72" s="98"/>
+      <c r="AO72" s="46"/>
+      <c r="AP72" s="46"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="103"/>
+      <c r="AS72" s="111"/>
+      <c r="AT72" s="48"/>
+      <c r="AU72" s="48"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="113"/>
+      <c r="AX72" s="98"/>
+      <c r="AY72" s="46"/>
+      <c r="AZ72" s="46"/>
+      <c r="BA72" s="46"/>
+      <c r="BB72" s="103"/>
       <c r="BC72" s="30"/>
     </row>
-    <row r="73" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="85" t="s">
-        <v>89</v>
-      </c>
+    <row r="73" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="117"/>
+      <c r="B73" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="85"/>
       <c r="E73" s="118"/>
       <c r="F73" s="64">
         <v>45565</v>
@@ -7869,7 +7884,7 @@
       <c r="B74" s="31"/>
       <c r="C74" s="32"/>
       <c r="D74" s="85" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E74" s="118"/>
       <c r="F74" s="64">
@@ -7936,7 +7951,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="32"/>
       <c r="D75" s="85" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="64">
@@ -7999,15 +8014,12 @@
       <c r="BB75" s="104"/>
       <c r="BC75" s="30"/>
     </row>
-    <row r="76" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A76" s="117"/>
-      <c r="B76" s="124">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="85"/>
+    <row r="76" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="85" t="s">
+        <v>100</v>
+      </c>
       <c r="E76" s="118"/>
       <c r="F76" s="64">
         <v>45565</v>
@@ -8069,11 +8081,11 @@
       <c r="BB76" s="104"/>
       <c r="BC76" s="30"/>
     </row>
-    <row r="77" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="77" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B77" s="31"/>
       <c r="C77" s="32"/>
       <c r="D77" s="85" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E77" s="118"/>
       <c r="F77" s="64">
@@ -8136,12 +8148,15 @@
       <c r="BB77" s="104"/>
       <c r="BC77" s="30"/>
     </row>
-    <row r="78" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="85" t="s">
-        <v>96</v>
-      </c>
+    <row r="78" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A78" s="117"/>
+      <c r="B78" s="124">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="85"/>
       <c r="E78" s="118"/>
       <c r="F78" s="64">
         <v>45565</v>
@@ -8203,11 +8218,11 @@
       <c r="BB78" s="104"/>
       <c r="BC78" s="30"/>
     </row>
-    <row r="79" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B79" s="31"/>
+    <row r="79" spans="1:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B79" s="124"/>
       <c r="C79" s="32"/>
       <c r="D79" s="85" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E79" s="118"/>
       <c r="F79" s="64">
@@ -8217,7 +8232,7 @@
         <v>45565</v>
       </c>
       <c r="H79" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H79" si="6">NETWORKDAYS(F79,G79)</f>
         <v>1</v>
       </c>
       <c r="I79" s="65">
@@ -8270,11 +8285,11 @@
       <c r="BB79" s="104"/>
       <c r="BC79" s="30"/>
     </row>
-    <row r="80" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="80" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B80" s="31"/>
       <c r="C80" s="32"/>
       <c r="D80" s="85" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="64">
@@ -8341,7 +8356,7 @@
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
       <c r="D81" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="118"/>
       <c r="F81" s="64">
@@ -8408,7 +8423,7 @@
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="85" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E82" s="118"/>
       <c r="F82" s="64">
@@ -8475,7 +8490,7 @@
       <c r="B83" s="31"/>
       <c r="C83" s="32"/>
       <c r="D83" s="85" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E83" s="118"/>
       <c r="F83" s="64">
@@ -8542,7 +8557,7 @@
       <c r="B84" s="31"/>
       <c r="C84" s="32"/>
       <c r="D84" s="85" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="64">
@@ -8609,7 +8624,7 @@
       <c r="B85" s="31"/>
       <c r="C85" s="32"/>
       <c r="D85" s="85" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E85" s="118"/>
       <c r="F85" s="64">
@@ -8673,13 +8688,11 @@
       <c r="BC85" s="30"/>
     </row>
     <row r="86" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B86" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="85"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="85" t="s">
+        <v>59</v>
+      </c>
       <c r="E86" s="118"/>
       <c r="F86" s="64">
         <v>45565</v>
@@ -8694,58 +8707,58 @@
       <c r="I86" s="65">
         <v>0</v>
       </c>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="94"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="95"/>
       <c r="O86" s="91"/>
       <c r="P86" s="44"/>
       <c r="Q86" s="44"/>
       <c r="R86" s="44"/>
       <c r="S86" s="100"/>
-      <c r="T86" s="98"/>
-      <c r="U86" s="46"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="46"/>
-      <c r="X86" s="103"/>
-      <c r="Y86" s="105"/>
-      <c r="Z86" s="47"/>
-      <c r="AA86" s="47"/>
-      <c r="AB86" s="47"/>
-      <c r="AC86" s="108"/>
-      <c r="AD86" s="105"/>
-      <c r="AE86" s="47"/>
-      <c r="AF86" s="47"/>
-      <c r="AG86" s="47"/>
-      <c r="AH86" s="108"/>
-      <c r="AI86" s="105"/>
-      <c r="AJ86" s="47"/>
-      <c r="AK86" s="47"/>
-      <c r="AL86" s="47"/>
-      <c r="AM86" s="108"/>
-      <c r="AN86" s="105"/>
-      <c r="AO86" s="47"/>
-      <c r="AP86" s="47"/>
-      <c r="AQ86" s="47"/>
-      <c r="AR86" s="108"/>
-      <c r="AS86" s="105"/>
-      <c r="AT86" s="47"/>
-      <c r="AU86" s="47"/>
-      <c r="AV86" s="47"/>
-      <c r="AW86" s="108"/>
-      <c r="AX86" s="105"/>
-      <c r="AY86" s="47"/>
-      <c r="AZ86" s="47"/>
-      <c r="BA86" s="47"/>
-      <c r="BB86" s="108"/>
+      <c r="T86" s="99"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="104"/>
+      <c r="Y86" s="99"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="43"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="104"/>
+      <c r="AD86" s="106"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="49"/>
+      <c r="AH86" s="110"/>
+      <c r="AI86" s="99"/>
+      <c r="AJ86" s="43"/>
+      <c r="AK86" s="43"/>
+      <c r="AL86" s="43"/>
+      <c r="AM86" s="104"/>
+      <c r="AN86" s="99"/>
+      <c r="AO86" s="43"/>
+      <c r="AP86" s="43"/>
+      <c r="AQ86" s="43"/>
+      <c r="AR86" s="104"/>
+      <c r="AS86" s="112"/>
+      <c r="AT86" s="50"/>
+      <c r="AU86" s="50"/>
+      <c r="AV86" s="50"/>
+      <c r="AW86" s="114"/>
+      <c r="AX86" s="99"/>
+      <c r="AY86" s="43"/>
+      <c r="AZ86" s="43"/>
+      <c r="BA86" s="43"/>
+      <c r="BB86" s="104"/>
       <c r="BC86" s="30"/>
     </row>
-    <row r="87" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="87" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B87" s="31"/>
       <c r="C87" s="32"/>
       <c r="D87" s="85" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E87" s="118"/>
       <c r="F87" s="64">
@@ -8755,64 +8768,64 @@
         <v>45565</v>
       </c>
       <c r="H87" s="33">
-        <f t="shared" ref="H87" si="6">NETWORKDAYS(F87,G87)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I87" s="65">
         <v>0</v>
       </c>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="94"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="95"/>
       <c r="O87" s="91"/>
       <c r="P87" s="44"/>
       <c r="Q87" s="44"/>
       <c r="R87" s="44"/>
       <c r="S87" s="100"/>
-      <c r="T87" s="98"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
-      <c r="X87" s="103"/>
-      <c r="Y87" s="105"/>
-      <c r="Z87" s="47"/>
-      <c r="AA87" s="47"/>
-      <c r="AB87" s="47"/>
-      <c r="AC87" s="108"/>
-      <c r="AD87" s="105"/>
-      <c r="AE87" s="47"/>
-      <c r="AF87" s="47"/>
-      <c r="AG87" s="47"/>
-      <c r="AH87" s="108"/>
-      <c r="AI87" s="105"/>
-      <c r="AJ87" s="47"/>
-      <c r="AK87" s="47"/>
-      <c r="AL87" s="47"/>
-      <c r="AM87" s="108"/>
-      <c r="AN87" s="105"/>
-      <c r="AO87" s="47"/>
-      <c r="AP87" s="47"/>
-      <c r="AQ87" s="47"/>
-      <c r="AR87" s="108"/>
-      <c r="AS87" s="105"/>
-      <c r="AT87" s="47"/>
-      <c r="AU87" s="47"/>
-      <c r="AV87" s="47"/>
-      <c r="AW87" s="108"/>
-      <c r="AX87" s="105"/>
-      <c r="AY87" s="47"/>
-      <c r="AZ87" s="47"/>
-      <c r="BA87" s="47"/>
-      <c r="BB87" s="108"/>
+      <c r="T87" s="99"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="104"/>
+      <c r="Y87" s="99"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="104"/>
+      <c r="AD87" s="106"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="49"/>
+      <c r="AH87" s="110"/>
+      <c r="AI87" s="99"/>
+      <c r="AJ87" s="43"/>
+      <c r="AK87" s="43"/>
+      <c r="AL87" s="43"/>
+      <c r="AM87" s="104"/>
+      <c r="AN87" s="99"/>
+      <c r="AO87" s="43"/>
+      <c r="AP87" s="43"/>
+      <c r="AQ87" s="43"/>
+      <c r="AR87" s="104"/>
+      <c r="AS87" s="112"/>
+      <c r="AT87" s="50"/>
+      <c r="AU87" s="50"/>
+      <c r="AV87" s="50"/>
+      <c r="AW87" s="114"/>
+      <c r="AX87" s="99"/>
+      <c r="AY87" s="43"/>
+      <c r="AZ87" s="43"/>
+      <c r="BA87" s="43"/>
+      <c r="BB87" s="104"/>
       <c r="BC87" s="30"/>
     </row>
     <row r="88" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B88" s="31"/>
       <c r="C88" s="32"/>
       <c r="D88" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E88" s="118"/>
       <c r="F88" s="64">
@@ -8828,59 +8841,61 @@
       <c r="I88" s="65">
         <v>0</v>
       </c>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="94"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="95"/>
       <c r="O88" s="91"/>
       <c r="P88" s="44"/>
       <c r="Q88" s="44"/>
       <c r="R88" s="44"/>
       <c r="S88" s="100"/>
-      <c r="T88" s="98"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
-      <c r="X88" s="103"/>
-      <c r="Y88" s="105"/>
-      <c r="Z88" s="47"/>
-      <c r="AA88" s="47"/>
-      <c r="AB88" s="47"/>
-      <c r="AC88" s="108"/>
-      <c r="AD88" s="105"/>
-      <c r="AE88" s="47"/>
-      <c r="AF88" s="47"/>
-      <c r="AG88" s="47"/>
-      <c r="AH88" s="108"/>
-      <c r="AI88" s="105"/>
-      <c r="AJ88" s="47"/>
-      <c r="AK88" s="47"/>
-      <c r="AL88" s="47"/>
-      <c r="AM88" s="108"/>
-      <c r="AN88" s="105"/>
-      <c r="AO88" s="47"/>
-      <c r="AP88" s="47"/>
-      <c r="AQ88" s="47"/>
-      <c r="AR88" s="108"/>
-      <c r="AS88" s="105"/>
-      <c r="AT88" s="47"/>
-      <c r="AU88" s="47"/>
-      <c r="AV88" s="47"/>
-      <c r="AW88" s="108"/>
-      <c r="AX88" s="105"/>
-      <c r="AY88" s="47"/>
-      <c r="AZ88" s="47"/>
-      <c r="BA88" s="47"/>
-      <c r="BB88" s="108"/>
+      <c r="T88" s="99"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="104"/>
+      <c r="Y88" s="99"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="104"/>
+      <c r="AD88" s="106"/>
+      <c r="AE88" s="49"/>
+      <c r="AF88" s="49"/>
+      <c r="AG88" s="49"/>
+      <c r="AH88" s="110"/>
+      <c r="AI88" s="99"/>
+      <c r="AJ88" s="43"/>
+      <c r="AK88" s="43"/>
+      <c r="AL88" s="43"/>
+      <c r="AM88" s="104"/>
+      <c r="AN88" s="99"/>
+      <c r="AO88" s="43"/>
+      <c r="AP88" s="43"/>
+      <c r="AQ88" s="43"/>
+      <c r="AR88" s="104"/>
+      <c r="AS88" s="112"/>
+      <c r="AT88" s="50"/>
+      <c r="AU88" s="50"/>
+      <c r="AV88" s="50"/>
+      <c r="AW88" s="114"/>
+      <c r="AX88" s="99"/>
+      <c r="AY88" s="43"/>
+      <c r="AZ88" s="43"/>
+      <c r="BA88" s="43"/>
+      <c r="BB88" s="104"/>
       <c r="BC88" s="30"/>
     </row>
     <row r="89" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B89" s="31"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="85" t="s">
-        <v>63</v>
-      </c>
+      <c r="B89" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="85"/>
       <c r="E89" s="118"/>
       <c r="F89" s="64">
         <v>45565</v>
@@ -8942,11 +8957,11 @@
       <c r="BB89" s="108"/>
       <c r="BC89" s="30"/>
     </row>
-    <row r="90" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="90" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B90" s="31"/>
       <c r="C90" s="32"/>
       <c r="D90" s="85" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E90" s="118"/>
       <c r="F90" s="64">
@@ -8956,7 +8971,7 @@
         <v>45565</v>
       </c>
       <c r="H90" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H90" si="7">NETWORKDAYS(F90,G90)</f>
         <v>1</v>
       </c>
       <c r="I90" s="65">
@@ -8977,47 +8992,44 @@
       <c r="V90" s="46"/>
       <c r="W90" s="46"/>
       <c r="X90" s="103"/>
-      <c r="Y90" s="106"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="49"/>
-      <c r="AB90" s="49"/>
-      <c r="AC90" s="110"/>
-      <c r="AD90" s="106"/>
-      <c r="AE90" s="49"/>
-      <c r="AF90" s="49"/>
-      <c r="AG90" s="49"/>
-      <c r="AH90" s="110"/>
-      <c r="AI90" s="106"/>
-      <c r="AJ90" s="49"/>
-      <c r="AK90" s="49"/>
-      <c r="AL90" s="49"/>
-      <c r="AM90" s="110"/>
-      <c r="AN90" s="106"/>
-      <c r="AO90" s="49"/>
-      <c r="AP90" s="49"/>
-      <c r="AQ90" s="49"/>
-      <c r="AR90" s="110"/>
-      <c r="AS90" s="106"/>
-      <c r="AT90" s="49"/>
-      <c r="AU90" s="49"/>
-      <c r="AV90" s="49"/>
-      <c r="AW90" s="110"/>
-      <c r="AX90" s="106"/>
-      <c r="AY90" s="49"/>
-      <c r="AZ90" s="49"/>
-      <c r="BA90" s="49"/>
-      <c r="BB90" s="110"/>
+      <c r="Y90" s="105"/>
+      <c r="Z90" s="47"/>
+      <c r="AA90" s="47"/>
+      <c r="AB90" s="47"/>
+      <c r="AC90" s="108"/>
+      <c r="AD90" s="105"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="47"/>
+      <c r="AG90" s="47"/>
+      <c r="AH90" s="108"/>
+      <c r="AI90" s="105"/>
+      <c r="AJ90" s="47"/>
+      <c r="AK90" s="47"/>
+      <c r="AL90" s="47"/>
+      <c r="AM90" s="108"/>
+      <c r="AN90" s="105"/>
+      <c r="AO90" s="47"/>
+      <c r="AP90" s="47"/>
+      <c r="AQ90" s="47"/>
+      <c r="AR90" s="108"/>
+      <c r="AS90" s="105"/>
+      <c r="AT90" s="47"/>
+      <c r="AU90" s="47"/>
+      <c r="AV90" s="47"/>
+      <c r="AW90" s="108"/>
+      <c r="AX90" s="105"/>
+      <c r="AY90" s="47"/>
+      <c r="AZ90" s="47"/>
+      <c r="BA90" s="47"/>
+      <c r="BB90" s="108"/>
       <c r="BC90" s="30"/>
     </row>
-    <row r="91" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A91" s="117"/>
-      <c r="B91" s="31">
-        <v>4.12</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="85"/>
+    <row r="91" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="85" t="s">
+        <v>62</v>
+      </c>
       <c r="E91" s="118"/>
       <c r="F91" s="64">
         <v>45565</v>
@@ -9047,43 +9059,43 @@
       <c r="V91" s="46"/>
       <c r="W91" s="46"/>
       <c r="X91" s="103"/>
-      <c r="Y91" s="106"/>
-      <c r="Z91" s="49"/>
-      <c r="AA91" s="49"/>
-      <c r="AB91" s="49"/>
-      <c r="AC91" s="110"/>
-      <c r="AD91" s="106"/>
-      <c r="AE91" s="49"/>
-      <c r="AF91" s="49"/>
-      <c r="AG91" s="49"/>
-      <c r="AH91" s="110"/>
-      <c r="AI91" s="106"/>
-      <c r="AJ91" s="49"/>
-      <c r="AK91" s="49"/>
-      <c r="AL91" s="49"/>
-      <c r="AM91" s="110"/>
-      <c r="AN91" s="106"/>
-      <c r="AO91" s="49"/>
-      <c r="AP91" s="49"/>
-      <c r="AQ91" s="49"/>
-      <c r="AR91" s="110"/>
-      <c r="AS91" s="106"/>
-      <c r="AT91" s="49"/>
-      <c r="AU91" s="49"/>
-      <c r="AV91" s="49"/>
-      <c r="AW91" s="110"/>
-      <c r="AX91" s="106"/>
-      <c r="AY91" s="49"/>
-      <c r="AZ91" s="49"/>
-      <c r="BA91" s="49"/>
-      <c r="BB91" s="110"/>
+      <c r="Y91" s="105"/>
+      <c r="Z91" s="47"/>
+      <c r="AA91" s="47"/>
+      <c r="AB91" s="47"/>
+      <c r="AC91" s="108"/>
+      <c r="AD91" s="105"/>
+      <c r="AE91" s="47"/>
+      <c r="AF91" s="47"/>
+      <c r="AG91" s="47"/>
+      <c r="AH91" s="108"/>
+      <c r="AI91" s="105"/>
+      <c r="AJ91" s="47"/>
+      <c r="AK91" s="47"/>
+      <c r="AL91" s="47"/>
+      <c r="AM91" s="108"/>
+      <c r="AN91" s="105"/>
+      <c r="AO91" s="47"/>
+      <c r="AP91" s="47"/>
+      <c r="AQ91" s="47"/>
+      <c r="AR91" s="108"/>
+      <c r="AS91" s="105"/>
+      <c r="AT91" s="47"/>
+      <c r="AU91" s="47"/>
+      <c r="AV91" s="47"/>
+      <c r="AW91" s="108"/>
+      <c r="AX91" s="105"/>
+      <c r="AY91" s="47"/>
+      <c r="AZ91" s="47"/>
+      <c r="BA91" s="47"/>
+      <c r="BB91" s="108"/>
       <c r="BC91" s="30"/>
     </row>
     <row r="92" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B92" s="31"/>
       <c r="C92" s="32"/>
       <c r="D92" s="85" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E92" s="118"/>
       <c r="F92" s="64">
@@ -9114,43 +9126,43 @@
       <c r="V92" s="46"/>
       <c r="W92" s="46"/>
       <c r="X92" s="103"/>
-      <c r="Y92" s="106"/>
-      <c r="Z92" s="49"/>
-      <c r="AA92" s="49"/>
-      <c r="AB92" s="49"/>
-      <c r="AC92" s="110"/>
-      <c r="AD92" s="106"/>
-      <c r="AE92" s="49"/>
-      <c r="AF92" s="49"/>
-      <c r="AG92" s="49"/>
-      <c r="AH92" s="110"/>
-      <c r="AI92" s="106"/>
-      <c r="AJ92" s="49"/>
-      <c r="AK92" s="49"/>
-      <c r="AL92" s="49"/>
-      <c r="AM92" s="110"/>
-      <c r="AN92" s="106"/>
-      <c r="AO92" s="49"/>
-      <c r="AP92" s="49"/>
-      <c r="AQ92" s="49"/>
-      <c r="AR92" s="110"/>
-      <c r="AS92" s="106"/>
-      <c r="AT92" s="49"/>
-      <c r="AU92" s="49"/>
-      <c r="AV92" s="49"/>
-      <c r="AW92" s="110"/>
-      <c r="AX92" s="106"/>
-      <c r="AY92" s="49"/>
-      <c r="AZ92" s="49"/>
-      <c r="BA92" s="49"/>
-      <c r="BB92" s="110"/>
+      <c r="Y92" s="105"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="108"/>
+      <c r="AD92" s="105"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="108"/>
+      <c r="AI92" s="105"/>
+      <c r="AJ92" s="47"/>
+      <c r="AK92" s="47"/>
+      <c r="AL92" s="47"/>
+      <c r="AM92" s="108"/>
+      <c r="AN92" s="105"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="108"/>
+      <c r="AS92" s="105"/>
+      <c r="AT92" s="47"/>
+      <c r="AU92" s="47"/>
+      <c r="AV92" s="47"/>
+      <c r="AW92" s="108"/>
+      <c r="AX92" s="105"/>
+      <c r="AY92" s="47"/>
+      <c r="AZ92" s="47"/>
+      <c r="BA92" s="47"/>
+      <c r="BB92" s="108"/>
       <c r="BC92" s="30"/>
     </row>
     <row r="93" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B93" s="31"/>
       <c r="C93" s="32"/>
       <c r="D93" s="85" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E93" s="118"/>
       <c r="F93" s="64">
@@ -9213,12 +9225,15 @@
       <c r="BB93" s="110"/>
       <c r="BC93" s="30"/>
     </row>
-    <row r="94" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="85" t="s">
-        <v>64</v>
-      </c>
+    <row r="94" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A94" s="117"/>
+      <c r="B94" s="31">
+        <v>4.12</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="85"/>
       <c r="E94" s="118"/>
       <c r="F94" s="64">
         <v>45565</v>
@@ -9281,14 +9296,11 @@
       <c r="BC94" s="30"/>
     </row>
     <row r="95" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A95" s="120"/>
-      <c r="B95" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="85"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="E95" s="118"/>
       <c r="F95" s="64">
         <v>45565</v>
@@ -9297,7 +9309,7 @@
         <v>45565</v>
       </c>
       <c r="H95" s="33">
-        <f>NETWORKDAYS(F95,G95)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I95" s="65">
@@ -9351,11 +9363,10 @@
       <c r="BC95" s="30"/>
     </row>
     <row r="96" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A96" s="120"/>
       <c r="B96" s="31"/>
       <c r="C96" s="32"/>
       <c r="D96" s="85" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E96" s="118"/>
       <c r="F96" s="64">
@@ -9365,7 +9376,7 @@
         <v>45565</v>
       </c>
       <c r="H96" s="33">
-        <f>NETWORKDAYS(F96,G96)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I96" s="65">
@@ -9418,11 +9429,11 @@
       <c r="BB96" s="110"/>
       <c r="BC96" s="30"/>
     </row>
-    <row r="97" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="97" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B97" s="31"/>
       <c r="C97" s="32"/>
       <c r="D97" s="85" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E97" s="118"/>
       <c r="F97" s="64">
@@ -9432,7 +9443,7 @@
         <v>45565</v>
       </c>
       <c r="H97" s="33">
-        <f>NETWORKDAYS(F97,G97)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I97" s="65">
@@ -9485,12 +9496,15 @@
       <c r="BB97" s="110"/>
       <c r="BC97" s="30"/>
     </row>
-    <row r="98" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B98" s="31"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="85" t="s">
-        <v>66</v>
-      </c>
+    <row r="98" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A98" s="120"/>
+      <c r="B98" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="85"/>
       <c r="E98" s="118"/>
       <c r="F98" s="64">
         <v>45565</v>
@@ -9520,43 +9534,44 @@
       <c r="V98" s="46"/>
       <c r="W98" s="46"/>
       <c r="X98" s="103"/>
-      <c r="Y98" s="105"/>
-      <c r="Z98" s="47"/>
-      <c r="AA98" s="47"/>
-      <c r="AB98" s="47"/>
-      <c r="AC98" s="108"/>
-      <c r="AD98" s="105"/>
-      <c r="AE98" s="47"/>
-      <c r="AF98" s="47"/>
-      <c r="AG98" s="47"/>
-      <c r="AH98" s="108"/>
-      <c r="AI98" s="105"/>
-      <c r="AJ98" s="47"/>
-      <c r="AK98" s="47"/>
-      <c r="AL98" s="47"/>
-      <c r="AM98" s="108"/>
-      <c r="AN98" s="105"/>
-      <c r="AO98" s="47"/>
-      <c r="AP98" s="47"/>
-      <c r="AQ98" s="47"/>
-      <c r="AR98" s="108"/>
-      <c r="AS98" s="105"/>
-      <c r="AT98" s="47"/>
-      <c r="AU98" s="47"/>
-      <c r="AV98" s="47"/>
-      <c r="AW98" s="108"/>
-      <c r="AX98" s="105"/>
-      <c r="AY98" s="47"/>
-      <c r="AZ98" s="47"/>
-      <c r="BA98" s="47"/>
-      <c r="BB98" s="108"/>
+      <c r="Y98" s="106"/>
+      <c r="Z98" s="49"/>
+      <c r="AA98" s="49"/>
+      <c r="AB98" s="49"/>
+      <c r="AC98" s="110"/>
+      <c r="AD98" s="106"/>
+      <c r="AE98" s="49"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="49"/>
+      <c r="AH98" s="110"/>
+      <c r="AI98" s="106"/>
+      <c r="AJ98" s="49"/>
+      <c r="AK98" s="49"/>
+      <c r="AL98" s="49"/>
+      <c r="AM98" s="110"/>
+      <c r="AN98" s="106"/>
+      <c r="AO98" s="49"/>
+      <c r="AP98" s="49"/>
+      <c r="AQ98" s="49"/>
+      <c r="AR98" s="110"/>
+      <c r="AS98" s="106"/>
+      <c r="AT98" s="49"/>
+      <c r="AU98" s="49"/>
+      <c r="AV98" s="49"/>
+      <c r="AW98" s="110"/>
+      <c r="AX98" s="106"/>
+      <c r="AY98" s="49"/>
+      <c r="AZ98" s="49"/>
+      <c r="BA98" s="49"/>
+      <c r="BB98" s="110"/>
       <c r="BC98" s="30"/>
     </row>
-    <row r="99" spans="2:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="99" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A99" s="120"/>
       <c r="B99" s="31"/>
       <c r="C99" s="32"/>
       <c r="D99" s="85" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E99" s="118"/>
       <c r="F99" s="64">
@@ -9587,47 +9602,45 @@
       <c r="V99" s="46"/>
       <c r="W99" s="46"/>
       <c r="X99" s="103"/>
-      <c r="Y99" s="105"/>
-      <c r="Z99" s="47"/>
-      <c r="AA99" s="47"/>
-      <c r="AB99" s="47"/>
-      <c r="AC99" s="108"/>
-      <c r="AD99" s="105"/>
-      <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="108"/>
-      <c r="AI99" s="105"/>
-      <c r="AJ99" s="47"/>
-      <c r="AK99" s="47"/>
-      <c r="AL99" s="47"/>
-      <c r="AM99" s="108"/>
-      <c r="AN99" s="105"/>
-      <c r="AO99" s="47"/>
-      <c r="AP99" s="47"/>
-      <c r="AQ99" s="47"/>
-      <c r="AR99" s="108"/>
-      <c r="AS99" s="105"/>
-      <c r="AT99" s="47"/>
-      <c r="AU99" s="47"/>
-      <c r="AV99" s="47"/>
-      <c r="AW99" s="108"/>
-      <c r="AX99" s="105"/>
-      <c r="AY99" s="47"/>
-      <c r="AZ99" s="47"/>
-      <c r="BA99" s="47"/>
-      <c r="BB99" s="108"/>
+      <c r="Y99" s="106"/>
+      <c r="Z99" s="49"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="110"/>
+      <c r="AD99" s="106"/>
+      <c r="AE99" s="49"/>
+      <c r="AF99" s="49"/>
+      <c r="AG99" s="49"/>
+      <c r="AH99" s="110"/>
+      <c r="AI99" s="106"/>
+      <c r="AJ99" s="49"/>
+      <c r="AK99" s="49"/>
+      <c r="AL99" s="49"/>
+      <c r="AM99" s="110"/>
+      <c r="AN99" s="106"/>
+      <c r="AO99" s="49"/>
+      <c r="AP99" s="49"/>
+      <c r="AQ99" s="49"/>
+      <c r="AR99" s="110"/>
+      <c r="AS99" s="106"/>
+      <c r="AT99" s="49"/>
+      <c r="AU99" s="49"/>
+      <c r="AV99" s="49"/>
+      <c r="AW99" s="110"/>
+      <c r="AX99" s="106"/>
+      <c r="AY99" s="49"/>
+      <c r="AZ99" s="49"/>
+      <c r="BA99" s="49"/>
+      <c r="BB99" s="110"/>
       <c r="BC99" s="30"/>
     </row>
-    <row r="100" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B100" s="31">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="64"/>
+    <row r="100" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="118"/>
       <c r="F100" s="64">
         <v>45565</v>
       </c>
@@ -9635,7 +9648,7 @@
         <v>45565</v>
       </c>
       <c r="H100" s="33">
-        <f t="shared" ref="H100:H103" si="7">NETWORKDAYS(F100,G100)</f>
+        <f>NETWORKDAYS(F100,G100)</f>
         <v>1</v>
       </c>
       <c r="I100" s="65">
@@ -9688,13 +9701,13 @@
       <c r="BB100" s="110"/>
       <c r="BC100" s="30"/>
     </row>
-    <row r="101" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="101" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B101" s="31"/>
       <c r="C101" s="32"/>
-      <c r="D101" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="64"/>
+      <c r="D101" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="118"/>
       <c r="F101" s="64">
         <v>45565</v>
       </c>
@@ -9702,7 +9715,7 @@
         <v>45565</v>
       </c>
       <c r="H101" s="33">
-        <f t="shared" ref="H101" si="8">NETWORKDAYS(F101,G101)</f>
+        <f>NETWORKDAYS(F101,G101)</f>
         <v>1</v>
       </c>
       <c r="I101" s="65">
@@ -9723,45 +9736,45 @@
       <c r="V101" s="46"/>
       <c r="W101" s="46"/>
       <c r="X101" s="103"/>
-      <c r="Y101" s="106"/>
-      <c r="Z101" s="49"/>
-      <c r="AA101" s="49"/>
-      <c r="AB101" s="49"/>
-      <c r="AC101" s="110"/>
-      <c r="AD101" s="106"/>
-      <c r="AE101" s="49"/>
-      <c r="AF101" s="49"/>
-      <c r="AG101" s="49"/>
-      <c r="AH101" s="110"/>
-      <c r="AI101" s="106"/>
-      <c r="AJ101" s="49"/>
-      <c r="AK101" s="49"/>
-      <c r="AL101" s="49"/>
-      <c r="AM101" s="110"/>
-      <c r="AN101" s="106"/>
-      <c r="AO101" s="49"/>
-      <c r="AP101" s="49"/>
-      <c r="AQ101" s="49"/>
-      <c r="AR101" s="110"/>
-      <c r="AS101" s="106"/>
-      <c r="AT101" s="49"/>
-      <c r="AU101" s="49"/>
-      <c r="AV101" s="49"/>
-      <c r="AW101" s="110"/>
-      <c r="AX101" s="106"/>
-      <c r="AY101" s="49"/>
-      <c r="AZ101" s="49"/>
-      <c r="BA101" s="49"/>
-      <c r="BB101" s="110"/>
+      <c r="Y101" s="105"/>
+      <c r="Z101" s="47"/>
+      <c r="AA101" s="47"/>
+      <c r="AB101" s="47"/>
+      <c r="AC101" s="108"/>
+      <c r="AD101" s="105"/>
+      <c r="AE101" s="47"/>
+      <c r="AF101" s="47"/>
+      <c r="AG101" s="47"/>
+      <c r="AH101" s="108"/>
+      <c r="AI101" s="105"/>
+      <c r="AJ101" s="47"/>
+      <c r="AK101" s="47"/>
+      <c r="AL101" s="47"/>
+      <c r="AM101" s="108"/>
+      <c r="AN101" s="105"/>
+      <c r="AO101" s="47"/>
+      <c r="AP101" s="47"/>
+      <c r="AQ101" s="47"/>
+      <c r="AR101" s="108"/>
+      <c r="AS101" s="105"/>
+      <c r="AT101" s="47"/>
+      <c r="AU101" s="47"/>
+      <c r="AV101" s="47"/>
+      <c r="AW101" s="108"/>
+      <c r="AX101" s="105"/>
+      <c r="AY101" s="47"/>
+      <c r="AZ101" s="47"/>
+      <c r="BA101" s="47"/>
+      <c r="BB101" s="108"/>
       <c r="BC101" s="30"/>
     </row>
-    <row r="102" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="102" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B102" s="31"/>
       <c r="C102" s="32"/>
-      <c r="D102" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" s="64"/>
+      <c r="D102" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="118"/>
       <c r="F102" s="64">
         <v>45565</v>
       </c>
@@ -9769,10 +9782,10 @@
         <v>45565</v>
       </c>
       <c r="H102" s="33">
-        <f t="shared" si="7"/>
+        <f>NETWORKDAYS(F102,G102)</f>
         <v>1</v>
       </c>
-      <c r="I102" s="129">
+      <c r="I102" s="65">
         <v>0</v>
       </c>
       <c r="J102" s="34"/>
@@ -9790,44 +9803,46 @@
       <c r="V102" s="46"/>
       <c r="W102" s="46"/>
       <c r="X102" s="103"/>
-      <c r="Y102" s="106"/>
-      <c r="Z102" s="49"/>
-      <c r="AA102" s="49"/>
-      <c r="AB102" s="49"/>
-      <c r="AC102" s="110"/>
-      <c r="AD102" s="106"/>
-      <c r="AE102" s="49"/>
-      <c r="AF102" s="49"/>
-      <c r="AG102" s="49"/>
-      <c r="AH102" s="110"/>
-      <c r="AI102" s="106"/>
-      <c r="AJ102" s="49"/>
-      <c r="AK102" s="49"/>
-      <c r="AL102" s="49"/>
-      <c r="AM102" s="110"/>
-      <c r="AN102" s="106"/>
-      <c r="AO102" s="49"/>
-      <c r="AP102" s="49"/>
-      <c r="AQ102" s="49"/>
-      <c r="AR102" s="110"/>
-      <c r="AS102" s="106"/>
-      <c r="AT102" s="49"/>
-      <c r="AU102" s="49"/>
-      <c r="AV102" s="49"/>
-      <c r="AW102" s="110"/>
-      <c r="AX102" s="106"/>
-      <c r="AY102" s="49"/>
-      <c r="AZ102" s="49"/>
-      <c r="BA102" s="49"/>
-      <c r="BB102" s="110"/>
+      <c r="Y102" s="105"/>
+      <c r="Z102" s="47"/>
+      <c r="AA102" s="47"/>
+      <c r="AB102" s="47"/>
+      <c r="AC102" s="108"/>
+      <c r="AD102" s="105"/>
+      <c r="AE102" s="47"/>
+      <c r="AF102" s="47"/>
+      <c r="AG102" s="47"/>
+      <c r="AH102" s="108"/>
+      <c r="AI102" s="105"/>
+      <c r="AJ102" s="47"/>
+      <c r="AK102" s="47"/>
+      <c r="AL102" s="47"/>
+      <c r="AM102" s="108"/>
+      <c r="AN102" s="105"/>
+      <c r="AO102" s="47"/>
+      <c r="AP102" s="47"/>
+      <c r="AQ102" s="47"/>
+      <c r="AR102" s="108"/>
+      <c r="AS102" s="105"/>
+      <c r="AT102" s="47"/>
+      <c r="AU102" s="47"/>
+      <c r="AV102" s="47"/>
+      <c r="AW102" s="108"/>
+      <c r="AX102" s="105"/>
+      <c r="AY102" s="47"/>
+      <c r="AZ102" s="47"/>
+      <c r="BA102" s="47"/>
+      <c r="BB102" s="108"/>
       <c r="BC102" s="30"/>
     </row>
-    <row r="103" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B103" s="31"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="118" t="s">
-        <v>68</v>
-      </c>
+    <row r="103" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B103" s="31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="118"/>
       <c r="E103" s="64"/>
       <c r="F103" s="64">
         <v>45565</v>
@@ -9836,10 +9851,10 @@
         <v>45565</v>
       </c>
       <c r="H103" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H103:H106" si="8">NETWORKDAYS(F103,G103)</f>
         <v>1</v>
       </c>
-      <c r="I103" s="128">
+      <c r="I103" s="65">
         <v>0</v>
       </c>
       <c r="J103" s="34"/>
@@ -9889,15 +9904,13 @@
       <c r="BB103" s="110"/>
       <c r="BC103" s="30"/>
     </row>
-    <row r="104" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B104" s="31">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="118"/>
+    <row r="104" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="64"/>
       <c r="F104" s="64">
         <v>45565</v>
       </c>
@@ -9905,10 +9918,10 @@
         <v>45565</v>
       </c>
       <c r="H104" s="33">
-        <f t="shared" ref="H104:H107" si="9">NETWORKDAYS(F104,G104)</f>
+        <f t="shared" ref="H104" si="9">NETWORKDAYS(F104,G104)</f>
         <v>1</v>
       </c>
-      <c r="I104" s="128">
+      <c r="I104" s="65">
         <v>0</v>
       </c>
       <c r="J104" s="34"/>
@@ -9958,13 +9971,13 @@
       <c r="BB104" s="110"/>
       <c r="BC104" s="30"/>
     </row>
-    <row r="105" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="105" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B105" s="31"/>
       <c r="C105" s="32"/>
-      <c r="D105" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E105" s="118"/>
+      <c r="D105" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="64"/>
       <c r="F105" s="64">
         <v>45565</v>
       </c>
@@ -9972,10 +9985,10 @@
         <v>45565</v>
       </c>
       <c r="H105" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I105" s="128">
+      <c r="I105" s="129">
         <v>0</v>
       </c>
       <c r="J105" s="34"/>
@@ -10025,13 +10038,13 @@
       <c r="BB105" s="110"/>
       <c r="BC105" s="30"/>
     </row>
-    <row r="106" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="106" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B106" s="31"/>
       <c r="C106" s="32"/>
-      <c r="D106" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" s="118"/>
+      <c r="D106" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="64"/>
       <c r="F106" s="64">
         <v>45565</v>
       </c>
@@ -10039,7 +10052,7 @@
         <v>45565</v>
       </c>
       <c r="H106" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I106" s="128">
@@ -10092,12 +10105,14 @@
       <c r="BB106" s="110"/>
       <c r="BC106" s="30"/>
     </row>
-    <row r="107" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B107" s="31"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="85" t="s">
-        <v>46</v>
-      </c>
+    <row r="107" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B107" s="31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="85"/>
       <c r="E107" s="118"/>
       <c r="F107" s="64">
         <v>45565</v>
@@ -10106,10 +10121,10 @@
         <v>45565</v>
       </c>
       <c r="H107" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H107:H110" si="10">NETWORKDAYS(F107,G107)</f>
         <v>1</v>
       </c>
-      <c r="I107" s="65">
+      <c r="I107" s="128">
         <v>0</v>
       </c>
       <c r="J107" s="34"/>
@@ -10127,46 +10142,44 @@
       <c r="V107" s="46"/>
       <c r="W107" s="46"/>
       <c r="X107" s="103"/>
-      <c r="Y107" s="105"/>
-      <c r="Z107" s="47"/>
-      <c r="AA107" s="47"/>
-      <c r="AB107" s="47"/>
-      <c r="AC107" s="108"/>
-      <c r="AD107" s="105"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="47"/>
-      <c r="AH107" s="108"/>
-      <c r="AI107" s="105"/>
-      <c r="AJ107" s="47"/>
-      <c r="AK107" s="47"/>
-      <c r="AL107" s="47"/>
-      <c r="AM107" s="108"/>
-      <c r="AN107" s="105"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
-      <c r="AR107" s="108"/>
-      <c r="AS107" s="105"/>
-      <c r="AT107" s="47"/>
-      <c r="AU107" s="47"/>
-      <c r="AV107" s="47"/>
-      <c r="AW107" s="108"/>
-      <c r="AX107" s="105"/>
-      <c r="AY107" s="47"/>
-      <c r="AZ107" s="47"/>
-      <c r="BA107" s="47"/>
-      <c r="BB107" s="108"/>
+      <c r="Y107" s="106"/>
+      <c r="Z107" s="49"/>
+      <c r="AA107" s="49"/>
+      <c r="AB107" s="49"/>
+      <c r="AC107" s="110"/>
+      <c r="AD107" s="106"/>
+      <c r="AE107" s="49"/>
+      <c r="AF107" s="49"/>
+      <c r="AG107" s="49"/>
+      <c r="AH107" s="110"/>
+      <c r="AI107" s="106"/>
+      <c r="AJ107" s="49"/>
+      <c r="AK107" s="49"/>
+      <c r="AL107" s="49"/>
+      <c r="AM107" s="110"/>
+      <c r="AN107" s="106"/>
+      <c r="AO107" s="49"/>
+      <c r="AP107" s="49"/>
+      <c r="AQ107" s="49"/>
+      <c r="AR107" s="110"/>
+      <c r="AS107" s="106"/>
+      <c r="AT107" s="49"/>
+      <c r="AU107" s="49"/>
+      <c r="AV107" s="49"/>
+      <c r="AW107" s="110"/>
+      <c r="AX107" s="106"/>
+      <c r="AY107" s="49"/>
+      <c r="AZ107" s="49"/>
+      <c r="BA107" s="49"/>
+      <c r="BB107" s="110"/>
       <c r="BC107" s="30"/>
     </row>
-    <row r="108" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B108" s="31">
-        <v>4.16</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D108" s="85"/>
+    <row r="108" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B108" s="31"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="85" t="s">
+        <v>69</v>
+      </c>
       <c r="E108" s="118"/>
       <c r="F108" s="64">
         <v>45565</v>
@@ -10175,7 +10188,7 @@
         <v>45565</v>
       </c>
       <c r="H108" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I108" s="128">
@@ -10228,11 +10241,11 @@
       <c r="BB108" s="110"/>
       <c r="BC108" s="30"/>
     </row>
-    <row r="109" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="109" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B109" s="31"/>
       <c r="C109" s="32"/>
       <c r="D109" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E109" s="118"/>
       <c r="F109" s="64">
@@ -10242,7 +10255,7 @@
         <v>45565</v>
       </c>
       <c r="H109" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I109" s="128">
@@ -10295,11 +10308,11 @@
       <c r="BB109" s="110"/>
       <c r="BC109" s="30"/>
     </row>
-    <row r="110" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="110" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B110" s="31"/>
       <c r="C110" s="32"/>
       <c r="D110" s="85" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E110" s="118"/>
       <c r="F110" s="64">
@@ -10309,10 +10322,10 @@
         <v>45565</v>
       </c>
       <c r="H110" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I110" s="128">
+      <c r="I110" s="65">
         <v>0</v>
       </c>
       <c r="J110" s="34"/>
@@ -10330,44 +10343,46 @@
       <c r="V110" s="46"/>
       <c r="W110" s="46"/>
       <c r="X110" s="103"/>
-      <c r="Y110" s="106"/>
-      <c r="Z110" s="49"/>
-      <c r="AA110" s="49"/>
-      <c r="AB110" s="49"/>
-      <c r="AC110" s="110"/>
-      <c r="AD110" s="106"/>
-      <c r="AE110" s="49"/>
-      <c r="AF110" s="49"/>
-      <c r="AG110" s="49"/>
-      <c r="AH110" s="110"/>
-      <c r="AI110" s="106"/>
-      <c r="AJ110" s="49"/>
-      <c r="AK110" s="49"/>
-      <c r="AL110" s="49"/>
-      <c r="AM110" s="110"/>
-      <c r="AN110" s="106"/>
-      <c r="AO110" s="49"/>
-      <c r="AP110" s="49"/>
-      <c r="AQ110" s="49"/>
-      <c r="AR110" s="110"/>
-      <c r="AS110" s="106"/>
-      <c r="AT110" s="49"/>
-      <c r="AU110" s="49"/>
-      <c r="AV110" s="49"/>
-      <c r="AW110" s="110"/>
-      <c r="AX110" s="106"/>
-      <c r="AY110" s="49"/>
-      <c r="AZ110" s="49"/>
-      <c r="BA110" s="49"/>
-      <c r="BB110" s="110"/>
+      <c r="Y110" s="105"/>
+      <c r="Z110" s="47"/>
+      <c r="AA110" s="47"/>
+      <c r="AB110" s="47"/>
+      <c r="AC110" s="108"/>
+      <c r="AD110" s="105"/>
+      <c r="AE110" s="47"/>
+      <c r="AF110" s="47"/>
+      <c r="AG110" s="47"/>
+      <c r="AH110" s="108"/>
+      <c r="AI110" s="105"/>
+      <c r="AJ110" s="47"/>
+      <c r="AK110" s="47"/>
+      <c r="AL110" s="47"/>
+      <c r="AM110" s="108"/>
+      <c r="AN110" s="105"/>
+      <c r="AO110" s="47"/>
+      <c r="AP110" s="47"/>
+      <c r="AQ110" s="47"/>
+      <c r="AR110" s="108"/>
+      <c r="AS110" s="105"/>
+      <c r="AT110" s="47"/>
+      <c r="AU110" s="47"/>
+      <c r="AV110" s="47"/>
+      <c r="AW110" s="108"/>
+      <c r="AX110" s="105"/>
+      <c r="AY110" s="47"/>
+      <c r="AZ110" s="47"/>
+      <c r="BA110" s="47"/>
+      <c r="BB110" s="108"/>
       <c r="BC110" s="30"/>
     </row>
-    <row r="111" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B111" s="31"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="85" t="s">
-        <v>73</v>
-      </c>
+    <row r="111" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B111" s="31">
+        <v>4.16</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="85"/>
       <c r="E111" s="118"/>
       <c r="F111" s="64">
         <v>45565</v>
@@ -10397,46 +10412,44 @@
       <c r="V111" s="46"/>
       <c r="W111" s="46"/>
       <c r="X111" s="103"/>
-      <c r="Y111" s="105"/>
-      <c r="Z111" s="47"/>
-      <c r="AA111" s="47"/>
-      <c r="AB111" s="47"/>
-      <c r="AC111" s="108"/>
-      <c r="AD111" s="105"/>
-      <c r="AE111" s="47"/>
-      <c r="AF111" s="47"/>
-      <c r="AG111" s="47"/>
-      <c r="AH111" s="108"/>
-      <c r="AI111" s="105"/>
-      <c r="AJ111" s="47"/>
-      <c r="AK111" s="47"/>
-      <c r="AL111" s="47"/>
-      <c r="AM111" s="108"/>
-      <c r="AN111" s="105"/>
-      <c r="AO111" s="47"/>
-      <c r="AP111" s="47"/>
-      <c r="AQ111" s="47"/>
-      <c r="AR111" s="108"/>
-      <c r="AS111" s="105"/>
-      <c r="AT111" s="47"/>
-      <c r="AU111" s="47"/>
-      <c r="AV111" s="47"/>
-      <c r="AW111" s="108"/>
-      <c r="AX111" s="105"/>
-      <c r="AY111" s="47"/>
-      <c r="AZ111" s="47"/>
-      <c r="BA111" s="47"/>
-      <c r="BB111" s="108"/>
+      <c r="Y111" s="106"/>
+      <c r="Z111" s="49"/>
+      <c r="AA111" s="49"/>
+      <c r="AB111" s="49"/>
+      <c r="AC111" s="110"/>
+      <c r="AD111" s="106"/>
+      <c r="AE111" s="49"/>
+      <c r="AF111" s="49"/>
+      <c r="AG111" s="49"/>
+      <c r="AH111" s="110"/>
+      <c r="AI111" s="106"/>
+      <c r="AJ111" s="49"/>
+      <c r="AK111" s="49"/>
+      <c r="AL111" s="49"/>
+      <c r="AM111" s="110"/>
+      <c r="AN111" s="106"/>
+      <c r="AO111" s="49"/>
+      <c r="AP111" s="49"/>
+      <c r="AQ111" s="49"/>
+      <c r="AR111" s="110"/>
+      <c r="AS111" s="106"/>
+      <c r="AT111" s="49"/>
+      <c r="AU111" s="49"/>
+      <c r="AV111" s="49"/>
+      <c r="AW111" s="110"/>
+      <c r="AX111" s="106"/>
+      <c r="AY111" s="49"/>
+      <c r="AZ111" s="49"/>
+      <c r="BA111" s="49"/>
+      <c r="BB111" s="110"/>
       <c r="BC111" s="30"/>
     </row>
-    <row r="112" spans="2:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B112" s="124">
-        <v>4.17</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D112" s="85"/>
+    <row r="112" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B112" s="31"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="85" t="s">
+        <v>71</v>
+      </c>
       <c r="E112" s="118"/>
       <c r="F112" s="64">
         <v>45565</v>
@@ -10502,7 +10515,7 @@
       <c r="B113" s="31"/>
       <c r="C113" s="32"/>
       <c r="D113" s="85" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E113" s="118"/>
       <c r="F113" s="64">
@@ -10512,7 +10525,7 @@
         <v>45565</v>
       </c>
       <c r="H113" s="33">
-        <f t="shared" ref="H113" si="10">NETWORKDAYS(F113,G113)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I113" s="128">
@@ -10565,11 +10578,11 @@
       <c r="BB113" s="110"/>
       <c r="BC113" s="30"/>
     </row>
-    <row r="114" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B114" s="86"/>
+    <row r="114" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B114" s="31"/>
       <c r="C114" s="32"/>
       <c r="D114" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E114" s="118"/>
       <c r="F114" s="64">
@@ -10600,44 +10613,46 @@
       <c r="V114" s="46"/>
       <c r="W114" s="46"/>
       <c r="X114" s="103"/>
-      <c r="Y114" s="106"/>
-      <c r="Z114" s="49"/>
-      <c r="AA114" s="49"/>
-      <c r="AB114" s="49"/>
-      <c r="AC114" s="110"/>
-      <c r="AD114" s="106"/>
-      <c r="AE114" s="49"/>
-      <c r="AF114" s="49"/>
-      <c r="AG114" s="49"/>
-      <c r="AH114" s="110"/>
-      <c r="AI114" s="106"/>
-      <c r="AJ114" s="49"/>
-      <c r="AK114" s="49"/>
-      <c r="AL114" s="49"/>
-      <c r="AM114" s="110"/>
-      <c r="AN114" s="106"/>
-      <c r="AO114" s="49"/>
-      <c r="AP114" s="49"/>
-      <c r="AQ114" s="49"/>
-      <c r="AR114" s="110"/>
-      <c r="AS114" s="106"/>
-      <c r="AT114" s="49"/>
-      <c r="AU114" s="49"/>
-      <c r="AV114" s="49"/>
-      <c r="AW114" s="110"/>
-      <c r="AX114" s="106"/>
-      <c r="AY114" s="49"/>
-      <c r="AZ114" s="49"/>
-      <c r="BA114" s="49"/>
-      <c r="BB114" s="110"/>
+      <c r="Y114" s="105"/>
+      <c r="Z114" s="47"/>
+      <c r="AA114" s="47"/>
+      <c r="AB114" s="47"/>
+      <c r="AC114" s="108"/>
+      <c r="AD114" s="105"/>
+      <c r="AE114" s="47"/>
+      <c r="AF114" s="47"/>
+      <c r="AG114" s="47"/>
+      <c r="AH114" s="108"/>
+      <c r="AI114" s="105"/>
+      <c r="AJ114" s="47"/>
+      <c r="AK114" s="47"/>
+      <c r="AL114" s="47"/>
+      <c r="AM114" s="108"/>
+      <c r="AN114" s="105"/>
+      <c r="AO114" s="47"/>
+      <c r="AP114" s="47"/>
+      <c r="AQ114" s="47"/>
+      <c r="AR114" s="108"/>
+      <c r="AS114" s="105"/>
+      <c r="AT114" s="47"/>
+      <c r="AU114" s="47"/>
+      <c r="AV114" s="47"/>
+      <c r="AW114" s="108"/>
+      <c r="AX114" s="105"/>
+      <c r="AY114" s="47"/>
+      <c r="AZ114" s="47"/>
+      <c r="BA114" s="47"/>
+      <c r="BB114" s="108"/>
       <c r="BC114" s="30"/>
     </row>
-    <row r="115" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B115" s="86"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="85" t="s">
-        <v>75</v>
-      </c>
+    <row r="115" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B115" s="124">
+        <v>4.17</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="85"/>
       <c r="E115" s="118"/>
       <c r="F115" s="64">
         <v>45565</v>
@@ -10700,13 +10715,11 @@
       <c r="BC115" s="30"/>
     </row>
     <row r="116" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B116" s="31">
-        <v>4.18</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D116" s="85"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="85" t="s">
+        <v>93</v>
+      </c>
       <c r="E116" s="118"/>
       <c r="F116" s="64">
         <v>45565</v>
@@ -10715,7 +10728,7 @@
         <v>45565</v>
       </c>
       <c r="H116" s="33">
-        <f t="shared" ref="H116:H120" si="11">NETWORKDAYS(F116,G116)</f>
+        <f t="shared" ref="H116" si="11">NETWORKDAYS(F116,G116)</f>
         <v>1</v>
       </c>
       <c r="I116" s="128">
@@ -10768,11 +10781,11 @@
       <c r="BB116" s="110"/>
       <c r="BC116" s="30"/>
     </row>
-    <row r="117" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="117" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B117" s="86"/>
       <c r="C117" s="32"/>
       <c r="D117" s="85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E117" s="118"/>
       <c r="F117" s="64">
@@ -10782,7 +10795,7 @@
         <v>45565</v>
       </c>
       <c r="H117" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I117" s="128">
@@ -10835,11 +10848,11 @@
       <c r="BB117" s="110"/>
       <c r="BC117" s="30"/>
     </row>
-    <row r="118" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="118" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B118" s="86"/>
       <c r="C118" s="32"/>
       <c r="D118" s="85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E118" s="118"/>
       <c r="F118" s="64">
@@ -10849,7 +10862,7 @@
         <v>45565</v>
       </c>
       <c r="H118" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I118" s="128">
@@ -10903,11 +10916,13 @@
       <c r="BC118" s="30"/>
     </row>
     <row r="119" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B119" s="86"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="85" t="s">
-        <v>78</v>
-      </c>
+      <c r="B119" s="31">
+        <v>4.18</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="85"/>
       <c r="E119" s="118"/>
       <c r="F119" s="64">
         <v>45565</v>
@@ -10916,7 +10931,7 @@
         <v>45565</v>
       </c>
       <c r="H119" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H119:H123" si="12">NETWORKDAYS(F119,G119)</f>
         <v>1</v>
       </c>
       <c r="I119" s="128">
@@ -10973,7 +10988,7 @@
       <c r="B120" s="86"/>
       <c r="C120" s="32"/>
       <c r="D120" s="85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E120" s="118"/>
       <c r="F120" s="64">
@@ -10983,7 +10998,7 @@
         <v>45565</v>
       </c>
       <c r="H120" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I120" s="128">
@@ -11037,13 +11052,11 @@
       <c r="BC120" s="30"/>
     </row>
     <row r="121" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B121" s="31">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" s="85"/>
+      <c r="B121" s="86"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="85" t="s">
+        <v>77</v>
+      </c>
       <c r="E121" s="118"/>
       <c r="F121" s="64">
         <v>45565</v>
@@ -11052,7 +11065,7 @@
         <v>45565</v>
       </c>
       <c r="H121" s="33">
-        <f t="shared" ref="H121:H124" si="12">NETWORKDAYS(F121,G121)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I121" s="128">
@@ -11106,10 +11119,10 @@
       <c r="BC121" s="30"/>
     </row>
     <row r="122" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B122" s="31"/>
+      <c r="B122" s="86"/>
       <c r="C122" s="32"/>
       <c r="D122" s="85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E122" s="118"/>
       <c r="F122" s="64">
@@ -11176,7 +11189,7 @@
       <c r="B123" s="86"/>
       <c r="C123" s="32"/>
       <c r="D123" s="85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E123" s="118"/>
       <c r="F123" s="64">
@@ -11240,11 +11253,13 @@
       <c r="BC123" s="30"/>
     </row>
     <row r="124" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B124" s="86"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="85" t="s">
-        <v>82</v>
-      </c>
+      <c r="B124" s="31">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="85"/>
       <c r="E124" s="118"/>
       <c r="F124" s="64">
         <v>45565</v>
@@ -11253,7 +11268,7 @@
         <v>45565</v>
       </c>
       <c r="H124" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H124:H127" si="13">NETWORKDAYS(F124,G124)</f>
         <v>1</v>
       </c>
       <c r="I124" s="128">
@@ -11306,16 +11321,13 @@
       <c r="BB124" s="110"/>
       <c r="BC124" s="30"/>
     </row>
-    <row r="125" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A125" s="117"/>
-      <c r="B125" s="124">
-        <v>4.2</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
+    <row r="125" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B125" s="31"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125" s="118"/>
       <c r="F125" s="64">
         <v>45565</v>
       </c>
@@ -11323,7 +11335,7 @@
         <v>45565</v>
       </c>
       <c r="H125" s="33">
-        <f t="shared" ref="H125:H127" si="13">NETWORKDAYS(F125,G125)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I125" s="128">
@@ -11376,11 +11388,11 @@
       <c r="BB125" s="110"/>
       <c r="BC125" s="30"/>
     </row>
-    <row r="126" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B126" s="31"/>
+    <row r="126" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B126" s="86"/>
       <c r="C126" s="32"/>
       <c r="D126" s="85" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E126" s="118"/>
       <c r="F126" s="64">
@@ -11393,7 +11405,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I126" s="65">
+      <c r="I126" s="128">
         <v>0</v>
       </c>
       <c r="J126" s="34"/>
@@ -11443,16 +11455,13 @@
       <c r="BB126" s="110"/>
       <c r="BC126" s="30"/>
     </row>
-    <row r="127" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A127" s="117"/>
-      <c r="B127" s="86">
-        <v>4.21</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
+    <row r="127" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B127" s="86"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="118"/>
       <c r="F127" s="64">
         <v>45565</v>
       </c>
@@ -11463,7 +11472,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="I127" s="65">
+      <c r="I127" s="128">
         <v>0</v>
       </c>
       <c r="J127" s="34"/>
@@ -11513,88 +11522,95 @@
       <c r="BB127" s="110"/>
       <c r="BC127" s="30"/>
     </row>
-    <row r="128" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B128" s="55">
-        <v>5</v>
-      </c>
-      <c r="C128" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D128" s="56"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="57"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="59"/>
-      <c r="L128" s="60"/>
-      <c r="M128" s="60"/>
-      <c r="N128" s="58"/>
-      <c r="O128" s="58"/>
-      <c r="P128" s="58"/>
-      <c r="Q128" s="58"/>
-      <c r="R128" s="58"/>
-      <c r="S128" s="58"/>
-      <c r="T128" s="58"/>
-      <c r="U128" s="58"/>
-      <c r="V128" s="58"/>
-      <c r="W128" s="58"/>
-      <c r="X128" s="58"/>
-      <c r="Y128" s="58"/>
-      <c r="Z128" s="58"/>
-      <c r="AA128" s="58"/>
-      <c r="AB128" s="58"/>
-      <c r="AC128" s="58"/>
-      <c r="AD128" s="58"/>
-      <c r="AE128" s="58"/>
-      <c r="AF128" s="58"/>
-      <c r="AG128" s="58"/>
-      <c r="AH128" s="58"/>
-      <c r="AI128" s="58"/>
-      <c r="AJ128" s="58"/>
-      <c r="AK128" s="58"/>
-      <c r="AL128" s="58"/>
-      <c r="AM128" s="58"/>
-      <c r="AN128" s="58"/>
-      <c r="AO128" s="58"/>
-      <c r="AP128" s="58"/>
-      <c r="AQ128" s="58"/>
-      <c r="AR128" s="58"/>
-      <c r="AS128" s="58"/>
-      <c r="AT128" s="58"/>
-      <c r="AU128" s="58"/>
-      <c r="AV128" s="58"/>
-      <c r="AW128" s="58"/>
-      <c r="AX128" s="58"/>
-      <c r="AY128" s="58"/>
-      <c r="AZ128" s="58"/>
-      <c r="BA128" s="58"/>
-      <c r="BB128" s="58"/>
-      <c r="BC128" s="54"/>
-    </row>
-    <row r="129" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A129" s="117"/>
-      <c r="B129" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C129" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D129" s="87"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="70">
-        <v>45564</v>
-      </c>
-      <c r="G129" s="70">
-        <v>45394</v>
-      </c>
-      <c r="H129" s="71">
-        <f>NETWORKDAYS(F129,G129)</f>
-        <v>-121</v>
-      </c>
-      <c r="I129" s="72">
+    <row r="128" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A128" s="117"/>
+      <c r="B128" s="124">
+        <v>4.2</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G128" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H128" s="33">
+        <f t="shared" ref="H128:H130" si="14">NETWORKDAYS(F128,G128)</f>
         <v>1</v>
+      </c>
+      <c r="I128" s="128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="34"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="94"/>
+      <c r="O128" s="91"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="44"/>
+      <c r="S128" s="100"/>
+      <c r="T128" s="98"/>
+      <c r="U128" s="46"/>
+      <c r="V128" s="46"/>
+      <c r="W128" s="46"/>
+      <c r="X128" s="103"/>
+      <c r="Y128" s="106"/>
+      <c r="Z128" s="49"/>
+      <c r="AA128" s="49"/>
+      <c r="AB128" s="49"/>
+      <c r="AC128" s="110"/>
+      <c r="AD128" s="106"/>
+      <c r="AE128" s="49"/>
+      <c r="AF128" s="49"/>
+      <c r="AG128" s="49"/>
+      <c r="AH128" s="110"/>
+      <c r="AI128" s="106"/>
+      <c r="AJ128" s="49"/>
+      <c r="AK128" s="49"/>
+      <c r="AL128" s="49"/>
+      <c r="AM128" s="110"/>
+      <c r="AN128" s="106"/>
+      <c r="AO128" s="49"/>
+      <c r="AP128" s="49"/>
+      <c r="AQ128" s="49"/>
+      <c r="AR128" s="110"/>
+      <c r="AS128" s="106"/>
+      <c r="AT128" s="49"/>
+      <c r="AU128" s="49"/>
+      <c r="AV128" s="49"/>
+      <c r="AW128" s="110"/>
+      <c r="AX128" s="106"/>
+      <c r="AY128" s="49"/>
+      <c r="AZ128" s="49"/>
+      <c r="BA128" s="49"/>
+      <c r="BB128" s="110"/>
+      <c r="BC128" s="30"/>
+    </row>
+    <row r="129" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B129" s="31"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="118"/>
+      <c r="F129" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G129" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H129" s="33">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I129" s="65">
+        <v>0</v>
       </c>
       <c r="J129" s="34"/>
       <c r="K129" s="35"/>
@@ -11611,52 +11627,240 @@
       <c r="V129" s="46"/>
       <c r="W129" s="46"/>
       <c r="X129" s="103"/>
-      <c r="Y129" s="98"/>
-      <c r="Z129" s="46"/>
-      <c r="AA129" s="46"/>
-      <c r="AB129" s="46"/>
-      <c r="AC129" s="103"/>
-      <c r="AD129" s="105"/>
-      <c r="AE129" s="47"/>
-      <c r="AF129" s="47"/>
-      <c r="AG129" s="47"/>
-      <c r="AH129" s="108"/>
-      <c r="AI129" s="98"/>
-      <c r="AJ129" s="46"/>
-      <c r="AK129" s="46"/>
-      <c r="AL129" s="46"/>
-      <c r="AM129" s="46"/>
-      <c r="AN129" s="46"/>
-      <c r="AO129" s="46"/>
-      <c r="AP129" s="46"/>
-      <c r="AQ129" s="46"/>
-      <c r="AR129" s="46"/>
-      <c r="AS129" s="46"/>
-      <c r="AT129" s="46"/>
-      <c r="AU129" s="46"/>
-      <c r="AV129" s="46"/>
-      <c r="AW129" s="46"/>
-      <c r="AX129" s="46"/>
-      <c r="AY129" s="46"/>
-      <c r="AZ129" s="46"/>
-      <c r="BA129" s="46"/>
-      <c r="BB129" s="46"/>
+      <c r="Y129" s="106"/>
+      <c r="Z129" s="49"/>
+      <c r="AA129" s="49"/>
+      <c r="AB129" s="49"/>
+      <c r="AC129" s="110"/>
+      <c r="AD129" s="106"/>
+      <c r="AE129" s="49"/>
+      <c r="AF129" s="49"/>
+      <c r="AG129" s="49"/>
+      <c r="AH129" s="110"/>
+      <c r="AI129" s="106"/>
+      <c r="AJ129" s="49"/>
+      <c r="AK129" s="49"/>
+      <c r="AL129" s="49"/>
+      <c r="AM129" s="110"/>
+      <c r="AN129" s="106"/>
+      <c r="AO129" s="49"/>
+      <c r="AP129" s="49"/>
+      <c r="AQ129" s="49"/>
+      <c r="AR129" s="110"/>
+      <c r="AS129" s="106"/>
+      <c r="AT129" s="49"/>
+      <c r="AU129" s="49"/>
+      <c r="AV129" s="49"/>
+      <c r="AW129" s="110"/>
+      <c r="AX129" s="106"/>
+      <c r="AY129" s="49"/>
+      <c r="AZ129" s="49"/>
+      <c r="BA129" s="49"/>
+      <c r="BB129" s="110"/>
       <c r="BC129" s="30"/>
+    </row>
+    <row r="130" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A130" s="117"/>
+      <c r="B130" s="86">
+        <v>4.21</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="64">
+        <v>45565</v>
+      </c>
+      <c r="G130" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H130" s="33">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I130" s="65">
+        <v>0</v>
+      </c>
+      <c r="J130" s="34"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="94"/>
+      <c r="O130" s="91"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="44"/>
+      <c r="S130" s="100"/>
+      <c r="T130" s="98"/>
+      <c r="U130" s="46"/>
+      <c r="V130" s="46"/>
+      <c r="W130" s="46"/>
+      <c r="X130" s="103"/>
+      <c r="Y130" s="106"/>
+      <c r="Z130" s="49"/>
+      <c r="AA130" s="49"/>
+      <c r="AB130" s="49"/>
+      <c r="AC130" s="110"/>
+      <c r="AD130" s="106"/>
+      <c r="AE130" s="49"/>
+      <c r="AF130" s="49"/>
+      <c r="AG130" s="49"/>
+      <c r="AH130" s="110"/>
+      <c r="AI130" s="106"/>
+      <c r="AJ130" s="49"/>
+      <c r="AK130" s="49"/>
+      <c r="AL130" s="49"/>
+      <c r="AM130" s="110"/>
+      <c r="AN130" s="106"/>
+      <c r="AO130" s="49"/>
+      <c r="AP130" s="49"/>
+      <c r="AQ130" s="49"/>
+      <c r="AR130" s="110"/>
+      <c r="AS130" s="106"/>
+      <c r="AT130" s="49"/>
+      <c r="AU130" s="49"/>
+      <c r="AV130" s="49"/>
+      <c r="AW130" s="110"/>
+      <c r="AX130" s="106"/>
+      <c r="AY130" s="49"/>
+      <c r="AZ130" s="49"/>
+      <c r="BA130" s="49"/>
+      <c r="BB130" s="110"/>
+      <c r="BC130" s="30"/>
+    </row>
+    <row r="131" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B131" s="55">
+        <v>5</v>
+      </c>
+      <c r="C131" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="56"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="58"/>
+      <c r="K131" s="59"/>
+      <c r="L131" s="60"/>
+      <c r="M131" s="60"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="58"/>
+      <c r="P131" s="58"/>
+      <c r="Q131" s="58"/>
+      <c r="R131" s="58"/>
+      <c r="S131" s="58"/>
+      <c r="T131" s="58"/>
+      <c r="U131" s="58"/>
+      <c r="V131" s="58"/>
+      <c r="W131" s="58"/>
+      <c r="X131" s="58"/>
+      <c r="Y131" s="58"/>
+      <c r="Z131" s="58"/>
+      <c r="AA131" s="58"/>
+      <c r="AB131" s="58"/>
+      <c r="AC131" s="58"/>
+      <c r="AD131" s="58"/>
+      <c r="AE131" s="58"/>
+      <c r="AF131" s="58"/>
+      <c r="AG131" s="58"/>
+      <c r="AH131" s="58"/>
+      <c r="AI131" s="58"/>
+      <c r="AJ131" s="58"/>
+      <c r="AK131" s="58"/>
+      <c r="AL131" s="58"/>
+      <c r="AM131" s="58"/>
+      <c r="AN131" s="58"/>
+      <c r="AO131" s="58"/>
+      <c r="AP131" s="58"/>
+      <c r="AQ131" s="58"/>
+      <c r="AR131" s="58"/>
+      <c r="AS131" s="58"/>
+      <c r="AT131" s="58"/>
+      <c r="AU131" s="58"/>
+      <c r="AV131" s="58"/>
+      <c r="AW131" s="58"/>
+      <c r="AX131" s="58"/>
+      <c r="AY131" s="58"/>
+      <c r="AZ131" s="58"/>
+      <c r="BA131" s="58"/>
+      <c r="BB131" s="58"/>
+      <c r="BC131" s="54"/>
+    </row>
+    <row r="132" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A132" s="117"/>
+      <c r="B132" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C132" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="87"/>
+      <c r="E132" s="69"/>
+      <c r="F132" s="70">
+        <v>45564</v>
+      </c>
+      <c r="G132" s="70">
+        <v>45394</v>
+      </c>
+      <c r="H132" s="71">
+        <f>NETWORKDAYS(F132,G132)</f>
+        <v>-121</v>
+      </c>
+      <c r="I132" s="72">
+        <v>1</v>
+      </c>
+      <c r="J132" s="34"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="94"/>
+      <c r="O132" s="91"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="44"/>
+      <c r="R132" s="44"/>
+      <c r="S132" s="100"/>
+      <c r="T132" s="98"/>
+      <c r="U132" s="46"/>
+      <c r="V132" s="46"/>
+      <c r="W132" s="46"/>
+      <c r="X132" s="103"/>
+      <c r="Y132" s="98"/>
+      <c r="Z132" s="46"/>
+      <c r="AA132" s="46"/>
+      <c r="AB132" s="46"/>
+      <c r="AC132" s="103"/>
+      <c r="AD132" s="105"/>
+      <c r="AE132" s="47"/>
+      <c r="AF132" s="47"/>
+      <c r="AG132" s="47"/>
+      <c r="AH132" s="108"/>
+      <c r="AI132" s="98"/>
+      <c r="AJ132" s="46"/>
+      <c r="AK132" s="46"/>
+      <c r="AL132" s="46"/>
+      <c r="AM132" s="46"/>
+      <c r="AN132" s="46"/>
+      <c r="AO132" s="46"/>
+      <c r="AP132" s="46"/>
+      <c r="AQ132" s="46"/>
+      <c r="AR132" s="46"/>
+      <c r="AS132" s="46"/>
+      <c r="AT132" s="46"/>
+      <c r="AU132" s="46"/>
+      <c r="AV132" s="46"/>
+      <c r="AW132" s="46"/>
+      <c r="AX132" s="46"/>
+      <c r="AY132" s="46"/>
+      <c r="AZ132" s="46"/>
+      <c r="BA132" s="46"/>
+      <c r="BB132" s="46"/>
+      <c r="BC132" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11673,9 +11877,21 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="I126:I1048576 I68:I76 I78:I86 I88:I99 I64:I66 I1:I23">
+  <conditionalFormatting sqref="I129:I1048576 I70:I78 I81:I89 I91:I102 I66:I68 I1:I23">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -275,45 +275,6 @@
   </si>
   <si>
     <t>테스트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -627,18 +588,10 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>이용 조건</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>이용 조건</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>고객 문의</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
@@ -695,441 +648,6 @@
   </si>
   <si>
     <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고객</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장바구니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞춤형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>건강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고객</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장바구니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞춤형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>건강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at App</t>
-    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1395,11 +913,157 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <t>포인트</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>이용 조건</t>
+    <t>상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞춤형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2116,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2455,7 +2119,6 @@
     <xf numFmtId="9" fontId="26" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2495,17 +2158,66 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,10 +2242,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2548,51 +2256,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,10 +2574,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC132"/>
+  <dimension ref="A1:BC89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2988,40 +2651,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="C2" s="164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -3102,41 +2765,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="155" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="C4" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="140"/>
+      <c r="E4" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="152" t="s">
+      <c r="J4" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="167" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -3166,40 +2829,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="158" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="149" t="s">
+      <c r="J5" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="151">
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="165">
         <v>45611</v>
       </c>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3341,160 +3004,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="136" t="s">
+      <c r="D8" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="159" t="s">
+      <c r="J8" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="163" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163" t="s">
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="167" t="s">
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="138" t="s">
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="138"/>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="138" t="s">
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="138"/>
-      <c r="AK8" s="138"/>
-      <c r="AL8" s="138"/>
-      <c r="AM8" s="139"/>
-      <c r="AN8" s="142" t="s">
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="156" t="s">
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
-      <c r="AX8" s="156" t="s">
+      <c r="AT8" s="135"/>
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="135"/>
+      <c r="AX8" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="156"/>
-      <c r="AZ8" s="156"/>
-      <c r="BA8" s="156"/>
-      <c r="BB8" s="156"/>
+      <c r="AY8" s="135"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="135"/>
+      <c r="BB8" s="135"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="169"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="140"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="140"/>
-      <c r="AJ9" s="140"/>
-      <c r="AK9" s="140"/>
-      <c r="AL9" s="140"/>
-      <c r="AM9" s="141"/>
-      <c r="AN9" s="144"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="145"/>
-      <c r="AQ9" s="145"/>
-      <c r="AR9" s="145"/>
-      <c r="AS9" s="157"/>
-      <c r="AT9" s="157"/>
-      <c r="AU9" s="157"/>
-      <c r="AV9" s="157"/>
-      <c r="AW9" s="157"/>
-      <c r="AX9" s="157"/>
-      <c r="AY9" s="157"/>
-      <c r="AZ9" s="157"/>
-      <c r="BA9" s="157"/>
-      <c r="BB9" s="157"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="155"/>
+      <c r="AG9" s="155"/>
+      <c r="AH9" s="155"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="155"/>
+      <c r="AK9" s="155"/>
+      <c r="AL9" s="155"/>
+      <c r="AM9" s="157"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="161"/>
+      <c r="AP9" s="161"/>
+      <c r="AQ9" s="161"/>
+      <c r="AR9" s="161"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="136"/>
+      <c r="AX9" s="136"/>
+      <c r="AY9" s="136"/>
+      <c r="AZ9" s="136"/>
+      <c r="BA9" s="136"/>
+      <c r="BB9" s="136"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -3701,7 +3364,7 @@
       </c>
       <c r="D12" s="76"/>
       <c r="E12" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="70">
         <v>45558</v>
@@ -3827,12 +3490,12 @@
       <c r="B14" s="31">
         <v>2.1</v>
       </c>
-      <c r="C14" s="121" t="s">
-        <v>52</v>
+      <c r="C14" s="120" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="64">
         <v>45558</v>
@@ -3898,12 +3561,12 @@
       <c r="B15" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>55</v>
+      <c r="C15" s="121" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="64">
         <v>45559</v>
@@ -3969,12 +3632,12 @@
       <c r="B16" s="73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C16" s="123" t="s">
-        <v>56</v>
+      <c r="C16" s="122" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="70">
         <v>45560</v>
@@ -4105,13 +3768,13 @@
       </c>
       <c r="D18" s="89"/>
       <c r="E18" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="64">
         <v>45560</v>
       </c>
-      <c r="G18" s="126" t="s">
-        <v>85</v>
+      <c r="G18" s="125" t="s">
+        <v>84</v>
       </c>
       <c r="H18" s="33" t="e">
         <f>NETWORKDAYS(F18,G18)</f>
@@ -4122,9 +3785,9 @@
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="131"/>
       <c r="O18" s="92"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
@@ -4176,7 +3839,7 @@
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="64">
         <v>45561</v>
@@ -4247,13 +3910,13 @@
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="64">
         <v>45561</v>
       </c>
-      <c r="G20" s="125" t="s">
-        <v>86</v>
+      <c r="G20" s="124" t="s">
+        <v>85</v>
       </c>
       <c r="H20" s="33" t="e">
         <f>NETWORKDAYS(F20,G20)</f>
@@ -4265,8 +3928,8 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="130"/>
       <c r="O20" s="92"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="37"/>
@@ -4318,13 +3981,13 @@
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="124" t="s">
         <v>83</v>
-      </c>
-      <c r="G21" s="125" t="s">
-        <v>84</v>
       </c>
       <c r="H21" s="33" t="e">
         <f>NETWORKDAYS(F21,G21)</f>
@@ -4389,13 +4052,13 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="134" t="s">
-        <v>106</v>
+      <c r="F22" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="133" t="s">
+        <v>103</v>
       </c>
       <c r="H22" s="71" t="e">
         <f t="shared" ref="H22" si="1">NETWORKDAYS(F22,G22)</f>
@@ -4510,24 +4173,24 @@
       <c r="BB23" s="58"/>
       <c r="BC23" s="54"/>
     </row>
-    <row r="24" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B24" s="31">
         <v>4.0999999999999996</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="118"/>
       <c r="F24" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G24" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H24" s="33">
         <f>NETWORKDAYS(F24,G24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="65">
         <v>0</v>
@@ -4579,22 +4242,22 @@
       <c r="BB24" s="103"/>
       <c r="BC24" s="30"/>
     </row>
-    <row r="25" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E25" s="118"/>
       <c r="F25" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G25" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H25" s="33">
         <f t="shared" ref="H25" si="2">NETWORKDAYS(F25,G25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="65">
         <v>0</v>
@@ -4646,22 +4309,22 @@
       <c r="BB25" s="103"/>
       <c r="BC25" s="30"/>
     </row>
-    <row r="26" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
       <c r="D26" s="85" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G26" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H26" s="33">
         <f>NETWORKDAYS(F26,G26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="65">
         <v>0</v>
@@ -4713,22 +4376,22 @@
       <c r="BB26" s="103"/>
       <c r="BC26" s="30"/>
     </row>
-    <row r="27" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="118"/>
       <c r="F27" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G27" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H27" s="33">
         <f>NETWORKDAYS(F27,G27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="65">
         <v>0</v>
@@ -4780,22 +4443,22 @@
       <c r="BB27" s="103"/>
       <c r="BC27" s="30"/>
     </row>
-    <row r="28" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="85" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" s="118"/>
       <c r="F28" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G28" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H28" s="33">
         <f t="shared" ref="H28:H55" si="3">NETWORKDAYS(F28,G28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="65">
         <v>0</v>
@@ -4847,22 +4510,22 @@
       <c r="BB28" s="103"/>
       <c r="BC28" s="30"/>
     </row>
-    <row r="29" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="118"/>
       <c r="F29" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G29" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H29" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="65">
         <v>0</v>
@@ -4914,22 +4577,22 @@
       <c r="BB29" s="103"/>
       <c r="BC29" s="30"/>
     </row>
-    <row r="30" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="118"/>
       <c r="F30" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G30" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H30" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="65">
         <v>0</v>
@@ -4981,24 +4644,24 @@
       <c r="BB30" s="103"/>
       <c r="BC30" s="30"/>
     </row>
-    <row r="31" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="31" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B31" s="31">
         <v>4.2</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>109</v>
+      <c r="C31" s="85" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="118"/>
       <c r="F31" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G31" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H31" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="65">
         <v>0</v>
@@ -5050,22 +4713,22 @@
       <c r="BB31" s="104"/>
       <c r="BC31" s="30"/>
     </row>
-    <row r="32" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B32" s="31"/>
       <c r="C32" s="32"/>
       <c r="D32" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="118"/>
       <c r="F32" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G32" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H32" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="65">
         <v>0</v>
@@ -5117,22 +4780,22 @@
       <c r="BB32" s="104"/>
       <c r="BC32" s="30"/>
     </row>
-    <row r="33" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="118"/>
       <c r="F33" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G33" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="65">
         <v>0</v>
@@ -5184,22 +4847,22 @@
       <c r="BB33" s="104"/>
       <c r="BC33" s="30"/>
     </row>
-    <row r="34" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E34" s="118"/>
       <c r="F34" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G34" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="65">
         <v>0</v>
@@ -5251,22 +4914,22 @@
       <c r="BB34" s="104"/>
       <c r="BC34" s="30"/>
     </row>
-    <row r="35" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B35" s="31"/>
       <c r="C35" s="32"/>
       <c r="D35" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="118"/>
       <c r="F35" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G35" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="65">
         <v>0</v>
@@ -5318,24 +4981,24 @@
       <c r="BB35" s="104"/>
       <c r="BC35" s="30"/>
     </row>
-    <row r="36" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="36" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B36" s="31">
         <v>4.3</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D36" s="85"/>
       <c r="E36" s="118"/>
       <c r="F36" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G36" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="65">
         <v>0</v>
@@ -5387,22 +5050,22 @@
       <c r="BB36" s="104"/>
       <c r="BC36" s="30"/>
     </row>
-    <row r="37" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="85" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G37" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="65">
         <v>0</v>
@@ -5454,22 +5117,22 @@
       <c r="BB37" s="104"/>
       <c r="BC37" s="30"/>
     </row>
-    <row r="38" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G38" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="65">
         <v>0</v>
@@ -5521,22 +5184,22 @@
       <c r="BB38" s="104"/>
       <c r="BC38" s="30"/>
     </row>
-    <row r="39" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="39" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="118"/>
       <c r="F39" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G39" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="65">
         <v>0</v>
@@ -5588,22 +5251,22 @@
       <c r="BB39" s="104"/>
       <c r="BC39" s="30"/>
     </row>
-    <row r="40" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="40" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G40" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="65">
         <v>0</v>
@@ -5655,22 +5318,22 @@
       <c r="BB40" s="104"/>
       <c r="BC40" s="30"/>
     </row>
-    <row r="41" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="41" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E41" s="118"/>
       <c r="F41" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G41" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H41" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="65">
         <v>0</v>
@@ -5722,22 +5385,22 @@
       <c r="BB41" s="104"/>
       <c r="BC41" s="30"/>
     </row>
-    <row r="42" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="42" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G42" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H42" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="65">
         <v>0</v>
@@ -5789,22 +5452,22 @@
       <c r="BB42" s="104"/>
       <c r="BC42" s="30"/>
     </row>
-    <row r="43" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="43" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="118"/>
       <c r="F43" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G43" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H43" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="65">
         <v>0</v>
@@ -5856,22 +5519,22 @@
       <c r="BB43" s="104"/>
       <c r="BC43" s="30"/>
     </row>
-    <row r="44" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="44" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G44" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H44" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="65">
         <v>0</v>
@@ -5923,22 +5586,22 @@
       <c r="BB44" s="104"/>
       <c r="BC44" s="30"/>
     </row>
-    <row r="45" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="45" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B45" s="31"/>
       <c r="C45" s="32"/>
       <c r="D45" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="118"/>
       <c r="F45" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G45" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="65">
         <v>0</v>
@@ -5990,24 +5653,24 @@
       <c r="BB45" s="104"/>
       <c r="BC45" s="30"/>
     </row>
-    <row r="46" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="46" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B46" s="31">
         <v>4.4000000000000004</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D46" s="85"/>
       <c r="E46" s="118"/>
       <c r="F46" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G46" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H46" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="65">
         <v>0</v>
@@ -6059,22 +5722,22 @@
       <c r="BB46" s="108"/>
       <c r="BC46" s="30"/>
     </row>
-    <row r="47" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="47" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="31"/>
       <c r="C47" s="32"/>
       <c r="D47" s="85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" s="118"/>
       <c r="F47" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G47" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H47" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="65">
         <v>0</v>
@@ -6126,22 +5789,22 @@
       <c r="BB47" s="108"/>
       <c r="BC47" s="30"/>
     </row>
-    <row r="48" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="2:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B48" s="31"/>
       <c r="C48" s="32"/>
       <c r="D48" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G48" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H48" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="65">
         <v>0</v>
@@ -6193,22 +5856,22 @@
       <c r="BB48" s="108"/>
       <c r="BC48" s="30"/>
     </row>
-    <row r="49" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
       <c r="D49" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="118"/>
       <c r="F49" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G49" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H49" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="65">
         <v>0</v>
@@ -6260,22 +5923,22 @@
       <c r="BB49" s="108"/>
       <c r="BC49" s="30"/>
     </row>
-    <row r="50" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
       <c r="D50" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G50" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H50" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="65">
         <v>0</v>
@@ -6327,24 +5990,24 @@
       <c r="BB50" s="110"/>
       <c r="BC50" s="30"/>
     </row>
-    <row r="51" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B51" s="31">
         <v>4.5</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>112</v>
+      <c r="C51" s="85" t="s">
+        <v>117</v>
       </c>
       <c r="D51" s="85"/>
       <c r="E51" s="118"/>
       <c r="F51" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G51" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H51" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="65">
         <v>0</v>
@@ -6396,22 +6059,22 @@
       <c r="BB51" s="110"/>
       <c r="BC51" s="30"/>
     </row>
-    <row r="52" spans="2:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
       <c r="D52" s="85" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G52" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H52" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="65">
         <v>0</v>
@@ -6463,22 +6126,22 @@
       <c r="BB52" s="110"/>
       <c r="BC52" s="30"/>
     </row>
-    <row r="53" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E53" s="118"/>
       <c r="F53" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G53" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H53" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="65">
         <v>0</v>
@@ -6530,22 +6193,22 @@
       <c r="BB53" s="110"/>
       <c r="BC53" s="30"/>
     </row>
-    <row r="54" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
       <c r="D54" s="85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G54" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H54" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="65">
         <v>0</v>
@@ -6597,22 +6260,22 @@
       <c r="BB54" s="110"/>
       <c r="BC54" s="30"/>
     </row>
-    <row r="55" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
       <c r="D55" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="118"/>
       <c r="F55" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G55" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H55" s="33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="65">
         <v>0</v>
@@ -6664,24 +6327,24 @@
       <c r="BB55" s="110"/>
       <c r="BC55" s="30"/>
     </row>
-    <row r="56" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B56" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>113</v>
+      <c r="C56" s="85" t="s">
+        <v>118</v>
       </c>
       <c r="D56" s="85"/>
       <c r="E56" s="118"/>
       <c r="F56" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G56" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H56" s="33">
-        <f>NETWORKDAYS(F56,G56)</f>
-        <v>1</v>
+        <f t="shared" ref="H56:H60" si="4">NETWORKDAYS(F56,G56)</f>
+        <v>0</v>
       </c>
       <c r="I56" s="65">
         <v>0</v>
@@ -6733,22 +6396,22 @@
       <c r="BB56" s="110"/>
       <c r="BC56" s="30"/>
     </row>
-    <row r="57" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
       <c r="D57" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G57" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H57" s="33">
-        <f>NETWORKDAYS(F57,G57)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I57" s="65">
         <v>0</v>
@@ -6800,22 +6463,22 @@
       <c r="BB57" s="110"/>
       <c r="BC57" s="30"/>
     </row>
-    <row r="58" spans="2:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
       <c r="D58" s="85" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G58" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H58" s="33">
-        <f>NETWORKDAYS(F58,G58)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I58" s="65">
         <v>0</v>
@@ -6867,22 +6530,22 @@
       <c r="BB58" s="110"/>
       <c r="BC58" s="30"/>
     </row>
-    <row r="59" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="31"/>
       <c r="C59" s="32"/>
       <c r="D59" s="85" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G59" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H59" s="33">
-        <f>NETWORKDAYS(F59,G59)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I59" s="65">
         <v>0</v>
@@ -6902,54 +6565,54 @@
       <c r="V59" s="46"/>
       <c r="W59" s="46"/>
       <c r="X59" s="103"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="106"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="110"/>
-      <c r="AN59" s="106"/>
-      <c r="AO59" s="49"/>
-      <c r="AP59" s="49"/>
-      <c r="AQ59" s="49"/>
-      <c r="AR59" s="110"/>
-      <c r="AS59" s="106"/>
-      <c r="AT59" s="49"/>
-      <c r="AU59" s="49"/>
-      <c r="AV59" s="49"/>
-      <c r="AW59" s="110"/>
-      <c r="AX59" s="106"/>
-      <c r="AY59" s="49"/>
-      <c r="AZ59" s="49"/>
-      <c r="BA59" s="49"/>
-      <c r="BB59" s="110"/>
+      <c r="Y59" s="105"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="105"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="105"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="47"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="108"/>
+      <c r="AN59" s="105"/>
+      <c r="AO59" s="47"/>
+      <c r="AP59" s="47"/>
+      <c r="AQ59" s="47"/>
+      <c r="AR59" s="108"/>
+      <c r="AS59" s="105"/>
+      <c r="AT59" s="47"/>
+      <c r="AU59" s="47"/>
+      <c r="AV59" s="47"/>
+      <c r="AW59" s="108"/>
+      <c r="AX59" s="105"/>
+      <c r="AY59" s="47"/>
+      <c r="AZ59" s="47"/>
+      <c r="BA59" s="47"/>
+      <c r="BB59" s="108"/>
       <c r="BC59" s="30"/>
     </row>
-    <row r="60" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B60" s="31"/>
       <c r="C60" s="32"/>
       <c r="D60" s="85" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E60" s="118"/>
       <c r="F60" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G60" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H60" s="33">
-        <f>NETWORKDAYS(F60,G60)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I60" s="65">
         <v>0</v>
@@ -7001,22 +6664,24 @@
       <c r="BB60" s="108"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="118"/>
+    <row r="61" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B61" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="118"/>
+      <c r="E61" s="64"/>
       <c r="F61" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G61" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H61" s="33">
-        <f>NETWORKDAYS(F61,G61)</f>
-        <v>1</v>
+        <f t="shared" ref="H61:H63" si="5">NETWORKDAYS(F61,G61)</f>
+        <v>0</v>
       </c>
       <c r="I61" s="65">
         <v>0</v>
@@ -7036,58 +6701,56 @@
       <c r="V61" s="46"/>
       <c r="W61" s="46"/>
       <c r="X61" s="103"/>
-      <c r="Y61" s="105"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="47"/>
-      <c r="AC61" s="108"/>
-      <c r="AD61" s="105"/>
-      <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-      <c r="AG61" s="47"/>
-      <c r="AH61" s="108"/>
-      <c r="AI61" s="105"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="47"/>
-      <c r="AL61" s="47"/>
-      <c r="AM61" s="108"/>
-      <c r="AN61" s="105"/>
-      <c r="AO61" s="47"/>
-      <c r="AP61" s="47"/>
-      <c r="AQ61" s="47"/>
-      <c r="AR61" s="108"/>
-      <c r="AS61" s="105"/>
-      <c r="AT61" s="47"/>
-      <c r="AU61" s="47"/>
-      <c r="AV61" s="47"/>
-      <c r="AW61" s="108"/>
-      <c r="AX61" s="105"/>
-      <c r="AY61" s="47"/>
-      <c r="AZ61" s="47"/>
-      <c r="BA61" s="47"/>
-      <c r="BB61" s="108"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="106"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="110"/>
+      <c r="AI61" s="106"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="110"/>
+      <c r="AN61" s="106"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="110"/>
+      <c r="AS61" s="106"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="49"/>
+      <c r="AW61" s="110"/>
+      <c r="AX61" s="106"/>
+      <c r="AY61" s="49"/>
+      <c r="AZ61" s="49"/>
+      <c r="BA61" s="49"/>
+      <c r="BB61" s="110"/>
       <c r="BC61" s="30"/>
     </row>
-    <row r="62" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B62" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="118"/>
+    <row r="62" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="118" t="s">
+        <v>66</v>
+      </c>
       <c r="E62" s="64"/>
       <c r="F62" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G62" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H62" s="33">
-        <f t="shared" ref="H62:H65" si="4">NETWORKDAYS(F62,G62)</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="128">
         <v>0</v>
       </c>
       <c r="J62" s="34"/>
@@ -7137,24 +6800,24 @@
       <c r="BB62" s="110"/>
       <c r="BC62" s="30"/>
     </row>
-    <row r="63" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="63" spans="1:55" s="132" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
       <c r="D63" s="118" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G63" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H63" s="33">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="127">
         <v>0</v>
       </c>
       <c r="J63" s="34"/>
@@ -7204,24 +6867,27 @@
       <c r="BB63" s="110"/>
       <c r="BC63" s="30"/>
     </row>
-    <row r="64" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="64"/>
+    <row r="64" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="117"/>
+      <c r="B64" s="31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="118"/>
       <c r="F64" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G64" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H64" s="33">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I64" s="129">
+        <f>NETWORKDAYS(F64,G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="65">
         <v>0</v>
       </c>
       <c r="J64" s="34"/>
@@ -7239,56 +6905,56 @@
       <c r="V64" s="46"/>
       <c r="W64" s="46"/>
       <c r="X64" s="103"/>
-      <c r="Y64" s="106"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="106"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="110"/>
-      <c r="AI64" s="106"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="110"/>
-      <c r="AN64" s="106"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="49"/>
-      <c r="AQ64" s="49"/>
-      <c r="AR64" s="110"/>
-      <c r="AS64" s="106"/>
-      <c r="AT64" s="49"/>
-      <c r="AU64" s="49"/>
-      <c r="AV64" s="49"/>
-      <c r="AW64" s="110"/>
-      <c r="AX64" s="106"/>
-      <c r="AY64" s="49"/>
-      <c r="AZ64" s="49"/>
-      <c r="BA64" s="49"/>
-      <c r="BB64" s="110"/>
+      <c r="Y64" s="98"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="103"/>
+      <c r="AD64" s="105"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="108"/>
+      <c r="AI64" s="98"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="46"/>
+      <c r="AL64" s="46"/>
+      <c r="AM64" s="103"/>
+      <c r="AN64" s="98"/>
+      <c r="AO64" s="46"/>
+      <c r="AP64" s="46"/>
+      <c r="AQ64" s="46"/>
+      <c r="AR64" s="103"/>
+      <c r="AS64" s="111"/>
+      <c r="AT64" s="48"/>
+      <c r="AU64" s="48"/>
+      <c r="AV64" s="48"/>
+      <c r="AW64" s="113"/>
+      <c r="AX64" s="98"/>
+      <c r="AY64" s="46"/>
+      <c r="AZ64" s="46"/>
+      <c r="BA64" s="46"/>
+      <c r="BB64" s="103"/>
       <c r="BC64" s="30"/>
     </row>
-    <row r="65" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="118" t="s">
+      <c r="D65" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="64"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G65" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="128">
+        <f t="shared" ref="H65:H87" si="6">NETWORKDAYS(F65,G65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="65">
         <v>0</v>
       </c>
       <c r="J65" s="34"/>
@@ -7306,57 +6972,54 @@
       <c r="V65" s="46"/>
       <c r="W65" s="46"/>
       <c r="X65" s="103"/>
-      <c r="Y65" s="106"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="110"/>
-      <c r="AI65" s="106"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="49"/>
-      <c r="AL65" s="49"/>
-      <c r="AM65" s="110"/>
-      <c r="AN65" s="106"/>
-      <c r="AO65" s="49"/>
-      <c r="AP65" s="49"/>
-      <c r="AQ65" s="49"/>
-      <c r="AR65" s="110"/>
-      <c r="AS65" s="106"/>
-      <c r="AT65" s="49"/>
-      <c r="AU65" s="49"/>
-      <c r="AV65" s="49"/>
-      <c r="AW65" s="110"/>
-      <c r="AX65" s="106"/>
-      <c r="AY65" s="49"/>
-      <c r="AZ65" s="49"/>
-      <c r="BA65" s="49"/>
-      <c r="BB65" s="110"/>
+      <c r="Y65" s="98"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="103"/>
+      <c r="AD65" s="105"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="108"/>
+      <c r="AI65" s="98"/>
+      <c r="AJ65" s="46"/>
+      <c r="AK65" s="46"/>
+      <c r="AL65" s="46"/>
+      <c r="AM65" s="103"/>
+      <c r="AN65" s="98"/>
+      <c r="AO65" s="46"/>
+      <c r="AP65" s="46"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="103"/>
+      <c r="AS65" s="111"/>
+      <c r="AT65" s="48"/>
+      <c r="AU65" s="48"/>
+      <c r="AV65" s="48"/>
+      <c r="AW65" s="113"/>
+      <c r="AX65" s="98"/>
+      <c r="AY65" s="46"/>
+      <c r="AZ65" s="46"/>
+      <c r="BA65" s="46"/>
+      <c r="BB65" s="103"/>
       <c r="BC65" s="30"/>
     </row>
-    <row r="66" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="117"/>
-      <c r="B66" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="32"/>
+    <row r="66" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="85" t="s">
+        <v>69</v>
+      </c>
       <c r="E66" s="118"/>
       <c r="F66" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G66" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H66" s="33">
         <f>NETWORKDAYS(F66,G66)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="65">
         <v>0</v>
@@ -7408,22 +7071,22 @@
       <c r="BB66" s="103"/>
       <c r="BC66" s="30"/>
     </row>
-    <row r="67" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:55" s="126" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
       <c r="D67" s="85" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G67" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H67" s="33">
-        <f t="shared" ref="H67:H118" si="5">NETWORKDAYS(F67,G67)</f>
-        <v>1</v>
+        <f>NETWORKDAYS(F67,G67)</f>
+        <v>0</v>
       </c>
       <c r="I67" s="65">
         <v>0</v>
@@ -7476,21 +7139,23 @@
       <c r="BC67" s="30"/>
     </row>
     <row r="68" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="85" t="s">
-        <v>94</v>
-      </c>
+      <c r="B68" s="31">
+        <v>4.16</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="85"/>
       <c r="E68" s="118"/>
       <c r="F68" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G68" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H68" s="33">
-        <f>NETWORKDAYS(F68,G68)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I68" s="65">
         <v>0</v>
@@ -7542,22 +7207,22 @@
       <c r="BB68" s="103"/>
       <c r="BC68" s="30"/>
     </row>
-    <row r="69" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B69" s="31"/>
       <c r="C69" s="32"/>
       <c r="D69" s="85" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G69" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H69" s="33">
-        <f>NETWORKDAYS(F69,G69)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I69" s="65">
         <v>0</v>
@@ -7613,18 +7278,18 @@
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
       <c r="D70" s="85" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G70" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I70" s="65">
         <v>0</v>
@@ -7676,159 +7341,159 @@
       <c r="BB70" s="103"/>
       <c r="BC70" s="30"/>
     </row>
-    <row r="71" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="71" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="117"/>
       <c r="B71" s="31"/>
       <c r="C71" s="32"/>
       <c r="D71" s="85" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E71" s="118"/>
       <c r="F71" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G71" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H71" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I71" s="65">
         <v>0</v>
       </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="94"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="95"/>
       <c r="O71" s="91"/>
       <c r="P71" s="44"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="44"/>
       <c r="S71" s="100"/>
-      <c r="T71" s="98"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
-      <c r="X71" s="103"/>
-      <c r="Y71" s="98"/>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="46"/>
-      <c r="AB71" s="46"/>
-      <c r="AC71" s="103"/>
-      <c r="AD71" s="105"/>
-      <c r="AE71" s="47"/>
-      <c r="AF71" s="47"/>
-      <c r="AG71" s="47"/>
-      <c r="AH71" s="108"/>
-      <c r="AI71" s="98"/>
-      <c r="AJ71" s="46"/>
-      <c r="AK71" s="46"/>
-      <c r="AL71" s="46"/>
-      <c r="AM71" s="103"/>
-      <c r="AN71" s="98"/>
-      <c r="AO71" s="46"/>
-      <c r="AP71" s="46"/>
-      <c r="AQ71" s="46"/>
-      <c r="AR71" s="103"/>
-      <c r="AS71" s="111"/>
-      <c r="AT71" s="48"/>
-      <c r="AU71" s="48"/>
-      <c r="AV71" s="48"/>
-      <c r="AW71" s="113"/>
-      <c r="AX71" s="98"/>
-      <c r="AY71" s="46"/>
-      <c r="AZ71" s="46"/>
-      <c r="BA71" s="46"/>
-      <c r="BB71" s="103"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="104"/>
+      <c r="AD71" s="106"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="110"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="43"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="104"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
+      <c r="AQ71" s="43"/>
+      <c r="AR71" s="104"/>
+      <c r="AS71" s="112"/>
+      <c r="AT71" s="50"/>
+      <c r="AU71" s="50"/>
+      <c r="AV71" s="50"/>
+      <c r="AW71" s="114"/>
+      <c r="AX71" s="99"/>
+      <c r="AY71" s="43"/>
+      <c r="AZ71" s="43"/>
+      <c r="BA71" s="43"/>
+      <c r="BB71" s="104"/>
       <c r="BC71" s="30"/>
     </row>
     <row r="72" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="85" t="s">
-        <v>41</v>
-      </c>
+      <c r="B72" s="123">
+        <v>4.17</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="85"/>
       <c r="E72" s="118"/>
       <c r="F72" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G72" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H72" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I72" s="65">
         <v>0</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="94"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="95"/>
       <c r="O72" s="91"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="44"/>
       <c r="S72" s="100"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
-      <c r="X72" s="103"/>
-      <c r="Y72" s="98"/>
-      <c r="Z72" s="46"/>
-      <c r="AA72" s="46"/>
-      <c r="AB72" s="46"/>
-      <c r="AC72" s="103"/>
-      <c r="AD72" s="105"/>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="108"/>
-      <c r="AI72" s="98"/>
-      <c r="AJ72" s="46"/>
-      <c r="AK72" s="46"/>
-      <c r="AL72" s="46"/>
-      <c r="AM72" s="103"/>
-      <c r="AN72" s="98"/>
-      <c r="AO72" s="46"/>
-      <c r="AP72" s="46"/>
-      <c r="AQ72" s="46"/>
-      <c r="AR72" s="103"/>
-      <c r="AS72" s="111"/>
-      <c r="AT72" s="48"/>
-      <c r="AU72" s="48"/>
-      <c r="AV72" s="48"/>
-      <c r="AW72" s="113"/>
-      <c r="AX72" s="98"/>
-      <c r="AY72" s="46"/>
-      <c r="AZ72" s="46"/>
-      <c r="BA72" s="46"/>
-      <c r="BB72" s="103"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="104"/>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="104"/>
+      <c r="AD72" s="106"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="110"/>
+      <c r="AI72" s="99"/>
+      <c r="AJ72" s="43"/>
+      <c r="AK72" s="43"/>
+      <c r="AL72" s="43"/>
+      <c r="AM72" s="104"/>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="43"/>
+      <c r="AP72" s="43"/>
+      <c r="AQ72" s="43"/>
+      <c r="AR72" s="104"/>
+      <c r="AS72" s="112"/>
+      <c r="AT72" s="50"/>
+      <c r="AU72" s="50"/>
+      <c r="AV72" s="50"/>
+      <c r="AW72" s="114"/>
+      <c r="AX72" s="99"/>
+      <c r="AY72" s="43"/>
+      <c r="AZ72" s="43"/>
+      <c r="BA72" s="43"/>
+      <c r="BB72" s="104"/>
       <c r="BC72" s="30"/>
     </row>
-    <row r="73" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A73" s="117"/>
-      <c r="B73" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="85"/>
+    <row r="73" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="85" t="s">
+        <v>90</v>
+      </c>
       <c r="E73" s="118"/>
       <c r="F73" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G73" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I73" s="65">
         <v>0</v>
@@ -7881,21 +7546,21 @@
       <c r="BC73" s="30"/>
     </row>
     <row r="74" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="31"/>
+      <c r="B74" s="86"/>
       <c r="C74" s="32"/>
       <c r="D74" s="85" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E74" s="118"/>
       <c r="F74" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G74" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H74" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I74" s="65">
         <v>0</v>
@@ -7948,21 +7613,21 @@
       <c r="BC74" s="30"/>
     </row>
     <row r="75" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B75" s="31"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="32"/>
       <c r="D75" s="85" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G75" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H75" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I75" s="65">
         <v>0</v>
@@ -8014,22 +7679,25 @@
       <c r="BB75" s="104"/>
       <c r="BC75" s="30"/>
     </row>
-    <row r="76" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="85" t="s">
-        <v>100</v>
-      </c>
+    <row r="76" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A76" s="117"/>
+      <c r="B76" s="31">
+        <v>4.18</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="85"/>
       <c r="E76" s="118"/>
       <c r="F76" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G76" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H76" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I76" s="65">
         <v>0</v>
@@ -8081,22 +7749,22 @@
       <c r="BB76" s="104"/>
       <c r="BC76" s="30"/>
     </row>
-    <row r="77" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B77" s="31"/>
+    <row r="77" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B77" s="86"/>
       <c r="C77" s="32"/>
       <c r="D77" s="85" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E77" s="118"/>
       <c r="F77" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G77" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H77" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="H77" si="7">NETWORKDAYS(F77,G77)</f>
+        <v>0</v>
       </c>
       <c r="I77" s="65">
         <v>0</v>
@@ -8148,25 +7816,22 @@
       <c r="BB77" s="104"/>
       <c r="BC77" s="30"/>
     </row>
-    <row r="78" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A78" s="117"/>
-      <c r="B78" s="124">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="85"/>
+    <row r="78" spans="1:55" s="126" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B78" s="86"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="85" t="s">
+        <v>76</v>
+      </c>
       <c r="E78" s="118"/>
       <c r="F78" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G78" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H78" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I78" s="65">
         <v>0</v>
@@ -8218,22 +7883,22 @@
       <c r="BB78" s="104"/>
       <c r="BC78" s="30"/>
     </row>
-    <row r="79" spans="1:55" s="135" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B79" s="124"/>
+    <row r="79" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B79" s="86"/>
       <c r="C79" s="32"/>
       <c r="D79" s="85" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E79" s="118"/>
       <c r="F79" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G79" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H79" s="33">
-        <f t="shared" ref="H79" si="6">NETWORKDAYS(F79,G79)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I79" s="65">
         <v>0</v>
@@ -8285,22 +7950,22 @@
       <c r="BB79" s="104"/>
       <c r="BC79" s="30"/>
     </row>
-    <row r="80" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B80" s="31"/>
+    <row r="80" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B80" s="86"/>
       <c r="C80" s="32"/>
       <c r="D80" s="85" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E80" s="118"/>
       <c r="F80" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G80" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H80" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I80" s="65">
         <v>0</v>
@@ -8353,21 +8018,23 @@
       <c r="BC80" s="30"/>
     </row>
     <row r="81" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="85" t="s">
-        <v>96</v>
-      </c>
+      <c r="B81" s="31">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="85"/>
       <c r="E81" s="118"/>
       <c r="F81" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G81" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H81" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I81" s="65">
         <v>0</v>
@@ -8423,18 +8090,18 @@
       <c r="B82" s="31"/>
       <c r="C82" s="32"/>
       <c r="D82" s="85" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E82" s="118"/>
       <c r="F82" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G82" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H82" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I82" s="65">
         <v>0</v>
@@ -8487,21 +8154,21 @@
       <c r="BC82" s="30"/>
     </row>
     <row r="83" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B83" s="31"/>
+      <c r="B83" s="86"/>
       <c r="C83" s="32"/>
       <c r="D83" s="85" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E83" s="118"/>
       <c r="F83" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G83" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H83" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I83" s="65">
         <v>0</v>
@@ -8554,21 +8221,21 @@
       <c r="BC83" s="30"/>
     </row>
     <row r="84" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="31"/>
+      <c r="B84" s="86"/>
       <c r="C84" s="32"/>
       <c r="D84" s="85" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G84" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H84" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I84" s="65">
         <v>0</v>
@@ -8621,21 +8288,23 @@
       <c r="BC84" s="30"/>
     </row>
     <row r="85" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B85" s="31"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" s="118"/>
+      <c r="B85" s="123">
+        <v>4.2</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G85" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H85" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I85" s="65">
         <v>0</v>
@@ -8691,18 +8360,18 @@
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
       <c r="D86" s="85" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E86" s="118"/>
       <c r="F86" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G86" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H86" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I86" s="65">
         <v>0</v>
@@ -8755,160 +8424,156 @@
       <c r="BC86" s="30"/>
     </row>
     <row r="87" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B87" s="31"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="118"/>
+      <c r="B87" s="86">
+        <v>4.21</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G87" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H87" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I87" s="65">
         <v>0</v>
       </c>
-      <c r="J87" s="38"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="95"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="94"/>
       <c r="O87" s="91"/>
       <c r="P87" s="44"/>
       <c r="Q87" s="44"/>
       <c r="R87" s="44"/>
       <c r="S87" s="100"/>
-      <c r="T87" s="99"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="104"/>
-      <c r="Y87" s="99"/>
-      <c r="Z87" s="43"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="104"/>
-      <c r="AD87" s="106"/>
-      <c r="AE87" s="49"/>
-      <c r="AF87" s="49"/>
-      <c r="AG87" s="49"/>
-      <c r="AH87" s="110"/>
-      <c r="AI87" s="99"/>
-      <c r="AJ87" s="43"/>
-      <c r="AK87" s="43"/>
-      <c r="AL87" s="43"/>
-      <c r="AM87" s="104"/>
-      <c r="AN87" s="99"/>
-      <c r="AO87" s="43"/>
-      <c r="AP87" s="43"/>
-      <c r="AQ87" s="43"/>
-      <c r="AR87" s="104"/>
-      <c r="AS87" s="112"/>
-      <c r="AT87" s="50"/>
-      <c r="AU87" s="50"/>
-      <c r="AV87" s="50"/>
-      <c r="AW87" s="114"/>
-      <c r="AX87" s="99"/>
-      <c r="AY87" s="43"/>
-      <c r="AZ87" s="43"/>
-      <c r="BA87" s="43"/>
-      <c r="BB87" s="104"/>
+      <c r="T87" s="98"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="103"/>
+      <c r="Y87" s="105"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="108"/>
+      <c r="AD87" s="105"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="108"/>
+      <c r="AI87" s="105"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="47"/>
+      <c r="AM87" s="108"/>
+      <c r="AN87" s="105"/>
+      <c r="AO87" s="47"/>
+      <c r="AP87" s="47"/>
+      <c r="AQ87" s="47"/>
+      <c r="AR87" s="108"/>
+      <c r="AS87" s="105"/>
+      <c r="AT87" s="47"/>
+      <c r="AU87" s="47"/>
+      <c r="AV87" s="47"/>
+      <c r="AW87" s="108"/>
+      <c r="AX87" s="105"/>
+      <c r="AY87" s="47"/>
+      <c r="AZ87" s="47"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="108"/>
       <c r="BC87" s="30"/>
     </row>
-    <row r="88" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E88" s="118"/>
-      <c r="F88" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G88" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H88" s="33">
-        <f t="shared" si="5"/>
+    <row r="88" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B88" s="55">
+        <v>5</v>
+      </c>
+      <c r="C88" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="58"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58"/>
+      <c r="U88" s="58"/>
+      <c r="V88" s="58"/>
+      <c r="W88" s="58"/>
+      <c r="X88" s="58"/>
+      <c r="Y88" s="58"/>
+      <c r="Z88" s="58"/>
+      <c r="AA88" s="58"/>
+      <c r="AB88" s="58"/>
+      <c r="AC88" s="58"/>
+      <c r="AD88" s="58"/>
+      <c r="AE88" s="58"/>
+      <c r="AF88" s="58"/>
+      <c r="AG88" s="58"/>
+      <c r="AH88" s="58"/>
+      <c r="AI88" s="58"/>
+      <c r="AJ88" s="58"/>
+      <c r="AK88" s="58"/>
+      <c r="AL88" s="58"/>
+      <c r="AM88" s="58"/>
+      <c r="AN88" s="58"/>
+      <c r="AO88" s="58"/>
+      <c r="AP88" s="58"/>
+      <c r="AQ88" s="58"/>
+      <c r="AR88" s="58"/>
+      <c r="AS88" s="58"/>
+      <c r="AT88" s="58"/>
+      <c r="AU88" s="58"/>
+      <c r="AV88" s="58"/>
+      <c r="AW88" s="58"/>
+      <c r="AX88" s="58"/>
+      <c r="AY88" s="58"/>
+      <c r="AZ88" s="58"/>
+      <c r="BA88" s="58"/>
+      <c r="BB88" s="58"/>
+      <c r="BC88" s="54"/>
+    </row>
+    <row r="89" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A89" s="117"/>
+      <c r="B89" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C89" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="87"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="70">
+        <v>45564</v>
+      </c>
+      <c r="G89" s="70">
+        <v>45394</v>
+      </c>
+      <c r="H89" s="71">
+        <f>NETWORKDAYS(F89,G89)</f>
+        <v>-121</v>
+      </c>
+      <c r="I89" s="72">
         <v>1</v>
-      </c>
-      <c r="I88" s="65">
-        <v>0</v>
-      </c>
-      <c r="J88" s="38"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="91"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="100"/>
-      <c r="T88" s="99"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="104"/>
-      <c r="Y88" s="99"/>
-      <c r="Z88" s="43"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="104"/>
-      <c r="AD88" s="106"/>
-      <c r="AE88" s="49"/>
-      <c r="AF88" s="49"/>
-      <c r="AG88" s="49"/>
-      <c r="AH88" s="110"/>
-      <c r="AI88" s="99"/>
-      <c r="AJ88" s="43"/>
-      <c r="AK88" s="43"/>
-      <c r="AL88" s="43"/>
-      <c r="AM88" s="104"/>
-      <c r="AN88" s="99"/>
-      <c r="AO88" s="43"/>
-      <c r="AP88" s="43"/>
-      <c r="AQ88" s="43"/>
-      <c r="AR88" s="104"/>
-      <c r="AS88" s="112"/>
-      <c r="AT88" s="50"/>
-      <c r="AU88" s="50"/>
-      <c r="AV88" s="50"/>
-      <c r="AW88" s="114"/>
-      <c r="AX88" s="99"/>
-      <c r="AY88" s="43"/>
-      <c r="AZ88" s="43"/>
-      <c r="BA88" s="43"/>
-      <c r="BB88" s="104"/>
-      <c r="BC88" s="30"/>
-    </row>
-    <row r="89" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B89" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="85"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G89" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H89" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I89" s="65">
-        <v>0</v>
       </c>
       <c r="J89" s="34"/>
       <c r="K89" s="35"/>
@@ -8925,2942 +8590,52 @@
       <c r="V89" s="46"/>
       <c r="W89" s="46"/>
       <c r="X89" s="103"/>
-      <c r="Y89" s="105"/>
-      <c r="Z89" s="47"/>
-      <c r="AA89" s="47"/>
-      <c r="AB89" s="47"/>
-      <c r="AC89" s="108"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="103"/>
       <c r="AD89" s="105"/>
       <c r="AE89" s="47"/>
       <c r="AF89" s="47"/>
       <c r="AG89" s="47"/>
       <c r="AH89" s="108"/>
-      <c r="AI89" s="105"/>
-      <c r="AJ89" s="47"/>
-      <c r="AK89" s="47"/>
-      <c r="AL89" s="47"/>
-      <c r="AM89" s="108"/>
-      <c r="AN89" s="105"/>
-      <c r="AO89" s="47"/>
-      <c r="AP89" s="47"/>
-      <c r="AQ89" s="47"/>
-      <c r="AR89" s="108"/>
-      <c r="AS89" s="105"/>
-      <c r="AT89" s="47"/>
-      <c r="AU89" s="47"/>
-      <c r="AV89" s="47"/>
-      <c r="AW89" s="108"/>
-      <c r="AX89" s="105"/>
-      <c r="AY89" s="47"/>
-      <c r="AZ89" s="47"/>
-      <c r="BA89" s="47"/>
-      <c r="BB89" s="108"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="46"/>
+      <c r="AL89" s="46"/>
+      <c r="AM89" s="46"/>
+      <c r="AN89" s="46"/>
+      <c r="AO89" s="46"/>
+      <c r="AP89" s="46"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="46"/>
+      <c r="AS89" s="46"/>
+      <c r="AT89" s="46"/>
+      <c r="AU89" s="46"/>
+      <c r="AV89" s="46"/>
+      <c r="AW89" s="46"/>
+      <c r="AX89" s="46"/>
+      <c r="AY89" s="46"/>
+      <c r="AZ89" s="46"/>
+      <c r="BA89" s="46"/>
+      <c r="BB89" s="46"/>
       <c r="BC89" s="30"/>
-    </row>
-    <row r="90" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B90" s="31"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G90" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H90" s="33">
-        <f t="shared" ref="H90" si="7">NETWORKDAYS(F90,G90)</f>
-        <v>1</v>
-      </c>
-      <c r="I90" s="65">
-        <v>0</v>
-      </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="94"/>
-      <c r="O90" s="91"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="100"/>
-      <c r="T90" s="98"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="46"/>
-      <c r="X90" s="103"/>
-      <c r="Y90" s="105"/>
-      <c r="Z90" s="47"/>
-      <c r="AA90" s="47"/>
-      <c r="AB90" s="47"/>
-      <c r="AC90" s="108"/>
-      <c r="AD90" s="105"/>
-      <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-      <c r="AG90" s="47"/>
-      <c r="AH90" s="108"/>
-      <c r="AI90" s="105"/>
-      <c r="AJ90" s="47"/>
-      <c r="AK90" s="47"/>
-      <c r="AL90" s="47"/>
-      <c r="AM90" s="108"/>
-      <c r="AN90" s="105"/>
-      <c r="AO90" s="47"/>
-      <c r="AP90" s="47"/>
-      <c r="AQ90" s="47"/>
-      <c r="AR90" s="108"/>
-      <c r="AS90" s="105"/>
-      <c r="AT90" s="47"/>
-      <c r="AU90" s="47"/>
-      <c r="AV90" s="47"/>
-      <c r="AW90" s="108"/>
-      <c r="AX90" s="105"/>
-      <c r="AY90" s="47"/>
-      <c r="AZ90" s="47"/>
-      <c r="BA90" s="47"/>
-      <c r="BB90" s="108"/>
-      <c r="BC90" s="30"/>
-    </row>
-    <row r="91" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="118"/>
-      <c r="F91" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G91" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H91" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I91" s="65">
-        <v>0</v>
-      </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="94"/>
-      <c r="O91" s="91"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="100"/>
-      <c r="T91" s="98"/>
-      <c r="U91" s="46"/>
-      <c r="V91" s="46"/>
-      <c r="W91" s="46"/>
-      <c r="X91" s="103"/>
-      <c r="Y91" s="105"/>
-      <c r="Z91" s="47"/>
-      <c r="AA91" s="47"/>
-      <c r="AB91" s="47"/>
-      <c r="AC91" s="108"/>
-      <c r="AD91" s="105"/>
-      <c r="AE91" s="47"/>
-      <c r="AF91" s="47"/>
-      <c r="AG91" s="47"/>
-      <c r="AH91" s="108"/>
-      <c r="AI91" s="105"/>
-      <c r="AJ91" s="47"/>
-      <c r="AK91" s="47"/>
-      <c r="AL91" s="47"/>
-      <c r="AM91" s="108"/>
-      <c r="AN91" s="105"/>
-      <c r="AO91" s="47"/>
-      <c r="AP91" s="47"/>
-      <c r="AQ91" s="47"/>
-      <c r="AR91" s="108"/>
-      <c r="AS91" s="105"/>
-      <c r="AT91" s="47"/>
-      <c r="AU91" s="47"/>
-      <c r="AV91" s="47"/>
-      <c r="AW91" s="108"/>
-      <c r="AX91" s="105"/>
-      <c r="AY91" s="47"/>
-      <c r="AZ91" s="47"/>
-      <c r="BA91" s="47"/>
-      <c r="BB91" s="108"/>
-      <c r="BC91" s="30"/>
-    </row>
-    <row r="92" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="118"/>
-      <c r="F92" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G92" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H92" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I92" s="65">
-        <v>0</v>
-      </c>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="91"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-      <c r="S92" s="100"/>
-      <c r="T92" s="98"/>
-      <c r="U92" s="46"/>
-      <c r="V92" s="46"/>
-      <c r="W92" s="46"/>
-      <c r="X92" s="103"/>
-      <c r="Y92" s="105"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="108"/>
-      <c r="AD92" s="105"/>
-      <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-      <c r="AG92" s="47"/>
-      <c r="AH92" s="108"/>
-      <c r="AI92" s="105"/>
-      <c r="AJ92" s="47"/>
-      <c r="AK92" s="47"/>
-      <c r="AL92" s="47"/>
-      <c r="AM92" s="108"/>
-      <c r="AN92" s="105"/>
-      <c r="AO92" s="47"/>
-      <c r="AP92" s="47"/>
-      <c r="AQ92" s="47"/>
-      <c r="AR92" s="108"/>
-      <c r="AS92" s="105"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="108"/>
-      <c r="AX92" s="105"/>
-      <c r="AY92" s="47"/>
-      <c r="AZ92" s="47"/>
-      <c r="BA92" s="47"/>
-      <c r="BB92" s="108"/>
-      <c r="BC92" s="30"/>
-    </row>
-    <row r="93" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G93" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H93" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I93" s="65">
-        <v>0</v>
-      </c>
-      <c r="J93" s="34"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="94"/>
-      <c r="O93" s="91"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="100"/>
-      <c r="T93" s="98"/>
-      <c r="U93" s="46"/>
-      <c r="V93" s="46"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="103"/>
-      <c r="Y93" s="106"/>
-      <c r="Z93" s="49"/>
-      <c r="AA93" s="49"/>
-      <c r="AB93" s="49"/>
-      <c r="AC93" s="110"/>
-      <c r="AD93" s="106"/>
-      <c r="AE93" s="49"/>
-      <c r="AF93" s="49"/>
-      <c r="AG93" s="49"/>
-      <c r="AH93" s="110"/>
-      <c r="AI93" s="106"/>
-      <c r="AJ93" s="49"/>
-      <c r="AK93" s="49"/>
-      <c r="AL93" s="49"/>
-      <c r="AM93" s="110"/>
-      <c r="AN93" s="106"/>
-      <c r="AO93" s="49"/>
-      <c r="AP93" s="49"/>
-      <c r="AQ93" s="49"/>
-      <c r="AR93" s="110"/>
-      <c r="AS93" s="106"/>
-      <c r="AT93" s="49"/>
-      <c r="AU93" s="49"/>
-      <c r="AV93" s="49"/>
-      <c r="AW93" s="110"/>
-      <c r="AX93" s="106"/>
-      <c r="AY93" s="49"/>
-      <c r="AZ93" s="49"/>
-      <c r="BA93" s="49"/>
-      <c r="BB93" s="110"/>
-      <c r="BC93" s="30"/>
-    </row>
-    <row r="94" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A94" s="117"/>
-      <c r="B94" s="31">
-        <v>4.12</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="85"/>
-      <c r="E94" s="118"/>
-      <c r="F94" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G94" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H94" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I94" s="65">
-        <v>0</v>
-      </c>
-      <c r="J94" s="34"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="94"/>
-      <c r="O94" s="91"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-      <c r="S94" s="100"/>
-      <c r="T94" s="98"/>
-      <c r="U94" s="46"/>
-      <c r="V94" s="46"/>
-      <c r="W94" s="46"/>
-      <c r="X94" s="103"/>
-      <c r="Y94" s="106"/>
-      <c r="Z94" s="49"/>
-      <c r="AA94" s="49"/>
-      <c r="AB94" s="49"/>
-      <c r="AC94" s="110"/>
-      <c r="AD94" s="106"/>
-      <c r="AE94" s="49"/>
-      <c r="AF94" s="49"/>
-      <c r="AG94" s="49"/>
-      <c r="AH94" s="110"/>
-      <c r="AI94" s="106"/>
-      <c r="AJ94" s="49"/>
-      <c r="AK94" s="49"/>
-      <c r="AL94" s="49"/>
-      <c r="AM94" s="110"/>
-      <c r="AN94" s="106"/>
-      <c r="AO94" s="49"/>
-      <c r="AP94" s="49"/>
-      <c r="AQ94" s="49"/>
-      <c r="AR94" s="110"/>
-      <c r="AS94" s="106"/>
-      <c r="AT94" s="49"/>
-      <c r="AU94" s="49"/>
-      <c r="AV94" s="49"/>
-      <c r="AW94" s="110"/>
-      <c r="AX94" s="106"/>
-      <c r="AY94" s="49"/>
-      <c r="AZ94" s="49"/>
-      <c r="BA94" s="49"/>
-      <c r="BB94" s="110"/>
-      <c r="BC94" s="30"/>
-    </row>
-    <row r="95" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B95" s="31"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="118"/>
-      <c r="F95" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G95" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H95" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I95" s="65">
-        <v>0</v>
-      </c>
-      <c r="J95" s="34"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="94"/>
-      <c r="O95" s="91"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="100"/>
-      <c r="T95" s="98"/>
-      <c r="U95" s="46"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="46"/>
-      <c r="X95" s="103"/>
-      <c r="Y95" s="106"/>
-      <c r="Z95" s="49"/>
-      <c r="AA95" s="49"/>
-      <c r="AB95" s="49"/>
-      <c r="AC95" s="110"/>
-      <c r="AD95" s="106"/>
-      <c r="AE95" s="49"/>
-      <c r="AF95" s="49"/>
-      <c r="AG95" s="49"/>
-      <c r="AH95" s="110"/>
-      <c r="AI95" s="106"/>
-      <c r="AJ95" s="49"/>
-      <c r="AK95" s="49"/>
-      <c r="AL95" s="49"/>
-      <c r="AM95" s="110"/>
-      <c r="AN95" s="106"/>
-      <c r="AO95" s="49"/>
-      <c r="AP95" s="49"/>
-      <c r="AQ95" s="49"/>
-      <c r="AR95" s="110"/>
-      <c r="AS95" s="106"/>
-      <c r="AT95" s="49"/>
-      <c r="AU95" s="49"/>
-      <c r="AV95" s="49"/>
-      <c r="AW95" s="110"/>
-      <c r="AX95" s="106"/>
-      <c r="AY95" s="49"/>
-      <c r="AZ95" s="49"/>
-      <c r="BA95" s="49"/>
-      <c r="BB95" s="110"/>
-      <c r="BC95" s="30"/>
-    </row>
-    <row r="96" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E96" s="118"/>
-      <c r="F96" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G96" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H96" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I96" s="65">
-        <v>0</v>
-      </c>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="94"/>
-      <c r="O96" s="91"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
-      <c r="S96" s="100"/>
-      <c r="T96" s="98"/>
-      <c r="U96" s="46"/>
-      <c r="V96" s="46"/>
-      <c r="W96" s="46"/>
-      <c r="X96" s="103"/>
-      <c r="Y96" s="106"/>
-      <c r="Z96" s="49"/>
-      <c r="AA96" s="49"/>
-      <c r="AB96" s="49"/>
-      <c r="AC96" s="110"/>
-      <c r="AD96" s="106"/>
-      <c r="AE96" s="49"/>
-      <c r="AF96" s="49"/>
-      <c r="AG96" s="49"/>
-      <c r="AH96" s="110"/>
-      <c r="AI96" s="106"/>
-      <c r="AJ96" s="49"/>
-      <c r="AK96" s="49"/>
-      <c r="AL96" s="49"/>
-      <c r="AM96" s="110"/>
-      <c r="AN96" s="106"/>
-      <c r="AO96" s="49"/>
-      <c r="AP96" s="49"/>
-      <c r="AQ96" s="49"/>
-      <c r="AR96" s="110"/>
-      <c r="AS96" s="106"/>
-      <c r="AT96" s="49"/>
-      <c r="AU96" s="49"/>
-      <c r="AV96" s="49"/>
-      <c r="AW96" s="110"/>
-      <c r="AX96" s="106"/>
-      <c r="AY96" s="49"/>
-      <c r="AZ96" s="49"/>
-      <c r="BA96" s="49"/>
-      <c r="BB96" s="110"/>
-      <c r="BC96" s="30"/>
-    </row>
-    <row r="97" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E97" s="118"/>
-      <c r="F97" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G97" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H97" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I97" s="65">
-        <v>0</v>
-      </c>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="94"/>
-      <c r="O97" s="91"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-      <c r="S97" s="100"/>
-      <c r="T97" s="98"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="46"/>
-      <c r="W97" s="46"/>
-      <c r="X97" s="103"/>
-      <c r="Y97" s="106"/>
-      <c r="Z97" s="49"/>
-      <c r="AA97" s="49"/>
-      <c r="AB97" s="49"/>
-      <c r="AC97" s="110"/>
-      <c r="AD97" s="106"/>
-      <c r="AE97" s="49"/>
-      <c r="AF97" s="49"/>
-      <c r="AG97" s="49"/>
-      <c r="AH97" s="110"/>
-      <c r="AI97" s="106"/>
-      <c r="AJ97" s="49"/>
-      <c r="AK97" s="49"/>
-      <c r="AL97" s="49"/>
-      <c r="AM97" s="110"/>
-      <c r="AN97" s="106"/>
-      <c r="AO97" s="49"/>
-      <c r="AP97" s="49"/>
-      <c r="AQ97" s="49"/>
-      <c r="AR97" s="110"/>
-      <c r="AS97" s="106"/>
-      <c r="AT97" s="49"/>
-      <c r="AU97" s="49"/>
-      <c r="AV97" s="49"/>
-      <c r="AW97" s="110"/>
-      <c r="AX97" s="106"/>
-      <c r="AY97" s="49"/>
-      <c r="AZ97" s="49"/>
-      <c r="BA97" s="49"/>
-      <c r="BB97" s="110"/>
-      <c r="BC97" s="30"/>
-    </row>
-    <row r="98" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A98" s="120"/>
-      <c r="B98" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="85"/>
-      <c r="E98" s="118"/>
-      <c r="F98" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G98" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H98" s="33">
-        <f>NETWORKDAYS(F98,G98)</f>
-        <v>1</v>
-      </c>
-      <c r="I98" s="65">
-        <v>0</v>
-      </c>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="94"/>
-      <c r="O98" s="91"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="100"/>
-      <c r="T98" s="98"/>
-      <c r="U98" s="46"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="46"/>
-      <c r="X98" s="103"/>
-      <c r="Y98" s="106"/>
-      <c r="Z98" s="49"/>
-      <c r="AA98" s="49"/>
-      <c r="AB98" s="49"/>
-      <c r="AC98" s="110"/>
-      <c r="AD98" s="106"/>
-      <c r="AE98" s="49"/>
-      <c r="AF98" s="49"/>
-      <c r="AG98" s="49"/>
-      <c r="AH98" s="110"/>
-      <c r="AI98" s="106"/>
-      <c r="AJ98" s="49"/>
-      <c r="AK98" s="49"/>
-      <c r="AL98" s="49"/>
-      <c r="AM98" s="110"/>
-      <c r="AN98" s="106"/>
-      <c r="AO98" s="49"/>
-      <c r="AP98" s="49"/>
-      <c r="AQ98" s="49"/>
-      <c r="AR98" s="110"/>
-      <c r="AS98" s="106"/>
-      <c r="AT98" s="49"/>
-      <c r="AU98" s="49"/>
-      <c r="AV98" s="49"/>
-      <c r="AW98" s="110"/>
-      <c r="AX98" s="106"/>
-      <c r="AY98" s="49"/>
-      <c r="AZ98" s="49"/>
-      <c r="BA98" s="49"/>
-      <c r="BB98" s="110"/>
-      <c r="BC98" s="30"/>
-    </row>
-    <row r="99" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A99" s="120"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="E99" s="118"/>
-      <c r="F99" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G99" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H99" s="33">
-        <f>NETWORKDAYS(F99,G99)</f>
-        <v>1</v>
-      </c>
-      <c r="I99" s="65">
-        <v>0</v>
-      </c>
-      <c r="J99" s="34"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="94"/>
-      <c r="O99" s="91"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="100"/>
-      <c r="T99" s="98"/>
-      <c r="U99" s="46"/>
-      <c r="V99" s="46"/>
-      <c r="W99" s="46"/>
-      <c r="X99" s="103"/>
-      <c r="Y99" s="106"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
-      <c r="AB99" s="49"/>
-      <c r="AC99" s="110"/>
-      <c r="AD99" s="106"/>
-      <c r="AE99" s="49"/>
-      <c r="AF99" s="49"/>
-      <c r="AG99" s="49"/>
-      <c r="AH99" s="110"/>
-      <c r="AI99" s="106"/>
-      <c r="AJ99" s="49"/>
-      <c r="AK99" s="49"/>
-      <c r="AL99" s="49"/>
-      <c r="AM99" s="110"/>
-      <c r="AN99" s="106"/>
-      <c r="AO99" s="49"/>
-      <c r="AP99" s="49"/>
-      <c r="AQ99" s="49"/>
-      <c r="AR99" s="110"/>
-      <c r="AS99" s="106"/>
-      <c r="AT99" s="49"/>
-      <c r="AU99" s="49"/>
-      <c r="AV99" s="49"/>
-      <c r="AW99" s="110"/>
-      <c r="AX99" s="106"/>
-      <c r="AY99" s="49"/>
-      <c r="AZ99" s="49"/>
-      <c r="BA99" s="49"/>
-      <c r="BB99" s="110"/>
-      <c r="BC99" s="30"/>
-    </row>
-    <row r="100" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="118"/>
-      <c r="F100" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G100" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H100" s="33">
-        <f>NETWORKDAYS(F100,G100)</f>
-        <v>1</v>
-      </c>
-      <c r="I100" s="65">
-        <v>0</v>
-      </c>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="94"/>
-      <c r="O100" s="91"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="100"/>
-      <c r="T100" s="98"/>
-      <c r="U100" s="46"/>
-      <c r="V100" s="46"/>
-      <c r="W100" s="46"/>
-      <c r="X100" s="103"/>
-      <c r="Y100" s="106"/>
-      <c r="Z100" s="49"/>
-      <c r="AA100" s="49"/>
-      <c r="AB100" s="49"/>
-      <c r="AC100" s="110"/>
-      <c r="AD100" s="106"/>
-      <c r="AE100" s="49"/>
-      <c r="AF100" s="49"/>
-      <c r="AG100" s="49"/>
-      <c r="AH100" s="110"/>
-      <c r="AI100" s="106"/>
-      <c r="AJ100" s="49"/>
-      <c r="AK100" s="49"/>
-      <c r="AL100" s="49"/>
-      <c r="AM100" s="110"/>
-      <c r="AN100" s="106"/>
-      <c r="AO100" s="49"/>
-      <c r="AP100" s="49"/>
-      <c r="AQ100" s="49"/>
-      <c r="AR100" s="110"/>
-      <c r="AS100" s="106"/>
-      <c r="AT100" s="49"/>
-      <c r="AU100" s="49"/>
-      <c r="AV100" s="49"/>
-      <c r="AW100" s="110"/>
-      <c r="AX100" s="106"/>
-      <c r="AY100" s="49"/>
-      <c r="AZ100" s="49"/>
-      <c r="BA100" s="49"/>
-      <c r="BB100" s="110"/>
-      <c r="BC100" s="30"/>
-    </row>
-    <row r="101" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B101" s="31"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="118"/>
-      <c r="F101" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G101" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H101" s="33">
-        <f>NETWORKDAYS(F101,G101)</f>
-        <v>1</v>
-      </c>
-      <c r="I101" s="65">
-        <v>0</v>
-      </c>
-      <c r="J101" s="34"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="94"/>
-      <c r="O101" s="91"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="44"/>
-      <c r="S101" s="100"/>
-      <c r="T101" s="98"/>
-      <c r="U101" s="46"/>
-      <c r="V101" s="46"/>
-      <c r="W101" s="46"/>
-      <c r="X101" s="103"/>
-      <c r="Y101" s="105"/>
-      <c r="Z101" s="47"/>
-      <c r="AA101" s="47"/>
-      <c r="AB101" s="47"/>
-      <c r="AC101" s="108"/>
-      <c r="AD101" s="105"/>
-      <c r="AE101" s="47"/>
-      <c r="AF101" s="47"/>
-      <c r="AG101" s="47"/>
-      <c r="AH101" s="108"/>
-      <c r="AI101" s="105"/>
-      <c r="AJ101" s="47"/>
-      <c r="AK101" s="47"/>
-      <c r="AL101" s="47"/>
-      <c r="AM101" s="108"/>
-      <c r="AN101" s="105"/>
-      <c r="AO101" s="47"/>
-      <c r="AP101" s="47"/>
-      <c r="AQ101" s="47"/>
-      <c r="AR101" s="108"/>
-      <c r="AS101" s="105"/>
-      <c r="AT101" s="47"/>
-      <c r="AU101" s="47"/>
-      <c r="AV101" s="47"/>
-      <c r="AW101" s="108"/>
-      <c r="AX101" s="105"/>
-      <c r="AY101" s="47"/>
-      <c r="AZ101" s="47"/>
-      <c r="BA101" s="47"/>
-      <c r="BB101" s="108"/>
-      <c r="BC101" s="30"/>
-    </row>
-    <row r="102" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B102" s="31"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="118"/>
-      <c r="F102" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G102" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H102" s="33">
-        <f>NETWORKDAYS(F102,G102)</f>
-        <v>1</v>
-      </c>
-      <c r="I102" s="65">
-        <v>0</v>
-      </c>
-      <c r="J102" s="34"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="94"/>
-      <c r="O102" s="91"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-      <c r="S102" s="100"/>
-      <c r="T102" s="98"/>
-      <c r="U102" s="46"/>
-      <c r="V102" s="46"/>
-      <c r="W102" s="46"/>
-      <c r="X102" s="103"/>
-      <c r="Y102" s="105"/>
-      <c r="Z102" s="47"/>
-      <c r="AA102" s="47"/>
-      <c r="AB102" s="47"/>
-      <c r="AC102" s="108"/>
-      <c r="AD102" s="105"/>
-      <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-      <c r="AG102" s="47"/>
-      <c r="AH102" s="108"/>
-      <c r="AI102" s="105"/>
-      <c r="AJ102" s="47"/>
-      <c r="AK102" s="47"/>
-      <c r="AL102" s="47"/>
-      <c r="AM102" s="108"/>
-      <c r="AN102" s="105"/>
-      <c r="AO102" s="47"/>
-      <c r="AP102" s="47"/>
-      <c r="AQ102" s="47"/>
-      <c r="AR102" s="108"/>
-      <c r="AS102" s="105"/>
-      <c r="AT102" s="47"/>
-      <c r="AU102" s="47"/>
-      <c r="AV102" s="47"/>
-      <c r="AW102" s="108"/>
-      <c r="AX102" s="105"/>
-      <c r="AY102" s="47"/>
-      <c r="AZ102" s="47"/>
-      <c r="BA102" s="47"/>
-      <c r="BB102" s="108"/>
-      <c r="BC102" s="30"/>
-    </row>
-    <row r="103" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B103" s="31">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="118"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G103" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H103" s="33">
-        <f t="shared" ref="H103:H106" si="8">NETWORKDAYS(F103,G103)</f>
-        <v>1</v>
-      </c>
-      <c r="I103" s="65">
-        <v>0</v>
-      </c>
-      <c r="J103" s="34"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="94"/>
-      <c r="O103" s="91"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="44"/>
-      <c r="S103" s="100"/>
-      <c r="T103" s="98"/>
-      <c r="U103" s="46"/>
-      <c r="V103" s="46"/>
-      <c r="W103" s="46"/>
-      <c r="X103" s="103"/>
-      <c r="Y103" s="106"/>
-      <c r="Z103" s="49"/>
-      <c r="AA103" s="49"/>
-      <c r="AB103" s="49"/>
-      <c r="AC103" s="110"/>
-      <c r="AD103" s="106"/>
-      <c r="AE103" s="49"/>
-      <c r="AF103" s="49"/>
-      <c r="AG103" s="49"/>
-      <c r="AH103" s="110"/>
-      <c r="AI103" s="106"/>
-      <c r="AJ103" s="49"/>
-      <c r="AK103" s="49"/>
-      <c r="AL103" s="49"/>
-      <c r="AM103" s="110"/>
-      <c r="AN103" s="106"/>
-      <c r="AO103" s="49"/>
-      <c r="AP103" s="49"/>
-      <c r="AQ103" s="49"/>
-      <c r="AR103" s="110"/>
-      <c r="AS103" s="106"/>
-      <c r="AT103" s="49"/>
-      <c r="AU103" s="49"/>
-      <c r="AV103" s="49"/>
-      <c r="AW103" s="110"/>
-      <c r="AX103" s="106"/>
-      <c r="AY103" s="49"/>
-      <c r="AZ103" s="49"/>
-      <c r="BA103" s="49"/>
-      <c r="BB103" s="110"/>
-      <c r="BC103" s="30"/>
-    </row>
-    <row r="104" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B104" s="31"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G104" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H104" s="33">
-        <f t="shared" ref="H104" si="9">NETWORKDAYS(F104,G104)</f>
-        <v>1</v>
-      </c>
-      <c r="I104" s="65">
-        <v>0</v>
-      </c>
-      <c r="J104" s="34"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="94"/>
-      <c r="O104" s="91"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="100"/>
-      <c r="T104" s="98"/>
-      <c r="U104" s="46"/>
-      <c r="V104" s="46"/>
-      <c r="W104" s="46"/>
-      <c r="X104" s="103"/>
-      <c r="Y104" s="106"/>
-      <c r="Z104" s="49"/>
-      <c r="AA104" s="49"/>
-      <c r="AB104" s="49"/>
-      <c r="AC104" s="110"/>
-      <c r="AD104" s="106"/>
-      <c r="AE104" s="49"/>
-      <c r="AF104" s="49"/>
-      <c r="AG104" s="49"/>
-      <c r="AH104" s="110"/>
-      <c r="AI104" s="106"/>
-      <c r="AJ104" s="49"/>
-      <c r="AK104" s="49"/>
-      <c r="AL104" s="49"/>
-      <c r="AM104" s="110"/>
-      <c r="AN104" s="106"/>
-      <c r="AO104" s="49"/>
-      <c r="AP104" s="49"/>
-      <c r="AQ104" s="49"/>
-      <c r="AR104" s="110"/>
-      <c r="AS104" s="106"/>
-      <c r="AT104" s="49"/>
-      <c r="AU104" s="49"/>
-      <c r="AV104" s="49"/>
-      <c r="AW104" s="110"/>
-      <c r="AX104" s="106"/>
-      <c r="AY104" s="49"/>
-      <c r="AZ104" s="49"/>
-      <c r="BA104" s="49"/>
-      <c r="BB104" s="110"/>
-      <c r="BC104" s="30"/>
-    </row>
-    <row r="105" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B105" s="31"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G105" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H105" s="33">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I105" s="129">
-        <v>0</v>
-      </c>
-      <c r="J105" s="34"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="94"/>
-      <c r="O105" s="91"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="44"/>
-      <c r="S105" s="100"/>
-      <c r="T105" s="98"/>
-      <c r="U105" s="46"/>
-      <c r="V105" s="46"/>
-      <c r="W105" s="46"/>
-      <c r="X105" s="103"/>
-      <c r="Y105" s="106"/>
-      <c r="Z105" s="49"/>
-      <c r="AA105" s="49"/>
-      <c r="AB105" s="49"/>
-      <c r="AC105" s="110"/>
-      <c r="AD105" s="106"/>
-      <c r="AE105" s="49"/>
-      <c r="AF105" s="49"/>
-      <c r="AG105" s="49"/>
-      <c r="AH105" s="110"/>
-      <c r="AI105" s="106"/>
-      <c r="AJ105" s="49"/>
-      <c r="AK105" s="49"/>
-      <c r="AL105" s="49"/>
-      <c r="AM105" s="110"/>
-      <c r="AN105" s="106"/>
-      <c r="AO105" s="49"/>
-      <c r="AP105" s="49"/>
-      <c r="AQ105" s="49"/>
-      <c r="AR105" s="110"/>
-      <c r="AS105" s="106"/>
-      <c r="AT105" s="49"/>
-      <c r="AU105" s="49"/>
-      <c r="AV105" s="49"/>
-      <c r="AW105" s="110"/>
-      <c r="AX105" s="106"/>
-      <c r="AY105" s="49"/>
-      <c r="AZ105" s="49"/>
-      <c r="BA105" s="49"/>
-      <c r="BB105" s="110"/>
-      <c r="BC105" s="30"/>
-    </row>
-    <row r="106" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B106" s="31"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G106" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H106" s="33">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I106" s="128">
-        <v>0</v>
-      </c>
-      <c r="J106" s="34"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="94"/>
-      <c r="O106" s="91"/>
-      <c r="P106" s="44"/>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="44"/>
-      <c r="S106" s="100"/>
-      <c r="T106" s="98"/>
-      <c r="U106" s="46"/>
-      <c r="V106" s="46"/>
-      <c r="W106" s="46"/>
-      <c r="X106" s="103"/>
-      <c r="Y106" s="106"/>
-      <c r="Z106" s="49"/>
-      <c r="AA106" s="49"/>
-      <c r="AB106" s="49"/>
-      <c r="AC106" s="110"/>
-      <c r="AD106" s="106"/>
-      <c r="AE106" s="49"/>
-      <c r="AF106" s="49"/>
-      <c r="AG106" s="49"/>
-      <c r="AH106" s="110"/>
-      <c r="AI106" s="106"/>
-      <c r="AJ106" s="49"/>
-      <c r="AK106" s="49"/>
-      <c r="AL106" s="49"/>
-      <c r="AM106" s="110"/>
-      <c r="AN106" s="106"/>
-      <c r="AO106" s="49"/>
-      <c r="AP106" s="49"/>
-      <c r="AQ106" s="49"/>
-      <c r="AR106" s="110"/>
-      <c r="AS106" s="106"/>
-      <c r="AT106" s="49"/>
-      <c r="AU106" s="49"/>
-      <c r="AV106" s="49"/>
-      <c r="AW106" s="110"/>
-      <c r="AX106" s="106"/>
-      <c r="AY106" s="49"/>
-      <c r="AZ106" s="49"/>
-      <c r="BA106" s="49"/>
-      <c r="BB106" s="110"/>
-      <c r="BC106" s="30"/>
-    </row>
-    <row r="107" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B107" s="31">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="85"/>
-      <c r="E107" s="118"/>
-      <c r="F107" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G107" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H107" s="33">
-        <f t="shared" ref="H107:H110" si="10">NETWORKDAYS(F107,G107)</f>
-        <v>1</v>
-      </c>
-      <c r="I107" s="128">
-        <v>0</v>
-      </c>
-      <c r="J107" s="34"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="94"/>
-      <c r="O107" s="91"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="44"/>
-      <c r="S107" s="100"/>
-      <c r="T107" s="98"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="103"/>
-      <c r="Y107" s="106"/>
-      <c r="Z107" s="49"/>
-      <c r="AA107" s="49"/>
-      <c r="AB107" s="49"/>
-      <c r="AC107" s="110"/>
-      <c r="AD107" s="106"/>
-      <c r="AE107" s="49"/>
-      <c r="AF107" s="49"/>
-      <c r="AG107" s="49"/>
-      <c r="AH107" s="110"/>
-      <c r="AI107" s="106"/>
-      <c r="AJ107" s="49"/>
-      <c r="AK107" s="49"/>
-      <c r="AL107" s="49"/>
-      <c r="AM107" s="110"/>
-      <c r="AN107" s="106"/>
-      <c r="AO107" s="49"/>
-      <c r="AP107" s="49"/>
-      <c r="AQ107" s="49"/>
-      <c r="AR107" s="110"/>
-      <c r="AS107" s="106"/>
-      <c r="AT107" s="49"/>
-      <c r="AU107" s="49"/>
-      <c r="AV107" s="49"/>
-      <c r="AW107" s="110"/>
-      <c r="AX107" s="106"/>
-      <c r="AY107" s="49"/>
-      <c r="AZ107" s="49"/>
-      <c r="BA107" s="49"/>
-      <c r="BB107" s="110"/>
-      <c r="BC107" s="30"/>
-    </row>
-    <row r="108" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B108" s="31"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E108" s="118"/>
-      <c r="F108" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G108" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H108" s="33">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I108" s="128">
-        <v>0</v>
-      </c>
-      <c r="J108" s="34"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="94"/>
-      <c r="O108" s="91"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="44"/>
-      <c r="S108" s="100"/>
-      <c r="T108" s="98"/>
-      <c r="U108" s="46"/>
-      <c r="V108" s="46"/>
-      <c r="W108" s="46"/>
-      <c r="X108" s="103"/>
-      <c r="Y108" s="106"/>
-      <c r="Z108" s="49"/>
-      <c r="AA108" s="49"/>
-      <c r="AB108" s="49"/>
-      <c r="AC108" s="110"/>
-      <c r="AD108" s="106"/>
-      <c r="AE108" s="49"/>
-      <c r="AF108" s="49"/>
-      <c r="AG108" s="49"/>
-      <c r="AH108" s="110"/>
-      <c r="AI108" s="106"/>
-      <c r="AJ108" s="49"/>
-      <c r="AK108" s="49"/>
-      <c r="AL108" s="49"/>
-      <c r="AM108" s="110"/>
-      <c r="AN108" s="106"/>
-      <c r="AO108" s="49"/>
-      <c r="AP108" s="49"/>
-      <c r="AQ108" s="49"/>
-      <c r="AR108" s="110"/>
-      <c r="AS108" s="106"/>
-      <c r="AT108" s="49"/>
-      <c r="AU108" s="49"/>
-      <c r="AV108" s="49"/>
-      <c r="AW108" s="110"/>
-      <c r="AX108" s="106"/>
-      <c r="AY108" s="49"/>
-      <c r="AZ108" s="49"/>
-      <c r="BA108" s="49"/>
-      <c r="BB108" s="110"/>
-      <c r="BC108" s="30"/>
-    </row>
-    <row r="109" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B109" s="31"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E109" s="118"/>
-      <c r="F109" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G109" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H109" s="33">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I109" s="128">
-        <v>0</v>
-      </c>
-      <c r="J109" s="34"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="94"/>
-      <c r="O109" s="91"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="44"/>
-      <c r="S109" s="100"/>
-      <c r="T109" s="98"/>
-      <c r="U109" s="46"/>
-      <c r="V109" s="46"/>
-      <c r="W109" s="46"/>
-      <c r="X109" s="103"/>
-      <c r="Y109" s="106"/>
-      <c r="Z109" s="49"/>
-      <c r="AA109" s="49"/>
-      <c r="AB109" s="49"/>
-      <c r="AC109" s="110"/>
-      <c r="AD109" s="106"/>
-      <c r="AE109" s="49"/>
-      <c r="AF109" s="49"/>
-      <c r="AG109" s="49"/>
-      <c r="AH109" s="110"/>
-      <c r="AI109" s="106"/>
-      <c r="AJ109" s="49"/>
-      <c r="AK109" s="49"/>
-      <c r="AL109" s="49"/>
-      <c r="AM109" s="110"/>
-      <c r="AN109" s="106"/>
-      <c r="AO109" s="49"/>
-      <c r="AP109" s="49"/>
-      <c r="AQ109" s="49"/>
-      <c r="AR109" s="110"/>
-      <c r="AS109" s="106"/>
-      <c r="AT109" s="49"/>
-      <c r="AU109" s="49"/>
-      <c r="AV109" s="49"/>
-      <c r="AW109" s="110"/>
-      <c r="AX109" s="106"/>
-      <c r="AY109" s="49"/>
-      <c r="AZ109" s="49"/>
-      <c r="BA109" s="49"/>
-      <c r="BB109" s="110"/>
-      <c r="BC109" s="30"/>
-    </row>
-    <row r="110" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B110" s="31"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110" s="118"/>
-      <c r="F110" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G110" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H110" s="33">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I110" s="65">
-        <v>0</v>
-      </c>
-      <c r="J110" s="34"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="94"/>
-      <c r="O110" s="91"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-      <c r="S110" s="100"/>
-      <c r="T110" s="98"/>
-      <c r="U110" s="46"/>
-      <c r="V110" s="46"/>
-      <c r="W110" s="46"/>
-      <c r="X110" s="103"/>
-      <c r="Y110" s="105"/>
-      <c r="Z110" s="47"/>
-      <c r="AA110" s="47"/>
-      <c r="AB110" s="47"/>
-      <c r="AC110" s="108"/>
-      <c r="AD110" s="105"/>
-      <c r="AE110" s="47"/>
-      <c r="AF110" s="47"/>
-      <c r="AG110" s="47"/>
-      <c r="AH110" s="108"/>
-      <c r="AI110" s="105"/>
-      <c r="AJ110" s="47"/>
-      <c r="AK110" s="47"/>
-      <c r="AL110" s="47"/>
-      <c r="AM110" s="108"/>
-      <c r="AN110" s="105"/>
-      <c r="AO110" s="47"/>
-      <c r="AP110" s="47"/>
-      <c r="AQ110" s="47"/>
-      <c r="AR110" s="108"/>
-      <c r="AS110" s="105"/>
-      <c r="AT110" s="47"/>
-      <c r="AU110" s="47"/>
-      <c r="AV110" s="47"/>
-      <c r="AW110" s="108"/>
-      <c r="AX110" s="105"/>
-      <c r="AY110" s="47"/>
-      <c r="AZ110" s="47"/>
-      <c r="BA110" s="47"/>
-      <c r="BB110" s="108"/>
-      <c r="BC110" s="30"/>
-    </row>
-    <row r="111" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B111" s="31">
-        <v>4.16</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D111" s="85"/>
-      <c r="E111" s="118"/>
-      <c r="F111" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G111" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H111" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I111" s="128">
-        <v>0</v>
-      </c>
-      <c r="J111" s="34"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="94"/>
-      <c r="O111" s="91"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-      <c r="S111" s="100"/>
-      <c r="T111" s="98"/>
-      <c r="U111" s="46"/>
-      <c r="V111" s="46"/>
-      <c r="W111" s="46"/>
-      <c r="X111" s="103"/>
-      <c r="Y111" s="106"/>
-      <c r="Z111" s="49"/>
-      <c r="AA111" s="49"/>
-      <c r="AB111" s="49"/>
-      <c r="AC111" s="110"/>
-      <c r="AD111" s="106"/>
-      <c r="AE111" s="49"/>
-      <c r="AF111" s="49"/>
-      <c r="AG111" s="49"/>
-      <c r="AH111" s="110"/>
-      <c r="AI111" s="106"/>
-      <c r="AJ111" s="49"/>
-      <c r="AK111" s="49"/>
-      <c r="AL111" s="49"/>
-      <c r="AM111" s="110"/>
-      <c r="AN111" s="106"/>
-      <c r="AO111" s="49"/>
-      <c r="AP111" s="49"/>
-      <c r="AQ111" s="49"/>
-      <c r="AR111" s="110"/>
-      <c r="AS111" s="106"/>
-      <c r="AT111" s="49"/>
-      <c r="AU111" s="49"/>
-      <c r="AV111" s="49"/>
-      <c r="AW111" s="110"/>
-      <c r="AX111" s="106"/>
-      <c r="AY111" s="49"/>
-      <c r="AZ111" s="49"/>
-      <c r="BA111" s="49"/>
-      <c r="BB111" s="110"/>
-      <c r="BC111" s="30"/>
-    </row>
-    <row r="112" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B112" s="31"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="118"/>
-      <c r="F112" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G112" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H112" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I112" s="128">
-        <v>0</v>
-      </c>
-      <c r="J112" s="34"/>
-      <c r="K112" s="35"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="94"/>
-      <c r="O112" s="91"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-      <c r="S112" s="100"/>
-      <c r="T112" s="98"/>
-      <c r="U112" s="46"/>
-      <c r="V112" s="46"/>
-      <c r="W112" s="46"/>
-      <c r="X112" s="103"/>
-      <c r="Y112" s="106"/>
-      <c r="Z112" s="49"/>
-      <c r="AA112" s="49"/>
-      <c r="AB112" s="49"/>
-      <c r="AC112" s="110"/>
-      <c r="AD112" s="106"/>
-      <c r="AE112" s="49"/>
-      <c r="AF112" s="49"/>
-      <c r="AG112" s="49"/>
-      <c r="AH112" s="110"/>
-      <c r="AI112" s="106"/>
-      <c r="AJ112" s="49"/>
-      <c r="AK112" s="49"/>
-      <c r="AL112" s="49"/>
-      <c r="AM112" s="110"/>
-      <c r="AN112" s="106"/>
-      <c r="AO112" s="49"/>
-      <c r="AP112" s="49"/>
-      <c r="AQ112" s="49"/>
-      <c r="AR112" s="110"/>
-      <c r="AS112" s="106"/>
-      <c r="AT112" s="49"/>
-      <c r="AU112" s="49"/>
-      <c r="AV112" s="49"/>
-      <c r="AW112" s="110"/>
-      <c r="AX112" s="106"/>
-      <c r="AY112" s="49"/>
-      <c r="AZ112" s="49"/>
-      <c r="BA112" s="49"/>
-      <c r="BB112" s="110"/>
-      <c r="BC112" s="30"/>
-    </row>
-    <row r="113" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B113" s="31"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="118"/>
-      <c r="F113" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G113" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H113" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I113" s="128">
-        <v>0</v>
-      </c>
-      <c r="J113" s="34"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="94"/>
-      <c r="O113" s="91"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="100"/>
-      <c r="T113" s="98"/>
-      <c r="U113" s="46"/>
-      <c r="V113" s="46"/>
-      <c r="W113" s="46"/>
-      <c r="X113" s="103"/>
-      <c r="Y113" s="106"/>
-      <c r="Z113" s="49"/>
-      <c r="AA113" s="49"/>
-      <c r="AB113" s="49"/>
-      <c r="AC113" s="110"/>
-      <c r="AD113" s="106"/>
-      <c r="AE113" s="49"/>
-      <c r="AF113" s="49"/>
-      <c r="AG113" s="49"/>
-      <c r="AH113" s="110"/>
-      <c r="AI113" s="106"/>
-      <c r="AJ113" s="49"/>
-      <c r="AK113" s="49"/>
-      <c r="AL113" s="49"/>
-      <c r="AM113" s="110"/>
-      <c r="AN113" s="106"/>
-      <c r="AO113" s="49"/>
-      <c r="AP113" s="49"/>
-      <c r="AQ113" s="49"/>
-      <c r="AR113" s="110"/>
-      <c r="AS113" s="106"/>
-      <c r="AT113" s="49"/>
-      <c r="AU113" s="49"/>
-      <c r="AV113" s="49"/>
-      <c r="AW113" s="110"/>
-      <c r="AX113" s="106"/>
-      <c r="AY113" s="49"/>
-      <c r="AZ113" s="49"/>
-      <c r="BA113" s="49"/>
-      <c r="BB113" s="110"/>
-      <c r="BC113" s="30"/>
-    </row>
-    <row r="114" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B114" s="31"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="E114" s="118"/>
-      <c r="F114" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G114" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H114" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I114" s="128">
-        <v>0</v>
-      </c>
-      <c r="J114" s="34"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="94"/>
-      <c r="O114" s="91"/>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="44"/>
-      <c r="R114" s="44"/>
-      <c r="S114" s="100"/>
-      <c r="T114" s="98"/>
-      <c r="U114" s="46"/>
-      <c r="V114" s="46"/>
-      <c r="W114" s="46"/>
-      <c r="X114" s="103"/>
-      <c r="Y114" s="105"/>
-      <c r="Z114" s="47"/>
-      <c r="AA114" s="47"/>
-      <c r="AB114" s="47"/>
-      <c r="AC114" s="108"/>
-      <c r="AD114" s="105"/>
-      <c r="AE114" s="47"/>
-      <c r="AF114" s="47"/>
-      <c r="AG114" s="47"/>
-      <c r="AH114" s="108"/>
-      <c r="AI114" s="105"/>
-      <c r="AJ114" s="47"/>
-      <c r="AK114" s="47"/>
-      <c r="AL114" s="47"/>
-      <c r="AM114" s="108"/>
-      <c r="AN114" s="105"/>
-      <c r="AO114" s="47"/>
-      <c r="AP114" s="47"/>
-      <c r="AQ114" s="47"/>
-      <c r="AR114" s="108"/>
-      <c r="AS114" s="105"/>
-      <c r="AT114" s="47"/>
-      <c r="AU114" s="47"/>
-      <c r="AV114" s="47"/>
-      <c r="AW114" s="108"/>
-      <c r="AX114" s="105"/>
-      <c r="AY114" s="47"/>
-      <c r="AZ114" s="47"/>
-      <c r="BA114" s="47"/>
-      <c r="BB114" s="108"/>
-      <c r="BC114" s="30"/>
-    </row>
-    <row r="115" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B115" s="124">
-        <v>4.17</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="85"/>
-      <c r="E115" s="118"/>
-      <c r="F115" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G115" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H115" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I115" s="128">
-        <v>0</v>
-      </c>
-      <c r="J115" s="34"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="94"/>
-      <c r="O115" s="91"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="44"/>
-      <c r="S115" s="100"/>
-      <c r="T115" s="98"/>
-      <c r="U115" s="46"/>
-      <c r="V115" s="46"/>
-      <c r="W115" s="46"/>
-      <c r="X115" s="103"/>
-      <c r="Y115" s="106"/>
-      <c r="Z115" s="49"/>
-      <c r="AA115" s="49"/>
-      <c r="AB115" s="49"/>
-      <c r="AC115" s="110"/>
-      <c r="AD115" s="106"/>
-      <c r="AE115" s="49"/>
-      <c r="AF115" s="49"/>
-      <c r="AG115" s="49"/>
-      <c r="AH115" s="110"/>
-      <c r="AI115" s="106"/>
-      <c r="AJ115" s="49"/>
-      <c r="AK115" s="49"/>
-      <c r="AL115" s="49"/>
-      <c r="AM115" s="110"/>
-      <c r="AN115" s="106"/>
-      <c r="AO115" s="49"/>
-      <c r="AP115" s="49"/>
-      <c r="AQ115" s="49"/>
-      <c r="AR115" s="110"/>
-      <c r="AS115" s="106"/>
-      <c r="AT115" s="49"/>
-      <c r="AU115" s="49"/>
-      <c r="AV115" s="49"/>
-      <c r="AW115" s="110"/>
-      <c r="AX115" s="106"/>
-      <c r="AY115" s="49"/>
-      <c r="AZ115" s="49"/>
-      <c r="BA115" s="49"/>
-      <c r="BB115" s="110"/>
-      <c r="BC115" s="30"/>
-    </row>
-    <row r="116" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B116" s="31"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E116" s="118"/>
-      <c r="F116" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G116" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H116" s="33">
-        <f t="shared" ref="H116" si="11">NETWORKDAYS(F116,G116)</f>
-        <v>1</v>
-      </c>
-      <c r="I116" s="128">
-        <v>0</v>
-      </c>
-      <c r="J116" s="34"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="94"/>
-      <c r="O116" s="91"/>
-      <c r="P116" s="44"/>
-      <c r="Q116" s="44"/>
-      <c r="R116" s="44"/>
-      <c r="S116" s="100"/>
-      <c r="T116" s="98"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="46"/>
-      <c r="W116" s="46"/>
-      <c r="X116" s="103"/>
-      <c r="Y116" s="106"/>
-      <c r="Z116" s="49"/>
-      <c r="AA116" s="49"/>
-      <c r="AB116" s="49"/>
-      <c r="AC116" s="110"/>
-      <c r="AD116" s="106"/>
-      <c r="AE116" s="49"/>
-      <c r="AF116" s="49"/>
-      <c r="AG116" s="49"/>
-      <c r="AH116" s="110"/>
-      <c r="AI116" s="106"/>
-      <c r="AJ116" s="49"/>
-      <c r="AK116" s="49"/>
-      <c r="AL116" s="49"/>
-      <c r="AM116" s="110"/>
-      <c r="AN116" s="106"/>
-      <c r="AO116" s="49"/>
-      <c r="AP116" s="49"/>
-      <c r="AQ116" s="49"/>
-      <c r="AR116" s="110"/>
-      <c r="AS116" s="106"/>
-      <c r="AT116" s="49"/>
-      <c r="AU116" s="49"/>
-      <c r="AV116" s="49"/>
-      <c r="AW116" s="110"/>
-      <c r="AX116" s="106"/>
-      <c r="AY116" s="49"/>
-      <c r="AZ116" s="49"/>
-      <c r="BA116" s="49"/>
-      <c r="BB116" s="110"/>
-      <c r="BC116" s="30"/>
-    </row>
-    <row r="117" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B117" s="86"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="E117" s="118"/>
-      <c r="F117" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G117" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H117" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I117" s="128">
-        <v>0</v>
-      </c>
-      <c r="J117" s="34"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="94"/>
-      <c r="O117" s="91"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="44"/>
-      <c r="S117" s="100"/>
-      <c r="T117" s="98"/>
-      <c r="U117" s="46"/>
-      <c r="V117" s="46"/>
-      <c r="W117" s="46"/>
-      <c r="X117" s="103"/>
-      <c r="Y117" s="106"/>
-      <c r="Z117" s="49"/>
-      <c r="AA117" s="49"/>
-      <c r="AB117" s="49"/>
-      <c r="AC117" s="110"/>
-      <c r="AD117" s="106"/>
-      <c r="AE117" s="49"/>
-      <c r="AF117" s="49"/>
-      <c r="AG117" s="49"/>
-      <c r="AH117" s="110"/>
-      <c r="AI117" s="106"/>
-      <c r="AJ117" s="49"/>
-      <c r="AK117" s="49"/>
-      <c r="AL117" s="49"/>
-      <c r="AM117" s="110"/>
-      <c r="AN117" s="106"/>
-      <c r="AO117" s="49"/>
-      <c r="AP117" s="49"/>
-      <c r="AQ117" s="49"/>
-      <c r="AR117" s="110"/>
-      <c r="AS117" s="106"/>
-      <c r="AT117" s="49"/>
-      <c r="AU117" s="49"/>
-      <c r="AV117" s="49"/>
-      <c r="AW117" s="110"/>
-      <c r="AX117" s="106"/>
-      <c r="AY117" s="49"/>
-      <c r="AZ117" s="49"/>
-      <c r="BA117" s="49"/>
-      <c r="BB117" s="110"/>
-      <c r="BC117" s="30"/>
-    </row>
-    <row r="118" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B118" s="86"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" s="118"/>
-      <c r="F118" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G118" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H118" s="33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I118" s="128">
-        <v>0</v>
-      </c>
-      <c r="J118" s="34"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="94"/>
-      <c r="O118" s="91"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
-      <c r="R118" s="44"/>
-      <c r="S118" s="100"/>
-      <c r="T118" s="98"/>
-      <c r="U118" s="46"/>
-      <c r="V118" s="46"/>
-      <c r="W118" s="46"/>
-      <c r="X118" s="103"/>
-      <c r="Y118" s="106"/>
-      <c r="Z118" s="49"/>
-      <c r="AA118" s="49"/>
-      <c r="AB118" s="49"/>
-      <c r="AC118" s="110"/>
-      <c r="AD118" s="106"/>
-      <c r="AE118" s="49"/>
-      <c r="AF118" s="49"/>
-      <c r="AG118" s="49"/>
-      <c r="AH118" s="110"/>
-      <c r="AI118" s="106"/>
-      <c r="AJ118" s="49"/>
-      <c r="AK118" s="49"/>
-      <c r="AL118" s="49"/>
-      <c r="AM118" s="110"/>
-      <c r="AN118" s="106"/>
-      <c r="AO118" s="49"/>
-      <c r="AP118" s="49"/>
-      <c r="AQ118" s="49"/>
-      <c r="AR118" s="110"/>
-      <c r="AS118" s="106"/>
-      <c r="AT118" s="49"/>
-      <c r="AU118" s="49"/>
-      <c r="AV118" s="49"/>
-      <c r="AW118" s="110"/>
-      <c r="AX118" s="106"/>
-      <c r="AY118" s="49"/>
-      <c r="AZ118" s="49"/>
-      <c r="BA118" s="49"/>
-      <c r="BB118" s="110"/>
-      <c r="BC118" s="30"/>
-    </row>
-    <row r="119" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B119" s="31">
-        <v>4.18</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D119" s="85"/>
-      <c r="E119" s="118"/>
-      <c r="F119" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G119" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H119" s="33">
-        <f t="shared" ref="H119:H123" si="12">NETWORKDAYS(F119,G119)</f>
-        <v>1</v>
-      </c>
-      <c r="I119" s="128">
-        <v>0</v>
-      </c>
-      <c r="J119" s="34"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="94"/>
-      <c r="O119" s="91"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="44"/>
-      <c r="S119" s="100"/>
-      <c r="T119" s="98"/>
-      <c r="U119" s="46"/>
-      <c r="V119" s="46"/>
-      <c r="W119" s="46"/>
-      <c r="X119" s="103"/>
-      <c r="Y119" s="106"/>
-      <c r="Z119" s="49"/>
-      <c r="AA119" s="49"/>
-      <c r="AB119" s="49"/>
-      <c r="AC119" s="110"/>
-      <c r="AD119" s="106"/>
-      <c r="AE119" s="49"/>
-      <c r="AF119" s="49"/>
-      <c r="AG119" s="49"/>
-      <c r="AH119" s="110"/>
-      <c r="AI119" s="106"/>
-      <c r="AJ119" s="49"/>
-      <c r="AK119" s="49"/>
-      <c r="AL119" s="49"/>
-      <c r="AM119" s="110"/>
-      <c r="AN119" s="106"/>
-      <c r="AO119" s="49"/>
-      <c r="AP119" s="49"/>
-      <c r="AQ119" s="49"/>
-      <c r="AR119" s="110"/>
-      <c r="AS119" s="106"/>
-      <c r="AT119" s="49"/>
-      <c r="AU119" s="49"/>
-      <c r="AV119" s="49"/>
-      <c r="AW119" s="110"/>
-      <c r="AX119" s="106"/>
-      <c r="AY119" s="49"/>
-      <c r="AZ119" s="49"/>
-      <c r="BA119" s="49"/>
-      <c r="BB119" s="110"/>
-      <c r="BC119" s="30"/>
-    </row>
-    <row r="120" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B120" s="86"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="118"/>
-      <c r="F120" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G120" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H120" s="33">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I120" s="128">
-        <v>0</v>
-      </c>
-      <c r="J120" s="34"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="37"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="94"/>
-      <c r="O120" s="91"/>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="44"/>
-      <c r="R120" s="44"/>
-      <c r="S120" s="100"/>
-      <c r="T120" s="98"/>
-      <c r="U120" s="46"/>
-      <c r="V120" s="46"/>
-      <c r="W120" s="46"/>
-      <c r="X120" s="103"/>
-      <c r="Y120" s="106"/>
-      <c r="Z120" s="49"/>
-      <c r="AA120" s="49"/>
-      <c r="AB120" s="49"/>
-      <c r="AC120" s="110"/>
-      <c r="AD120" s="106"/>
-      <c r="AE120" s="49"/>
-      <c r="AF120" s="49"/>
-      <c r="AG120" s="49"/>
-      <c r="AH120" s="110"/>
-      <c r="AI120" s="106"/>
-      <c r="AJ120" s="49"/>
-      <c r="AK120" s="49"/>
-      <c r="AL120" s="49"/>
-      <c r="AM120" s="110"/>
-      <c r="AN120" s="106"/>
-      <c r="AO120" s="49"/>
-      <c r="AP120" s="49"/>
-      <c r="AQ120" s="49"/>
-      <c r="AR120" s="110"/>
-      <c r="AS120" s="106"/>
-      <c r="AT120" s="49"/>
-      <c r="AU120" s="49"/>
-      <c r="AV120" s="49"/>
-      <c r="AW120" s="110"/>
-      <c r="AX120" s="106"/>
-      <c r="AY120" s="49"/>
-      <c r="AZ120" s="49"/>
-      <c r="BA120" s="49"/>
-      <c r="BB120" s="110"/>
-      <c r="BC120" s="30"/>
-    </row>
-    <row r="121" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B121" s="86"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121" s="118"/>
-      <c r="F121" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G121" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H121" s="33">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I121" s="128">
-        <v>0</v>
-      </c>
-      <c r="J121" s="34"/>
-      <c r="K121" s="35"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="94"/>
-      <c r="O121" s="91"/>
-      <c r="P121" s="44"/>
-      <c r="Q121" s="44"/>
-      <c r="R121" s="44"/>
-      <c r="S121" s="100"/>
-      <c r="T121" s="98"/>
-      <c r="U121" s="46"/>
-      <c r="V121" s="46"/>
-      <c r="W121" s="46"/>
-      <c r="X121" s="103"/>
-      <c r="Y121" s="106"/>
-      <c r="Z121" s="49"/>
-      <c r="AA121" s="49"/>
-      <c r="AB121" s="49"/>
-      <c r="AC121" s="110"/>
-      <c r="AD121" s="106"/>
-      <c r="AE121" s="49"/>
-      <c r="AF121" s="49"/>
-      <c r="AG121" s="49"/>
-      <c r="AH121" s="110"/>
-      <c r="AI121" s="106"/>
-      <c r="AJ121" s="49"/>
-      <c r="AK121" s="49"/>
-      <c r="AL121" s="49"/>
-      <c r="AM121" s="110"/>
-      <c r="AN121" s="106"/>
-      <c r="AO121" s="49"/>
-      <c r="AP121" s="49"/>
-      <c r="AQ121" s="49"/>
-      <c r="AR121" s="110"/>
-      <c r="AS121" s="106"/>
-      <c r="AT121" s="49"/>
-      <c r="AU121" s="49"/>
-      <c r="AV121" s="49"/>
-      <c r="AW121" s="110"/>
-      <c r="AX121" s="106"/>
-      <c r="AY121" s="49"/>
-      <c r="AZ121" s="49"/>
-      <c r="BA121" s="49"/>
-      <c r="BB121" s="110"/>
-      <c r="BC121" s="30"/>
-    </row>
-    <row r="122" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B122" s="86"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="118"/>
-      <c r="F122" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G122" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H122" s="33">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I122" s="128">
-        <v>0</v>
-      </c>
-      <c r="J122" s="34"/>
-      <c r="K122" s="35"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="94"/>
-      <c r="O122" s="91"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="44"/>
-      <c r="S122" s="100"/>
-      <c r="T122" s="98"/>
-      <c r="U122" s="46"/>
-      <c r="V122" s="46"/>
-      <c r="W122" s="46"/>
-      <c r="X122" s="103"/>
-      <c r="Y122" s="106"/>
-      <c r="Z122" s="49"/>
-      <c r="AA122" s="49"/>
-      <c r="AB122" s="49"/>
-      <c r="AC122" s="110"/>
-      <c r="AD122" s="106"/>
-      <c r="AE122" s="49"/>
-      <c r="AF122" s="49"/>
-      <c r="AG122" s="49"/>
-      <c r="AH122" s="110"/>
-      <c r="AI122" s="106"/>
-      <c r="AJ122" s="49"/>
-      <c r="AK122" s="49"/>
-      <c r="AL122" s="49"/>
-      <c r="AM122" s="110"/>
-      <c r="AN122" s="106"/>
-      <c r="AO122" s="49"/>
-      <c r="AP122" s="49"/>
-      <c r="AQ122" s="49"/>
-      <c r="AR122" s="110"/>
-      <c r="AS122" s="106"/>
-      <c r="AT122" s="49"/>
-      <c r="AU122" s="49"/>
-      <c r="AV122" s="49"/>
-      <c r="AW122" s="110"/>
-      <c r="AX122" s="106"/>
-      <c r="AY122" s="49"/>
-      <c r="AZ122" s="49"/>
-      <c r="BA122" s="49"/>
-      <c r="BB122" s="110"/>
-      <c r="BC122" s="30"/>
-    </row>
-    <row r="123" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B123" s="86"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="118"/>
-      <c r="F123" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G123" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H123" s="33">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I123" s="128">
-        <v>0</v>
-      </c>
-      <c r="J123" s="34"/>
-      <c r="K123" s="35"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="94"/>
-      <c r="O123" s="91"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
-      <c r="R123" s="44"/>
-      <c r="S123" s="100"/>
-      <c r="T123" s="98"/>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
-      <c r="X123" s="103"/>
-      <c r="Y123" s="106"/>
-      <c r="Z123" s="49"/>
-      <c r="AA123" s="49"/>
-      <c r="AB123" s="49"/>
-      <c r="AC123" s="110"/>
-      <c r="AD123" s="106"/>
-      <c r="AE123" s="49"/>
-      <c r="AF123" s="49"/>
-      <c r="AG123" s="49"/>
-      <c r="AH123" s="110"/>
-      <c r="AI123" s="106"/>
-      <c r="AJ123" s="49"/>
-      <c r="AK123" s="49"/>
-      <c r="AL123" s="49"/>
-      <c r="AM123" s="110"/>
-      <c r="AN123" s="106"/>
-      <c r="AO123" s="49"/>
-      <c r="AP123" s="49"/>
-      <c r="AQ123" s="49"/>
-      <c r="AR123" s="110"/>
-      <c r="AS123" s="106"/>
-      <c r="AT123" s="49"/>
-      <c r="AU123" s="49"/>
-      <c r="AV123" s="49"/>
-      <c r="AW123" s="110"/>
-      <c r="AX123" s="106"/>
-      <c r="AY123" s="49"/>
-      <c r="AZ123" s="49"/>
-      <c r="BA123" s="49"/>
-      <c r="BB123" s="110"/>
-      <c r="BC123" s="30"/>
-    </row>
-    <row r="124" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B124" s="31">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="85"/>
-      <c r="E124" s="118"/>
-      <c r="F124" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G124" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H124" s="33">
-        <f t="shared" ref="H124:H127" si="13">NETWORKDAYS(F124,G124)</f>
-        <v>1</v>
-      </c>
-      <c r="I124" s="128">
-        <v>0</v>
-      </c>
-      <c r="J124" s="34"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="37"/>
-      <c r="M124" s="37"/>
-      <c r="N124" s="94"/>
-      <c r="O124" s="91"/>
-      <c r="P124" s="44"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="44"/>
-      <c r="S124" s="100"/>
-      <c r="T124" s="98"/>
-      <c r="U124" s="46"/>
-      <c r="V124" s="46"/>
-      <c r="W124" s="46"/>
-      <c r="X124" s="103"/>
-      <c r="Y124" s="106"/>
-      <c r="Z124" s="49"/>
-      <c r="AA124" s="49"/>
-      <c r="AB124" s="49"/>
-      <c r="AC124" s="110"/>
-      <c r="AD124" s="106"/>
-      <c r="AE124" s="49"/>
-      <c r="AF124" s="49"/>
-      <c r="AG124" s="49"/>
-      <c r="AH124" s="110"/>
-      <c r="AI124" s="106"/>
-      <c r="AJ124" s="49"/>
-      <c r="AK124" s="49"/>
-      <c r="AL124" s="49"/>
-      <c r="AM124" s="110"/>
-      <c r="AN124" s="106"/>
-      <c r="AO124" s="49"/>
-      <c r="AP124" s="49"/>
-      <c r="AQ124" s="49"/>
-      <c r="AR124" s="110"/>
-      <c r="AS124" s="106"/>
-      <c r="AT124" s="49"/>
-      <c r="AU124" s="49"/>
-      <c r="AV124" s="49"/>
-      <c r="AW124" s="110"/>
-      <c r="AX124" s="106"/>
-      <c r="AY124" s="49"/>
-      <c r="AZ124" s="49"/>
-      <c r="BA124" s="49"/>
-      <c r="BB124" s="110"/>
-      <c r="BC124" s="30"/>
-    </row>
-    <row r="125" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B125" s="31"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E125" s="118"/>
-      <c r="F125" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G125" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H125" s="33">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I125" s="128">
-        <v>0</v>
-      </c>
-      <c r="J125" s="34"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="94"/>
-      <c r="O125" s="91"/>
-      <c r="P125" s="44"/>
-      <c r="Q125" s="44"/>
-      <c r="R125" s="44"/>
-      <c r="S125" s="100"/>
-      <c r="T125" s="98"/>
-      <c r="U125" s="46"/>
-      <c r="V125" s="46"/>
-      <c r="W125" s="46"/>
-      <c r="X125" s="103"/>
-      <c r="Y125" s="106"/>
-      <c r="Z125" s="49"/>
-      <c r="AA125" s="49"/>
-      <c r="AB125" s="49"/>
-      <c r="AC125" s="110"/>
-      <c r="AD125" s="106"/>
-      <c r="AE125" s="49"/>
-      <c r="AF125" s="49"/>
-      <c r="AG125" s="49"/>
-      <c r="AH125" s="110"/>
-      <c r="AI125" s="106"/>
-      <c r="AJ125" s="49"/>
-      <c r="AK125" s="49"/>
-      <c r="AL125" s="49"/>
-      <c r="AM125" s="110"/>
-      <c r="AN125" s="106"/>
-      <c r="AO125" s="49"/>
-      <c r="AP125" s="49"/>
-      <c r="AQ125" s="49"/>
-      <c r="AR125" s="110"/>
-      <c r="AS125" s="106"/>
-      <c r="AT125" s="49"/>
-      <c r="AU125" s="49"/>
-      <c r="AV125" s="49"/>
-      <c r="AW125" s="110"/>
-      <c r="AX125" s="106"/>
-      <c r="AY125" s="49"/>
-      <c r="AZ125" s="49"/>
-      <c r="BA125" s="49"/>
-      <c r="BB125" s="110"/>
-      <c r="BC125" s="30"/>
-    </row>
-    <row r="126" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B126" s="86"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="E126" s="118"/>
-      <c r="F126" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G126" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H126" s="33">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I126" s="128">
-        <v>0</v>
-      </c>
-      <c r="J126" s="34"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="94"/>
-      <c r="O126" s="91"/>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="44"/>
-      <c r="R126" s="44"/>
-      <c r="S126" s="100"/>
-      <c r="T126" s="98"/>
-      <c r="U126" s="46"/>
-      <c r="V126" s="46"/>
-      <c r="W126" s="46"/>
-      <c r="X126" s="103"/>
-      <c r="Y126" s="106"/>
-      <c r="Z126" s="49"/>
-      <c r="AA126" s="49"/>
-      <c r="AB126" s="49"/>
-      <c r="AC126" s="110"/>
-      <c r="AD126" s="106"/>
-      <c r="AE126" s="49"/>
-      <c r="AF126" s="49"/>
-      <c r="AG126" s="49"/>
-      <c r="AH126" s="110"/>
-      <c r="AI126" s="106"/>
-      <c r="AJ126" s="49"/>
-      <c r="AK126" s="49"/>
-      <c r="AL126" s="49"/>
-      <c r="AM126" s="110"/>
-      <c r="AN126" s="106"/>
-      <c r="AO126" s="49"/>
-      <c r="AP126" s="49"/>
-      <c r="AQ126" s="49"/>
-      <c r="AR126" s="110"/>
-      <c r="AS126" s="106"/>
-      <c r="AT126" s="49"/>
-      <c r="AU126" s="49"/>
-      <c r="AV126" s="49"/>
-      <c r="AW126" s="110"/>
-      <c r="AX126" s="106"/>
-      <c r="AY126" s="49"/>
-      <c r="AZ126" s="49"/>
-      <c r="BA126" s="49"/>
-      <c r="BB126" s="110"/>
-      <c r="BC126" s="30"/>
-    </row>
-    <row r="127" spans="1:55" s="120" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B127" s="86"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E127" s="118"/>
-      <c r="F127" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G127" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H127" s="33">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I127" s="128">
-        <v>0</v>
-      </c>
-      <c r="J127" s="34"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="37"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="94"/>
-      <c r="O127" s="91"/>
-      <c r="P127" s="44"/>
-      <c r="Q127" s="44"/>
-      <c r="R127" s="44"/>
-      <c r="S127" s="100"/>
-      <c r="T127" s="98"/>
-      <c r="U127" s="46"/>
-      <c r="V127" s="46"/>
-      <c r="W127" s="46"/>
-      <c r="X127" s="103"/>
-      <c r="Y127" s="106"/>
-      <c r="Z127" s="49"/>
-      <c r="AA127" s="49"/>
-      <c r="AB127" s="49"/>
-      <c r="AC127" s="110"/>
-      <c r="AD127" s="106"/>
-      <c r="AE127" s="49"/>
-      <c r="AF127" s="49"/>
-      <c r="AG127" s="49"/>
-      <c r="AH127" s="110"/>
-      <c r="AI127" s="106"/>
-      <c r="AJ127" s="49"/>
-      <c r="AK127" s="49"/>
-      <c r="AL127" s="49"/>
-      <c r="AM127" s="110"/>
-      <c r="AN127" s="106"/>
-      <c r="AO127" s="49"/>
-      <c r="AP127" s="49"/>
-      <c r="AQ127" s="49"/>
-      <c r="AR127" s="110"/>
-      <c r="AS127" s="106"/>
-      <c r="AT127" s="49"/>
-      <c r="AU127" s="49"/>
-      <c r="AV127" s="49"/>
-      <c r="AW127" s="110"/>
-      <c r="AX127" s="106"/>
-      <c r="AY127" s="49"/>
-      <c r="AZ127" s="49"/>
-      <c r="BA127" s="49"/>
-      <c r="BB127" s="110"/>
-      <c r="BC127" s="30"/>
-    </row>
-    <row r="128" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A128" s="117"/>
-      <c r="B128" s="124">
-        <v>4.2</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G128" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H128" s="33">
-        <f t="shared" ref="H128:H130" si="14">NETWORKDAYS(F128,G128)</f>
-        <v>1</v>
-      </c>
-      <c r="I128" s="128">
-        <v>0</v>
-      </c>
-      <c r="J128" s="34"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="94"/>
-      <c r="O128" s="91"/>
-      <c r="P128" s="44"/>
-      <c r="Q128" s="44"/>
-      <c r="R128" s="44"/>
-      <c r="S128" s="100"/>
-      <c r="T128" s="98"/>
-      <c r="U128" s="46"/>
-      <c r="V128" s="46"/>
-      <c r="W128" s="46"/>
-      <c r="X128" s="103"/>
-      <c r="Y128" s="106"/>
-      <c r="Z128" s="49"/>
-      <c r="AA128" s="49"/>
-      <c r="AB128" s="49"/>
-      <c r="AC128" s="110"/>
-      <c r="AD128" s="106"/>
-      <c r="AE128" s="49"/>
-      <c r="AF128" s="49"/>
-      <c r="AG128" s="49"/>
-      <c r="AH128" s="110"/>
-      <c r="AI128" s="106"/>
-      <c r="AJ128" s="49"/>
-      <c r="AK128" s="49"/>
-      <c r="AL128" s="49"/>
-      <c r="AM128" s="110"/>
-      <c r="AN128" s="106"/>
-      <c r="AO128" s="49"/>
-      <c r="AP128" s="49"/>
-      <c r="AQ128" s="49"/>
-      <c r="AR128" s="110"/>
-      <c r="AS128" s="106"/>
-      <c r="AT128" s="49"/>
-      <c r="AU128" s="49"/>
-      <c r="AV128" s="49"/>
-      <c r="AW128" s="110"/>
-      <c r="AX128" s="106"/>
-      <c r="AY128" s="49"/>
-      <c r="AZ128" s="49"/>
-      <c r="BA128" s="49"/>
-      <c r="BB128" s="110"/>
-      <c r="BC128" s="30"/>
-    </row>
-    <row r="129" spans="1:55" s="117" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B129" s="31"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E129" s="118"/>
-      <c r="F129" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G129" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H129" s="33">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I129" s="65">
-        <v>0</v>
-      </c>
-      <c r="J129" s="34"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="37"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="94"/>
-      <c r="O129" s="91"/>
-      <c r="P129" s="44"/>
-      <c r="Q129" s="44"/>
-      <c r="R129" s="44"/>
-      <c r="S129" s="100"/>
-      <c r="T129" s="98"/>
-      <c r="U129" s="46"/>
-      <c r="V129" s="46"/>
-      <c r="W129" s="46"/>
-      <c r="X129" s="103"/>
-      <c r="Y129" s="106"/>
-      <c r="Z129" s="49"/>
-      <c r="AA129" s="49"/>
-      <c r="AB129" s="49"/>
-      <c r="AC129" s="110"/>
-      <c r="AD129" s="106"/>
-      <c r="AE129" s="49"/>
-      <c r="AF129" s="49"/>
-      <c r="AG129" s="49"/>
-      <c r="AH129" s="110"/>
-      <c r="AI129" s="106"/>
-      <c r="AJ129" s="49"/>
-      <c r="AK129" s="49"/>
-      <c r="AL129" s="49"/>
-      <c r="AM129" s="110"/>
-      <c r="AN129" s="106"/>
-      <c r="AO129" s="49"/>
-      <c r="AP129" s="49"/>
-      <c r="AQ129" s="49"/>
-      <c r="AR129" s="110"/>
-      <c r="AS129" s="106"/>
-      <c r="AT129" s="49"/>
-      <c r="AU129" s="49"/>
-      <c r="AV129" s="49"/>
-      <c r="AW129" s="110"/>
-      <c r="AX129" s="106"/>
-      <c r="AY129" s="49"/>
-      <c r="AZ129" s="49"/>
-      <c r="BA129" s="49"/>
-      <c r="BB129" s="110"/>
-      <c r="BC129" s="30"/>
-    </row>
-    <row r="130" spans="1:55" s="63" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A130" s="117"/>
-      <c r="B130" s="86">
-        <v>4.21</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G130" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H130" s="33">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I130" s="65">
-        <v>0</v>
-      </c>
-      <c r="J130" s="34"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="94"/>
-      <c r="O130" s="91"/>
-      <c r="P130" s="44"/>
-      <c r="Q130" s="44"/>
-      <c r="R130" s="44"/>
-      <c r="S130" s="100"/>
-      <c r="T130" s="98"/>
-      <c r="U130" s="46"/>
-      <c r="V130" s="46"/>
-      <c r="W130" s="46"/>
-      <c r="X130" s="103"/>
-      <c r="Y130" s="106"/>
-      <c r="Z130" s="49"/>
-      <c r="AA130" s="49"/>
-      <c r="AB130" s="49"/>
-      <c r="AC130" s="110"/>
-      <c r="AD130" s="106"/>
-      <c r="AE130" s="49"/>
-      <c r="AF130" s="49"/>
-      <c r="AG130" s="49"/>
-      <c r="AH130" s="110"/>
-      <c r="AI130" s="106"/>
-      <c r="AJ130" s="49"/>
-      <c r="AK130" s="49"/>
-      <c r="AL130" s="49"/>
-      <c r="AM130" s="110"/>
-      <c r="AN130" s="106"/>
-      <c r="AO130" s="49"/>
-      <c r="AP130" s="49"/>
-      <c r="AQ130" s="49"/>
-      <c r="AR130" s="110"/>
-      <c r="AS130" s="106"/>
-      <c r="AT130" s="49"/>
-      <c r="AU130" s="49"/>
-      <c r="AV130" s="49"/>
-      <c r="AW130" s="110"/>
-      <c r="AX130" s="106"/>
-      <c r="AY130" s="49"/>
-      <c r="AZ130" s="49"/>
-      <c r="BA130" s="49"/>
-      <c r="BB130" s="110"/>
-      <c r="BC130" s="30"/>
-    </row>
-    <row r="131" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B131" s="55">
-        <v>5</v>
-      </c>
-      <c r="C131" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" s="56"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="57"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="59"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="60"/>
-      <c r="N131" s="58"/>
-      <c r="O131" s="58"/>
-      <c r="P131" s="58"/>
-      <c r="Q131" s="58"/>
-      <c r="R131" s="58"/>
-      <c r="S131" s="58"/>
-      <c r="T131" s="58"/>
-      <c r="U131" s="58"/>
-      <c r="V131" s="58"/>
-      <c r="W131" s="58"/>
-      <c r="X131" s="58"/>
-      <c r="Y131" s="58"/>
-      <c r="Z131" s="58"/>
-      <c r="AA131" s="58"/>
-      <c r="AB131" s="58"/>
-      <c r="AC131" s="58"/>
-      <c r="AD131" s="58"/>
-      <c r="AE131" s="58"/>
-      <c r="AF131" s="58"/>
-      <c r="AG131" s="58"/>
-      <c r="AH131" s="58"/>
-      <c r="AI131" s="58"/>
-      <c r="AJ131" s="58"/>
-      <c r="AK131" s="58"/>
-      <c r="AL131" s="58"/>
-      <c r="AM131" s="58"/>
-      <c r="AN131" s="58"/>
-      <c r="AO131" s="58"/>
-      <c r="AP131" s="58"/>
-      <c r="AQ131" s="58"/>
-      <c r="AR131" s="58"/>
-      <c r="AS131" s="58"/>
-      <c r="AT131" s="58"/>
-      <c r="AU131" s="58"/>
-      <c r="AV131" s="58"/>
-      <c r="AW131" s="58"/>
-      <c r="AX131" s="58"/>
-      <c r="AY131" s="58"/>
-      <c r="AZ131" s="58"/>
-      <c r="BA131" s="58"/>
-      <c r="BB131" s="58"/>
-      <c r="BC131" s="54"/>
-    </row>
-    <row r="132" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A132" s="117"/>
-      <c r="B132" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C132" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D132" s="87"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="70">
-        <v>45564</v>
-      </c>
-      <c r="G132" s="70">
-        <v>45394</v>
-      </c>
-      <c r="H132" s="71">
-        <f>NETWORKDAYS(F132,G132)</f>
-        <v>-121</v>
-      </c>
-      <c r="I132" s="72">
-        <v>1</v>
-      </c>
-      <c r="J132" s="34"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="37"/>
-      <c r="M132" s="37"/>
-      <c r="N132" s="94"/>
-      <c r="O132" s="91"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
-      <c r="R132" s="44"/>
-      <c r="S132" s="100"/>
-      <c r="T132" s="98"/>
-      <c r="U132" s="46"/>
-      <c r="V132" s="46"/>
-      <c r="W132" s="46"/>
-      <c r="X132" s="103"/>
-      <c r="Y132" s="98"/>
-      <c r="Z132" s="46"/>
-      <c r="AA132" s="46"/>
-      <c r="AB132" s="46"/>
-      <c r="AC132" s="103"/>
-      <c r="AD132" s="105"/>
-      <c r="AE132" s="47"/>
-      <c r="AF132" s="47"/>
-      <c r="AG132" s="47"/>
-      <c r="AH132" s="108"/>
-      <c r="AI132" s="98"/>
-      <c r="AJ132" s="46"/>
-      <c r="AK132" s="46"/>
-      <c r="AL132" s="46"/>
-      <c r="AM132" s="46"/>
-      <c r="AN132" s="46"/>
-      <c r="AO132" s="46"/>
-      <c r="AP132" s="46"/>
-      <c r="AQ132" s="46"/>
-      <c r="AR132" s="46"/>
-      <c r="AS132" s="46"/>
-      <c r="AT132" s="46"/>
-      <c r="AU132" s="46"/>
-      <c r="AV132" s="46"/>
-      <c r="AW132" s="46"/>
-      <c r="AX132" s="46"/>
-      <c r="AY132" s="46"/>
-      <c r="AZ132" s="46"/>
-      <c r="BA132" s="46"/>
-      <c r="BB132" s="46"/>
-      <c r="BC132" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11877,22 +8652,10 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="I129:I1048576 I70:I78 I81:I89 I91:I102 I66:I68 I1:I23">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="I68:I76 I79:I1048576 I64:I66 I1:I23">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1055,37 +1055,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구성도</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>메뉴</t>
     </r>
     <r>
@@ -1114,22 +1083,6 @@
   </si>
   <si>
     <t>메인 화면</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>css 구조 파악</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱핑 연결,  CSS/JS/header등 공통 작업</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1182,15 +1135,23 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>backoffice 맵핑</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>이청민</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Css/Js/Header Include등 JSP 공통 작업</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구성도</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2274,17 +2235,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,10 +2322,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2327,54 +2336,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,9 +2654,11 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC100"/>
+  <dimension ref="A1:BC99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -2768,40 +2731,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="146"/>
-      <c r="AH2" s="146"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -2882,41 +2845,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="154" t="s">
+      <c r="C4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="141"/>
+      <c r="E4" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="152" t="s">
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -2946,40 +2909,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="157" t="s">
+      <c r="D5" s="141"/>
+      <c r="E5" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="148" t="s">
+      <c r="J5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="150">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="166">
         <v>45611</v>
       </c>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="149"/>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="149"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3121,160 +3084,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="135" t="s">
+      <c r="G8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="135" t="s">
+      <c r="H8" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="162" t="s">
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162" t="s">
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
-      <c r="W8" s="162"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="166" t="s">
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="137" t="s">
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="137"/>
-      <c r="AH8" s="137"/>
-      <c r="AI8" s="137" t="s">
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="155"/>
+      <c r="AG8" s="155"/>
+      <c r="AH8" s="155"/>
+      <c r="AI8" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="137"/>
-      <c r="AK8" s="137"/>
-      <c r="AL8" s="137"/>
-      <c r="AM8" s="138"/>
-      <c r="AN8" s="141" t="s">
+      <c r="AJ8" s="155"/>
+      <c r="AK8" s="155"/>
+      <c r="AL8" s="155"/>
+      <c r="AM8" s="157"/>
+      <c r="AN8" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="142"/>
-      <c r="AP8" s="142"/>
-      <c r="AQ8" s="142"/>
-      <c r="AR8" s="142"/>
-      <c r="AS8" s="155" t="s">
+      <c r="AO8" s="160"/>
+      <c r="AP8" s="160"/>
+      <c r="AQ8" s="160"/>
+      <c r="AR8" s="160"/>
+      <c r="AS8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="155"/>
-      <c r="AU8" s="155"/>
-      <c r="AV8" s="155"/>
-      <c r="AW8" s="155"/>
-      <c r="AX8" s="155" t="s">
+      <c r="AT8" s="136"/>
+      <c r="AU8" s="136"/>
+      <c r="AV8" s="136"/>
+      <c r="AW8" s="136"/>
+      <c r="AX8" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="155"/>
-      <c r="AZ8" s="155"/>
-      <c r="BA8" s="155"/>
-      <c r="BB8" s="155"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="136"/>
+      <c r="BA8" s="136"/>
+      <c r="BB8" s="136"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="169"/>
-      <c r="AA9" s="169"/>
-      <c r="AB9" s="169"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="140"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="144"/>
-      <c r="AP9" s="144"/>
-      <c r="AQ9" s="144"/>
-      <c r="AR9" s="144"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
-      <c r="AX9" s="156"/>
-      <c r="AY9" s="156"/>
-      <c r="AZ9" s="156"/>
-      <c r="BA9" s="156"/>
-      <c r="BB9" s="156"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="161"/>
+      <c r="AO9" s="162"/>
+      <c r="AP9" s="162"/>
+      <c r="AQ9" s="162"/>
+      <c r="AR9" s="162"/>
+      <c r="AS9" s="137"/>
+      <c r="AT9" s="137"/>
+      <c r="AU9" s="137"/>
+      <c r="AV9" s="137"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="137"/>
+      <c r="AY9" s="137"/>
+      <c r="AZ9" s="137"/>
+      <c r="BA9" s="137"/>
+      <c r="BB9" s="137"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -3880,12 +3843,12 @@
       <c r="B18" s="31">
         <v>3.1</v>
       </c>
-      <c r="C18" s="170" t="s">
-        <v>122</v>
+      <c r="C18" s="135" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="85" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F18" s="64">
         <v>45560</v>
@@ -3894,7 +3857,7 @@
         <v>79</v>
       </c>
       <c r="H18" s="33" t="e">
-        <f>NETWORKDAYS(F18,G18)</f>
+        <f t="shared" ref="H18:H23" si="1">NETWORKDAYS(F18,G18)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I18" s="118">
@@ -3952,7 +3915,7 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="114" t="s">
@@ -3965,7 +3928,7 @@
         <v>45562</v>
       </c>
       <c r="H19" s="33">
-        <f>NETWORKDAYS(F19,G19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I19" s="66">
@@ -4036,7 +3999,7 @@
         <v>45565</v>
       </c>
       <c r="H20" s="33">
-        <f>NETWORKDAYS(F20,G20)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I20" s="65">
@@ -4107,7 +4070,7 @@
         <v>45565</v>
       </c>
       <c r="H21" s="71">
-        <f>NETWORKDAYS(F21,G21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I21" s="65">
@@ -4163,12 +4126,12 @@
       <c r="B22" s="31">
         <v>3.5</v>
       </c>
-      <c r="C22" s="170" t="s">
-        <v>124</v>
+      <c r="C22" s="135" t="s">
+        <v>130</v>
       </c>
       <c r="D22" s="78"/>
-      <c r="E22" s="114" t="s">
-        <v>99</v>
+      <c r="E22" s="85" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="64">
         <v>45565</v>
@@ -4177,7 +4140,7 @@
         <v>45565</v>
       </c>
       <c r="H22" s="33">
-        <f>NETWORKDAYS(F22,G22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I22" s="65">
@@ -4248,7 +4211,7 @@
         <v>120</v>
       </c>
       <c r="H23" s="33" t="e">
-        <f>NETWORKDAYS(F23,G23)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" s="65">
@@ -4319,7 +4282,7 @@
         <v>97</v>
       </c>
       <c r="H24" s="71" t="e">
-        <f t="shared" ref="H24" si="1">NETWORKDAYS(F24,G24)</f>
+        <f t="shared" ref="H24" si="2">NETWORKDAYS(F24,G24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="65">
@@ -4436,7 +4399,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="117"/>
@@ -4504,23 +4467,23 @@
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="F27" s="64">
         <v>45565</v>
       </c>
-      <c r="G27" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="33" t="e">
-        <f t="shared" ref="H27" si="2">NETWORKDAYS(F27,G27)</f>
-        <v>#VALUE!</v>
+      <c r="G27" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H27" s="33">
+        <f>NETWORKDAYS(F27,G27)</f>
+        <v>1</v>
       </c>
       <c r="I27" s="65">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
@@ -4573,30 +4536,28 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="117" t="s">
-        <v>117</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E28" s="117"/>
       <c r="F28" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="G28" s="64">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="H28" s="33">
         <f>NETWORKDAYS(F28,G28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="93"/>
-      <c r="O28" s="129"/>
+      <c r="O28" s="90"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -4642,7 +4603,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E29" s="117"/>
       <c r="F29" s="64">
@@ -4652,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="33">
-        <f>NETWORKDAYS(F29,G29)</f>
+        <f t="shared" ref="H29:H31" si="3">NETWORKDAYS(F29,G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="65">
@@ -4709,7 +4670,7 @@
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="85" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E30" s="117"/>
       <c r="F30" s="64">
@@ -4719,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="33">
-        <f t="shared" ref="H30:H32" si="3">NETWORKDAYS(F30,G30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="65">
@@ -4776,7 +4737,7 @@
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="117"/>
       <c r="F31" s="64">
@@ -4839,12 +4800,14 @@
       <c r="BB31" s="102"/>
       <c r="BC31" s="30"/>
     </row>
-    <row r="32" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="85" t="s">
-        <v>37</v>
-      </c>
+    <row r="32" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B32" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="32"/>
       <c r="E32" s="117"/>
       <c r="F32" s="64">
         <v>0</v>
@@ -4853,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(F32,G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="65">
@@ -4907,13 +4870,11 @@
       <c r="BC32" s="30"/>
     </row>
     <row r="33" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B33" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="85" t="s">
+        <v>90</v>
+      </c>
       <c r="E33" s="117"/>
       <c r="F33" s="64">
         <v>0</v>
@@ -4922,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="33">
-        <f>NETWORKDAYS(F33,G33)</f>
+        <f t="shared" ref="H33" si="4">NETWORKDAYS(F33,G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="65">
@@ -4979,7 +4940,7 @@
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="85" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E34" s="117"/>
       <c r="F34" s="64">
@@ -4989,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" ref="H34" si="4">NETWORKDAYS(F34,G34)</f>
+        <f>NETWORKDAYS(F34,G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="65">
@@ -5046,7 +5007,7 @@
       <c r="B35" s="31"/>
       <c r="C35" s="32"/>
       <c r="D35" s="85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E35" s="117"/>
       <c r="F35" s="64">
@@ -5113,7 +5074,7 @@
       <c r="B36" s="31"/>
       <c r="C36" s="32"/>
       <c r="D36" s="85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E36" s="117"/>
       <c r="F36" s="64">
@@ -5123,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="33">
-        <f>NETWORKDAYS(F36,G36)</f>
+        <f t="shared" ref="H36:H63" si="5">NETWORKDAYS(F36,G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="65">
@@ -5180,7 +5141,7 @@
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="85" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E37" s="117"/>
       <c r="F37" s="64">
@@ -5190,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="33">
-        <f t="shared" ref="H37:H64" si="5">NETWORKDAYS(F37,G37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="65">
@@ -5247,7 +5208,7 @@
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="117"/>
       <c r="F38" s="64">
@@ -5311,11 +5272,13 @@
       <c r="BC38" s="30"/>
     </row>
     <row r="39" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="85" t="s">
-        <v>37</v>
-      </c>
+      <c r="B39" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="85"/>
       <c r="E39" s="117"/>
       <c r="F39" s="64">
         <v>0</v>
@@ -5330,61 +5293,59 @@
       <c r="I39" s="65">
         <v>0</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="93"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="94"/>
       <c r="O39" s="90"/>
       <c r="P39" s="44"/>
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
       <c r="S39" s="99"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="107"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="46"/>
-      <c r="AM39" s="102"/>
-      <c r="AN39" s="97"/>
-      <c r="AO39" s="46"/>
-      <c r="AP39" s="46"/>
-      <c r="AQ39" s="46"/>
-      <c r="AR39" s="102"/>
-      <c r="AS39" s="110"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="112"/>
-      <c r="AX39" s="97"/>
-      <c r="AY39" s="46"/>
-      <c r="AZ39" s="46"/>
-      <c r="BA39" s="46"/>
-      <c r="BB39" s="102"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="103"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="103"/>
+      <c r="AN39" s="98"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="103"/>
+      <c r="AS39" s="111"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="98"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="103"/>
       <c r="BC39" s="30"/>
     </row>
     <row r="40" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B40" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="C40" s="85" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="85"/>
       <c r="E40" s="117"/>
       <c r="F40" s="64">
         <v>0</v>
@@ -5450,7 +5411,7 @@
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="64">
@@ -5517,7 +5478,7 @@
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="85" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E42" s="117"/>
       <c r="F42" s="64">
@@ -5584,7 +5545,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="85" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E43" s="117"/>
       <c r="F43" s="64">
@@ -5648,11 +5609,13 @@
       <c r="BC43" s="30"/>
     </row>
     <row r="44" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="85" t="s">
-        <v>38</v>
-      </c>
+      <c r="B44" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="85"/>
       <c r="E44" s="117"/>
       <c r="F44" s="64">
         <v>0</v>
@@ -5715,13 +5678,11 @@
       <c r="BC44" s="30"/>
     </row>
     <row r="45" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B45" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="85"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="85" t="s">
+        <v>110</v>
+      </c>
       <c r="E45" s="117"/>
       <c r="F45" s="64">
         <v>0</v>
@@ -5787,7 +5748,7 @@
       <c r="B46" s="31"/>
       <c r="C46" s="32"/>
       <c r="D46" s="85" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E46" s="117"/>
       <c r="F46" s="64">
@@ -5854,7 +5815,7 @@
       <c r="B47" s="31"/>
       <c r="C47" s="32"/>
       <c r="D47" s="85" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E47" s="117"/>
       <c r="F47" s="64">
@@ -5921,7 +5882,7 @@
       <c r="B48" s="31"/>
       <c r="C48" s="32"/>
       <c r="D48" s="85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="117"/>
       <c r="F48" s="64">
@@ -5988,7 +5949,7 @@
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
       <c r="D49" s="85" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E49" s="117"/>
       <c r="F49" s="64">
@@ -6055,7 +6016,7 @@
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
       <c r="D50" s="85" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="64">
@@ -6122,7 +6083,7 @@
       <c r="B51" s="31"/>
       <c r="C51" s="32"/>
       <c r="D51" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="117"/>
       <c r="F51" s="64">
@@ -6189,7 +6150,7 @@
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
       <c r="D52" s="85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E52" s="117"/>
       <c r="F52" s="64">
@@ -6256,7 +6217,7 @@
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E53" s="117"/>
       <c r="F53" s="64">
@@ -6320,11 +6281,13 @@
       <c r="BC53" s="30"/>
     </row>
     <row r="54" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="85" t="s">
-        <v>57</v>
-      </c>
+      <c r="B54" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="85"/>
       <c r="E54" s="117"/>
       <c r="F54" s="64">
         <v>0</v>
@@ -6339,61 +6302,59 @@
       <c r="I54" s="65">
         <v>0</v>
       </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="94"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="93"/>
       <c r="O54" s="90"/>
       <c r="P54" s="44"/>
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
       <c r="S54" s="99"/>
-      <c r="T54" s="98"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="103"/>
-      <c r="Y54" s="98"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="43"/>
-      <c r="AB54" s="43"/>
-      <c r="AC54" s="103"/>
-      <c r="AD54" s="105"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="109"/>
-      <c r="AI54" s="98"/>
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="43"/>
-      <c r="AL54" s="43"/>
-      <c r="AM54" s="103"/>
-      <c r="AN54" s="98"/>
-      <c r="AO54" s="43"/>
-      <c r="AP54" s="43"/>
-      <c r="AQ54" s="43"/>
-      <c r="AR54" s="103"/>
-      <c r="AS54" s="111"/>
-      <c r="AT54" s="50"/>
-      <c r="AU54" s="50"/>
-      <c r="AV54" s="50"/>
-      <c r="AW54" s="113"/>
-      <c r="AX54" s="98"/>
-      <c r="AY54" s="43"/>
-      <c r="AZ54" s="43"/>
-      <c r="BA54" s="43"/>
-      <c r="BB54" s="103"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="102"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="104"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="107"/>
+      <c r="AI54" s="104"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="47"/>
+      <c r="AM54" s="107"/>
+      <c r="AN54" s="104"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="107"/>
+      <c r="AS54" s="104"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="107"/>
+      <c r="AX54" s="104"/>
+      <c r="AY54" s="47"/>
+      <c r="AZ54" s="47"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="107"/>
       <c r="BC54" s="30"/>
     </row>
     <row r="55" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B55" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="85"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="85" t="s">
+        <v>94</v>
+      </c>
       <c r="E55" s="117"/>
       <c r="F55" s="64">
         <v>0</v>
@@ -6459,7 +6420,7 @@
       <c r="B56" s="31"/>
       <c r="C56" s="32"/>
       <c r="D56" s="85" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E56" s="117"/>
       <c r="F56" s="64">
@@ -6526,7 +6487,7 @@
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
       <c r="D57" s="85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E57" s="117"/>
       <c r="F57" s="64">
@@ -6593,7 +6554,7 @@
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
       <c r="D58" s="85" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E58" s="117"/>
       <c r="F58" s="64">
@@ -6624,44 +6585,46 @@
       <c r="V58" s="46"/>
       <c r="W58" s="46"/>
       <c r="X58" s="102"/>
-      <c r="Y58" s="104"/>
-      <c r="Z58" s="47"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="107"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="107"/>
-      <c r="AI58" s="104"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="47"/>
-      <c r="AL58" s="47"/>
-      <c r="AM58" s="107"/>
-      <c r="AN58" s="104"/>
-      <c r="AO58" s="47"/>
-      <c r="AP58" s="47"/>
-      <c r="AQ58" s="47"/>
-      <c r="AR58" s="107"/>
-      <c r="AS58" s="104"/>
-      <c r="AT58" s="47"/>
-      <c r="AU58" s="47"/>
-      <c r="AV58" s="47"/>
-      <c r="AW58" s="107"/>
-      <c r="AX58" s="104"/>
-      <c r="AY58" s="47"/>
-      <c r="AZ58" s="47"/>
-      <c r="BA58" s="47"/>
-      <c r="BB58" s="107"/>
+      <c r="Y58" s="105"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="105"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="109"/>
+      <c r="AI58" s="105"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="49"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="109"/>
+      <c r="AN58" s="105"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="49"/>
+      <c r="AQ58" s="49"/>
+      <c r="AR58" s="109"/>
+      <c r="AS58" s="105"/>
+      <c r="AT58" s="49"/>
+      <c r="AU58" s="49"/>
+      <c r="AV58" s="49"/>
+      <c r="AW58" s="109"/>
+      <c r="AX58" s="105"/>
+      <c r="AY58" s="49"/>
+      <c r="AZ58" s="49"/>
+      <c r="BA58" s="49"/>
+      <c r="BB58" s="109"/>
       <c r="BC58" s="30"/>
     </row>
     <row r="59" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="85" t="s">
-        <v>83</v>
-      </c>
+      <c r="B59" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C59" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="85"/>
       <c r="E59" s="117"/>
       <c r="F59" s="64">
         <v>0</v>
@@ -6723,14 +6686,12 @@
       <c r="BB59" s="109"/>
       <c r="BC59" s="30"/>
     </row>
-    <row r="60" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B60" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C60" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="85"/>
+    <row r="60" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="85" t="s">
+        <v>106</v>
+      </c>
       <c r="E60" s="117"/>
       <c r="F60" s="64">
         <v>0</v>
@@ -6792,11 +6753,11 @@
       <c r="BB60" s="109"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="61" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
       <c r="D61" s="85" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E61" s="117"/>
       <c r="F61" s="64">
@@ -6863,7 +6824,7 @@
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
       <c r="D62" s="85" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E62" s="117"/>
       <c r="F62" s="64">
@@ -6930,28 +6891,30 @@
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
       <c r="D63" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="117"/>
+        <v>60</v>
+      </c>
+      <c r="E63" s="117" t="s">
+        <v>116</v>
+      </c>
       <c r="F63" s="64">
-        <v>0</v>
-      </c>
-      <c r="G63" s="64">
-        <v>0</v>
-      </c>
-      <c r="H63" s="33">
+        <v>45565</v>
+      </c>
+      <c r="G63" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="33" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I63" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J63" s="34"/>
       <c r="K63" s="35"/>
       <c r="L63" s="37"/>
       <c r="M63" s="37"/>
       <c r="N63" s="93"/>
-      <c r="O63" s="90"/>
+      <c r="O63" s="129"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="44"/>
       <c r="R63" s="44"/>
@@ -6994,33 +6957,33 @@
       <c r="BC63" s="30"/>
     </row>
     <row r="64" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="117" t="s">
-        <v>116</v>
-      </c>
+      <c r="B64" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C64" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="117"/>
       <c r="F64" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G64" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G64" s="64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="33">
+        <f t="shared" ref="H64:H68" si="6">NETWORKDAYS(F64,G64)</f>
+        <v>0</v>
       </c>
       <c r="I64" s="65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J64" s="34"/>
       <c r="K64" s="35"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
       <c r="N64" s="93"/>
-      <c r="O64" s="129"/>
+      <c r="O64" s="90"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="44"/>
       <c r="R64" s="44"/>
@@ -7063,33 +7026,33 @@
       <c r="BC64" s="30"/>
     </row>
     <row r="65" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B65" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="C65" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="117"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="117" t="s">
+        <v>117</v>
+      </c>
       <c r="F65" s="64">
-        <v>0</v>
-      </c>
-      <c r="G65" s="64">
-        <v>0</v>
-      </c>
-      <c r="H65" s="33">
-        <f t="shared" ref="H65:H69" si="6">NETWORKDAYS(F65,G65)</f>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G65" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I65" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J65" s="34"/>
       <c r="K65" s="35"/>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="93"/>
-      <c r="O65" s="90"/>
+      <c r="O65" s="129"/>
       <c r="P65" s="44"/>
       <c r="Q65" s="44"/>
       <c r="R65" s="44"/>
@@ -7135,10 +7098,10 @@
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
       <c r="D66" s="85" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E66" s="117" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F66" s="64">
         <v>45565</v>
@@ -7204,7 +7167,7 @@
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
       <c r="D67" s="85" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E67" s="117" t="s">
         <v>114</v>
@@ -7237,43 +7200,43 @@
       <c r="V67" s="46"/>
       <c r="W67" s="46"/>
       <c r="X67" s="102"/>
-      <c r="Y67" s="105"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="109"/>
-      <c r="AD67" s="105"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="109"/>
-      <c r="AI67" s="105"/>
-      <c r="AJ67" s="49"/>
-      <c r="AK67" s="49"/>
-      <c r="AL67" s="49"/>
-      <c r="AM67" s="109"/>
-      <c r="AN67" s="105"/>
-      <c r="AO67" s="49"/>
-      <c r="AP67" s="49"/>
-      <c r="AQ67" s="49"/>
-      <c r="AR67" s="109"/>
-      <c r="AS67" s="105"/>
-      <c r="AT67" s="49"/>
-      <c r="AU67" s="49"/>
-      <c r="AV67" s="49"/>
-      <c r="AW67" s="109"/>
-      <c r="AX67" s="105"/>
-      <c r="AY67" s="49"/>
-      <c r="AZ67" s="49"/>
-      <c r="BA67" s="49"/>
-      <c r="BB67" s="109"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="104"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="47"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="104"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="47"/>
+      <c r="AM67" s="107"/>
+      <c r="AN67" s="104"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="107"/>
+      <c r="AS67" s="104"/>
+      <c r="AT67" s="47"/>
+      <c r="AU67" s="47"/>
+      <c r="AV67" s="47"/>
+      <c r="AW67" s="107"/>
+      <c r="AX67" s="104"/>
+      <c r="AY67" s="47"/>
+      <c r="AZ67" s="47"/>
+      <c r="BA67" s="47"/>
+      <c r="BB67" s="107"/>
       <c r="BC67" s="30"/>
     </row>
     <row r="68" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
       <c r="D68" s="85" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E68" s="117" t="s">
         <v>114</v>
@@ -7339,33 +7302,33 @@
       <c r="BC68" s="30"/>
     </row>
     <row r="69" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="117" t="s">
-        <v>114</v>
-      </c>
+      <c r="B69" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="117"/>
+      <c r="E69" s="64"/>
       <c r="F69" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G69" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="33" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G69" s="64">
+        <v>0</v>
+      </c>
+      <c r="H69" s="33">
+        <f t="shared" ref="H69:H71" si="7">NETWORKDAYS(F69,G69)</f>
+        <v>0</v>
       </c>
       <c r="I69" s="65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J69" s="34"/>
       <c r="K69" s="35"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
       <c r="N69" s="93"/>
-      <c r="O69" s="129"/>
+      <c r="O69" s="90"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="44"/>
       <c r="R69" s="44"/>
@@ -7375,46 +7338,44 @@
       <c r="V69" s="46"/>
       <c r="W69" s="46"/>
       <c r="X69" s="102"/>
-      <c r="Y69" s="104"/>
-      <c r="Z69" s="47"/>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="107"/>
-      <c r="AD69" s="104"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="47"/>
-      <c r="AH69" s="107"/>
-      <c r="AI69" s="104"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="47"/>
-      <c r="AL69" s="47"/>
-      <c r="AM69" s="107"/>
-      <c r="AN69" s="104"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
-      <c r="AQ69" s="47"/>
-      <c r="AR69" s="107"/>
-      <c r="AS69" s="104"/>
-      <c r="AT69" s="47"/>
-      <c r="AU69" s="47"/>
-      <c r="AV69" s="47"/>
-      <c r="AW69" s="107"/>
-      <c r="AX69" s="104"/>
-      <c r="AY69" s="47"/>
-      <c r="AZ69" s="47"/>
-      <c r="BA69" s="47"/>
-      <c r="BB69" s="107"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="109"/>
+      <c r="AD69" s="105"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="109"/>
+      <c r="AI69" s="105"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="109"/>
+      <c r="AN69" s="105"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="109"/>
+      <c r="AS69" s="105"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="109"/>
+      <c r="AX69" s="105"/>
+      <c r="AY69" s="49"/>
+      <c r="AZ69" s="49"/>
+      <c r="BA69" s="49"/>
+      <c r="BB69" s="109"/>
       <c r="BC69" s="30"/>
     </row>
     <row r="70" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B70" s="31">
-        <v>4.8</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="117"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="117" t="s">
+        <v>63</v>
+      </c>
       <c r="E70" s="64"/>
       <c r="F70" s="64">
         <v>0</v>
@@ -7423,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" ref="H70:H72" si="7">NETWORKDAYS(F70,G70)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="127">
         <v>0</v>
       </c>
       <c r="J70" s="34"/>
@@ -7480,7 +7441,7 @@
       <c r="B71" s="31"/>
       <c r="C71" s="32"/>
       <c r="D71" s="117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E71" s="64"/>
       <c r="F71" s="64">
@@ -7493,7 +7454,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I71" s="127">
+      <c r="I71" s="126">
         <v>0</v>
       </c>
       <c r="J71" s="34"/>
@@ -7543,13 +7504,15 @@
       <c r="BB71" s="109"/>
       <c r="BC71" s="30"/>
     </row>
-    <row r="72" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="64"/>
+    <row r="72" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B72" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="85"/>
+      <c r="E72" s="117"/>
       <c r="F72" s="64">
         <v>0</v>
       </c>
@@ -7557,10 +7520,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="126">
+        <f>NETWORKDAYS(F72,G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="65">
         <v>0</v>
       </c>
       <c r="J72" s="34"/>
@@ -7578,66 +7541,66 @@
       <c r="V72" s="46"/>
       <c r="W72" s="46"/>
       <c r="X72" s="102"/>
-      <c r="Y72" s="105"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="109"/>
-      <c r="AD72" s="105"/>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="109"/>
-      <c r="AI72" s="105"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="49"/>
-      <c r="AL72" s="49"/>
-      <c r="AM72" s="109"/>
-      <c r="AN72" s="105"/>
-      <c r="AO72" s="49"/>
-      <c r="AP72" s="49"/>
-      <c r="AQ72" s="49"/>
-      <c r="AR72" s="109"/>
-      <c r="AS72" s="105"/>
-      <c r="AT72" s="49"/>
-      <c r="AU72" s="49"/>
-      <c r="AV72" s="49"/>
-      <c r="AW72" s="109"/>
-      <c r="AX72" s="105"/>
-      <c r="AY72" s="49"/>
-      <c r="AZ72" s="49"/>
-      <c r="BA72" s="49"/>
-      <c r="BB72" s="109"/>
+      <c r="Y72" s="97"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="102"/>
+      <c r="AD72" s="104"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="107"/>
+      <c r="AI72" s="97"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="102"/>
+      <c r="AN72" s="97"/>
+      <c r="AO72" s="46"/>
+      <c r="AP72" s="46"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="102"/>
+      <c r="AS72" s="110"/>
+      <c r="AT72" s="48"/>
+      <c r="AU72" s="48"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="112"/>
+      <c r="AX72" s="97"/>
+      <c r="AY72" s="46"/>
+      <c r="AZ72" s="46"/>
+      <c r="BA72" s="46"/>
+      <c r="BB72" s="102"/>
       <c r="BC72" s="30"/>
     </row>
     <row r="73" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B73" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="117"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="117" t="s">
+        <v>126</v>
+      </c>
       <c r="F73" s="64">
-        <v>0</v>
-      </c>
-      <c r="G73" s="64">
-        <v>0</v>
-      </c>
-      <c r="H73" s="33">
-        <f>NETWORKDAYS(F73,G73)</f>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G73" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="33" t="e">
+        <f t="shared" ref="H73" si="8">NETWORKDAYS(F73,G73)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I73" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
       <c r="L73" s="37"/>
       <c r="M73" s="37"/>
       <c r="N73" s="93"/>
-      <c r="O73" s="90"/>
+      <c r="O73" s="129"/>
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
       <c r="R73" s="44"/>
@@ -7679,34 +7642,35 @@
       <c r="BB73" s="102"/>
       <c r="BC73" s="30"/>
     </row>
-    <row r="74" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="117" t="s">
-        <v>132</v>
-      </c>
+    <row r="74" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A74" s="116"/>
+      <c r="B74" s="122">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="85"/>
+      <c r="E74" s="117"/>
       <c r="F74" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G74" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74" s="33" t="e">
-        <f t="shared" ref="H74" si="8">NETWORKDAYS(F74,G74)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G74" s="64">
+        <v>0</v>
+      </c>
+      <c r="H74" s="33">
+        <f>NETWORKDAYS(F74,G74)</f>
+        <v>0</v>
       </c>
       <c r="I74" s="65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J74" s="34"/>
       <c r="K74" s="35"/>
       <c r="L74" s="37"/>
       <c r="M74" s="37"/>
       <c r="N74" s="93"/>
-      <c r="O74" s="129"/>
+      <c r="O74" s="90"/>
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
       <c r="R74" s="44"/>
@@ -7748,15 +7712,12 @@
       <c r="BB74" s="102"/>
       <c r="BC74" s="30"/>
     </row>
-    <row r="75" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A75" s="116"/>
-      <c r="B75" s="122">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="85"/>
+    <row r="75" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="85" t="s">
+        <v>65</v>
+      </c>
       <c r="E75" s="117"/>
       <c r="F75" s="64">
         <v>0</v>
@@ -7765,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="33">
-        <f>NETWORKDAYS(F75,G75)</f>
+        <f t="shared" ref="H75:H97" si="9">NETWORKDAYS(F75,G75)</f>
         <v>0</v>
       </c>
       <c r="I75" s="65">
@@ -7822,7 +7783,7 @@
       <c r="B76" s="31"/>
       <c r="C76" s="32"/>
       <c r="D76" s="85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="64">
@@ -7832,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="33">
-        <f t="shared" ref="H76:H98" si="9">NETWORKDAYS(F76,G76)</f>
+        <f>NETWORKDAYS(F76,G76)</f>
         <v>0</v>
       </c>
       <c r="I76" s="65">
@@ -7885,11 +7846,11 @@
       <c r="BB76" s="102"/>
       <c r="BC76" s="30"/>
     </row>
-    <row r="77" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="77" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B77" s="31"/>
       <c r="C77" s="32"/>
       <c r="D77" s="85" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="64">
@@ -7952,12 +7913,14 @@
       <c r="BB77" s="102"/>
       <c r="BC77" s="30"/>
     </row>
-    <row r="78" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="85" t="s">
-        <v>42</v>
-      </c>
+    <row r="78" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B78" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="85"/>
       <c r="E78" s="117"/>
       <c r="F78" s="64">
         <v>0</v>
@@ -7966,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="33">
-        <f>NETWORKDAYS(F78,G78)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78" s="65">
@@ -8020,13 +7983,11 @@
       <c r="BC78" s="30"/>
     </row>
     <row r="79" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B79" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="85"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="85" t="s">
+        <v>67</v>
+      </c>
       <c r="E79" s="117"/>
       <c r="F79" s="64">
         <v>0</v>
@@ -8092,7 +8053,7 @@
       <c r="B80" s="31"/>
       <c r="C80" s="32"/>
       <c r="D80" s="85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="64">
@@ -8155,11 +8116,12 @@
       <c r="BB80" s="102"/>
       <c r="BC80" s="30"/>
     </row>
-    <row r="81" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="81" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A81" s="116"/>
       <c r="B81" s="31"/>
       <c r="C81" s="32"/>
       <c r="D81" s="85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E81" s="117"/>
       <c r="F81" s="64">
@@ -8175,60 +8137,61 @@
       <c r="I81" s="65">
         <v>0</v>
       </c>
-      <c r="J81" s="34"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="93"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="94"/>
       <c r="O81" s="90"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="44"/>
       <c r="R81" s="44"/>
       <c r="S81" s="99"/>
-      <c r="T81" s="97"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
-      <c r="X81" s="102"/>
-      <c r="Y81" s="97"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="102"/>
-      <c r="AD81" s="104"/>
-      <c r="AE81" s="47"/>
-      <c r="AF81" s="47"/>
-      <c r="AG81" s="47"/>
-      <c r="AH81" s="107"/>
-      <c r="AI81" s="97"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="46"/>
-      <c r="AM81" s="102"/>
-      <c r="AN81" s="97"/>
-      <c r="AO81" s="46"/>
-      <c r="AP81" s="46"/>
-      <c r="AQ81" s="46"/>
-      <c r="AR81" s="102"/>
-      <c r="AS81" s="110"/>
-      <c r="AT81" s="48"/>
-      <c r="AU81" s="48"/>
-      <c r="AV81" s="48"/>
-      <c r="AW81" s="112"/>
-      <c r="AX81" s="97"/>
-      <c r="AY81" s="46"/>
-      <c r="AZ81" s="46"/>
-      <c r="BA81" s="46"/>
-      <c r="BB81" s="102"/>
+      <c r="T81" s="98"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="103"/>
+      <c r="Y81" s="98"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="103"/>
+      <c r="AD81" s="105"/>
+      <c r="AE81" s="49"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="49"/>
+      <c r="AH81" s="109"/>
+      <c r="AI81" s="98"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="43"/>
+      <c r="AM81" s="103"/>
+      <c r="AN81" s="98"/>
+      <c r="AO81" s="43"/>
+      <c r="AP81" s="43"/>
+      <c r="AQ81" s="43"/>
+      <c r="AR81" s="103"/>
+      <c r="AS81" s="111"/>
+      <c r="AT81" s="50"/>
+      <c r="AU81" s="50"/>
+      <c r="AV81" s="50"/>
+      <c r="AW81" s="113"/>
+      <c r="AX81" s="98"/>
+      <c r="AY81" s="43"/>
+      <c r="AZ81" s="43"/>
+      <c r="BA81" s="43"/>
+      <c r="BB81" s="103"/>
       <c r="BC81" s="30"/>
     </row>
-    <row r="82" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A82" s="116"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="85" t="s">
-        <v>69</v>
-      </c>
+    <row r="82" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B82" s="122">
+        <v>4.12</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="85"/>
       <c r="E82" s="117"/>
       <c r="F82" s="64">
         <v>0</v>
@@ -8291,13 +8254,11 @@
       <c r="BC82" s="30"/>
     </row>
     <row r="83" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B83" s="122">
-        <v>4.12</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="85"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="85" t="s">
+        <v>84</v>
+      </c>
       <c r="E83" s="117"/>
       <c r="F83" s="64">
         <v>0</v>
@@ -8360,10 +8321,10 @@
       <c r="BC83" s="30"/>
     </row>
     <row r="84" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="31"/>
+      <c r="B84" s="86"/>
       <c r="C84" s="32"/>
       <c r="D84" s="85" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E84" s="117"/>
       <c r="F84" s="64">
@@ -8430,7 +8391,7 @@
       <c r="B85" s="86"/>
       <c r="C85" s="32"/>
       <c r="D85" s="85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E85" s="117"/>
       <c r="F85" s="64">
@@ -8493,12 +8454,15 @@
       <c r="BB85" s="103"/>
       <c r="BC85" s="30"/>
     </row>
-    <row r="86" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B86" s="86"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="85" t="s">
-        <v>71</v>
-      </c>
+    <row r="86" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A86" s="116"/>
+      <c r="B86" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="85"/>
       <c r="E86" s="117"/>
       <c r="F86" s="64">
         <v>0</v>
@@ -8560,15 +8524,12 @@
       <c r="BB86" s="103"/>
       <c r="BC86" s="30"/>
     </row>
-    <row r="87" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A87" s="116"/>
-      <c r="B87" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="85"/>
+    <row r="87" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B87" s="86"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="85" t="s">
+        <v>72</v>
+      </c>
       <c r="E87" s="117"/>
       <c r="F87" s="64">
         <v>0</v>
@@ -8577,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H87" si="10">NETWORKDAYS(F87,G87)</f>
         <v>0</v>
       </c>
       <c r="I87" s="65">
@@ -8630,11 +8591,11 @@
       <c r="BB87" s="103"/>
       <c r="BC87" s="30"/>
     </row>
-    <row r="88" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="88" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B88" s="86"/>
       <c r="C88" s="32"/>
       <c r="D88" s="85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E88" s="117"/>
       <c r="F88" s="64">
@@ -8644,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="33">
-        <f t="shared" ref="H88" si="10">NETWORKDAYS(F88,G88)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I88" s="65">
@@ -8697,11 +8658,11 @@
       <c r="BB88" s="103"/>
       <c r="BC88" s="30"/>
     </row>
-    <row r="89" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="89" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B89" s="86"/>
       <c r="C89" s="32"/>
       <c r="D89" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E89" s="117"/>
       <c r="F89" s="64">
@@ -8768,7 +8729,7 @@
       <c r="B90" s="86"/>
       <c r="C90" s="32"/>
       <c r="D90" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E90" s="117"/>
       <c r="F90" s="64">
@@ -8832,11 +8793,13 @@
       <c r="BC90" s="30"/>
     </row>
     <row r="91" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B91" s="86"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="85" t="s">
-        <v>75</v>
-      </c>
+      <c r="B91" s="31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="85"/>
       <c r="E91" s="117"/>
       <c r="F91" s="64">
         <v>0</v>
@@ -8899,13 +8862,11 @@
       <c r="BC91" s="30"/>
     </row>
     <row r="92" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B92" s="31">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="85"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="85" t="s">
+        <v>76</v>
+      </c>
       <c r="E92" s="117"/>
       <c r="F92" s="64">
         <v>0</v>
@@ -8968,10 +8929,10 @@
       <c r="BC92" s="30"/>
     </row>
     <row r="93" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B93" s="31"/>
+      <c r="B93" s="86"/>
       <c r="C93" s="32"/>
       <c r="D93" s="85" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E93" s="117"/>
       <c r="F93" s="64">
@@ -9038,7 +8999,7 @@
       <c r="B94" s="86"/>
       <c r="C94" s="32"/>
       <c r="D94" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E94" s="117"/>
       <c r="F94" s="64">
@@ -9102,12 +9063,14 @@
       <c r="BC94" s="30"/>
     </row>
     <row r="95" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B95" s="86"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="117"/>
+      <c r="B95" s="122">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
       <c r="F95" s="64">
         <v>0</v>
       </c>
@@ -9169,14 +9132,12 @@
       <c r="BC95" s="30"/>
     </row>
     <row r="96" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B96" s="122">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="117"/>
       <c r="F96" s="64">
         <v>0</v>
       </c>
@@ -9238,12 +9199,14 @@
       <c r="BC96" s="30"/>
     </row>
     <row r="97" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="117"/>
+      <c r="B97" s="86">
+        <v>4.16</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
       <c r="F97" s="64">
         <v>0</v>
       </c>
@@ -9257,254 +9220,197 @@
       <c r="I97" s="65">
         <v>0</v>
       </c>
-      <c r="J97" s="38"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="94"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="93"/>
       <c r="O97" s="90"/>
       <c r="P97" s="44"/>
       <c r="Q97" s="44"/>
       <c r="R97" s="44"/>
       <c r="S97" s="99"/>
-      <c r="T97" s="98"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="103"/>
-      <c r="Y97" s="98"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="103"/>
-      <c r="AD97" s="105"/>
-      <c r="AE97" s="49"/>
-      <c r="AF97" s="49"/>
-      <c r="AG97" s="49"/>
-      <c r="AH97" s="109"/>
-      <c r="AI97" s="98"/>
-      <c r="AJ97" s="43"/>
-      <c r="AK97" s="43"/>
-      <c r="AL97" s="43"/>
-      <c r="AM97" s="103"/>
-      <c r="AN97" s="98"/>
-      <c r="AO97" s="43"/>
-      <c r="AP97" s="43"/>
-      <c r="AQ97" s="43"/>
-      <c r="AR97" s="103"/>
-      <c r="AS97" s="111"/>
-      <c r="AT97" s="50"/>
-      <c r="AU97" s="50"/>
-      <c r="AV97" s="50"/>
-      <c r="AW97" s="113"/>
-      <c r="AX97" s="98"/>
-      <c r="AY97" s="43"/>
-      <c r="AZ97" s="43"/>
-      <c r="BA97" s="43"/>
-      <c r="BB97" s="103"/>
+      <c r="T97" s="97"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="102"/>
+      <c r="Y97" s="104"/>
+      <c r="Z97" s="47"/>
+      <c r="AA97" s="47"/>
+      <c r="AB97" s="47"/>
+      <c r="AC97" s="107"/>
+      <c r="AD97" s="104"/>
+      <c r="AE97" s="47"/>
+      <c r="AF97" s="47"/>
+      <c r="AG97" s="47"/>
+      <c r="AH97" s="107"/>
+      <c r="AI97" s="104"/>
+      <c r="AJ97" s="47"/>
+      <c r="AK97" s="47"/>
+      <c r="AL97" s="47"/>
+      <c r="AM97" s="107"/>
+      <c r="AN97" s="104"/>
+      <c r="AO97" s="47"/>
+      <c r="AP97" s="47"/>
+      <c r="AQ97" s="47"/>
+      <c r="AR97" s="107"/>
+      <c r="AS97" s="104"/>
+      <c r="AT97" s="47"/>
+      <c r="AU97" s="47"/>
+      <c r="AV97" s="47"/>
+      <c r="AW97" s="107"/>
+      <c r="AX97" s="104"/>
+      <c r="AY97" s="47"/>
+      <c r="AZ97" s="47"/>
+      <c r="BA97" s="47"/>
+      <c r="BB97" s="107"/>
       <c r="BC97" s="30"/>
     </row>
-    <row r="98" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B98" s="86">
-        <v>4.16</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="64">
-        <v>0</v>
-      </c>
-      <c r="G98" s="64">
-        <v>0</v>
-      </c>
-      <c r="H98" s="33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="65">
-        <v>0</v>
-      </c>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="93"/>
-      <c r="O98" s="90"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="99"/>
-      <c r="T98" s="97"/>
-      <c r="U98" s="46"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="46"/>
-      <c r="X98" s="102"/>
-      <c r="Y98" s="104"/>
-      <c r="Z98" s="47"/>
-      <c r="AA98" s="47"/>
-      <c r="AB98" s="47"/>
-      <c r="AC98" s="107"/>
-      <c r="AD98" s="104"/>
-      <c r="AE98" s="47"/>
-      <c r="AF98" s="47"/>
-      <c r="AG98" s="47"/>
-      <c r="AH98" s="107"/>
-      <c r="AI98" s="104"/>
-      <c r="AJ98" s="47"/>
-      <c r="AK98" s="47"/>
-      <c r="AL98" s="47"/>
-      <c r="AM98" s="107"/>
-      <c r="AN98" s="104"/>
-      <c r="AO98" s="47"/>
-      <c r="AP98" s="47"/>
-      <c r="AQ98" s="47"/>
-      <c r="AR98" s="107"/>
-      <c r="AS98" s="104"/>
-      <c r="AT98" s="47"/>
-      <c r="AU98" s="47"/>
-      <c r="AV98" s="47"/>
-      <c r="AW98" s="107"/>
-      <c r="AX98" s="104"/>
-      <c r="AY98" s="47"/>
-      <c r="AZ98" s="47"/>
-      <c r="BA98" s="47"/>
-      <c r="BB98" s="107"/>
-      <c r="BC98" s="30"/>
-    </row>
-    <row r="99" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B99" s="55">
+    <row r="98" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B98" s="55">
         <v>5</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C98" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="60"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="58"/>
-      <c r="S99" s="58"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="58"/>
-      <c r="V99" s="58"/>
-      <c r="W99" s="58"/>
-      <c r="X99" s="58"/>
-      <c r="Y99" s="58"/>
-      <c r="Z99" s="58"/>
-      <c r="AA99" s="58"/>
-      <c r="AB99" s="58"/>
-      <c r="AC99" s="58"/>
-      <c r="AD99" s="58"/>
-      <c r="AE99" s="58"/>
-      <c r="AF99" s="58"/>
-      <c r="AG99" s="58"/>
-      <c r="AH99" s="58"/>
-      <c r="AI99" s="58"/>
-      <c r="AJ99" s="58"/>
-      <c r="AK99" s="58"/>
-      <c r="AL99" s="58"/>
-      <c r="AM99" s="58"/>
-      <c r="AN99" s="58"/>
-      <c r="AO99" s="58"/>
-      <c r="AP99" s="58"/>
-      <c r="AQ99" s="58"/>
-      <c r="AR99" s="58"/>
-      <c r="AS99" s="58"/>
-      <c r="AT99" s="58"/>
-      <c r="AU99" s="58"/>
-      <c r="AV99" s="58"/>
-      <c r="AW99" s="58"/>
-      <c r="AX99" s="58"/>
-      <c r="AY99" s="58"/>
-      <c r="AZ99" s="58"/>
-      <c r="BA99" s="58"/>
-      <c r="BB99" s="58"/>
-      <c r="BC99" s="54"/>
-    </row>
-    <row r="100" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A100" s="116"/>
-      <c r="B100" s="73">
+      <c r="D98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="58"/>
+      <c r="S98" s="58"/>
+      <c r="T98" s="58"/>
+      <c r="U98" s="58"/>
+      <c r="V98" s="58"/>
+      <c r="W98" s="58"/>
+      <c r="X98" s="58"/>
+      <c r="Y98" s="58"/>
+      <c r="Z98" s="58"/>
+      <c r="AA98" s="58"/>
+      <c r="AB98" s="58"/>
+      <c r="AC98" s="58"/>
+      <c r="AD98" s="58"/>
+      <c r="AE98" s="58"/>
+      <c r="AF98" s="58"/>
+      <c r="AG98" s="58"/>
+      <c r="AH98" s="58"/>
+      <c r="AI98" s="58"/>
+      <c r="AJ98" s="58"/>
+      <c r="AK98" s="58"/>
+      <c r="AL98" s="58"/>
+      <c r="AM98" s="58"/>
+      <c r="AN98" s="58"/>
+      <c r="AO98" s="58"/>
+      <c r="AP98" s="58"/>
+      <c r="AQ98" s="58"/>
+      <c r="AR98" s="58"/>
+      <c r="AS98" s="58"/>
+      <c r="AT98" s="58"/>
+      <c r="AU98" s="58"/>
+      <c r="AV98" s="58"/>
+      <c r="AW98" s="58"/>
+      <c r="AX98" s="58"/>
+      <c r="AY98" s="58"/>
+      <c r="AZ98" s="58"/>
+      <c r="BA98" s="58"/>
+      <c r="BB98" s="58"/>
+      <c r="BC98" s="54"/>
+    </row>
+    <row r="99" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A99" s="116"/>
+      <c r="B99" s="73">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C100" s="87" t="s">
+      <c r="C99" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="87"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="70">
+      <c r="D99" s="87"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="70">
         <v>45564</v>
       </c>
-      <c r="G100" s="70">
+      <c r="G99" s="70">
         <v>45394</v>
       </c>
-      <c r="H100" s="71">
-        <f>NETWORKDAYS(F100,G100)</f>
+      <c r="H99" s="71">
+        <f>NETWORKDAYS(F99,G99)</f>
         <v>-121</v>
       </c>
-      <c r="I100" s="72">
+      <c r="I99" s="72">
         <v>1</v>
       </c>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="93"/>
-      <c r="O100" s="90"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="99"/>
-      <c r="T100" s="97"/>
-      <c r="U100" s="46"/>
-      <c r="V100" s="46"/>
-      <c r="W100" s="46"/>
-      <c r="X100" s="102"/>
-      <c r="Y100" s="97"/>
-      <c r="Z100" s="46"/>
-      <c r="AA100" s="46"/>
-      <c r="AB100" s="46"/>
-      <c r="AC100" s="102"/>
-      <c r="AD100" s="104"/>
-      <c r="AE100" s="47"/>
-      <c r="AF100" s="47"/>
-      <c r="AG100" s="47"/>
-      <c r="AH100" s="107"/>
-      <c r="AI100" s="97"/>
-      <c r="AJ100" s="46"/>
-      <c r="AK100" s="46"/>
-      <c r="AL100" s="46"/>
-      <c r="AM100" s="46"/>
-      <c r="AN100" s="46"/>
-      <c r="AO100" s="46"/>
-      <c r="AP100" s="46"/>
-      <c r="AQ100" s="46"/>
-      <c r="AR100" s="46"/>
-      <c r="AS100" s="46"/>
-      <c r="AT100" s="46"/>
-      <c r="AU100" s="46"/>
-      <c r="AV100" s="46"/>
-      <c r="AW100" s="46"/>
-      <c r="AX100" s="46"/>
-      <c r="AY100" s="46"/>
-      <c r="AZ100" s="46"/>
-      <c r="BA100" s="46"/>
-      <c r="BB100" s="46"/>
-      <c r="BC100" s="30"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="93"/>
+      <c r="O99" s="90"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="44"/>
+      <c r="S99" s="99"/>
+      <c r="T99" s="97"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="102"/>
+      <c r="Y99" s="97"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="102"/>
+      <c r="AD99" s="104"/>
+      <c r="AE99" s="47"/>
+      <c r="AF99" s="47"/>
+      <c r="AG99" s="47"/>
+      <c r="AH99" s="107"/>
+      <c r="AI99" s="97"/>
+      <c r="AJ99" s="46"/>
+      <c r="AK99" s="46"/>
+      <c r="AL99" s="46"/>
+      <c r="AM99" s="46"/>
+      <c r="AN99" s="46"/>
+      <c r="AO99" s="46"/>
+      <c r="AP99" s="46"/>
+      <c r="AQ99" s="46"/>
+      <c r="AR99" s="46"/>
+      <c r="AS99" s="46"/>
+      <c r="AT99" s="46"/>
+      <c r="AU99" s="46"/>
+      <c r="AV99" s="46"/>
+      <c r="AW99" s="46"/>
+      <c r="AX99" s="46"/>
+      <c r="AY99" s="46"/>
+      <c r="AZ99" s="46"/>
+      <c r="BA99" s="46"/>
+      <c r="BB99" s="46"/>
+      <c r="BC99" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -9521,18 +9427,6 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -381,10 +381,6 @@
     <t>문의 이력</t>
   </si>
   <si>
-    <t>상단 고정 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>맞춤 건강 추천 결과표</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -468,10 +464,6 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 인증</t>
   </si>
   <si>
@@ -495,9 +487,6 @@
   </si>
   <si>
     <t>비밀번호 무결성 검사</t>
-  </si>
-  <si>
-    <t>개인 정보 확인/수정</t>
   </si>
   <si>
     <t>찜 조회</t>
@@ -804,10 +793,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>평점 부여</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -898,10 +883,6 @@
       </rPr>
       <t>센터</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1082,10 +1063,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1143,15 +1120,47 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>Css/Js/Header Include등 JSP 공통 작업</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 로그인</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>시스템 구성도</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 Css/Js/Header Include화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 확인/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 현황</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 현황</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 현황</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1423,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,18 +1548,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor rgb="FFC65911"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006699"/>
-        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
     <fill>
@@ -1859,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2087,15 +2084,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2106,9 +2094,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2192,9 +2177,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2208,9 +2190,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2220,13 +2199,10 @@
     <xf numFmtId="9" fontId="27" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2238,66 +2214,18 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,6 +2250,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2336,6 +2268,51 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,21 +2631,21 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC99"/>
+  <dimension ref="A1:BC98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="116" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="112" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="54" width="3.42578125" customWidth="1"/>
     <col min="55" max="55" width="3.85546875" customWidth="1"/>
   </cols>
@@ -2731,40 +2708,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
@@ -2845,41 +2822,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="170" t="s">
+      <c r="C4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="167" t="s">
+      <c r="J4" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="168" t="s">
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="141"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -2909,40 +2886,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="140" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="142" t="s">
+      <c r="J5" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="166">
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="145">
         <v>45611</v>
       </c>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="1"/>
@@ -3084,160 +3061,160 @@
       <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="H8" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="138" t="s">
+      <c r="I8" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="147" t="s">
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147" t="s">
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="151" t="s">
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="155" t="s">
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="155"/>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155" t="s">
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="155"/>
-      <c r="AL8" s="155"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="159" t="s">
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
+      <c r="AL8" s="132"/>
+      <c r="AM8" s="133"/>
+      <c r="AN8" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="160"/>
-      <c r="AS8" s="136" t="s">
+      <c r="AO8" s="137"/>
+      <c r="AP8" s="137"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="137"/>
+      <c r="AS8" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="136"/>
-      <c r="AU8" s="136"/>
-      <c r="AV8" s="136"/>
-      <c r="AW8" s="136"/>
-      <c r="AX8" s="136" t="s">
+      <c r="AT8" s="150"/>
+      <c r="AU8" s="150"/>
+      <c r="AV8" s="150"/>
+      <c r="AW8" s="150"/>
+      <c r="AX8" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="136"/>
-      <c r="AZ8" s="136"/>
-      <c r="BA8" s="136"/>
-      <c r="BB8" s="136"/>
+      <c r="AY8" s="150"/>
+      <c r="AZ8" s="150"/>
+      <c r="BA8" s="150"/>
+      <c r="BB8" s="150"/>
       <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="156"/>
-      <c r="AH9" s="156"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="156"/>
-      <c r="AK9" s="156"/>
-      <c r="AL9" s="156"/>
-      <c r="AM9" s="158"/>
-      <c r="AN9" s="161"/>
-      <c r="AO9" s="162"/>
-      <c r="AP9" s="162"/>
-      <c r="AQ9" s="162"/>
-      <c r="AR9" s="162"/>
-      <c r="AS9" s="137"/>
-      <c r="AT9" s="137"/>
-      <c r="AU9" s="137"/>
-      <c r="AV9" s="137"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="137"/>
-      <c r="AY9" s="137"/>
-      <c r="AZ9" s="137"/>
-      <c r="BA9" s="137"/>
-      <c r="BB9" s="137"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="134"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="134"/>
+      <c r="AL9" s="134"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="139"/>
+      <c r="AQ9" s="139"/>
+      <c r="AR9" s="139"/>
+      <c r="AS9" s="151"/>
+      <c r="AT9" s="151"/>
+      <c r="AU9" s="151"/>
+      <c r="AV9" s="151"/>
+      <c r="AW9" s="151"/>
+      <c r="AX9" s="151"/>
+      <c r="AY9" s="151"/>
+      <c r="AZ9" s="151"/>
+      <c r="BA9" s="151"/>
+      <c r="BB9" s="151"/>
       <c r="BC9" s="25"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="27" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3420,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="76"/>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="84" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="70">
@@ -3459,51 +3436,51 @@
       <c r="I12" s="72">
         <v>1</v>
       </c>
-      <c r="J12" s="83"/>
+      <c r="J12" s="122"/>
       <c r="K12" s="35"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="89"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="85"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="91"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="95"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="91"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="104"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="100"/>
       <c r="AE12" s="47"/>
       <c r="AF12" s="47"/>
       <c r="AG12" s="47"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="97"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="93"/>
       <c r="AJ12" s="46"/>
       <c r="AK12" s="46"/>
       <c r="AL12" s="46"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="97"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="93"/>
       <c r="AO12" s="46"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="46"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="110"/>
+      <c r="AR12" s="98"/>
+      <c r="AS12" s="106"/>
       <c r="AT12" s="48"/>
       <c r="AU12" s="48"/>
       <c r="AV12" s="48"/>
-      <c r="AW12" s="112"/>
-      <c r="AX12" s="97"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="93"/>
       <c r="AY12" s="46"/>
       <c r="AZ12" s="46"/>
       <c r="BA12" s="46"/>
-      <c r="BB12" s="102"/>
+      <c r="BB12" s="98"/>
       <c r="BC12" s="30"/>
     </row>
     <row r="13" spans="2:55" s="61" customFormat="1" ht="21" customHeight="1">
@@ -3570,11 +3547,11 @@
       <c r="B14" s="31">
         <v>2.1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="77"/>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="82" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="64">
@@ -3590,62 +3567,62 @@
       <c r="I14" s="65">
         <v>1</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="94"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="91"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="92"/>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
       <c r="W14" s="41"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="98"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="94"/>
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
       <c r="AB14" s="43"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="101"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="97"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="52"/>
       <c r="AG14" s="53"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="98"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="94"/>
       <c r="AJ14" s="43"/>
       <c r="AK14" s="43"/>
       <c r="AL14" s="43"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="98"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="94"/>
       <c r="AO14" s="43"/>
       <c r="AP14" s="43"/>
       <c r="AQ14" s="43"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="111"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="107"/>
       <c r="AT14" s="50"/>
       <c r="AU14" s="50"/>
       <c r="AV14" s="50"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="98"/>
+      <c r="AW14" s="109"/>
+      <c r="AX14" s="94"/>
       <c r="AY14" s="43"/>
       <c r="AZ14" s="43"/>
       <c r="BA14" s="43"/>
-      <c r="BB14" s="103"/>
+      <c r="BB14" s="99"/>
       <c r="BC14" s="30"/>
     </row>
     <row r="15" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B15" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="115" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="79"/>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="82" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="64">
@@ -3662,61 +3639,61 @@
         <v>1</v>
       </c>
       <c r="J15" s="38"/>
-      <c r="K15" s="81"/>
+      <c r="K15" s="122"/>
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="91"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="92"/>
       <c r="U15" s="41"/>
       <c r="V15" s="41"/>
       <c r="W15" s="41"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="98"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="94"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="105"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="101"/>
       <c r="AE15" s="49"/>
       <c r="AF15" s="49"/>
       <c r="AG15" s="49"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="98"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="94"/>
       <c r="AJ15" s="43"/>
       <c r="AK15" s="43"/>
       <c r="AL15" s="43"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="98"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="94"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="111"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="107"/>
       <c r="AT15" s="50"/>
       <c r="AU15" s="50"/>
       <c r="AV15" s="50"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="98"/>
+      <c r="AW15" s="109"/>
+      <c r="AX15" s="94"/>
       <c r="AY15" s="43"/>
       <c r="AZ15" s="43"/>
       <c r="BA15" s="43"/>
-      <c r="BB15" s="103"/>
+      <c r="BB15" s="99"/>
       <c r="BC15" s="30"/>
     </row>
     <row r="16" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B16" s="73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="116" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="80"/>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="110" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="70">
@@ -3734,49 +3711,49 @@
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="91"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="92"/>
       <c r="U16" s="41"/>
       <c r="V16" s="41"/>
       <c r="W16" s="41"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="98"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="94"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
       <c r="AB16" s="43"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="105"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="101"/>
       <c r="AE16" s="49"/>
       <c r="AF16" s="49"/>
       <c r="AG16" s="49"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="98"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="94"/>
       <c r="AJ16" s="43"/>
       <c r="AK16" s="43"/>
       <c r="AL16" s="43"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="98"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="94"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="111"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="107"/>
       <c r="AT16" s="50"/>
       <c r="AU16" s="50"/>
       <c r="AV16" s="50"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="98"/>
+      <c r="AW16" s="109"/>
+      <c r="AX16" s="94"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="43"/>
       <c r="BA16" s="43"/>
-      <c r="BB16" s="103"/>
+      <c r="BB16" s="99"/>
       <c r="BC16" s="30"/>
     </row>
     <row r="17" spans="2:55" s="61" customFormat="1" ht="21" customHeight="1">
@@ -3843,71 +3820,71 @@
       <c r="B18" s="31">
         <v>3.1</v>
       </c>
-      <c r="C18" s="135" t="s">
-        <v>123</v>
+      <c r="C18" s="128" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="82" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="64">
-        <v>45560</v>
-      </c>
-      <c r="G18" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="33" t="e">
+        <v>45565</v>
+      </c>
+      <c r="G18" s="64">
+        <v>45565</v>
+      </c>
+      <c r="H18" s="33">
         <f t="shared" ref="H18:H23" si="1">NETWORKDAYS(F18,G18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="118">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="66">
+        <v>1</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="81"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="91"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="95"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="91"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="104"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="100"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="47"/>
       <c r="AG18" s="47"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="97"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="93"/>
       <c r="AJ18" s="46"/>
       <c r="AK18" s="46"/>
       <c r="AL18" s="46"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="97"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="93"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="110"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="106"/>
       <c r="AT18" s="48"/>
       <c r="AU18" s="48"/>
       <c r="AV18" s="48"/>
-      <c r="AW18" s="112"/>
-      <c r="AX18" s="97"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="93"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="46"/>
       <c r="BA18" s="46"/>
-      <c r="BB18" s="102"/>
+      <c r="BB18" s="98"/>
       <c r="BC18" s="30"/>
     </row>
     <row r="19" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3915,10 +3892,10 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="110" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="64">
@@ -3937,48 +3914,48 @@
       <c r="J19" s="38"/>
       <c r="K19" s="39"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="91"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="95"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="91"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="96"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="92"/>
       <c r="Z19" s="41"/>
       <c r="AA19" s="41"/>
       <c r="AB19" s="41"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="105"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="101"/>
       <c r="AE19" s="49"/>
       <c r="AF19" s="49"/>
       <c r="AG19" s="49"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="98"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="94"/>
       <c r="AJ19" s="43"/>
       <c r="AK19" s="43"/>
       <c r="AL19" s="43"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="98"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="94"/>
       <c r="AO19" s="43"/>
       <c r="AP19" s="43"/>
       <c r="AQ19" s="43"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="111"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="107"/>
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
       <c r="AV19" s="50"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="98"/>
+      <c r="AW19" s="109"/>
+      <c r="AX19" s="94"/>
       <c r="AY19" s="43"/>
       <c r="AZ19" s="43"/>
       <c r="BA19" s="43"/>
-      <c r="BB19" s="103"/>
+      <c r="BB19" s="99"/>
       <c r="BC19" s="30"/>
     </row>
     <row r="20" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
@@ -3989,13 +3966,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="110" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="64">
         <v>45561</v>
       </c>
-      <c r="G20" s="123">
+      <c r="G20" s="118">
         <v>45565</v>
       </c>
       <c r="H20" s="33">
@@ -4008,65 +3985,65 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="95"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="91"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="96"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="92"/>
       <c r="Z20" s="41"/>
       <c r="AA20" s="41"/>
       <c r="AB20" s="41"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="105"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="101"/>
       <c r="AE20" s="49"/>
       <c r="AF20" s="49"/>
       <c r="AG20" s="49"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="98"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="94"/>
       <c r="AJ20" s="43"/>
       <c r="AK20" s="43"/>
       <c r="AL20" s="43"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="98"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="94"/>
       <c r="AO20" s="43"/>
       <c r="AP20" s="43"/>
       <c r="AQ20" s="43"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="111"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="107"/>
       <c r="AT20" s="50"/>
       <c r="AU20" s="50"/>
       <c r="AV20" s="50"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="98"/>
+      <c r="AW20" s="109"/>
+      <c r="AX20" s="94"/>
       <c r="AY20" s="43"/>
       <c r="AZ20" s="43"/>
       <c r="BA20" s="43"/>
-      <c r="BB20" s="103"/>
+      <c r="BB20" s="99"/>
       <c r="BC20" s="30"/>
     </row>
-    <row r="21" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B21" s="73">
         <v>3.4</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D21" s="69"/>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="110" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="64">
         <v>45561</v>
       </c>
-      <c r="G21" s="132">
+      <c r="G21" s="125">
         <v>45565</v>
       </c>
       <c r="H21" s="71">
@@ -4079,69 +4056,69 @@
       <c r="J21" s="38"/>
       <c r="K21" s="39"/>
       <c r="L21" s="41"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="45"/>
       <c r="R21" s="37"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="95"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="91"/>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="96"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="92"/>
       <c r="Z21" s="41"/>
       <c r="AA21" s="41"/>
       <c r="AB21" s="41"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="105"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="101"/>
       <c r="AE21" s="49"/>
       <c r="AF21" s="49"/>
       <c r="AG21" s="49"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="98"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="94"/>
       <c r="AJ21" s="43"/>
       <c r="AK21" s="43"/>
       <c r="AL21" s="43"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="98"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="94"/>
       <c r="AO21" s="43"/>
       <c r="AP21" s="43"/>
       <c r="AQ21" s="43"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="111"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="107"/>
       <c r="AT21" s="50"/>
       <c r="AU21" s="50"/>
       <c r="AV21" s="50"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="98"/>
+      <c r="AW21" s="109"/>
+      <c r="AX21" s="94"/>
       <c r="AY21" s="43"/>
       <c r="AZ21" s="43"/>
       <c r="BA21" s="43"/>
-      <c r="BB21" s="103"/>
+      <c r="BB21" s="99"/>
       <c r="BC21" s="30"/>
     </row>
     <row r="22" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B22" s="31">
         <v>3.5</v>
       </c>
-      <c r="C22" s="135" t="s">
-        <v>130</v>
+      <c r="C22" s="128" t="s">
+        <v>123</v>
       </c>
       <c r="D22" s="78"/>
-      <c r="E22" s="85" t="s">
-        <v>98</v>
+      <c r="E22" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="F22" s="64">
         <v>45565</v>
       </c>
-      <c r="G22" s="64">
-        <v>45565</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="65">
         <v>1</v>
@@ -4150,65 +4127,65 @@
       <c r="K22" s="39"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="129"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="92"/>
       <c r="U22" s="41"/>
       <c r="V22" s="41"/>
       <c r="W22" s="41"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="96"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="41"/>
       <c r="AA22" s="41"/>
       <c r="AB22" s="41"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="105"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="101"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="49"/>
       <c r="AG22" s="49"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="98"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="94"/>
       <c r="AJ22" s="43"/>
       <c r="AK22" s="43"/>
       <c r="AL22" s="43"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="98"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="94"/>
       <c r="AO22" s="43"/>
       <c r="AP22" s="43"/>
       <c r="AQ22" s="43"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="111"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="107"/>
       <c r="AT22" s="50"/>
       <c r="AU22" s="50"/>
       <c r="AV22" s="50"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="98"/>
+      <c r="AW22" s="109"/>
+      <c r="AX22" s="94"/>
       <c r="AY22" s="43"/>
       <c r="AZ22" s="43"/>
       <c r="BA22" s="43"/>
-      <c r="BB22" s="103"/>
+      <c r="BB22" s="99"/>
       <c r="BC22" s="30"/>
     </row>
-    <row r="23" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="23" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B23" s="31">
         <v>3.6</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="114" t="s">
-        <v>119</v>
+      <c r="E23" s="110" t="s">
+        <v>114</v>
       </c>
       <c r="F23" s="64">
         <v>45565</v>
       </c>
-      <c r="G23" s="123" t="s">
-        <v>120</v>
+      <c r="G23" s="118" t="s">
+        <v>115</v>
       </c>
       <c r="H23" s="33" t="e">
         <f t="shared" si="1"/>
@@ -4221,47 +4198,47 @@
       <c r="K23" s="39"/>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="129"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="95"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="91"/>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="96"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="92"/>
       <c r="Z23" s="41"/>
       <c r="AA23" s="41"/>
       <c r="AB23" s="41"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="105"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="101"/>
       <c r="AE23" s="49"/>
       <c r="AF23" s="49"/>
       <c r="AG23" s="49"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="98"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="94"/>
       <c r="AJ23" s="43"/>
       <c r="AK23" s="43"/>
       <c r="AL23" s="43"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="98"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="94"/>
       <c r="AO23" s="43"/>
       <c r="AP23" s="43"/>
       <c r="AQ23" s="43"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="111"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="107"/>
       <c r="AT23" s="50"/>
       <c r="AU23" s="50"/>
       <c r="AV23" s="50"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="98"/>
+      <c r="AW23" s="109"/>
+      <c r="AX23" s="94"/>
       <c r="AY23" s="43"/>
       <c r="AZ23" s="43"/>
       <c r="BA23" s="43"/>
-      <c r="BB23" s="103"/>
+      <c r="BB23" s="99"/>
       <c r="BC23" s="30"/>
     </row>
     <row r="24" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
@@ -4272,14 +4249,14 @@
         <v>27</v>
       </c>
       <c r="D24" s="69"/>
-      <c r="E24" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="132" t="s">
+      <c r="E24" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="132" t="s">
-        <v>97</v>
+      <c r="F24" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="125" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="71" t="e">
         <f t="shared" ref="H24" si="2">NETWORKDAYS(F24,G24)</f>
@@ -4292,46 +4269,46 @@
       <c r="K24" s="39"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="86"/>
       <c r="P24" s="45"/>
       <c r="R24" s="37"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="95"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="91"/>
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
       <c r="W24" s="36"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="96"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="92"/>
       <c r="Z24" s="41"/>
       <c r="AA24" s="41"/>
       <c r="AB24" s="41"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="105"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="101"/>
       <c r="AE24" s="49"/>
       <c r="AF24" s="49"/>
       <c r="AG24" s="49"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="98"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="94"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="43"/>
       <c r="AL24" s="43"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="98"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="94"/>
       <c r="AO24" s="43"/>
       <c r="AP24" s="43"/>
       <c r="AQ24" s="43"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="111"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="107"/>
       <c r="AT24" s="50"/>
       <c r="AU24" s="50"/>
       <c r="AV24" s="50"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="98"/>
+      <c r="AW24" s="109"/>
+      <c r="AX24" s="94"/>
       <c r="AY24" s="43"/>
       <c r="AZ24" s="43"/>
       <c r="BA24" s="43"/>
-      <c r="BB24" s="103"/>
+      <c r="BB24" s="99"/>
       <c r="BC24" s="30"/>
     </row>
     <row r="25" spans="2:55" s="61" customFormat="1" ht="21" customHeight="1">
@@ -4346,7 +4323,7 @@
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="115"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="58"/>
       <c r="K25" s="59"/>
       <c r="L25" s="60"/>
@@ -4394,24 +4371,24 @@
       <c r="BB25" s="58"/>
       <c r="BC25" s="54"/>
     </row>
-    <row r="26" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B26" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C26" s="85" t="s">
-        <v>124</v>
+      <c r="C26" s="82" t="s">
+        <v>81</v>
       </c>
       <c r="D26" s="32"/>
-      <c r="E26" s="117"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="64">
-        <v>0</v>
-      </c>
-      <c r="G26" s="64">
-        <v>0</v>
-      </c>
-      <c r="H26" s="33">
+        <v>45565</v>
+      </c>
+      <c r="G26" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="33" t="e">
         <f>NETWORKDAYS(F26,G26)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="65">
         <v>0</v>
@@ -4420,56 +4397,56 @@
       <c r="K26" s="35"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="90"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="86"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="97"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="93"/>
       <c r="U26" s="46"/>
       <c r="V26" s="46"/>
       <c r="W26" s="46"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="97"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="93"/>
       <c r="Z26" s="46"/>
       <c r="AA26" s="46"/>
       <c r="AB26" s="46"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="104"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="100"/>
       <c r="AE26" s="47"/>
       <c r="AF26" s="47"/>
       <c r="AG26" s="47"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="97"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="93"/>
       <c r="AJ26" s="46"/>
       <c r="AK26" s="46"/>
       <c r="AL26" s="46"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="97"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="93"/>
       <c r="AO26" s="46"/>
       <c r="AP26" s="46"/>
       <c r="AQ26" s="46"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="110"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="106"/>
       <c r="AT26" s="48"/>
       <c r="AU26" s="48"/>
       <c r="AV26" s="48"/>
-      <c r="AW26" s="112"/>
-      <c r="AX26" s="97"/>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="93"/>
       <c r="AY26" s="46"/>
       <c r="AZ26" s="46"/>
       <c r="BA26" s="46"/>
-      <c r="BB26" s="102"/>
+      <c r="BB26" s="98"/>
       <c r="BC26" s="30"/>
     </row>
-    <row r="27" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="2:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="117" t="s">
+      <c r="D27" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="113" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="64">
@@ -4489,56 +4466,58 @@
       <c r="K27" s="35"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="129"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="123"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="97"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="93"/>
       <c r="U27" s="46"/>
       <c r="V27" s="46"/>
       <c r="W27" s="46"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="97"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="93"/>
       <c r="Z27" s="46"/>
       <c r="AA27" s="46"/>
       <c r="AB27" s="46"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="104"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="100"/>
       <c r="AE27" s="47"/>
       <c r="AF27" s="47"/>
       <c r="AG27" s="47"/>
-      <c r="AH27" s="107"/>
-      <c r="AI27" s="97"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="93"/>
       <c r="AJ27" s="46"/>
       <c r="AK27" s="46"/>
       <c r="AL27" s="46"/>
-      <c r="AM27" s="102"/>
-      <c r="AN27" s="97"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="93"/>
       <c r="AO27" s="46"/>
       <c r="AP27" s="46"/>
       <c r="AQ27" s="46"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="110"/>
+      <c r="AR27" s="98"/>
+      <c r="AS27" s="106"/>
       <c r="AT27" s="48"/>
       <c r="AU27" s="48"/>
       <c r="AV27" s="48"/>
-      <c r="AW27" s="112"/>
-      <c r="AX27" s="97"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="93"/>
       <c r="AY27" s="46"/>
       <c r="AZ27" s="46"/>
       <c r="BA27" s="46"/>
-      <c r="BB27" s="102"/>
+      <c r="BB27" s="98"/>
       <c r="BC27" s="30"/>
     </row>
-    <row r="28" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="117"/>
+    <row r="28" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B28" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="64">
         <v>0</v>
       </c>
@@ -4556,56 +4535,56 @@
       <c r="K28" s="35"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="90"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="86"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="97"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="93"/>
       <c r="U28" s="46"/>
       <c r="V28" s="46"/>
       <c r="W28" s="46"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="97"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="93"/>
       <c r="Z28" s="46"/>
       <c r="AA28" s="46"/>
       <c r="AB28" s="46"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="104"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="100"/>
       <c r="AE28" s="47"/>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47"/>
-      <c r="AH28" s="107"/>
-      <c r="AI28" s="97"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="93"/>
       <c r="AJ28" s="46"/>
       <c r="AK28" s="46"/>
       <c r="AL28" s="46"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="97"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="93"/>
       <c r="AO28" s="46"/>
       <c r="AP28" s="46"/>
       <c r="AQ28" s="46"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="110"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="106"/>
       <c r="AT28" s="48"/>
       <c r="AU28" s="48"/>
       <c r="AV28" s="48"/>
-      <c r="AW28" s="112"/>
-      <c r="AX28" s="97"/>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="93"/>
       <c r="AY28" s="46"/>
       <c r="AZ28" s="46"/>
       <c r="BA28" s="46"/>
-      <c r="BB28" s="102"/>
+      <c r="BB28" s="98"/>
       <c r="BC28" s="30"/>
     </row>
-    <row r="29" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="117"/>
+      <c r="D29" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="113"/>
       <c r="F29" s="64">
         <v>0</v>
       </c>
@@ -4613,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="33">
-        <f t="shared" ref="H29:H31" si="3">NETWORKDAYS(F29,G29)</f>
+        <f t="shared" ref="H29" si="3">NETWORKDAYS(F29,G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="65">
@@ -4623,56 +4602,56 @@
       <c r="K29" s="35"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="90"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="86"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="97"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="93"/>
       <c r="U29" s="46"/>
       <c r="V29" s="46"/>
       <c r="W29" s="46"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="97"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="93"/>
       <c r="Z29" s="46"/>
       <c r="AA29" s="46"/>
       <c r="AB29" s="46"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="104"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="100"/>
       <c r="AE29" s="47"/>
       <c r="AF29" s="47"/>
       <c r="AG29" s="47"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="97"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="93"/>
       <c r="AJ29" s="46"/>
       <c r="AK29" s="46"/>
       <c r="AL29" s="46"/>
-      <c r="AM29" s="102"/>
-      <c r="AN29" s="97"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="93"/>
       <c r="AO29" s="46"/>
       <c r="AP29" s="46"/>
       <c r="AQ29" s="46"/>
-      <c r="AR29" s="102"/>
-      <c r="AS29" s="110"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="106"/>
       <c r="AT29" s="48"/>
       <c r="AU29" s="48"/>
       <c r="AV29" s="48"/>
-      <c r="AW29" s="112"/>
-      <c r="AX29" s="97"/>
+      <c r="AW29" s="108"/>
+      <c r="AX29" s="93"/>
       <c r="AY29" s="46"/>
       <c r="AZ29" s="46"/>
       <c r="BA29" s="46"/>
-      <c r="BB29" s="102"/>
+      <c r="BB29" s="98"/>
       <c r="BC29" s="30"/>
     </row>
-    <row r="30" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="117"/>
+      <c r="D30" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="113"/>
       <c r="F30" s="64">
         <v>0</v>
       </c>
@@ -4680,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="33">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(F30,G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="65">
@@ -4690,56 +4669,56 @@
       <c r="K30" s="35"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="90"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="86"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="97"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="93"/>
       <c r="U30" s="46"/>
       <c r="V30" s="46"/>
       <c r="W30" s="46"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="97"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="93"/>
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
       <c r="AB30" s="46"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="104"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="100"/>
       <c r="AE30" s="47"/>
       <c r="AF30" s="47"/>
       <c r="AG30" s="47"/>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="97"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="93"/>
       <c r="AJ30" s="46"/>
       <c r="AK30" s="46"/>
       <c r="AL30" s="46"/>
-      <c r="AM30" s="102"/>
-      <c r="AN30" s="97"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="93"/>
       <c r="AO30" s="46"/>
       <c r="AP30" s="46"/>
       <c r="AQ30" s="46"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="110"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="106"/>
       <c r="AT30" s="48"/>
       <c r="AU30" s="48"/>
       <c r="AV30" s="48"/>
-      <c r="AW30" s="112"/>
-      <c r="AX30" s="97"/>
+      <c r="AW30" s="108"/>
+      <c r="AX30" s="93"/>
       <c r="AY30" s="46"/>
       <c r="AZ30" s="46"/>
       <c r="BA30" s="46"/>
-      <c r="BB30" s="102"/>
+      <c r="BB30" s="98"/>
       <c r="BC30" s="30"/>
     </row>
-    <row r="31" spans="2:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="31" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="117"/>
+      <c r="D31" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="113"/>
       <c r="F31" s="64">
         <v>0</v>
       </c>
@@ -4747,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="33">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(F31,G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="65">
@@ -4757,58 +4736,56 @@
       <c r="K31" s="35"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="90"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="86"/>
       <c r="P31" s="44"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="97"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="93"/>
       <c r="U31" s="46"/>
       <c r="V31" s="46"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="97"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="93"/>
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
       <c r="AB31" s="46"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="104"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="100"/>
       <c r="AE31" s="47"/>
       <c r="AF31" s="47"/>
       <c r="AG31" s="47"/>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="97"/>
+      <c r="AH31" s="103"/>
+      <c r="AI31" s="93"/>
       <c r="AJ31" s="46"/>
       <c r="AK31" s="46"/>
       <c r="AL31" s="46"/>
-      <c r="AM31" s="102"/>
-      <c r="AN31" s="97"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="93"/>
       <c r="AO31" s="46"/>
       <c r="AP31" s="46"/>
       <c r="AQ31" s="46"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="110"/>
+      <c r="AR31" s="98"/>
+      <c r="AS31" s="106"/>
       <c r="AT31" s="48"/>
       <c r="AU31" s="48"/>
       <c r="AV31" s="48"/>
-      <c r="AW31" s="112"/>
-      <c r="AX31" s="97"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="93"/>
       <c r="AY31" s="46"/>
       <c r="AZ31" s="46"/>
       <c r="BA31" s="46"/>
-      <c r="BB31" s="102"/>
+      <c r="BB31" s="98"/>
       <c r="BC31" s="30"/>
     </row>
-    <row r="32" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B32" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="117"/>
+    <row r="32" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="113"/>
       <c r="F32" s="64">
         <v>0</v>
       </c>
@@ -4816,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <f>NETWORKDAYS(F32,G32)</f>
+        <f t="shared" ref="H32:H59" si="4">NETWORKDAYS(F32,G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="65">
@@ -4826,56 +4803,56 @@
       <c r="K32" s="35"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="90"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="86"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="97"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="93"/>
       <c r="U32" s="46"/>
       <c r="V32" s="46"/>
       <c r="W32" s="46"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="97"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="93"/>
       <c r="Z32" s="46"/>
       <c r="AA32" s="46"/>
       <c r="AB32" s="46"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="104"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="100"/>
       <c r="AE32" s="47"/>
       <c r="AF32" s="47"/>
       <c r="AG32" s="47"/>
-      <c r="AH32" s="107"/>
-      <c r="AI32" s="97"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="93"/>
       <c r="AJ32" s="46"/>
       <c r="AK32" s="46"/>
       <c r="AL32" s="46"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="97"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="93"/>
       <c r="AO32" s="46"/>
       <c r="AP32" s="46"/>
       <c r="AQ32" s="46"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="110"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="106"/>
       <c r="AT32" s="48"/>
       <c r="AU32" s="48"/>
       <c r="AV32" s="48"/>
-      <c r="AW32" s="112"/>
-      <c r="AX32" s="97"/>
+      <c r="AW32" s="108"/>
+      <c r="AX32" s="93"/>
       <c r="AY32" s="46"/>
       <c r="AZ32" s="46"/>
       <c r="BA32" s="46"/>
-      <c r="BB32" s="102"/>
+      <c r="BB32" s="98"/>
       <c r="BC32" s="30"/>
     </row>
-    <row r="33" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B33" s="31"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="117"/>
+      <c r="D33" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="113"/>
       <c r="F33" s="64">
         <v>0</v>
       </c>
@@ -4883,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="33">
-        <f t="shared" ref="H33" si="4">NETWORKDAYS(F33,G33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="65">
@@ -4893,56 +4870,56 @@
       <c r="K33" s="35"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="90"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="86"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="97"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="93"/>
       <c r="U33" s="46"/>
       <c r="V33" s="46"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="97"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="93"/>
       <c r="Z33" s="46"/>
       <c r="AA33" s="46"/>
       <c r="AB33" s="46"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="104"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="100"/>
       <c r="AE33" s="47"/>
       <c r="AF33" s="47"/>
       <c r="AG33" s="47"/>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="97"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="93"/>
       <c r="AJ33" s="46"/>
       <c r="AK33" s="46"/>
       <c r="AL33" s="46"/>
-      <c r="AM33" s="102"/>
-      <c r="AN33" s="97"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="93"/>
       <c r="AO33" s="46"/>
       <c r="AP33" s="46"/>
       <c r="AQ33" s="46"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="110"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="106"/>
       <c r="AT33" s="48"/>
       <c r="AU33" s="48"/>
       <c r="AV33" s="48"/>
-      <c r="AW33" s="112"/>
-      <c r="AX33" s="97"/>
+      <c r="AW33" s="108"/>
+      <c r="AX33" s="93"/>
       <c r="AY33" s="46"/>
       <c r="AZ33" s="46"/>
       <c r="BA33" s="46"/>
-      <c r="BB33" s="102"/>
+      <c r="BB33" s="98"/>
       <c r="BC33" s="30"/>
     </row>
-    <row r="34" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="117"/>
+      <c r="D34" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="113"/>
       <c r="F34" s="64">
         <v>0</v>
       </c>
@@ -4950,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="33">
-        <f>NETWORKDAYS(F34,G34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="65">
@@ -4960,56 +4937,58 @@
       <c r="K34" s="35"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="90"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="86"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="97"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="93"/>
       <c r="U34" s="46"/>
       <c r="V34" s="46"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="97"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="93"/>
       <c r="Z34" s="46"/>
       <c r="AA34" s="46"/>
       <c r="AB34" s="46"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="104"/>
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="100"/>
       <c r="AE34" s="47"/>
       <c r="AF34" s="47"/>
       <c r="AG34" s="47"/>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="97"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="93"/>
       <c r="AJ34" s="46"/>
       <c r="AK34" s="46"/>
       <c r="AL34" s="46"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="97"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="93"/>
       <c r="AO34" s="46"/>
       <c r="AP34" s="46"/>
       <c r="AQ34" s="46"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="110"/>
+      <c r="AR34" s="98"/>
+      <c r="AS34" s="106"/>
       <c r="AT34" s="48"/>
       <c r="AU34" s="48"/>
       <c r="AV34" s="48"/>
-      <c r="AW34" s="112"/>
-      <c r="AX34" s="97"/>
+      <c r="AW34" s="108"/>
+      <c r="AX34" s="93"/>
       <c r="AY34" s="46"/>
       <c r="AZ34" s="46"/>
       <c r="BA34" s="46"/>
-      <c r="BB34" s="102"/>
+      <c r="BB34" s="98"/>
       <c r="BC34" s="30"/>
     </row>
-    <row r="35" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="117"/>
+    <row r="35" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B35" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="64">
         <v>0</v>
       </c>
@@ -5017,66 +4996,66 @@
         <v>0</v>
       </c>
       <c r="H35" s="33">
-        <f>NETWORKDAYS(F35,G35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="65">
         <v>0</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="90"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="86"/>
       <c r="P35" s="44"/>
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="102"/>
-      <c r="AN35" s="97"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="110"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="48"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="112"/>
-      <c r="AX35" s="97"/>
-      <c r="AY35" s="46"/>
-      <c r="AZ35" s="46"/>
-      <c r="BA35" s="46"/>
-      <c r="BB35" s="102"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="101"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="99"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="99"/>
+      <c r="AS35" s="107"/>
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="109"/>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="99"/>
       <c r="BC35" s="30"/>
     </row>
-    <row r="36" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="36" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B36" s="31"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="117"/>
+      <c r="D36" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="113"/>
       <c r="F36" s="64">
         <v>0</v>
       </c>
@@ -5084,66 +5063,66 @@
         <v>0</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" ref="H36:H63" si="5">NETWORKDAYS(F36,G36)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="65">
         <v>0</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="90"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="86"/>
       <c r="P36" s="44"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="102"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="102"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="97"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="110"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="48"/>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="112"/>
-      <c r="AX36" s="97"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="46"/>
-      <c r="BA36" s="46"/>
-      <c r="BB36" s="102"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="94"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="99"/>
+      <c r="AS36" s="107"/>
+      <c r="AT36" s="50"/>
+      <c r="AU36" s="50"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="109"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="43"/>
+      <c r="BB36" s="99"/>
       <c r="BC36" s="30"/>
     </row>
-    <row r="37" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="117"/>
+      <c r="D37" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="113"/>
       <c r="F37" s="64">
         <v>0</v>
       </c>
@@ -5151,66 +5130,66 @@
         <v>0</v>
       </c>
       <c r="H37" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="65">
         <v>0</v>
       </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="90"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="86"/>
       <c r="P37" s="44"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="102"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="102"/>
-      <c r="AN37" s="97"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="102"/>
-      <c r="AS37" s="110"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="112"/>
-      <c r="AX37" s="97"/>
-      <c r="AY37" s="46"/>
-      <c r="AZ37" s="46"/>
-      <c r="BA37" s="46"/>
-      <c r="BB37" s="102"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="101"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="99"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="99"/>
+      <c r="AS37" s="107"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
+      <c r="AV37" s="50"/>
+      <c r="AW37" s="109"/>
+      <c r="AX37" s="94"/>
+      <c r="AY37" s="43"/>
+      <c r="AZ37" s="43"/>
+      <c r="BA37" s="43"/>
+      <c r="BB37" s="99"/>
       <c r="BC37" s="30"/>
     </row>
-    <row r="38" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="117"/>
+      <c r="D38" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="113"/>
       <c r="F38" s="64">
         <v>0</v>
       </c>
@@ -5218,68 +5197,66 @@
         <v>0</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="65">
         <v>0</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="90"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="86"/>
       <c r="P38" s="44"/>
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="102"/>
-      <c r="AN38" s="97"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="110"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="48"/>
-      <c r="AV38" s="48"/>
-      <c r="AW38" s="112"/>
-      <c r="AX38" s="97"/>
-      <c r="AY38" s="46"/>
-      <c r="AZ38" s="46"/>
-      <c r="BA38" s="46"/>
-      <c r="BB38" s="102"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="99"/>
+      <c r="Y38" s="94"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="99"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="99"/>
+      <c r="AN38" s="94"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="99"/>
+      <c r="AS38" s="107"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="109"/>
+      <c r="AX38" s="94"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="99"/>
       <c r="BC38" s="30"/>
     </row>
-    <row r="39" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B39" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="117"/>
+    <row r="39" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="113"/>
       <c r="F39" s="64">
         <v>0</v>
       </c>
@@ -5287,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="65">
@@ -5297,56 +5274,58 @@
       <c r="K39" s="39"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="86"/>
       <c r="P39" s="44"/>
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="98"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="94"/>
       <c r="U39" s="43"/>
       <c r="V39" s="43"/>
       <c r="W39" s="43"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="98"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="94"/>
       <c r="Z39" s="43"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="43"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="105"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="101"/>
       <c r="AE39" s="49"/>
       <c r="AF39" s="49"/>
       <c r="AG39" s="49"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="98"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="94"/>
       <c r="AJ39" s="43"/>
       <c r="AK39" s="43"/>
       <c r="AL39" s="43"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="98"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="94"/>
       <c r="AO39" s="43"/>
       <c r="AP39" s="43"/>
       <c r="AQ39" s="43"/>
-      <c r="AR39" s="103"/>
-      <c r="AS39" s="111"/>
+      <c r="AR39" s="99"/>
+      <c r="AS39" s="107"/>
       <c r="AT39" s="50"/>
       <c r="AU39" s="50"/>
       <c r="AV39" s="50"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="98"/>
+      <c r="AW39" s="109"/>
+      <c r="AX39" s="94"/>
       <c r="AY39" s="43"/>
       <c r="AZ39" s="43"/>
       <c r="BA39" s="43"/>
-      <c r="BB39" s="103"/>
+      <c r="BB39" s="99"/>
       <c r="BC39" s="30"/>
     </row>
-    <row r="40" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="117"/>
+    <row r="40" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B40" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="113"/>
       <c r="F40" s="64">
         <v>0</v>
       </c>
@@ -5354,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="65">
@@ -5364,56 +5343,56 @@
       <c r="K40" s="39"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="86"/>
       <c r="P40" s="44"/>
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="98"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="94"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43"/>
       <c r="W40" s="43"/>
-      <c r="X40" s="103"/>
-      <c r="Y40" s="98"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="94"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="43"/>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="105"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="101"/>
       <c r="AE40" s="49"/>
       <c r="AF40" s="49"/>
       <c r="AG40" s="49"/>
-      <c r="AH40" s="109"/>
-      <c r="AI40" s="98"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="94"/>
       <c r="AJ40" s="43"/>
       <c r="AK40" s="43"/>
       <c r="AL40" s="43"/>
-      <c r="AM40" s="103"/>
-      <c r="AN40" s="98"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="94"/>
       <c r="AO40" s="43"/>
       <c r="AP40" s="43"/>
       <c r="AQ40" s="43"/>
-      <c r="AR40" s="103"/>
-      <c r="AS40" s="111"/>
+      <c r="AR40" s="99"/>
+      <c r="AS40" s="107"/>
       <c r="AT40" s="50"/>
       <c r="AU40" s="50"/>
       <c r="AV40" s="50"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="98"/>
+      <c r="AW40" s="109"/>
+      <c r="AX40" s="94"/>
       <c r="AY40" s="43"/>
       <c r="AZ40" s="43"/>
       <c r="BA40" s="43"/>
-      <c r="BB40" s="103"/>
+      <c r="BB40" s="99"/>
       <c r="BC40" s="30"/>
     </row>
-    <row r="41" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="41" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="117"/>
+      <c r="D41" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="113"/>
       <c r="F41" s="64">
         <v>0</v>
       </c>
@@ -5421,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="65">
@@ -5431,56 +5410,56 @@
       <c r="K41" s="39"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="86"/>
       <c r="P41" s="44"/>
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="98"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="94"/>
       <c r="U41" s="43"/>
       <c r="V41" s="43"/>
       <c r="W41" s="43"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="98"/>
+      <c r="X41" s="99"/>
+      <c r="Y41" s="94"/>
       <c r="Z41" s="43"/>
       <c r="AA41" s="43"/>
       <c r="AB41" s="43"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="105"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="101"/>
       <c r="AE41" s="49"/>
       <c r="AF41" s="49"/>
       <c r="AG41" s="49"/>
-      <c r="AH41" s="109"/>
-      <c r="AI41" s="98"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="94"/>
       <c r="AJ41" s="43"/>
       <c r="AK41" s="43"/>
       <c r="AL41" s="43"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="98"/>
+      <c r="AM41" s="99"/>
+      <c r="AN41" s="94"/>
       <c r="AO41" s="43"/>
       <c r="AP41" s="43"/>
       <c r="AQ41" s="43"/>
-      <c r="AR41" s="103"/>
-      <c r="AS41" s="111"/>
+      <c r="AR41" s="99"/>
+      <c r="AS41" s="107"/>
       <c r="AT41" s="50"/>
       <c r="AU41" s="50"/>
       <c r="AV41" s="50"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="98"/>
+      <c r="AW41" s="109"/>
+      <c r="AX41" s="94"/>
       <c r="AY41" s="43"/>
       <c r="AZ41" s="43"/>
       <c r="BA41" s="43"/>
-      <c r="BB41" s="103"/>
+      <c r="BB41" s="99"/>
       <c r="BC41" s="30"/>
     </row>
-    <row r="42" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="42" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="117"/>
+      <c r="D42" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="113"/>
       <c r="F42" s="64">
         <v>0</v>
       </c>
@@ -5488,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I42" s="65">
@@ -5498,56 +5477,56 @@
       <c r="K42" s="39"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="86"/>
       <c r="P42" s="44"/>
       <c r="Q42" s="44"/>
       <c r="R42" s="44"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="98"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="94"/>
       <c r="U42" s="43"/>
       <c r="V42" s="43"/>
       <c r="W42" s="43"/>
-      <c r="X42" s="103"/>
-      <c r="Y42" s="98"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="94"/>
       <c r="Z42" s="43"/>
       <c r="AA42" s="43"/>
       <c r="AB42" s="43"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="105"/>
+      <c r="AC42" s="99"/>
+      <c r="AD42" s="101"/>
       <c r="AE42" s="49"/>
       <c r="AF42" s="49"/>
       <c r="AG42" s="49"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="98"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="94"/>
       <c r="AJ42" s="43"/>
       <c r="AK42" s="43"/>
       <c r="AL42" s="43"/>
-      <c r="AM42" s="103"/>
-      <c r="AN42" s="98"/>
+      <c r="AM42" s="99"/>
+      <c r="AN42" s="94"/>
       <c r="AO42" s="43"/>
       <c r="AP42" s="43"/>
       <c r="AQ42" s="43"/>
-      <c r="AR42" s="103"/>
-      <c r="AS42" s="111"/>
+      <c r="AR42" s="99"/>
+      <c r="AS42" s="107"/>
       <c r="AT42" s="50"/>
       <c r="AU42" s="50"/>
       <c r="AV42" s="50"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="98"/>
+      <c r="AW42" s="109"/>
+      <c r="AX42" s="94"/>
       <c r="AY42" s="43"/>
       <c r="AZ42" s="43"/>
       <c r="BA42" s="43"/>
-      <c r="BB42" s="103"/>
+      <c r="BB42" s="99"/>
       <c r="BC42" s="30"/>
     </row>
-    <row r="43" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="43" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="117"/>
+      <c r="D43" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="113"/>
       <c r="F43" s="64">
         <v>0</v>
       </c>
@@ -5555,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="65">
@@ -5565,58 +5544,56 @@
       <c r="K43" s="39"/>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="86"/>
       <c r="P43" s="44"/>
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="98"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="94"/>
       <c r="U43" s="43"/>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
-      <c r="X43" s="103"/>
-      <c r="Y43" s="98"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="94"/>
       <c r="Z43" s="43"/>
       <c r="AA43" s="43"/>
       <c r="AB43" s="43"/>
-      <c r="AC43" s="103"/>
-      <c r="AD43" s="105"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="101"/>
       <c r="AE43" s="49"/>
       <c r="AF43" s="49"/>
       <c r="AG43" s="49"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="98"/>
+      <c r="AH43" s="105"/>
+      <c r="AI43" s="94"/>
       <c r="AJ43" s="43"/>
       <c r="AK43" s="43"/>
       <c r="AL43" s="43"/>
-      <c r="AM43" s="103"/>
-      <c r="AN43" s="98"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="94"/>
       <c r="AO43" s="43"/>
       <c r="AP43" s="43"/>
       <c r="AQ43" s="43"/>
-      <c r="AR43" s="103"/>
-      <c r="AS43" s="111"/>
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="107"/>
       <c r="AT43" s="50"/>
       <c r="AU43" s="50"/>
       <c r="AV43" s="50"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="98"/>
+      <c r="AW43" s="109"/>
+      <c r="AX43" s="94"/>
       <c r="AY43" s="43"/>
       <c r="AZ43" s="43"/>
       <c r="BA43" s="43"/>
-      <c r="BB43" s="103"/>
+      <c r="BB43" s="99"/>
       <c r="BC43" s="30"/>
     </row>
-    <row r="44" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B44" s="31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="117"/>
+    <row r="44" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="113"/>
       <c r="F44" s="64">
         <v>0</v>
       </c>
@@ -5624,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="65">
@@ -5634,56 +5611,56 @@
       <c r="K44" s="39"/>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="86"/>
       <c r="P44" s="44"/>
       <c r="Q44" s="44"/>
       <c r="R44" s="44"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="98"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="94"/>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="98"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="94"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
       <c r="AB44" s="43"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="105"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="101"/>
       <c r="AE44" s="49"/>
       <c r="AF44" s="49"/>
       <c r="AG44" s="49"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="98"/>
+      <c r="AH44" s="105"/>
+      <c r="AI44" s="94"/>
       <c r="AJ44" s="43"/>
       <c r="AK44" s="43"/>
       <c r="AL44" s="43"/>
-      <c r="AM44" s="103"/>
-      <c r="AN44" s="98"/>
+      <c r="AM44" s="99"/>
+      <c r="AN44" s="94"/>
       <c r="AO44" s="43"/>
       <c r="AP44" s="43"/>
       <c r="AQ44" s="43"/>
-      <c r="AR44" s="103"/>
-      <c r="AS44" s="111"/>
+      <c r="AR44" s="99"/>
+      <c r="AS44" s="107"/>
       <c r="AT44" s="50"/>
       <c r="AU44" s="50"/>
       <c r="AV44" s="50"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="98"/>
+      <c r="AW44" s="109"/>
+      <c r="AX44" s="94"/>
       <c r="AY44" s="43"/>
       <c r="AZ44" s="43"/>
       <c r="BA44" s="43"/>
-      <c r="BB44" s="103"/>
+      <c r="BB44" s="99"/>
       <c r="BC44" s="30"/>
     </row>
-    <row r="45" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="45" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B45" s="31"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="117"/>
+      <c r="D45" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="113"/>
       <c r="F45" s="64">
         <v>0</v>
       </c>
@@ -5691,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="65">
@@ -5701,56 +5678,56 @@
       <c r="K45" s="39"/>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="86"/>
       <c r="P45" s="44"/>
       <c r="Q45" s="44"/>
       <c r="R45" s="44"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="98"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="94"/>
       <c r="U45" s="43"/>
       <c r="V45" s="43"/>
       <c r="W45" s="43"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="98"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="94"/>
       <c r="Z45" s="43"/>
       <c r="AA45" s="43"/>
       <c r="AB45" s="43"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="105"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="101"/>
       <c r="AE45" s="49"/>
       <c r="AF45" s="49"/>
       <c r="AG45" s="49"/>
-      <c r="AH45" s="109"/>
-      <c r="AI45" s="98"/>
+      <c r="AH45" s="105"/>
+      <c r="AI45" s="94"/>
       <c r="AJ45" s="43"/>
       <c r="AK45" s="43"/>
       <c r="AL45" s="43"/>
-      <c r="AM45" s="103"/>
-      <c r="AN45" s="98"/>
+      <c r="AM45" s="99"/>
+      <c r="AN45" s="94"/>
       <c r="AO45" s="43"/>
       <c r="AP45" s="43"/>
       <c r="AQ45" s="43"/>
-      <c r="AR45" s="103"/>
-      <c r="AS45" s="111"/>
+      <c r="AR45" s="99"/>
+      <c r="AS45" s="107"/>
       <c r="AT45" s="50"/>
       <c r="AU45" s="50"/>
       <c r="AV45" s="50"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="98"/>
+      <c r="AW45" s="109"/>
+      <c r="AX45" s="94"/>
       <c r="AY45" s="43"/>
       <c r="AZ45" s="43"/>
       <c r="BA45" s="43"/>
-      <c r="BB45" s="103"/>
+      <c r="BB45" s="99"/>
       <c r="BC45" s="30"/>
     </row>
-    <row r="46" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="46" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B46" s="31"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="117"/>
+      <c r="D46" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="113"/>
       <c r="F46" s="64">
         <v>0</v>
       </c>
@@ -5758,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="65">
@@ -5768,56 +5745,56 @@
       <c r="K46" s="39"/>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="86"/>
       <c r="P46" s="44"/>
       <c r="Q46" s="44"/>
       <c r="R46" s="44"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="98"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="94"/>
       <c r="U46" s="43"/>
       <c r="V46" s="43"/>
       <c r="W46" s="43"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="98"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="94"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="105"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="101"/>
       <c r="AE46" s="49"/>
       <c r="AF46" s="49"/>
       <c r="AG46" s="49"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="98"/>
+      <c r="AH46" s="105"/>
+      <c r="AI46" s="94"/>
       <c r="AJ46" s="43"/>
       <c r="AK46" s="43"/>
       <c r="AL46" s="43"/>
-      <c r="AM46" s="103"/>
-      <c r="AN46" s="98"/>
+      <c r="AM46" s="99"/>
+      <c r="AN46" s="94"/>
       <c r="AO46" s="43"/>
       <c r="AP46" s="43"/>
       <c r="AQ46" s="43"/>
-      <c r="AR46" s="103"/>
-      <c r="AS46" s="111"/>
+      <c r="AR46" s="99"/>
+      <c r="AS46" s="107"/>
       <c r="AT46" s="50"/>
       <c r="AU46" s="50"/>
       <c r="AV46" s="50"/>
-      <c r="AW46" s="113"/>
-      <c r="AX46" s="98"/>
+      <c r="AW46" s="109"/>
+      <c r="AX46" s="94"/>
       <c r="AY46" s="43"/>
       <c r="AZ46" s="43"/>
       <c r="BA46" s="43"/>
-      <c r="BB46" s="103"/>
+      <c r="BB46" s="99"/>
       <c r="BC46" s="30"/>
     </row>
-    <row r="47" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="47" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="31"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="117"/>
+      <c r="D47" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="113"/>
       <c r="F47" s="64">
         <v>0</v>
       </c>
@@ -5825,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="65">
@@ -5835,56 +5812,56 @@
       <c r="K47" s="39"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="86"/>
       <c r="P47" s="44"/>
       <c r="Q47" s="44"/>
       <c r="R47" s="44"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="98"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="94"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
       <c r="W47" s="43"/>
-      <c r="X47" s="103"/>
-      <c r="Y47" s="98"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="94"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="43"/>
       <c r="AB47" s="43"/>
-      <c r="AC47" s="103"/>
-      <c r="AD47" s="105"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="101"/>
       <c r="AE47" s="49"/>
       <c r="AF47" s="49"/>
       <c r="AG47" s="49"/>
-      <c r="AH47" s="109"/>
-      <c r="AI47" s="98"/>
+      <c r="AH47" s="105"/>
+      <c r="AI47" s="94"/>
       <c r="AJ47" s="43"/>
       <c r="AK47" s="43"/>
       <c r="AL47" s="43"/>
-      <c r="AM47" s="103"/>
-      <c r="AN47" s="98"/>
+      <c r="AM47" s="99"/>
+      <c r="AN47" s="94"/>
       <c r="AO47" s="43"/>
       <c r="AP47" s="43"/>
       <c r="AQ47" s="43"/>
-      <c r="AR47" s="103"/>
-      <c r="AS47" s="111"/>
+      <c r="AR47" s="99"/>
+      <c r="AS47" s="107"/>
       <c r="AT47" s="50"/>
       <c r="AU47" s="50"/>
       <c r="AV47" s="50"/>
-      <c r="AW47" s="113"/>
-      <c r="AX47" s="98"/>
+      <c r="AW47" s="109"/>
+      <c r="AX47" s="94"/>
       <c r="AY47" s="43"/>
       <c r="AZ47" s="43"/>
       <c r="BA47" s="43"/>
-      <c r="BB47" s="103"/>
+      <c r="BB47" s="99"/>
       <c r="BC47" s="30"/>
     </row>
-    <row r="48" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="2:55" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B48" s="31"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="117"/>
+      <c r="D48" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="113"/>
       <c r="F48" s="64">
         <v>0</v>
       </c>
@@ -5892,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="65">
@@ -5902,56 +5879,56 @@
       <c r="K48" s="39"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="86"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="44"/>
       <c r="R48" s="44"/>
-      <c r="S48" s="99"/>
-      <c r="T48" s="98"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="94"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
       <c r="W48" s="43"/>
-      <c r="X48" s="103"/>
-      <c r="Y48" s="98"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="94"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
-      <c r="AC48" s="103"/>
-      <c r="AD48" s="105"/>
+      <c r="AC48" s="99"/>
+      <c r="AD48" s="101"/>
       <c r="AE48" s="49"/>
       <c r="AF48" s="49"/>
       <c r="AG48" s="49"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="98"/>
+      <c r="AH48" s="105"/>
+      <c r="AI48" s="94"/>
       <c r="AJ48" s="43"/>
       <c r="AK48" s="43"/>
       <c r="AL48" s="43"/>
-      <c r="AM48" s="103"/>
-      <c r="AN48" s="98"/>
+      <c r="AM48" s="99"/>
+      <c r="AN48" s="94"/>
       <c r="AO48" s="43"/>
       <c r="AP48" s="43"/>
       <c r="AQ48" s="43"/>
-      <c r="AR48" s="103"/>
-      <c r="AS48" s="111"/>
+      <c r="AR48" s="99"/>
+      <c r="AS48" s="107"/>
       <c r="AT48" s="50"/>
       <c r="AU48" s="50"/>
       <c r="AV48" s="50"/>
-      <c r="AW48" s="113"/>
-      <c r="AX48" s="98"/>
+      <c r="AW48" s="109"/>
+      <c r="AX48" s="94"/>
       <c r="AY48" s="43"/>
       <c r="AZ48" s="43"/>
       <c r="BA48" s="43"/>
-      <c r="BB48" s="103"/>
+      <c r="BB48" s="99"/>
       <c r="BC48" s="30"/>
     </row>
-    <row r="49" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="117"/>
+      <c r="D49" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="113"/>
       <c r="F49" s="64">
         <v>0</v>
       </c>
@@ -5959,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="65">
@@ -5969,56 +5946,56 @@
       <c r="K49" s="39"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="86"/>
       <c r="P49" s="44"/>
       <c r="Q49" s="44"/>
       <c r="R49" s="44"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="98"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="94"/>
       <c r="U49" s="43"/>
       <c r="V49" s="43"/>
       <c r="W49" s="43"/>
-      <c r="X49" s="103"/>
-      <c r="Y49" s="98"/>
+      <c r="X49" s="99"/>
+      <c r="Y49" s="94"/>
       <c r="Z49" s="43"/>
       <c r="AA49" s="43"/>
       <c r="AB49" s="43"/>
-      <c r="AC49" s="103"/>
-      <c r="AD49" s="105"/>
+      <c r="AC49" s="99"/>
+      <c r="AD49" s="101"/>
       <c r="AE49" s="49"/>
       <c r="AF49" s="49"/>
       <c r="AG49" s="49"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="98"/>
+      <c r="AH49" s="105"/>
+      <c r="AI49" s="94"/>
       <c r="AJ49" s="43"/>
       <c r="AK49" s="43"/>
       <c r="AL49" s="43"/>
-      <c r="AM49" s="103"/>
-      <c r="AN49" s="98"/>
+      <c r="AM49" s="99"/>
+      <c r="AN49" s="94"/>
       <c r="AO49" s="43"/>
       <c r="AP49" s="43"/>
       <c r="AQ49" s="43"/>
-      <c r="AR49" s="103"/>
-      <c r="AS49" s="111"/>
+      <c r="AR49" s="99"/>
+      <c r="AS49" s="107"/>
       <c r="AT49" s="50"/>
       <c r="AU49" s="50"/>
       <c r="AV49" s="50"/>
-      <c r="AW49" s="113"/>
-      <c r="AX49" s="98"/>
+      <c r="AW49" s="109"/>
+      <c r="AX49" s="94"/>
       <c r="AY49" s="43"/>
       <c r="AZ49" s="43"/>
       <c r="BA49" s="43"/>
-      <c r="BB49" s="103"/>
+      <c r="BB49" s="99"/>
       <c r="BC49" s="30"/>
     </row>
-    <row r="50" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="50" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="31"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="117"/>
+      <c r="D50" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="113"/>
       <c r="F50" s="64">
         <v>0</v>
       </c>
@@ -6026,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="65">
@@ -6036,56 +6013,58 @@
       <c r="K50" s="39"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="86"/>
       <c r="P50" s="44"/>
       <c r="Q50" s="44"/>
       <c r="R50" s="44"/>
-      <c r="S50" s="99"/>
-      <c r="T50" s="98"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="94"/>
       <c r="U50" s="43"/>
       <c r="V50" s="43"/>
       <c r="W50" s="43"/>
-      <c r="X50" s="103"/>
-      <c r="Y50" s="98"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="94"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="43"/>
-      <c r="AC50" s="103"/>
-      <c r="AD50" s="105"/>
+      <c r="AC50" s="99"/>
+      <c r="AD50" s="101"/>
       <c r="AE50" s="49"/>
       <c r="AF50" s="49"/>
       <c r="AG50" s="49"/>
-      <c r="AH50" s="109"/>
-      <c r="AI50" s="98"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="94"/>
       <c r="AJ50" s="43"/>
       <c r="AK50" s="43"/>
       <c r="AL50" s="43"/>
-      <c r="AM50" s="103"/>
-      <c r="AN50" s="98"/>
+      <c r="AM50" s="99"/>
+      <c r="AN50" s="94"/>
       <c r="AO50" s="43"/>
       <c r="AP50" s="43"/>
       <c r="AQ50" s="43"/>
-      <c r="AR50" s="103"/>
-      <c r="AS50" s="111"/>
+      <c r="AR50" s="99"/>
+      <c r="AS50" s="107"/>
       <c r="AT50" s="50"/>
       <c r="AU50" s="50"/>
       <c r="AV50" s="50"/>
-      <c r="AW50" s="113"/>
-      <c r="AX50" s="98"/>
+      <c r="AW50" s="109"/>
+      <c r="AX50" s="94"/>
       <c r="AY50" s="43"/>
       <c r="AZ50" s="43"/>
       <c r="BA50" s="43"/>
-      <c r="BB50" s="103"/>
+      <c r="BB50" s="99"/>
       <c r="BC50" s="30"/>
     </row>
-    <row r="51" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="117"/>
+    <row r="51" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B51" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="82"/>
+      <c r="E51" s="113"/>
       <c r="F51" s="64">
         <v>0</v>
       </c>
@@ -6093,66 +6072,66 @@
         <v>0</v>
       </c>
       <c r="H51" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="65">
         <v>0</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="90"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="86"/>
       <c r="P51" s="44"/>
       <c r="Q51" s="44"/>
       <c r="R51" s="44"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="98"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="103"/>
-      <c r="Y51" s="98"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
       <c r="AC51" s="103"/>
-      <c r="AD51" s="105"/>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
-      <c r="AG51" s="49"/>
-      <c r="AH51" s="109"/>
-      <c r="AI51" s="98"/>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="103"/>
+      <c r="AI51" s="100"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
       <c r="AM51" s="103"/>
-      <c r="AN51" s="98"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="43"/>
+      <c r="AN51" s="100"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
       <c r="AR51" s="103"/>
-      <c r="AS51" s="111"/>
-      <c r="AT51" s="50"/>
-      <c r="AU51" s="50"/>
-      <c r="AV51" s="50"/>
-      <c r="AW51" s="113"/>
-      <c r="AX51" s="98"/>
-      <c r="AY51" s="43"/>
-      <c r="AZ51" s="43"/>
-      <c r="BA51" s="43"/>
+      <c r="AS51" s="100"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="103"/>
+      <c r="AX51" s="100"/>
+      <c r="AY51" s="47"/>
+      <c r="AZ51" s="47"/>
+      <c r="BA51" s="47"/>
       <c r="BB51" s="103"/>
       <c r="BC51" s="30"/>
     </row>
-    <row r="52" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="31"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="117"/>
+      <c r="D52" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="113"/>
       <c r="F52" s="64">
         <v>0</v>
       </c>
@@ -6160,66 +6139,66 @@
         <v>0</v>
       </c>
       <c r="H52" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="65">
         <v>0</v>
       </c>
-      <c r="J52" s="38"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="90"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="86"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="44"/>
       <c r="R52" s="44"/>
-      <c r="S52" s="99"/>
-      <c r="T52" s="98"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="103"/>
-      <c r="Y52" s="98"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="43"/>
-      <c r="AB52" s="43"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
       <c r="AC52" s="103"/>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="109"/>
-      <c r="AI52" s="98"/>
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="43"/>
-      <c r="AL52" s="43"/>
+      <c r="AD52" s="100"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="103"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="47"/>
       <c r="AM52" s="103"/>
-      <c r="AN52" s="98"/>
-      <c r="AO52" s="43"/>
-      <c r="AP52" s="43"/>
-      <c r="AQ52" s="43"/>
+      <c r="AN52" s="100"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
+      <c r="AQ52" s="47"/>
       <c r="AR52" s="103"/>
-      <c r="AS52" s="111"/>
-      <c r="AT52" s="50"/>
-      <c r="AU52" s="50"/>
-      <c r="AV52" s="50"/>
-      <c r="AW52" s="113"/>
-      <c r="AX52" s="98"/>
-      <c r="AY52" s="43"/>
-      <c r="AZ52" s="43"/>
-      <c r="BA52" s="43"/>
+      <c r="AS52" s="100"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="103"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="47"/>
+      <c r="AZ52" s="47"/>
+      <c r="BA52" s="47"/>
       <c r="BB52" s="103"/>
       <c r="BC52" s="30"/>
     </row>
-    <row r="53" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="117"/>
+      <c r="E53" s="113"/>
       <c r="F53" s="64">
         <v>0</v>
       </c>
@@ -6227,68 +6206,66 @@
         <v>0</v>
       </c>
       <c r="H53" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="65">
         <v>0</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="90"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="86"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="44"/>
       <c r="R53" s="44"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="98"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="103"/>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="100"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
       <c r="AC53" s="103"/>
-      <c r="AD53" s="105"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="109"/>
-      <c r="AI53" s="98"/>
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="43"/>
-      <c r="AL53" s="43"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="103"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
       <c r="AM53" s="103"/>
-      <c r="AN53" s="98"/>
-      <c r="AO53" s="43"/>
-      <c r="AP53" s="43"/>
-      <c r="AQ53" s="43"/>
+      <c r="AN53" s="100"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
+      <c r="AQ53" s="47"/>
       <c r="AR53" s="103"/>
-      <c r="AS53" s="111"/>
-      <c r="AT53" s="50"/>
-      <c r="AU53" s="50"/>
-      <c r="AV53" s="50"/>
-      <c r="AW53" s="113"/>
-      <c r="AX53" s="98"/>
-      <c r="AY53" s="43"/>
-      <c r="AZ53" s="43"/>
-      <c r="BA53" s="43"/>
+      <c r="AS53" s="100"/>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="47"/>
+      <c r="AW53" s="103"/>
+      <c r="AX53" s="100"/>
+      <c r="AY53" s="47"/>
+      <c r="AZ53" s="47"/>
+      <c r="BA53" s="47"/>
       <c r="BB53" s="103"/>
       <c r="BC53" s="30"/>
     </row>
-    <row r="54" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B54" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="117"/>
+    <row r="54" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="113"/>
       <c r="F54" s="64">
         <v>0</v>
       </c>
@@ -6296,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I54" s="65">
@@ -6306,56 +6283,56 @@
       <c r="K54" s="35"/>
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="90"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="86"/>
       <c r="P54" s="44"/>
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="97"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="93"/>
       <c r="U54" s="46"/>
       <c r="V54" s="46"/>
       <c r="W54" s="46"/>
-      <c r="X54" s="102"/>
-      <c r="Y54" s="104"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="100"/>
       <c r="Z54" s="47"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="47"/>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="104"/>
+      <c r="AC54" s="103"/>
+      <c r="AD54" s="100"/>
       <c r="AE54" s="47"/>
       <c r="AF54" s="47"/>
       <c r="AG54" s="47"/>
-      <c r="AH54" s="107"/>
-      <c r="AI54" s="104"/>
+      <c r="AH54" s="103"/>
+      <c r="AI54" s="100"/>
       <c r="AJ54" s="47"/>
       <c r="AK54" s="47"/>
       <c r="AL54" s="47"/>
-      <c r="AM54" s="107"/>
-      <c r="AN54" s="104"/>
+      <c r="AM54" s="103"/>
+      <c r="AN54" s="100"/>
       <c r="AO54" s="47"/>
       <c r="AP54" s="47"/>
       <c r="AQ54" s="47"/>
-      <c r="AR54" s="107"/>
-      <c r="AS54" s="104"/>
+      <c r="AR54" s="103"/>
+      <c r="AS54" s="100"/>
       <c r="AT54" s="47"/>
       <c r="AU54" s="47"/>
       <c r="AV54" s="47"/>
-      <c r="AW54" s="107"/>
-      <c r="AX54" s="104"/>
+      <c r="AW54" s="103"/>
+      <c r="AX54" s="100"/>
       <c r="AY54" s="47"/>
       <c r="AZ54" s="47"/>
       <c r="BA54" s="47"/>
-      <c r="BB54" s="107"/>
+      <c r="BB54" s="103"/>
       <c r="BC54" s="30"/>
     </row>
-    <row r="55" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="55" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="117"/>
+      <c r="D55" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="113"/>
       <c r="F55" s="64">
         <v>0</v>
       </c>
@@ -6363,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I55" s="65">
@@ -6373,65 +6350,67 @@
       <c r="K55" s="35"/>
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="90"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="86"/>
       <c r="P55" s="44"/>
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
-      <c r="S55" s="99"/>
-      <c r="T55" s="97"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="93"/>
       <c r="U55" s="46"/>
       <c r="V55" s="46"/>
       <c r="W55" s="46"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="107"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="107"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="104"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="107"/>
-      <c r="AS55" s="104"/>
-      <c r="AT55" s="47"/>
-      <c r="AU55" s="47"/>
-      <c r="AV55" s="47"/>
-      <c r="AW55" s="107"/>
-      <c r="AX55" s="104"/>
-      <c r="AY55" s="47"/>
-      <c r="AZ55" s="47"/>
-      <c r="BA55" s="47"/>
-      <c r="BB55" s="107"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="101"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="101"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="101"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="49"/>
+      <c r="AL55" s="49"/>
+      <c r="AM55" s="105"/>
+      <c r="AN55" s="101"/>
+      <c r="AO55" s="49"/>
+      <c r="AP55" s="49"/>
+      <c r="AQ55" s="49"/>
+      <c r="AR55" s="105"/>
+      <c r="AS55" s="101"/>
+      <c r="AT55" s="49"/>
+      <c r="AU55" s="49"/>
+      <c r="AV55" s="49"/>
+      <c r="AW55" s="105"/>
+      <c r="AX55" s="101"/>
+      <c r="AY55" s="49"/>
+      <c r="AZ55" s="49"/>
+      <c r="BA55" s="49"/>
+      <c r="BB55" s="105"/>
       <c r="BC55" s="30"/>
     </row>
-    <row r="56" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="117"/>
+    <row r="56" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B56" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="82"/>
+      <c r="E56" s="113"/>
       <c r="F56" s="64">
-        <v>0</v>
-      </c>
-      <c r="G56" s="64">
-        <v>0</v>
-      </c>
-      <c r="H56" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G56" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="33" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I56" s="65">
         <v>0</v>
@@ -6440,56 +6419,56 @@
       <c r="K56" s="35"/>
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="90"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="86"/>
       <c r="P56" s="44"/>
       <c r="Q56" s="44"/>
       <c r="R56" s="44"/>
-      <c r="S56" s="99"/>
-      <c r="T56" s="97"/>
+      <c r="S56" s="95"/>
+      <c r="T56" s="93"/>
       <c r="U56" s="46"/>
       <c r="V56" s="46"/>
       <c r="W56" s="46"/>
-      <c r="X56" s="102"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="107"/>
-      <c r="AD56" s="104"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="107"/>
-      <c r="AI56" s="104"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="47"/>
-      <c r="AL56" s="47"/>
-      <c r="AM56" s="107"/>
-      <c r="AN56" s="104"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
-      <c r="AQ56" s="47"/>
-      <c r="AR56" s="107"/>
-      <c r="AS56" s="104"/>
-      <c r="AT56" s="47"/>
-      <c r="AU56" s="47"/>
-      <c r="AV56" s="47"/>
-      <c r="AW56" s="107"/>
-      <c r="AX56" s="104"/>
-      <c r="AY56" s="47"/>
-      <c r="AZ56" s="47"/>
-      <c r="BA56" s="47"/>
-      <c r="BB56" s="107"/>
+      <c r="X56" s="98"/>
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="105"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="49"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="105"/>
+      <c r="AI56" s="101"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="49"/>
+      <c r="AL56" s="49"/>
+      <c r="AM56" s="105"/>
+      <c r="AN56" s="101"/>
+      <c r="AO56" s="49"/>
+      <c r="AP56" s="49"/>
+      <c r="AQ56" s="49"/>
+      <c r="AR56" s="105"/>
+      <c r="AS56" s="101"/>
+      <c r="AT56" s="49"/>
+      <c r="AU56" s="49"/>
+      <c r="AV56" s="49"/>
+      <c r="AW56" s="105"/>
+      <c r="AX56" s="101"/>
+      <c r="AY56" s="49"/>
+      <c r="AZ56" s="49"/>
+      <c r="BA56" s="49"/>
+      <c r="BB56" s="105"/>
       <c r="BC56" s="30"/>
     </row>
-    <row r="57" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="57" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="31"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="117"/>
+      <c r="D57" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="113"/>
       <c r="F57" s="64">
         <v>0</v>
       </c>
@@ -6497,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I57" s="65">
@@ -6507,56 +6486,56 @@
       <c r="K57" s="35"/>
       <c r="L57" s="37"/>
       <c r="M57" s="37"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="90"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="86"/>
       <c r="P57" s="44"/>
       <c r="Q57" s="44"/>
       <c r="R57" s="44"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="97"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="93"/>
       <c r="U57" s="46"/>
       <c r="V57" s="46"/>
       <c r="W57" s="46"/>
-      <c r="X57" s="102"/>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="47"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="47"/>
-      <c r="AC57" s="107"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="107"/>
-      <c r="AI57" s="104"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="47"/>
-      <c r="AL57" s="47"/>
-      <c r="AM57" s="107"/>
-      <c r="AN57" s="104"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
-      <c r="AQ57" s="47"/>
-      <c r="AR57" s="107"/>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="47"/>
-      <c r="AU57" s="47"/>
-      <c r="AV57" s="47"/>
-      <c r="AW57" s="107"/>
-      <c r="AX57" s="104"/>
-      <c r="AY57" s="47"/>
-      <c r="AZ57" s="47"/>
-      <c r="BA57" s="47"/>
-      <c r="BB57" s="107"/>
+      <c r="X57" s="98"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="105"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="105"/>
+      <c r="AI57" s="101"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="49"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="105"/>
+      <c r="AN57" s="101"/>
+      <c r="AO57" s="49"/>
+      <c r="AP57" s="49"/>
+      <c r="AQ57" s="49"/>
+      <c r="AR57" s="105"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="49"/>
+      <c r="AU57" s="49"/>
+      <c r="AV57" s="49"/>
+      <c r="AW57" s="105"/>
+      <c r="AX57" s="101"/>
+      <c r="AY57" s="49"/>
+      <c r="AZ57" s="49"/>
+      <c r="BA57" s="49"/>
+      <c r="BB57" s="105"/>
       <c r="BC57" s="30"/>
     </row>
-    <row r="58" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="31"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="117"/>
+      <c r="D58" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="113"/>
       <c r="F58" s="64">
         <v>0</v>
       </c>
@@ -6564,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I58" s="65">
@@ -6574,134 +6553,136 @@
       <c r="K58" s="35"/>
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="90"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="86"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
-      <c r="S58" s="99"/>
-      <c r="T58" s="97"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="93"/>
       <c r="U58" s="46"/>
       <c r="V58" s="46"/>
       <c r="W58" s="46"/>
-      <c r="X58" s="102"/>
-      <c r="Y58" s="105"/>
+      <c r="X58" s="98"/>
+      <c r="Y58" s="101"/>
       <c r="Z58" s="49"/>
       <c r="AA58" s="49"/>
       <c r="AB58" s="49"/>
-      <c r="AC58" s="109"/>
-      <c r="AD58" s="105"/>
+      <c r="AC58" s="105"/>
+      <c r="AD58" s="101"/>
       <c r="AE58" s="49"/>
       <c r="AF58" s="49"/>
       <c r="AG58" s="49"/>
-      <c r="AH58" s="109"/>
-      <c r="AI58" s="105"/>
+      <c r="AH58" s="105"/>
+      <c r="AI58" s="101"/>
       <c r="AJ58" s="49"/>
       <c r="AK58" s="49"/>
       <c r="AL58" s="49"/>
-      <c r="AM58" s="109"/>
-      <c r="AN58" s="105"/>
+      <c r="AM58" s="105"/>
+      <c r="AN58" s="101"/>
       <c r="AO58" s="49"/>
       <c r="AP58" s="49"/>
       <c r="AQ58" s="49"/>
-      <c r="AR58" s="109"/>
-      <c r="AS58" s="105"/>
+      <c r="AR58" s="105"/>
+      <c r="AS58" s="101"/>
       <c r="AT58" s="49"/>
       <c r="AU58" s="49"/>
       <c r="AV58" s="49"/>
-      <c r="AW58" s="109"/>
-      <c r="AX58" s="105"/>
+      <c r="AW58" s="105"/>
+      <c r="AX58" s="101"/>
       <c r="AY58" s="49"/>
       <c r="AZ58" s="49"/>
       <c r="BA58" s="49"/>
-      <c r="BB58" s="109"/>
+      <c r="BB58" s="105"/>
       <c r="BC58" s="30"/>
     </row>
-    <row r="59" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B59" s="31">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C59" s="85" t="s">
+    <row r="59" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="117"/>
       <c r="F59" s="64">
-        <v>0</v>
-      </c>
-      <c r="G59" s="64">
-        <v>0</v>
-      </c>
-      <c r="H59" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="33" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I59" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J59" s="34"/>
       <c r="K59" s="35"/>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="90"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="123"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
-      <c r="S59" s="99"/>
-      <c r="T59" s="97"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="93"/>
       <c r="U59" s="46"/>
       <c r="V59" s="46"/>
       <c r="W59" s="46"/>
-      <c r="X59" s="102"/>
-      <c r="Y59" s="105"/>
+      <c r="X59" s="98"/>
+      <c r="Y59" s="101"/>
       <c r="Z59" s="49"/>
       <c r="AA59" s="49"/>
       <c r="AB59" s="49"/>
-      <c r="AC59" s="109"/>
-      <c r="AD59" s="105"/>
+      <c r="AC59" s="105"/>
+      <c r="AD59" s="101"/>
       <c r="AE59" s="49"/>
       <c r="AF59" s="49"/>
       <c r="AG59" s="49"/>
-      <c r="AH59" s="109"/>
-      <c r="AI59" s="105"/>
+      <c r="AH59" s="105"/>
+      <c r="AI59" s="101"/>
       <c r="AJ59" s="49"/>
       <c r="AK59" s="49"/>
       <c r="AL59" s="49"/>
-      <c r="AM59" s="109"/>
-      <c r="AN59" s="105"/>
+      <c r="AM59" s="105"/>
+      <c r="AN59" s="101"/>
       <c r="AO59" s="49"/>
       <c r="AP59" s="49"/>
       <c r="AQ59" s="49"/>
-      <c r="AR59" s="109"/>
-      <c r="AS59" s="105"/>
+      <c r="AR59" s="105"/>
+      <c r="AS59" s="101"/>
       <c r="AT59" s="49"/>
       <c r="AU59" s="49"/>
       <c r="AV59" s="49"/>
-      <c r="AW59" s="109"/>
-      <c r="AX59" s="105"/>
+      <c r="AW59" s="105"/>
+      <c r="AX59" s="101"/>
       <c r="AY59" s="49"/>
       <c r="AZ59" s="49"/>
       <c r="BA59" s="49"/>
-      <c r="BB59" s="109"/>
+      <c r="BB59" s="105"/>
       <c r="BC59" s="30"/>
     </row>
-    <row r="60" spans="2:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="117"/>
+    <row r="60" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B60" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="82"/>
+      <c r="E60" s="113"/>
       <c r="F60" s="64">
-        <v>0</v>
-      </c>
-      <c r="G60" s="64">
-        <v>0</v>
-      </c>
-      <c r="H60" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G60" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="33" t="e">
+        <f t="shared" ref="H60:H64" si="5">NETWORKDAYS(F60,G60)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I60" s="65">
         <v>0</v>
@@ -6710,197 +6691,201 @@
       <c r="K60" s="35"/>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="90"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="86"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="44"/>
       <c r="R60" s="44"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="97"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="93"/>
       <c r="U60" s="46"/>
       <c r="V60" s="46"/>
       <c r="W60" s="46"/>
-      <c r="X60" s="102"/>
-      <c r="Y60" s="105"/>
+      <c r="X60" s="98"/>
+      <c r="Y60" s="101"/>
       <c r="Z60" s="49"/>
       <c r="AA60" s="49"/>
       <c r="AB60" s="49"/>
-      <c r="AC60" s="109"/>
-      <c r="AD60" s="105"/>
+      <c r="AC60" s="105"/>
+      <c r="AD60" s="101"/>
       <c r="AE60" s="49"/>
       <c r="AF60" s="49"/>
       <c r="AG60" s="49"/>
-      <c r="AH60" s="109"/>
-      <c r="AI60" s="105"/>
+      <c r="AH60" s="105"/>
+      <c r="AI60" s="101"/>
       <c r="AJ60" s="49"/>
       <c r="AK60" s="49"/>
       <c r="AL60" s="49"/>
-      <c r="AM60" s="109"/>
-      <c r="AN60" s="105"/>
+      <c r="AM60" s="105"/>
+      <c r="AN60" s="101"/>
       <c r="AO60" s="49"/>
       <c r="AP60" s="49"/>
       <c r="AQ60" s="49"/>
-      <c r="AR60" s="109"/>
-      <c r="AS60" s="105"/>
+      <c r="AR60" s="105"/>
+      <c r="AS60" s="101"/>
       <c r="AT60" s="49"/>
       <c r="AU60" s="49"/>
       <c r="AV60" s="49"/>
-      <c r="AW60" s="109"/>
-      <c r="AX60" s="105"/>
+      <c r="AW60" s="105"/>
+      <c r="AX60" s="101"/>
       <c r="AY60" s="49"/>
       <c r="AZ60" s="49"/>
       <c r="BA60" s="49"/>
-      <c r="BB60" s="109"/>
+      <c r="BB60" s="105"/>
       <c r="BC60" s="30"/>
     </row>
-    <row r="61" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="61" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B61" s="31"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="117"/>
+      <c r="D61" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="113" t="s">
+        <v>112</v>
+      </c>
       <c r="F61" s="64">
-        <v>0</v>
-      </c>
-      <c r="G61" s="64">
-        <v>0</v>
-      </c>
-      <c r="H61" s="33">
+        <v>45565</v>
+      </c>
+      <c r="G61" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="33" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J61" s="34"/>
       <c r="K61" s="35"/>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="90"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="44"/>
       <c r="R61" s="44"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="97"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="93"/>
       <c r="U61" s="46"/>
       <c r="V61" s="46"/>
       <c r="W61" s="46"/>
-      <c r="X61" s="102"/>
-      <c r="Y61" s="105"/>
+      <c r="X61" s="98"/>
+      <c r="Y61" s="101"/>
       <c r="Z61" s="49"/>
       <c r="AA61" s="49"/>
       <c r="AB61" s="49"/>
-      <c r="AC61" s="109"/>
-      <c r="AD61" s="105"/>
+      <c r="AC61" s="105"/>
+      <c r="AD61" s="101"/>
       <c r="AE61" s="49"/>
       <c r="AF61" s="49"/>
       <c r="AG61" s="49"/>
-      <c r="AH61" s="109"/>
-      <c r="AI61" s="105"/>
+      <c r="AH61" s="105"/>
+      <c r="AI61" s="101"/>
       <c r="AJ61" s="49"/>
       <c r="AK61" s="49"/>
       <c r="AL61" s="49"/>
-      <c r="AM61" s="109"/>
-      <c r="AN61" s="105"/>
+      <c r="AM61" s="105"/>
+      <c r="AN61" s="101"/>
       <c r="AO61" s="49"/>
       <c r="AP61" s="49"/>
       <c r="AQ61" s="49"/>
-      <c r="AR61" s="109"/>
-      <c r="AS61" s="105"/>
+      <c r="AR61" s="105"/>
+      <c r="AS61" s="101"/>
       <c r="AT61" s="49"/>
       <c r="AU61" s="49"/>
       <c r="AV61" s="49"/>
-      <c r="AW61" s="109"/>
-      <c r="AX61" s="105"/>
+      <c r="AW61" s="105"/>
+      <c r="AX61" s="101"/>
       <c r="AY61" s="49"/>
       <c r="AZ61" s="49"/>
       <c r="BA61" s="49"/>
-      <c r="BB61" s="109"/>
+      <c r="BB61" s="105"/>
       <c r="BC61" s="30"/>
     </row>
-    <row r="62" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="62" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B62" s="31"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="117"/>
+      <c r="D62" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="113" t="s">
+        <v>109</v>
+      </c>
       <c r="F62" s="64">
-        <v>0</v>
-      </c>
-      <c r="G62" s="64">
-        <v>0</v>
-      </c>
-      <c r="H62" s="33">
+        <v>45565</v>
+      </c>
+      <c r="G62" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="33" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I62" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J62" s="34"/>
       <c r="K62" s="35"/>
       <c r="L62" s="37"/>
       <c r="M62" s="37"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="90"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="123"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="44"/>
       <c r="R62" s="44"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="97"/>
+      <c r="S62" s="95"/>
+      <c r="T62" s="93"/>
       <c r="U62" s="46"/>
       <c r="V62" s="46"/>
       <c r="W62" s="46"/>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="105"/>
+      <c r="X62" s="98"/>
+      <c r="Y62" s="101"/>
       <c r="Z62" s="49"/>
       <c r="AA62" s="49"/>
       <c r="AB62" s="49"/>
-      <c r="AC62" s="109"/>
-      <c r="AD62" s="105"/>
+      <c r="AC62" s="105"/>
+      <c r="AD62" s="101"/>
       <c r="AE62" s="49"/>
       <c r="AF62" s="49"/>
       <c r="AG62" s="49"/>
-      <c r="AH62" s="109"/>
-      <c r="AI62" s="105"/>
+      <c r="AH62" s="105"/>
+      <c r="AI62" s="101"/>
       <c r="AJ62" s="49"/>
       <c r="AK62" s="49"/>
       <c r="AL62" s="49"/>
-      <c r="AM62" s="109"/>
-      <c r="AN62" s="105"/>
+      <c r="AM62" s="105"/>
+      <c r="AN62" s="101"/>
       <c r="AO62" s="49"/>
       <c r="AP62" s="49"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="109"/>
-      <c r="AS62" s="105"/>
+      <c r="AR62" s="105"/>
+      <c r="AS62" s="101"/>
       <c r="AT62" s="49"/>
       <c r="AU62" s="49"/>
       <c r="AV62" s="49"/>
-      <c r="AW62" s="109"/>
-      <c r="AX62" s="105"/>
+      <c r="AW62" s="105"/>
+      <c r="AX62" s="101"/>
       <c r="AY62" s="49"/>
       <c r="AZ62" s="49"/>
       <c r="BA62" s="49"/>
-      <c r="BB62" s="109"/>
+      <c r="BB62" s="105"/>
       <c r="BC62" s="30"/>
     </row>
-    <row r="63" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="63" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="31"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="117" t="s">
-        <v>116</v>
+      <c r="D63" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="113" t="s">
+        <v>109</v>
       </c>
       <c r="F63" s="64">
         <v>45565</v>
       </c>
-      <c r="G63" s="123" t="s">
-        <v>115</v>
+      <c r="G63" s="118" t="s">
+        <v>110</v>
       </c>
       <c r="H63" s="33" t="e">
         <f t="shared" si="5"/>
@@ -6913,412 +6898,406 @@
       <c r="K63" s="35"/>
       <c r="L63" s="37"/>
       <c r="M63" s="37"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="129"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="123"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="44"/>
       <c r="R63" s="44"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="97"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="93"/>
       <c r="U63" s="46"/>
       <c r="V63" s="46"/>
       <c r="W63" s="46"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="105"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="109"/>
-      <c r="AD63" s="105"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="109"/>
-      <c r="AI63" s="105"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="49"/>
-      <c r="AL63" s="49"/>
-      <c r="AM63" s="109"/>
-      <c r="AN63" s="105"/>
-      <c r="AO63" s="49"/>
-      <c r="AP63" s="49"/>
-      <c r="AQ63" s="49"/>
-      <c r="AR63" s="109"/>
-      <c r="AS63" s="105"/>
-      <c r="AT63" s="49"/>
-      <c r="AU63" s="49"/>
-      <c r="AV63" s="49"/>
-      <c r="AW63" s="109"/>
-      <c r="AX63" s="105"/>
-      <c r="AY63" s="49"/>
-      <c r="AZ63" s="49"/>
-      <c r="BA63" s="49"/>
-      <c r="BB63" s="109"/>
+      <c r="X63" s="98"/>
+      <c r="Y63" s="100"/>
+      <c r="Z63" s="47"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="103"/>
+      <c r="AD63" s="100"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="47"/>
+      <c r="AH63" s="103"/>
+      <c r="AI63" s="100"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="47"/>
+      <c r="AL63" s="47"/>
+      <c r="AM63" s="103"/>
+      <c r="AN63" s="100"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
+      <c r="AQ63" s="47"/>
+      <c r="AR63" s="103"/>
+      <c r="AS63" s="100"/>
+      <c r="AT63" s="47"/>
+      <c r="AU63" s="47"/>
+      <c r="AV63" s="47"/>
+      <c r="AW63" s="103"/>
+      <c r="AX63" s="100"/>
+      <c r="AY63" s="47"/>
+      <c r="AZ63" s="47"/>
+      <c r="BA63" s="47"/>
+      <c r="BB63" s="103"/>
       <c r="BC63" s="30"/>
     </row>
-    <row r="64" spans="2:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B64" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="85"/>
-      <c r="E64" s="117"/>
+    <row r="64" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="113" t="s">
+        <v>109</v>
+      </c>
       <c r="F64" s="64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="33">
-        <f t="shared" ref="H64:H68" si="6">NETWORKDAYS(F64,G64)</f>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G64" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I64" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J64" s="34"/>
       <c r="K64" s="35"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="90"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="123"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="44"/>
       <c r="R64" s="44"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="97"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="93"/>
       <c r="U64" s="46"/>
       <c r="V64" s="46"/>
       <c r="W64" s="46"/>
-      <c r="X64" s="102"/>
-      <c r="Y64" s="105"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="109"/>
-      <c r="AD64" s="105"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="109"/>
-      <c r="AI64" s="105"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="109"/>
-      <c r="AN64" s="105"/>
-      <c r="AO64" s="49"/>
-      <c r="AP64" s="49"/>
-      <c r="AQ64" s="49"/>
-      <c r="AR64" s="109"/>
-      <c r="AS64" s="105"/>
-      <c r="AT64" s="49"/>
-      <c r="AU64" s="49"/>
-      <c r="AV64" s="49"/>
-      <c r="AW64" s="109"/>
-      <c r="AX64" s="105"/>
-      <c r="AY64" s="49"/>
-      <c r="AZ64" s="49"/>
-      <c r="BA64" s="49"/>
-      <c r="BB64" s="109"/>
+      <c r="X64" s="98"/>
+      <c r="Y64" s="100"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="103"/>
+      <c r="AD64" s="100"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="103"/>
+      <c r="AI64" s="100"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="47"/>
+      <c r="AL64" s="47"/>
+      <c r="AM64" s="103"/>
+      <c r="AN64" s="100"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
+      <c r="AQ64" s="47"/>
+      <c r="AR64" s="103"/>
+      <c r="AS64" s="100"/>
+      <c r="AT64" s="47"/>
+      <c r="AU64" s="47"/>
+      <c r="AV64" s="47"/>
+      <c r="AW64" s="103"/>
+      <c r="AX64" s="100"/>
+      <c r="AY64" s="47"/>
+      <c r="AZ64" s="47"/>
+      <c r="BA64" s="47"/>
+      <c r="BB64" s="103"/>
       <c r="BC64" s="30"/>
     </row>
-    <row r="65" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="117" t="s">
-        <v>117</v>
-      </c>
+    <row r="65" spans="1:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B65" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="113"/>
+      <c r="E65" s="64"/>
       <c r="F65" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G65" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H65" s="33" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="64">
+        <v>0</v>
+      </c>
+      <c r="H65" s="33">
+        <f t="shared" ref="H65:H68" si="6">NETWORKDAYS(F65,G65)</f>
+        <v>0</v>
       </c>
       <c r="I65" s="65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J65" s="34"/>
       <c r="K65" s="35"/>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="129"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="86"/>
       <c r="P65" s="44"/>
       <c r="Q65" s="44"/>
       <c r="R65" s="44"/>
-      <c r="S65" s="99"/>
-      <c r="T65" s="97"/>
+      <c r="S65" s="95"/>
+      <c r="T65" s="93"/>
       <c r="U65" s="46"/>
       <c r="V65" s="46"/>
       <c r="W65" s="46"/>
-      <c r="X65" s="102"/>
-      <c r="Y65" s="105"/>
+      <c r="X65" s="98"/>
+      <c r="Y65" s="101"/>
       <c r="Z65" s="49"/>
       <c r="AA65" s="49"/>
       <c r="AB65" s="49"/>
-      <c r="AC65" s="109"/>
-      <c r="AD65" s="105"/>
+      <c r="AC65" s="105"/>
+      <c r="AD65" s="101"/>
       <c r="AE65" s="49"/>
       <c r="AF65" s="49"/>
       <c r="AG65" s="49"/>
-      <c r="AH65" s="109"/>
-      <c r="AI65" s="105"/>
+      <c r="AH65" s="105"/>
+      <c r="AI65" s="101"/>
       <c r="AJ65" s="49"/>
       <c r="AK65" s="49"/>
       <c r="AL65" s="49"/>
-      <c r="AM65" s="109"/>
-      <c r="AN65" s="105"/>
+      <c r="AM65" s="105"/>
+      <c r="AN65" s="101"/>
       <c r="AO65" s="49"/>
       <c r="AP65" s="49"/>
       <c r="AQ65" s="49"/>
-      <c r="AR65" s="109"/>
-      <c r="AS65" s="105"/>
+      <c r="AR65" s="105"/>
+      <c r="AS65" s="101"/>
       <c r="AT65" s="49"/>
       <c r="AU65" s="49"/>
       <c r="AV65" s="49"/>
-      <c r="AW65" s="109"/>
-      <c r="AX65" s="105"/>
+      <c r="AW65" s="105"/>
+      <c r="AX65" s="101"/>
       <c r="AY65" s="49"/>
       <c r="AZ65" s="49"/>
       <c r="BA65" s="49"/>
-      <c r="BB65" s="109"/>
+      <c r="BB65" s="105"/>
       <c r="BC65" s="30"/>
     </row>
-    <row r="66" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B66" s="31"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="117" t="s">
-        <v>114</v>
-      </c>
+      <c r="D66" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="64"/>
       <c r="F66" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G66" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="33" t="e">
+        <v>0</v>
+      </c>
+      <c r="G66" s="64">
+        <v>0</v>
+      </c>
+      <c r="H66" s="33">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I66" s="65">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="I66" s="121">
+        <v>0</v>
       </c>
       <c r="J66" s="34"/>
       <c r="K66" s="35"/>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="129"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="86"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="44"/>
       <c r="R66" s="44"/>
-      <c r="S66" s="99"/>
-      <c r="T66" s="97"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="93"/>
       <c r="U66" s="46"/>
       <c r="V66" s="46"/>
       <c r="W66" s="46"/>
-      <c r="X66" s="102"/>
-      <c r="Y66" s="105"/>
+      <c r="X66" s="98"/>
+      <c r="Y66" s="101"/>
       <c r="Z66" s="49"/>
       <c r="AA66" s="49"/>
       <c r="AB66" s="49"/>
-      <c r="AC66" s="109"/>
-      <c r="AD66" s="105"/>
+      <c r="AC66" s="105"/>
+      <c r="AD66" s="101"/>
       <c r="AE66" s="49"/>
       <c r="AF66" s="49"/>
       <c r="AG66" s="49"/>
-      <c r="AH66" s="109"/>
-      <c r="AI66" s="105"/>
+      <c r="AH66" s="105"/>
+      <c r="AI66" s="101"/>
       <c r="AJ66" s="49"/>
       <c r="AK66" s="49"/>
       <c r="AL66" s="49"/>
-      <c r="AM66" s="109"/>
-      <c r="AN66" s="105"/>
+      <c r="AM66" s="105"/>
+      <c r="AN66" s="101"/>
       <c r="AO66" s="49"/>
       <c r="AP66" s="49"/>
       <c r="AQ66" s="49"/>
-      <c r="AR66" s="109"/>
-      <c r="AS66" s="105"/>
+      <c r="AR66" s="105"/>
+      <c r="AS66" s="101"/>
       <c r="AT66" s="49"/>
       <c r="AU66" s="49"/>
       <c r="AV66" s="49"/>
-      <c r="AW66" s="109"/>
-      <c r="AX66" s="105"/>
+      <c r="AW66" s="105"/>
+      <c r="AX66" s="101"/>
       <c r="AY66" s="49"/>
       <c r="AZ66" s="49"/>
       <c r="BA66" s="49"/>
-      <c r="BB66" s="109"/>
+      <c r="BB66" s="105"/>
       <c r="BC66" s="30"/>
     </row>
-    <row r="67" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:55" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B67" s="31"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="117" t="s">
-        <v>114</v>
-      </c>
+      <c r="D67" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="64"/>
       <c r="F67" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G67" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="33" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" s="65">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="G67" s="64">
+        <v>0</v>
+      </c>
+      <c r="H67" s="33">
+        <f t="shared" ref="H67" si="7">NETWORKDAYS(F67,G67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="121">
+        <v>0</v>
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="35"/>
       <c r="L67" s="37"/>
       <c r="M67" s="37"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="129"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="86"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="44"/>
       <c r="R67" s="44"/>
-      <c r="S67" s="99"/>
-      <c r="T67" s="97"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="93"/>
       <c r="U67" s="46"/>
       <c r="V67" s="46"/>
       <c r="W67" s="46"/>
-      <c r="X67" s="102"/>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="47"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="107"/>
-      <c r="AD67" s="104"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="47"/>
-      <c r="AH67" s="107"/>
-      <c r="AI67" s="104"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="47"/>
-      <c r="AL67" s="47"/>
-      <c r="AM67" s="107"/>
-      <c r="AN67" s="104"/>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47"/>
-      <c r="AQ67" s="47"/>
-      <c r="AR67" s="107"/>
-      <c r="AS67" s="104"/>
-      <c r="AT67" s="47"/>
-      <c r="AU67" s="47"/>
-      <c r="AV67" s="47"/>
-      <c r="AW67" s="107"/>
-      <c r="AX67" s="104"/>
-      <c r="AY67" s="47"/>
-      <c r="AZ67" s="47"/>
-      <c r="BA67" s="47"/>
-      <c r="BB67" s="107"/>
+      <c r="X67" s="98"/>
+      <c r="Y67" s="101"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="105"/>
+      <c r="AD67" s="101"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="105"/>
+      <c r="AI67" s="101"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="49"/>
+      <c r="AL67" s="49"/>
+      <c r="AM67" s="105"/>
+      <c r="AN67" s="101"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="49"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="105"/>
+      <c r="AS67" s="101"/>
+      <c r="AT67" s="49"/>
+      <c r="AU67" s="49"/>
+      <c r="AV67" s="49"/>
+      <c r="AW67" s="105"/>
+      <c r="AX67" s="101"/>
+      <c r="AY67" s="49"/>
+      <c r="AZ67" s="49"/>
+      <c r="BA67" s="49"/>
+      <c r="BB67" s="105"/>
       <c r="BC67" s="30"/>
     </row>
-    <row r="68" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="68" spans="1:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="117" t="s">
-        <v>114</v>
-      </c>
+      <c r="D68" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="64"/>
       <c r="F68" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G68" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H68" s="33" t="e">
+        <v>0</v>
+      </c>
+      <c r="G68" s="64">
+        <v>0</v>
+      </c>
+      <c r="H68" s="33">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" s="65">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="I68" s="120">
+        <v>0</v>
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="35"/>
       <c r="L68" s="37"/>
       <c r="M68" s="37"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="129"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="86"/>
       <c r="P68" s="44"/>
       <c r="Q68" s="44"/>
       <c r="R68" s="44"/>
-      <c r="S68" s="99"/>
-      <c r="T68" s="97"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="93"/>
       <c r="U68" s="46"/>
       <c r="V68" s="46"/>
       <c r="W68" s="46"/>
-      <c r="X68" s="102"/>
-      <c r="Y68" s="104"/>
-      <c r="Z68" s="47"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="107"/>
-      <c r="AD68" s="104"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="47"/>
-      <c r="AH68" s="107"/>
-      <c r="AI68" s="104"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="47"/>
-      <c r="AL68" s="47"/>
-      <c r="AM68" s="107"/>
-      <c r="AN68" s="104"/>
-      <c r="AO68" s="47"/>
-      <c r="AP68" s="47"/>
-      <c r="AQ68" s="47"/>
-      <c r="AR68" s="107"/>
-      <c r="AS68" s="104"/>
-      <c r="AT68" s="47"/>
-      <c r="AU68" s="47"/>
-      <c r="AV68" s="47"/>
-      <c r="AW68" s="107"/>
-      <c r="AX68" s="104"/>
-      <c r="AY68" s="47"/>
-      <c r="AZ68" s="47"/>
-      <c r="BA68" s="47"/>
-      <c r="BB68" s="107"/>
+      <c r="X68" s="98"/>
+      <c r="Y68" s="101"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="105"/>
+      <c r="AD68" s="101"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="105"/>
+      <c r="AI68" s="101"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+      <c r="AL68" s="49"/>
+      <c r="AM68" s="105"/>
+      <c r="AN68" s="101"/>
+      <c r="AO68" s="49"/>
+      <c r="AP68" s="49"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="105"/>
+      <c r="AS68" s="101"/>
+      <c r="AT68" s="49"/>
+      <c r="AU68" s="49"/>
+      <c r="AV68" s="49"/>
+      <c r="AW68" s="105"/>
+      <c r="AX68" s="101"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="49"/>
+      <c r="BA68" s="49"/>
+      <c r="BB68" s="105"/>
       <c r="BC68" s="30"/>
     </row>
-    <row r="69" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B69" s="31">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="117"/>
-      <c r="E69" s="64"/>
+        <v>119</v>
+      </c>
+      <c r="D69" s="82"/>
+      <c r="E69" s="113"/>
       <c r="F69" s="64">
-        <v>0</v>
-      </c>
-      <c r="G69" s="64">
-        <v>0</v>
-      </c>
-      <c r="H69" s="33">
-        <f t="shared" ref="H69:H71" si="7">NETWORKDAYS(F69,G69)</f>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G69" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="33" t="e">
+        <f>NETWORKDAYS(F69,G69)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I69" s="65">
         <v>0</v>
@@ -7327,56 +7306,56 @@
       <c r="K69" s="35"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="90"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="86"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="44"/>
       <c r="R69" s="44"/>
-      <c r="S69" s="99"/>
-      <c r="T69" s="97"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="93"/>
       <c r="U69" s="46"/>
       <c r="V69" s="46"/>
       <c r="W69" s="46"/>
-      <c r="X69" s="102"/>
-      <c r="Y69" s="105"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="109"/>
-      <c r="AD69" s="105"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="109"/>
-      <c r="AI69" s="105"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="49"/>
-      <c r="AM69" s="109"/>
-      <c r="AN69" s="105"/>
-      <c r="AO69" s="49"/>
-      <c r="AP69" s="49"/>
-      <c r="AQ69" s="49"/>
-      <c r="AR69" s="109"/>
-      <c r="AS69" s="105"/>
-      <c r="AT69" s="49"/>
-      <c r="AU69" s="49"/>
-      <c r="AV69" s="49"/>
-      <c r="AW69" s="109"/>
-      <c r="AX69" s="105"/>
-      <c r="AY69" s="49"/>
-      <c r="AZ69" s="49"/>
-      <c r="BA69" s="49"/>
-      <c r="BB69" s="109"/>
+      <c r="X69" s="98"/>
+      <c r="Y69" s="93"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="98"/>
+      <c r="AD69" s="100"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="103"/>
+      <c r="AI69" s="93"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="98"/>
+      <c r="AN69" s="93"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="46"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="98"/>
+      <c r="AS69" s="106"/>
+      <c r="AT69" s="48"/>
+      <c r="AU69" s="48"/>
+      <c r="AV69" s="48"/>
+      <c r="AW69" s="108"/>
+      <c r="AX69" s="93"/>
+      <c r="AY69" s="46"/>
+      <c r="AZ69" s="46"/>
+      <c r="BA69" s="46"/>
+      <c r="BB69" s="98"/>
       <c r="BC69" s="30"/>
     </row>
-    <row r="70" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:55" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B70" s="31"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="64"/>
+      <c r="D70" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="113"/>
       <c r="F70" s="64">
         <v>0</v>
       </c>
@@ -7384,66 +7363,66 @@
         <v>0</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="127">
+        <f>NETWORKDAYS(F70,G70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="121">
         <v>0</v>
       </c>
       <c r="J70" s="34"/>
       <c r="K70" s="35"/>
       <c r="L70" s="37"/>
       <c r="M70" s="37"/>
-      <c r="N70" s="93"/>
-      <c r="O70" s="90"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="86"/>
       <c r="P70" s="44"/>
       <c r="Q70" s="44"/>
       <c r="R70" s="44"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="97"/>
+      <c r="S70" s="95"/>
+      <c r="T70" s="93"/>
       <c r="U70" s="46"/>
       <c r="V70" s="46"/>
       <c r="W70" s="46"/>
-      <c r="X70" s="102"/>
-      <c r="Y70" s="105"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="109"/>
-      <c r="AD70" s="105"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="109"/>
-      <c r="AI70" s="105"/>
-      <c r="AJ70" s="49"/>
-      <c r="AK70" s="49"/>
-      <c r="AL70" s="49"/>
-      <c r="AM70" s="109"/>
-      <c r="AN70" s="105"/>
-      <c r="AO70" s="49"/>
-      <c r="AP70" s="49"/>
-      <c r="AQ70" s="49"/>
-      <c r="AR70" s="109"/>
-      <c r="AS70" s="105"/>
-      <c r="AT70" s="49"/>
-      <c r="AU70" s="49"/>
-      <c r="AV70" s="49"/>
-      <c r="AW70" s="109"/>
-      <c r="AX70" s="105"/>
-      <c r="AY70" s="49"/>
-      <c r="AZ70" s="49"/>
-      <c r="BA70" s="49"/>
-      <c r="BB70" s="109"/>
+      <c r="X70" s="98"/>
+      <c r="Y70" s="93"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="98"/>
+      <c r="AD70" s="100"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="103"/>
+      <c r="AI70" s="93"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="98"/>
+      <c r="AN70" s="93"/>
+      <c r="AO70" s="46"/>
+      <c r="AP70" s="46"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="98"/>
+      <c r="AS70" s="106"/>
+      <c r="AT70" s="48"/>
+      <c r="AU70" s="48"/>
+      <c r="AV70" s="48"/>
+      <c r="AW70" s="108"/>
+      <c r="AX70" s="93"/>
+      <c r="AY70" s="46"/>
+      <c r="AZ70" s="46"/>
+      <c r="BA70" s="46"/>
+      <c r="BB70" s="98"/>
       <c r="BC70" s="30"/>
     </row>
-    <row r="71" spans="1:55" s="131" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="71" spans="1:55" s="129" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B71" s="31"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="64"/>
+      <c r="D71" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="113"/>
       <c r="F71" s="64">
         <v>0</v>
       </c>
@@ -7451,207 +7430,205 @@
         <v>0</v>
       </c>
       <c r="H71" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="126">
+        <f>NETWORKDAYS(F71,G71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="121">
         <v>0</v>
       </c>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="L71" s="37"/>
       <c r="M71" s="37"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="90"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="86"/>
       <c r="P71" s="44"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="44"/>
-      <c r="S71" s="99"/>
-      <c r="T71" s="97"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="93"/>
       <c r="U71" s="46"/>
       <c r="V71" s="46"/>
       <c r="W71" s="46"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="105"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="109"/>
-      <c r="AD71" s="105"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="109"/>
-      <c r="AI71" s="105"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="49"/>
-      <c r="AL71" s="49"/>
-      <c r="AM71" s="109"/>
-      <c r="AN71" s="105"/>
-      <c r="AO71" s="49"/>
-      <c r="AP71" s="49"/>
-      <c r="AQ71" s="49"/>
-      <c r="AR71" s="109"/>
-      <c r="AS71" s="105"/>
-      <c r="AT71" s="49"/>
-      <c r="AU71" s="49"/>
-      <c r="AV71" s="49"/>
-      <c r="AW71" s="109"/>
-      <c r="AX71" s="105"/>
-      <c r="AY71" s="49"/>
-      <c r="AZ71" s="49"/>
-      <c r="BA71" s="49"/>
-      <c r="BB71" s="109"/>
+      <c r="X71" s="98"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="98"/>
+      <c r="AD71" s="100"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="103"/>
+      <c r="AI71" s="93"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="98"/>
+      <c r="AN71" s="93"/>
+      <c r="AO71" s="46"/>
+      <c r="AP71" s="46"/>
+      <c r="AQ71" s="46"/>
+      <c r="AR71" s="98"/>
+      <c r="AS71" s="106"/>
+      <c r="AT71" s="48"/>
+      <c r="AU71" s="48"/>
+      <c r="AV71" s="48"/>
+      <c r="AW71" s="108"/>
+      <c r="AX71" s="93"/>
+      <c r="AY71" s="46"/>
+      <c r="AZ71" s="46"/>
+      <c r="BA71" s="46"/>
+      <c r="BB71" s="98"/>
       <c r="BC71" s="30"/>
     </row>
-    <row r="72" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B72" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="85"/>
-      <c r="E72" s="117"/>
+    <row r="72" spans="1:55" s="127" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="113" t="s">
+        <v>120</v>
+      </c>
       <c r="F72" s="64">
-        <v>0</v>
-      </c>
-      <c r="G72" s="64">
-        <v>0</v>
-      </c>
-      <c r="H72" s="33">
-        <f>NETWORKDAYS(F72,G72)</f>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G72" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" s="33" t="e">
+        <f t="shared" ref="H72" si="8">NETWORKDAYS(F72,G72)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I72" s="65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="L72" s="37"/>
       <c r="M72" s="37"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="90"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="123"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="44"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="97"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="93"/>
       <c r="U72" s="46"/>
       <c r="V72" s="46"/>
       <c r="W72" s="46"/>
-      <c r="X72" s="102"/>
-      <c r="Y72" s="97"/>
+      <c r="X72" s="98"/>
+      <c r="Y72" s="93"/>
       <c r="Z72" s="46"/>
       <c r="AA72" s="46"/>
       <c r="AB72" s="46"/>
-      <c r="AC72" s="102"/>
-      <c r="AD72" s="104"/>
+      <c r="AC72" s="98"/>
+      <c r="AD72" s="100"/>
       <c r="AE72" s="47"/>
       <c r="AF72" s="47"/>
       <c r="AG72" s="47"/>
-      <c r="AH72" s="107"/>
-      <c r="AI72" s="97"/>
+      <c r="AH72" s="103"/>
+      <c r="AI72" s="93"/>
       <c r="AJ72" s="46"/>
       <c r="AK72" s="46"/>
       <c r="AL72" s="46"/>
-      <c r="AM72" s="102"/>
-      <c r="AN72" s="97"/>
+      <c r="AM72" s="98"/>
+      <c r="AN72" s="93"/>
       <c r="AO72" s="46"/>
       <c r="AP72" s="46"/>
       <c r="AQ72" s="46"/>
-      <c r="AR72" s="102"/>
-      <c r="AS72" s="110"/>
+      <c r="AR72" s="98"/>
+      <c r="AS72" s="106"/>
       <c r="AT72" s="48"/>
       <c r="AU72" s="48"/>
       <c r="AV72" s="48"/>
-      <c r="AW72" s="112"/>
-      <c r="AX72" s="97"/>
+      <c r="AW72" s="108"/>
+      <c r="AX72" s="93"/>
       <c r="AY72" s="46"/>
       <c r="AZ72" s="46"/>
       <c r="BA72" s="46"/>
-      <c r="BB72" s="102"/>
+      <c r="BB72" s="98"/>
       <c r="BC72" s="30"/>
     </row>
-    <row r="73" spans="1:55" s="134" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="117" t="s">
-        <v>126</v>
-      </c>
+    <row r="73" spans="1:55" s="81" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="112"/>
+      <c r="B73" s="117">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="82"/>
+      <c r="E73" s="113"/>
       <c r="F73" s="64">
-        <v>45565</v>
-      </c>
-      <c r="G73" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="H73" s="33" t="e">
-        <f t="shared" ref="H73" si="8">NETWORKDAYS(F73,G73)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="64">
+        <v>0</v>
+      </c>
+      <c r="H73" s="33">
+        <f>NETWORKDAYS(F73,G73)</f>
+        <v>0</v>
       </c>
       <c r="I73" s="65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
       <c r="L73" s="37"/>
       <c r="M73" s="37"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="129"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="86"/>
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
       <c r="R73" s="44"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="97"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="93"/>
       <c r="U73" s="46"/>
       <c r="V73" s="46"/>
       <c r="W73" s="46"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="97"/>
+      <c r="X73" s="98"/>
+      <c r="Y73" s="93"/>
       <c r="Z73" s="46"/>
       <c r="AA73" s="46"/>
       <c r="AB73" s="46"/>
-      <c r="AC73" s="102"/>
-      <c r="AD73" s="104"/>
+      <c r="AC73" s="98"/>
+      <c r="AD73" s="100"/>
       <c r="AE73" s="47"/>
       <c r="AF73" s="47"/>
       <c r="AG73" s="47"/>
-      <c r="AH73" s="107"/>
-      <c r="AI73" s="97"/>
+      <c r="AH73" s="103"/>
+      <c r="AI73" s="93"/>
       <c r="AJ73" s="46"/>
       <c r="AK73" s="46"/>
       <c r="AL73" s="46"/>
-      <c r="AM73" s="102"/>
-      <c r="AN73" s="97"/>
+      <c r="AM73" s="98"/>
+      <c r="AN73" s="93"/>
       <c r="AO73" s="46"/>
       <c r="AP73" s="46"/>
       <c r="AQ73" s="46"/>
-      <c r="AR73" s="102"/>
-      <c r="AS73" s="110"/>
+      <c r="AR73" s="98"/>
+      <c r="AS73" s="106"/>
       <c r="AT73" s="48"/>
       <c r="AU73" s="48"/>
       <c r="AV73" s="48"/>
-      <c r="AW73" s="112"/>
-      <c r="AX73" s="97"/>
+      <c r="AW73" s="108"/>
+      <c r="AX73" s="93"/>
       <c r="AY73" s="46"/>
       <c r="AZ73" s="46"/>
       <c r="BA73" s="46"/>
-      <c r="BB73" s="102"/>
+      <c r="BB73" s="98"/>
       <c r="BC73" s="30"/>
     </row>
-    <row r="74" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A74" s="116"/>
-      <c r="B74" s="122">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="85"/>
-      <c r="E74" s="117"/>
+    <row r="74" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="113"/>
       <c r="F74" s="64">
         <v>0</v>
       </c>
@@ -7659,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="33">
-        <f>NETWORKDAYS(F74,G74)</f>
+        <f t="shared" ref="H74:H96" si="9">NETWORKDAYS(F74,G74)</f>
         <v>0</v>
       </c>
       <c r="I74" s="65">
@@ -7669,56 +7646,56 @@
       <c r="K74" s="35"/>
       <c r="L74" s="37"/>
       <c r="M74" s="37"/>
-      <c r="N74" s="93"/>
-      <c r="O74" s="90"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="86"/>
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
       <c r="R74" s="44"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="97"/>
+      <c r="S74" s="95"/>
+      <c r="T74" s="93"/>
       <c r="U74" s="46"/>
       <c r="V74" s="46"/>
       <c r="W74" s="46"/>
-      <c r="X74" s="102"/>
-      <c r="Y74" s="97"/>
+      <c r="X74" s="98"/>
+      <c r="Y74" s="93"/>
       <c r="Z74" s="46"/>
       <c r="AA74" s="46"/>
       <c r="AB74" s="46"/>
-      <c r="AC74" s="102"/>
-      <c r="AD74" s="104"/>
+      <c r="AC74" s="98"/>
+      <c r="AD74" s="100"/>
       <c r="AE74" s="47"/>
       <c r="AF74" s="47"/>
       <c r="AG74" s="47"/>
-      <c r="AH74" s="107"/>
-      <c r="AI74" s="97"/>
+      <c r="AH74" s="103"/>
+      <c r="AI74" s="93"/>
       <c r="AJ74" s="46"/>
       <c r="AK74" s="46"/>
       <c r="AL74" s="46"/>
-      <c r="AM74" s="102"/>
-      <c r="AN74" s="97"/>
+      <c r="AM74" s="98"/>
+      <c r="AN74" s="93"/>
       <c r="AO74" s="46"/>
       <c r="AP74" s="46"/>
       <c r="AQ74" s="46"/>
-      <c r="AR74" s="102"/>
-      <c r="AS74" s="110"/>
+      <c r="AR74" s="98"/>
+      <c r="AS74" s="106"/>
       <c r="AT74" s="48"/>
       <c r="AU74" s="48"/>
       <c r="AV74" s="48"/>
-      <c r="AW74" s="112"/>
-      <c r="AX74" s="97"/>
+      <c r="AW74" s="108"/>
+      <c r="AX74" s="93"/>
       <c r="AY74" s="46"/>
       <c r="AZ74" s="46"/>
       <c r="BA74" s="46"/>
-      <c r="BB74" s="102"/>
+      <c r="BB74" s="98"/>
       <c r="BC74" s="30"/>
     </row>
-    <row r="75" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="75" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B75" s="31"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="85" t="s">
+      <c r="D75" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="117"/>
+      <c r="E75" s="113"/>
       <c r="F75" s="64">
         <v>0</v>
       </c>
@@ -7726,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="33">
-        <f t="shared" ref="H75:H97" si="9">NETWORKDAYS(F75,G75)</f>
+        <f>NETWORKDAYS(F75,G75)</f>
         <v>0</v>
       </c>
       <c r="I75" s="65">
@@ -7736,56 +7713,56 @@
       <c r="K75" s="35"/>
       <c r="L75" s="37"/>
       <c r="M75" s="37"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="90"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="86"/>
       <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
       <c r="R75" s="44"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="97"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="93"/>
       <c r="U75" s="46"/>
       <c r="V75" s="46"/>
       <c r="W75" s="46"/>
-      <c r="X75" s="102"/>
-      <c r="Y75" s="97"/>
+      <c r="X75" s="98"/>
+      <c r="Y75" s="93"/>
       <c r="Z75" s="46"/>
       <c r="AA75" s="46"/>
       <c r="AB75" s="46"/>
-      <c r="AC75" s="102"/>
-      <c r="AD75" s="104"/>
+      <c r="AC75" s="98"/>
+      <c r="AD75" s="100"/>
       <c r="AE75" s="47"/>
       <c r="AF75" s="47"/>
       <c r="AG75" s="47"/>
-      <c r="AH75" s="107"/>
-      <c r="AI75" s="97"/>
+      <c r="AH75" s="103"/>
+      <c r="AI75" s="93"/>
       <c r="AJ75" s="46"/>
       <c r="AK75" s="46"/>
       <c r="AL75" s="46"/>
-      <c r="AM75" s="102"/>
-      <c r="AN75" s="97"/>
+      <c r="AM75" s="98"/>
+      <c r="AN75" s="93"/>
       <c r="AO75" s="46"/>
       <c r="AP75" s="46"/>
       <c r="AQ75" s="46"/>
-      <c r="AR75" s="102"/>
-      <c r="AS75" s="110"/>
+      <c r="AR75" s="98"/>
+      <c r="AS75" s="106"/>
       <c r="AT75" s="48"/>
       <c r="AU75" s="48"/>
       <c r="AV75" s="48"/>
-      <c r="AW75" s="112"/>
-      <c r="AX75" s="97"/>
+      <c r="AW75" s="108"/>
+      <c r="AX75" s="93"/>
       <c r="AY75" s="46"/>
       <c r="AZ75" s="46"/>
       <c r="BA75" s="46"/>
-      <c r="BB75" s="102"/>
+      <c r="BB75" s="98"/>
       <c r="BC75" s="30"/>
     </row>
-    <row r="76" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="76" spans="1:55" s="119" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B76" s="31"/>
       <c r="C76" s="32"/>
-      <c r="D76" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="117"/>
+      <c r="D76" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="113"/>
       <c r="F76" s="64">
         <v>0</v>
       </c>
@@ -7803,56 +7780,58 @@
       <c r="K76" s="35"/>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="90"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="86"/>
       <c r="P76" s="44"/>
       <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
-      <c r="S76" s="99"/>
-      <c r="T76" s="97"/>
+      <c r="S76" s="95"/>
+      <c r="T76" s="93"/>
       <c r="U76" s="46"/>
       <c r="V76" s="46"/>
       <c r="W76" s="46"/>
-      <c r="X76" s="102"/>
-      <c r="Y76" s="97"/>
+      <c r="X76" s="98"/>
+      <c r="Y76" s="93"/>
       <c r="Z76" s="46"/>
       <c r="AA76" s="46"/>
       <c r="AB76" s="46"/>
-      <c r="AC76" s="102"/>
-      <c r="AD76" s="104"/>
+      <c r="AC76" s="98"/>
+      <c r="AD76" s="100"/>
       <c r="AE76" s="47"/>
       <c r="AF76" s="47"/>
       <c r="AG76" s="47"/>
-      <c r="AH76" s="107"/>
-      <c r="AI76" s="97"/>
+      <c r="AH76" s="103"/>
+      <c r="AI76" s="93"/>
       <c r="AJ76" s="46"/>
       <c r="AK76" s="46"/>
       <c r="AL76" s="46"/>
-      <c r="AM76" s="102"/>
-      <c r="AN76" s="97"/>
+      <c r="AM76" s="98"/>
+      <c r="AN76" s="93"/>
       <c r="AO76" s="46"/>
       <c r="AP76" s="46"/>
       <c r="AQ76" s="46"/>
-      <c r="AR76" s="102"/>
-      <c r="AS76" s="110"/>
+      <c r="AR76" s="98"/>
+      <c r="AS76" s="106"/>
       <c r="AT76" s="48"/>
       <c r="AU76" s="48"/>
       <c r="AV76" s="48"/>
-      <c r="AW76" s="112"/>
-      <c r="AX76" s="97"/>
+      <c r="AW76" s="108"/>
+      <c r="AX76" s="93"/>
       <c r="AY76" s="46"/>
       <c r="AZ76" s="46"/>
       <c r="BA76" s="46"/>
-      <c r="BB76" s="102"/>
+      <c r="BB76" s="98"/>
       <c r="BC76" s="30"/>
     </row>
-    <row r="77" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="117"/>
+    <row r="77" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B77" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="82"/>
+      <c r="E77" s="113"/>
       <c r="F77" s="64">
         <v>0</v>
       </c>
@@ -7860,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="33">
-        <f>NETWORKDAYS(F77,G77)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I77" s="65">
@@ -7870,58 +7849,56 @@
       <c r="K77" s="35"/>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="90"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="86"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="44"/>
       <c r="R77" s="44"/>
-      <c r="S77" s="99"/>
-      <c r="T77" s="97"/>
+      <c r="S77" s="95"/>
+      <c r="T77" s="93"/>
       <c r="U77" s="46"/>
       <c r="V77" s="46"/>
       <c r="W77" s="46"/>
-      <c r="X77" s="102"/>
-      <c r="Y77" s="97"/>
+      <c r="X77" s="98"/>
+      <c r="Y77" s="93"/>
       <c r="Z77" s="46"/>
       <c r="AA77" s="46"/>
       <c r="AB77" s="46"/>
-      <c r="AC77" s="102"/>
-      <c r="AD77" s="104"/>
+      <c r="AC77" s="98"/>
+      <c r="AD77" s="100"/>
       <c r="AE77" s="47"/>
       <c r="AF77" s="47"/>
       <c r="AG77" s="47"/>
-      <c r="AH77" s="107"/>
-      <c r="AI77" s="97"/>
+      <c r="AH77" s="103"/>
+      <c r="AI77" s="93"/>
       <c r="AJ77" s="46"/>
       <c r="AK77" s="46"/>
       <c r="AL77" s="46"/>
-      <c r="AM77" s="102"/>
-      <c r="AN77" s="97"/>
+      <c r="AM77" s="98"/>
+      <c r="AN77" s="93"/>
       <c r="AO77" s="46"/>
       <c r="AP77" s="46"/>
       <c r="AQ77" s="46"/>
-      <c r="AR77" s="102"/>
-      <c r="AS77" s="110"/>
+      <c r="AR77" s="98"/>
+      <c r="AS77" s="106"/>
       <c r="AT77" s="48"/>
       <c r="AU77" s="48"/>
       <c r="AV77" s="48"/>
-      <c r="AW77" s="112"/>
-      <c r="AX77" s="97"/>
+      <c r="AW77" s="108"/>
+      <c r="AX77" s="93"/>
       <c r="AY77" s="46"/>
       <c r="AZ77" s="46"/>
       <c r="BA77" s="46"/>
-      <c r="BB77" s="102"/>
+      <c r="BB77" s="98"/>
       <c r="BC77" s="30"/>
     </row>
-    <row r="78" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B78" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="85"/>
-      <c r="E78" s="117"/>
+    <row r="78" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="113"/>
       <c r="F78" s="64">
         <v>0</v>
       </c>
@@ -7939,56 +7916,56 @@
       <c r="K78" s="35"/>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="90"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="86"/>
       <c r="P78" s="44"/>
       <c r="Q78" s="44"/>
       <c r="R78" s="44"/>
-      <c r="S78" s="99"/>
-      <c r="T78" s="97"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="93"/>
       <c r="U78" s="46"/>
       <c r="V78" s="46"/>
       <c r="W78" s="46"/>
-      <c r="X78" s="102"/>
-      <c r="Y78" s="97"/>
+      <c r="X78" s="98"/>
+      <c r="Y78" s="93"/>
       <c r="Z78" s="46"/>
       <c r="AA78" s="46"/>
       <c r="AB78" s="46"/>
-      <c r="AC78" s="102"/>
-      <c r="AD78" s="104"/>
+      <c r="AC78" s="98"/>
+      <c r="AD78" s="100"/>
       <c r="AE78" s="47"/>
       <c r="AF78" s="47"/>
       <c r="AG78" s="47"/>
-      <c r="AH78" s="107"/>
-      <c r="AI78" s="97"/>
+      <c r="AH78" s="103"/>
+      <c r="AI78" s="93"/>
       <c r="AJ78" s="46"/>
       <c r="AK78" s="46"/>
       <c r="AL78" s="46"/>
-      <c r="AM78" s="102"/>
-      <c r="AN78" s="97"/>
+      <c r="AM78" s="98"/>
+      <c r="AN78" s="93"/>
       <c r="AO78" s="46"/>
       <c r="AP78" s="46"/>
       <c r="AQ78" s="46"/>
-      <c r="AR78" s="102"/>
-      <c r="AS78" s="110"/>
+      <c r="AR78" s="98"/>
+      <c r="AS78" s="106"/>
       <c r="AT78" s="48"/>
       <c r="AU78" s="48"/>
       <c r="AV78" s="48"/>
-      <c r="AW78" s="112"/>
-      <c r="AX78" s="97"/>
+      <c r="AW78" s="108"/>
+      <c r="AX78" s="93"/>
       <c r="AY78" s="46"/>
       <c r="AZ78" s="46"/>
       <c r="BA78" s="46"/>
-      <c r="BB78" s="102"/>
+      <c r="BB78" s="98"/>
       <c r="BC78" s="30"/>
     </row>
-    <row r="79" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="79" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B79" s="31"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="117"/>
+      <c r="E79" s="113"/>
       <c r="F79" s="64">
         <v>0</v>
       </c>
@@ -8006,56 +7983,57 @@
       <c r="K79" s="35"/>
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
-      <c r="N79" s="93"/>
-      <c r="O79" s="90"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="86"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="44"/>
       <c r="R79" s="44"/>
-      <c r="S79" s="99"/>
-      <c r="T79" s="97"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="93"/>
       <c r="U79" s="46"/>
       <c r="V79" s="46"/>
       <c r="W79" s="46"/>
-      <c r="X79" s="102"/>
-      <c r="Y79" s="97"/>
+      <c r="X79" s="98"/>
+      <c r="Y79" s="93"/>
       <c r="Z79" s="46"/>
       <c r="AA79" s="46"/>
       <c r="AB79" s="46"/>
-      <c r="AC79" s="102"/>
-      <c r="AD79" s="104"/>
+      <c r="AC79" s="98"/>
+      <c r="AD79" s="100"/>
       <c r="AE79" s="47"/>
       <c r="AF79" s="47"/>
       <c r="AG79" s="47"/>
-      <c r="AH79" s="107"/>
-      <c r="AI79" s="97"/>
+      <c r="AH79" s="103"/>
+      <c r="AI79" s="93"/>
       <c r="AJ79" s="46"/>
       <c r="AK79" s="46"/>
       <c r="AL79" s="46"/>
-      <c r="AM79" s="102"/>
-      <c r="AN79" s="97"/>
+      <c r="AM79" s="98"/>
+      <c r="AN79" s="93"/>
       <c r="AO79" s="46"/>
       <c r="AP79" s="46"/>
       <c r="AQ79" s="46"/>
-      <c r="AR79" s="102"/>
-      <c r="AS79" s="110"/>
+      <c r="AR79" s="98"/>
+      <c r="AS79" s="106"/>
       <c r="AT79" s="48"/>
       <c r="AU79" s="48"/>
       <c r="AV79" s="48"/>
-      <c r="AW79" s="112"/>
-      <c r="AX79" s="97"/>
+      <c r="AW79" s="108"/>
+      <c r="AX79" s="93"/>
       <c r="AY79" s="46"/>
       <c r="AZ79" s="46"/>
       <c r="BA79" s="46"/>
-      <c r="BB79" s="102"/>
+      <c r="BB79" s="98"/>
       <c r="BC79" s="30"/>
     </row>
-    <row r="80" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="80" spans="1:55" s="81" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A80" s="112"/>
       <c r="B80" s="31"/>
       <c r="C80" s="32"/>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="117"/>
+      <c r="E80" s="113"/>
       <c r="F80" s="64">
         <v>0</v>
       </c>
@@ -8069,61 +8047,62 @@
       <c r="I80" s="65">
         <v>0</v>
       </c>
-      <c r="J80" s="34"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="93"/>
-      <c r="O80" s="90"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="90"/>
+      <c r="O80" s="86"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
-      <c r="S80" s="99"/>
-      <c r="T80" s="97"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
-      <c r="X80" s="102"/>
-      <c r="Y80" s="97"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="46"/>
-      <c r="AB80" s="46"/>
-      <c r="AC80" s="102"/>
-      <c r="AD80" s="104"/>
-      <c r="AE80" s="47"/>
-      <c r="AF80" s="47"/>
-      <c r="AG80" s="47"/>
-      <c r="AH80" s="107"/>
-      <c r="AI80" s="97"/>
-      <c r="AJ80" s="46"/>
-      <c r="AK80" s="46"/>
-      <c r="AL80" s="46"/>
-      <c r="AM80" s="102"/>
-      <c r="AN80" s="97"/>
-      <c r="AO80" s="46"/>
-      <c r="AP80" s="46"/>
-      <c r="AQ80" s="46"/>
-      <c r="AR80" s="102"/>
-      <c r="AS80" s="110"/>
-      <c r="AT80" s="48"/>
-      <c r="AU80" s="48"/>
-      <c r="AV80" s="48"/>
-      <c r="AW80" s="112"/>
-      <c r="AX80" s="97"/>
-      <c r="AY80" s="46"/>
-      <c r="AZ80" s="46"/>
-      <c r="BA80" s="46"/>
-      <c r="BB80" s="102"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="94"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="99"/>
+      <c r="Y80" s="94"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="99"/>
+      <c r="AD80" s="101"/>
+      <c r="AE80" s="49"/>
+      <c r="AF80" s="49"/>
+      <c r="AG80" s="49"/>
+      <c r="AH80" s="105"/>
+      <c r="AI80" s="94"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+      <c r="AM80" s="99"/>
+      <c r="AN80" s="94"/>
+      <c r="AO80" s="43"/>
+      <c r="AP80" s="43"/>
+      <c r="AQ80" s="43"/>
+      <c r="AR80" s="99"/>
+      <c r="AS80" s="107"/>
+      <c r="AT80" s="50"/>
+      <c r="AU80" s="50"/>
+      <c r="AV80" s="50"/>
+      <c r="AW80" s="109"/>
+      <c r="AX80" s="94"/>
+      <c r="AY80" s="43"/>
+      <c r="AZ80" s="43"/>
+      <c r="BA80" s="43"/>
+      <c r="BB80" s="99"/>
       <c r="BC80" s="30"/>
     </row>
-    <row r="81" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A81" s="116"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="117"/>
+    <row r="81" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B81" s="117">
+        <v>4.12</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="82"/>
+      <c r="E81" s="113"/>
       <c r="F81" s="64">
         <v>0</v>
       </c>
@@ -8141,58 +8120,56 @@
       <c r="K81" s="39"/>
       <c r="L81" s="41"/>
       <c r="M81" s="41"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="86"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="44"/>
       <c r="R81" s="44"/>
-      <c r="S81" s="99"/>
-      <c r="T81" s="98"/>
+      <c r="S81" s="95"/>
+      <c r="T81" s="94"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
       <c r="W81" s="43"/>
-      <c r="X81" s="103"/>
-      <c r="Y81" s="98"/>
+      <c r="X81" s="99"/>
+      <c r="Y81" s="94"/>
       <c r="Z81" s="43"/>
       <c r="AA81" s="43"/>
       <c r="AB81" s="43"/>
-      <c r="AC81" s="103"/>
-      <c r="AD81" s="105"/>
+      <c r="AC81" s="99"/>
+      <c r="AD81" s="101"/>
       <c r="AE81" s="49"/>
       <c r="AF81" s="49"/>
       <c r="AG81" s="49"/>
-      <c r="AH81" s="109"/>
-      <c r="AI81" s="98"/>
+      <c r="AH81" s="105"/>
+      <c r="AI81" s="94"/>
       <c r="AJ81" s="43"/>
       <c r="AK81" s="43"/>
       <c r="AL81" s="43"/>
-      <c r="AM81" s="103"/>
-      <c r="AN81" s="98"/>
+      <c r="AM81" s="99"/>
+      <c r="AN81" s="94"/>
       <c r="AO81" s="43"/>
       <c r="AP81" s="43"/>
       <c r="AQ81" s="43"/>
-      <c r="AR81" s="103"/>
-      <c r="AS81" s="111"/>
+      <c r="AR81" s="99"/>
+      <c r="AS81" s="107"/>
       <c r="AT81" s="50"/>
       <c r="AU81" s="50"/>
       <c r="AV81" s="50"/>
-      <c r="AW81" s="113"/>
-      <c r="AX81" s="98"/>
+      <c r="AW81" s="109"/>
+      <c r="AX81" s="94"/>
       <c r="AY81" s="43"/>
       <c r="AZ81" s="43"/>
       <c r="BA81" s="43"/>
-      <c r="BB81" s="103"/>
+      <c r="BB81" s="99"/>
       <c r="BC81" s="30"/>
     </row>
-    <row r="82" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B82" s="122">
-        <v>4.12</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="85"/>
-      <c r="E82" s="117"/>
+    <row r="82" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="113"/>
       <c r="F82" s="64">
         <v>0</v>
       </c>
@@ -8210,56 +8187,56 @@
       <c r="K82" s="39"/>
       <c r="L82" s="41"/>
       <c r="M82" s="41"/>
-      <c r="N82" s="94"/>
-      <c r="O82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="86"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
       <c r="R82" s="44"/>
-      <c r="S82" s="99"/>
-      <c r="T82" s="98"/>
+      <c r="S82" s="95"/>
+      <c r="T82" s="94"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="103"/>
-      <c r="Y82" s="98"/>
+      <c r="X82" s="99"/>
+      <c r="Y82" s="94"/>
       <c r="Z82" s="43"/>
       <c r="AA82" s="43"/>
       <c r="AB82" s="43"/>
-      <c r="AC82" s="103"/>
-      <c r="AD82" s="105"/>
+      <c r="AC82" s="99"/>
+      <c r="AD82" s="101"/>
       <c r="AE82" s="49"/>
       <c r="AF82" s="49"/>
       <c r="AG82" s="49"/>
-      <c r="AH82" s="109"/>
-      <c r="AI82" s="98"/>
+      <c r="AH82" s="105"/>
+      <c r="AI82" s="94"/>
       <c r="AJ82" s="43"/>
       <c r="AK82" s="43"/>
       <c r="AL82" s="43"/>
-      <c r="AM82" s="103"/>
-      <c r="AN82" s="98"/>
+      <c r="AM82" s="99"/>
+      <c r="AN82" s="94"/>
       <c r="AO82" s="43"/>
       <c r="AP82" s="43"/>
       <c r="AQ82" s="43"/>
-      <c r="AR82" s="103"/>
-      <c r="AS82" s="111"/>
+      <c r="AR82" s="99"/>
+      <c r="AS82" s="107"/>
       <c r="AT82" s="50"/>
       <c r="AU82" s="50"/>
       <c r="AV82" s="50"/>
-      <c r="AW82" s="113"/>
-      <c r="AX82" s="98"/>
+      <c r="AW82" s="109"/>
+      <c r="AX82" s="94"/>
       <c r="AY82" s="43"/>
       <c r="AZ82" s="43"/>
       <c r="BA82" s="43"/>
-      <c r="BB82" s="103"/>
+      <c r="BB82" s="99"/>
       <c r="BC82" s="30"/>
     </row>
-    <row r="83" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B83" s="31"/>
+    <row r="83" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B83" s="83"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="117"/>
+      <c r="D83" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="113"/>
       <c r="F83" s="64">
         <v>0</v>
       </c>
@@ -8277,56 +8254,56 @@
       <c r="K83" s="39"/>
       <c r="L83" s="41"/>
       <c r="M83" s="41"/>
-      <c r="N83" s="94"/>
-      <c r="O83" s="90"/>
+      <c r="N83" s="90"/>
+      <c r="O83" s="86"/>
       <c r="P83" s="44"/>
       <c r="Q83" s="44"/>
       <c r="R83" s="44"/>
-      <c r="S83" s="99"/>
-      <c r="T83" s="98"/>
+      <c r="S83" s="95"/>
+      <c r="T83" s="94"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
       <c r="W83" s="43"/>
-      <c r="X83" s="103"/>
-      <c r="Y83" s="98"/>
+      <c r="X83" s="99"/>
+      <c r="Y83" s="94"/>
       <c r="Z83" s="43"/>
       <c r="AA83" s="43"/>
       <c r="AB83" s="43"/>
-      <c r="AC83" s="103"/>
-      <c r="AD83" s="105"/>
+      <c r="AC83" s="99"/>
+      <c r="AD83" s="101"/>
       <c r="AE83" s="49"/>
       <c r="AF83" s="49"/>
       <c r="AG83" s="49"/>
-      <c r="AH83" s="109"/>
-      <c r="AI83" s="98"/>
+      <c r="AH83" s="105"/>
+      <c r="AI83" s="94"/>
       <c r="AJ83" s="43"/>
       <c r="AK83" s="43"/>
       <c r="AL83" s="43"/>
-      <c r="AM83" s="103"/>
-      <c r="AN83" s="98"/>
+      <c r="AM83" s="99"/>
+      <c r="AN83" s="94"/>
       <c r="AO83" s="43"/>
       <c r="AP83" s="43"/>
       <c r="AQ83" s="43"/>
-      <c r="AR83" s="103"/>
-      <c r="AS83" s="111"/>
+      <c r="AR83" s="99"/>
+      <c r="AS83" s="107"/>
       <c r="AT83" s="50"/>
       <c r="AU83" s="50"/>
       <c r="AV83" s="50"/>
-      <c r="AW83" s="113"/>
-      <c r="AX83" s="98"/>
+      <c r="AW83" s="109"/>
+      <c r="AX83" s="94"/>
       <c r="AY83" s="43"/>
       <c r="AZ83" s="43"/>
       <c r="BA83" s="43"/>
-      <c r="BB83" s="103"/>
+      <c r="BB83" s="99"/>
       <c r="BC83" s="30"/>
     </row>
-    <row r="84" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="86"/>
+    <row r="84" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B84" s="83"/>
       <c r="C84" s="32"/>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="117"/>
+      <c r="E84" s="113"/>
       <c r="F84" s="64">
         <v>0</v>
       </c>
@@ -8344,56 +8321,59 @@
       <c r="K84" s="39"/>
       <c r="L84" s="41"/>
       <c r="M84" s="41"/>
-      <c r="N84" s="94"/>
-      <c r="O84" s="90"/>
+      <c r="N84" s="90"/>
+      <c r="O84" s="86"/>
       <c r="P84" s="44"/>
       <c r="Q84" s="44"/>
       <c r="R84" s="44"/>
-      <c r="S84" s="99"/>
-      <c r="T84" s="98"/>
+      <c r="S84" s="95"/>
+      <c r="T84" s="94"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="103"/>
-      <c r="Y84" s="98"/>
+      <c r="X84" s="99"/>
+      <c r="Y84" s="94"/>
       <c r="Z84" s="43"/>
       <c r="AA84" s="43"/>
       <c r="AB84" s="43"/>
-      <c r="AC84" s="103"/>
-      <c r="AD84" s="105"/>
+      <c r="AC84" s="99"/>
+      <c r="AD84" s="101"/>
       <c r="AE84" s="49"/>
       <c r="AF84" s="49"/>
       <c r="AG84" s="49"/>
-      <c r="AH84" s="109"/>
-      <c r="AI84" s="98"/>
+      <c r="AH84" s="105"/>
+      <c r="AI84" s="94"/>
       <c r="AJ84" s="43"/>
       <c r="AK84" s="43"/>
       <c r="AL84" s="43"/>
-      <c r="AM84" s="103"/>
-      <c r="AN84" s="98"/>
+      <c r="AM84" s="99"/>
+      <c r="AN84" s="94"/>
       <c r="AO84" s="43"/>
       <c r="AP84" s="43"/>
       <c r="AQ84" s="43"/>
-      <c r="AR84" s="103"/>
-      <c r="AS84" s="111"/>
+      <c r="AR84" s="99"/>
+      <c r="AS84" s="107"/>
       <c r="AT84" s="50"/>
       <c r="AU84" s="50"/>
       <c r="AV84" s="50"/>
-      <c r="AW84" s="113"/>
-      <c r="AX84" s="98"/>
+      <c r="AW84" s="109"/>
+      <c r="AX84" s="94"/>
       <c r="AY84" s="43"/>
       <c r="AZ84" s="43"/>
       <c r="BA84" s="43"/>
-      <c r="BB84" s="103"/>
+      <c r="BB84" s="99"/>
       <c r="BC84" s="30"/>
     </row>
-    <row r="85" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B85" s="86"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="117"/>
+    <row r="85" spans="1:55" s="81" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A85" s="112"/>
+      <c r="B85" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="82"/>
+      <c r="E85" s="113"/>
       <c r="F85" s="64">
         <v>0</v>
       </c>
@@ -8411,59 +8391,56 @@
       <c r="K85" s="39"/>
       <c r="L85" s="41"/>
       <c r="M85" s="41"/>
-      <c r="N85" s="94"/>
-      <c r="O85" s="90"/>
+      <c r="N85" s="90"/>
+      <c r="O85" s="86"/>
       <c r="P85" s="44"/>
       <c r="Q85" s="44"/>
       <c r="R85" s="44"/>
-      <c r="S85" s="99"/>
-      <c r="T85" s="98"/>
+      <c r="S85" s="95"/>
+      <c r="T85" s="94"/>
       <c r="U85" s="43"/>
       <c r="V85" s="43"/>
       <c r="W85" s="43"/>
-      <c r="X85" s="103"/>
-      <c r="Y85" s="98"/>
+      <c r="X85" s="99"/>
+      <c r="Y85" s="94"/>
       <c r="Z85" s="43"/>
       <c r="AA85" s="43"/>
       <c r="AB85" s="43"/>
-      <c r="AC85" s="103"/>
-      <c r="AD85" s="105"/>
+      <c r="AC85" s="99"/>
+      <c r="AD85" s="101"/>
       <c r="AE85" s="49"/>
       <c r="AF85" s="49"/>
       <c r="AG85" s="49"/>
-      <c r="AH85" s="109"/>
-      <c r="AI85" s="98"/>
+      <c r="AH85" s="105"/>
+      <c r="AI85" s="94"/>
       <c r="AJ85" s="43"/>
       <c r="AK85" s="43"/>
       <c r="AL85" s="43"/>
-      <c r="AM85" s="103"/>
-      <c r="AN85" s="98"/>
+      <c r="AM85" s="99"/>
+      <c r="AN85" s="94"/>
       <c r="AO85" s="43"/>
       <c r="AP85" s="43"/>
       <c r="AQ85" s="43"/>
-      <c r="AR85" s="103"/>
-      <c r="AS85" s="111"/>
+      <c r="AR85" s="99"/>
+      <c r="AS85" s="107"/>
       <c r="AT85" s="50"/>
       <c r="AU85" s="50"/>
       <c r="AV85" s="50"/>
-      <c r="AW85" s="113"/>
-      <c r="AX85" s="98"/>
+      <c r="AW85" s="109"/>
+      <c r="AX85" s="94"/>
       <c r="AY85" s="43"/>
       <c r="AZ85" s="43"/>
       <c r="BA85" s="43"/>
-      <c r="BB85" s="103"/>
+      <c r="BB85" s="99"/>
       <c r="BC85" s="30"/>
     </row>
-    <row r="86" spans="1:55" s="84" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A86" s="116"/>
-      <c r="B86" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="117"/>
+    <row r="86" spans="1:55" s="126" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B86" s="83"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="113"/>
       <c r="F86" s="64">
         <v>0</v>
       </c>
@@ -8471,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H86" si="10">NETWORKDAYS(F86,G86)</f>
         <v>0</v>
       </c>
       <c r="I86" s="65">
@@ -8481,56 +8458,56 @@
       <c r="K86" s="39"/>
       <c r="L86" s="41"/>
       <c r="M86" s="41"/>
-      <c r="N86" s="94"/>
-      <c r="O86" s="90"/>
+      <c r="N86" s="90"/>
+      <c r="O86" s="86"/>
       <c r="P86" s="44"/>
       <c r="Q86" s="44"/>
       <c r="R86" s="44"/>
-      <c r="S86" s="99"/>
-      <c r="T86" s="98"/>
+      <c r="S86" s="95"/>
+      <c r="T86" s="94"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="103"/>
-      <c r="Y86" s="98"/>
+      <c r="X86" s="99"/>
+      <c r="Y86" s="94"/>
       <c r="Z86" s="43"/>
       <c r="AA86" s="43"/>
       <c r="AB86" s="43"/>
-      <c r="AC86" s="103"/>
-      <c r="AD86" s="105"/>
+      <c r="AC86" s="99"/>
+      <c r="AD86" s="101"/>
       <c r="AE86" s="49"/>
       <c r="AF86" s="49"/>
       <c r="AG86" s="49"/>
-      <c r="AH86" s="109"/>
-      <c r="AI86" s="98"/>
+      <c r="AH86" s="105"/>
+      <c r="AI86" s="94"/>
       <c r="AJ86" s="43"/>
       <c r="AK86" s="43"/>
       <c r="AL86" s="43"/>
-      <c r="AM86" s="103"/>
-      <c r="AN86" s="98"/>
+      <c r="AM86" s="99"/>
+      <c r="AN86" s="94"/>
       <c r="AO86" s="43"/>
       <c r="AP86" s="43"/>
       <c r="AQ86" s="43"/>
-      <c r="AR86" s="103"/>
-      <c r="AS86" s="111"/>
+      <c r="AR86" s="99"/>
+      <c r="AS86" s="107"/>
       <c r="AT86" s="50"/>
       <c r="AU86" s="50"/>
       <c r="AV86" s="50"/>
-      <c r="AW86" s="113"/>
-      <c r="AX86" s="98"/>
+      <c r="AW86" s="109"/>
+      <c r="AX86" s="94"/>
       <c r="AY86" s="43"/>
       <c r="AZ86" s="43"/>
       <c r="BA86" s="43"/>
-      <c r="BB86" s="103"/>
+      <c r="BB86" s="99"/>
       <c r="BC86" s="30"/>
     </row>
-    <row r="87" spans="1:55" s="133" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B87" s="86"/>
+    <row r="87" spans="1:55" s="119" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B87" s="83"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="85" t="s">
+      <c r="D87" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="117"/>
+      <c r="E87" s="113"/>
       <c r="F87" s="64">
         <v>0</v>
       </c>
@@ -8538,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="33">
-        <f t="shared" ref="H87" si="10">NETWORKDAYS(F87,G87)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I87" s="65">
@@ -8548,56 +8525,56 @@
       <c r="K87" s="39"/>
       <c r="L87" s="41"/>
       <c r="M87" s="41"/>
-      <c r="N87" s="94"/>
-      <c r="O87" s="90"/>
+      <c r="N87" s="90"/>
+      <c r="O87" s="86"/>
       <c r="P87" s="44"/>
       <c r="Q87" s="44"/>
       <c r="R87" s="44"/>
-      <c r="S87" s="99"/>
-      <c r="T87" s="98"/>
+      <c r="S87" s="95"/>
+      <c r="T87" s="94"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
       <c r="W87" s="43"/>
-      <c r="X87" s="103"/>
-      <c r="Y87" s="98"/>
+      <c r="X87" s="99"/>
+      <c r="Y87" s="94"/>
       <c r="Z87" s="43"/>
       <c r="AA87" s="43"/>
       <c r="AB87" s="43"/>
-      <c r="AC87" s="103"/>
-      <c r="AD87" s="105"/>
+      <c r="AC87" s="99"/>
+      <c r="AD87" s="101"/>
       <c r="AE87" s="49"/>
       <c r="AF87" s="49"/>
       <c r="AG87" s="49"/>
-      <c r="AH87" s="109"/>
-      <c r="AI87" s="98"/>
+      <c r="AH87" s="105"/>
+      <c r="AI87" s="94"/>
       <c r="AJ87" s="43"/>
       <c r="AK87" s="43"/>
       <c r="AL87" s="43"/>
-      <c r="AM87" s="103"/>
-      <c r="AN87" s="98"/>
+      <c r="AM87" s="99"/>
+      <c r="AN87" s="94"/>
       <c r="AO87" s="43"/>
       <c r="AP87" s="43"/>
       <c r="AQ87" s="43"/>
-      <c r="AR87" s="103"/>
-      <c r="AS87" s="111"/>
+      <c r="AR87" s="99"/>
+      <c r="AS87" s="107"/>
       <c r="AT87" s="50"/>
       <c r="AU87" s="50"/>
       <c r="AV87" s="50"/>
-      <c r="AW87" s="113"/>
-      <c r="AX87" s="98"/>
+      <c r="AW87" s="109"/>
+      <c r="AX87" s="94"/>
       <c r="AY87" s="43"/>
       <c r="AZ87" s="43"/>
       <c r="BA87" s="43"/>
-      <c r="BB87" s="103"/>
+      <c r="BB87" s="99"/>
       <c r="BC87" s="30"/>
     </row>
-    <row r="88" spans="1:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B88" s="86"/>
+    <row r="88" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B88" s="83"/>
       <c r="C88" s="32"/>
-      <c r="D88" s="85" t="s">
+      <c r="D88" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="117"/>
+      <c r="E88" s="113"/>
       <c r="F88" s="64">
         <v>0</v>
       </c>
@@ -8615,56 +8592,56 @@
       <c r="K88" s="39"/>
       <c r="L88" s="41"/>
       <c r="M88" s="41"/>
-      <c r="N88" s="94"/>
-      <c r="O88" s="90"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="86"/>
       <c r="P88" s="44"/>
       <c r="Q88" s="44"/>
       <c r="R88" s="44"/>
-      <c r="S88" s="99"/>
-      <c r="T88" s="98"/>
+      <c r="S88" s="95"/>
+      <c r="T88" s="94"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="103"/>
-      <c r="Y88" s="98"/>
+      <c r="X88" s="99"/>
+      <c r="Y88" s="94"/>
       <c r="Z88" s="43"/>
       <c r="AA88" s="43"/>
       <c r="AB88" s="43"/>
-      <c r="AC88" s="103"/>
-      <c r="AD88" s="105"/>
+      <c r="AC88" s="99"/>
+      <c r="AD88" s="101"/>
       <c r="AE88" s="49"/>
       <c r="AF88" s="49"/>
       <c r="AG88" s="49"/>
-      <c r="AH88" s="109"/>
-      <c r="AI88" s="98"/>
+      <c r="AH88" s="105"/>
+      <c r="AI88" s="94"/>
       <c r="AJ88" s="43"/>
       <c r="AK88" s="43"/>
       <c r="AL88" s="43"/>
-      <c r="AM88" s="103"/>
-      <c r="AN88" s="98"/>
+      <c r="AM88" s="99"/>
+      <c r="AN88" s="94"/>
       <c r="AO88" s="43"/>
       <c r="AP88" s="43"/>
       <c r="AQ88" s="43"/>
-      <c r="AR88" s="103"/>
-      <c r="AS88" s="111"/>
+      <c r="AR88" s="99"/>
+      <c r="AS88" s="107"/>
       <c r="AT88" s="50"/>
       <c r="AU88" s="50"/>
       <c r="AV88" s="50"/>
-      <c r="AW88" s="113"/>
-      <c r="AX88" s="98"/>
+      <c r="AW88" s="109"/>
+      <c r="AX88" s="94"/>
       <c r="AY88" s="43"/>
       <c r="AZ88" s="43"/>
       <c r="BA88" s="43"/>
-      <c r="BB88" s="103"/>
+      <c r="BB88" s="99"/>
       <c r="BC88" s="30"/>
     </row>
-    <row r="89" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B89" s="86"/>
+    <row r="89" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B89" s="83"/>
       <c r="C89" s="32"/>
-      <c r="D89" s="85" t="s">
+      <c r="D89" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="117"/>
+      <c r="E89" s="113"/>
       <c r="F89" s="64">
         <v>0</v>
       </c>
@@ -8682,56 +8659,58 @@
       <c r="K89" s="39"/>
       <c r="L89" s="41"/>
       <c r="M89" s="41"/>
-      <c r="N89" s="94"/>
-      <c r="O89" s="90"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="86"/>
       <c r="P89" s="44"/>
       <c r="Q89" s="44"/>
       <c r="R89" s="44"/>
-      <c r="S89" s="99"/>
-      <c r="T89" s="98"/>
+      <c r="S89" s="95"/>
+      <c r="T89" s="94"/>
       <c r="U89" s="43"/>
       <c r="V89" s="43"/>
       <c r="W89" s="43"/>
-      <c r="X89" s="103"/>
-      <c r="Y89" s="98"/>
+      <c r="X89" s="99"/>
+      <c r="Y89" s="94"/>
       <c r="Z89" s="43"/>
       <c r="AA89" s="43"/>
       <c r="AB89" s="43"/>
-      <c r="AC89" s="103"/>
-      <c r="AD89" s="105"/>
+      <c r="AC89" s="99"/>
+      <c r="AD89" s="101"/>
       <c r="AE89" s="49"/>
       <c r="AF89" s="49"/>
       <c r="AG89" s="49"/>
-      <c r="AH89" s="109"/>
-      <c r="AI89" s="98"/>
+      <c r="AH89" s="105"/>
+      <c r="AI89" s="94"/>
       <c r="AJ89" s="43"/>
       <c r="AK89" s="43"/>
       <c r="AL89" s="43"/>
-      <c r="AM89" s="103"/>
-      <c r="AN89" s="98"/>
+      <c r="AM89" s="99"/>
+      <c r="AN89" s="94"/>
       <c r="AO89" s="43"/>
       <c r="AP89" s="43"/>
       <c r="AQ89" s="43"/>
-      <c r="AR89" s="103"/>
-      <c r="AS89" s="111"/>
+      <c r="AR89" s="99"/>
+      <c r="AS89" s="107"/>
       <c r="AT89" s="50"/>
       <c r="AU89" s="50"/>
       <c r="AV89" s="50"/>
-      <c r="AW89" s="113"/>
-      <c r="AX89" s="98"/>
+      <c r="AW89" s="109"/>
+      <c r="AX89" s="94"/>
       <c r="AY89" s="43"/>
       <c r="AZ89" s="43"/>
       <c r="BA89" s="43"/>
-      <c r="BB89" s="103"/>
+      <c r="BB89" s="99"/>
       <c r="BC89" s="30"/>
     </row>
-    <row r="90" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B90" s="86"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="117"/>
+    <row r="90" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B90" s="31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="82"/>
+      <c r="E90" s="113"/>
       <c r="F90" s="64">
         <v>0</v>
       </c>
@@ -8749,58 +8728,56 @@
       <c r="K90" s="39"/>
       <c r="L90" s="41"/>
       <c r="M90" s="41"/>
-      <c r="N90" s="94"/>
-      <c r="O90" s="90"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="86"/>
       <c r="P90" s="44"/>
       <c r="Q90" s="44"/>
       <c r="R90" s="44"/>
-      <c r="S90" s="99"/>
-      <c r="T90" s="98"/>
+      <c r="S90" s="95"/>
+      <c r="T90" s="94"/>
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="103"/>
-      <c r="Y90" s="98"/>
+      <c r="X90" s="99"/>
+      <c r="Y90" s="94"/>
       <c r="Z90" s="43"/>
       <c r="AA90" s="43"/>
       <c r="AB90" s="43"/>
-      <c r="AC90" s="103"/>
-      <c r="AD90" s="105"/>
+      <c r="AC90" s="99"/>
+      <c r="AD90" s="101"/>
       <c r="AE90" s="49"/>
       <c r="AF90" s="49"/>
       <c r="AG90" s="49"/>
-      <c r="AH90" s="109"/>
-      <c r="AI90" s="98"/>
+      <c r="AH90" s="105"/>
+      <c r="AI90" s="94"/>
       <c r="AJ90" s="43"/>
       <c r="AK90" s="43"/>
       <c r="AL90" s="43"/>
-      <c r="AM90" s="103"/>
-      <c r="AN90" s="98"/>
+      <c r="AM90" s="99"/>
+      <c r="AN90" s="94"/>
       <c r="AO90" s="43"/>
       <c r="AP90" s="43"/>
       <c r="AQ90" s="43"/>
-      <c r="AR90" s="103"/>
-      <c r="AS90" s="111"/>
+      <c r="AR90" s="99"/>
+      <c r="AS90" s="107"/>
       <c r="AT90" s="50"/>
       <c r="AU90" s="50"/>
       <c r="AV90" s="50"/>
-      <c r="AW90" s="113"/>
-      <c r="AX90" s="98"/>
+      <c r="AW90" s="109"/>
+      <c r="AX90" s="94"/>
       <c r="AY90" s="43"/>
       <c r="AZ90" s="43"/>
       <c r="BA90" s="43"/>
-      <c r="BB90" s="103"/>
+      <c r="BB90" s="99"/>
       <c r="BC90" s="30"/>
     </row>
-    <row r="91" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B91" s="31">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="85"/>
-      <c r="E91" s="117"/>
+    <row r="91" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="113"/>
       <c r="F91" s="64">
         <v>0</v>
       </c>
@@ -8818,56 +8795,56 @@
       <c r="K91" s="39"/>
       <c r="L91" s="41"/>
       <c r="M91" s="41"/>
-      <c r="N91" s="94"/>
-      <c r="O91" s="90"/>
+      <c r="N91" s="90"/>
+      <c r="O91" s="86"/>
       <c r="P91" s="44"/>
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
-      <c r="S91" s="99"/>
-      <c r="T91" s="98"/>
+      <c r="S91" s="95"/>
+      <c r="T91" s="94"/>
       <c r="U91" s="43"/>
       <c r="V91" s="43"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="103"/>
-      <c r="Y91" s="98"/>
+      <c r="X91" s="99"/>
+      <c r="Y91" s="94"/>
       <c r="Z91" s="43"/>
       <c r="AA91" s="43"/>
       <c r="AB91" s="43"/>
-      <c r="AC91" s="103"/>
-      <c r="AD91" s="105"/>
+      <c r="AC91" s="99"/>
+      <c r="AD91" s="101"/>
       <c r="AE91" s="49"/>
       <c r="AF91" s="49"/>
       <c r="AG91" s="49"/>
-      <c r="AH91" s="109"/>
-      <c r="AI91" s="98"/>
+      <c r="AH91" s="105"/>
+      <c r="AI91" s="94"/>
       <c r="AJ91" s="43"/>
       <c r="AK91" s="43"/>
       <c r="AL91" s="43"/>
-      <c r="AM91" s="103"/>
-      <c r="AN91" s="98"/>
+      <c r="AM91" s="99"/>
+      <c r="AN91" s="94"/>
       <c r="AO91" s="43"/>
       <c r="AP91" s="43"/>
       <c r="AQ91" s="43"/>
-      <c r="AR91" s="103"/>
-      <c r="AS91" s="111"/>
+      <c r="AR91" s="99"/>
+      <c r="AS91" s="107"/>
       <c r="AT91" s="50"/>
       <c r="AU91" s="50"/>
       <c r="AV91" s="50"/>
-      <c r="AW91" s="113"/>
-      <c r="AX91" s="98"/>
+      <c r="AW91" s="109"/>
+      <c r="AX91" s="94"/>
       <c r="AY91" s="43"/>
       <c r="AZ91" s="43"/>
       <c r="BA91" s="43"/>
-      <c r="BB91" s="103"/>
+      <c r="BB91" s="99"/>
       <c r="BC91" s="30"/>
     </row>
-    <row r="92" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B92" s="31"/>
+    <row r="92" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B92" s="83"/>
       <c r="C92" s="32"/>
-      <c r="D92" s="85" t="s">
+      <c r="D92" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E92" s="117"/>
+      <c r="E92" s="113"/>
       <c r="F92" s="64">
         <v>0</v>
       </c>
@@ -8885,56 +8862,56 @@
       <c r="K92" s="39"/>
       <c r="L92" s="41"/>
       <c r="M92" s="41"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="90"/>
+      <c r="N92" s="90"/>
+      <c r="O92" s="86"/>
       <c r="P92" s="44"/>
       <c r="Q92" s="44"/>
       <c r="R92" s="44"/>
-      <c r="S92" s="99"/>
-      <c r="T92" s="98"/>
+      <c r="S92" s="95"/>
+      <c r="T92" s="94"/>
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="103"/>
-      <c r="Y92" s="98"/>
+      <c r="X92" s="99"/>
+      <c r="Y92" s="94"/>
       <c r="Z92" s="43"/>
       <c r="AA92" s="43"/>
       <c r="AB92" s="43"/>
-      <c r="AC92" s="103"/>
-      <c r="AD92" s="105"/>
+      <c r="AC92" s="99"/>
+      <c r="AD92" s="101"/>
       <c r="AE92" s="49"/>
       <c r="AF92" s="49"/>
       <c r="AG92" s="49"/>
-      <c r="AH92" s="109"/>
-      <c r="AI92" s="98"/>
+      <c r="AH92" s="105"/>
+      <c r="AI92" s="94"/>
       <c r="AJ92" s="43"/>
       <c r="AK92" s="43"/>
       <c r="AL92" s="43"/>
-      <c r="AM92" s="103"/>
-      <c r="AN92" s="98"/>
+      <c r="AM92" s="99"/>
+      <c r="AN92" s="94"/>
       <c r="AO92" s="43"/>
       <c r="AP92" s="43"/>
       <c r="AQ92" s="43"/>
-      <c r="AR92" s="103"/>
-      <c r="AS92" s="111"/>
+      <c r="AR92" s="99"/>
+      <c r="AS92" s="107"/>
       <c r="AT92" s="50"/>
       <c r="AU92" s="50"/>
       <c r="AV92" s="50"/>
-      <c r="AW92" s="113"/>
-      <c r="AX92" s="98"/>
+      <c r="AW92" s="109"/>
+      <c r="AX92" s="94"/>
       <c r="AY92" s="43"/>
       <c r="AZ92" s="43"/>
       <c r="BA92" s="43"/>
-      <c r="BB92" s="103"/>
+      <c r="BB92" s="99"/>
       <c r="BC92" s="30"/>
     </row>
-    <row r="93" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B93" s="86"/>
+    <row r="93" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B93" s="83"/>
       <c r="C93" s="32"/>
-      <c r="D93" s="85" t="s">
+      <c r="D93" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E93" s="117"/>
+      <c r="E93" s="113"/>
       <c r="F93" s="64">
         <v>0</v>
       </c>
@@ -8952,56 +8929,58 @@
       <c r="K93" s="39"/>
       <c r="L93" s="41"/>
       <c r="M93" s="41"/>
-      <c r="N93" s="94"/>
-      <c r="O93" s="90"/>
+      <c r="N93" s="90"/>
+      <c r="O93" s="86"/>
       <c r="P93" s="44"/>
       <c r="Q93" s="44"/>
       <c r="R93" s="44"/>
-      <c r="S93" s="99"/>
-      <c r="T93" s="98"/>
+      <c r="S93" s="95"/>
+      <c r="T93" s="94"/>
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="103"/>
-      <c r="Y93" s="98"/>
+      <c r="X93" s="99"/>
+      <c r="Y93" s="94"/>
       <c r="Z93" s="43"/>
       <c r="AA93" s="43"/>
       <c r="AB93" s="43"/>
-      <c r="AC93" s="103"/>
-      <c r="AD93" s="105"/>
+      <c r="AC93" s="99"/>
+      <c r="AD93" s="101"/>
       <c r="AE93" s="49"/>
       <c r="AF93" s="49"/>
       <c r="AG93" s="49"/>
-      <c r="AH93" s="109"/>
-      <c r="AI93" s="98"/>
+      <c r="AH93" s="105"/>
+      <c r="AI93" s="94"/>
       <c r="AJ93" s="43"/>
       <c r="AK93" s="43"/>
       <c r="AL93" s="43"/>
-      <c r="AM93" s="103"/>
-      <c r="AN93" s="98"/>
+      <c r="AM93" s="99"/>
+      <c r="AN93" s="94"/>
       <c r="AO93" s="43"/>
       <c r="AP93" s="43"/>
       <c r="AQ93" s="43"/>
-      <c r="AR93" s="103"/>
-      <c r="AS93" s="111"/>
+      <c r="AR93" s="99"/>
+      <c r="AS93" s="107"/>
       <c r="AT93" s="50"/>
       <c r="AU93" s="50"/>
       <c r="AV93" s="50"/>
-      <c r="AW93" s="113"/>
-      <c r="AX93" s="98"/>
+      <c r="AW93" s="109"/>
+      <c r="AX93" s="94"/>
       <c r="AY93" s="43"/>
       <c r="AZ93" s="43"/>
       <c r="BA93" s="43"/>
-      <c r="BB93" s="103"/>
+      <c r="BB93" s="99"/>
       <c r="BC93" s="30"/>
     </row>
-    <row r="94" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B94" s="86"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="117"/>
+    <row r="94" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B94" s="117">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
       <c r="F94" s="64">
         <v>0</v>
       </c>
@@ -9019,58 +8998,56 @@
       <c r="K94" s="39"/>
       <c r="L94" s="41"/>
       <c r="M94" s="41"/>
-      <c r="N94" s="94"/>
-      <c r="O94" s="90"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="86"/>
       <c r="P94" s="44"/>
       <c r="Q94" s="44"/>
       <c r="R94" s="44"/>
-      <c r="S94" s="99"/>
-      <c r="T94" s="98"/>
+      <c r="S94" s="95"/>
+      <c r="T94" s="94"/>
       <c r="U94" s="43"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="103"/>
-      <c r="Y94" s="98"/>
+      <c r="X94" s="99"/>
+      <c r="Y94" s="94"/>
       <c r="Z94" s="43"/>
       <c r="AA94" s="43"/>
       <c r="AB94" s="43"/>
-      <c r="AC94" s="103"/>
-      <c r="AD94" s="105"/>
+      <c r="AC94" s="99"/>
+      <c r="AD94" s="101"/>
       <c r="AE94" s="49"/>
       <c r="AF94" s="49"/>
       <c r="AG94" s="49"/>
-      <c r="AH94" s="109"/>
-      <c r="AI94" s="98"/>
+      <c r="AH94" s="105"/>
+      <c r="AI94" s="94"/>
       <c r="AJ94" s="43"/>
       <c r="AK94" s="43"/>
       <c r="AL94" s="43"/>
-      <c r="AM94" s="103"/>
-      <c r="AN94" s="98"/>
+      <c r="AM94" s="99"/>
+      <c r="AN94" s="94"/>
       <c r="AO94" s="43"/>
       <c r="AP94" s="43"/>
       <c r="AQ94" s="43"/>
-      <c r="AR94" s="103"/>
-      <c r="AS94" s="111"/>
+      <c r="AR94" s="99"/>
+      <c r="AS94" s="107"/>
       <c r="AT94" s="50"/>
       <c r="AU94" s="50"/>
       <c r="AV94" s="50"/>
-      <c r="AW94" s="113"/>
-      <c r="AX94" s="98"/>
+      <c r="AW94" s="109"/>
+      <c r="AX94" s="94"/>
       <c r="AY94" s="43"/>
       <c r="AZ94" s="43"/>
       <c r="BA94" s="43"/>
-      <c r="BB94" s="103"/>
+      <c r="BB94" s="99"/>
       <c r="BC94" s="30"/>
     </row>
-    <row r="95" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B95" s="122">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
+    <row r="95" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B95" s="31"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="113"/>
       <c r="F95" s="64">
         <v>0</v>
       </c>
@@ -9088,56 +9065,58 @@
       <c r="K95" s="39"/>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
-      <c r="N95" s="94"/>
-      <c r="O95" s="90"/>
+      <c r="N95" s="90"/>
+      <c r="O95" s="86"/>
       <c r="P95" s="44"/>
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
-      <c r="S95" s="99"/>
-      <c r="T95" s="98"/>
+      <c r="S95" s="95"/>
+      <c r="T95" s="94"/>
       <c r="U95" s="43"/>
       <c r="V95" s="43"/>
       <c r="W95" s="43"/>
-      <c r="X95" s="103"/>
-      <c r="Y95" s="98"/>
+      <c r="X95" s="99"/>
+      <c r="Y95" s="94"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="43"/>
       <c r="AB95" s="43"/>
-      <c r="AC95" s="103"/>
-      <c r="AD95" s="105"/>
+      <c r="AC95" s="99"/>
+      <c r="AD95" s="101"/>
       <c r="AE95" s="49"/>
       <c r="AF95" s="49"/>
       <c r="AG95" s="49"/>
-      <c r="AH95" s="109"/>
-      <c r="AI95" s="98"/>
+      <c r="AH95" s="105"/>
+      <c r="AI95" s="94"/>
       <c r="AJ95" s="43"/>
       <c r="AK95" s="43"/>
       <c r="AL95" s="43"/>
-      <c r="AM95" s="103"/>
-      <c r="AN95" s="98"/>
+      <c r="AM95" s="99"/>
+      <c r="AN95" s="94"/>
       <c r="AO95" s="43"/>
       <c r="AP95" s="43"/>
       <c r="AQ95" s="43"/>
-      <c r="AR95" s="103"/>
-      <c r="AS95" s="111"/>
+      <c r="AR95" s="99"/>
+      <c r="AS95" s="107"/>
       <c r="AT95" s="50"/>
       <c r="AU95" s="50"/>
       <c r="AV95" s="50"/>
-      <c r="AW95" s="113"/>
-      <c r="AX95" s="98"/>
+      <c r="AW95" s="109"/>
+      <c r="AX95" s="94"/>
       <c r="AY95" s="43"/>
       <c r="AZ95" s="43"/>
       <c r="BA95" s="43"/>
-      <c r="BB95" s="103"/>
+      <c r="BB95" s="99"/>
       <c r="BC95" s="30"/>
     </row>
-    <row r="96" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="117"/>
+    <row r="96" spans="1:55" s="112" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B96" s="83">
+        <v>4.16</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
       <c r="F96" s="64">
         <v>0</v>
       </c>
@@ -9151,266 +9130,185 @@
       <c r="I96" s="65">
         <v>0</v>
       </c>
-      <c r="J96" s="38"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="94"/>
-      <c r="O96" s="90"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="89"/>
+      <c r="O96" s="86"/>
       <c r="P96" s="44"/>
       <c r="Q96" s="44"/>
       <c r="R96" s="44"/>
-      <c r="S96" s="99"/>
-      <c r="T96" s="98"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="103"/>
-      <c r="Y96" s="98"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
+      <c r="S96" s="95"/>
+      <c r="T96" s="93"/>
+      <c r="U96" s="46"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
+      <c r="X96" s="98"/>
+      <c r="Y96" s="100"/>
+      <c r="Z96" s="47"/>
+      <c r="AA96" s="47"/>
+      <c r="AB96" s="47"/>
       <c r="AC96" s="103"/>
-      <c r="AD96" s="105"/>
-      <c r="AE96" s="49"/>
-      <c r="AF96" s="49"/>
-      <c r="AG96" s="49"/>
-      <c r="AH96" s="109"/>
-      <c r="AI96" s="98"/>
-      <c r="AJ96" s="43"/>
-      <c r="AK96" s="43"/>
-      <c r="AL96" s="43"/>
+      <c r="AD96" s="100"/>
+      <c r="AE96" s="47"/>
+      <c r="AF96" s="47"/>
+      <c r="AG96" s="47"/>
+      <c r="AH96" s="103"/>
+      <c r="AI96" s="100"/>
+      <c r="AJ96" s="47"/>
+      <c r="AK96" s="47"/>
+      <c r="AL96" s="47"/>
       <c r="AM96" s="103"/>
-      <c r="AN96" s="98"/>
-      <c r="AO96" s="43"/>
-      <c r="AP96" s="43"/>
-      <c r="AQ96" s="43"/>
+      <c r="AN96" s="100"/>
+      <c r="AO96" s="47"/>
+      <c r="AP96" s="47"/>
+      <c r="AQ96" s="47"/>
       <c r="AR96" s="103"/>
-      <c r="AS96" s="111"/>
-      <c r="AT96" s="50"/>
-      <c r="AU96" s="50"/>
-      <c r="AV96" s="50"/>
-      <c r="AW96" s="113"/>
-      <c r="AX96" s="98"/>
-      <c r="AY96" s="43"/>
-      <c r="AZ96" s="43"/>
-      <c r="BA96" s="43"/>
+      <c r="AS96" s="100"/>
+      <c r="AT96" s="47"/>
+      <c r="AU96" s="47"/>
+      <c r="AV96" s="47"/>
+      <c r="AW96" s="103"/>
+      <c r="AX96" s="100"/>
+      <c r="AY96" s="47"/>
+      <c r="AZ96" s="47"/>
+      <c r="BA96" s="47"/>
       <c r="BB96" s="103"/>
       <c r="BC96" s="30"/>
     </row>
-    <row r="97" spans="1:55" s="116" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B97" s="86">
-        <v>4.16</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="64">
-        <v>0</v>
-      </c>
-      <c r="G97" s="64">
-        <v>0</v>
-      </c>
-      <c r="H97" s="33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="65">
-        <v>0</v>
-      </c>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="93"/>
-      <c r="O97" s="90"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="44"/>
-      <c r="S97" s="99"/>
-      <c r="T97" s="97"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="46"/>
-      <c r="W97" s="46"/>
-      <c r="X97" s="102"/>
-      <c r="Y97" s="104"/>
-      <c r="Z97" s="47"/>
-      <c r="AA97" s="47"/>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="107"/>
-      <c r="AD97" s="104"/>
-      <c r="AE97" s="47"/>
-      <c r="AF97" s="47"/>
-      <c r="AG97" s="47"/>
-      <c r="AH97" s="107"/>
-      <c r="AI97" s="104"/>
-      <c r="AJ97" s="47"/>
-      <c r="AK97" s="47"/>
-      <c r="AL97" s="47"/>
-      <c r="AM97" s="107"/>
-      <c r="AN97" s="104"/>
-      <c r="AO97" s="47"/>
-      <c r="AP97" s="47"/>
-      <c r="AQ97" s="47"/>
-      <c r="AR97" s="107"/>
-      <c r="AS97" s="104"/>
-      <c r="AT97" s="47"/>
-      <c r="AU97" s="47"/>
-      <c r="AV97" s="47"/>
-      <c r="AW97" s="107"/>
-      <c r="AX97" s="104"/>
-      <c r="AY97" s="47"/>
-      <c r="AZ97" s="47"/>
-      <c r="BA97" s="47"/>
-      <c r="BB97" s="107"/>
-      <c r="BC97" s="30"/>
-    </row>
-    <row r="98" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B98" s="55">
+    <row r="97" spans="1:55" s="61" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B97" s="55">
         <v>5</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C97" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="57"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="60"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="58"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="58"/>
-      <c r="R98" s="58"/>
-      <c r="S98" s="58"/>
-      <c r="T98" s="58"/>
-      <c r="U98" s="58"/>
-      <c r="V98" s="58"/>
-      <c r="W98" s="58"/>
-      <c r="X98" s="58"/>
-      <c r="Y98" s="58"/>
-      <c r="Z98" s="58"/>
-      <c r="AA98" s="58"/>
-      <c r="AB98" s="58"/>
-      <c r="AC98" s="58"/>
-      <c r="AD98" s="58"/>
-      <c r="AE98" s="58"/>
-      <c r="AF98" s="58"/>
-      <c r="AG98" s="58"/>
-      <c r="AH98" s="58"/>
-      <c r="AI98" s="58"/>
-      <c r="AJ98" s="58"/>
-      <c r="AK98" s="58"/>
-      <c r="AL98" s="58"/>
-      <c r="AM98" s="58"/>
-      <c r="AN98" s="58"/>
-      <c r="AO98" s="58"/>
-      <c r="AP98" s="58"/>
-      <c r="AQ98" s="58"/>
-      <c r="AR98" s="58"/>
-      <c r="AS98" s="58"/>
-      <c r="AT98" s="58"/>
-      <c r="AU98" s="58"/>
-      <c r="AV98" s="58"/>
-      <c r="AW98" s="58"/>
-      <c r="AX98" s="58"/>
-      <c r="AY98" s="58"/>
-      <c r="AZ98" s="58"/>
-      <c r="BA98" s="58"/>
-      <c r="BB98" s="58"/>
-      <c r="BC98" s="54"/>
-    </row>
-    <row r="99" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A99" s="116"/>
-      <c r="B99" s="73">
+      <c r="D97" s="56"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
+      <c r="P97" s="58"/>
+      <c r="Q97" s="58"/>
+      <c r="R97" s="58"/>
+      <c r="S97" s="58"/>
+      <c r="T97" s="58"/>
+      <c r="U97" s="58"/>
+      <c r="V97" s="58"/>
+      <c r="W97" s="58"/>
+      <c r="X97" s="58"/>
+      <c r="Y97" s="58"/>
+      <c r="Z97" s="58"/>
+      <c r="AA97" s="58"/>
+      <c r="AB97" s="58"/>
+      <c r="AC97" s="58"/>
+      <c r="AD97" s="58"/>
+      <c r="AE97" s="58"/>
+      <c r="AF97" s="58"/>
+      <c r="AG97" s="58"/>
+      <c r="AH97" s="58"/>
+      <c r="AI97" s="58"/>
+      <c r="AJ97" s="58"/>
+      <c r="AK97" s="58"/>
+      <c r="AL97" s="58"/>
+      <c r="AM97" s="58"/>
+      <c r="AN97" s="58"/>
+      <c r="AO97" s="58"/>
+      <c r="AP97" s="58"/>
+      <c r="AQ97" s="58"/>
+      <c r="AR97" s="58"/>
+      <c r="AS97" s="58"/>
+      <c r="AT97" s="58"/>
+      <c r="AU97" s="58"/>
+      <c r="AV97" s="58"/>
+      <c r="AW97" s="58"/>
+      <c r="AX97" s="58"/>
+      <c r="AY97" s="58"/>
+      <c r="AZ97" s="58"/>
+      <c r="BA97" s="58"/>
+      <c r="BB97" s="58"/>
+      <c r="BC97" s="54"/>
+    </row>
+    <row r="98" spans="1:55" s="63" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A98" s="112"/>
+      <c r="B98" s="73">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C99" s="87" t="s">
+      <c r="C98" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="70">
+      <c r="D98" s="84"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="70">
         <v>45564</v>
       </c>
-      <c r="G99" s="70">
+      <c r="G98" s="70">
         <v>45394</v>
       </c>
-      <c r="H99" s="71">
-        <f>NETWORKDAYS(F99,G99)</f>
+      <c r="H98" s="71">
+        <f>NETWORKDAYS(F98,G98)</f>
         <v>-121</v>
       </c>
-      <c r="I99" s="72">
+      <c r="I98" s="72">
         <v>1</v>
       </c>
-      <c r="J99" s="34"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="93"/>
-      <c r="O99" s="90"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="99"/>
-      <c r="T99" s="97"/>
-      <c r="U99" s="46"/>
-      <c r="V99" s="46"/>
-      <c r="W99" s="46"/>
-      <c r="X99" s="102"/>
-      <c r="Y99" s="97"/>
-      <c r="Z99" s="46"/>
-      <c r="AA99" s="46"/>
-      <c r="AB99" s="46"/>
-      <c r="AC99" s="102"/>
-      <c r="AD99" s="104"/>
-      <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="107"/>
-      <c r="AI99" s="97"/>
-      <c r="AJ99" s="46"/>
-      <c r="AK99" s="46"/>
-      <c r="AL99" s="46"/>
-      <c r="AM99" s="46"/>
-      <c r="AN99" s="46"/>
-      <c r="AO99" s="46"/>
-      <c r="AP99" s="46"/>
-      <c r="AQ99" s="46"/>
-      <c r="AR99" s="46"/>
-      <c r="AS99" s="46"/>
-      <c r="AT99" s="46"/>
-      <c r="AU99" s="46"/>
-      <c r="AV99" s="46"/>
-      <c r="AW99" s="46"/>
-      <c r="AX99" s="46"/>
-      <c r="AY99" s="46"/>
-      <c r="AZ99" s="46"/>
-      <c r="BA99" s="46"/>
-      <c r="BB99" s="46"/>
-      <c r="BC99" s="30"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="89"/>
+      <c r="O98" s="86"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="95"/>
+      <c r="T98" s="93"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="98"/>
+      <c r="Y98" s="93"/>
+      <c r="Z98" s="46"/>
+      <c r="AA98" s="46"/>
+      <c r="AB98" s="46"/>
+      <c r="AC98" s="98"/>
+      <c r="AD98" s="100"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="103"/>
+      <c r="AI98" s="93"/>
+      <c r="AJ98" s="46"/>
+      <c r="AK98" s="46"/>
+      <c r="AL98" s="46"/>
+      <c r="AM98" s="46"/>
+      <c r="AN98" s="46"/>
+      <c r="AO98" s="46"/>
+      <c r="AP98" s="46"/>
+      <c r="AQ98" s="46"/>
+      <c r="AR98" s="46"/>
+      <c r="AS98" s="46"/>
+      <c r="AT98" s="46"/>
+      <c r="AU98" s="46"/>
+      <c r="AV98" s="46"/>
+      <c r="AW98" s="46"/>
+      <c r="AX98" s="46"/>
+      <c r="AY98" s="46"/>
+      <c r="AZ98" s="46"/>
+      <c r="BA98" s="46"/>
+      <c r="BB98" s="46"/>
+      <c r="BC98" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -9427,6 +9325,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -5,25 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo.DESKTOP-GGMB7P1\Downloads\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF97ACA-43C6-4733-BF00-41E63E50A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E60D6F-CAA8-41C2-852A-8E5925F8F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -228,23 +239,7 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>필수 값 체크</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 회원 확인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 내 취소</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 수단 선택</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -394,16 +389,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>상세정보</t>
-  </si>
-  <si>
-    <t>장바구니 내 수량 조절</t>
-  </si>
-  <si>
-    <t>구매</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>건강기능식품 조회 서비스</t>
   </si>
   <si>
@@ -465,9 +450,6 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증</t>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -491,9 +473,6 @@
   </si>
   <si>
     <t>찜 조회</t>
-  </si>
-  <si>
-    <t>상품 페이지</t>
   </si>
   <si>
     <t>필수 약관 동의</t>
@@ -1121,26 +1100,10 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>공통 Css/Js/Header Include화</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 정보 확인/수정</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>배송 현황</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 현황</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 현황</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>건강 정보</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1154,6 +1117,137 @@
   </si>
   <si>
     <t>진유혁, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Css/Js/Common Include화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 무결성 검사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 이력</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 고정 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 게시판</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 내역</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 수량 조절</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 취소</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매(결제)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 Q&amp;A</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관 상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 입력 항목</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 값 체크</t>
+  </si>
+  <si>
+    <t>회원 상태 변경</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS 마케팅 동의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 회원 확인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900-01-00</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1260,7 @@
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1414,6 +1508,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1833,14 +1933,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="hair">
         <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
         <color rgb="FFB7B7B7"/>
       </bottom>
       <diagonal/>
@@ -1849,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2173,12 +2271,6 @@
     <xf numFmtId="14" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2191,66 +2283,17 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2275,6 +2318,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2289,6 +2336,69 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2607,24 +2717,26 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:BC98"/>
+  <dimension ref="B1:BC115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X95" sqref="X95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="54" width="3.44140625" customWidth="1"/>
-    <col min="55" max="55" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="54" width="3.42578125" customWidth="1"/>
+    <col min="55" max="55" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:55" ht="21" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -2680,42 +2792,42 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="2:55" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="148" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="C2" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2738,7 +2850,7 @@
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
     </row>
-    <row r="3" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:55" ht="21" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2794,43 +2906,43 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
+      <c r="C4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="131"/>
+      <c r="E4" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="150" t="s">
+      <c r="J4" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="151" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -2858,42 +2970,42 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="149">
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="132">
         <v>45611</v>
       </c>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -2922,7 +3034,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:55" ht="21" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2978,7 +3090,7 @@
       <c r="BB6" s="21"/>
       <c r="BC6" s="21"/>
     </row>
-    <row r="7" spans="2:55" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:55" ht="21" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -3034,161 +3146,161 @@
       <c r="BB7" s="21"/>
       <c r="BC7" s="21"/>
     </row>
-    <row r="8" spans="2:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="121" t="s">
+    <row r="8" spans="2:55" ht="17.25" customHeight="1">
+      <c r="B8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="126" t="s">
+      <c r="J8" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="130" t="s">
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130" t="s">
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="134" t="s">
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="138" t="s">
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="138"/>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="138" t="s">
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="138"/>
-      <c r="AK8" s="138"/>
-      <c r="AL8" s="138"/>
-      <c r="AM8" s="140"/>
-      <c r="AN8" s="142" t="s">
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="119" t="s">
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119" t="s">
+      <c r="AT8" s="137"/>
+      <c r="AU8" s="137"/>
+      <c r="AV8" s="137"/>
+      <c r="AW8" s="137"/>
+      <c r="AX8" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
+      <c r="AY8" s="137"/>
+      <c r="AZ8" s="137"/>
+      <c r="BA8" s="137"/>
+      <c r="BB8" s="137"/>
       <c r="BC8" s="21"/>
     </row>
-    <row r="9" spans="2:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="141"/>
-      <c r="AN9" s="144"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="145"/>
-      <c r="AQ9" s="145"/>
-      <c r="AR9" s="145"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="120"/>
-      <c r="AX9" s="120"/>
-      <c r="AY9" s="120"/>
-      <c r="AZ9" s="120"/>
-      <c r="BA9" s="120"/>
-      <c r="BB9" s="120"/>
+    <row r="9" spans="2:55" ht="17.25" customHeight="1">
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="126"/>
+      <c r="AP9" s="126"/>
+      <c r="AQ9" s="126"/>
+      <c r="AR9" s="126"/>
+      <c r="AS9" s="138"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="138"/>
+      <c r="AV9" s="138"/>
+      <c r="AW9" s="138"/>
+      <c r="AX9" s="138"/>
+      <c r="AY9" s="138"/>
+      <c r="AZ9" s="138"/>
+      <c r="BA9" s="138"/>
+      <c r="BB9" s="138"/>
       <c r="BC9" s="24"/>
     </row>
-    <row r="10" spans="2:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+    <row r="10" spans="2:55" ht="17.25" customHeight="1">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -3326,7 +3438,7 @@
       </c>
       <c r="BC10" s="25"/>
     </row>
-    <row r="11" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="B11" s="52">
         <v>1</v>
       </c>
@@ -3386,7 +3498,7 @@
       <c r="BB11" s="55"/>
       <c r="BC11" s="51"/>
     </row>
-    <row r="12" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B12" s="64">
         <v>1.1000000000000001</v>
       </c>
@@ -3395,7 +3507,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="79" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="66">
         <v>45558</v>
@@ -3410,7 +3522,7 @@
       <c r="I12" s="68">
         <v>1</v>
       </c>
-      <c r="J12" s="115"/>
+      <c r="J12" s="113"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
@@ -3457,7 +3569,7 @@
       <c r="BB12" s="93"/>
       <c r="BC12" s="29"/>
     </row>
-    <row r="13" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="B13" s="52">
         <v>2</v>
       </c>
@@ -3517,16 +3629,16 @@
       <c r="BB13" s="55"/>
       <c r="BC13" s="51"/>
     </row>
-    <row r="14" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B14" s="30">
         <v>2.1</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="77" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" s="60">
         <v>45558</v>
@@ -3541,7 +3653,7 @@
       <c r="I14" s="61">
         <v>1</v>
       </c>
-      <c r="J14" s="115"/>
+      <c r="J14" s="113"/>
       <c r="K14" s="85"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -3588,16 +3700,16 @@
       <c r="BB14" s="94"/>
       <c r="BC14" s="29"/>
     </row>
-    <row r="15" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B15" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="77" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="60">
         <v>45559</v>
@@ -3613,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="36"/>
-      <c r="K15" s="115"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
       <c r="N15" s="85"/>
@@ -3659,16 +3771,16 @@
       <c r="BB15" s="94"/>
       <c r="BC15" s="29"/>
     </row>
-    <row r="16" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B16" s="69">
         <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="66">
         <v>45560</v>
@@ -3685,9 +3797,9 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="82"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
@@ -3730,7 +3842,7 @@
       <c r="BB16" s="94"/>
       <c r="BC16" s="29"/>
     </row>
-    <row r="17" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="B17" s="52">
         <v>3</v>
       </c>
@@ -3790,16 +3902,16 @@
       <c r="BB17" s="55"/>
       <c r="BC17" s="51"/>
     </row>
-    <row r="18" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B18" s="30">
         <v>3.1</v>
       </c>
-      <c r="C18" s="118" t="s">
-        <v>116</v>
+      <c r="C18" s="116" t="s">
+        <v>107</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="77" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="60">
         <v>45565</v>
@@ -3816,7 +3928,7 @@
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="115"/>
+      <c r="L18" s="113"/>
       <c r="M18" s="82"/>
       <c r="N18" s="82"/>
       <c r="O18" s="82"/>
@@ -3861,16 +3973,16 @@
       <c r="BB18" s="93"/>
       <c r="BC18" s="29"/>
     </row>
-    <row r="19" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B19" s="30">
         <v>3.2</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" s="60">
         <v>45561</v>
@@ -3888,8 +4000,8 @@
       <c r="J19" s="36"/>
       <c r="K19" s="37"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="82"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -3932,7 +4044,7 @@
       <c r="BB19" s="94"/>
       <c r="BC19" s="29"/>
     </row>
-    <row r="20" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B20" s="30">
         <v>3.3</v>
       </c>
@@ -3941,7 +4053,7 @@
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="60">
         <v>45561</v>
@@ -3959,9 +4071,9 @@
       <c r="J20" s="36"/>
       <c r="K20" s="37"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
@@ -4003,21 +4115,21 @@
       <c r="BB20" s="94"/>
       <c r="BC20" s="29"/>
     </row>
-    <row r="21" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B21" s="69">
         <v>3.4</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="60">
         <v>45561</v>
       </c>
-      <c r="G21" s="117">
+      <c r="G21" s="115">
         <v>45565</v>
       </c>
       <c r="H21" s="67">
@@ -4030,9 +4142,9 @@
       <c r="J21" s="36"/>
       <c r="K21" s="37"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
@@ -4074,16 +4186,16 @@
       <c r="BB21" s="94"/>
       <c r="BC21" s="29"/>
     </row>
-    <row r="22" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B22" s="30">
         <v>3.5</v>
       </c>
-      <c r="C22" s="118" t="s">
-        <v>121</v>
+      <c r="C22" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="77" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F22" s="60">
         <v>45565</v>
@@ -4103,7 +4215,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
       <c r="N22" s="91"/>
-      <c r="O22" s="116"/>
+      <c r="O22" s="114"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
@@ -4145,16 +4257,16 @@
       <c r="BB22" s="94"/>
       <c r="BC22" s="29"/>
     </row>
-    <row r="23" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B23" s="30">
         <v>3.6</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="105" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F23" s="60">
         <v>45565</v>
@@ -4174,8 +4286,8 @@
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="91"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="115"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="113"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="91"/>
@@ -4216,7 +4328,7 @@
       <c r="BB23" s="94"/>
       <c r="BC23" s="29"/>
     </row>
-    <row r="24" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B24" s="69">
         <v>3.7</v>
       </c>
@@ -4225,13 +4337,13 @@
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="117" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="F24" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="115" t="s">
+        <v>85</v>
       </c>
       <c r="H24" s="67" t="e">
         <f t="shared" ref="H24" si="2">NETWORKDAYS(F24,G24)</f>
@@ -4286,7 +4398,7 @@
       <c r="BB24" s="94"/>
       <c r="BC24" s="29"/>
     </row>
-    <row r="25" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="B25" s="52">
         <v>4</v>
       </c>
@@ -4346,26 +4458,26 @@
       <c r="BB25" s="55"/>
       <c r="BC25" s="51"/>
     </row>
-    <row r="26" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B26" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="D26" s="77"/>
       <c r="E26" s="107"/>
-      <c r="F26" s="60">
+      <c r="F26" s="112">
         <v>45565</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="112">
         <v>45565</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="154">
         <f>NETWORKDAYS(F26,G26)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="155">
         <v>1</v>
       </c>
       <c r="J26" s="33"/>
@@ -4373,7 +4485,7 @@
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="84"/>
-      <c r="O26" s="116"/>
+      <c r="O26" s="114"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
@@ -4415,26 +4527,26 @@
       <c r="BB26" s="93"/>
       <c r="BC26" s="29"/>
     </row>
-    <row r="27" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="77" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="60">
+        <v>49</v>
+      </c>
+      <c r="F27" s="112">
         <v>45565</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="112">
         <v>45565</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="154">
         <f>NETWORKDAYS(F27,G27)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="155">
         <v>1</v>
       </c>
       <c r="J27" s="33"/>
@@ -4442,7 +4554,7 @@
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="84"/>
-      <c r="O27" s="116"/>
+      <c r="O27" s="114"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="41"/>
@@ -4484,27 +4596,27 @@
       <c r="BB27" s="93"/>
       <c r="BC27" s="29"/>
     </row>
-    <row r="28" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B28" s="30">
         <v>4.2</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="31"/>
+        <v>94</v>
+      </c>
+      <c r="D28" s="77"/>
       <c r="E28" s="107"/>
-      <c r="F28" s="60">
+      <c r="F28" s="112">
         <v>45566</v>
       </c>
-      <c r="G28" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="32" t="e">
+      <c r="G28" s="112">
+        <v>45572</v>
+      </c>
+      <c r="H28" s="154">
         <f>NETWORKDAYS(F28,G28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="61">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I28" s="155">
+        <v>1</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4512,7 +4624,7 @@
       <c r="M28" s="35"/>
       <c r="N28" s="84"/>
       <c r="O28" s="81"/>
-      <c r="P28" s="115"/>
+      <c r="P28" s="113"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
       <c r="S28" s="90"/>
@@ -4553,27 +4665,27 @@
       <c r="BB28" s="93"/>
       <c r="BC28" s="29"/>
     </row>
-    <row r="29" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="77" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="E29" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="60">
+        <v>104</v>
+      </c>
+      <c r="F29" s="112">
         <v>45566</v>
       </c>
-      <c r="G29" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="32" t="e">
-        <f t="shared" ref="H29" si="3">NETWORKDAYS(F29,G29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="61">
-        <v>0.5</v>
+      <c r="G29" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H29" s="154">
+        <f t="shared" ref="H29:H31" si="3">NETWORKDAYS(F29,G29)</f>
+        <v>2</v>
+      </c>
+      <c r="I29" s="155">
+        <v>1</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
@@ -4581,8 +4693,8 @@
       <c r="M29" s="35"/>
       <c r="N29" s="84"/>
       <c r="O29" s="81"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
       <c r="R29" s="41"/>
       <c r="S29" s="90"/>
       <c r="T29" s="88"/>
@@ -4622,27 +4734,27 @@
       <c r="BB29" s="93"/>
       <c r="BC29" s="29"/>
     </row>
-    <row r="30" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="77" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E30" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="60">
+        <v>104</v>
+      </c>
+      <c r="F30" s="112">
         <v>45566</v>
       </c>
-      <c r="G30" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="32" t="e">
-        <f>NETWORKDAYS(F30,G30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="61">
-        <v>0.5</v>
+      <c r="G30" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H30" s="154">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="155">
+        <v>1</v>
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="34"/>
@@ -4650,8 +4762,8 @@
       <c r="M30" s="35"/>
       <c r="N30" s="84"/>
       <c r="O30" s="81"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="41"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
       <c r="R30" s="41"/>
       <c r="S30" s="90"/>
       <c r="T30" s="88"/>
@@ -4691,27 +4803,27 @@
       <c r="BB30" s="93"/>
       <c r="BC30" s="29"/>
     </row>
-    <row r="31" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
       <c r="D31" s="77" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E31" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="60">
+        <v>104</v>
+      </c>
+      <c r="F31" s="112">
         <v>45566</v>
       </c>
-      <c r="G31" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="32" t="e">
-        <f>NETWORKDAYS(F31,G31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="61">
-        <v>0.5</v>
+      <c r="G31" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H31" s="154">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="155">
+        <v>1</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
@@ -4719,10 +4831,10 @@
       <c r="M31" s="35"/>
       <c r="N31" s="84"/>
       <c r="O31" s="81"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="41"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
       <c r="R31" s="41"/>
-      <c r="S31" s="90"/>
+      <c r="S31" s="113"/>
       <c r="T31" s="88"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
@@ -4760,27 +4872,27 @@
       <c r="BB31" s="93"/>
       <c r="BC31" s="29"/>
     </row>
-    <row r="32" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="77" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E32" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="60">
+        <v>104</v>
+      </c>
+      <c r="F32" s="112">
         <v>45566</v>
       </c>
-      <c r="G32" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="32" t="e">
-        <f t="shared" ref="H32:H55" si="4">NETWORKDAYS(F32,G32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="61">
-        <v>0.5</v>
+      <c r="G32" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H32" s="154">
+        <f t="shared" ref="H32" si="4">NETWORKDAYS(F32,G32)</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="155">
+        <v>1</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="34"/>
@@ -4788,10 +4900,10 @@
       <c r="M32" s="35"/>
       <c r="N32" s="84"/>
       <c r="O32" s="81"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="41"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="90"/>
+      <c r="S32" s="113"/>
       <c r="T32" s="88"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
@@ -4829,27 +4941,27 @@
       <c r="BB32" s="93"/>
       <c r="BC32" s="29"/>
     </row>
-    <row r="33" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="77" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E33" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="60">
+        <v>104</v>
+      </c>
+      <c r="F33" s="112">
         <v>45566</v>
       </c>
-      <c r="G33" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="32" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="61">
-        <v>0.5</v>
+      <c r="G33" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H33" s="154">
+        <f>NETWORKDAYS(F33,G33)</f>
+        <v>4</v>
+      </c>
+      <c r="I33" s="155">
+        <v>1</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="34"/>
@@ -4857,10 +4969,10 @@
       <c r="M33" s="35"/>
       <c r="N33" s="84"/>
       <c r="O33" s="81"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="41"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
       <c r="R33" s="41"/>
-      <c r="S33" s="90"/>
+      <c r="S33" s="113"/>
       <c r="T33" s="88"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
@@ -4898,27 +5010,27 @@
       <c r="BB33" s="93"/>
       <c r="BC33" s="29"/>
     </row>
-    <row r="34" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="77" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E34" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="60">
+        <v>104</v>
+      </c>
+      <c r="F34" s="112">
         <v>45566</v>
       </c>
-      <c r="G34" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="32" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="61">
-        <v>0.5</v>
+      <c r="G34" s="112">
+        <v>45570</v>
+      </c>
+      <c r="H34" s="154">
+        <f>NETWORKDAYS(F34,G34)</f>
+        <v>4</v>
+      </c>
+      <c r="I34" s="155">
+        <v>1</v>
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="34"/>
@@ -4926,11 +5038,11 @@
       <c r="M34" s="35"/>
       <c r="N34" s="84"/>
       <c r="O34" s="81"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="41"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
       <c r="R34" s="41"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="88"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="41"/>
       <c r="U34" s="43"/>
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
@@ -4967,295 +5079,303 @@
       <c r="BB34" s="93"/>
       <c r="BC34" s="29"/>
     </row>
-    <row r="35" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30">
-        <v>4.3</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="60">
-        <v>0</v>
-      </c>
-      <c r="G35" s="60">
-        <v>0</v>
-      </c>
-      <c r="H35" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="61">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="85"/>
+    <row r="35" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G35" s="112">
+        <v>45570</v>
+      </c>
+      <c r="H35" s="154">
+        <f>NETWORKDAYS(F35,G35)</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="155">
+        <v>1</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="84"/>
       <c r="O35" s="81"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
       <c r="R35" s="41"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="89"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="40"/>
-      <c r="AM35" s="94"/>
-      <c r="AN35" s="89"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="40"/>
-      <c r="AQ35" s="40"/>
-      <c r="AR35" s="94"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="47"/>
-      <c r="AU35" s="47"/>
-      <c r="AV35" s="47"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="40"/>
-      <c r="AZ35" s="40"/>
-      <c r="BA35" s="40"/>
-      <c r="BB35" s="94"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="88"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="88"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="101"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="103"/>
+      <c r="AX35" s="88"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="93"/>
       <c r="BC35" s="29"/>
     </row>
-    <row r="36" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="60">
-        <v>0</v>
-      </c>
-      <c r="G36" s="60">
-        <v>0</v>
-      </c>
-      <c r="H36" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="61">
-        <v>0</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="85"/>
+        <v>75</v>
+      </c>
+      <c r="E36" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G36" s="112">
+        <v>45572</v>
+      </c>
+      <c r="H36" s="154">
+        <f t="shared" ref="H36:H99" si="5">NETWORKDAYS(F36,G36)</f>
+        <v>5</v>
+      </c>
+      <c r="I36" s="155">
+        <v>1</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="84"/>
       <c r="O36" s="81"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="89"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="40"/>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="89"/>
-      <c r="AO36" s="40"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="47"/>
-      <c r="AU36" s="47"/>
-      <c r="AV36" s="47"/>
-      <c r="AW36" s="104"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="40"/>
-      <c r="AZ36" s="40"/>
-      <c r="BA36" s="40"/>
-      <c r="BB36" s="94"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="88"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="93"/>
+      <c r="AN36" s="88"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="101"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="103"/>
+      <c r="AX36" s="88"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="43"/>
+      <c r="BB36" s="93"/>
       <c r="BC36" s="29"/>
     </row>
-    <row r="37" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="60">
-        <v>0</v>
-      </c>
-      <c r="G37" s="60">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="61">
-        <v>0</v>
-      </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="85"/>
+        <v>146</v>
+      </c>
+      <c r="E37" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G37" s="112">
+        <v>45572</v>
+      </c>
+      <c r="H37" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I37" s="155">
+        <v>1</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="84"/>
       <c r="O37" s="81"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
       <c r="R37" s="41"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="100"/>
-      <c r="AI37" s="89"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="40"/>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="89"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="94"/>
-      <c r="AS37" s="102"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="47"/>
-      <c r="AW37" s="104"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="40"/>
-      <c r="AZ37" s="40"/>
-      <c r="BA37" s="40"/>
-      <c r="BB37" s="94"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="88"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="93"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="101"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="103"/>
+      <c r="AX37" s="88"/>
+      <c r="AY37" s="43"/>
+      <c r="AZ37" s="43"/>
+      <c r="BA37" s="43"/>
+      <c r="BB37" s="93"/>
       <c r="BC37" s="29"/>
     </row>
-    <row r="38" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="60">
-        <v>0</v>
-      </c>
-      <c r="G38" s="60">
-        <v>0</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="61">
-        <v>0</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="85"/>
+        <v>145</v>
+      </c>
+      <c r="E38" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G38" s="112">
+        <v>45572</v>
+      </c>
+      <c r="H38" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I38" s="155">
+        <v>1</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="84"/>
       <c r="O38" s="81"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
       <c r="R38" s="41"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="94"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="100"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="40"/>
-      <c r="AM38" s="94"/>
-      <c r="AN38" s="89"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="94"/>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="47"/>
-      <c r="AU38" s="47"/>
-      <c r="AV38" s="47"/>
-      <c r="AW38" s="104"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="40"/>
-      <c r="AZ38" s="40"/>
-      <c r="BA38" s="40"/>
-      <c r="BB38" s="94"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="88"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="93"/>
+      <c r="AN38" s="88"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="93"/>
+      <c r="AS38" s="101"/>
+      <c r="AT38" s="45"/>
+      <c r="AU38" s="45"/>
+      <c r="AV38" s="45"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="88"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="93"/>
       <c r="BC38" s="29"/>
     </row>
-    <row r="39" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="77" t="s">
-        <v>38</v>
-      </c>
+    <row r="39" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B39" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="77"/>
       <c r="E39" s="107"/>
-      <c r="F39" s="60">
-        <v>0</v>
-      </c>
-      <c r="G39" s="60">
-        <v>0</v>
-      </c>
-      <c r="H39" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="61">
-        <v>0</v>
+      <c r="F39" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G39" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H39" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I39" s="155">
+        <v>1</v>
       </c>
       <c r="J39" s="36"/>
       <c r="K39" s="37"/>
@@ -5267,7 +5387,7 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="90"/>
-      <c r="T39" s="89"/>
+      <c r="T39" s="113"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
       <c r="W39" s="40"/>
@@ -5304,27 +5424,27 @@
       <c r="BB39" s="94"/>
       <c r="BC39" s="29"/>
     </row>
-    <row r="40" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="30">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="60">
-        <v>0</v>
-      </c>
-      <c r="G40" s="60">
-        <v>0</v>
-      </c>
-      <c r="H40" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="61">
-        <v>0</v>
+    <row r="40" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B40" s="30"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G40" s="112">
+        <v>45573</v>
+      </c>
+      <c r="H40" s="154">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I40" s="155">
+        <v>1</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="37"/>
@@ -5336,8 +5456,8 @@
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
       <c r="S40" s="90"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="40"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
       <c r="V40" s="40"/>
       <c r="W40" s="40"/>
       <c r="X40" s="94"/>
@@ -5373,25 +5493,27 @@
       <c r="BB40" s="94"/>
       <c r="BC40" s="29"/>
     </row>
-    <row r="41" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="60">
-        <v>0</v>
-      </c>
-      <c r="G41" s="60">
-        <v>0</v>
-      </c>
-      <c r="H41" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="61">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G41" s="112">
+        <v>45573</v>
+      </c>
+      <c r="H41" s="154">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="155">
+        <v>1</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="37"/>
@@ -5403,8 +5525,8 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
       <c r="S41" s="90"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="40"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
       <c r="V41" s="40"/>
       <c r="W41" s="40"/>
       <c r="X41" s="94"/>
@@ -5440,25 +5562,27 @@
       <c r="BB41" s="94"/>
       <c r="BC41" s="29"/>
     </row>
-    <row r="42" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="60">
-        <v>0</v>
-      </c>
-      <c r="G42" s="60">
-        <v>0</v>
-      </c>
-      <c r="H42" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="61">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="E42" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G42" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H42" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="155">
+        <v>1</v>
       </c>
       <c r="J42" s="36"/>
       <c r="K42" s="37"/>
@@ -5470,11 +5594,11 @@
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
       <c r="S42" s="90"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="40"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
       <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="94"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
       <c r="Y42" s="89"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
@@ -5507,25 +5631,27 @@
       <c r="BB42" s="94"/>
       <c r="BC42" s="29"/>
     </row>
-    <row r="43" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="60">
-        <v>0</v>
-      </c>
-      <c r="G43" s="60">
-        <v>0</v>
-      </c>
-      <c r="H43" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="61">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="E43" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G43" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H43" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="155">
+        <v>1</v>
       </c>
       <c r="J43" s="36"/>
       <c r="K43" s="37"/>
@@ -5537,11 +5663,11 @@
       <c r="Q43" s="41"/>
       <c r="R43" s="41"/>
       <c r="S43" s="90"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="40"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
       <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="94"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
       <c r="Y43" s="89"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -5574,25 +5700,27 @@
       <c r="BB43" s="94"/>
       <c r="BC43" s="29"/>
     </row>
-    <row r="44" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="60">
-        <v>0</v>
-      </c>
-      <c r="G44" s="60">
-        <v>0</v>
-      </c>
-      <c r="H44" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="61">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="E44" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G44" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H44" s="154">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="155">
+        <v>1</v>
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="37"/>
@@ -5604,11 +5732,11 @@
       <c r="Q44" s="41"/>
       <c r="R44" s="41"/>
       <c r="S44" s="90"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="40"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
       <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="94"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
       <c r="Y44" s="89"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -5641,24 +5769,26 @@
       <c r="BB44" s="94"/>
       <c r="BC44" s="29"/>
     </row>
-    <row r="45" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="77" t="s">
-        <v>85</v>
-      </c>
+    <row r="45" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B45" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="77"/>
       <c r="E45" s="107"/>
-      <c r="F45" s="60">
-        <v>0</v>
-      </c>
-      <c r="G45" s="60">
-        <v>0</v>
-      </c>
-      <c r="H45" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="61">
+      <c r="F45" s="112">
+        <v>0</v>
+      </c>
+      <c r="G45" s="112">
+        <v>0</v>
+      </c>
+      <c r="H45" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="155">
         <v>0</v>
       </c>
       <c r="J45" s="36"/>
@@ -5708,24 +5838,24 @@
       <c r="BB45" s="94"/>
       <c r="BC45" s="29"/>
     </row>
-    <row r="46" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
       <c r="D46" s="77" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="E46" s="107"/>
-      <c r="F46" s="60">
-        <v>0</v>
-      </c>
-      <c r="G46" s="60">
-        <v>0</v>
-      </c>
-      <c r="H46" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="61">
+      <c r="F46" s="112">
+        <v>0</v>
+      </c>
+      <c r="G46" s="112">
+        <v>0</v>
+      </c>
+      <c r="H46" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="155">
         <v>0</v>
       </c>
       <c r="J46" s="36"/>
@@ -5775,24 +5905,24 @@
       <c r="BB46" s="94"/>
       <c r="BC46" s="29"/>
     </row>
-    <row r="47" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="77" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E47" s="107"/>
-      <c r="F47" s="60">
-        <v>0</v>
-      </c>
-      <c r="G47" s="60">
-        <v>0</v>
-      </c>
-      <c r="H47" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="61">
+      <c r="F47" s="112">
+        <v>0</v>
+      </c>
+      <c r="G47" s="112">
+        <v>0</v>
+      </c>
+      <c r="H47" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="155">
         <v>0</v>
       </c>
       <c r="J47" s="36"/>
@@ -5842,24 +5972,24 @@
       <c r="BB47" s="94"/>
       <c r="BC47" s="29"/>
     </row>
-    <row r="48" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="77" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E48" s="107"/>
-      <c r="F48" s="60">
-        <v>0</v>
-      </c>
-      <c r="G48" s="60">
-        <v>0</v>
-      </c>
-      <c r="H48" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="61">
+      <c r="F48" s="112">
+        <v>0</v>
+      </c>
+      <c r="G48" s="112">
+        <v>0</v>
+      </c>
+      <c r="H48" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="155">
         <v>0</v>
       </c>
       <c r="J48" s="36"/>
@@ -5909,24 +6039,24 @@
       <c r="BB48" s="94"/>
       <c r="BC48" s="29"/>
     </row>
-    <row r="49" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="77" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E49" s="107"/>
-      <c r="F49" s="60">
-        <v>0</v>
-      </c>
-      <c r="G49" s="60">
-        <v>0</v>
-      </c>
-      <c r="H49" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="61">
+      <c r="F49" s="112">
+        <v>0</v>
+      </c>
+      <c r="G49" s="112">
+        <v>0</v>
+      </c>
+      <c r="H49" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="155">
         <v>0</v>
       </c>
       <c r="J49" s="36"/>
@@ -5976,24 +6106,24 @@
       <c r="BB49" s="94"/>
       <c r="BC49" s="29"/>
     </row>
-    <row r="50" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="77" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E50" s="107"/>
-      <c r="F50" s="60">
-        <v>0</v>
-      </c>
-      <c r="G50" s="60">
-        <v>0</v>
-      </c>
-      <c r="H50" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="61">
+      <c r="F50" s="112">
+        <v>0</v>
+      </c>
+      <c r="G50" s="112">
+        <v>0</v>
+      </c>
+      <c r="H50" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="155">
         <v>0</v>
       </c>
       <c r="J50" s="36"/>
@@ -6043,364 +6173,362 @@
       <c r="BB50" s="94"/>
       <c r="BC50" s="29"/>
     </row>
-    <row r="51" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="77"/>
+    <row r="51" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="77" t="s">
+        <v>50</v>
+      </c>
       <c r="E51" s="107"/>
-      <c r="F51" s="60">
-        <v>0</v>
-      </c>
-      <c r="G51" s="60">
-        <v>0</v>
-      </c>
-      <c r="H51" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="61">
-        <v>0</v>
-      </c>
-      <c r="J51" s="33"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="84"/>
+      <c r="F51" s="112">
+        <v>0</v>
+      </c>
+      <c r="G51" s="112">
+        <v>0</v>
+      </c>
+      <c r="H51" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="155">
+        <v>0</v>
+      </c>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="85"/>
       <c r="O51" s="81"/>
       <c r="P51" s="41"/>
       <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
       <c r="S51" s="90"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="98"/>
-      <c r="AD51" s="95"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="98"/>
-      <c r="AI51" s="95"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="98"/>
-      <c r="AN51" s="95"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="44"/>
-      <c r="AQ51" s="44"/>
-      <c r="AR51" s="98"/>
-      <c r="AS51" s="95"/>
-      <c r="AT51" s="44"/>
-      <c r="AU51" s="44"/>
-      <c r="AV51" s="44"/>
-      <c r="AW51" s="98"/>
-      <c r="AX51" s="95"/>
-      <c r="AY51" s="44"/>
-      <c r="AZ51" s="44"/>
-      <c r="BA51" s="44"/>
-      <c r="BB51" s="98"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="94"/>
+      <c r="AD51" s="96"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="100"/>
+      <c r="AI51" s="89"/>
+      <c r="AJ51" s="40"/>
+      <c r="AK51" s="40"/>
+      <c r="AL51" s="40"/>
+      <c r="AM51" s="94"/>
+      <c r="AN51" s="89"/>
+      <c r="AO51" s="40"/>
+      <c r="AP51" s="40"/>
+      <c r="AQ51" s="40"/>
+      <c r="AR51" s="94"/>
+      <c r="AS51" s="102"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="104"/>
+      <c r="AX51" s="89"/>
+      <c r="AY51" s="40"/>
+      <c r="AZ51" s="40"/>
+      <c r="BA51" s="40"/>
+      <c r="BB51" s="94"/>
       <c r="BC51" s="29"/>
     </row>
-    <row r="52" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="77" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E52" s="107"/>
-      <c r="F52" s="60">
-        <v>0</v>
-      </c>
-      <c r="G52" s="60">
-        <v>0</v>
-      </c>
-      <c r="H52" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="61">
-        <v>0</v>
-      </c>
-      <c r="J52" s="33"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="84"/>
+      <c r="F52" s="112">
+        <v>0</v>
+      </c>
+      <c r="G52" s="112">
+        <v>0</v>
+      </c>
+      <c r="H52" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="155">
+        <v>0</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="85"/>
       <c r="O52" s="81"/>
       <c r="P52" s="41"/>
       <c r="Q52" s="41"/>
       <c r="R52" s="41"/>
       <c r="S52" s="90"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="95"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="98"/>
-      <c r="AD52" s="95"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="98"/>
-      <c r="AI52" s="95"/>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="44"/>
-      <c r="AL52" s="44"/>
-      <c r="AM52" s="98"/>
-      <c r="AN52" s="95"/>
-      <c r="AO52" s="44"/>
-      <c r="AP52" s="44"/>
-      <c r="AQ52" s="44"/>
-      <c r="AR52" s="98"/>
-      <c r="AS52" s="95"/>
-      <c r="AT52" s="44"/>
-      <c r="AU52" s="44"/>
-      <c r="AV52" s="44"/>
-      <c r="AW52" s="98"/>
-      <c r="AX52" s="95"/>
-      <c r="AY52" s="44"/>
-      <c r="AZ52" s="44"/>
-      <c r="BA52" s="44"/>
-      <c r="BB52" s="98"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="94"/>
+      <c r="AD52" s="96"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="100"/>
+      <c r="AI52" s="89"/>
+      <c r="AJ52" s="40"/>
+      <c r="AK52" s="40"/>
+      <c r="AL52" s="40"/>
+      <c r="AM52" s="94"/>
+      <c r="AN52" s="89"/>
+      <c r="AO52" s="40"/>
+      <c r="AP52" s="40"/>
+      <c r="AQ52" s="40"/>
+      <c r="AR52" s="94"/>
+      <c r="AS52" s="102"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="104"/>
+      <c r="AX52" s="89"/>
+      <c r="AY52" s="40"/>
+      <c r="AZ52" s="40"/>
+      <c r="BA52" s="40"/>
+      <c r="BB52" s="94"/>
       <c r="BC52" s="29"/>
     </row>
-    <row r="53" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="77" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E53" s="107"/>
-      <c r="F53" s="60">
-        <v>0</v>
-      </c>
-      <c r="G53" s="60">
-        <v>0</v>
-      </c>
-      <c r="H53" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="61">
-        <v>0</v>
-      </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="84"/>
+      <c r="F53" s="112">
+        <v>0</v>
+      </c>
+      <c r="G53" s="112">
+        <v>0</v>
+      </c>
+      <c r="H53" s="154">
+        <f>NETWORKDAYS(F53,G53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="155">
+        <v>0</v>
+      </c>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="85"/>
       <c r="O53" s="81"/>
       <c r="P53" s="41"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="41"/>
       <c r="S53" s="90"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="93"/>
-      <c r="Y53" s="95"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="98"/>
-      <c r="AD53" s="95"/>
-      <c r="AE53" s="44"/>
-      <c r="AF53" s="44"/>
-      <c r="AG53" s="44"/>
-      <c r="AH53" s="98"/>
-      <c r="AI53" s="95"/>
-      <c r="AJ53" s="44"/>
-      <c r="AK53" s="44"/>
-      <c r="AL53" s="44"/>
-      <c r="AM53" s="98"/>
-      <c r="AN53" s="95"/>
-      <c r="AO53" s="44"/>
-      <c r="AP53" s="44"/>
-      <c r="AQ53" s="44"/>
-      <c r="AR53" s="98"/>
-      <c r="AS53" s="95"/>
-      <c r="AT53" s="44"/>
-      <c r="AU53" s="44"/>
-      <c r="AV53" s="44"/>
-      <c r="AW53" s="98"/>
-      <c r="AX53" s="95"/>
-      <c r="AY53" s="44"/>
-      <c r="AZ53" s="44"/>
-      <c r="BA53" s="44"/>
-      <c r="BB53" s="98"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="89"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="94"/>
+      <c r="AD53" s="96"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="100"/>
+      <c r="AI53" s="89"/>
+      <c r="AJ53" s="40"/>
+      <c r="AK53" s="40"/>
+      <c r="AL53" s="40"/>
+      <c r="AM53" s="94"/>
+      <c r="AN53" s="89"/>
+      <c r="AO53" s="40"/>
+      <c r="AP53" s="40"/>
+      <c r="AQ53" s="40"/>
+      <c r="AR53" s="94"/>
+      <c r="AS53" s="102"/>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="47"/>
+      <c r="AW53" s="104"/>
+      <c r="AX53" s="89"/>
+      <c r="AY53" s="40"/>
+      <c r="AZ53" s="40"/>
+      <c r="BA53" s="40"/>
+      <c r="BB53" s="94"/>
       <c r="BC53" s="29"/>
     </row>
-    <row r="54" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="77" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E54" s="107"/>
-      <c r="F54" s="60">
-        <v>0</v>
-      </c>
-      <c r="G54" s="60">
-        <v>0</v>
-      </c>
-      <c r="H54" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="61">
-        <v>0</v>
-      </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="84"/>
+      <c r="F54" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="154" t="e">
+        <f>NETWORKDAYS(F54,G54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" s="155">
+        <v>0</v>
+      </c>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="85"/>
       <c r="O54" s="81"/>
       <c r="P54" s="41"/>
       <c r="Q54" s="41"/>
       <c r="R54" s="41"/>
       <c r="S54" s="90"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="93"/>
-      <c r="Y54" s="95"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="98"/>
-      <c r="AD54" s="95"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="98"/>
-      <c r="AI54" s="95"/>
-      <c r="AJ54" s="44"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="44"/>
-      <c r="AM54" s="98"/>
-      <c r="AN54" s="95"/>
-      <c r="AO54" s="44"/>
-      <c r="AP54" s="44"/>
-      <c r="AQ54" s="44"/>
-      <c r="AR54" s="98"/>
-      <c r="AS54" s="95"/>
-      <c r="AT54" s="44"/>
-      <c r="AU54" s="44"/>
-      <c r="AV54" s="44"/>
-      <c r="AW54" s="98"/>
-      <c r="AX54" s="95"/>
-      <c r="AY54" s="44"/>
-      <c r="AZ54" s="44"/>
-      <c r="BA54" s="44"/>
-      <c r="BB54" s="98"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="46"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="100"/>
+      <c r="AI54" s="89"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="40"/>
+      <c r="AM54" s="94"/>
+      <c r="AN54" s="89"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="40"/>
+      <c r="AQ54" s="40"/>
+      <c r="AR54" s="94"/>
+      <c r="AS54" s="102"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="104"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="94"/>
       <c r="BC54" s="29"/>
     </row>
-    <row r="55" spans="2:55" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="77" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E55" s="107"/>
-      <c r="F55" s="60">
-        <v>0</v>
-      </c>
-      <c r="G55" s="60">
-        <v>0</v>
-      </c>
-      <c r="H55" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="61">
-        <v>0</v>
-      </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="84"/>
+      <c r="F55" s="112">
+        <v>0</v>
+      </c>
+      <c r="G55" s="112">
+        <v>0</v>
+      </c>
+      <c r="H55" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="155">
+        <v>0</v>
+      </c>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="85"/>
       <c r="O55" s="81"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
       <c r="R55" s="41"/>
       <c r="S55" s="90"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46"/>
-      <c r="AC55" s="100"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="94"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="94"/>
       <c r="AD55" s="96"/>
       <c r="AE55" s="46"/>
       <c r="AF55" s="46"/>
       <c r="AG55" s="46"/>
       <c r="AH55" s="100"/>
-      <c r="AI55" s="96"/>
-      <c r="AJ55" s="46"/>
-      <c r="AK55" s="46"/>
-      <c r="AL55" s="46"/>
-      <c r="AM55" s="100"/>
-      <c r="AN55" s="96"/>
-      <c r="AO55" s="46"/>
-      <c r="AP55" s="46"/>
-      <c r="AQ55" s="46"/>
-      <c r="AR55" s="100"/>
-      <c r="AS55" s="96"/>
-      <c r="AT55" s="46"/>
-      <c r="AU55" s="46"/>
-      <c r="AV55" s="46"/>
-      <c r="AW55" s="100"/>
-      <c r="AX55" s="96"/>
-      <c r="AY55" s="46"/>
-      <c r="AZ55" s="46"/>
-      <c r="BA55" s="46"/>
-      <c r="BB55" s="100"/>
+      <c r="AI55" s="89"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="40"/>
+      <c r="AM55" s="94"/>
+      <c r="AN55" s="89"/>
+      <c r="AO55" s="40"/>
+      <c r="AP55" s="40"/>
+      <c r="AQ55" s="40"/>
+      <c r="AR55" s="94"/>
+      <c r="AS55" s="102"/>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="47"/>
+      <c r="AV55" s="47"/>
+      <c r="AW55" s="104"/>
+      <c r="AX55" s="89"/>
+      <c r="AY55" s="40"/>
+      <c r="AZ55" s="40"/>
+      <c r="BA55" s="40"/>
+      <c r="BB55" s="94"/>
       <c r="BC55" s="29"/>
     </row>
-    <row r="56" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B56" s="30">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>107</v>
+        <v>4.5</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="D56" s="77"/>
       <c r="E56" s="107"/>
-      <c r="F56" s="60">
-        <v>45565</v>
+      <c r="F56" s="112">
+        <v>45575</v>
       </c>
       <c r="G56" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="32" t="e">
-        <f>NETWORKDAYS(F56,G56)</f>
+        <v>120</v>
+      </c>
+      <c r="H56" s="154" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="61">
-        <v>0</v>
+      <c r="I56" s="155">
+        <v>0.9</v>
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="34"/>
@@ -6415,68 +6543,68 @@
       <c r="T56" s="88"/>
       <c r="U56" s="43"/>
       <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="93"/>
-      <c r="Y56" s="96"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="100"/>
-      <c r="AD56" s="96"/>
-      <c r="AE56" s="46"/>
-      <c r="AF56" s="46"/>
-      <c r="AG56" s="46"/>
-      <c r="AH56" s="100"/>
-      <c r="AI56" s="96"/>
-      <c r="AJ56" s="46"/>
-      <c r="AK56" s="46"/>
-      <c r="AL56" s="46"/>
-      <c r="AM56" s="100"/>
-      <c r="AN56" s="96"/>
-      <c r="AO56" s="46"/>
-      <c r="AP56" s="46"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="100"/>
-      <c r="AS56" s="96"/>
-      <c r="AT56" s="46"/>
-      <c r="AU56" s="46"/>
-      <c r="AV56" s="46"/>
-      <c r="AW56" s="100"/>
-      <c r="AX56" s="96"/>
-      <c r="AY56" s="46"/>
-      <c r="AZ56" s="46"/>
-      <c r="BA56" s="46"/>
-      <c r="BB56" s="100"/>
+      <c r="W56" s="113"/>
+      <c r="X56" s="113"/>
+      <c r="Y56" s="95"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="98"/>
+      <c r="AD56" s="95"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="95"/>
+      <c r="AJ56" s="44"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="44"/>
+      <c r="AM56" s="98"/>
+      <c r="AN56" s="95"/>
+      <c r="AO56" s="44"/>
+      <c r="AP56" s="44"/>
+      <c r="AQ56" s="44"/>
+      <c r="AR56" s="98"/>
+      <c r="AS56" s="95"/>
+      <c r="AT56" s="44"/>
+      <c r="AU56" s="44"/>
+      <c r="AV56" s="44"/>
+      <c r="AW56" s="98"/>
+      <c r="AX56" s="95"/>
+      <c r="AY56" s="44"/>
+      <c r="AZ56" s="44"/>
+      <c r="BA56" s="44"/>
+      <c r="BB56" s="98"/>
       <c r="BC56" s="29"/>
     </row>
-    <row r="57" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="77" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E57" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="60">
-        <v>45565</v>
+        <v>141</v>
+      </c>
+      <c r="F57" s="112">
+        <v>45575</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="32" t="e">
-        <f t="shared" ref="H57:H60" si="5">NETWORKDAYS(F57,G57)</f>
+        <v>120</v>
+      </c>
+      <c r="H57" s="154" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="61">
-        <v>0.01</v>
+      <c r="I57" s="155">
+        <v>0.9</v>
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="34"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
       <c r="N57" s="84"/>
-      <c r="O57" s="116"/>
+      <c r="O57" s="81"/>
       <c r="P57" s="41"/>
       <c r="Q57" s="41"/>
       <c r="R57" s="41"/>
@@ -6484,68 +6612,68 @@
       <c r="T57" s="88"/>
       <c r="U57" s="43"/>
       <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="93"/>
-      <c r="Y57" s="96"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="46"/>
-      <c r="AC57" s="100"/>
-      <c r="AD57" s="96"/>
-      <c r="AE57" s="46"/>
-      <c r="AF57" s="46"/>
-      <c r="AG57" s="46"/>
-      <c r="AH57" s="100"/>
-      <c r="AI57" s="96"/>
-      <c r="AJ57" s="46"/>
-      <c r="AK57" s="46"/>
-      <c r="AL57" s="46"/>
-      <c r="AM57" s="100"/>
-      <c r="AN57" s="96"/>
-      <c r="AO57" s="46"/>
-      <c r="AP57" s="46"/>
-      <c r="AQ57" s="46"/>
-      <c r="AR57" s="100"/>
-      <c r="AS57" s="96"/>
-      <c r="AT57" s="46"/>
-      <c r="AU57" s="46"/>
-      <c r="AV57" s="46"/>
-      <c r="AW57" s="100"/>
-      <c r="AX57" s="96"/>
-      <c r="AY57" s="46"/>
-      <c r="AZ57" s="46"/>
-      <c r="BA57" s="46"/>
-      <c r="BB57" s="100"/>
+      <c r="W57" s="113"/>
+      <c r="X57" s="113"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="98"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="95"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="98"/>
+      <c r="AN57" s="95"/>
+      <c r="AO57" s="44"/>
+      <c r="AP57" s="44"/>
+      <c r="AQ57" s="44"/>
+      <c r="AR57" s="98"/>
+      <c r="AS57" s="95"/>
+      <c r="AT57" s="44"/>
+      <c r="AU57" s="44"/>
+      <c r="AV57" s="44"/>
+      <c r="AW57" s="98"/>
+      <c r="AX57" s="95"/>
+      <c r="AY57" s="44"/>
+      <c r="AZ57" s="44"/>
+      <c r="BA57" s="44"/>
+      <c r="BB57" s="98"/>
       <c r="BC57" s="29"/>
     </row>
-    <row r="58" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="77" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E58" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="60">
-        <v>45565</v>
+        <v>86</v>
+      </c>
+      <c r="F58" s="112">
+        <v>45575</v>
       </c>
       <c r="G58" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="32" t="e">
+        <v>120</v>
+      </c>
+      <c r="H58" s="154" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="61">
-        <v>0.01</v>
+      <c r="I58" s="155">
+        <v>0.9</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="34"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="84"/>
-      <c r="O58" s="116"/>
+      <c r="O58" s="81"/>
       <c r="P58" s="41"/>
       <c r="Q58" s="41"/>
       <c r="R58" s="41"/>
@@ -6553,68 +6681,68 @@
       <c r="T58" s="88"/>
       <c r="U58" s="43"/>
       <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="93"/>
-      <c r="Y58" s="96"/>
-      <c r="Z58" s="46"/>
-      <c r="AA58" s="46"/>
-      <c r="AB58" s="46"/>
-      <c r="AC58" s="100"/>
-      <c r="AD58" s="96"/>
-      <c r="AE58" s="46"/>
-      <c r="AF58" s="46"/>
-      <c r="AG58" s="46"/>
-      <c r="AH58" s="100"/>
-      <c r="AI58" s="96"/>
-      <c r="AJ58" s="46"/>
-      <c r="AK58" s="46"/>
-      <c r="AL58" s="46"/>
-      <c r="AM58" s="100"/>
-      <c r="AN58" s="96"/>
-      <c r="AO58" s="46"/>
-      <c r="AP58" s="46"/>
-      <c r="AQ58" s="46"/>
-      <c r="AR58" s="100"/>
-      <c r="AS58" s="96"/>
-      <c r="AT58" s="46"/>
-      <c r="AU58" s="46"/>
-      <c r="AV58" s="46"/>
-      <c r="AW58" s="100"/>
-      <c r="AX58" s="96"/>
-      <c r="AY58" s="46"/>
-      <c r="AZ58" s="46"/>
-      <c r="BA58" s="46"/>
-      <c r="BB58" s="100"/>
+      <c r="W58" s="113"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="98"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="95"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="95"/>
+      <c r="AO58" s="44"/>
+      <c r="AP58" s="44"/>
+      <c r="AQ58" s="44"/>
+      <c r="AR58" s="98"/>
+      <c r="AS58" s="95"/>
+      <c r="AT58" s="44"/>
+      <c r="AU58" s="44"/>
+      <c r="AV58" s="44"/>
+      <c r="AW58" s="98"/>
+      <c r="AX58" s="95"/>
+      <c r="AY58" s="44"/>
+      <c r="AZ58" s="44"/>
+      <c r="BA58" s="44"/>
+      <c r="BB58" s="98"/>
       <c r="BC58" s="29"/>
     </row>
-    <row r="59" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="77" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E59" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="60">
-        <v>45565</v>
+        <v>141</v>
+      </c>
+      <c r="F59" s="112">
+        <v>45575</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H59" s="32" t="e">
+        <v>120</v>
+      </c>
+      <c r="H59" s="154" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="61">
-        <v>0.01</v>
+      <c r="I59" s="155">
+        <v>0.9</v>
       </c>
       <c r="J59" s="33"/>
       <c r="K59" s="34"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
       <c r="N59" s="84"/>
-      <c r="O59" s="116"/>
+      <c r="O59" s="81"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="41"/>
@@ -6622,8 +6750,8 @@
       <c r="T59" s="88"/>
       <c r="U59" s="43"/>
       <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="93"/>
+      <c r="W59" s="113"/>
+      <c r="X59" s="113"/>
       <c r="Y59" s="95"/>
       <c r="Z59" s="44"/>
       <c r="AA59" s="44"/>
@@ -6656,34 +6784,34 @@
       <c r="BB59" s="98"/>
       <c r="BC59" s="29"/>
     </row>
-    <row r="60" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:55" ht="16.899999999999999" customHeight="1" outlineLevel="1">
       <c r="B60" s="30"/>
       <c r="C60" s="31"/>
       <c r="D60" s="77" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E60" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="60">
-        <v>45565</v>
+        <v>143</v>
+      </c>
+      <c r="F60" s="112">
+        <v>45575</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" s="32" t="e">
+        <v>120</v>
+      </c>
+      <c r="H60" s="154" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="61">
-        <v>0.01</v>
+      <c r="I60" s="155">
+        <v>0.5</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="34"/>
       <c r="L60" s="35"/>
       <c r="M60" s="35"/>
       <c r="N60" s="84"/>
-      <c r="O60" s="116"/>
+      <c r="O60" s="81"/>
       <c r="P60" s="41"/>
       <c r="Q60" s="41"/>
       <c r="R60" s="41"/>
@@ -6691,60 +6819,60 @@
       <c r="T60" s="88"/>
       <c r="U60" s="43"/>
       <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="93"/>
-      <c r="Y60" s="95"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
-      <c r="AC60" s="98"/>
-      <c r="AD60" s="95"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="98"/>
-      <c r="AI60" s="95"/>
-      <c r="AJ60" s="44"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="44"/>
-      <c r="AM60" s="98"/>
-      <c r="AN60" s="95"/>
-      <c r="AO60" s="44"/>
-      <c r="AP60" s="44"/>
-      <c r="AQ60" s="44"/>
-      <c r="AR60" s="98"/>
-      <c r="AS60" s="95"/>
-      <c r="AT60" s="44"/>
-      <c r="AU60" s="44"/>
-      <c r="AV60" s="44"/>
-      <c r="AW60" s="98"/>
-      <c r="AX60" s="95"/>
-      <c r="AY60" s="44"/>
-      <c r="AZ60" s="44"/>
-      <c r="BA60" s="44"/>
-      <c r="BB60" s="98"/>
+      <c r="W60" s="113"/>
+      <c r="X60" s="113"/>
+      <c r="Y60" s="96"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="100"/>
+      <c r="AD60" s="96"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="100"/>
+      <c r="AI60" s="96"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="100"/>
+      <c r="AN60" s="96"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="100"/>
+      <c r="AS60" s="96"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="46"/>
+      <c r="AV60" s="46"/>
+      <c r="AW60" s="100"/>
+      <c r="AX60" s="96"/>
+      <c r="AY60" s="46"/>
+      <c r="AZ60" s="46"/>
+      <c r="BA60" s="46"/>
+      <c r="BB60" s="100"/>
       <c r="BC60" s="29"/>
     </row>
-    <row r="61" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B61" s="30">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C61" s="77" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D61" s="77"/>
       <c r="E61" s="107"/>
-      <c r="F61" s="60">
-        <v>45565</v>
+      <c r="F61" s="112">
+        <v>45573</v>
       </c>
       <c r="G61" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="32" t="e">
-        <f>NETWORKDAYS(F61,G61)</f>
+        <v>110</v>
+      </c>
+      <c r="H61" s="154" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="61">
+      <c r="I61" s="155">
         <v>0</v>
       </c>
       <c r="J61" s="33"/>
@@ -6758,10 +6886,10 @@
       <c r="R61" s="41"/>
       <c r="S61" s="90"/>
       <c r="T61" s="88"/>
-      <c r="U61" s="43"/>
+      <c r="U61" s="113"/>
       <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="93"/>
+      <c r="W61" s="113"/>
+      <c r="X61" s="113"/>
       <c r="Y61" s="96"/>
       <c r="Z61" s="46"/>
       <c r="AA61" s="46"/>
@@ -6794,43 +6922,43 @@
       <c r="BB61" s="100"/>
       <c r="BC61" s="29"/>
     </row>
-    <row r="62" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B62" s="30"/>
       <c r="C62" s="31"/>
       <c r="D62" s="77" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="E62" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="60">
-        <v>45566</v>
-      </c>
-      <c r="G62" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H62" s="32" t="e">
-        <f>NETWORKDAYS(F62,G62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I62" s="61">
-        <v>0.9</v>
+        <v>102</v>
+      </c>
+      <c r="F62" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G62" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H62" s="154">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I62" s="155">
+        <v>1</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="34"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
       <c r="N62" s="84"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
       <c r="S62" s="90"/>
       <c r="T62" s="88"/>
-      <c r="U62" s="43"/>
+      <c r="U62" s="113"/>
       <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="93"/>
+      <c r="W62" s="113"/>
+      <c r="X62" s="113"/>
       <c r="Y62" s="96"/>
       <c r="Z62" s="46"/>
       <c r="AA62" s="46"/>
@@ -6863,43 +6991,43 @@
       <c r="BB62" s="100"/>
       <c r="BC62" s="29"/>
     </row>
-    <row r="63" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="30"/>
       <c r="C63" s="31"/>
       <c r="D63" s="77" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E63" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="60">
-        <v>45566</v>
-      </c>
-      <c r="G63" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="32" t="e">
-        <f>NETWORKDAYS(F63,G63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I63" s="61">
-        <v>0.9</v>
+        <v>100</v>
+      </c>
+      <c r="F63" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G63" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H63" s="154">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I63" s="155">
+        <v>1</v>
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="34"/>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
       <c r="N63" s="84"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="116"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
       <c r="S63" s="90"/>
       <c r="T63" s="88"/>
-      <c r="U63" s="43"/>
+      <c r="U63" s="113"/>
       <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="93"/>
+      <c r="W63" s="113"/>
+      <c r="X63" s="113"/>
       <c r="Y63" s="96"/>
       <c r="Z63" s="46"/>
       <c r="AA63" s="46"/>
@@ -6932,43 +7060,43 @@
       <c r="BB63" s="100"/>
       <c r="BC63" s="29"/>
     </row>
-    <row r="64" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B64" s="30"/>
       <c r="C64" s="31"/>
       <c r="D64" s="77" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E64" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="60">
-        <v>45566</v>
-      </c>
-      <c r="G64" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H64" s="32" t="e">
-        <f>NETWORKDAYS(F64,G64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I64" s="61">
-        <v>0.9</v>
+        <v>100</v>
+      </c>
+      <c r="F64" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G64" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H64" s="154">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I64" s="155">
+        <v>1</v>
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="34"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
       <c r="N64" s="84"/>
-      <c r="O64" s="81"/>
-      <c r="P64" s="116"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
       <c r="S64" s="90"/>
       <c r="T64" s="88"/>
-      <c r="U64" s="43"/>
+      <c r="U64" s="113"/>
       <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="93"/>
+      <c r="W64" s="113"/>
+      <c r="X64" s="113"/>
       <c r="Y64" s="96"/>
       <c r="Z64" s="46"/>
       <c r="AA64" s="46"/>
@@ -7001,43 +7129,43 @@
       <c r="BB64" s="100"/>
       <c r="BC64" s="29"/>
     </row>
-    <row r="65" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="30">
-        <v>4.8</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60">
-        <v>0</v>
-      </c>
-      <c r="G65" s="60">
-        <v>0</v>
-      </c>
-      <c r="H65" s="32">
-        <f t="shared" ref="H65:H68" si="6">NETWORKDAYS(F65,G65)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="61">
-        <v>0</v>
+    <row r="65" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G65" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H65" s="154">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I65" s="155">
+        <v>1</v>
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="34"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
       <c r="N65" s="84"/>
-      <c r="O65" s="81"/>
+      <c r="O65" s="41"/>
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="90"/>
       <c r="T65" s="88"/>
-      <c r="U65" s="43"/>
+      <c r="U65" s="113"/>
       <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="93"/>
+      <c r="W65" s="113"/>
+      <c r="X65" s="113"/>
       <c r="Y65" s="96"/>
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
@@ -7070,91 +7198,95 @@
       <c r="BB65" s="100"/>
       <c r="BC65" s="29"/>
     </row>
-    <row r="66" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60">
-        <v>0</v>
-      </c>
-      <c r="G66" s="60">
-        <v>0</v>
-      </c>
-      <c r="H66" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="114">
-        <v>0</v>
+      <c r="D66" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G66" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" s="155">
+        <v>0.5</v>
       </c>
       <c r="J66" s="33"/>
       <c r="K66" s="34"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="84"/>
-      <c r="O66" s="81"/>
+      <c r="O66" s="41"/>
       <c r="P66" s="41"/>
       <c r="Q66" s="41"/>
       <c r="R66" s="41"/>
       <c r="S66" s="90"/>
       <c r="T66" s="88"/>
-      <c r="U66" s="43"/>
+      <c r="U66" s="156"/>
       <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="93"/>
-      <c r="Y66" s="96"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="46"/>
-      <c r="AB66" s="46"/>
-      <c r="AC66" s="100"/>
-      <c r="AD66" s="96"/>
-      <c r="AE66" s="46"/>
-      <c r="AF66" s="46"/>
-      <c r="AG66" s="46"/>
-      <c r="AH66" s="100"/>
-      <c r="AI66" s="96"/>
-      <c r="AJ66" s="46"/>
-      <c r="AK66" s="46"/>
-      <c r="AL66" s="46"/>
-      <c r="AM66" s="100"/>
-      <c r="AN66" s="96"/>
-      <c r="AO66" s="46"/>
-      <c r="AP66" s="46"/>
-      <c r="AQ66" s="46"/>
-      <c r="AR66" s="100"/>
-      <c r="AS66" s="96"/>
-      <c r="AT66" s="46"/>
-      <c r="AU66" s="46"/>
-      <c r="AV66" s="46"/>
-      <c r="AW66" s="100"/>
-      <c r="AX66" s="96"/>
-      <c r="AY66" s="46"/>
-      <c r="AZ66" s="46"/>
-      <c r="BA66" s="46"/>
-      <c r="BB66" s="100"/>
+      <c r="W66" s="156"/>
+      <c r="X66" s="157"/>
+      <c r="Y66" s="95"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="98"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="98"/>
+      <c r="AI66" s="95"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="44"/>
+      <c r="AM66" s="98"/>
+      <c r="AN66" s="95"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="44"/>
+      <c r="AQ66" s="44"/>
+      <c r="AR66" s="98"/>
+      <c r="AS66" s="95"/>
+      <c r="AT66" s="44"/>
+      <c r="AU66" s="44"/>
+      <c r="AV66" s="44"/>
+      <c r="AW66" s="98"/>
+      <c r="AX66" s="95"/>
+      <c r="AY66" s="44"/>
+      <c r="AZ66" s="44"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="98"/>
       <c r="BC66" s="29"/>
     </row>
-    <row r="67" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B67" s="30"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60">
-        <v>0</v>
-      </c>
-      <c r="G67" s="60">
-        <v>0</v>
-      </c>
-      <c r="H67" s="32">
-        <f t="shared" ref="H67" si="7">NETWORKDAYS(F67,G67)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="114">
+      <c r="D67" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="112">
+        <v>0</v>
+      </c>
+      <c r="G67" s="112">
+        <v>0</v>
+      </c>
+      <c r="H67" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="155">
         <v>0</v>
       </c>
       <c r="J67" s="33"/>
@@ -7162,7 +7294,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="84"/>
-      <c r="O67" s="81"/>
+      <c r="O67" s="41"/>
       <c r="P67" s="41"/>
       <c r="Q67" s="41"/>
       <c r="R67" s="41"/>
@@ -7172,56 +7304,58 @@
       <c r="V67" s="43"/>
       <c r="W67" s="43"/>
       <c r="X67" s="93"/>
-      <c r="Y67" s="96"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="100"/>
-      <c r="AD67" s="96"/>
-      <c r="AE67" s="46"/>
-      <c r="AF67" s="46"/>
-      <c r="AG67" s="46"/>
-      <c r="AH67" s="100"/>
-      <c r="AI67" s="96"/>
-      <c r="AJ67" s="46"/>
-      <c r="AK67" s="46"/>
-      <c r="AL67" s="46"/>
-      <c r="AM67" s="100"/>
-      <c r="AN67" s="96"/>
-      <c r="AO67" s="46"/>
-      <c r="AP67" s="46"/>
-      <c r="AQ67" s="46"/>
-      <c r="AR67" s="100"/>
-      <c r="AS67" s="96"/>
-      <c r="AT67" s="46"/>
-      <c r="AU67" s="46"/>
-      <c r="AV67" s="46"/>
-      <c r="AW67" s="100"/>
-      <c r="AX67" s="96"/>
-      <c r="AY67" s="46"/>
-      <c r="AZ67" s="46"/>
-      <c r="BA67" s="46"/>
-      <c r="BB67" s="100"/>
+      <c r="Y67" s="95"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="98"/>
+      <c r="AD67" s="95"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="98"/>
+      <c r="AI67" s="95"/>
+      <c r="AJ67" s="44"/>
+      <c r="AK67" s="44"/>
+      <c r="AL67" s="44"/>
+      <c r="AM67" s="98"/>
+      <c r="AN67" s="95"/>
+      <c r="AO67" s="44"/>
+      <c r="AP67" s="44"/>
+      <c r="AQ67" s="44"/>
+      <c r="AR67" s="98"/>
+      <c r="AS67" s="95"/>
+      <c r="AT67" s="44"/>
+      <c r="AU67" s="44"/>
+      <c r="AV67" s="44"/>
+      <c r="AW67" s="98"/>
+      <c r="AX67" s="95"/>
+      <c r="AY67" s="44"/>
+      <c r="AZ67" s="44"/>
+      <c r="BA67" s="44"/>
+      <c r="BB67" s="98"/>
       <c r="BC67" s="29"/>
     </row>
-    <row r="68" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60">
-        <v>0</v>
-      </c>
-      <c r="G68" s="60">
-        <v>0</v>
-      </c>
-      <c r="H68" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="113">
+    <row r="68" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B68" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="C68" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="77"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="112">
+        <v>45565</v>
+      </c>
+      <c r="G68" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I68" s="155">
         <v>0</v>
       </c>
       <c r="J68" s="33"/>
@@ -7271,27 +7405,27 @@
       <c r="BB68" s="100"/>
       <c r="BC68" s="29"/>
     </row>
-    <row r="69" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="30">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="77"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="60">
-        <v>45565</v>
+    <row r="69" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B69" s="30"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="112">
+        <v>45572</v>
       </c>
       <c r="G69" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69" s="32" t="e">
-        <f>NETWORKDAYS(F69,G69)</f>
+        <v>101</v>
+      </c>
+      <c r="H69" s="154" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="61">
-        <v>0</v>
+      <c r="I69" s="155">
+        <v>0.9</v>
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="34"/>
@@ -7302,63 +7436,65 @@
       <c r="P69" s="41"/>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="88"/>
-      <c r="U69" s="43"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="156"/>
+      <c r="U69" s="156"/>
       <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="93"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="93"/>
-      <c r="AD69" s="95"/>
-      <c r="AE69" s="44"/>
-      <c r="AF69" s="44"/>
-      <c r="AG69" s="44"/>
-      <c r="AH69" s="98"/>
-      <c r="AI69" s="88"/>
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="43"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="93"/>
-      <c r="AN69" s="88"/>
-      <c r="AO69" s="43"/>
-      <c r="AP69" s="43"/>
-      <c r="AQ69" s="43"/>
-      <c r="AR69" s="93"/>
-      <c r="AS69" s="101"/>
-      <c r="AT69" s="45"/>
-      <c r="AU69" s="45"/>
-      <c r="AV69" s="45"/>
-      <c r="AW69" s="103"/>
-      <c r="AX69" s="88"/>
-      <c r="AY69" s="43"/>
-      <c r="AZ69" s="43"/>
-      <c r="BA69" s="43"/>
-      <c r="BB69" s="93"/>
+      <c r="W69" s="156"/>
+      <c r="X69" s="156"/>
+      <c r="Y69" s="96"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="100"/>
+      <c r="AD69" s="96"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="100"/>
+      <c r="AI69" s="96"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="100"/>
+      <c r="AN69" s="96"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="46"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="100"/>
+      <c r="AS69" s="96"/>
+      <c r="AT69" s="46"/>
+      <c r="AU69" s="46"/>
+      <c r="AV69" s="46"/>
+      <c r="AW69" s="100"/>
+      <c r="AX69" s="96"/>
+      <c r="AY69" s="46"/>
+      <c r="AZ69" s="46"/>
+      <c r="BA69" s="46"/>
+      <c r="BB69" s="100"/>
       <c r="BC69" s="29"/>
     </row>
-    <row r="70" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="107"/>
-      <c r="F70" s="60">
-        <v>0</v>
-      </c>
-      <c r="G70" s="60">
-        <v>0</v>
-      </c>
-      <c r="H70" s="32">
-        <f>NETWORKDAYS(F70,G70)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="114">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="E70" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G70" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I70" s="155">
+        <v>0.9</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="34"/>
@@ -7369,63 +7505,65 @@
       <c r="P70" s="41"/>
       <c r="Q70" s="41"/>
       <c r="R70" s="41"/>
-      <c r="S70" s="90"/>
-      <c r="T70" s="88"/>
-      <c r="U70" s="43"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="156"/>
+      <c r="U70" s="156"/>
       <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="93"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="93"/>
-      <c r="AD70" s="95"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="98"/>
-      <c r="AI70" s="88"/>
-      <c r="AJ70" s="43"/>
-      <c r="AK70" s="43"/>
-      <c r="AL70" s="43"/>
-      <c r="AM70" s="93"/>
-      <c r="AN70" s="88"/>
-      <c r="AO70" s="43"/>
-      <c r="AP70" s="43"/>
-      <c r="AQ70" s="43"/>
-      <c r="AR70" s="93"/>
-      <c r="AS70" s="101"/>
-      <c r="AT70" s="45"/>
-      <c r="AU70" s="45"/>
-      <c r="AV70" s="45"/>
-      <c r="AW70" s="103"/>
-      <c r="AX70" s="88"/>
-      <c r="AY70" s="43"/>
-      <c r="AZ70" s="43"/>
-      <c r="BA70" s="43"/>
-      <c r="BB70" s="93"/>
+      <c r="W70" s="156"/>
+      <c r="X70" s="156"/>
+      <c r="Y70" s="96"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="100"/>
+      <c r="AD70" s="96"/>
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="100"/>
+      <c r="AI70" s="96"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="100"/>
+      <c r="AN70" s="96"/>
+      <c r="AO70" s="46"/>
+      <c r="AP70" s="46"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="100"/>
+      <c r="AS70" s="96"/>
+      <c r="AT70" s="46"/>
+      <c r="AU70" s="46"/>
+      <c r="AV70" s="46"/>
+      <c r="AW70" s="100"/>
+      <c r="AX70" s="96"/>
+      <c r="AY70" s="46"/>
+      <c r="AZ70" s="46"/>
+      <c r="BA70" s="46"/>
+      <c r="BB70" s="100"/>
       <c r="BC70" s="29"/>
     </row>
-    <row r="71" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
+      <c r="C71" s="77"/>
       <c r="D71" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="107"/>
-      <c r="F71" s="60">
-        <v>0</v>
-      </c>
-      <c r="G71" s="60">
-        <v>0</v>
-      </c>
-      <c r="H71" s="32">
-        <f>NETWORKDAYS(F71,G71)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="114">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="E71" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G71" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I71" s="155">
+        <v>0.9</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="34"/>
@@ -7436,134 +7574,134 @@
       <c r="P71" s="41"/>
       <c r="Q71" s="41"/>
       <c r="R71" s="41"/>
-      <c r="S71" s="90"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="43"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="156"/>
+      <c r="U71" s="156"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="93"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="93"/>
-      <c r="AD71" s="95"/>
-      <c r="AE71" s="44"/>
-      <c r="AF71" s="44"/>
-      <c r="AG71" s="44"/>
-      <c r="AH71" s="98"/>
-      <c r="AI71" s="88"/>
-      <c r="AJ71" s="43"/>
-      <c r="AK71" s="43"/>
-      <c r="AL71" s="43"/>
-      <c r="AM71" s="93"/>
-      <c r="AN71" s="88"/>
-      <c r="AO71" s="43"/>
-      <c r="AP71" s="43"/>
-      <c r="AQ71" s="43"/>
-      <c r="AR71" s="93"/>
-      <c r="AS71" s="101"/>
-      <c r="AT71" s="45"/>
-      <c r="AU71" s="45"/>
-      <c r="AV71" s="45"/>
-      <c r="AW71" s="103"/>
-      <c r="AX71" s="88"/>
-      <c r="AY71" s="43"/>
-      <c r="AZ71" s="43"/>
-      <c r="BA71" s="43"/>
-      <c r="BB71" s="93"/>
+      <c r="W71" s="156"/>
+      <c r="X71" s="156"/>
+      <c r="Y71" s="96"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="100"/>
+      <c r="AD71" s="96"/>
+      <c r="AE71" s="46"/>
+      <c r="AF71" s="46"/>
+      <c r="AG71" s="46"/>
+      <c r="AH71" s="100"/>
+      <c r="AI71" s="96"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="100"/>
+      <c r="AN71" s="96"/>
+      <c r="AO71" s="46"/>
+      <c r="AP71" s="46"/>
+      <c r="AQ71" s="46"/>
+      <c r="AR71" s="100"/>
+      <c r="AS71" s="96"/>
+      <c r="AT71" s="46"/>
+      <c r="AU71" s="46"/>
+      <c r="AV71" s="46"/>
+      <c r="AW71" s="100"/>
+      <c r="AX71" s="96"/>
+      <c r="AY71" s="46"/>
+      <c r="AZ71" s="46"/>
+      <c r="BA71" s="46"/>
+      <c r="BB71" s="100"/>
       <c r="BC71" s="29"/>
     </row>
-    <row r="72" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
+      <c r="C72" s="77"/>
       <c r="D72" s="77" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E72" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="60">
-        <v>45565</v>
-      </c>
-      <c r="G72" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="32" t="e">
-        <f t="shared" ref="H72" si="8">NETWORKDAYS(F72,G72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" s="61">
-        <v>0.01</v>
+        <v>100</v>
+      </c>
+      <c r="F72" s="112">
+        <v>45572</v>
+      </c>
+      <c r="G72" s="112">
+        <v>45573</v>
+      </c>
+      <c r="H72" s="154">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I72" s="155">
+        <v>1</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="34"/>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
       <c r="N72" s="84"/>
-      <c r="O72" s="116"/>
+      <c r="O72" s="81"/>
       <c r="P72" s="41"/>
       <c r="Q72" s="41"/>
       <c r="R72" s="41"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="43"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="156"/>
+      <c r="U72" s="156"/>
       <c r="V72" s="43"/>
       <c r="W72" s="43"/>
       <c r="X72" s="93"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="93"/>
-      <c r="AD72" s="95"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AH72" s="98"/>
-      <c r="AI72" s="88"/>
-      <c r="AJ72" s="43"/>
-      <c r="AK72" s="43"/>
-      <c r="AL72" s="43"/>
-      <c r="AM72" s="93"/>
-      <c r="AN72" s="88"/>
-      <c r="AO72" s="43"/>
-      <c r="AP72" s="43"/>
-      <c r="AQ72" s="43"/>
-      <c r="AR72" s="93"/>
-      <c r="AS72" s="101"/>
-      <c r="AT72" s="45"/>
-      <c r="AU72" s="45"/>
-      <c r="AV72" s="45"/>
-      <c r="AW72" s="103"/>
-      <c r="AX72" s="88"/>
-      <c r="AY72" s="43"/>
-      <c r="AZ72" s="43"/>
-      <c r="BA72" s="43"/>
-      <c r="BB72" s="93"/>
+      <c r="Y72" s="96"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="100"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="46"/>
+      <c r="AG72" s="46"/>
+      <c r="AH72" s="100"/>
+      <c r="AI72" s="96"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="100"/>
+      <c r="AN72" s="96"/>
+      <c r="AO72" s="46"/>
+      <c r="AP72" s="46"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="100"/>
+      <c r="AS72" s="96"/>
+      <c r="AT72" s="46"/>
+      <c r="AU72" s="46"/>
+      <c r="AV72" s="46"/>
+      <c r="AW72" s="100"/>
+      <c r="AX72" s="96"/>
+      <c r="AY72" s="46"/>
+      <c r="AZ72" s="46"/>
+      <c r="BA72" s="46"/>
+      <c r="BB72" s="100"/>
       <c r="BC72" s="29"/>
     </row>
-    <row r="73" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="111">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="77"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="60">
-        <v>0</v>
-      </c>
-      <c r="G73" s="60">
-        <v>0</v>
-      </c>
-      <c r="H73" s="32">
-        <f>NETWORKDAYS(F73,G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="61">
-        <v>0</v>
+    <row r="73" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B73" s="30"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G73" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" s="155">
+        <v>0.5</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="34"/>
@@ -7576,61 +7714,63 @@
       <c r="R73" s="41"/>
       <c r="S73" s="90"/>
       <c r="T73" s="88"/>
-      <c r="U73" s="43"/>
+      <c r="U73" s="156"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="93"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="93"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="44"/>
-      <c r="AF73" s="44"/>
-      <c r="AG73" s="44"/>
-      <c r="AH73" s="98"/>
-      <c r="AI73" s="88"/>
-      <c r="AJ73" s="43"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="43"/>
-      <c r="AM73" s="93"/>
-      <c r="AN73" s="88"/>
-      <c r="AO73" s="43"/>
-      <c r="AP73" s="43"/>
-      <c r="AQ73" s="43"/>
-      <c r="AR73" s="93"/>
-      <c r="AS73" s="101"/>
-      <c r="AT73" s="45"/>
-      <c r="AU73" s="45"/>
-      <c r="AV73" s="45"/>
-      <c r="AW73" s="103"/>
-      <c r="AX73" s="88"/>
-      <c r="AY73" s="43"/>
-      <c r="AZ73" s="43"/>
-      <c r="BA73" s="43"/>
-      <c r="BB73" s="93"/>
+      <c r="W73" s="156"/>
+      <c r="X73" s="156"/>
+      <c r="Y73" s="96"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="96"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="100"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="46"/>
+      <c r="AM73" s="100"/>
+      <c r="AN73" s="96"/>
+      <c r="AO73" s="46"/>
+      <c r="AP73" s="46"/>
+      <c r="AQ73" s="46"/>
+      <c r="AR73" s="100"/>
+      <c r="AS73" s="96"/>
+      <c r="AT73" s="46"/>
+      <c r="AU73" s="46"/>
+      <c r="AV73" s="46"/>
+      <c r="AW73" s="100"/>
+      <c r="AX73" s="96"/>
+      <c r="AY73" s="46"/>
+      <c r="AZ73" s="46"/>
+      <c r="BA73" s="46"/>
+      <c r="BB73" s="100"/>
       <c r="BC73" s="29"/>
     </row>
-    <row r="74" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
+      <c r="C74" s="77"/>
       <c r="D74" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="107"/>
-      <c r="F74" s="60">
-        <v>0</v>
-      </c>
-      <c r="G74" s="60">
-        <v>0</v>
-      </c>
-      <c r="H74" s="32">
-        <f t="shared" ref="H74:H96" si="9">NETWORKDAYS(F74,G74)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="61">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="E74" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="112">
+        <v>45567</v>
+      </c>
+      <c r="G74" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H74" s="154">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="155">
+        <v>1</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="34"/>
@@ -7639,141 +7779,145 @@
       <c r="N74" s="84"/>
       <c r="O74" s="81"/>
       <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
+      <c r="Q74" s="156"/>
       <c r="R74" s="41"/>
-      <c r="S74" s="90"/>
+      <c r="S74" s="156"/>
       <c r="T74" s="88"/>
       <c r="U74" s="43"/>
       <c r="V74" s="43"/>
       <c r="W74" s="43"/>
       <c r="X74" s="93"/>
-      <c r="Y74" s="88"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="93"/>
-      <c r="AD74" s="95"/>
-      <c r="AE74" s="44"/>
-      <c r="AF74" s="44"/>
-      <c r="AG74" s="44"/>
-      <c r="AH74" s="98"/>
-      <c r="AI74" s="88"/>
-      <c r="AJ74" s="43"/>
-      <c r="AK74" s="43"/>
-      <c r="AL74" s="43"/>
-      <c r="AM74" s="93"/>
-      <c r="AN74" s="88"/>
-      <c r="AO74" s="43"/>
-      <c r="AP74" s="43"/>
-      <c r="AQ74" s="43"/>
-      <c r="AR74" s="93"/>
-      <c r="AS74" s="101"/>
-      <c r="AT74" s="45"/>
-      <c r="AU74" s="45"/>
-      <c r="AV74" s="45"/>
-      <c r="AW74" s="103"/>
-      <c r="AX74" s="88"/>
-      <c r="AY74" s="43"/>
-      <c r="AZ74" s="43"/>
-      <c r="BA74" s="43"/>
-      <c r="BB74" s="93"/>
+      <c r="Y74" s="96"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="100"/>
+      <c r="AD74" s="96"/>
+      <c r="AE74" s="46"/>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="46"/>
+      <c r="AH74" s="100"/>
+      <c r="AI74" s="96"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="46"/>
+      <c r="AM74" s="100"/>
+      <c r="AN74" s="96"/>
+      <c r="AO74" s="46"/>
+      <c r="AP74" s="46"/>
+      <c r="AQ74" s="46"/>
+      <c r="AR74" s="100"/>
+      <c r="AS74" s="96"/>
+      <c r="AT74" s="46"/>
+      <c r="AU74" s="46"/>
+      <c r="AV74" s="46"/>
+      <c r="AW74" s="100"/>
+      <c r="AX74" s="96"/>
+      <c r="AY74" s="46"/>
+      <c r="AZ74" s="46"/>
+      <c r="BA74" s="46"/>
+      <c r="BB74" s="100"/>
       <c r="BC74" s="29"/>
     </row>
-    <row r="75" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B75" s="30"/>
       <c r="C75" s="31"/>
       <c r="D75" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="107"/>
-      <c r="F75" s="60">
-        <v>0</v>
-      </c>
-      <c r="G75" s="60">
-        <v>0</v>
-      </c>
-      <c r="H75" s="32">
-        <f>NETWORKDAYS(F75,G75)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="61">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="E75" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="112">
+        <v>45567</v>
+      </c>
+      <c r="G75" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H75" s="154">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="155">
+        <v>1</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="34"/>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
       <c r="N75" s="84"/>
-      <c r="O75" s="81"/>
+      <c r="O75" s="41"/>
       <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
+      <c r="Q75" s="156"/>
       <c r="R75" s="41"/>
-      <c r="S75" s="90"/>
+      <c r="S75" s="156"/>
       <c r="T75" s="88"/>
       <c r="U75" s="43"/>
       <c r="V75" s="43"/>
       <c r="W75" s="43"/>
       <c r="X75" s="93"/>
-      <c r="Y75" s="88"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="93"/>
-      <c r="AD75" s="95"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-      <c r="AH75" s="98"/>
-      <c r="AI75" s="88"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
-      <c r="AM75" s="93"/>
-      <c r="AN75" s="88"/>
-      <c r="AO75" s="43"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="43"/>
-      <c r="AR75" s="93"/>
-      <c r="AS75" s="101"/>
-      <c r="AT75" s="45"/>
-      <c r="AU75" s="45"/>
-      <c r="AV75" s="45"/>
-      <c r="AW75" s="103"/>
-      <c r="AX75" s="88"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="93"/>
+      <c r="Y75" s="96"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="100"/>
+      <c r="AD75" s="96"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="100"/>
+      <c r="AI75" s="96"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="100"/>
+      <c r="AN75" s="96"/>
+      <c r="AO75" s="46"/>
+      <c r="AP75" s="46"/>
+      <c r="AQ75" s="46"/>
+      <c r="AR75" s="100"/>
+      <c r="AS75" s="96"/>
+      <c r="AT75" s="46"/>
+      <c r="AU75" s="46"/>
+      <c r="AV75" s="46"/>
+      <c r="AW75" s="100"/>
+      <c r="AX75" s="96"/>
+      <c r="AY75" s="46"/>
+      <c r="AZ75" s="46"/>
+      <c r="BA75" s="46"/>
+      <c r="BB75" s="100"/>
       <c r="BC75" s="29"/>
     </row>
-    <row r="76" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="107"/>
-      <c r="F76" s="60">
-        <v>0</v>
-      </c>
-      <c r="G76" s="60">
-        <v>0</v>
-      </c>
-      <c r="H76" s="32">
-        <f>NETWORKDAYS(F76,G76)</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="61">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="E76" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G76" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H76" s="154">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I76" s="155">
+        <v>1</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="34"/>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
       <c r="N76" s="84"/>
-      <c r="O76" s="81"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="156"/>
+      <c r="Q76" s="156"/>
       <c r="R76" s="41"/>
       <c r="S76" s="90"/>
       <c r="T76" s="88"/>
@@ -7781,68 +7925,68 @@
       <c r="V76" s="43"/>
       <c r="W76" s="43"/>
       <c r="X76" s="93"/>
-      <c r="Y76" s="88"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="93"/>
-      <c r="AD76" s="95"/>
-      <c r="AE76" s="44"/>
-      <c r="AF76" s="44"/>
-      <c r="AG76" s="44"/>
-      <c r="AH76" s="98"/>
-      <c r="AI76" s="88"/>
-      <c r="AJ76" s="43"/>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="43"/>
-      <c r="AM76" s="93"/>
-      <c r="AN76" s="88"/>
-      <c r="AO76" s="43"/>
-      <c r="AP76" s="43"/>
-      <c r="AQ76" s="43"/>
-      <c r="AR76" s="93"/>
-      <c r="AS76" s="101"/>
-      <c r="AT76" s="45"/>
-      <c r="AU76" s="45"/>
-      <c r="AV76" s="45"/>
-      <c r="AW76" s="103"/>
-      <c r="AX76" s="88"/>
-      <c r="AY76" s="43"/>
-      <c r="AZ76" s="43"/>
-      <c r="BA76" s="43"/>
-      <c r="BB76" s="93"/>
+      <c r="Y76" s="96"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="100"/>
+      <c r="AD76" s="96"/>
+      <c r="AE76" s="46"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="100"/>
+      <c r="AI76" s="96"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="100"/>
+      <c r="AN76" s="96"/>
+      <c r="AO76" s="46"/>
+      <c r="AP76" s="46"/>
+      <c r="AQ76" s="46"/>
+      <c r="AR76" s="100"/>
+      <c r="AS76" s="96"/>
+      <c r="AT76" s="46"/>
+      <c r="AU76" s="46"/>
+      <c r="AV76" s="46"/>
+      <c r="AW76" s="100"/>
+      <c r="AX76" s="96"/>
+      <c r="AY76" s="46"/>
+      <c r="AZ76" s="46"/>
+      <c r="BA76" s="46"/>
+      <c r="BB76" s="100"/>
       <c r="BC76" s="29"/>
     </row>
-    <row r="77" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="30">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="60">
-        <v>0</v>
-      </c>
-      <c r="G77" s="60">
-        <v>0</v>
-      </c>
-      <c r="H77" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="61">
-        <v>0</v>
+    <row r="77" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="112">
+        <v>45565</v>
+      </c>
+      <c r="G77" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H77" s="154">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I77" s="155">
+        <v>1</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="34"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="84"/>
-      <c r="O77" s="81"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
+      <c r="O77" s="156"/>
+      <c r="P77" s="156"/>
+      <c r="Q77" s="156"/>
       <c r="R77" s="41"/>
       <c r="S77" s="90"/>
       <c r="T77" s="88"/>
@@ -7850,56 +7994,58 @@
       <c r="V77" s="43"/>
       <c r="W77" s="43"/>
       <c r="X77" s="93"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="93"/>
-      <c r="AD77" s="95"/>
-      <c r="AE77" s="44"/>
-      <c r="AF77" s="44"/>
-      <c r="AG77" s="44"/>
-      <c r="AH77" s="98"/>
-      <c r="AI77" s="88"/>
-      <c r="AJ77" s="43"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="93"/>
-      <c r="AN77" s="88"/>
-      <c r="AO77" s="43"/>
-      <c r="AP77" s="43"/>
-      <c r="AQ77" s="43"/>
-      <c r="AR77" s="93"/>
-      <c r="AS77" s="101"/>
-      <c r="AT77" s="45"/>
-      <c r="AU77" s="45"/>
-      <c r="AV77" s="45"/>
-      <c r="AW77" s="103"/>
-      <c r="AX77" s="88"/>
-      <c r="AY77" s="43"/>
-      <c r="AZ77" s="43"/>
-      <c r="BA77" s="43"/>
-      <c r="BB77" s="93"/>
+      <c r="Y77" s="96"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="46"/>
+      <c r="AB77" s="46"/>
+      <c r="AC77" s="100"/>
+      <c r="AD77" s="96"/>
+      <c r="AE77" s="46"/>
+      <c r="AF77" s="46"/>
+      <c r="AG77" s="46"/>
+      <c r="AH77" s="100"/>
+      <c r="AI77" s="96"/>
+      <c r="AJ77" s="46"/>
+      <c r="AK77" s="46"/>
+      <c r="AL77" s="46"/>
+      <c r="AM77" s="100"/>
+      <c r="AN77" s="96"/>
+      <c r="AO77" s="46"/>
+      <c r="AP77" s="46"/>
+      <c r="AQ77" s="46"/>
+      <c r="AR77" s="100"/>
+      <c r="AS77" s="96"/>
+      <c r="AT77" s="46"/>
+      <c r="AU77" s="46"/>
+      <c r="AV77" s="46"/>
+      <c r="AW77" s="100"/>
+      <c r="AX77" s="96"/>
+      <c r="AY77" s="46"/>
+      <c r="AZ77" s="46"/>
+      <c r="BA77" s="46"/>
+      <c r="BB77" s="100"/>
       <c r="BC77" s="29"/>
     </row>
-    <row r="78" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="107"/>
-      <c r="F78" s="60">
-        <v>0</v>
-      </c>
-      <c r="G78" s="60">
-        <v>0</v>
-      </c>
-      <c r="H78" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="61">
+    <row r="78" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B78" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="107"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G78" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I78" s="155">
         <v>0</v>
       </c>
       <c r="J78" s="33"/>
@@ -7916,57 +8062,59 @@
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
       <c r="W78" s="43"/>
-      <c r="X78" s="93"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="95"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="44"/>
-      <c r="AG78" s="44"/>
-      <c r="AH78" s="98"/>
-      <c r="AI78" s="88"/>
-      <c r="AJ78" s="43"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="43"/>
-      <c r="AM78" s="93"/>
-      <c r="AN78" s="88"/>
-      <c r="AO78" s="43"/>
-      <c r="AP78" s="43"/>
-      <c r="AQ78" s="43"/>
-      <c r="AR78" s="93"/>
-      <c r="AS78" s="101"/>
-      <c r="AT78" s="45"/>
-      <c r="AU78" s="45"/>
-      <c r="AV78" s="45"/>
-      <c r="AW78" s="103"/>
-      <c r="AX78" s="88"/>
-      <c r="AY78" s="43"/>
-      <c r="AZ78" s="43"/>
-      <c r="BA78" s="43"/>
-      <c r="BB78" s="93"/>
+      <c r="X78" s="156"/>
+      <c r="Y78" s="96"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="46"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="100"/>
+      <c r="AD78" s="96"/>
+      <c r="AE78" s="46"/>
+      <c r="AF78" s="46"/>
+      <c r="AG78" s="46"/>
+      <c r="AH78" s="100"/>
+      <c r="AI78" s="96"/>
+      <c r="AJ78" s="46"/>
+      <c r="AK78" s="46"/>
+      <c r="AL78" s="46"/>
+      <c r="AM78" s="100"/>
+      <c r="AN78" s="96"/>
+      <c r="AO78" s="46"/>
+      <c r="AP78" s="46"/>
+      <c r="AQ78" s="46"/>
+      <c r="AR78" s="100"/>
+      <c r="AS78" s="96"/>
+      <c r="AT78" s="46"/>
+      <c r="AU78" s="46"/>
+      <c r="AV78" s="46"/>
+      <c r="AW78" s="100"/>
+      <c r="AX78" s="96"/>
+      <c r="AY78" s="46"/>
+      <c r="AZ78" s="46"/>
+      <c r="BA78" s="46"/>
+      <c r="BB78" s="100"/>
       <c r="BC78" s="29"/>
     </row>
-    <row r="79" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B79" s="30"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="107"/>
-      <c r="F79" s="60">
-        <v>0</v>
-      </c>
-      <c r="G79" s="60">
-        <v>0</v>
-      </c>
-      <c r="H79" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="61">
+      <c r="D79" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G79" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I79" s="155">
         <v>0</v>
       </c>
       <c r="J79" s="33"/>
@@ -7983,1139 +8131,1145 @@
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
       <c r="W79" s="43"/>
-      <c r="X79" s="93"/>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="93"/>
-      <c r="AD79" s="95"/>
-      <c r="AE79" s="44"/>
-      <c r="AF79" s="44"/>
-      <c r="AG79" s="44"/>
-      <c r="AH79" s="98"/>
-      <c r="AI79" s="88"/>
-      <c r="AJ79" s="43"/>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="43"/>
-      <c r="AM79" s="93"/>
-      <c r="AN79" s="88"/>
-      <c r="AO79" s="43"/>
-      <c r="AP79" s="43"/>
-      <c r="AQ79" s="43"/>
-      <c r="AR79" s="93"/>
-      <c r="AS79" s="101"/>
-      <c r="AT79" s="45"/>
-      <c r="AU79" s="45"/>
-      <c r="AV79" s="45"/>
-      <c r="AW79" s="103"/>
-      <c r="AX79" s="88"/>
-      <c r="AY79" s="43"/>
-      <c r="AZ79" s="43"/>
-      <c r="BA79" s="43"/>
-      <c r="BB79" s="93"/>
+      <c r="X79" s="156"/>
+      <c r="Y79" s="96"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="46"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="100"/>
+      <c r="AD79" s="96"/>
+      <c r="AE79" s="46"/>
+      <c r="AF79" s="46"/>
+      <c r="AG79" s="46"/>
+      <c r="AH79" s="100"/>
+      <c r="AI79" s="96"/>
+      <c r="AJ79" s="46"/>
+      <c r="AK79" s="46"/>
+      <c r="AL79" s="46"/>
+      <c r="AM79" s="100"/>
+      <c r="AN79" s="96"/>
+      <c r="AO79" s="46"/>
+      <c r="AP79" s="46"/>
+      <c r="AQ79" s="46"/>
+      <c r="AR79" s="100"/>
+      <c r="AS79" s="96"/>
+      <c r="AT79" s="46"/>
+      <c r="AU79" s="46"/>
+      <c r="AV79" s="46"/>
+      <c r="AW79" s="100"/>
+      <c r="AX79" s="96"/>
+      <c r="AY79" s="46"/>
+      <c r="AZ79" s="46"/>
+      <c r="BA79" s="46"/>
+      <c r="BB79" s="100"/>
       <c r="BC79" s="29"/>
     </row>
-    <row r="80" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B80" s="30"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" s="107"/>
-      <c r="F80" s="60">
-        <v>0</v>
-      </c>
-      <c r="G80" s="60">
-        <v>0</v>
-      </c>
-      <c r="H80" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="61">
-        <v>0</v>
-      </c>
-      <c r="J80" s="36"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="85"/>
+      <c r="D80" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G80" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I80" s="155">
+        <v>0</v>
+      </c>
+      <c r="J80" s="33"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="84"/>
       <c r="O80" s="81"/>
       <c r="P80" s="41"/>
       <c r="Q80" s="41"/>
       <c r="R80" s="41"/>
       <c r="S80" s="90"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
-      <c r="X80" s="94"/>
-      <c r="Y80" s="89"/>
-      <c r="Z80" s="40"/>
-      <c r="AA80" s="40"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="94"/>
+      <c r="T80" s="88"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="96"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="46"/>
+      <c r="AB80" s="46"/>
+      <c r="AC80" s="100"/>
       <c r="AD80" s="96"/>
       <c r="AE80" s="46"/>
       <c r="AF80" s="46"/>
       <c r="AG80" s="46"/>
       <c r="AH80" s="100"/>
-      <c r="AI80" s="89"/>
-      <c r="AJ80" s="40"/>
-      <c r="AK80" s="40"/>
-      <c r="AL80" s="40"/>
-      <c r="AM80" s="94"/>
-      <c r="AN80" s="89"/>
-      <c r="AO80" s="40"/>
-      <c r="AP80" s="40"/>
-      <c r="AQ80" s="40"/>
-      <c r="AR80" s="94"/>
-      <c r="AS80" s="102"/>
-      <c r="AT80" s="47"/>
-      <c r="AU80" s="47"/>
-      <c r="AV80" s="47"/>
-      <c r="AW80" s="104"/>
-      <c r="AX80" s="89"/>
-      <c r="AY80" s="40"/>
-      <c r="AZ80" s="40"/>
-      <c r="BA80" s="40"/>
-      <c r="BB80" s="94"/>
+      <c r="AI80" s="96"/>
+      <c r="AJ80" s="46"/>
+      <c r="AK80" s="46"/>
+      <c r="AL80" s="46"/>
+      <c r="AM80" s="100"/>
+      <c r="AN80" s="96"/>
+      <c r="AO80" s="46"/>
+      <c r="AP80" s="46"/>
+      <c r="AQ80" s="46"/>
+      <c r="AR80" s="100"/>
+      <c r="AS80" s="96"/>
+      <c r="AT80" s="46"/>
+      <c r="AU80" s="46"/>
+      <c r="AV80" s="46"/>
+      <c r="AW80" s="100"/>
+      <c r="AX80" s="96"/>
+      <c r="AY80" s="46"/>
+      <c r="AZ80" s="46"/>
+      <c r="BA80" s="46"/>
+      <c r="BB80" s="100"/>
       <c r="BC80" s="29"/>
     </row>
-    <row r="81" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="111">
-        <v>4.12</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="60">
-        <v>0</v>
-      </c>
-      <c r="G81" s="60">
-        <v>0</v>
-      </c>
-      <c r="H81" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="61">
-        <v>0</v>
-      </c>
-      <c r="J81" s="36"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="85"/>
+    <row r="81" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="60"/>
+      <c r="F81" s="112">
+        <v>0</v>
+      </c>
+      <c r="G81" s="112">
+        <v>0</v>
+      </c>
+      <c r="H81" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="155">
+        <v>0</v>
+      </c>
+      <c r="J81" s="33"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="84"/>
       <c r="O81" s="81"/>
       <c r="P81" s="41"/>
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
       <c r="S81" s="90"/>
-      <c r="T81" s="89"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="94"/>
-      <c r="Y81" s="89"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="94"/>
+      <c r="T81" s="88"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="93"/>
+      <c r="Y81" s="96"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="100"/>
       <c r="AD81" s="96"/>
       <c r="AE81" s="46"/>
       <c r="AF81" s="46"/>
       <c r="AG81" s="46"/>
       <c r="AH81" s="100"/>
-      <c r="AI81" s="89"/>
-      <c r="AJ81" s="40"/>
-      <c r="AK81" s="40"/>
-      <c r="AL81" s="40"/>
-      <c r="AM81" s="94"/>
-      <c r="AN81" s="89"/>
-      <c r="AO81" s="40"/>
-      <c r="AP81" s="40"/>
-      <c r="AQ81" s="40"/>
-      <c r="AR81" s="94"/>
-      <c r="AS81" s="102"/>
-      <c r="AT81" s="47"/>
-      <c r="AU81" s="47"/>
-      <c r="AV81" s="47"/>
-      <c r="AW81" s="104"/>
-      <c r="AX81" s="89"/>
-      <c r="AY81" s="40"/>
-      <c r="AZ81" s="40"/>
-      <c r="BA81" s="40"/>
-      <c r="BB81" s="94"/>
+      <c r="AI81" s="96"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="46"/>
+      <c r="AM81" s="100"/>
+      <c r="AN81" s="96"/>
+      <c r="AO81" s="46"/>
+      <c r="AP81" s="46"/>
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="100"/>
+      <c r="AS81" s="96"/>
+      <c r="AT81" s="46"/>
+      <c r="AU81" s="46"/>
+      <c r="AV81" s="46"/>
+      <c r="AW81" s="100"/>
+      <c r="AX81" s="96"/>
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="46"/>
+      <c r="BA81" s="46"/>
+      <c r="BB81" s="100"/>
       <c r="BC81" s="29"/>
     </row>
-    <row r="82" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B82" s="30"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="107"/>
-      <c r="F82" s="60">
-        <v>0</v>
-      </c>
-      <c r="G82" s="60">
-        <v>0</v>
-      </c>
-      <c r="H82" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="61">
-        <v>0</v>
-      </c>
-      <c r="J82" s="36"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="85"/>
+      <c r="D82" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G82" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" s="155">
+        <v>0</v>
+      </c>
+      <c r="J82" s="33"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="84"/>
       <c r="O82" s="81"/>
       <c r="P82" s="41"/>
       <c r="Q82" s="41"/>
       <c r="R82" s="41"/>
       <c r="S82" s="90"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="40"/>
-      <c r="X82" s="94"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="40"/>
-      <c r="AA82" s="40"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="94"/>
+      <c r="T82" s="88"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="156"/>
+      <c r="Y82" s="96"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="46"/>
+      <c r="AB82" s="46"/>
+      <c r="AC82" s="100"/>
       <c r="AD82" s="96"/>
       <c r="AE82" s="46"/>
       <c r="AF82" s="46"/>
       <c r="AG82" s="46"/>
       <c r="AH82" s="100"/>
-      <c r="AI82" s="89"/>
-      <c r="AJ82" s="40"/>
-      <c r="AK82" s="40"/>
-      <c r="AL82" s="40"/>
-      <c r="AM82" s="94"/>
-      <c r="AN82" s="89"/>
-      <c r="AO82" s="40"/>
-      <c r="AP82" s="40"/>
-      <c r="AQ82" s="40"/>
-      <c r="AR82" s="94"/>
-      <c r="AS82" s="102"/>
-      <c r="AT82" s="47"/>
-      <c r="AU82" s="47"/>
-      <c r="AV82" s="47"/>
-      <c r="AW82" s="104"/>
-      <c r="AX82" s="89"/>
-      <c r="AY82" s="40"/>
-      <c r="AZ82" s="40"/>
-      <c r="BA82" s="40"/>
-      <c r="BB82" s="94"/>
+      <c r="AI82" s="96"/>
+      <c r="AJ82" s="46"/>
+      <c r="AK82" s="46"/>
+      <c r="AL82" s="46"/>
+      <c r="AM82" s="100"/>
+      <c r="AN82" s="96"/>
+      <c r="AO82" s="46"/>
+      <c r="AP82" s="46"/>
+      <c r="AQ82" s="46"/>
+      <c r="AR82" s="100"/>
+      <c r="AS82" s="96"/>
+      <c r="AT82" s="46"/>
+      <c r="AU82" s="46"/>
+      <c r="AV82" s="46"/>
+      <c r="AW82" s="100"/>
+      <c r="AX82" s="96"/>
+      <c r="AY82" s="46"/>
+      <c r="AZ82" s="46"/>
+      <c r="BA82" s="46"/>
+      <c r="BB82" s="100"/>
       <c r="BC82" s="29"/>
     </row>
-    <row r="83" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="78"/>
+    <row r="83" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B83" s="30"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="107"/>
-      <c r="F83" s="60">
-        <v>0</v>
-      </c>
-      <c r="G83" s="60">
-        <v>0</v>
-      </c>
-      <c r="H83" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="61">
-        <v>0</v>
-      </c>
-      <c r="J83" s="36"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="85"/>
+      <c r="D83" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="60"/>
+      <c r="F83" s="112">
+        <v>0</v>
+      </c>
+      <c r="G83" s="112">
+        <v>0</v>
+      </c>
+      <c r="H83" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="155">
+        <v>0</v>
+      </c>
+      <c r="J83" s="33"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="84"/>
       <c r="O83" s="81"/>
       <c r="P83" s="41"/>
       <c r="Q83" s="41"/>
       <c r="R83" s="41"/>
       <c r="S83" s="90"/>
-      <c r="T83" s="89"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
-      <c r="X83" s="94"/>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="94"/>
+      <c r="T83" s="88"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="93"/>
+      <c r="Y83" s="96"/>
+      <c r="Z83" s="46"/>
+      <c r="AA83" s="46"/>
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="100"/>
       <c r="AD83" s="96"/>
       <c r="AE83" s="46"/>
       <c r="AF83" s="46"/>
       <c r="AG83" s="46"/>
       <c r="AH83" s="100"/>
-      <c r="AI83" s="89"/>
-      <c r="AJ83" s="40"/>
-      <c r="AK83" s="40"/>
-      <c r="AL83" s="40"/>
-      <c r="AM83" s="94"/>
-      <c r="AN83" s="89"/>
-      <c r="AO83" s="40"/>
-      <c r="AP83" s="40"/>
-      <c r="AQ83" s="40"/>
-      <c r="AR83" s="94"/>
-      <c r="AS83" s="102"/>
-      <c r="AT83" s="47"/>
-      <c r="AU83" s="47"/>
-      <c r="AV83" s="47"/>
-      <c r="AW83" s="104"/>
-      <c r="AX83" s="89"/>
-      <c r="AY83" s="40"/>
-      <c r="AZ83" s="40"/>
-      <c r="BA83" s="40"/>
-      <c r="BB83" s="94"/>
+      <c r="AI83" s="96"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
+      <c r="AM83" s="100"/>
+      <c r="AN83" s="96"/>
+      <c r="AO83" s="46"/>
+      <c r="AP83" s="46"/>
+      <c r="AQ83" s="46"/>
+      <c r="AR83" s="100"/>
+      <c r="AS83" s="96"/>
+      <c r="AT83" s="46"/>
+      <c r="AU83" s="46"/>
+      <c r="AV83" s="46"/>
+      <c r="AW83" s="100"/>
+      <c r="AX83" s="96"/>
+      <c r="AY83" s="46"/>
+      <c r="AZ83" s="46"/>
+      <c r="BA83" s="46"/>
+      <c r="BB83" s="100"/>
       <c r="BC83" s="29"/>
     </row>
-    <row r="84" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="78"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" s="107"/>
-      <c r="F84" s="60">
-        <v>0</v>
-      </c>
-      <c r="G84" s="60">
-        <v>0</v>
-      </c>
-      <c r="H84" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="61">
-        <v>0</v>
-      </c>
-      <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="85"/>
+    <row r="84" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B84" s="30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C84" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="107"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G84" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I84" s="155">
+        <v>0</v>
+      </c>
+      <c r="J84" s="33"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="84"/>
       <c r="O84" s="81"/>
       <c r="P84" s="41"/>
       <c r="Q84" s="41"/>
       <c r="R84" s="41"/>
       <c r="S84" s="90"/>
-      <c r="T84" s="89"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
-      <c r="X84" s="94"/>
-      <c r="Y84" s="89"/>
-      <c r="Z84" s="40"/>
-      <c r="AA84" s="40"/>
-      <c r="AB84" s="40"/>
-      <c r="AC84" s="94"/>
+      <c r="T84" s="88"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="156"/>
+      <c r="Y84" s="96"/>
+      <c r="Z84" s="46"/>
+      <c r="AA84" s="46"/>
+      <c r="AB84" s="46"/>
+      <c r="AC84" s="100"/>
       <c r="AD84" s="96"/>
       <c r="AE84" s="46"/>
       <c r="AF84" s="46"/>
       <c r="AG84" s="46"/>
       <c r="AH84" s="100"/>
-      <c r="AI84" s="89"/>
-      <c r="AJ84" s="40"/>
-      <c r="AK84" s="40"/>
-      <c r="AL84" s="40"/>
-      <c r="AM84" s="94"/>
-      <c r="AN84" s="89"/>
-      <c r="AO84" s="40"/>
-      <c r="AP84" s="40"/>
-      <c r="AQ84" s="40"/>
-      <c r="AR84" s="94"/>
-      <c r="AS84" s="102"/>
-      <c r="AT84" s="47"/>
-      <c r="AU84" s="47"/>
-      <c r="AV84" s="47"/>
-      <c r="AW84" s="104"/>
-      <c r="AX84" s="89"/>
-      <c r="AY84" s="40"/>
-      <c r="AZ84" s="40"/>
-      <c r="BA84" s="40"/>
-      <c r="BB84" s="94"/>
+      <c r="AI84" s="96"/>
+      <c r="AJ84" s="46"/>
+      <c r="AK84" s="46"/>
+      <c r="AL84" s="46"/>
+      <c r="AM84" s="100"/>
+      <c r="AN84" s="96"/>
+      <c r="AO84" s="46"/>
+      <c r="AP84" s="46"/>
+      <c r="AQ84" s="46"/>
+      <c r="AR84" s="100"/>
+      <c r="AS84" s="96"/>
+      <c r="AT84" s="46"/>
+      <c r="AU84" s="46"/>
+      <c r="AV84" s="46"/>
+      <c r="AW84" s="100"/>
+      <c r="AX84" s="96"/>
+      <c r="AY84" s="46"/>
+      <c r="AZ84" s="46"/>
+      <c r="BA84" s="46"/>
+      <c r="BB84" s="100"/>
       <c r="BC84" s="29"/>
     </row>
-    <row r="85" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="30">
-        <v>4.13</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="60">
-        <v>0</v>
-      </c>
-      <c r="G85" s="60">
-        <v>0</v>
-      </c>
-      <c r="H85" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="61">
-        <v>0</v>
-      </c>
-      <c r="J85" s="36"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="85"/>
+    <row r="85" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B85" s="30"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="112">
+        <v>45576</v>
+      </c>
+      <c r="G85" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" s="155">
+        <v>0</v>
+      </c>
+      <c r="J85" s="33"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="84"/>
       <c r="O85" s="81"/>
       <c r="P85" s="41"/>
       <c r="Q85" s="41"/>
       <c r="R85" s="41"/>
       <c r="S85" s="90"/>
-      <c r="T85" s="89"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="40"/>
-      <c r="X85" s="94"/>
-      <c r="Y85" s="89"/>
-      <c r="Z85" s="40"/>
-      <c r="AA85" s="40"/>
-      <c r="AB85" s="40"/>
-      <c r="AC85" s="94"/>
+      <c r="T85" s="88"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="156"/>
+      <c r="Y85" s="96"/>
+      <c r="Z85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="100"/>
       <c r="AD85" s="96"/>
       <c r="AE85" s="46"/>
       <c r="AF85" s="46"/>
       <c r="AG85" s="46"/>
       <c r="AH85" s="100"/>
-      <c r="AI85" s="89"/>
-      <c r="AJ85" s="40"/>
-      <c r="AK85" s="40"/>
-      <c r="AL85" s="40"/>
-      <c r="AM85" s="94"/>
-      <c r="AN85" s="89"/>
-      <c r="AO85" s="40"/>
-      <c r="AP85" s="40"/>
-      <c r="AQ85" s="40"/>
-      <c r="AR85" s="94"/>
-      <c r="AS85" s="102"/>
-      <c r="AT85" s="47"/>
-      <c r="AU85" s="47"/>
-      <c r="AV85" s="47"/>
-      <c r="AW85" s="104"/>
-      <c r="AX85" s="89"/>
-      <c r="AY85" s="40"/>
-      <c r="AZ85" s="40"/>
-      <c r="BA85" s="40"/>
-      <c r="BB85" s="94"/>
+      <c r="AI85" s="96"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="46"/>
+      <c r="AL85" s="46"/>
+      <c r="AM85" s="100"/>
+      <c r="AN85" s="96"/>
+      <c r="AO85" s="46"/>
+      <c r="AP85" s="46"/>
+      <c r="AQ85" s="46"/>
+      <c r="AR85" s="100"/>
+      <c r="AS85" s="96"/>
+      <c r="AT85" s="46"/>
+      <c r="AU85" s="46"/>
+      <c r="AV85" s="46"/>
+      <c r="AW85" s="100"/>
+      <c r="AX85" s="96"/>
+      <c r="AY85" s="46"/>
+      <c r="AZ85" s="46"/>
+      <c r="BA85" s="46"/>
+      <c r="BB85" s="100"/>
       <c r="BC85" s="29"/>
     </row>
-    <row r="86" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="78"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="77" t="s">
-        <v>71</v>
-      </c>
+    <row r="86" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B86" s="111">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="77"/>
       <c r="E86" s="107"/>
-      <c r="F86" s="60">
-        <v>0</v>
-      </c>
-      <c r="G86" s="60">
-        <v>0</v>
-      </c>
-      <c r="H86" s="32">
-        <f t="shared" ref="H86" si="10">NETWORKDAYS(F86,G86)</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="61">
-        <v>0</v>
-      </c>
-      <c r="J86" s="36"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="81"/>
+      <c r="F86" s="112">
+        <v>45565</v>
+      </c>
+      <c r="G86" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" s="155">
+        <v>0</v>
+      </c>
+      <c r="J86" s="33"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="156"/>
       <c r="P86" s="41"/>
       <c r="Q86" s="41"/>
       <c r="R86" s="41"/>
       <c r="S86" s="90"/>
-      <c r="T86" s="89"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="94"/>
-      <c r="Y86" s="89"/>
-      <c r="Z86" s="40"/>
-      <c r="AA86" s="40"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="94"/>
-      <c r="AD86" s="96"/>
-      <c r="AE86" s="46"/>
-      <c r="AF86" s="46"/>
-      <c r="AG86" s="46"/>
-      <c r="AH86" s="100"/>
-      <c r="AI86" s="89"/>
-      <c r="AJ86" s="40"/>
-      <c r="AK86" s="40"/>
-      <c r="AL86" s="40"/>
-      <c r="AM86" s="94"/>
-      <c r="AN86" s="89"/>
-      <c r="AO86" s="40"/>
-      <c r="AP86" s="40"/>
-      <c r="AQ86" s="40"/>
-      <c r="AR86" s="94"/>
-      <c r="AS86" s="102"/>
-      <c r="AT86" s="47"/>
-      <c r="AU86" s="47"/>
-      <c r="AV86" s="47"/>
-      <c r="AW86" s="104"/>
-      <c r="AX86" s="89"/>
-      <c r="AY86" s="40"/>
-      <c r="AZ86" s="40"/>
-      <c r="BA86" s="40"/>
-      <c r="BB86" s="94"/>
+      <c r="T86" s="88"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="93"/>
+      <c r="Y86" s="88"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="43"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="93"/>
+      <c r="AD86" s="95"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="44"/>
+      <c r="AH86" s="98"/>
+      <c r="AI86" s="88"/>
+      <c r="AJ86" s="43"/>
+      <c r="AK86" s="43"/>
+      <c r="AL86" s="43"/>
+      <c r="AM86" s="93"/>
+      <c r="AN86" s="88"/>
+      <c r="AO86" s="43"/>
+      <c r="AP86" s="43"/>
+      <c r="AQ86" s="43"/>
+      <c r="AR86" s="93"/>
+      <c r="AS86" s="101"/>
+      <c r="AT86" s="45"/>
+      <c r="AU86" s="45"/>
+      <c r="AV86" s="45"/>
+      <c r="AW86" s="103"/>
+      <c r="AX86" s="88"/>
+      <c r="AY86" s="43"/>
+      <c r="AZ86" s="43"/>
+      <c r="BA86" s="43"/>
+      <c r="BB86" s="93"/>
       <c r="BC86" s="29"/>
     </row>
-    <row r="87" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="78"/>
+    <row r="87" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B87" s="30"/>
       <c r="C87" s="31"/>
       <c r="D87" s="77" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E87" s="107"/>
-      <c r="F87" s="60">
-        <v>0</v>
-      </c>
-      <c r="G87" s="60">
-        <v>0</v>
-      </c>
-      <c r="H87" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="61">
-        <v>0</v>
-      </c>
-      <c r="J87" s="36"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="85"/>
+      <c r="F87" s="112">
+        <v>0</v>
+      </c>
+      <c r="G87" s="112">
+        <v>0</v>
+      </c>
+      <c r="H87" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="155">
+        <v>0</v>
+      </c>
+      <c r="J87" s="33"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="84"/>
       <c r="O87" s="81"/>
       <c r="P87" s="41"/>
       <c r="Q87" s="41"/>
       <c r="R87" s="41"/>
       <c r="S87" s="90"/>
-      <c r="T87" s="89"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="94"/>
-      <c r="Y87" s="89"/>
-      <c r="Z87" s="40"/>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="94"/>
-      <c r="AD87" s="96"/>
-      <c r="AE87" s="46"/>
-      <c r="AF87" s="46"/>
-      <c r="AG87" s="46"/>
-      <c r="AH87" s="100"/>
-      <c r="AI87" s="89"/>
-      <c r="AJ87" s="40"/>
-      <c r="AK87" s="40"/>
-      <c r="AL87" s="40"/>
-      <c r="AM87" s="94"/>
-      <c r="AN87" s="89"/>
-      <c r="AO87" s="40"/>
-      <c r="AP87" s="40"/>
-      <c r="AQ87" s="40"/>
-      <c r="AR87" s="94"/>
-      <c r="AS87" s="102"/>
-      <c r="AT87" s="47"/>
-      <c r="AU87" s="47"/>
-      <c r="AV87" s="47"/>
-      <c r="AW87" s="104"/>
-      <c r="AX87" s="89"/>
-      <c r="AY87" s="40"/>
-      <c r="AZ87" s="40"/>
-      <c r="BA87" s="40"/>
-      <c r="BB87" s="94"/>
+      <c r="T87" s="88"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="93"/>
+      <c r="Y87" s="88"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="93"/>
+      <c r="AD87" s="95"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AH87" s="98"/>
+      <c r="AI87" s="88"/>
+      <c r="AJ87" s="43"/>
+      <c r="AK87" s="43"/>
+      <c r="AL87" s="43"/>
+      <c r="AM87" s="93"/>
+      <c r="AN87" s="88"/>
+      <c r="AO87" s="43"/>
+      <c r="AP87" s="43"/>
+      <c r="AQ87" s="43"/>
+      <c r="AR87" s="93"/>
+      <c r="AS87" s="101"/>
+      <c r="AT87" s="45"/>
+      <c r="AU87" s="45"/>
+      <c r="AV87" s="45"/>
+      <c r="AW87" s="103"/>
+      <c r="AX87" s="88"/>
+      <c r="AY87" s="43"/>
+      <c r="AZ87" s="43"/>
+      <c r="BA87" s="43"/>
+      <c r="BB87" s="93"/>
       <c r="BC87" s="29"/>
     </row>
-    <row r="88" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="78"/>
+    <row r="88" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B88" s="30"/>
       <c r="C88" s="31"/>
       <c r="D88" s="77" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E88" s="107"/>
-      <c r="F88" s="60">
-        <v>0</v>
-      </c>
-      <c r="G88" s="60">
-        <v>0</v>
-      </c>
-      <c r="H88" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="61">
-        <v>0</v>
-      </c>
-      <c r="J88" s="36"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="85"/>
+      <c r="F88" s="112">
+        <v>0</v>
+      </c>
+      <c r="G88" s="112">
+        <v>0</v>
+      </c>
+      <c r="H88" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="155">
+        <v>0</v>
+      </c>
+      <c r="J88" s="33"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="84"/>
       <c r="O88" s="81"/>
       <c r="P88" s="41"/>
       <c r="Q88" s="41"/>
       <c r="R88" s="41"/>
       <c r="S88" s="90"/>
-      <c r="T88" s="89"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="94"/>
-      <c r="Y88" s="89"/>
-      <c r="Z88" s="40"/>
-      <c r="AA88" s="40"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="94"/>
-      <c r="AD88" s="96"/>
-      <c r="AE88" s="46"/>
-      <c r="AF88" s="46"/>
-      <c r="AG88" s="46"/>
-      <c r="AH88" s="100"/>
-      <c r="AI88" s="89"/>
-      <c r="AJ88" s="40"/>
-      <c r="AK88" s="40"/>
-      <c r="AL88" s="40"/>
-      <c r="AM88" s="94"/>
-      <c r="AN88" s="89"/>
-      <c r="AO88" s="40"/>
-      <c r="AP88" s="40"/>
-      <c r="AQ88" s="40"/>
-      <c r="AR88" s="94"/>
-      <c r="AS88" s="102"/>
-      <c r="AT88" s="47"/>
-      <c r="AU88" s="47"/>
-      <c r="AV88" s="47"/>
-      <c r="AW88" s="104"/>
-      <c r="AX88" s="89"/>
-      <c r="AY88" s="40"/>
-      <c r="AZ88" s="40"/>
-      <c r="BA88" s="40"/>
-      <c r="BB88" s="94"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="93"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="93"/>
+      <c r="AD88" s="95"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="44"/>
+      <c r="AH88" s="98"/>
+      <c r="AI88" s="88"/>
+      <c r="AJ88" s="43"/>
+      <c r="AK88" s="43"/>
+      <c r="AL88" s="43"/>
+      <c r="AM88" s="93"/>
+      <c r="AN88" s="88"/>
+      <c r="AO88" s="43"/>
+      <c r="AP88" s="43"/>
+      <c r="AQ88" s="43"/>
+      <c r="AR88" s="93"/>
+      <c r="AS88" s="101"/>
+      <c r="AT88" s="45"/>
+      <c r="AU88" s="45"/>
+      <c r="AV88" s="45"/>
+      <c r="AW88" s="103"/>
+      <c r="AX88" s="88"/>
+      <c r="AY88" s="43"/>
+      <c r="AZ88" s="43"/>
+      <c r="BA88" s="43"/>
+      <c r="BB88" s="93"/>
       <c r="BC88" s="29"/>
     </row>
-    <row r="89" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="78"/>
+    <row r="89" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B89" s="30"/>
       <c r="C89" s="31"/>
       <c r="D89" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E89" s="107"/>
-      <c r="F89" s="60">
-        <v>0</v>
-      </c>
-      <c r="G89" s="60">
-        <v>0</v>
-      </c>
-      <c r="H89" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="61">
-        <v>0</v>
-      </c>
-      <c r="J89" s="36"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="85"/>
-      <c r="O89" s="81"/>
+        <v>111</v>
+      </c>
+      <c r="E89" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="112">
+        <v>45565</v>
+      </c>
+      <c r="G89" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H89" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I89" s="155">
+        <v>0</v>
+      </c>
+      <c r="J89" s="33"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="156"/>
       <c r="P89" s="41"/>
       <c r="Q89" s="41"/>
       <c r="R89" s="41"/>
       <c r="S89" s="90"/>
-      <c r="T89" s="89"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="94"/>
-      <c r="Y89" s="89"/>
-      <c r="Z89" s="40"/>
-      <c r="AA89" s="40"/>
-      <c r="AB89" s="40"/>
-      <c r="AC89" s="94"/>
-      <c r="AD89" s="96"/>
-      <c r="AE89" s="46"/>
-      <c r="AF89" s="46"/>
-      <c r="AG89" s="46"/>
-      <c r="AH89" s="100"/>
-      <c r="AI89" s="89"/>
-      <c r="AJ89" s="40"/>
-      <c r="AK89" s="40"/>
-      <c r="AL89" s="40"/>
-      <c r="AM89" s="94"/>
-      <c r="AN89" s="89"/>
-      <c r="AO89" s="40"/>
-      <c r="AP89" s="40"/>
-      <c r="AQ89" s="40"/>
-      <c r="AR89" s="94"/>
-      <c r="AS89" s="102"/>
-      <c r="AT89" s="47"/>
-      <c r="AU89" s="47"/>
-      <c r="AV89" s="47"/>
-      <c r="AW89" s="104"/>
-      <c r="AX89" s="89"/>
-      <c r="AY89" s="40"/>
-      <c r="AZ89" s="40"/>
-      <c r="BA89" s="40"/>
-      <c r="BB89" s="94"/>
+      <c r="T89" s="88"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="93"/>
+      <c r="Y89" s="88"/>
+      <c r="Z89" s="43"/>
+      <c r="AA89" s="43"/>
+      <c r="AB89" s="43"/>
+      <c r="AC89" s="93"/>
+      <c r="AD89" s="95"/>
+      <c r="AE89" s="44"/>
+      <c r="AF89" s="44"/>
+      <c r="AG89" s="44"/>
+      <c r="AH89" s="98"/>
+      <c r="AI89" s="88"/>
+      <c r="AJ89" s="43"/>
+      <c r="AK89" s="43"/>
+      <c r="AL89" s="43"/>
+      <c r="AM89" s="93"/>
+      <c r="AN89" s="88"/>
+      <c r="AO89" s="43"/>
+      <c r="AP89" s="43"/>
+      <c r="AQ89" s="43"/>
+      <c r="AR89" s="93"/>
+      <c r="AS89" s="101"/>
+      <c r="AT89" s="45"/>
+      <c r="AU89" s="45"/>
+      <c r="AV89" s="45"/>
+      <c r="AW89" s="103"/>
+      <c r="AX89" s="88"/>
+      <c r="AY89" s="43"/>
+      <c r="AZ89" s="43"/>
+      <c r="BA89" s="43"/>
+      <c r="BB89" s="93"/>
       <c r="BC89" s="29"/>
     </row>
-    <row r="90" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B90" s="30">
-        <v>4.1399999999999997</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D90" s="77"/>
       <c r="E90" s="107"/>
-      <c r="F90" s="60">
-        <v>0</v>
-      </c>
-      <c r="G90" s="60">
-        <v>0</v>
-      </c>
-      <c r="H90" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="61">
-        <v>0</v>
-      </c>
-      <c r="J90" s="36"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="81"/>
+      <c r="F90" s="112">
+        <v>0</v>
+      </c>
+      <c r="G90" s="112">
+        <v>0</v>
+      </c>
+      <c r="H90" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="155">
+        <v>0</v>
+      </c>
+      <c r="J90" s="33"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="41"/>
       <c r="P90" s="41"/>
       <c r="Q90" s="41"/>
       <c r="R90" s="41"/>
       <c r="S90" s="90"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
-      <c r="X90" s="94"/>
-      <c r="Y90" s="89"/>
-      <c r="Z90" s="40"/>
-      <c r="AA90" s="40"/>
-      <c r="AB90" s="40"/>
-      <c r="AC90" s="94"/>
-      <c r="AD90" s="96"/>
-      <c r="AE90" s="46"/>
-      <c r="AF90" s="46"/>
-      <c r="AG90" s="46"/>
-      <c r="AH90" s="100"/>
-      <c r="AI90" s="89"/>
-      <c r="AJ90" s="40"/>
-      <c r="AK90" s="40"/>
-      <c r="AL90" s="40"/>
-      <c r="AM90" s="94"/>
-      <c r="AN90" s="89"/>
-      <c r="AO90" s="40"/>
-      <c r="AP90" s="40"/>
-      <c r="AQ90" s="40"/>
-      <c r="AR90" s="94"/>
-      <c r="AS90" s="102"/>
-      <c r="AT90" s="47"/>
-      <c r="AU90" s="47"/>
-      <c r="AV90" s="47"/>
-      <c r="AW90" s="104"/>
-      <c r="AX90" s="89"/>
-      <c r="AY90" s="40"/>
-      <c r="AZ90" s="40"/>
-      <c r="BA90" s="40"/>
-      <c r="BB90" s="94"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="93"/>
+      <c r="Y90" s="88"/>
+      <c r="Z90" s="43"/>
+      <c r="AA90" s="43"/>
+      <c r="AB90" s="43"/>
+      <c r="AC90" s="93"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="44"/>
+      <c r="AF90" s="44"/>
+      <c r="AG90" s="44"/>
+      <c r="AH90" s="98"/>
+      <c r="AI90" s="88"/>
+      <c r="AJ90" s="43"/>
+      <c r="AK90" s="43"/>
+      <c r="AL90" s="43"/>
+      <c r="AM90" s="93"/>
+      <c r="AN90" s="88"/>
+      <c r="AO90" s="43"/>
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="43"/>
+      <c r="AR90" s="93"/>
+      <c r="AS90" s="101"/>
+      <c r="AT90" s="45"/>
+      <c r="AU90" s="45"/>
+      <c r="AV90" s="45"/>
+      <c r="AW90" s="103"/>
+      <c r="AX90" s="88"/>
+      <c r="AY90" s="43"/>
+      <c r="AZ90" s="43"/>
+      <c r="BA90" s="43"/>
+      <c r="BB90" s="93"/>
       <c r="BC90" s="29"/>
     </row>
-    <row r="91" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B91" s="30"/>
       <c r="C91" s="31"/>
       <c r="D91" s="77" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E91" s="107"/>
-      <c r="F91" s="60">
-        <v>0</v>
-      </c>
-      <c r="G91" s="60">
-        <v>0</v>
-      </c>
-      <c r="H91" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="61">
-        <v>0</v>
-      </c>
-      <c r="J91" s="36"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="85"/>
-      <c r="O91" s="81"/>
+      <c r="F91" s="112">
+        <v>0</v>
+      </c>
+      <c r="G91" s="112">
+        <v>0</v>
+      </c>
+      <c r="H91" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="155">
+        <v>0</v>
+      </c>
+      <c r="J91" s="33"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="84"/>
+      <c r="O91" s="41"/>
       <c r="P91" s="41"/>
       <c r="Q91" s="41"/>
       <c r="R91" s="41"/>
       <c r="S91" s="90"/>
-      <c r="T91" s="89"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
-      <c r="X91" s="94"/>
-      <c r="Y91" s="89"/>
-      <c r="Z91" s="40"/>
-      <c r="AA91" s="40"/>
-      <c r="AB91" s="40"/>
-      <c r="AC91" s="94"/>
-      <c r="AD91" s="96"/>
-      <c r="AE91" s="46"/>
-      <c r="AF91" s="46"/>
-      <c r="AG91" s="46"/>
-      <c r="AH91" s="100"/>
-      <c r="AI91" s="89"/>
-      <c r="AJ91" s="40"/>
-      <c r="AK91" s="40"/>
-      <c r="AL91" s="40"/>
-      <c r="AM91" s="94"/>
-      <c r="AN91" s="89"/>
-      <c r="AO91" s="40"/>
-      <c r="AP91" s="40"/>
-      <c r="AQ91" s="40"/>
-      <c r="AR91" s="94"/>
-      <c r="AS91" s="102"/>
-      <c r="AT91" s="47"/>
-      <c r="AU91" s="47"/>
-      <c r="AV91" s="47"/>
-      <c r="AW91" s="104"/>
-      <c r="AX91" s="89"/>
-      <c r="AY91" s="40"/>
-      <c r="AZ91" s="40"/>
-      <c r="BA91" s="40"/>
-      <c r="BB91" s="94"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="93"/>
+      <c r="Y91" s="88"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="43"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="93"/>
+      <c r="AD91" s="95"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="98"/>
+      <c r="AI91" s="88"/>
+      <c r="AJ91" s="43"/>
+      <c r="AK91" s="43"/>
+      <c r="AL91" s="43"/>
+      <c r="AM91" s="93"/>
+      <c r="AN91" s="88"/>
+      <c r="AO91" s="43"/>
+      <c r="AP91" s="43"/>
+      <c r="AQ91" s="43"/>
+      <c r="AR91" s="93"/>
+      <c r="AS91" s="101"/>
+      <c r="AT91" s="45"/>
+      <c r="AU91" s="45"/>
+      <c r="AV91" s="45"/>
+      <c r="AW91" s="103"/>
+      <c r="AX91" s="88"/>
+      <c r="AY91" s="43"/>
+      <c r="AZ91" s="43"/>
+      <c r="BA91" s="43"/>
+      <c r="BB91" s="93"/>
       <c r="BC91" s="29"/>
     </row>
-    <row r="92" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="78"/>
+    <row r="92" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B92" s="30"/>
       <c r="C92" s="31"/>
       <c r="D92" s="77" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E92" s="107"/>
-      <c r="F92" s="60">
-        <v>0</v>
-      </c>
-      <c r="G92" s="60">
-        <v>0</v>
-      </c>
-      <c r="H92" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="61">
-        <v>0</v>
-      </c>
-      <c r="J92" s="36"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="85"/>
+      <c r="F92" s="112">
+        <v>0</v>
+      </c>
+      <c r="G92" s="112">
+        <v>0</v>
+      </c>
+      <c r="H92" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="155">
+        <v>0</v>
+      </c>
+      <c r="J92" s="33"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="84"/>
       <c r="O92" s="81"/>
       <c r="P92" s="41"/>
       <c r="Q92" s="41"/>
       <c r="R92" s="41"/>
       <c r="S92" s="90"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="94"/>
-      <c r="Y92" s="89"/>
-      <c r="Z92" s="40"/>
-      <c r="AA92" s="40"/>
-      <c r="AB92" s="40"/>
-      <c r="AC92" s="94"/>
-      <c r="AD92" s="96"/>
-      <c r="AE92" s="46"/>
-      <c r="AF92" s="46"/>
-      <c r="AG92" s="46"/>
-      <c r="AH92" s="100"/>
-      <c r="AI92" s="89"/>
-      <c r="AJ92" s="40"/>
-      <c r="AK92" s="40"/>
-      <c r="AL92" s="40"/>
-      <c r="AM92" s="94"/>
-      <c r="AN92" s="89"/>
-      <c r="AO92" s="40"/>
-      <c r="AP92" s="40"/>
-      <c r="AQ92" s="40"/>
-      <c r="AR92" s="94"/>
-      <c r="AS92" s="102"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="AV92" s="47"/>
-      <c r="AW92" s="104"/>
-      <c r="AX92" s="89"/>
-      <c r="AY92" s="40"/>
-      <c r="AZ92" s="40"/>
-      <c r="BA92" s="40"/>
-      <c r="BB92" s="94"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="93"/>
+      <c r="Y92" s="88"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="93"/>
+      <c r="AD92" s="95"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="44"/>
+      <c r="AH92" s="98"/>
+      <c r="AI92" s="88"/>
+      <c r="AJ92" s="43"/>
+      <c r="AK92" s="43"/>
+      <c r="AL92" s="43"/>
+      <c r="AM92" s="93"/>
+      <c r="AN92" s="88"/>
+      <c r="AO92" s="43"/>
+      <c r="AP92" s="43"/>
+      <c r="AQ92" s="43"/>
+      <c r="AR92" s="93"/>
+      <c r="AS92" s="101"/>
+      <c r="AT92" s="45"/>
+      <c r="AU92" s="45"/>
+      <c r="AV92" s="45"/>
+      <c r="AW92" s="103"/>
+      <c r="AX92" s="88"/>
+      <c r="AY92" s="43"/>
+      <c r="AZ92" s="43"/>
+      <c r="BA92" s="43"/>
+      <c r="BB92" s="93"/>
       <c r="BC92" s="29"/>
     </row>
-    <row r="93" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="78"/>
+    <row r="93" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="77" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E93" s="107"/>
-      <c r="F93" s="60">
-        <v>0</v>
-      </c>
-      <c r="G93" s="60">
-        <v>0</v>
-      </c>
-      <c r="H93" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="61">
-        <v>0</v>
-      </c>
-      <c r="J93" s="36"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="85"/>
+      <c r="F93" s="112">
+        <v>0</v>
+      </c>
+      <c r="G93" s="112">
+        <v>0</v>
+      </c>
+      <c r="H93" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="155">
+        <v>0</v>
+      </c>
+      <c r="J93" s="33"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="84"/>
       <c r="O93" s="81"/>
       <c r="P93" s="41"/>
       <c r="Q93" s="41"/>
       <c r="R93" s="41"/>
       <c r="S93" s="90"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="40"/>
-      <c r="X93" s="94"/>
-      <c r="Y93" s="89"/>
-      <c r="Z93" s="40"/>
-      <c r="AA93" s="40"/>
-      <c r="AB93" s="40"/>
-      <c r="AC93" s="94"/>
-      <c r="AD93" s="96"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="46"/>
-      <c r="AG93" s="46"/>
-      <c r="AH93" s="100"/>
-      <c r="AI93" s="89"/>
-      <c r="AJ93" s="40"/>
-      <c r="AK93" s="40"/>
-      <c r="AL93" s="40"/>
-      <c r="AM93" s="94"/>
-      <c r="AN93" s="89"/>
-      <c r="AO93" s="40"/>
-      <c r="AP93" s="40"/>
-      <c r="AQ93" s="40"/>
-      <c r="AR93" s="94"/>
-      <c r="AS93" s="102"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="AV93" s="47"/>
-      <c r="AW93" s="104"/>
-      <c r="AX93" s="89"/>
-      <c r="AY93" s="40"/>
-      <c r="AZ93" s="40"/>
-      <c r="BA93" s="40"/>
-      <c r="BB93" s="94"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="88"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="93"/>
+      <c r="AD93" s="95"/>
+      <c r="AE93" s="44"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="44"/>
+      <c r="AH93" s="98"/>
+      <c r="AI93" s="88"/>
+      <c r="AJ93" s="43"/>
+      <c r="AK93" s="43"/>
+      <c r="AL93" s="43"/>
+      <c r="AM93" s="93"/>
+      <c r="AN93" s="88"/>
+      <c r="AO93" s="43"/>
+      <c r="AP93" s="43"/>
+      <c r="AQ93" s="43"/>
+      <c r="AR93" s="93"/>
+      <c r="AS93" s="101"/>
+      <c r="AT93" s="45"/>
+      <c r="AU93" s="45"/>
+      <c r="AV93" s="45"/>
+      <c r="AW93" s="103"/>
+      <c r="AX93" s="88"/>
+      <c r="AY93" s="43"/>
+      <c r="AZ93" s="43"/>
+      <c r="BA93" s="43"/>
+      <c r="BB93" s="93"/>
       <c r="BC93" s="29"/>
     </row>
-    <row r="94" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B94" s="111">
-        <v>4.1500000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="60">
-        <v>0</v>
-      </c>
-      <c r="G94" s="60">
-        <v>0</v>
-      </c>
-      <c r="H94" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="61">
-        <v>0</v>
-      </c>
-      <c r="J94" s="36"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="85"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="112">
+        <v>0</v>
+      </c>
+      <c r="G94" s="112">
+        <v>0</v>
+      </c>
+      <c r="H94" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="155">
+        <v>0</v>
+      </c>
+      <c r="J94" s="33"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="84"/>
       <c r="O94" s="81"/>
       <c r="P94" s="41"/>
       <c r="Q94" s="41"/>
       <c r="R94" s="41"/>
       <c r="S94" s="90"/>
-      <c r="T94" s="89"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="94"/>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="94"/>
-      <c r="AD94" s="96"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="46"/>
-      <c r="AG94" s="46"/>
-      <c r="AH94" s="100"/>
-      <c r="AI94" s="89"/>
-      <c r="AJ94" s="40"/>
-      <c r="AK94" s="40"/>
-      <c r="AL94" s="40"/>
-      <c r="AM94" s="94"/>
-      <c r="AN94" s="89"/>
-      <c r="AO94" s="40"/>
-      <c r="AP94" s="40"/>
-      <c r="AQ94" s="40"/>
-      <c r="AR94" s="94"/>
-      <c r="AS94" s="102"/>
-      <c r="AT94" s="47"/>
-      <c r="AU94" s="47"/>
-      <c r="AV94" s="47"/>
-      <c r="AW94" s="104"/>
-      <c r="AX94" s="89"/>
-      <c r="AY94" s="40"/>
-      <c r="AZ94" s="40"/>
-      <c r="BA94" s="40"/>
-      <c r="BB94" s="94"/>
+      <c r="T94" s="88"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="93"/>
+      <c r="Y94" s="88"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="43"/>
+      <c r="AC94" s="93"/>
+      <c r="AD94" s="95"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="44"/>
+      <c r="AH94" s="98"/>
+      <c r="AI94" s="88"/>
+      <c r="AJ94" s="43"/>
+      <c r="AK94" s="43"/>
+      <c r="AL94" s="43"/>
+      <c r="AM94" s="93"/>
+      <c r="AN94" s="88"/>
+      <c r="AO94" s="43"/>
+      <c r="AP94" s="43"/>
+      <c r="AQ94" s="43"/>
+      <c r="AR94" s="93"/>
+      <c r="AS94" s="101"/>
+      <c r="AT94" s="45"/>
+      <c r="AU94" s="45"/>
+      <c r="AV94" s="45"/>
+      <c r="AW94" s="103"/>
+      <c r="AX94" s="88"/>
+      <c r="AY94" s="43"/>
+      <c r="AZ94" s="43"/>
+      <c r="BA94" s="43"/>
+      <c r="BB94" s="93"/>
       <c r="BC94" s="29"/>
     </row>
-    <row r="95" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B95" s="30"/>
       <c r="C95" s="31"/>
       <c r="D95" s="77" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E95" s="107"/>
-      <c r="F95" s="60">
-        <v>0</v>
-      </c>
-      <c r="G95" s="60">
-        <v>0</v>
-      </c>
-      <c r="H95" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="61">
-        <v>0</v>
-      </c>
-      <c r="J95" s="36"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="85"/>
+      <c r="F95" s="112">
+        <v>0</v>
+      </c>
+      <c r="G95" s="112">
+        <v>0</v>
+      </c>
+      <c r="H95" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="155">
+        <v>0</v>
+      </c>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="84"/>
       <c r="O95" s="81"/>
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="41"/>
       <c r="S95" s="90"/>
-      <c r="T95" s="89"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="94"/>
-      <c r="Y95" s="89"/>
-      <c r="Z95" s="40"/>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="94"/>
-      <c r="AD95" s="96"/>
-      <c r="AE95" s="46"/>
-      <c r="AF95" s="46"/>
-      <c r="AG95" s="46"/>
-      <c r="AH95" s="100"/>
-      <c r="AI95" s="89"/>
-      <c r="AJ95" s="40"/>
-      <c r="AK95" s="40"/>
-      <c r="AL95" s="40"/>
-      <c r="AM95" s="94"/>
-      <c r="AN95" s="89"/>
-      <c r="AO95" s="40"/>
-      <c r="AP95" s="40"/>
-      <c r="AQ95" s="40"/>
-      <c r="AR95" s="94"/>
-      <c r="AS95" s="102"/>
-      <c r="AT95" s="47"/>
-      <c r="AU95" s="47"/>
-      <c r="AV95" s="47"/>
-      <c r="AW95" s="104"/>
-      <c r="AX95" s="89"/>
-      <c r="AY95" s="40"/>
-      <c r="AZ95" s="40"/>
-      <c r="BA95" s="40"/>
-      <c r="BB95" s="94"/>
+      <c r="T95" s="88"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="93"/>
+      <c r="Y95" s="88"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="93"/>
+      <c r="AD95" s="95"/>
+      <c r="AE95" s="44"/>
+      <c r="AF95" s="44"/>
+      <c r="AG95" s="44"/>
+      <c r="AH95" s="98"/>
+      <c r="AI95" s="88"/>
+      <c r="AJ95" s="43"/>
+      <c r="AK95" s="43"/>
+      <c r="AL95" s="43"/>
+      <c r="AM95" s="93"/>
+      <c r="AN95" s="88"/>
+      <c r="AO95" s="43"/>
+      <c r="AP95" s="43"/>
+      <c r="AQ95" s="43"/>
+      <c r="AR95" s="93"/>
+      <c r="AS95" s="101"/>
+      <c r="AT95" s="45"/>
+      <c r="AU95" s="45"/>
+      <c r="AV95" s="45"/>
+      <c r="AW95" s="103"/>
+      <c r="AX95" s="88"/>
+      <c r="AY95" s="43"/>
+      <c r="AZ95" s="43"/>
+      <c r="BA95" s="43"/>
+      <c r="BB95" s="93"/>
       <c r="BC95" s="29"/>
     </row>
-    <row r="96" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="78">
-        <v>4.16</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="60">
-        <v>0</v>
-      </c>
-      <c r="G96" s="60">
-        <v>0</v>
-      </c>
-      <c r="H96" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="61">
+    <row r="96" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="107"/>
+      <c r="F96" s="112">
+        <v>0</v>
+      </c>
+      <c r="G96" s="112">
+        <v>0</v>
+      </c>
+      <c r="H96" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="155">
         <v>0</v>
       </c>
       <c r="J96" s="33"/>
@@ -9133,181 +9287,1324 @@
       <c r="V96" s="43"/>
       <c r="W96" s="43"/>
       <c r="X96" s="93"/>
-      <c r="Y96" s="95"/>
-      <c r="Z96" s="44"/>
-      <c r="AA96" s="44"/>
-      <c r="AB96" s="44"/>
-      <c r="AC96" s="98"/>
+      <c r="Y96" s="88"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="93"/>
       <c r="AD96" s="95"/>
       <c r="AE96" s="44"/>
       <c r="AF96" s="44"/>
       <c r="AG96" s="44"/>
       <c r="AH96" s="98"/>
-      <c r="AI96" s="95"/>
-      <c r="AJ96" s="44"/>
-      <c r="AK96" s="44"/>
-      <c r="AL96" s="44"/>
-      <c r="AM96" s="98"/>
-      <c r="AN96" s="95"/>
-      <c r="AO96" s="44"/>
-      <c r="AP96" s="44"/>
-      <c r="AQ96" s="44"/>
-      <c r="AR96" s="98"/>
-      <c r="AS96" s="95"/>
-      <c r="AT96" s="44"/>
-      <c r="AU96" s="44"/>
-      <c r="AV96" s="44"/>
-      <c r="AW96" s="98"/>
-      <c r="AX96" s="95"/>
-      <c r="AY96" s="44"/>
-      <c r="AZ96" s="44"/>
-      <c r="BA96" s="44"/>
-      <c r="BB96" s="98"/>
+      <c r="AI96" s="88"/>
+      <c r="AJ96" s="43"/>
+      <c r="AK96" s="43"/>
+      <c r="AL96" s="43"/>
+      <c r="AM96" s="93"/>
+      <c r="AN96" s="88"/>
+      <c r="AO96" s="43"/>
+      <c r="AP96" s="43"/>
+      <c r="AQ96" s="43"/>
+      <c r="AR96" s="93"/>
+      <c r="AS96" s="101"/>
+      <c r="AT96" s="45"/>
+      <c r="AU96" s="45"/>
+      <c r="AV96" s="45"/>
+      <c r="AW96" s="103"/>
+      <c r="AX96" s="88"/>
+      <c r="AY96" s="43"/>
+      <c r="AZ96" s="43"/>
+      <c r="BA96" s="43"/>
+      <c r="BB96" s="93"/>
       <c r="BC96" s="29"/>
     </row>
-    <row r="97" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="52">
-        <v>5</v>
-      </c>
-      <c r="C97" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="57"/>
-      <c r="M97" s="57"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="55"/>
-      <c r="U97" s="55"/>
-      <c r="V97" s="55"/>
-      <c r="W97" s="55"/>
-      <c r="X97" s="55"/>
-      <c r="Y97" s="55"/>
-      <c r="Z97" s="55"/>
-      <c r="AA97" s="55"/>
-      <c r="AB97" s="55"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="55"/>
-      <c r="AI97" s="55"/>
-      <c r="AJ97" s="55"/>
-      <c r="AK97" s="55"/>
-      <c r="AL97" s="55"/>
-      <c r="AM97" s="55"/>
-      <c r="AN97" s="55"/>
-      <c r="AO97" s="55"/>
-      <c r="AP97" s="55"/>
-      <c r="AQ97" s="55"/>
-      <c r="AR97" s="55"/>
-      <c r="AS97" s="55"/>
-      <c r="AT97" s="55"/>
-      <c r="AU97" s="55"/>
-      <c r="AV97" s="55"/>
-      <c r="AW97" s="55"/>
-      <c r="AX97" s="55"/>
-      <c r="AY97" s="55"/>
-      <c r="AZ97" s="55"/>
-      <c r="BA97" s="55"/>
-      <c r="BB97" s="55"/>
-      <c r="BC97" s="51"/>
-    </row>
-    <row r="98" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="69">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C98" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="79"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="66">
-        <v>45564</v>
-      </c>
-      <c r="G98" s="66">
-        <v>45394</v>
-      </c>
-      <c r="H98" s="67">
-        <f>NETWORKDAYS(F98,G98)</f>
-        <v>-121</v>
-      </c>
-      <c r="I98" s="68">
-        <v>1</v>
-      </c>
-      <c r="J98" s="33"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="84"/>
+    <row r="97" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" s="107"/>
+      <c r="F97" s="112">
+        <v>0</v>
+      </c>
+      <c r="G97" s="112">
+        <v>0</v>
+      </c>
+      <c r="H97" s="154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="155">
+        <v>0</v>
+      </c>
+      <c r="J97" s="36"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="85"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="90"/>
+      <c r="T97" s="89"/>
+      <c r="U97" s="40"/>
+      <c r="V97" s="40"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="94"/>
+      <c r="Y97" s="89"/>
+      <c r="Z97" s="40"/>
+      <c r="AA97" s="40"/>
+      <c r="AB97" s="40"/>
+      <c r="AC97" s="94"/>
+      <c r="AD97" s="96"/>
+      <c r="AE97" s="46"/>
+      <c r="AF97" s="46"/>
+      <c r="AG97" s="46"/>
+      <c r="AH97" s="100"/>
+      <c r="AI97" s="89"/>
+      <c r="AJ97" s="40"/>
+      <c r="AK97" s="40"/>
+      <c r="AL97" s="40"/>
+      <c r="AM97" s="94"/>
+      <c r="AN97" s="89"/>
+      <c r="AO97" s="40"/>
+      <c r="AP97" s="40"/>
+      <c r="AQ97" s="40"/>
+      <c r="AR97" s="94"/>
+      <c r="AS97" s="102"/>
+      <c r="AT97" s="47"/>
+      <c r="AU97" s="47"/>
+      <c r="AV97" s="47"/>
+      <c r="AW97" s="104"/>
+      <c r="AX97" s="89"/>
+      <c r="AY97" s="40"/>
+      <c r="AZ97" s="40"/>
+      <c r="BA97" s="40"/>
+      <c r="BB97" s="94"/>
+      <c r="BC97" s="29"/>
+    </row>
+    <row r="98" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B98" s="30">
+        <v>4.13</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="77"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G98" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H98" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I98" s="155">
+        <v>0</v>
+      </c>
+      <c r="J98" s="36"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="85"/>
       <c r="O98" s="81"/>
       <c r="P98" s="41"/>
       <c r="Q98" s="41"/>
       <c r="R98" s="41"/>
       <c r="S98" s="90"/>
-      <c r="T98" s="88"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="93"/>
-      <c r="Y98" s="88"/>
-      <c r="Z98" s="43"/>
-      <c r="AA98" s="43"/>
-      <c r="AB98" s="43"/>
-      <c r="AC98" s="93"/>
-      <c r="AD98" s="95"/>
-      <c r="AE98" s="44"/>
-      <c r="AF98" s="44"/>
-      <c r="AG98" s="44"/>
-      <c r="AH98" s="98"/>
-      <c r="AI98" s="88"/>
-      <c r="AJ98" s="43"/>
-      <c r="AK98" s="43"/>
-      <c r="AL98" s="43"/>
-      <c r="AM98" s="43"/>
-      <c r="AN98" s="43"/>
-      <c r="AO98" s="43"/>
-      <c r="AP98" s="43"/>
-      <c r="AQ98" s="43"/>
-      <c r="AR98" s="43"/>
-      <c r="AS98" s="43"/>
-      <c r="AT98" s="43"/>
-      <c r="AU98" s="43"/>
-      <c r="AV98" s="43"/>
-      <c r="AW98" s="43"/>
-      <c r="AX98" s="43"/>
-      <c r="AY98" s="43"/>
-      <c r="AZ98" s="43"/>
-      <c r="BA98" s="43"/>
-      <c r="BB98" s="43"/>
+      <c r="T98" s="89"/>
+      <c r="U98" s="40"/>
+      <c r="V98" s="40"/>
+      <c r="W98" s="40"/>
+      <c r="X98" s="94"/>
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="40"/>
+      <c r="AA98" s="40"/>
+      <c r="AB98" s="40"/>
+      <c r="AC98" s="94"/>
+      <c r="AD98" s="96"/>
+      <c r="AE98" s="46"/>
+      <c r="AF98" s="46"/>
+      <c r="AG98" s="46"/>
+      <c r="AH98" s="100"/>
+      <c r="AI98" s="89"/>
+      <c r="AJ98" s="40"/>
+      <c r="AK98" s="40"/>
+      <c r="AL98" s="40"/>
+      <c r="AM98" s="94"/>
+      <c r="AN98" s="89"/>
+      <c r="AO98" s="40"/>
+      <c r="AP98" s="40"/>
+      <c r="AQ98" s="40"/>
+      <c r="AR98" s="94"/>
+      <c r="AS98" s="102"/>
+      <c r="AT98" s="47"/>
+      <c r="AU98" s="47"/>
+      <c r="AV98" s="47"/>
+      <c r="AW98" s="104"/>
+      <c r="AX98" s="89"/>
+      <c r="AY98" s="40"/>
+      <c r="AZ98" s="40"/>
+      <c r="BA98" s="40"/>
+      <c r="BB98" s="94"/>
       <c r="BC98" s="29"/>
+    </row>
+    <row r="99" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F99" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G99" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H99" s="154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I99" s="155">
+        <v>0</v>
+      </c>
+      <c r="J99" s="36"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="85"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="90"/>
+      <c r="T99" s="89"/>
+      <c r="U99" s="156"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="94"/>
+      <c r="Y99" s="89"/>
+      <c r="Z99" s="40"/>
+      <c r="AA99" s="40"/>
+      <c r="AB99" s="40"/>
+      <c r="AC99" s="94"/>
+      <c r="AD99" s="96"/>
+      <c r="AE99" s="46"/>
+      <c r="AF99" s="46"/>
+      <c r="AG99" s="46"/>
+      <c r="AH99" s="100"/>
+      <c r="AI99" s="89"/>
+      <c r="AJ99" s="40"/>
+      <c r="AK99" s="40"/>
+      <c r="AL99" s="40"/>
+      <c r="AM99" s="94"/>
+      <c r="AN99" s="89"/>
+      <c r="AO99" s="40"/>
+      <c r="AP99" s="40"/>
+      <c r="AQ99" s="40"/>
+      <c r="AR99" s="94"/>
+      <c r="AS99" s="102"/>
+      <c r="AT99" s="47"/>
+      <c r="AU99" s="47"/>
+      <c r="AV99" s="47"/>
+      <c r="AW99" s="104"/>
+      <c r="AX99" s="89"/>
+      <c r="AY99" s="40"/>
+      <c r="AZ99" s="40"/>
+      <c r="BA99" s="40"/>
+      <c r="BB99" s="94"/>
+      <c r="BC99" s="29"/>
+    </row>
+    <row r="100" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B100" s="78"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G100" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" s="154" t="e">
+        <f t="shared" ref="H100:H113" si="6">NETWORKDAYS(F100,G100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I100" s="155">
+        <v>0</v>
+      </c>
+      <c r="J100" s="36"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="85"/>
+      <c r="O100" s="81"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="90"/>
+      <c r="T100" s="89"/>
+      <c r="U100" s="156"/>
+      <c r="V100" s="40"/>
+      <c r="W100" s="40"/>
+      <c r="X100" s="94"/>
+      <c r="Y100" s="89"/>
+      <c r="Z100" s="40"/>
+      <c r="AA100" s="40"/>
+      <c r="AB100" s="40"/>
+      <c r="AC100" s="94"/>
+      <c r="AD100" s="96"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="100"/>
+      <c r="AI100" s="89"/>
+      <c r="AJ100" s="40"/>
+      <c r="AK100" s="40"/>
+      <c r="AL100" s="40"/>
+      <c r="AM100" s="94"/>
+      <c r="AN100" s="89"/>
+      <c r="AO100" s="40"/>
+      <c r="AP100" s="40"/>
+      <c r="AQ100" s="40"/>
+      <c r="AR100" s="94"/>
+      <c r="AS100" s="102"/>
+      <c r="AT100" s="47"/>
+      <c r="AU100" s="47"/>
+      <c r="AV100" s="47"/>
+      <c r="AW100" s="104"/>
+      <c r="AX100" s="89"/>
+      <c r="AY100" s="40"/>
+      <c r="AZ100" s="40"/>
+      <c r="BA100" s="40"/>
+      <c r="BB100" s="94"/>
+      <c r="BC100" s="29"/>
+    </row>
+    <row r="101" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B101" s="78"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G101" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H101" s="154" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I101" s="155">
+        <v>0</v>
+      </c>
+      <c r="J101" s="36"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="85"/>
+      <c r="O101" s="81"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="90"/>
+      <c r="T101" s="89"/>
+      <c r="U101" s="156"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="94"/>
+      <c r="Y101" s="89"/>
+      <c r="Z101" s="40"/>
+      <c r="AA101" s="40"/>
+      <c r="AB101" s="40"/>
+      <c r="AC101" s="94"/>
+      <c r="AD101" s="96"/>
+      <c r="AE101" s="46"/>
+      <c r="AF101" s="46"/>
+      <c r="AG101" s="46"/>
+      <c r="AH101" s="100"/>
+      <c r="AI101" s="89"/>
+      <c r="AJ101" s="40"/>
+      <c r="AK101" s="40"/>
+      <c r="AL101" s="40"/>
+      <c r="AM101" s="94"/>
+      <c r="AN101" s="89"/>
+      <c r="AO101" s="40"/>
+      <c r="AP101" s="40"/>
+      <c r="AQ101" s="40"/>
+      <c r="AR101" s="94"/>
+      <c r="AS101" s="102"/>
+      <c r="AT101" s="47"/>
+      <c r="AU101" s="47"/>
+      <c r="AV101" s="47"/>
+      <c r="AW101" s="104"/>
+      <c r="AX101" s="89"/>
+      <c r="AY101" s="40"/>
+      <c r="AZ101" s="40"/>
+      <c r="BA101" s="40"/>
+      <c r="BB101" s="94"/>
+      <c r="BC101" s="29"/>
+    </row>
+    <row r="102" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B102" s="30">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="77"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="112">
+        <v>0</v>
+      </c>
+      <c r="G102" s="112">
+        <v>0</v>
+      </c>
+      <c r="H102" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="155">
+        <v>0</v>
+      </c>
+      <c r="J102" s="36"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="85"/>
+      <c r="O102" s="81"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="90"/>
+      <c r="T102" s="89"/>
+      <c r="U102" s="40"/>
+      <c r="V102" s="40"/>
+      <c r="W102" s="40"/>
+      <c r="X102" s="94"/>
+      <c r="Y102" s="89"/>
+      <c r="Z102" s="40"/>
+      <c r="AA102" s="40"/>
+      <c r="AB102" s="40"/>
+      <c r="AC102" s="94"/>
+      <c r="AD102" s="96"/>
+      <c r="AE102" s="46"/>
+      <c r="AF102" s="46"/>
+      <c r="AG102" s="46"/>
+      <c r="AH102" s="100"/>
+      <c r="AI102" s="89"/>
+      <c r="AJ102" s="40"/>
+      <c r="AK102" s="40"/>
+      <c r="AL102" s="40"/>
+      <c r="AM102" s="94"/>
+      <c r="AN102" s="89"/>
+      <c r="AO102" s="40"/>
+      <c r="AP102" s="40"/>
+      <c r="AQ102" s="40"/>
+      <c r="AR102" s="94"/>
+      <c r="AS102" s="102"/>
+      <c r="AT102" s="47"/>
+      <c r="AU102" s="47"/>
+      <c r="AV102" s="47"/>
+      <c r="AW102" s="104"/>
+      <c r="AX102" s="89"/>
+      <c r="AY102" s="40"/>
+      <c r="AZ102" s="40"/>
+      <c r="BA102" s="40"/>
+      <c r="BB102" s="94"/>
+      <c r="BC102" s="29"/>
+    </row>
+    <row r="103" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B103" s="78"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="107"/>
+      <c r="F103" s="112">
+        <v>0</v>
+      </c>
+      <c r="G103" s="112">
+        <v>0</v>
+      </c>
+      <c r="H103" s="154">
+        <f>NETWORKDAYS(F103,G103)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="155">
+        <v>0</v>
+      </c>
+      <c r="J103" s="36"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="85"/>
+      <c r="O103" s="81"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+      <c r="S103" s="90"/>
+      <c r="T103" s="89"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="40"/>
+      <c r="W103" s="40"/>
+      <c r="X103" s="94"/>
+      <c r="Y103" s="89"/>
+      <c r="Z103" s="40"/>
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+      <c r="AC103" s="94"/>
+      <c r="AD103" s="96"/>
+      <c r="AE103" s="46"/>
+      <c r="AF103" s="46"/>
+      <c r="AG103" s="46"/>
+      <c r="AH103" s="100"/>
+      <c r="AI103" s="89"/>
+      <c r="AJ103" s="40"/>
+      <c r="AK103" s="40"/>
+      <c r="AL103" s="40"/>
+      <c r="AM103" s="94"/>
+      <c r="AN103" s="89"/>
+      <c r="AO103" s="40"/>
+      <c r="AP103" s="40"/>
+      <c r="AQ103" s="40"/>
+      <c r="AR103" s="94"/>
+      <c r="AS103" s="102"/>
+      <c r="AT103" s="47"/>
+      <c r="AU103" s="47"/>
+      <c r="AV103" s="47"/>
+      <c r="AW103" s="104"/>
+      <c r="AX103" s="89"/>
+      <c r="AY103" s="40"/>
+      <c r="AZ103" s="40"/>
+      <c r="BA103" s="40"/>
+      <c r="BB103" s="94"/>
+      <c r="BC103" s="29"/>
+    </row>
+    <row r="104" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B104" s="78"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="107"/>
+      <c r="F104" s="112">
+        <v>0</v>
+      </c>
+      <c r="G104" s="112">
+        <v>0</v>
+      </c>
+      <c r="H104" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="155">
+        <v>0</v>
+      </c>
+      <c r="J104" s="36"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="85"/>
+      <c r="O104" s="81"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="90"/>
+      <c r="T104" s="89"/>
+      <c r="U104" s="40"/>
+      <c r="V104" s="40"/>
+      <c r="W104" s="40"/>
+      <c r="X104" s="94"/>
+      <c r="Y104" s="89"/>
+      <c r="Z104" s="40"/>
+      <c r="AA104" s="40"/>
+      <c r="AB104" s="40"/>
+      <c r="AC104" s="94"/>
+      <c r="AD104" s="96"/>
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="100"/>
+      <c r="AI104" s="89"/>
+      <c r="AJ104" s="40"/>
+      <c r="AK104" s="40"/>
+      <c r="AL104" s="40"/>
+      <c r="AM104" s="94"/>
+      <c r="AN104" s="89"/>
+      <c r="AO104" s="40"/>
+      <c r="AP104" s="40"/>
+      <c r="AQ104" s="40"/>
+      <c r="AR104" s="94"/>
+      <c r="AS104" s="102"/>
+      <c r="AT104" s="47"/>
+      <c r="AU104" s="47"/>
+      <c r="AV104" s="47"/>
+      <c r="AW104" s="104"/>
+      <c r="AX104" s="89"/>
+      <c r="AY104" s="40"/>
+      <c r="AZ104" s="40"/>
+      <c r="BA104" s="40"/>
+      <c r="BB104" s="94"/>
+      <c r="BC104" s="29"/>
+    </row>
+    <row r="105" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B105" s="78"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="107"/>
+      <c r="F105" s="112">
+        <v>0</v>
+      </c>
+      <c r="G105" s="112">
+        <v>0</v>
+      </c>
+      <c r="H105" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="155">
+        <v>0</v>
+      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="85"/>
+      <c r="O105" s="81"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="41"/>
+      <c r="S105" s="90"/>
+      <c r="T105" s="89"/>
+      <c r="U105" s="40"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="40"/>
+      <c r="X105" s="94"/>
+      <c r="Y105" s="89"/>
+      <c r="Z105" s="40"/>
+      <c r="AA105" s="40"/>
+      <c r="AB105" s="40"/>
+      <c r="AC105" s="94"/>
+      <c r="AD105" s="96"/>
+      <c r="AE105" s="46"/>
+      <c r="AF105" s="46"/>
+      <c r="AG105" s="46"/>
+      <c r="AH105" s="100"/>
+      <c r="AI105" s="89"/>
+      <c r="AJ105" s="40"/>
+      <c r="AK105" s="40"/>
+      <c r="AL105" s="40"/>
+      <c r="AM105" s="94"/>
+      <c r="AN105" s="89"/>
+      <c r="AO105" s="40"/>
+      <c r="AP105" s="40"/>
+      <c r="AQ105" s="40"/>
+      <c r="AR105" s="94"/>
+      <c r="AS105" s="102"/>
+      <c r="AT105" s="47"/>
+      <c r="AU105" s="47"/>
+      <c r="AV105" s="47"/>
+      <c r="AW105" s="104"/>
+      <c r="AX105" s="89"/>
+      <c r="AY105" s="40"/>
+      <c r="AZ105" s="40"/>
+      <c r="BA105" s="40"/>
+      <c r="BB105" s="94"/>
+      <c r="BC105" s="29"/>
+    </row>
+    <row r="106" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B106" s="78"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="107"/>
+      <c r="F106" s="112">
+        <v>0</v>
+      </c>
+      <c r="G106" s="112">
+        <v>0</v>
+      </c>
+      <c r="H106" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="155">
+        <v>0</v>
+      </c>
+      <c r="J106" s="36"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="85"/>
+      <c r="O106" s="81"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
+      <c r="S106" s="90"/>
+      <c r="T106" s="89"/>
+      <c r="U106" s="40"/>
+      <c r="V106" s="40"/>
+      <c r="W106" s="40"/>
+      <c r="X106" s="94"/>
+      <c r="Y106" s="89"/>
+      <c r="Z106" s="40"/>
+      <c r="AA106" s="40"/>
+      <c r="AB106" s="40"/>
+      <c r="AC106" s="94"/>
+      <c r="AD106" s="96"/>
+      <c r="AE106" s="46"/>
+      <c r="AF106" s="46"/>
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="100"/>
+      <c r="AI106" s="89"/>
+      <c r="AJ106" s="40"/>
+      <c r="AK106" s="40"/>
+      <c r="AL106" s="40"/>
+      <c r="AM106" s="94"/>
+      <c r="AN106" s="89"/>
+      <c r="AO106" s="40"/>
+      <c r="AP106" s="40"/>
+      <c r="AQ106" s="40"/>
+      <c r="AR106" s="94"/>
+      <c r="AS106" s="102"/>
+      <c r="AT106" s="47"/>
+      <c r="AU106" s="47"/>
+      <c r="AV106" s="47"/>
+      <c r="AW106" s="104"/>
+      <c r="AX106" s="89"/>
+      <c r="AY106" s="40"/>
+      <c r="AZ106" s="40"/>
+      <c r="BA106" s="40"/>
+      <c r="BB106" s="94"/>
+      <c r="BC106" s="29"/>
+    </row>
+    <row r="107" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B107" s="111">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" s="77"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="112">
+        <v>0</v>
+      </c>
+      <c r="G107" s="112">
+        <v>0</v>
+      </c>
+      <c r="H107" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="155">
+        <v>0</v>
+      </c>
+      <c r="J107" s="36"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="85"/>
+      <c r="O107" s="81"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+      <c r="S107" s="90"/>
+      <c r="T107" s="89"/>
+      <c r="U107" s="40"/>
+      <c r="V107" s="40"/>
+      <c r="W107" s="40"/>
+      <c r="X107" s="94"/>
+      <c r="Y107" s="89"/>
+      <c r="Z107" s="40"/>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+      <c r="AC107" s="94"/>
+      <c r="AD107" s="96"/>
+      <c r="AE107" s="46"/>
+      <c r="AF107" s="46"/>
+      <c r="AG107" s="46"/>
+      <c r="AH107" s="100"/>
+      <c r="AI107" s="89"/>
+      <c r="AJ107" s="40"/>
+      <c r="AK107" s="40"/>
+      <c r="AL107" s="40"/>
+      <c r="AM107" s="94"/>
+      <c r="AN107" s="89"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="40"/>
+      <c r="AR107" s="94"/>
+      <c r="AS107" s="102"/>
+      <c r="AT107" s="47"/>
+      <c r="AU107" s="47"/>
+      <c r="AV107" s="47"/>
+      <c r="AW107" s="104"/>
+      <c r="AX107" s="89"/>
+      <c r="AY107" s="40"/>
+      <c r="AZ107" s="40"/>
+      <c r="BA107" s="40"/>
+      <c r="BB107" s="94"/>
+      <c r="BC107" s="29"/>
+    </row>
+    <row r="108" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="107"/>
+      <c r="F108" s="112">
+        <v>0</v>
+      </c>
+      <c r="G108" s="112">
+        <v>0</v>
+      </c>
+      <c r="H108" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="155">
+        <v>0</v>
+      </c>
+      <c r="J108" s="36"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="85"/>
+      <c r="O108" s="81"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="90"/>
+      <c r="T108" s="89"/>
+      <c r="U108" s="40"/>
+      <c r="V108" s="40"/>
+      <c r="W108" s="40"/>
+      <c r="X108" s="94"/>
+      <c r="Y108" s="89"/>
+      <c r="Z108" s="40"/>
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+      <c r="AC108" s="94"/>
+      <c r="AD108" s="96"/>
+      <c r="AE108" s="46"/>
+      <c r="AF108" s="46"/>
+      <c r="AG108" s="46"/>
+      <c r="AH108" s="100"/>
+      <c r="AI108" s="89"/>
+      <c r="AJ108" s="40"/>
+      <c r="AK108" s="40"/>
+      <c r="AL108" s="40"/>
+      <c r="AM108" s="94"/>
+      <c r="AN108" s="89"/>
+      <c r="AO108" s="40"/>
+      <c r="AP108" s="40"/>
+      <c r="AQ108" s="40"/>
+      <c r="AR108" s="94"/>
+      <c r="AS108" s="102"/>
+      <c r="AT108" s="47"/>
+      <c r="AU108" s="47"/>
+      <c r="AV108" s="47"/>
+      <c r="AW108" s="104"/>
+      <c r="AX108" s="89"/>
+      <c r="AY108" s="40"/>
+      <c r="AZ108" s="40"/>
+      <c r="BA108" s="40"/>
+      <c r="BB108" s="94"/>
+      <c r="BC108" s="29"/>
+    </row>
+    <row r="109" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B109" s="78"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="107"/>
+      <c r="F109" s="112">
+        <v>0</v>
+      </c>
+      <c r="G109" s="112">
+        <v>0</v>
+      </c>
+      <c r="H109" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="155">
+        <v>0</v>
+      </c>
+      <c r="J109" s="36"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="85"/>
+      <c r="O109" s="81"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+      <c r="S109" s="90"/>
+      <c r="T109" s="89"/>
+      <c r="U109" s="40"/>
+      <c r="V109" s="40"/>
+      <c r="W109" s="40"/>
+      <c r="X109" s="94"/>
+      <c r="Y109" s="89"/>
+      <c r="Z109" s="40"/>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+      <c r="AC109" s="94"/>
+      <c r="AD109" s="96"/>
+      <c r="AE109" s="46"/>
+      <c r="AF109" s="46"/>
+      <c r="AG109" s="46"/>
+      <c r="AH109" s="100"/>
+      <c r="AI109" s="89"/>
+      <c r="AJ109" s="40"/>
+      <c r="AK109" s="40"/>
+      <c r="AL109" s="40"/>
+      <c r="AM109" s="94"/>
+      <c r="AN109" s="89"/>
+      <c r="AO109" s="40"/>
+      <c r="AP109" s="40"/>
+      <c r="AQ109" s="40"/>
+      <c r="AR109" s="94"/>
+      <c r="AS109" s="102"/>
+      <c r="AT109" s="47"/>
+      <c r="AU109" s="47"/>
+      <c r="AV109" s="47"/>
+      <c r="AW109" s="104"/>
+      <c r="AX109" s="89"/>
+      <c r="AY109" s="40"/>
+      <c r="AZ109" s="40"/>
+      <c r="BA109" s="40"/>
+      <c r="BB109" s="94"/>
+      <c r="BC109" s="29"/>
+    </row>
+    <row r="110" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B110" s="78"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" s="107"/>
+      <c r="F110" s="112">
+        <v>0</v>
+      </c>
+      <c r="G110" s="112">
+        <v>0</v>
+      </c>
+      <c r="H110" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="155">
+        <v>0</v>
+      </c>
+      <c r="J110" s="36"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="85"/>
+      <c r="O110" s="81"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="41"/>
+      <c r="S110" s="90"/>
+      <c r="T110" s="89"/>
+      <c r="U110" s="40"/>
+      <c r="V110" s="40"/>
+      <c r="W110" s="40"/>
+      <c r="X110" s="94"/>
+      <c r="Y110" s="89"/>
+      <c r="Z110" s="40"/>
+      <c r="AA110" s="40"/>
+      <c r="AB110" s="40"/>
+      <c r="AC110" s="94"/>
+      <c r="AD110" s="96"/>
+      <c r="AE110" s="46"/>
+      <c r="AF110" s="46"/>
+      <c r="AG110" s="46"/>
+      <c r="AH110" s="100"/>
+      <c r="AI110" s="89"/>
+      <c r="AJ110" s="40"/>
+      <c r="AK110" s="40"/>
+      <c r="AL110" s="40"/>
+      <c r="AM110" s="94"/>
+      <c r="AN110" s="89"/>
+      <c r="AO110" s="40"/>
+      <c r="AP110" s="40"/>
+      <c r="AQ110" s="40"/>
+      <c r="AR110" s="94"/>
+      <c r="AS110" s="102"/>
+      <c r="AT110" s="47"/>
+      <c r="AU110" s="47"/>
+      <c r="AV110" s="47"/>
+      <c r="AW110" s="104"/>
+      <c r="AX110" s="89"/>
+      <c r="AY110" s="40"/>
+      <c r="AZ110" s="40"/>
+      <c r="BA110" s="40"/>
+      <c r="BB110" s="94"/>
+      <c r="BC110" s="29"/>
+    </row>
+    <row r="111" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B111" s="78">
+        <v>4.16</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="112">
+        <v>0</v>
+      </c>
+      <c r="G111" s="112">
+        <v>0</v>
+      </c>
+      <c r="H111" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="155">
+        <v>0</v>
+      </c>
+      <c r="J111" s="36"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="85"/>
+      <c r="O111" s="81"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="90"/>
+      <c r="T111" s="89"/>
+      <c r="U111" s="40"/>
+      <c r="V111" s="40"/>
+      <c r="W111" s="40"/>
+      <c r="X111" s="94"/>
+      <c r="Y111" s="89"/>
+      <c r="Z111" s="40"/>
+      <c r="AA111" s="40"/>
+      <c r="AB111" s="40"/>
+      <c r="AC111" s="94"/>
+      <c r="AD111" s="96"/>
+      <c r="AE111" s="46"/>
+      <c r="AF111" s="46"/>
+      <c r="AG111" s="46"/>
+      <c r="AH111" s="100"/>
+      <c r="AI111" s="89"/>
+      <c r="AJ111" s="40"/>
+      <c r="AK111" s="40"/>
+      <c r="AL111" s="40"/>
+      <c r="AM111" s="94"/>
+      <c r="AN111" s="89"/>
+      <c r="AO111" s="40"/>
+      <c r="AP111" s="40"/>
+      <c r="AQ111" s="40"/>
+      <c r="AR111" s="94"/>
+      <c r="AS111" s="102"/>
+      <c r="AT111" s="47"/>
+      <c r="AU111" s="47"/>
+      <c r="AV111" s="47"/>
+      <c r="AW111" s="104"/>
+      <c r="AX111" s="89"/>
+      <c r="AY111" s="40"/>
+      <c r="AZ111" s="40"/>
+      <c r="BA111" s="40"/>
+      <c r="BB111" s="94"/>
+      <c r="BC111" s="29"/>
+    </row>
+    <row r="112" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B112" s="30"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="107"/>
+      <c r="F112" s="112">
+        <v>0</v>
+      </c>
+      <c r="G112" s="112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="155">
+        <v>0</v>
+      </c>
+      <c r="J112" s="36"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="85"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="41"/>
+      <c r="S112" s="90"/>
+      <c r="T112" s="89"/>
+      <c r="U112" s="40"/>
+      <c r="V112" s="40"/>
+      <c r="W112" s="40"/>
+      <c r="X112" s="94"/>
+      <c r="Y112" s="89"/>
+      <c r="Z112" s="40"/>
+      <c r="AA112" s="40"/>
+      <c r="AB112" s="40"/>
+      <c r="AC112" s="94"/>
+      <c r="AD112" s="96"/>
+      <c r="AE112" s="46"/>
+      <c r="AF112" s="46"/>
+      <c r="AG112" s="46"/>
+      <c r="AH112" s="100"/>
+      <c r="AI112" s="89"/>
+      <c r="AJ112" s="40"/>
+      <c r="AK112" s="40"/>
+      <c r="AL112" s="40"/>
+      <c r="AM112" s="94"/>
+      <c r="AN112" s="89"/>
+      <c r="AO112" s="40"/>
+      <c r="AP112" s="40"/>
+      <c r="AQ112" s="40"/>
+      <c r="AR112" s="94"/>
+      <c r="AS112" s="102"/>
+      <c r="AT112" s="47"/>
+      <c r="AU112" s="47"/>
+      <c r="AV112" s="47"/>
+      <c r="AW112" s="104"/>
+      <c r="AX112" s="89"/>
+      <c r="AY112" s="40"/>
+      <c r="AZ112" s="40"/>
+      <c r="BA112" s="40"/>
+      <c r="BB112" s="94"/>
+      <c r="BC112" s="29"/>
+    </row>
+    <row r="113" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B113" s="78">
+        <v>4.17</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="112">
+        <v>0</v>
+      </c>
+      <c r="G113" s="112">
+        <v>0</v>
+      </c>
+      <c r="H113" s="154">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="155">
+        <v>0</v>
+      </c>
+      <c r="J113" s="33"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="84"/>
+      <c r="O113" s="81"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="41"/>
+      <c r="S113" s="90"/>
+      <c r="T113" s="88"/>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="43"/>
+      <c r="X113" s="93"/>
+      <c r="Y113" s="95"/>
+      <c r="Z113" s="44"/>
+      <c r="AA113" s="44"/>
+      <c r="AB113" s="44"/>
+      <c r="AC113" s="98"/>
+      <c r="AD113" s="95"/>
+      <c r="AE113" s="44"/>
+      <c r="AF113" s="44"/>
+      <c r="AG113" s="44"/>
+      <c r="AH113" s="98"/>
+      <c r="AI113" s="95"/>
+      <c r="AJ113" s="44"/>
+      <c r="AK113" s="44"/>
+      <c r="AL113" s="44"/>
+      <c r="AM113" s="98"/>
+      <c r="AN113" s="95"/>
+      <c r="AO113" s="44"/>
+      <c r="AP113" s="44"/>
+      <c r="AQ113" s="44"/>
+      <c r="AR113" s="98"/>
+      <c r="AS113" s="95"/>
+      <c r="AT113" s="44"/>
+      <c r="AU113" s="44"/>
+      <c r="AV113" s="44"/>
+      <c r="AW113" s="98"/>
+      <c r="AX113" s="95"/>
+      <c r="AY113" s="44"/>
+      <c r="AZ113" s="44"/>
+      <c r="BA113" s="44"/>
+      <c r="BB113" s="98"/>
+      <c r="BC113" s="29"/>
+    </row>
+    <row r="114" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B114" s="52">
+        <v>5</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="53"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="55"/>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="55"/>
+      <c r="S114" s="55"/>
+      <c r="T114" s="55"/>
+      <c r="U114" s="55"/>
+      <c r="V114" s="55"/>
+      <c r="W114" s="55"/>
+      <c r="X114" s="55"/>
+      <c r="Y114" s="55"/>
+      <c r="Z114" s="55"/>
+      <c r="AA114" s="55"/>
+      <c r="AB114" s="55"/>
+      <c r="AC114" s="55"/>
+      <c r="AD114" s="55"/>
+      <c r="AE114" s="55"/>
+      <c r="AF114" s="55"/>
+      <c r="AG114" s="55"/>
+      <c r="AH114" s="55"/>
+      <c r="AI114" s="55"/>
+      <c r="AJ114" s="55"/>
+      <c r="AK114" s="55"/>
+      <c r="AL114" s="55"/>
+      <c r="AM114" s="55"/>
+      <c r="AN114" s="55"/>
+      <c r="AO114" s="55"/>
+      <c r="AP114" s="55"/>
+      <c r="AQ114" s="55"/>
+      <c r="AR114" s="55"/>
+      <c r="AS114" s="55"/>
+      <c r="AT114" s="55"/>
+      <c r="AU114" s="55"/>
+      <c r="AV114" s="55"/>
+      <c r="AW114" s="55"/>
+      <c r="AX114" s="55"/>
+      <c r="AY114" s="55"/>
+      <c r="AZ114" s="55"/>
+      <c r="BA114" s="55"/>
+      <c r="BB114" s="55"/>
+      <c r="BC114" s="51"/>
+    </row>
+    <row r="115" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B115" s="69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C115" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="79"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="66">
+        <v>45564</v>
+      </c>
+      <c r="G115" s="66">
+        <v>45394</v>
+      </c>
+      <c r="H115" s="67">
+        <f>NETWORKDAYS(F115,G115)</f>
+        <v>-121</v>
+      </c>
+      <c r="I115" s="68">
+        <v>1</v>
+      </c>
+      <c r="J115" s="33"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="84"/>
+      <c r="O115" s="81"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="41"/>
+      <c r="S115" s="90"/>
+      <c r="T115" s="88"/>
+      <c r="U115" s="43"/>
+      <c r="V115" s="43"/>
+      <c r="W115" s="43"/>
+      <c r="X115" s="93"/>
+      <c r="Y115" s="88"/>
+      <c r="Z115" s="43"/>
+      <c r="AA115" s="43"/>
+      <c r="AB115" s="43"/>
+      <c r="AC115" s="93"/>
+      <c r="AD115" s="95"/>
+      <c r="AE115" s="44"/>
+      <c r="AF115" s="44"/>
+      <c r="AG115" s="44"/>
+      <c r="AH115" s="98"/>
+      <c r="AI115" s="88"/>
+      <c r="AJ115" s="43"/>
+      <c r="AK115" s="43"/>
+      <c r="AL115" s="43"/>
+      <c r="AM115" s="43"/>
+      <c r="AN115" s="43"/>
+      <c r="AO115" s="43"/>
+      <c r="AP115" s="43"/>
+      <c r="AQ115" s="43"/>
+      <c r="AR115" s="43"/>
+      <c r="AS115" s="43"/>
+      <c r="AT115" s="43"/>
+      <c r="AU115" s="43"/>
+      <c r="AV115" s="43"/>
+      <c r="AW115" s="43"/>
+      <c r="AX115" s="43"/>
+      <c r="AY115" s="43"/>
+      <c r="AZ115" s="43"/>
+      <c r="BA115" s="43"/>
+      <c r="BB115" s="43"/>
+      <c r="BC115" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -9324,6 +10621,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E60D6F-CAA8-41C2-852A-8E5925F8F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC86FE5-B4E9-4A96-A3E8-4698D82870F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1148,10 +1148,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 내역</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니 상품 선택</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1160,10 +1156,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 상품 취소</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>구매(결제)</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1248,6 +1240,54 @@
   </si>
   <si>
     <t>1900-01-00</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARS 전화주문</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상세 내역</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 무결성 검사</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2283,17 +2323,84 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,10 +2425,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2337,67 +2440,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2717,10 +2760,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:BC115"/>
+  <dimension ref="B1:BC123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X95" sqref="X95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2794,40 +2837,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2908,41 +2951,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="136" t="s">
+      <c r="C4" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="133" t="s">
+      <c r="J4" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="134" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -2972,40 +3015,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132">
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="153">
         <v>45611</v>
       </c>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3147,160 +3190,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="144" t="s">
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144" t="s">
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="148" t="s">
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="119" t="s">
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119" t="s">
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="123" t="s">
+      <c r="AJ8" s="142"/>
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="142"/>
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="137" t="s">
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="137"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="137"/>
-      <c r="AW8" s="137"/>
-      <c r="AX8" s="137" t="s">
+      <c r="AT8" s="123"/>
+      <c r="AU8" s="123"/>
+      <c r="AV8" s="123"/>
+      <c r="AW8" s="123"/>
+      <c r="AX8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="137"/>
-      <c r="AZ8" s="137"/>
-      <c r="BA8" s="137"/>
-      <c r="BB8" s="137"/>
+      <c r="AY8" s="123"/>
+      <c r="AZ8" s="123"/>
+      <c r="BA8" s="123"/>
+      <c r="BB8" s="123"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
-      <c r="AJ9" s="121"/>
-      <c r="AK9" s="121"/>
-      <c r="AL9" s="121"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="126"/>
-      <c r="AP9" s="126"/>
-      <c r="AQ9" s="126"/>
-      <c r="AR9" s="126"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
-      <c r="AX9" s="138"/>
-      <c r="AY9" s="138"/>
-      <c r="AZ9" s="138"/>
-      <c r="BA9" s="138"/>
-      <c r="BB9" s="138"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="143"/>
+      <c r="AL9" s="143"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="148"/>
+      <c r="AO9" s="149"/>
+      <c r="AP9" s="149"/>
+      <c r="AQ9" s="149"/>
+      <c r="AR9" s="149"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="124"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="124"/>
+      <c r="BA9" s="124"/>
+      <c r="BB9" s="124"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4473,11 +4516,11 @@
       <c r="G26" s="112">
         <v>45565</v>
       </c>
-      <c r="H26" s="154">
+      <c r="H26" s="119">
         <f>NETWORKDAYS(F26,G26)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="155">
+      <c r="I26" s="120">
         <v>1</v>
       </c>
       <c r="J26" s="33"/>
@@ -4529,7 +4572,7 @@
     </row>
     <row r="27" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="77" t="s">
         <v>118</v>
       </c>
@@ -4542,12 +4585,9 @@
       <c r="G27" s="112">
         <v>45565</v>
       </c>
-      <c r="H27" s="154">
-        <f>NETWORKDAYS(F27,G27)</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="155">
-        <v>1</v>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120">
+        <v>0</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="34"/>
@@ -4600,31 +4640,28 @@
       <c r="B28" s="30">
         <v>4.2</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>94</v>
+      <c r="C28" s="77" t="s">
+        <v>152</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="107"/>
       <c r="F28" s="112">
-        <v>45566</v>
-      </c>
-      <c r="G28" s="112">
-        <v>45572</v>
-      </c>
-      <c r="H28" s="154">
-        <f>NETWORKDAYS(F28,G28)</f>
-        <v>5</v>
-      </c>
-      <c r="I28" s="155">
-        <v>1</v>
+        <v>45565</v>
+      </c>
+      <c r="G28" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120">
+        <v>0</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="84"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="113"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="41"/>
       <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
       <c r="S28" s="90"/>
@@ -4667,34 +4704,32 @@
     </row>
     <row r="29" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="105" t="s">
-        <v>104</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E29" s="107"/>
       <c r="F29" s="112">
-        <v>45566</v>
+        <v>0</v>
       </c>
       <c r="G29" s="112">
-        <v>45567</v>
-      </c>
-      <c r="H29" s="154">
-        <f t="shared" ref="H29:H31" si="3">NETWORKDAYS(F29,G29)</f>
-        <v>2</v>
-      </c>
-      <c r="I29" s="155">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="119">
+        <f t="shared" ref="H29:H32" si="3">NETWORKDAYS(F29,G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="120">
+        <v>0</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="84"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
       <c r="R29" s="41"/>
       <c r="S29" s="90"/>
       <c r="T29" s="88"/>
@@ -4736,24 +4771,24 @@
     </row>
     <row r="30" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="105" t="s">
-        <v>104</v>
+        <v>149</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>154</v>
       </c>
       <c r="F30" s="112">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="G30" s="112">
         <v>45567</v>
       </c>
-      <c r="H30" s="154">
+      <c r="H30" s="119">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="155">
+        <v>3</v>
+      </c>
+      <c r="I30" s="120">
         <v>1</v>
       </c>
       <c r="J30" s="33"/>
@@ -4761,9 +4796,9 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="84"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
       <c r="R30" s="41"/>
       <c r="S30" s="90"/>
       <c r="T30" s="88"/>
@@ -4805,36 +4840,34 @@
     </row>
     <row r="31" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="105" t="s">
-        <v>104</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E31" s="107"/>
       <c r="F31" s="112">
-        <v>45566</v>
+        <v>0</v>
       </c>
       <c r="G31" s="112">
-        <v>45569</v>
-      </c>
-      <c r="H31" s="154">
+        <v>0</v>
+      </c>
+      <c r="H31" s="119">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="155">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="120">
+        <v>0</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="84"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
-      <c r="S31" s="113"/>
+      <c r="S31" s="90"/>
       <c r="T31" s="88"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
@@ -4874,36 +4907,34 @@
     </row>
     <row r="32" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="105" t="s">
-        <v>104</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E32" s="107"/>
       <c r="F32" s="112">
-        <v>45566</v>
+        <v>0</v>
       </c>
       <c r="G32" s="112">
-        <v>45569</v>
-      </c>
-      <c r="H32" s="154">
-        <f t="shared" ref="H32" si="4">NETWORKDAYS(F32,G32)</f>
-        <v>4</v>
-      </c>
-      <c r="I32" s="155">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="120">
+        <v>0</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="84"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="113"/>
+      <c r="S32" s="90"/>
       <c r="T32" s="88"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
@@ -4942,25 +4973,25 @@
       <c r="BC32" s="29"/>
     </row>
     <row r="33" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="105" t="s">
-        <v>104</v>
-      </c>
+      <c r="B33" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="107"/>
       <c r="F33" s="112">
         <v>45566</v>
       </c>
       <c r="G33" s="112">
-        <v>45569</v>
-      </c>
-      <c r="H33" s="154">
+        <v>45572</v>
+      </c>
+      <c r="H33" s="119">
         <f>NETWORKDAYS(F33,G33)</f>
-        <v>4</v>
-      </c>
-      <c r="I33" s="155">
+        <v>5</v>
+      </c>
+      <c r="I33" s="120">
         <v>1</v>
       </c>
       <c r="J33" s="33"/>
@@ -4970,9 +5001,9 @@
       <c r="N33" s="84"/>
       <c r="O33" s="81"/>
       <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
-      <c r="S33" s="113"/>
+      <c r="S33" s="90"/>
       <c r="T33" s="88"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
@@ -5014,7 +5045,7 @@
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="77" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E34" s="105" t="s">
         <v>104</v>
@@ -5023,13 +5054,13 @@
         <v>45566</v>
       </c>
       <c r="G34" s="112">
-        <v>45570</v>
-      </c>
-      <c r="H34" s="154">
-        <f>NETWORKDAYS(F34,G34)</f>
-        <v>4</v>
-      </c>
-      <c r="I34" s="155">
+        <v>45567</v>
+      </c>
+      <c r="H34" s="119">
+        <f t="shared" ref="H34:H36" si="4">NETWORKDAYS(F34,G34)</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="120">
         <v>1</v>
       </c>
       <c r="J34" s="33"/>
@@ -5041,8 +5072,8 @@
       <c r="P34" s="113"/>
       <c r="Q34" s="113"/>
       <c r="R34" s="41"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="41"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="88"/>
       <c r="U34" s="43"/>
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
@@ -5083,7 +5114,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="77" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E35" s="105" t="s">
         <v>104</v>
@@ -5092,13 +5123,13 @@
         <v>45566</v>
       </c>
       <c r="G35" s="112">
-        <v>45570</v>
-      </c>
-      <c r="H35" s="154">
-        <f>NETWORKDAYS(F35,G35)</f>
-        <v>4</v>
-      </c>
-      <c r="I35" s="155">
+        <v>45567</v>
+      </c>
+      <c r="H35" s="119">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="120">
         <v>1</v>
       </c>
       <c r="J35" s="33"/>
@@ -5110,8 +5141,8 @@
       <c r="P35" s="113"/>
       <c r="Q35" s="113"/>
       <c r="R35" s="41"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="41"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="88"/>
       <c r="U35" s="43"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
@@ -5152,7 +5183,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="77" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E36" s="105" t="s">
         <v>104</v>
@@ -5161,13 +5192,13 @@
         <v>45566</v>
       </c>
       <c r="G36" s="112">
-        <v>45572</v>
-      </c>
-      <c r="H36" s="154">
-        <f t="shared" ref="H36:H99" si="5">NETWORKDAYS(F36,G36)</f>
-        <v>5</v>
-      </c>
-      <c r="I36" s="155">
+        <v>45569</v>
+      </c>
+      <c r="H36" s="119">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="120">
         <v>1</v>
       </c>
       <c r="J36" s="33"/>
@@ -5180,8 +5211,8 @@
       <c r="Q36" s="113"/>
       <c r="R36" s="41"/>
       <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="41"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="43"/>
       <c r="V36" s="43"/>
       <c r="W36" s="43"/>
       <c r="X36" s="93"/>
@@ -5221,7 +5252,7 @@
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="77" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E37" s="105" t="s">
         <v>104</v>
@@ -5230,13 +5261,13 @@
         <v>45566</v>
       </c>
       <c r="G37" s="112">
-        <v>45572</v>
-      </c>
-      <c r="H37" s="154">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I37" s="155">
+        <v>45569</v>
+      </c>
+      <c r="H37" s="119">
+        <f t="shared" ref="H37" si="5">NETWORKDAYS(F37,G37)</f>
+        <v>4</v>
+      </c>
+      <c r="I37" s="120">
         <v>1</v>
       </c>
       <c r="J37" s="33"/>
@@ -5249,8 +5280,8 @@
       <c r="Q37" s="113"/>
       <c r="R37" s="41"/>
       <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="41"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="43"/>
       <c r="V37" s="43"/>
       <c r="W37" s="43"/>
       <c r="X37" s="93"/>
@@ -5290,7 +5321,7 @@
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="77" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E38" s="105" t="s">
         <v>104</v>
@@ -5299,15 +5330,10 @@
         <v>45566</v>
       </c>
       <c r="G38" s="112">
-        <v>45572</v>
-      </c>
-      <c r="H38" s="154">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="155">
-        <v>1</v>
-      </c>
+        <v>45569</v>
+      </c>
+      <c r="H38" s="119"/>
+      <c r="I38" s="120"/>
       <c r="J38" s="33"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35"/>
@@ -5318,8 +5344,8 @@
       <c r="Q38" s="113"/>
       <c r="R38" s="41"/>
       <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="41"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="43"/>
       <c r="V38" s="43"/>
       <c r="W38" s="43"/>
       <c r="X38" s="93"/>
@@ -5356,440 +5382,440 @@
       <c r="BC38" s="29"/>
     </row>
     <row r="39" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B39" s="30">
-        <v>4.3</v>
-      </c>
-      <c r="C39" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="107"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="105" t="s">
+        <v>104</v>
+      </c>
       <c r="F39" s="112">
-        <v>45572</v>
+        <v>45566</v>
       </c>
       <c r="G39" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H39" s="154">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I39" s="155">
+        <v>45569</v>
+      </c>
+      <c r="H39" s="119">
+        <f>NETWORKDAYS(F39,G39)</f>
+        <v>4</v>
+      </c>
+      <c r="I39" s="120">
         <v>1</v>
       </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="85"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="84"/>
       <c r="O39" s="81"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
       <c r="R39" s="41"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="94"/>
-      <c r="AD39" s="96"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="100"/>
-      <c r="AI39" s="89"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="94"/>
-      <c r="AN39" s="89"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="94"/>
-      <c r="AS39" s="102"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="104"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="40"/>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="40"/>
-      <c r="BB39" s="94"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="93"/>
+      <c r="AN39" s="88"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="93"/>
+      <c r="AS39" s="101"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="45"/>
+      <c r="AW39" s="103"/>
+      <c r="AX39" s="88"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="93"/>
       <c r="BC39" s="29"/>
     </row>
     <row r="40" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B40" s="30"/>
-      <c r="C40" s="77"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="107" t="s">
-        <v>141</v>
+        <v>119</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="F40" s="112">
-        <v>45572</v>
+        <v>45566</v>
       </c>
       <c r="G40" s="112">
-        <v>45573</v>
-      </c>
-      <c r="H40" s="154">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I40" s="155">
+        <v>45570</v>
+      </c>
+      <c r="H40" s="119">
+        <f>NETWORKDAYS(F40,G40)</f>
+        <v>4</v>
+      </c>
+      <c r="I40" s="120">
         <v>1</v>
       </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="85"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="84"/>
       <c r="O40" s="81"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
       <c r="R40" s="41"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="94"/>
-      <c r="AD40" s="96"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="100"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="94"/>
-      <c r="AN40" s="89"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="94"/>
-      <c r="AS40" s="102"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="104"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="40"/>
-      <c r="AZ40" s="40"/>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="94"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="98"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="93"/>
+      <c r="AN40" s="88"/>
+      <c r="AO40" s="43"/>
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="43"/>
+      <c r="AR40" s="93"/>
+      <c r="AS40" s="101"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="45"/>
+      <c r="AV40" s="45"/>
+      <c r="AW40" s="103"/>
+      <c r="AX40" s="88"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BA40" s="43"/>
+      <c r="BB40" s="93"/>
       <c r="BC40" s="29"/>
     </row>
     <row r="41" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="107" t="s">
-        <v>141</v>
+        <v>76</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="F41" s="112">
-        <v>45572</v>
+        <v>45566</v>
       </c>
       <c r="G41" s="112">
-        <v>45573</v>
-      </c>
-      <c r="H41" s="154">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I41" s="155">
+        <v>45570</v>
+      </c>
+      <c r="H41" s="119">
+        <f>NETWORKDAYS(F41,G41)</f>
+        <v>4</v>
+      </c>
+      <c r="I41" s="120">
         <v>1</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="85"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="84"/>
       <c r="O41" s="81"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
       <c r="R41" s="41"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="96"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="100"/>
-      <c r="AI41" s="89"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-      <c r="AM41" s="94"/>
-      <c r="AN41" s="89"/>
-      <c r="AO41" s="40"/>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="94"/>
-      <c r="AS41" s="102"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="104"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="40"/>
-      <c r="AZ41" s="40"/>
-      <c r="BA41" s="40"/>
-      <c r="BB41" s="94"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="98"/>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="93"/>
+      <c r="AN41" s="88"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="93"/>
+      <c r="AS41" s="101"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="45"/>
+      <c r="AV41" s="45"/>
+      <c r="AW41" s="103"/>
+      <c r="AX41" s="88"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="43"/>
+      <c r="BB41" s="93"/>
       <c r="BC41" s="29"/>
     </row>
     <row r="42" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="E42" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="F42" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G42" s="112">
         <v>45572</v>
       </c>
-      <c r="G42" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H42" s="154">
-        <f t="shared" si="5"/>
+      <c r="H42" s="119">
+        <f t="shared" ref="H42:H107" si="6">NETWORKDAYS(F42,G42)</f>
         <v>5</v>
       </c>
-      <c r="I42" s="155">
+      <c r="I42" s="120">
         <v>1</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="85"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="84"/>
       <c r="O42" s="81"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
       <c r="R42" s="41"/>
-      <c r="S42" s="90"/>
+      <c r="S42" s="113"/>
       <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="96"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="100"/>
-      <c r="AI42" s="89"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="40"/>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="89"/>
-      <c r="AO42" s="40"/>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40"/>
-      <c r="AR42" s="94"/>
-      <c r="AS42" s="102"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="104"/>
-      <c r="AX42" s="89"/>
-      <c r="AY42" s="40"/>
-      <c r="AZ42" s="40"/>
-      <c r="BA42" s="40"/>
-      <c r="BB42" s="94"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="98"/>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="93"/>
+      <c r="AN42" s="88"/>
+      <c r="AO42" s="43"/>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="43"/>
+      <c r="AR42" s="93"/>
+      <c r="AS42" s="101"/>
+      <c r="AT42" s="45"/>
+      <c r="AU42" s="45"/>
+      <c r="AV42" s="45"/>
+      <c r="AW42" s="103"/>
+      <c r="AX42" s="88"/>
+      <c r="AY42" s="43"/>
+      <c r="AZ42" s="43"/>
+      <c r="BA42" s="43"/>
+      <c r="BB42" s="93"/>
       <c r="BC42" s="29"/>
     </row>
     <row r="43" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="E43" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="F43" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G43" s="112">
         <v>45572</v>
       </c>
-      <c r="G43" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H43" s="154">
-        <f t="shared" si="5"/>
+      <c r="H43" s="119">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I43" s="155">
+      <c r="I43" s="120">
         <v>1</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="85"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="84"/>
       <c r="O43" s="81"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
       <c r="R43" s="41"/>
-      <c r="S43" s="90"/>
+      <c r="S43" s="113"/>
       <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="100"/>
-      <c r="AI43" s="89"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
-      <c r="AM43" s="94"/>
-      <c r="AN43" s="89"/>
-      <c r="AO43" s="40"/>
-      <c r="AP43" s="40"/>
-      <c r="AQ43" s="40"/>
-      <c r="AR43" s="94"/>
-      <c r="AS43" s="102"/>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="47"/>
-      <c r="AV43" s="47"/>
-      <c r="AW43" s="104"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="40"/>
-      <c r="AZ43" s="40"/>
-      <c r="BA43" s="40"/>
-      <c r="BB43" s="94"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="93"/>
+      <c r="AN43" s="88"/>
+      <c r="AO43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
+      <c r="AR43" s="93"/>
+      <c r="AS43" s="101"/>
+      <c r="AT43" s="45"/>
+      <c r="AU43" s="45"/>
+      <c r="AV43" s="45"/>
+      <c r="AW43" s="103"/>
+      <c r="AX43" s="88"/>
+      <c r="AY43" s="43"/>
+      <c r="AZ43" s="43"/>
+      <c r="BA43" s="43"/>
+      <c r="BB43" s="93"/>
       <c r="BC43" s="29"/>
     </row>
     <row r="44" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="107" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="E44" s="105" t="s">
+        <v>104</v>
       </c>
       <c r="F44" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G44" s="112">
         <v>45572</v>
       </c>
-      <c r="G44" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H44" s="154">
-        <f t="shared" si="5"/>
+      <c r="H44" s="119">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I44" s="155">
+      <c r="I44" s="120">
         <v>1</v>
       </c>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="85"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="84"/>
       <c r="O44" s="81"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
       <c r="R44" s="41"/>
-      <c r="S44" s="90"/>
+      <c r="S44" s="113"/>
       <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="100"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="40"/>
-      <c r="AL44" s="40"/>
-      <c r="AM44" s="94"/>
-      <c r="AN44" s="89"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="40"/>
-      <c r="AQ44" s="40"/>
-      <c r="AR44" s="94"/>
-      <c r="AS44" s="102"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
-      <c r="AV44" s="47"/>
-      <c r="AW44" s="104"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="40"/>
-      <c r="AZ44" s="40"/>
-      <c r="BA44" s="40"/>
-      <c r="BB44" s="94"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="93"/>
+      <c r="AN44" s="88"/>
+      <c r="AO44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="93"/>
+      <c r="AS44" s="101"/>
+      <c r="AT44" s="45"/>
+      <c r="AU44" s="45"/>
+      <c r="AV44" s="45"/>
+      <c r="AW44" s="103"/>
+      <c r="AX44" s="88"/>
+      <c r="AY44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="43"/>
+      <c r="BB44" s="93"/>
       <c r="BC44" s="29"/>
     </row>
     <row r="45" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B45" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>95</v>
+      <c r="C45" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="D45" s="77"/>
       <c r="E45" s="107"/>
       <c r="F45" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G45" s="112">
-        <v>0</v>
-      </c>
-      <c r="H45" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="155">
-        <v>0</v>
+        <v>45576</v>
+      </c>
+      <c r="H45" s="119">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="120">
+        <v>1</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="37"/>
@@ -5801,7 +5827,7 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="90"/>
-      <c r="T45" s="89"/>
+      <c r="T45" s="113"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
       <c r="W45" s="40"/>
@@ -5840,23 +5866,25 @@
     </row>
     <row r="46" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="107"/>
+        <v>71</v>
+      </c>
+      <c r="E46" s="107" t="s">
+        <v>139</v>
+      </c>
       <c r="F46" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G46" s="112">
-        <v>0</v>
-      </c>
-      <c r="H46" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="155">
-        <v>0</v>
+        <v>45573</v>
+      </c>
+      <c r="H46" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I46" s="120">
+        <v>1</v>
       </c>
       <c r="J46" s="36"/>
       <c r="K46" s="37"/>
@@ -5868,8 +5896,8 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="90"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="40"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="113"/>
       <c r="V46" s="40"/>
       <c r="W46" s="40"/>
       <c r="X46" s="94"/>
@@ -5909,21 +5937,23 @@
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="107"/>
+        <v>36</v>
+      </c>
+      <c r="E47" s="107" t="s">
+        <v>139</v>
+      </c>
       <c r="F47" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G47" s="112">
-        <v>0</v>
-      </c>
-      <c r="H47" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="155">
-        <v>0</v>
+        <v>45573</v>
+      </c>
+      <c r="H47" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="120">
+        <v>1</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="37"/>
@@ -5935,8 +5965,8 @@
       <c r="Q47" s="41"/>
       <c r="R47" s="41"/>
       <c r="S47" s="90"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="40"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
       <c r="V47" s="40"/>
       <c r="W47" s="40"/>
       <c r="X47" s="94"/>
@@ -5976,21 +6006,23 @@
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="107"/>
+        <v>147</v>
+      </c>
+      <c r="E48" s="107" t="s">
+        <v>138</v>
+      </c>
       <c r="F48" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G48" s="112">
-        <v>0</v>
-      </c>
-      <c r="H48" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="155">
-        <v>0</v>
+        <v>45576</v>
+      </c>
+      <c r="H48" s="119">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I48" s="120">
+        <v>1</v>
       </c>
       <c r="J48" s="36"/>
       <c r="K48" s="37"/>
@@ -6002,11 +6034,11 @@
       <c r="Q48" s="41"/>
       <c r="R48" s="41"/>
       <c r="S48" s="90"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="40"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
       <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="94"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113"/>
       <c r="Y48" s="89"/>
       <c r="Z48" s="40"/>
       <c r="AA48" s="40"/>
@@ -6043,21 +6075,23 @@
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="107"/>
+        <v>72</v>
+      </c>
+      <c r="E49" s="107" t="s">
+        <v>138</v>
+      </c>
       <c r="F49" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G49" s="112">
-        <v>0</v>
-      </c>
-      <c r="H49" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="155">
-        <v>0</v>
+        <v>45576</v>
+      </c>
+      <c r="H49" s="119">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I49" s="120">
+        <v>1</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="37"/>
@@ -6069,11 +6103,11 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="90"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="40"/>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
       <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="94"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113"/>
       <c r="Y49" s="89"/>
       <c r="Z49" s="40"/>
       <c r="AA49" s="40"/>
@@ -6110,21 +6144,23 @@
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="107"/>
+        <v>79</v>
+      </c>
+      <c r="E50" s="107" t="s">
+        <v>138</v>
+      </c>
       <c r="F50" s="112">
-        <v>0</v>
+        <v>45572</v>
       </c>
       <c r="G50" s="112">
-        <v>0</v>
-      </c>
-      <c r="H50" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="155">
-        <v>0</v>
+        <v>45576</v>
+      </c>
+      <c r="H50" s="119">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I50" s="120">
+        <v>1</v>
       </c>
       <c r="J50" s="36"/>
       <c r="K50" s="37"/>
@@ -6136,11 +6172,11 @@
       <c r="Q50" s="41"/>
       <c r="R50" s="41"/>
       <c r="S50" s="90"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="40"/>
+      <c r="T50" s="113"/>
+      <c r="U50" s="113"/>
       <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="94"/>
+      <c r="W50" s="113"/>
+      <c r="X50" s="113"/>
       <c r="Y50" s="89"/>
       <c r="Z50" s="40"/>
       <c r="AA50" s="40"/>
@@ -6174,11 +6210,13 @@
       <c r="BC50" s="29"/>
     </row>
     <row r="51" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="77" t="s">
-        <v>50</v>
-      </c>
+      <c r="B51" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="77"/>
       <c r="E51" s="107"/>
       <c r="F51" s="112">
         <v>0</v>
@@ -6186,11 +6224,11 @@
       <c r="G51" s="112">
         <v>0</v>
       </c>
-      <c r="H51" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="155">
+      <c r="H51" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="120">
         <v>0</v>
       </c>
       <c r="J51" s="36"/>
@@ -6244,7 +6282,7 @@
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="77" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E52" s="107"/>
       <c r="F52" s="112">
@@ -6253,11 +6291,11 @@
       <c r="G52" s="112">
         <v>0</v>
       </c>
-      <c r="H52" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="155">
+      <c r="H52" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="120">
         <v>0</v>
       </c>
       <c r="J52" s="36"/>
@@ -6311,7 +6349,7 @@
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="77" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E53" s="107"/>
       <c r="F53" s="112">
@@ -6320,11 +6358,11 @@
       <c r="G53" s="112">
         <v>0</v>
       </c>
-      <c r="H53" s="154">
-        <f>NETWORKDAYS(F53,G53)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="155">
+      <c r="H53" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="120">
         <v>0</v>
       </c>
       <c r="J53" s="36"/>
@@ -6378,20 +6416,20 @@
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="77" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E54" s="107"/>
-      <c r="F54" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="154" t="e">
-        <f>NETWORKDAYS(F54,G54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="155">
+      <c r="F54" s="112">
+        <v>0</v>
+      </c>
+      <c r="G54" s="112">
+        <v>0</v>
+      </c>
+      <c r="H54" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="120">
         <v>0</v>
       </c>
       <c r="J54" s="36"/>
@@ -6445,7 +6483,7 @@
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="77" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E55" s="107"/>
       <c r="F55" s="112">
@@ -6454,11 +6492,11 @@
       <c r="G55" s="112">
         <v>0</v>
       </c>
-      <c r="H55" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="155">
+      <c r="H55" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="120">
         <v>0</v>
       </c>
       <c r="J55" s="36"/>
@@ -6509,715 +6547,703 @@
       <c r="BC55" s="29"/>
     </row>
     <row r="56" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B56" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="77"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="77" t="s">
+        <v>77</v>
+      </c>
       <c r="E56" s="107"/>
       <c r="F56" s="112">
-        <v>45575</v>
-      </c>
-      <c r="G56" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" s="155">
-        <v>0.9</v>
-      </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="112">
+        <v>0</v>
+      </c>
+      <c r="H56" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="120">
+        <v>0</v>
+      </c>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="85"/>
       <c r="O56" s="81"/>
       <c r="P56" s="41"/>
       <c r="Q56" s="41"/>
       <c r="R56" s="41"/>
       <c r="S56" s="90"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="113"/>
-      <c r="X56" s="113"/>
-      <c r="Y56" s="95"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="44"/>
-      <c r="AC56" s="98"/>
-      <c r="AD56" s="95"/>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="44"/>
-      <c r="AH56" s="98"/>
-      <c r="AI56" s="95"/>
-      <c r="AJ56" s="44"/>
-      <c r="AK56" s="44"/>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="98"/>
-      <c r="AN56" s="95"/>
-      <c r="AO56" s="44"/>
-      <c r="AP56" s="44"/>
-      <c r="AQ56" s="44"/>
-      <c r="AR56" s="98"/>
-      <c r="AS56" s="95"/>
-      <c r="AT56" s="44"/>
-      <c r="AU56" s="44"/>
-      <c r="AV56" s="44"/>
-      <c r="AW56" s="98"/>
-      <c r="AX56" s="95"/>
-      <c r="AY56" s="44"/>
-      <c r="AZ56" s="44"/>
-      <c r="BA56" s="44"/>
-      <c r="BB56" s="98"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="94"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46"/>
+      <c r="AH56" s="100"/>
+      <c r="AI56" s="89"/>
+      <c r="AJ56" s="40"/>
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="40"/>
+      <c r="AM56" s="94"/>
+      <c r="AN56" s="89"/>
+      <c r="AO56" s="40"/>
+      <c r="AP56" s="40"/>
+      <c r="AQ56" s="40"/>
+      <c r="AR56" s="94"/>
+      <c r="AS56" s="102"/>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="47"/>
+      <c r="AV56" s="47"/>
+      <c r="AW56" s="104"/>
+      <c r="AX56" s="89"/>
+      <c r="AY56" s="40"/>
+      <c r="AZ56" s="40"/>
+      <c r="BA56" s="40"/>
+      <c r="BB56" s="94"/>
       <c r="BC56" s="29"/>
     </row>
     <row r="57" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="107" t="s">
-        <v>141</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E57" s="107"/>
       <c r="F57" s="112">
-        <v>45575</v>
-      </c>
-      <c r="G57" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H57" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" s="155">
-        <v>0.9</v>
-      </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="112">
+        <v>0</v>
+      </c>
+      <c r="H57" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="120">
+        <v>0</v>
+      </c>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="85"/>
       <c r="O57" s="81"/>
       <c r="P57" s="41"/>
       <c r="Q57" s="41"/>
       <c r="R57" s="41"/>
       <c r="S57" s="90"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="113"/>
-      <c r="X57" s="113"/>
-      <c r="Y57" s="95"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="98"/>
-      <c r="AD57" s="95"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="98"/>
-      <c r="AI57" s="95"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="44"/>
-      <c r="AM57" s="98"/>
-      <c r="AN57" s="95"/>
-      <c r="AO57" s="44"/>
-      <c r="AP57" s="44"/>
-      <c r="AQ57" s="44"/>
-      <c r="AR57" s="98"/>
-      <c r="AS57" s="95"/>
-      <c r="AT57" s="44"/>
-      <c r="AU57" s="44"/>
-      <c r="AV57" s="44"/>
-      <c r="AW57" s="98"/>
-      <c r="AX57" s="95"/>
-      <c r="AY57" s="44"/>
-      <c r="AZ57" s="44"/>
-      <c r="BA57" s="44"/>
-      <c r="BB57" s="98"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="100"/>
+      <c r="AI57" s="89"/>
+      <c r="AJ57" s="40"/>
+      <c r="AK57" s="40"/>
+      <c r="AL57" s="40"/>
+      <c r="AM57" s="94"/>
+      <c r="AN57" s="89"/>
+      <c r="AO57" s="40"/>
+      <c r="AP57" s="40"/>
+      <c r="AQ57" s="40"/>
+      <c r="AR57" s="94"/>
+      <c r="AS57" s="102"/>
+      <c r="AT57" s="47"/>
+      <c r="AU57" s="47"/>
+      <c r="AV57" s="47"/>
+      <c r="AW57" s="104"/>
+      <c r="AX57" s="89"/>
+      <c r="AY57" s="40"/>
+      <c r="AZ57" s="40"/>
+      <c r="BA57" s="40"/>
+      <c r="BB57" s="94"/>
       <c r="BC57" s="29"/>
     </row>
     <row r="58" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="107" t="s">
-        <v>86</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E58" s="107"/>
       <c r="F58" s="112">
-        <v>45575</v>
-      </c>
-      <c r="G58" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H58" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="155">
-        <v>0.9</v>
-      </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="112">
+        <v>0</v>
+      </c>
+      <c r="H58" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="120">
+        <v>0</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="85"/>
       <c r="O58" s="81"/>
       <c r="P58" s="41"/>
       <c r="Q58" s="41"/>
       <c r="R58" s="41"/>
       <c r="S58" s="90"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="113"/>
-      <c r="X58" s="113"/>
-      <c r="Y58" s="95"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="98"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="44"/>
-      <c r="AH58" s="98"/>
-      <c r="AI58" s="95"/>
-      <c r="AJ58" s="44"/>
-      <c r="AK58" s="44"/>
-      <c r="AL58" s="44"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="95"/>
-      <c r="AO58" s="44"/>
-      <c r="AP58" s="44"/>
-      <c r="AQ58" s="44"/>
-      <c r="AR58" s="98"/>
-      <c r="AS58" s="95"/>
-      <c r="AT58" s="44"/>
-      <c r="AU58" s="44"/>
-      <c r="AV58" s="44"/>
-      <c r="AW58" s="98"/>
-      <c r="AX58" s="95"/>
-      <c r="AY58" s="44"/>
-      <c r="AZ58" s="44"/>
-      <c r="BA58" s="44"/>
-      <c r="BB58" s="98"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="94"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+      <c r="AC58" s="94"/>
+      <c r="AD58" s="96"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="100"/>
+      <c r="AI58" s="89"/>
+      <c r="AJ58" s="40"/>
+      <c r="AK58" s="40"/>
+      <c r="AL58" s="40"/>
+      <c r="AM58" s="94"/>
+      <c r="AN58" s="89"/>
+      <c r="AO58" s="40"/>
+      <c r="AP58" s="40"/>
+      <c r="AQ58" s="40"/>
+      <c r="AR58" s="94"/>
+      <c r="AS58" s="102"/>
+      <c r="AT58" s="47"/>
+      <c r="AU58" s="47"/>
+      <c r="AV58" s="47"/>
+      <c r="AW58" s="104"/>
+      <c r="AX58" s="89"/>
+      <c r="AY58" s="40"/>
+      <c r="AZ58" s="40"/>
+      <c r="BA58" s="40"/>
+      <c r="BB58" s="94"/>
       <c r="BC58" s="29"/>
     </row>
     <row r="59" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="107" t="s">
-        <v>141</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E59" s="107"/>
       <c r="F59" s="112">
-        <v>45575</v>
-      </c>
-      <c r="G59" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="155">
-        <v>0.9</v>
-      </c>
-      <c r="J59" s="33"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="112">
+        <v>0</v>
+      </c>
+      <c r="H59" s="119">
+        <f>NETWORKDAYS(F59,G59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="120">
+        <v>0</v>
+      </c>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="85"/>
       <c r="O59" s="81"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="41"/>
       <c r="S59" s="90"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="113"/>
-      <c r="X59" s="113"/>
-      <c r="Y59" s="95"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="98"/>
-      <c r="AD59" s="95"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="44"/>
-      <c r="AG59" s="44"/>
-      <c r="AH59" s="98"/>
-      <c r="AI59" s="95"/>
-      <c r="AJ59" s="44"/>
-      <c r="AK59" s="44"/>
-      <c r="AL59" s="44"/>
-      <c r="AM59" s="98"/>
-      <c r="AN59" s="95"/>
-      <c r="AO59" s="44"/>
-      <c r="AP59" s="44"/>
-      <c r="AQ59" s="44"/>
-      <c r="AR59" s="98"/>
-      <c r="AS59" s="95"/>
-      <c r="AT59" s="44"/>
-      <c r="AU59" s="44"/>
-      <c r="AV59" s="44"/>
-      <c r="AW59" s="98"/>
-      <c r="AX59" s="95"/>
-      <c r="AY59" s="44"/>
-      <c r="AZ59" s="44"/>
-      <c r="BA59" s="44"/>
-      <c r="BB59" s="98"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="94"/>
+      <c r="Y59" s="89"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+      <c r="AC59" s="94"/>
+      <c r="AD59" s="96"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="100"/>
+      <c r="AI59" s="89"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="40"/>
+      <c r="AL59" s="40"/>
+      <c r="AM59" s="94"/>
+      <c r="AN59" s="89"/>
+      <c r="AO59" s="40"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="40"/>
+      <c r="AR59" s="94"/>
+      <c r="AS59" s="102"/>
+      <c r="AT59" s="47"/>
+      <c r="AU59" s="47"/>
+      <c r="AV59" s="47"/>
+      <c r="AW59" s="104"/>
+      <c r="AX59" s="89"/>
+      <c r="AY59" s="40"/>
+      <c r="AZ59" s="40"/>
+      <c r="BA59" s="40"/>
+      <c r="BB59" s="94"/>
       <c r="BC59" s="29"/>
     </row>
-    <row r="60" spans="2:55" ht="16.899999999999999" customHeight="1" outlineLevel="1">
+    <row r="60" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B60" s="30"/>
       <c r="C60" s="31"/>
       <c r="D60" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="112">
-        <v>45575</v>
+        <v>123</v>
+      </c>
+      <c r="E60" s="107"/>
+      <c r="F60" s="112" t="s">
+        <v>148</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="154" t="e">
-        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="H60" s="119" t="e">
+        <f>NETWORKDAYS(F60,G60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="155">
-        <v>0.5</v>
-      </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="84"/>
+      <c r="I60" s="120">
+        <v>0</v>
+      </c>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="85"/>
       <c r="O60" s="81"/>
       <c r="P60" s="41"/>
       <c r="Q60" s="41"/>
       <c r="R60" s="41"/>
       <c r="S60" s="90"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="113"/>
-      <c r="X60" s="113"/>
-      <c r="Y60" s="96"/>
-      <c r="Z60" s="46"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="46"/>
-      <c r="AC60" s="100"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="89"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="94"/>
       <c r="AD60" s="96"/>
       <c r="AE60" s="46"/>
       <c r="AF60" s="46"/>
       <c r="AG60" s="46"/>
       <c r="AH60" s="100"/>
-      <c r="AI60" s="96"/>
-      <c r="AJ60" s="46"/>
-      <c r="AK60" s="46"/>
-      <c r="AL60" s="46"/>
-      <c r="AM60" s="100"/>
-      <c r="AN60" s="96"/>
-      <c r="AO60" s="46"/>
-      <c r="AP60" s="46"/>
-      <c r="AQ60" s="46"/>
-      <c r="AR60" s="100"/>
-      <c r="AS60" s="96"/>
-      <c r="AT60" s="46"/>
-      <c r="AU60" s="46"/>
-      <c r="AV60" s="46"/>
-      <c r="AW60" s="100"/>
-      <c r="AX60" s="96"/>
-      <c r="AY60" s="46"/>
-      <c r="AZ60" s="46"/>
-      <c r="BA60" s="46"/>
-      <c r="BB60" s="100"/>
+      <c r="AI60" s="89"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="40"/>
+      <c r="AM60" s="94"/>
+      <c r="AN60" s="89"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="94"/>
+      <c r="AS60" s="102"/>
+      <c r="AT60" s="47"/>
+      <c r="AU60" s="47"/>
+      <c r="AV60" s="47"/>
+      <c r="AW60" s="104"/>
+      <c r="AX60" s="89"/>
+      <c r="AY60" s="40"/>
+      <c r="AZ60" s="40"/>
+      <c r="BA60" s="40"/>
+      <c r="BB60" s="94"/>
       <c r="BC60" s="29"/>
     </row>
     <row r="61" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B61" s="30">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="77"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="77" t="s">
+        <v>52</v>
+      </c>
       <c r="E61" s="107"/>
       <c r="F61" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G61" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H61" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="155">
-        <v>0</v>
-      </c>
-      <c r="J61" s="33"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="112">
+        <v>0</v>
+      </c>
+      <c r="H61" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="120">
+        <v>0</v>
+      </c>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="85"/>
       <c r="O61" s="81"/>
       <c r="P61" s="41"/>
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
       <c r="S61" s="90"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="113"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="113"/>
-      <c r="X61" s="113"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="46"/>
-      <c r="AA61" s="46"/>
-      <c r="AB61" s="46"/>
-      <c r="AC61" s="100"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="89"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+      <c r="AB61" s="40"/>
+      <c r="AC61" s="94"/>
       <c r="AD61" s="96"/>
       <c r="AE61" s="46"/>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46"/>
       <c r="AH61" s="100"/>
-      <c r="AI61" s="96"/>
-      <c r="AJ61" s="46"/>
-      <c r="AK61" s="46"/>
-      <c r="AL61" s="46"/>
-      <c r="AM61" s="100"/>
-      <c r="AN61" s="96"/>
-      <c r="AO61" s="46"/>
-      <c r="AP61" s="46"/>
-      <c r="AQ61" s="46"/>
-      <c r="AR61" s="100"/>
-      <c r="AS61" s="96"/>
-      <c r="AT61" s="46"/>
-      <c r="AU61" s="46"/>
-      <c r="AV61" s="46"/>
-      <c r="AW61" s="100"/>
-      <c r="AX61" s="96"/>
-      <c r="AY61" s="46"/>
-      <c r="AZ61" s="46"/>
-      <c r="BA61" s="46"/>
-      <c r="BB61" s="100"/>
+      <c r="AI61" s="89"/>
+      <c r="AJ61" s="40"/>
+      <c r="AK61" s="40"/>
+      <c r="AL61" s="40"/>
+      <c r="AM61" s="94"/>
+      <c r="AN61" s="89"/>
+      <c r="AO61" s="40"/>
+      <c r="AP61" s="40"/>
+      <c r="AQ61" s="40"/>
+      <c r="AR61" s="94"/>
+      <c r="AS61" s="102"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="104"/>
+      <c r="AX61" s="89"/>
+      <c r="AY61" s="40"/>
+      <c r="AZ61" s="40"/>
+      <c r="BA61" s="40"/>
+      <c r="BB61" s="94"/>
       <c r="BC61" s="29"/>
     </row>
     <row r="62" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="107" t="s">
-        <v>102</v>
-      </c>
+      <c r="B62" s="30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="77"/>
+      <c r="E62" s="107"/>
       <c r="F62" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G62" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H62" s="154">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I62" s="155">
-        <v>1</v>
+        <v>45575</v>
+      </c>
+      <c r="G62" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I62" s="120">
+        <v>0.9</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="34"/>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
       <c r="N62" s="84"/>
-      <c r="O62" s="41"/>
+      <c r="O62" s="81"/>
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
       <c r="S62" s="90"/>
       <c r="T62" s="88"/>
-      <c r="U62" s="113"/>
+      <c r="U62" s="43"/>
       <c r="V62" s="43"/>
       <c r="W62" s="113"/>
       <c r="X62" s="113"/>
-      <c r="Y62" s="96"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
-      <c r="AB62" s="46"/>
-      <c r="AC62" s="100"/>
-      <c r="AD62" s="96"/>
-      <c r="AE62" s="46"/>
-      <c r="AF62" s="46"/>
-      <c r="AG62" s="46"/>
-      <c r="AH62" s="100"/>
-      <c r="AI62" s="96"/>
-      <c r="AJ62" s="46"/>
-      <c r="AK62" s="46"/>
-      <c r="AL62" s="46"/>
-      <c r="AM62" s="100"/>
-      <c r="AN62" s="96"/>
-      <c r="AO62" s="46"/>
-      <c r="AP62" s="46"/>
-      <c r="AQ62" s="46"/>
-      <c r="AR62" s="100"/>
-      <c r="AS62" s="96"/>
-      <c r="AT62" s="46"/>
-      <c r="AU62" s="46"/>
-      <c r="AV62" s="46"/>
-      <c r="AW62" s="100"/>
-      <c r="AX62" s="96"/>
-      <c r="AY62" s="46"/>
-      <c r="AZ62" s="46"/>
-      <c r="BA62" s="46"/>
-      <c r="BB62" s="100"/>
+      <c r="Y62" s="95"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="98"/>
+      <c r="AD62" s="95"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="98"/>
+      <c r="AI62" s="95"/>
+      <c r="AJ62" s="44"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="44"/>
+      <c r="AM62" s="98"/>
+      <c r="AN62" s="95"/>
+      <c r="AO62" s="44"/>
+      <c r="AP62" s="44"/>
+      <c r="AQ62" s="44"/>
+      <c r="AR62" s="98"/>
+      <c r="AS62" s="95"/>
+      <c r="AT62" s="44"/>
+      <c r="AU62" s="44"/>
+      <c r="AV62" s="44"/>
+      <c r="AW62" s="98"/>
+      <c r="AX62" s="95"/>
+      <c r="AY62" s="44"/>
+      <c r="AZ62" s="44"/>
+      <c r="BA62" s="44"/>
+      <c r="BB62" s="98"/>
       <c r="BC62" s="29"/>
     </row>
     <row r="63" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="30"/>
       <c r="C63" s="31"/>
       <c r="D63" s="77" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E63" s="107" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F63" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G63" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H63" s="154">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I63" s="155">
-        <v>1</v>
+        <v>45575</v>
+      </c>
+      <c r="G63" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I63" s="120">
+        <v>0.9</v>
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="34"/>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
       <c r="N63" s="84"/>
-      <c r="O63" s="41"/>
+      <c r="O63" s="81"/>
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
       <c r="S63" s="90"/>
       <c r="T63" s="88"/>
-      <c r="U63" s="113"/>
+      <c r="U63" s="43"/>
       <c r="V63" s="43"/>
       <c r="W63" s="113"/>
       <c r="X63" s="113"/>
-      <c r="Y63" s="96"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="46"/>
-      <c r="AB63" s="46"/>
-      <c r="AC63" s="100"/>
-      <c r="AD63" s="96"/>
-      <c r="AE63" s="46"/>
-      <c r="AF63" s="46"/>
-      <c r="AG63" s="46"/>
-      <c r="AH63" s="100"/>
-      <c r="AI63" s="96"/>
-      <c r="AJ63" s="46"/>
-      <c r="AK63" s="46"/>
-      <c r="AL63" s="46"/>
-      <c r="AM63" s="100"/>
-      <c r="AN63" s="96"/>
-      <c r="AO63" s="46"/>
-      <c r="AP63" s="46"/>
-      <c r="AQ63" s="46"/>
-      <c r="AR63" s="100"/>
-      <c r="AS63" s="96"/>
-      <c r="AT63" s="46"/>
-      <c r="AU63" s="46"/>
-      <c r="AV63" s="46"/>
-      <c r="AW63" s="100"/>
-      <c r="AX63" s="96"/>
-      <c r="AY63" s="46"/>
-      <c r="AZ63" s="46"/>
-      <c r="BA63" s="46"/>
-      <c r="BB63" s="100"/>
+      <c r="Y63" s="95"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="98"/>
+      <c r="AD63" s="95"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="98"/>
+      <c r="AI63" s="95"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="98"/>
+      <c r="AN63" s="95"/>
+      <c r="AO63" s="44"/>
+      <c r="AP63" s="44"/>
+      <c r="AQ63" s="44"/>
+      <c r="AR63" s="98"/>
+      <c r="AS63" s="95"/>
+      <c r="AT63" s="44"/>
+      <c r="AU63" s="44"/>
+      <c r="AV63" s="44"/>
+      <c r="AW63" s="98"/>
+      <c r="AX63" s="95"/>
+      <c r="AY63" s="44"/>
+      <c r="AZ63" s="44"/>
+      <c r="BA63" s="44"/>
+      <c r="BB63" s="98"/>
       <c r="BC63" s="29"/>
     </row>
     <row r="64" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B64" s="30"/>
       <c r="C64" s="31"/>
       <c r="D64" s="77" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="E64" s="107" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F64" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G64" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H64" s="154">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I64" s="155">
-        <v>1</v>
+        <v>45575</v>
+      </c>
+      <c r="G64" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" s="120">
+        <v>0.9</v>
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="34"/>
       <c r="L64" s="35"/>
       <c r="M64" s="35"/>
       <c r="N64" s="84"/>
-      <c r="O64" s="41"/>
+      <c r="O64" s="81"/>
       <c r="P64" s="41"/>
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
       <c r="S64" s="90"/>
       <c r="T64" s="88"/>
-      <c r="U64" s="113"/>
+      <c r="U64" s="43"/>
       <c r="V64" s="43"/>
       <c r="W64" s="113"/>
       <c r="X64" s="113"/>
-      <c r="Y64" s="96"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="46"/>
-      <c r="AC64" s="100"/>
-      <c r="AD64" s="96"/>
-      <c r="AE64" s="46"/>
-      <c r="AF64" s="46"/>
-      <c r="AG64" s="46"/>
-      <c r="AH64" s="100"/>
-      <c r="AI64" s="96"/>
-      <c r="AJ64" s="46"/>
-      <c r="AK64" s="46"/>
-      <c r="AL64" s="46"/>
-      <c r="AM64" s="100"/>
-      <c r="AN64" s="96"/>
-      <c r="AO64" s="46"/>
-      <c r="AP64" s="46"/>
-      <c r="AQ64" s="46"/>
-      <c r="AR64" s="100"/>
-      <c r="AS64" s="96"/>
-      <c r="AT64" s="46"/>
-      <c r="AU64" s="46"/>
-      <c r="AV64" s="46"/>
-      <c r="AW64" s="100"/>
-      <c r="AX64" s="96"/>
-      <c r="AY64" s="46"/>
-      <c r="AZ64" s="46"/>
-      <c r="BA64" s="46"/>
-      <c r="BB64" s="100"/>
+      <c r="Y64" s="95"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="98"/>
+      <c r="AD64" s="95"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="98"/>
+      <c r="AI64" s="95"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="44"/>
+      <c r="AL64" s="44"/>
+      <c r="AM64" s="98"/>
+      <c r="AN64" s="95"/>
+      <c r="AO64" s="44"/>
+      <c r="AP64" s="44"/>
+      <c r="AQ64" s="44"/>
+      <c r="AR64" s="98"/>
+      <c r="AS64" s="95"/>
+      <c r="AT64" s="44"/>
+      <c r="AU64" s="44"/>
+      <c r="AV64" s="44"/>
+      <c r="AW64" s="98"/>
+      <c r="AX64" s="95"/>
+      <c r="AY64" s="44"/>
+      <c r="AZ64" s="44"/>
+      <c r="BA64" s="44"/>
+      <c r="BB64" s="98"/>
       <c r="BC64" s="29"/>
     </row>
     <row r="65" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B65" s="30"/>
       <c r="C65" s="31"/>
       <c r="D65" s="77" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E65" s="107" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F65" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G65" s="112">
-        <v>45576</v>
-      </c>
-      <c r="H65" s="154">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I65" s="155">
-        <v>1</v>
+        <v>45575</v>
+      </c>
+      <c r="G65" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" s="120">
+        <v>0.9</v>
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="34"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
       <c r="N65" s="84"/>
-      <c r="O65" s="41"/>
+      <c r="O65" s="81"/>
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="90"/>
       <c r="T65" s="88"/>
-      <c r="U65" s="113"/>
+      <c r="U65" s="43"/>
       <c r="V65" s="43"/>
       <c r="W65" s="113"/>
       <c r="X65" s="113"/>
-      <c r="Y65" s="96"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
-      <c r="AB65" s="46"/>
-      <c r="AC65" s="100"/>
-      <c r="AD65" s="96"/>
-      <c r="AE65" s="46"/>
-      <c r="AF65" s="46"/>
-      <c r="AG65" s="46"/>
-      <c r="AH65" s="100"/>
-      <c r="AI65" s="96"/>
-      <c r="AJ65" s="46"/>
-      <c r="AK65" s="46"/>
-      <c r="AL65" s="46"/>
-      <c r="AM65" s="100"/>
-      <c r="AN65" s="96"/>
-      <c r="AO65" s="46"/>
-      <c r="AP65" s="46"/>
-      <c r="AQ65" s="46"/>
-      <c r="AR65" s="100"/>
-      <c r="AS65" s="96"/>
-      <c r="AT65" s="46"/>
-      <c r="AU65" s="46"/>
-      <c r="AV65" s="46"/>
-      <c r="AW65" s="100"/>
-      <c r="AX65" s="96"/>
-      <c r="AY65" s="46"/>
-      <c r="AZ65" s="46"/>
-      <c r="BA65" s="46"/>
-      <c r="BB65" s="100"/>
+      <c r="Y65" s="95"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="98"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="98"/>
+      <c r="AI65" s="95"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="44"/>
+      <c r="AL65" s="44"/>
+      <c r="AM65" s="98"/>
+      <c r="AN65" s="95"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="44"/>
+      <c r="AQ65" s="44"/>
+      <c r="AR65" s="98"/>
+      <c r="AS65" s="95"/>
+      <c r="AT65" s="44"/>
+      <c r="AU65" s="44"/>
+      <c r="AV65" s="44"/>
+      <c r="AW65" s="98"/>
+      <c r="AX65" s="95"/>
+      <c r="AY65" s="44"/>
+      <c r="AZ65" s="44"/>
+      <c r="BA65" s="44"/>
+      <c r="BB65" s="98"/>
       <c r="BC65" s="29"/>
     </row>
-    <row r="66" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="66" spans="2:55" ht="16.899999999999999" customHeight="1" outlineLevel="1">
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
       <c r="D66" s="77" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E66" s="107" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F66" s="112">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="G66" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H66" s="154" t="e">
-        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H66" s="119" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="155">
+      <c r="I66" s="120">
         <v>0.5</v>
       </c>
       <c r="J66" s="33"/>
@@ -7225,68 +7251,68 @@
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="84"/>
-      <c r="O66" s="41"/>
+      <c r="O66" s="81"/>
       <c r="P66" s="41"/>
       <c r="Q66" s="41"/>
       <c r="R66" s="41"/>
       <c r="S66" s="90"/>
       <c r="T66" s="88"/>
-      <c r="U66" s="156"/>
+      <c r="U66" s="43"/>
       <c r="V66" s="43"/>
-      <c r="W66" s="156"/>
-      <c r="X66" s="157"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="44"/>
-      <c r="AA66" s="44"/>
-      <c r="AB66" s="44"/>
-      <c r="AC66" s="98"/>
-      <c r="AD66" s="95"/>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="98"/>
-      <c r="AI66" s="95"/>
-      <c r="AJ66" s="44"/>
-      <c r="AK66" s="44"/>
-      <c r="AL66" s="44"/>
-      <c r="AM66" s="98"/>
-      <c r="AN66" s="95"/>
-      <c r="AO66" s="44"/>
-      <c r="AP66" s="44"/>
-      <c r="AQ66" s="44"/>
-      <c r="AR66" s="98"/>
-      <c r="AS66" s="95"/>
-      <c r="AT66" s="44"/>
-      <c r="AU66" s="44"/>
-      <c r="AV66" s="44"/>
-      <c r="AW66" s="98"/>
-      <c r="AX66" s="95"/>
-      <c r="AY66" s="44"/>
-      <c r="AZ66" s="44"/>
-      <c r="BA66" s="44"/>
-      <c r="BB66" s="98"/>
+      <c r="W66" s="113"/>
+      <c r="X66" s="113"/>
+      <c r="Y66" s="96"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="100"/>
+      <c r="AD66" s="96"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="100"/>
+      <c r="AI66" s="96"/>
+      <c r="AJ66" s="46"/>
+      <c r="AK66" s="46"/>
+      <c r="AL66" s="46"/>
+      <c r="AM66" s="100"/>
+      <c r="AN66" s="96"/>
+      <c r="AO66" s="46"/>
+      <c r="AP66" s="46"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="100"/>
+      <c r="AS66" s="96"/>
+      <c r="AT66" s="46"/>
+      <c r="AU66" s="46"/>
+      <c r="AV66" s="46"/>
+      <c r="AW66" s="100"/>
+      <c r="AX66" s="96"/>
+      <c r="AY66" s="46"/>
+      <c r="AZ66" s="46"/>
+      <c r="BA66" s="46"/>
+      <c r="BB66" s="100"/>
       <c r="BC66" s="29"/>
     </row>
     <row r="67" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="107" t="s">
-        <v>100</v>
-      </c>
+      <c r="B67" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="77"/>
+      <c r="E67" s="107"/>
       <c r="F67" s="112">
-        <v>0</v>
-      </c>
-      <c r="G67" s="112">
-        <v>0</v>
-      </c>
-      <c r="H67" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="155">
+        <v>45573</v>
+      </c>
+      <c r="G67" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" s="120">
         <v>0</v>
       </c>
       <c r="J67" s="33"/>
@@ -7294,85 +7320,85 @@
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="84"/>
-      <c r="O67" s="41"/>
+      <c r="O67" s="81"/>
       <c r="P67" s="41"/>
       <c r="Q67" s="41"/>
       <c r="R67" s="41"/>
       <c r="S67" s="90"/>
       <c r="T67" s="88"/>
-      <c r="U67" s="43"/>
+      <c r="U67" s="113"/>
       <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="93"/>
-      <c r="Y67" s="95"/>
-      <c r="Z67" s="44"/>
-      <c r="AA67" s="44"/>
-      <c r="AB67" s="44"/>
-      <c r="AC67" s="98"/>
-      <c r="AD67" s="95"/>
-      <c r="AE67" s="44"/>
-      <c r="AF67" s="44"/>
-      <c r="AG67" s="44"/>
-      <c r="AH67" s="98"/>
-      <c r="AI67" s="95"/>
-      <c r="AJ67" s="44"/>
-      <c r="AK67" s="44"/>
-      <c r="AL67" s="44"/>
-      <c r="AM67" s="98"/>
-      <c r="AN67" s="95"/>
-      <c r="AO67" s="44"/>
-      <c r="AP67" s="44"/>
-      <c r="AQ67" s="44"/>
-      <c r="AR67" s="98"/>
-      <c r="AS67" s="95"/>
-      <c r="AT67" s="44"/>
-      <c r="AU67" s="44"/>
-      <c r="AV67" s="44"/>
-      <c r="AW67" s="98"/>
-      <c r="AX67" s="95"/>
-      <c r="AY67" s="44"/>
-      <c r="AZ67" s="44"/>
-      <c r="BA67" s="44"/>
-      <c r="BB67" s="98"/>
+      <c r="W67" s="113"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="96"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="100"/>
+      <c r="AD67" s="96"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="100"/>
+      <c r="AI67" s="96"/>
+      <c r="AJ67" s="46"/>
+      <c r="AK67" s="46"/>
+      <c r="AL67" s="46"/>
+      <c r="AM67" s="100"/>
+      <c r="AN67" s="96"/>
+      <c r="AO67" s="46"/>
+      <c r="AP67" s="46"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="100"/>
+      <c r="AS67" s="96"/>
+      <c r="AT67" s="46"/>
+      <c r="AU67" s="46"/>
+      <c r="AV67" s="46"/>
+      <c r="AW67" s="100"/>
+      <c r="AX67" s="96"/>
+      <c r="AY67" s="46"/>
+      <c r="AZ67" s="46"/>
+      <c r="BA67" s="46"/>
+      <c r="BB67" s="100"/>
       <c r="BC67" s="29"/>
     </row>
     <row r="68" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B68" s="30">
-        <v>4.7</v>
-      </c>
-      <c r="C68" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="107"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="107" t="s">
+        <v>102</v>
+      </c>
       <c r="F68" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G68" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H68" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" s="155">
-        <v>0</v>
+        <v>45573</v>
+      </c>
+      <c r="G68" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H68" s="119">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I68" s="120">
+        <v>1</v>
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="34"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
       <c r="N68" s="84"/>
-      <c r="O68" s="81"/>
+      <c r="O68" s="41"/>
       <c r="P68" s="41"/>
       <c r="Q68" s="41"/>
       <c r="R68" s="41"/>
       <c r="S68" s="90"/>
       <c r="T68" s="88"/>
-      <c r="U68" s="43"/>
+      <c r="U68" s="113"/>
       <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="93"/>
+      <c r="W68" s="113"/>
+      <c r="X68" s="113"/>
       <c r="Y68" s="96"/>
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
@@ -7407,41 +7433,41 @@
     </row>
     <row r="69" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B69" s="30"/>
-      <c r="C69" s="77"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="77" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E69" s="107" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G69" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H69" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" s="155">
-        <v>0.9</v>
+        <v>45573</v>
+      </c>
+      <c r="G69" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H69" s="119">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I69" s="120">
+        <v>1</v>
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="34"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
       <c r="N69" s="84"/>
-      <c r="O69" s="81"/>
+      <c r="O69" s="41"/>
       <c r="P69" s="41"/>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="156"/>
-      <c r="U69" s="156"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="113"/>
       <c r="V69" s="43"/>
-      <c r="W69" s="156"/>
-      <c r="X69" s="156"/>
+      <c r="W69" s="113"/>
+      <c r="X69" s="113"/>
       <c r="Y69" s="96"/>
       <c r="Z69" s="46"/>
       <c r="AA69" s="46"/>
@@ -7476,41 +7502,41 @@
     </row>
     <row r="70" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B70" s="30"/>
-      <c r="C70" s="77"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="77" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E70" s="107" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G70" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H70" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I70" s="155">
-        <v>0.9</v>
+        <v>45573</v>
+      </c>
+      <c r="G70" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H70" s="119">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I70" s="120">
+        <v>1</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="34"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
       <c r="N70" s="84"/>
-      <c r="O70" s="81"/>
+      <c r="O70" s="41"/>
       <c r="P70" s="41"/>
       <c r="Q70" s="41"/>
       <c r="R70" s="41"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="156"/>
-      <c r="U70" s="156"/>
+      <c r="S70" s="90"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="113"/>
       <c r="V70" s="43"/>
-      <c r="W70" s="156"/>
-      <c r="X70" s="156"/>
+      <c r="W70" s="113"/>
+      <c r="X70" s="113"/>
       <c r="Y70" s="96"/>
       <c r="Z70" s="46"/>
       <c r="AA70" s="46"/>
@@ -7545,41 +7571,41 @@
     </row>
     <row r="71" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B71" s="30"/>
-      <c r="C71" s="77"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="77" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E71" s="107" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G71" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H71" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" s="155">
-        <v>0.9</v>
+        <v>45573</v>
+      </c>
+      <c r="G71" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H71" s="119">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I71" s="120">
+        <v>1</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="34"/>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
       <c r="N71" s="84"/>
-      <c r="O71" s="81"/>
+      <c r="O71" s="41"/>
       <c r="P71" s="41"/>
       <c r="Q71" s="41"/>
       <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="156"/>
-      <c r="U71" s="156"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="113"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="156"/>
-      <c r="X71" s="156"/>
+      <c r="W71" s="113"/>
+      <c r="X71" s="113"/>
       <c r="Y71" s="96"/>
       <c r="Z71" s="46"/>
       <c r="AA71" s="46"/>
@@ -7614,163 +7640,163 @@
     </row>
     <row r="72" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B72" s="30"/>
-      <c r="C72" s="77"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="77" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E72" s="107" t="s">
         <v>100</v>
       </c>
       <c r="F72" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G72" s="112">
         <v>45573</v>
       </c>
-      <c r="H72" s="154">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I72" s="155">
-        <v>1</v>
+      <c r="G72" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I72" s="120">
+        <v>0.5</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="34"/>
       <c r="L72" s="35"/>
       <c r="M72" s="35"/>
       <c r="N72" s="84"/>
-      <c r="O72" s="81"/>
+      <c r="O72" s="41"/>
       <c r="P72" s="41"/>
       <c r="Q72" s="41"/>
       <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="156"/>
-      <c r="U72" s="156"/>
+      <c r="S72" s="90"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="121"/>
       <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="93"/>
-      <c r="Y72" s="96"/>
-      <c r="Z72" s="46"/>
-      <c r="AA72" s="46"/>
-      <c r="AB72" s="46"/>
-      <c r="AC72" s="100"/>
-      <c r="AD72" s="96"/>
-      <c r="AE72" s="46"/>
-      <c r="AF72" s="46"/>
-      <c r="AG72" s="46"/>
-      <c r="AH72" s="100"/>
-      <c r="AI72" s="96"/>
-      <c r="AJ72" s="46"/>
-      <c r="AK72" s="46"/>
-      <c r="AL72" s="46"/>
-      <c r="AM72" s="100"/>
-      <c r="AN72" s="96"/>
-      <c r="AO72" s="46"/>
-      <c r="AP72" s="46"/>
-      <c r="AQ72" s="46"/>
-      <c r="AR72" s="100"/>
-      <c r="AS72" s="96"/>
-      <c r="AT72" s="46"/>
-      <c r="AU72" s="46"/>
-      <c r="AV72" s="46"/>
-      <c r="AW72" s="100"/>
-      <c r="AX72" s="96"/>
-      <c r="AY72" s="46"/>
-      <c r="AZ72" s="46"/>
-      <c r="BA72" s="46"/>
-      <c r="BB72" s="100"/>
+      <c r="W72" s="121"/>
+      <c r="X72" s="122"/>
+      <c r="Y72" s="95"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="44"/>
+      <c r="AC72" s="98"/>
+      <c r="AD72" s="95"/>
+      <c r="AE72" s="44"/>
+      <c r="AF72" s="44"/>
+      <c r="AG72" s="44"/>
+      <c r="AH72" s="98"/>
+      <c r="AI72" s="95"/>
+      <c r="AJ72" s="44"/>
+      <c r="AK72" s="44"/>
+      <c r="AL72" s="44"/>
+      <c r="AM72" s="98"/>
+      <c r="AN72" s="95"/>
+      <c r="AO72" s="44"/>
+      <c r="AP72" s="44"/>
+      <c r="AQ72" s="44"/>
+      <c r="AR72" s="98"/>
+      <c r="AS72" s="95"/>
+      <c r="AT72" s="44"/>
+      <c r="AU72" s="44"/>
+      <c r="AV72" s="44"/>
+      <c r="AW72" s="98"/>
+      <c r="AX72" s="95"/>
+      <c r="AY72" s="44"/>
+      <c r="AZ72" s="44"/>
+      <c r="BA72" s="44"/>
+      <c r="BB72" s="98"/>
       <c r="BC72" s="29"/>
     </row>
     <row r="73" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B73" s="30"/>
-      <c r="C73" s="77"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E73" s="107" t="s">
         <v>100</v>
       </c>
       <c r="F73" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G73" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H73" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" s="155">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="112">
+        <v>0</v>
+      </c>
+      <c r="H73" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="120">
+        <v>0</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="34"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
       <c r="N73" s="84"/>
-      <c r="O73" s="81"/>
+      <c r="O73" s="41"/>
       <c r="P73" s="41"/>
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
       <c r="S73" s="90"/>
       <c r="T73" s="88"/>
-      <c r="U73" s="156"/>
+      <c r="U73" s="43"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="156"/>
-      <c r="X73" s="156"/>
-      <c r="Y73" s="96"/>
-      <c r="Z73" s="46"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="46"/>
-      <c r="AC73" s="100"/>
-      <c r="AD73" s="96"/>
-      <c r="AE73" s="46"/>
-      <c r="AF73" s="46"/>
-      <c r="AG73" s="46"/>
-      <c r="AH73" s="100"/>
-      <c r="AI73" s="96"/>
-      <c r="AJ73" s="46"/>
-      <c r="AK73" s="46"/>
-      <c r="AL73" s="46"/>
-      <c r="AM73" s="100"/>
-      <c r="AN73" s="96"/>
-      <c r="AO73" s="46"/>
-      <c r="AP73" s="46"/>
-      <c r="AQ73" s="46"/>
-      <c r="AR73" s="100"/>
-      <c r="AS73" s="96"/>
-      <c r="AT73" s="46"/>
-      <c r="AU73" s="46"/>
-      <c r="AV73" s="46"/>
-      <c r="AW73" s="100"/>
-      <c r="AX73" s="96"/>
-      <c r="AY73" s="46"/>
-      <c r="AZ73" s="46"/>
-      <c r="BA73" s="46"/>
-      <c r="BB73" s="100"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="93"/>
+      <c r="Y73" s="95"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="44"/>
+      <c r="AC73" s="98"/>
+      <c r="AD73" s="95"/>
+      <c r="AE73" s="44"/>
+      <c r="AF73" s="44"/>
+      <c r="AG73" s="44"/>
+      <c r="AH73" s="98"/>
+      <c r="AI73" s="95"/>
+      <c r="AJ73" s="44"/>
+      <c r="AK73" s="44"/>
+      <c r="AL73" s="44"/>
+      <c r="AM73" s="98"/>
+      <c r="AN73" s="95"/>
+      <c r="AO73" s="44"/>
+      <c r="AP73" s="44"/>
+      <c r="AQ73" s="44"/>
+      <c r="AR73" s="98"/>
+      <c r="AS73" s="95"/>
+      <c r="AT73" s="44"/>
+      <c r="AU73" s="44"/>
+      <c r="AV73" s="44"/>
+      <c r="AW73" s="98"/>
+      <c r="AX73" s="95"/>
+      <c r="AY73" s="44"/>
+      <c r="AZ73" s="44"/>
+      <c r="BA73" s="44"/>
+      <c r="BB73" s="98"/>
       <c r="BC73" s="29"/>
     </row>
     <row r="74" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="30"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="107" t="s">
-        <v>100</v>
-      </c>
+      <c r="B74" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="77"/>
+      <c r="E74" s="107"/>
       <c r="F74" s="112">
-        <v>45567</v>
-      </c>
-      <c r="G74" s="112">
-        <v>45569</v>
-      </c>
-      <c r="H74" s="154">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I74" s="155">
-        <v>1</v>
+        <v>45565</v>
+      </c>
+      <c r="G74" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" s="120">
+        <v>0</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="34"/>
@@ -7779,9 +7805,9 @@
       <c r="N74" s="84"/>
       <c r="O74" s="81"/>
       <c r="P74" s="41"/>
-      <c r="Q74" s="156"/>
+      <c r="Q74" s="41"/>
       <c r="R74" s="41"/>
-      <c r="S74" s="156"/>
+      <c r="S74" s="90"/>
       <c r="T74" s="88"/>
       <c r="U74" s="43"/>
       <c r="V74" s="43"/>
@@ -7821,41 +7847,41 @@
     </row>
     <row r="75" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="107" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F75" s="112">
-        <v>45567</v>
-      </c>
-      <c r="G75" s="112">
-        <v>45569</v>
-      </c>
-      <c r="H75" s="154">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I75" s="155">
-        <v>1</v>
+        <v>45572</v>
+      </c>
+      <c r="G75" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I75" s="120">
+        <v>0.9</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="34"/>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
       <c r="N75" s="84"/>
-      <c r="O75" s="41"/>
+      <c r="O75" s="81"/>
       <c r="P75" s="41"/>
-      <c r="Q75" s="156"/>
+      <c r="Q75" s="41"/>
       <c r="R75" s="41"/>
-      <c r="S75" s="156"/>
-      <c r="T75" s="88"/>
-      <c r="U75" s="43"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="121"/>
+      <c r="U75" s="121"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="93"/>
+      <c r="W75" s="121"/>
+      <c r="X75" s="121"/>
       <c r="Y75" s="96"/>
       <c r="Z75" s="46"/>
       <c r="AA75" s="46"/>
@@ -7890,41 +7916,41 @@
     </row>
     <row r="76" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="77" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="E76" s="107" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F76" s="112">
-        <v>45566</v>
-      </c>
-      <c r="G76" s="112">
-        <v>45567</v>
-      </c>
-      <c r="H76" s="154">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I76" s="155">
-        <v>1</v>
+        <v>45572</v>
+      </c>
+      <c r="G76" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" s="120">
+        <v>0.9</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="34"/>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
       <c r="N76" s="84"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="156"/>
-      <c r="Q76" s="156"/>
+      <c r="O76" s="81"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
       <c r="R76" s="41"/>
-      <c r="S76" s="90"/>
-      <c r="T76" s="88"/>
-      <c r="U76" s="43"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="121"/>
+      <c r="U76" s="121"/>
       <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="93"/>
+      <c r="W76" s="121"/>
+      <c r="X76" s="121"/>
       <c r="Y76" s="96"/>
       <c r="Z76" s="46"/>
       <c r="AA76" s="46"/>
@@ -7959,41 +7985,41 @@
     </row>
     <row r="77" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
+      <c r="C77" s="77"/>
       <c r="D77" s="77" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E77" s="107" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F77" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G77" s="112">
-        <v>45567</v>
-      </c>
-      <c r="H77" s="154">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I77" s="155">
-        <v>1</v>
+        <v>45572</v>
+      </c>
+      <c r="G77" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" s="120">
+        <v>0.9</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="34"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="84"/>
-      <c r="O77" s="156"/>
-      <c r="P77" s="156"/>
-      <c r="Q77" s="156"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="88"/>
-      <c r="U77" s="43"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="121"/>
+      <c r="U77" s="121"/>
       <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="93"/>
+      <c r="W77" s="121"/>
+      <c r="X77" s="121"/>
       <c r="Y77" s="96"/>
       <c r="Z77" s="46"/>
       <c r="AA77" s="46"/>
@@ -8027,26 +8053,26 @@
       <c r="BC77" s="29"/>
     </row>
     <row r="78" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B78" s="30">
-        <v>4.8</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="107"/>
-      <c r="E78" s="60"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="107" t="s">
+        <v>100</v>
+      </c>
       <c r="F78" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G78" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H78" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I78" s="155">
-        <v>0</v>
+        <v>45572</v>
+      </c>
+      <c r="G78" s="112">
+        <v>45573</v>
+      </c>
+      <c r="H78" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I78" s="120">
+        <v>1</v>
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="34"/>
@@ -8057,12 +8083,12 @@
       <c r="P78" s="41"/>
       <c r="Q78" s="41"/>
       <c r="R78" s="41"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="88"/>
-      <c r="U78" s="43"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="121"/>
+      <c r="U78" s="121"/>
       <c r="V78" s="43"/>
       <c r="W78" s="43"/>
-      <c r="X78" s="156"/>
+      <c r="X78" s="93"/>
       <c r="Y78" s="96"/>
       <c r="Z78" s="46"/>
       <c r="AA78" s="46"/>
@@ -8097,25 +8123,25 @@
     </row>
     <row r="79" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="107" t="s">
-        <v>138</v>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77" t="s">
+        <v>127</v>
       </c>
       <c r="E79" s="107" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F79" s="112">
-        <v>45576</v>
+        <v>45573</v>
       </c>
       <c r="G79" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="H79" s="154" t="e">
-        <f t="shared" si="5"/>
+      <c r="H79" s="119" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="155">
-        <v>0</v>
+      <c r="I79" s="120">
+        <v>0.5</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="34"/>
@@ -8127,11 +8153,11 @@
       <c r="Q79" s="41"/>
       <c r="R79" s="41"/>
       <c r="S79" s="90"/>
-      <c r="T79" s="88"/>
-      <c r="U79" s="43"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="121"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="156"/>
+      <c r="W79" s="121"/>
+      <c r="X79" s="121"/>
       <c r="Y79" s="96"/>
       <c r="Z79" s="46"/>
       <c r="AA79" s="46"/>
@@ -8166,25 +8192,25 @@
     </row>
     <row r="80" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="112" t="s">
-        <v>140</v>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="107" t="s">
+        <v>100</v>
       </c>
       <c r="F80" s="112">
+        <v>45575</v>
+      </c>
+      <c r="G80" s="112">
         <v>45576</v>
       </c>
-      <c r="G80" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I80" s="155">
-        <v>0</v>
+      <c r="H80" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="120">
+        <v>1</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="34"/>
@@ -8195,12 +8221,12 @@
       <c r="P80" s="41"/>
       <c r="Q80" s="41"/>
       <c r="R80" s="41"/>
-      <c r="S80" s="90"/>
-      <c r="T80" s="88"/>
-      <c r="U80" s="43"/>
+      <c r="S80" s="158"/>
+      <c r="T80" s="158"/>
+      <c r="U80" s="158"/>
       <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="156"/>
+      <c r="W80" s="121"/>
+      <c r="X80" s="122"/>
       <c r="Y80" s="96"/>
       <c r="Z80" s="46"/>
       <c r="AA80" s="46"/>
@@ -8235,23 +8261,25 @@
     </row>
     <row r="81" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="60"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="107" t="s">
+        <v>100</v>
+      </c>
       <c r="F81" s="112">
-        <v>0</v>
+        <v>45575</v>
       </c>
       <c r="G81" s="112">
-        <v>0</v>
-      </c>
-      <c r="H81" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="155">
-        <v>0</v>
+        <v>45576</v>
+      </c>
+      <c r="H81" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I81" s="120">
+        <v>1</v>
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="34"/>
@@ -8262,12 +8290,12 @@
       <c r="P81" s="41"/>
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
-      <c r="S81" s="90"/>
-      <c r="T81" s="88"/>
-      <c r="U81" s="43"/>
+      <c r="S81" s="158"/>
+      <c r="T81" s="158"/>
+      <c r="U81" s="158"/>
       <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="93"/>
+      <c r="W81" s="121"/>
+      <c r="X81" s="122"/>
       <c r="Y81" s="96"/>
       <c r="Z81" s="46"/>
       <c r="AA81" s="46"/>
@@ -8302,25 +8330,25 @@
     </row>
     <row r="82" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="153" t="s">
-        <v>140</v>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="107" t="s">
+        <v>100</v>
       </c>
       <c r="F82" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G82" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H82" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" s="155">
-        <v>0</v>
+        <v>45567</v>
+      </c>
+      <c r="G82" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H82" s="119">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I82" s="120">
+        <v>1</v>
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="34"/>
@@ -8329,14 +8357,14 @@
       <c r="N82" s="84"/>
       <c r="O82" s="81"/>
       <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
+      <c r="Q82" s="121"/>
       <c r="R82" s="41"/>
-      <c r="S82" s="90"/>
+      <c r="S82" s="121"/>
       <c r="T82" s="88"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="156"/>
+      <c r="X82" s="93"/>
       <c r="Y82" s="96"/>
       <c r="Z82" s="46"/>
       <c r="AA82" s="46"/>
@@ -8372,33 +8400,35 @@
     <row r="83" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B83" s="30"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="60"/>
+      <c r="D83" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="107" t="s">
+        <v>43</v>
+      </c>
       <c r="F83" s="112">
-        <v>0</v>
+        <v>45567</v>
       </c>
       <c r="G83" s="112">
-        <v>0</v>
-      </c>
-      <c r="H83" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="155">
-        <v>0</v>
+        <v>45569</v>
+      </c>
+      <c r="H83" s="119">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I83" s="120">
+        <v>1</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="34"/>
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="84"/>
-      <c r="O83" s="81"/>
+      <c r="O83" s="41"/>
       <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
+      <c r="Q83" s="121"/>
       <c r="R83" s="41"/>
-      <c r="S83" s="90"/>
+      <c r="S83" s="121"/>
       <c r="T83" s="88"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
@@ -8437,42 +8467,42 @@
       <c r="BC83" s="29"/>
     </row>
     <row r="84" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B84" s="30">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C84" s="152" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="107"/>
-      <c r="E84" s="60"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="107" t="s">
+        <v>43</v>
+      </c>
       <c r="F84" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G84" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H84" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I84" s="155">
-        <v>0</v>
+        <v>45566</v>
+      </c>
+      <c r="G84" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H84" s="119">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I84" s="120">
+        <v>1</v>
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="34"/>
       <c r="L84" s="35"/>
       <c r="M84" s="35"/>
       <c r="N84" s="84"/>
-      <c r="O84" s="81"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="121"/>
+      <c r="Q84" s="121"/>
       <c r="R84" s="41"/>
       <c r="S84" s="90"/>
       <c r="T84" s="88"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="156"/>
+      <c r="X84" s="93"/>
       <c r="Y84" s="96"/>
       <c r="Z84" s="46"/>
       <c r="AA84" s="46"/>
@@ -8507,41 +8537,41 @@
     </row>
     <row r="85" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B85" s="30"/>
-      <c r="C85" s="152"/>
-      <c r="D85" s="107" t="s">
-        <v>139</v>
+      <c r="C85" s="31"/>
+      <c r="D85" s="77" t="s">
+        <v>124</v>
       </c>
       <c r="E85" s="107" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F85" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G85" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85" s="155">
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G85" s="112">
+        <v>45567</v>
+      </c>
+      <c r="H85" s="119">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I85" s="120">
+        <v>1</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="34"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
       <c r="N85" s="84"/>
-      <c r="O85" s="81"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
+      <c r="O85" s="121"/>
+      <c r="P85" s="121"/>
+      <c r="Q85" s="121"/>
       <c r="R85" s="41"/>
       <c r="S85" s="90"/>
       <c r="T85" s="88"/>
       <c r="U85" s="43"/>
       <c r="V85" s="43"/>
       <c r="W85" s="43"/>
-      <c r="X85" s="156"/>
+      <c r="X85" s="93"/>
       <c r="Y85" s="96"/>
       <c r="Z85" s="46"/>
       <c r="AA85" s="46"/>
@@ -8575,25 +8605,25 @@
       <c r="BC85" s="29"/>
     </row>
     <row r="86" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B86" s="111">
-        <v>4.0999999999999996</v>
+      <c r="B86" s="30">
+        <v>4.9000000000000004</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="77"/>
-      <c r="E86" s="107"/>
+        <v>99</v>
+      </c>
+      <c r="D86" s="107"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="112">
-        <v>45565</v>
+        <v>45576</v>
       </c>
       <c r="G86" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H86" s="154" t="e">
-        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="H86" s="119" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="155">
+      <c r="I86" s="120">
         <v>0</v>
       </c>
       <c r="J86" s="33"/>
@@ -8601,7 +8631,7 @@
       <c r="L86" s="35"/>
       <c r="M86" s="35"/>
       <c r="N86" s="84"/>
-      <c r="O86" s="156"/>
+      <c r="O86" s="81"/>
       <c r="P86" s="41"/>
       <c r="Q86" s="41"/>
       <c r="R86" s="41"/>
@@ -8610,57 +8640,59 @@
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="93"/>
-      <c r="Y86" s="88"/>
-      <c r="Z86" s="43"/>
-      <c r="AA86" s="43"/>
-      <c r="AB86" s="43"/>
-      <c r="AC86" s="93"/>
-      <c r="AD86" s="95"/>
-      <c r="AE86" s="44"/>
-      <c r="AF86" s="44"/>
-      <c r="AG86" s="44"/>
-      <c r="AH86" s="98"/>
-      <c r="AI86" s="88"/>
-      <c r="AJ86" s="43"/>
-      <c r="AK86" s="43"/>
-      <c r="AL86" s="43"/>
-      <c r="AM86" s="93"/>
-      <c r="AN86" s="88"/>
-      <c r="AO86" s="43"/>
-      <c r="AP86" s="43"/>
-      <c r="AQ86" s="43"/>
-      <c r="AR86" s="93"/>
-      <c r="AS86" s="101"/>
-      <c r="AT86" s="45"/>
-      <c r="AU86" s="45"/>
-      <c r="AV86" s="45"/>
-      <c r="AW86" s="103"/>
-      <c r="AX86" s="88"/>
-      <c r="AY86" s="43"/>
-      <c r="AZ86" s="43"/>
-      <c r="BA86" s="43"/>
-      <c r="BB86" s="93"/>
+      <c r="X86" s="121"/>
+      <c r="Y86" s="96"/>
+      <c r="Z86" s="46"/>
+      <c r="AA86" s="46"/>
+      <c r="AB86" s="46"/>
+      <c r="AC86" s="100"/>
+      <c r="AD86" s="96"/>
+      <c r="AE86" s="46"/>
+      <c r="AF86" s="46"/>
+      <c r="AG86" s="46"/>
+      <c r="AH86" s="100"/>
+      <c r="AI86" s="96"/>
+      <c r="AJ86" s="46"/>
+      <c r="AK86" s="46"/>
+      <c r="AL86" s="46"/>
+      <c r="AM86" s="100"/>
+      <c r="AN86" s="96"/>
+      <c r="AO86" s="46"/>
+      <c r="AP86" s="46"/>
+      <c r="AQ86" s="46"/>
+      <c r="AR86" s="100"/>
+      <c r="AS86" s="96"/>
+      <c r="AT86" s="46"/>
+      <c r="AU86" s="46"/>
+      <c r="AV86" s="46"/>
+      <c r="AW86" s="100"/>
+      <c r="AX86" s="96"/>
+      <c r="AY86" s="46"/>
+      <c r="AZ86" s="46"/>
+      <c r="BA86" s="46"/>
+      <c r="BB86" s="100"/>
       <c r="BC86" s="29"/>
     </row>
     <row r="87" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B87" s="30"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="107"/>
+      <c r="D87" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="F87" s="112">
-        <v>0</v>
-      </c>
-      <c r="G87" s="112">
-        <v>0</v>
-      </c>
-      <c r="H87" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="155">
+        <v>45576</v>
+      </c>
+      <c r="G87" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" s="120">
         <v>0</v>
       </c>
       <c r="J87" s="33"/>
@@ -8677,57 +8709,59 @@
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
       <c r="W87" s="43"/>
-      <c r="X87" s="93"/>
-      <c r="Y87" s="88"/>
-      <c r="Z87" s="43"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="93"/>
-      <c r="AD87" s="95"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="44"/>
-      <c r="AH87" s="98"/>
-      <c r="AI87" s="88"/>
-      <c r="AJ87" s="43"/>
-      <c r="AK87" s="43"/>
-      <c r="AL87" s="43"/>
-      <c r="AM87" s="93"/>
-      <c r="AN87" s="88"/>
-      <c r="AO87" s="43"/>
-      <c r="AP87" s="43"/>
-      <c r="AQ87" s="43"/>
-      <c r="AR87" s="93"/>
-      <c r="AS87" s="101"/>
-      <c r="AT87" s="45"/>
-      <c r="AU87" s="45"/>
-      <c r="AV87" s="45"/>
-      <c r="AW87" s="103"/>
-      <c r="AX87" s="88"/>
-      <c r="AY87" s="43"/>
-      <c r="AZ87" s="43"/>
-      <c r="BA87" s="43"/>
-      <c r="BB87" s="93"/>
+      <c r="X87" s="121"/>
+      <c r="Y87" s="96"/>
+      <c r="Z87" s="46"/>
+      <c r="AA87" s="46"/>
+      <c r="AB87" s="46"/>
+      <c r="AC87" s="100"/>
+      <c r="AD87" s="96"/>
+      <c r="AE87" s="46"/>
+      <c r="AF87" s="46"/>
+      <c r="AG87" s="46"/>
+      <c r="AH87" s="100"/>
+      <c r="AI87" s="96"/>
+      <c r="AJ87" s="46"/>
+      <c r="AK87" s="46"/>
+      <c r="AL87" s="46"/>
+      <c r="AM87" s="100"/>
+      <c r="AN87" s="96"/>
+      <c r="AO87" s="46"/>
+      <c r="AP87" s="46"/>
+      <c r="AQ87" s="46"/>
+      <c r="AR87" s="100"/>
+      <c r="AS87" s="96"/>
+      <c r="AT87" s="46"/>
+      <c r="AU87" s="46"/>
+      <c r="AV87" s="46"/>
+      <c r="AW87" s="100"/>
+      <c r="AX87" s="96"/>
+      <c r="AY87" s="46"/>
+      <c r="AZ87" s="46"/>
+      <c r="BA87" s="46"/>
+      <c r="BB87" s="100"/>
       <c r="BC87" s="29"/>
     </row>
     <row r="88" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B88" s="30"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="E88" s="107"/>
+      <c r="D88" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="112" t="s">
+        <v>138</v>
+      </c>
       <c r="F88" s="112">
-        <v>0</v>
-      </c>
-      <c r="G88" s="112">
-        <v>0</v>
-      </c>
-      <c r="H88" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="155">
+        <v>45576</v>
+      </c>
+      <c r="G88" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H88" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I88" s="120">
         <v>0</v>
       </c>
       <c r="J88" s="33"/>
@@ -8744,59 +8778,57 @@
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="93"/>
-      <c r="Y88" s="88"/>
-      <c r="Z88" s="43"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="93"/>
-      <c r="AD88" s="95"/>
-      <c r="AE88" s="44"/>
-      <c r="AF88" s="44"/>
-      <c r="AG88" s="44"/>
-      <c r="AH88" s="98"/>
-      <c r="AI88" s="88"/>
-      <c r="AJ88" s="43"/>
-      <c r="AK88" s="43"/>
-      <c r="AL88" s="43"/>
-      <c r="AM88" s="93"/>
-      <c r="AN88" s="88"/>
-      <c r="AO88" s="43"/>
-      <c r="AP88" s="43"/>
-      <c r="AQ88" s="43"/>
-      <c r="AR88" s="93"/>
-      <c r="AS88" s="101"/>
-      <c r="AT88" s="45"/>
-      <c r="AU88" s="45"/>
-      <c r="AV88" s="45"/>
-      <c r="AW88" s="103"/>
-      <c r="AX88" s="88"/>
-      <c r="AY88" s="43"/>
-      <c r="AZ88" s="43"/>
-      <c r="BA88" s="43"/>
-      <c r="BB88" s="93"/>
+      <c r="X88" s="121"/>
+      <c r="Y88" s="96"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="46"/>
+      <c r="AB88" s="46"/>
+      <c r="AC88" s="100"/>
+      <c r="AD88" s="96"/>
+      <c r="AE88" s="46"/>
+      <c r="AF88" s="46"/>
+      <c r="AG88" s="46"/>
+      <c r="AH88" s="100"/>
+      <c r="AI88" s="96"/>
+      <c r="AJ88" s="46"/>
+      <c r="AK88" s="46"/>
+      <c r="AL88" s="46"/>
+      <c r="AM88" s="100"/>
+      <c r="AN88" s="96"/>
+      <c r="AO88" s="46"/>
+      <c r="AP88" s="46"/>
+      <c r="AQ88" s="46"/>
+      <c r="AR88" s="100"/>
+      <c r="AS88" s="96"/>
+      <c r="AT88" s="46"/>
+      <c r="AU88" s="46"/>
+      <c r="AV88" s="46"/>
+      <c r="AW88" s="100"/>
+      <c r="AX88" s="96"/>
+      <c r="AY88" s="46"/>
+      <c r="AZ88" s="46"/>
+      <c r="BA88" s="46"/>
+      <c r="BB88" s="100"/>
       <c r="BC88" s="29"/>
     </row>
     <row r="89" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B89" s="30"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="107" t="s">
-        <v>109</v>
-      </c>
+      <c r="D89" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="60"/>
       <c r="F89" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G89" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H89" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" s="155">
+        <v>0</v>
+      </c>
+      <c r="G89" s="112">
+        <v>0</v>
+      </c>
+      <c r="H89" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="120">
         <v>0</v>
       </c>
       <c r="J89" s="33"/>
@@ -8804,7 +8836,7 @@
       <c r="L89" s="35"/>
       <c r="M89" s="35"/>
       <c r="N89" s="84"/>
-      <c r="O89" s="156"/>
+      <c r="O89" s="81"/>
       <c r="P89" s="41"/>
       <c r="Q89" s="41"/>
       <c r="R89" s="41"/>
@@ -8814,58 +8846,58 @@
       <c r="V89" s="43"/>
       <c r="W89" s="43"/>
       <c r="X89" s="93"/>
-      <c r="Y89" s="88"/>
-      <c r="Z89" s="43"/>
-      <c r="AA89" s="43"/>
-      <c r="AB89" s="43"/>
-      <c r="AC89" s="93"/>
-      <c r="AD89" s="95"/>
-      <c r="AE89" s="44"/>
-      <c r="AF89" s="44"/>
-      <c r="AG89" s="44"/>
-      <c r="AH89" s="98"/>
-      <c r="AI89" s="88"/>
-      <c r="AJ89" s="43"/>
-      <c r="AK89" s="43"/>
-      <c r="AL89" s="43"/>
-      <c r="AM89" s="93"/>
-      <c r="AN89" s="88"/>
-      <c r="AO89" s="43"/>
-      <c r="AP89" s="43"/>
-      <c r="AQ89" s="43"/>
-      <c r="AR89" s="93"/>
-      <c r="AS89" s="101"/>
-      <c r="AT89" s="45"/>
-      <c r="AU89" s="45"/>
-      <c r="AV89" s="45"/>
-      <c r="AW89" s="103"/>
-      <c r="AX89" s="88"/>
-      <c r="AY89" s="43"/>
-      <c r="AZ89" s="43"/>
-      <c r="BA89" s="43"/>
-      <c r="BB89" s="93"/>
+      <c r="Y89" s="96"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="100"/>
+      <c r="AD89" s="96"/>
+      <c r="AE89" s="46"/>
+      <c r="AF89" s="46"/>
+      <c r="AG89" s="46"/>
+      <c r="AH89" s="100"/>
+      <c r="AI89" s="96"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="46"/>
+      <c r="AL89" s="46"/>
+      <c r="AM89" s="100"/>
+      <c r="AN89" s="96"/>
+      <c r="AO89" s="46"/>
+      <c r="AP89" s="46"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="100"/>
+      <c r="AS89" s="96"/>
+      <c r="AT89" s="46"/>
+      <c r="AU89" s="46"/>
+      <c r="AV89" s="46"/>
+      <c r="AW89" s="100"/>
+      <c r="AX89" s="96"/>
+      <c r="AY89" s="46"/>
+      <c r="AZ89" s="46"/>
+      <c r="BA89" s="46"/>
+      <c r="BB89" s="100"/>
       <c r="BC89" s="29"/>
     </row>
     <row r="90" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B90" s="30">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="77"/>
-      <c r="E90" s="107"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="118" t="s">
+        <v>138</v>
+      </c>
       <c r="F90" s="112">
-        <v>0</v>
-      </c>
-      <c r="G90" s="112">
-        <v>0</v>
-      </c>
-      <c r="H90" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="155">
+        <v>45576</v>
+      </c>
+      <c r="G90" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I90" s="120">
         <v>0</v>
       </c>
       <c r="J90" s="33"/>
@@ -8873,7 +8905,7 @@
       <c r="L90" s="35"/>
       <c r="M90" s="35"/>
       <c r="N90" s="84"/>
-      <c r="O90" s="41"/>
+      <c r="O90" s="81"/>
       <c r="P90" s="41"/>
       <c r="Q90" s="41"/>
       <c r="R90" s="41"/>
@@ -8882,57 +8914,57 @@
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="93"/>
-      <c r="Y90" s="88"/>
-      <c r="Z90" s="43"/>
-      <c r="AA90" s="43"/>
-      <c r="AB90" s="43"/>
-      <c r="AC90" s="93"/>
-      <c r="AD90" s="95"/>
-      <c r="AE90" s="44"/>
-      <c r="AF90" s="44"/>
-      <c r="AG90" s="44"/>
-      <c r="AH90" s="98"/>
-      <c r="AI90" s="88"/>
-      <c r="AJ90" s="43"/>
-      <c r="AK90" s="43"/>
-      <c r="AL90" s="43"/>
-      <c r="AM90" s="93"/>
-      <c r="AN90" s="88"/>
-      <c r="AO90" s="43"/>
-      <c r="AP90" s="43"/>
-      <c r="AQ90" s="43"/>
-      <c r="AR90" s="93"/>
-      <c r="AS90" s="101"/>
-      <c r="AT90" s="45"/>
-      <c r="AU90" s="45"/>
-      <c r="AV90" s="45"/>
-      <c r="AW90" s="103"/>
-      <c r="AX90" s="88"/>
-      <c r="AY90" s="43"/>
-      <c r="AZ90" s="43"/>
-      <c r="BA90" s="43"/>
-      <c r="BB90" s="93"/>
+      <c r="X90" s="121"/>
+      <c r="Y90" s="96"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46"/>
+      <c r="AC90" s="100"/>
+      <c r="AD90" s="96"/>
+      <c r="AE90" s="46"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="46"/>
+      <c r="AH90" s="100"/>
+      <c r="AI90" s="96"/>
+      <c r="AJ90" s="46"/>
+      <c r="AK90" s="46"/>
+      <c r="AL90" s="46"/>
+      <c r="AM90" s="100"/>
+      <c r="AN90" s="96"/>
+      <c r="AO90" s="46"/>
+      <c r="AP90" s="46"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="100"/>
+      <c r="AS90" s="96"/>
+      <c r="AT90" s="46"/>
+      <c r="AU90" s="46"/>
+      <c r="AV90" s="46"/>
+      <c r="AW90" s="100"/>
+      <c r="AX90" s="96"/>
+      <c r="AY90" s="46"/>
+      <c r="AZ90" s="46"/>
+      <c r="BA90" s="46"/>
+      <c r="BB90" s="100"/>
       <c r="BC90" s="29"/>
     </row>
     <row r="91" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B91" s="30"/>
       <c r="C91" s="31"/>
-      <c r="D91" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91" s="107"/>
+      <c r="D91" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="60"/>
       <c r="F91" s="112">
         <v>0</v>
       </c>
       <c r="G91" s="112">
         <v>0</v>
       </c>
-      <c r="H91" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="155">
+      <c r="H91" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="120">
         <v>0</v>
       </c>
       <c r="J91" s="33"/>
@@ -8940,7 +8972,7 @@
       <c r="L91" s="35"/>
       <c r="M91" s="35"/>
       <c r="N91" s="84"/>
-      <c r="O91" s="41"/>
+      <c r="O91" s="81"/>
       <c r="P91" s="41"/>
       <c r="Q91" s="41"/>
       <c r="R91" s="41"/>
@@ -8950,56 +8982,58 @@
       <c r="V91" s="43"/>
       <c r="W91" s="43"/>
       <c r="X91" s="93"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="43"/>
-      <c r="AA91" s="43"/>
-      <c r="AB91" s="43"/>
-      <c r="AC91" s="93"/>
-      <c r="AD91" s="95"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="98"/>
-      <c r="AI91" s="88"/>
-      <c r="AJ91" s="43"/>
-      <c r="AK91" s="43"/>
-      <c r="AL91" s="43"/>
-      <c r="AM91" s="93"/>
-      <c r="AN91" s="88"/>
-      <c r="AO91" s="43"/>
-      <c r="AP91" s="43"/>
-      <c r="AQ91" s="43"/>
-      <c r="AR91" s="93"/>
-      <c r="AS91" s="101"/>
-      <c r="AT91" s="45"/>
-      <c r="AU91" s="45"/>
-      <c r="AV91" s="45"/>
-      <c r="AW91" s="103"/>
-      <c r="AX91" s="88"/>
-      <c r="AY91" s="43"/>
-      <c r="AZ91" s="43"/>
-      <c r="BA91" s="43"/>
-      <c r="BB91" s="93"/>
+      <c r="Y91" s="96"/>
+      <c r="Z91" s="46"/>
+      <c r="AA91" s="46"/>
+      <c r="AB91" s="46"/>
+      <c r="AC91" s="100"/>
+      <c r="AD91" s="96"/>
+      <c r="AE91" s="46"/>
+      <c r="AF91" s="46"/>
+      <c r="AG91" s="46"/>
+      <c r="AH91" s="100"/>
+      <c r="AI91" s="96"/>
+      <c r="AJ91" s="46"/>
+      <c r="AK91" s="46"/>
+      <c r="AL91" s="46"/>
+      <c r="AM91" s="100"/>
+      <c r="AN91" s="96"/>
+      <c r="AO91" s="46"/>
+      <c r="AP91" s="46"/>
+      <c r="AQ91" s="46"/>
+      <c r="AR91" s="100"/>
+      <c r="AS91" s="96"/>
+      <c r="AT91" s="46"/>
+      <c r="AU91" s="46"/>
+      <c r="AV91" s="46"/>
+      <c r="AW91" s="100"/>
+      <c r="AX91" s="96"/>
+      <c r="AY91" s="46"/>
+      <c r="AZ91" s="46"/>
+      <c r="BA91" s="46"/>
+      <c r="BB91" s="100"/>
       <c r="BC91" s="29"/>
     </row>
     <row r="92" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E92" s="107"/>
+      <c r="B92" s="111">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C92" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="107"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="112">
-        <v>0</v>
-      </c>
-      <c r="G92" s="112">
-        <v>0</v>
-      </c>
-      <c r="H92" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="155">
+        <v>45576</v>
+      </c>
+      <c r="G92" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I92" s="120">
         <v>0</v>
       </c>
       <c r="J92" s="33"/>
@@ -9016,57 +9050,59 @@
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="93"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="43"/>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="93"/>
-      <c r="AD92" s="95"/>
-      <c r="AE92" s="44"/>
-      <c r="AF92" s="44"/>
-      <c r="AG92" s="44"/>
-      <c r="AH92" s="98"/>
-      <c r="AI92" s="88"/>
-      <c r="AJ92" s="43"/>
-      <c r="AK92" s="43"/>
-      <c r="AL92" s="43"/>
-      <c r="AM92" s="93"/>
-      <c r="AN92" s="88"/>
-      <c r="AO92" s="43"/>
-      <c r="AP92" s="43"/>
-      <c r="AQ92" s="43"/>
-      <c r="AR92" s="93"/>
-      <c r="AS92" s="101"/>
-      <c r="AT92" s="45"/>
-      <c r="AU92" s="45"/>
-      <c r="AV92" s="45"/>
-      <c r="AW92" s="103"/>
-      <c r="AX92" s="88"/>
-      <c r="AY92" s="43"/>
-      <c r="AZ92" s="43"/>
-      <c r="BA92" s="43"/>
-      <c r="BB92" s="93"/>
+      <c r="X92" s="121"/>
+      <c r="Y92" s="96"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="100"/>
+      <c r="AD92" s="96"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="46"/>
+      <c r="AH92" s="100"/>
+      <c r="AI92" s="96"/>
+      <c r="AJ92" s="46"/>
+      <c r="AK92" s="46"/>
+      <c r="AL92" s="46"/>
+      <c r="AM92" s="100"/>
+      <c r="AN92" s="96"/>
+      <c r="AO92" s="46"/>
+      <c r="AP92" s="46"/>
+      <c r="AQ92" s="46"/>
+      <c r="AR92" s="100"/>
+      <c r="AS92" s="96"/>
+      <c r="AT92" s="46"/>
+      <c r="AU92" s="46"/>
+      <c r="AV92" s="46"/>
+      <c r="AW92" s="100"/>
+      <c r="AX92" s="96"/>
+      <c r="AY92" s="46"/>
+      <c r="AZ92" s="46"/>
+      <c r="BA92" s="46"/>
+      <c r="BB92" s="100"/>
       <c r="BC92" s="29"/>
     </row>
     <row r="93" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="107"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="F93" s="112">
-        <v>0</v>
-      </c>
-      <c r="G93" s="112">
-        <v>0</v>
-      </c>
-      <c r="H93" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="155">
+        <v>45576</v>
+      </c>
+      <c r="G93" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I93" s="120">
         <v>0</v>
       </c>
       <c r="J93" s="33"/>
@@ -9083,59 +9119,59 @@
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="93"/>
-      <c r="Y93" s="88"/>
-      <c r="Z93" s="43"/>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="43"/>
-      <c r="AC93" s="93"/>
-      <c r="AD93" s="95"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="44"/>
-      <c r="AG93" s="44"/>
-      <c r="AH93" s="98"/>
-      <c r="AI93" s="88"/>
-      <c r="AJ93" s="43"/>
-      <c r="AK93" s="43"/>
-      <c r="AL93" s="43"/>
-      <c r="AM93" s="93"/>
-      <c r="AN93" s="88"/>
-      <c r="AO93" s="43"/>
-      <c r="AP93" s="43"/>
-      <c r="AQ93" s="43"/>
-      <c r="AR93" s="93"/>
-      <c r="AS93" s="101"/>
-      <c r="AT93" s="45"/>
-      <c r="AU93" s="45"/>
-      <c r="AV93" s="45"/>
-      <c r="AW93" s="103"/>
-      <c r="AX93" s="88"/>
-      <c r="AY93" s="43"/>
-      <c r="AZ93" s="43"/>
-      <c r="BA93" s="43"/>
-      <c r="BB93" s="93"/>
+      <c r="X93" s="121"/>
+      <c r="Y93" s="96"/>
+      <c r="Z93" s="46"/>
+      <c r="AA93" s="46"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="100"/>
+      <c r="AD93" s="96"/>
+      <c r="AE93" s="46"/>
+      <c r="AF93" s="46"/>
+      <c r="AG93" s="46"/>
+      <c r="AH93" s="100"/>
+      <c r="AI93" s="96"/>
+      <c r="AJ93" s="46"/>
+      <c r="AK93" s="46"/>
+      <c r="AL93" s="46"/>
+      <c r="AM93" s="100"/>
+      <c r="AN93" s="96"/>
+      <c r="AO93" s="46"/>
+      <c r="AP93" s="46"/>
+      <c r="AQ93" s="46"/>
+      <c r="AR93" s="100"/>
+      <c r="AS93" s="96"/>
+      <c r="AT93" s="46"/>
+      <c r="AU93" s="46"/>
+      <c r="AV93" s="46"/>
+      <c r="AW93" s="100"/>
+      <c r="AX93" s="96"/>
+      <c r="AY93" s="46"/>
+      <c r="AZ93" s="46"/>
+      <c r="BA93" s="46"/>
+      <c r="BB93" s="100"/>
       <c r="BC93" s="29"/>
     </row>
     <row r="94" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B94" s="111">
-        <v>4.12</v>
+      <c r="B94" s="30">
+        <v>4.1100000000000003</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D94" s="77"/>
       <c r="E94" s="107"/>
       <c r="F94" s="112">
-        <v>0</v>
-      </c>
-      <c r="G94" s="112">
-        <v>0</v>
-      </c>
-      <c r="H94" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="155">
+        <v>45565</v>
+      </c>
+      <c r="G94" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I94" s="120">
         <v>0</v>
       </c>
       <c r="J94" s="33"/>
@@ -9143,7 +9179,7 @@
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
       <c r="N94" s="84"/>
-      <c r="O94" s="81"/>
+      <c r="O94" s="121"/>
       <c r="P94" s="41"/>
       <c r="Q94" s="41"/>
       <c r="R94" s="41"/>
@@ -9189,7 +9225,7 @@
       <c r="B95" s="30"/>
       <c r="C95" s="31"/>
       <c r="D95" s="77" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="E95" s="107"/>
       <c r="F95" s="112">
@@ -9198,11 +9234,11 @@
       <c r="G95" s="112">
         <v>0</v>
       </c>
-      <c r="H95" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="155">
+      <c r="H95" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="120">
         <v>0</v>
       </c>
       <c r="J95" s="33"/>
@@ -9256,7 +9292,7 @@
       <c r="B96" s="30"/>
       <c r="C96" s="31"/>
       <c r="D96" s="77" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E96" s="107"/>
       <c r="F96" s="112">
@@ -9265,11 +9301,11 @@
       <c r="G96" s="112">
         <v>0</v>
       </c>
-      <c r="H96" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="155">
+      <c r="H96" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="120">
         <v>0</v>
       </c>
       <c r="J96" s="33"/>
@@ -9323,351 +9359,347 @@
       <c r="B97" s="30"/>
       <c r="C97" s="31"/>
       <c r="D97" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="107"/>
+        <v>111</v>
+      </c>
+      <c r="E97" s="107" t="s">
+        <v>109</v>
+      </c>
       <c r="F97" s="112">
-        <v>0</v>
-      </c>
-      <c r="G97" s="112">
-        <v>0</v>
-      </c>
-      <c r="H97" s="154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="155">
-        <v>0</v>
-      </c>
-      <c r="J97" s="36"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="85"/>
-      <c r="O97" s="81"/>
+        <v>45565</v>
+      </c>
+      <c r="G97" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="119" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I97" s="120">
+        <v>0</v>
+      </c>
+      <c r="J97" s="33"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="121"/>
       <c r="P97" s="41"/>
       <c r="Q97" s="41"/>
       <c r="R97" s="41"/>
       <c r="S97" s="90"/>
-      <c r="T97" s="89"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="94"/>
-      <c r="Y97" s="89"/>
-      <c r="Z97" s="40"/>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="94"/>
-      <c r="AD97" s="96"/>
-      <c r="AE97" s="46"/>
-      <c r="AF97" s="46"/>
-      <c r="AG97" s="46"/>
-      <c r="AH97" s="100"/>
-      <c r="AI97" s="89"/>
-      <c r="AJ97" s="40"/>
-      <c r="AK97" s="40"/>
-      <c r="AL97" s="40"/>
-      <c r="AM97" s="94"/>
-      <c r="AN97" s="89"/>
-      <c r="AO97" s="40"/>
-      <c r="AP97" s="40"/>
-      <c r="AQ97" s="40"/>
-      <c r="AR97" s="94"/>
-      <c r="AS97" s="102"/>
-      <c r="AT97" s="47"/>
-      <c r="AU97" s="47"/>
-      <c r="AV97" s="47"/>
-      <c r="AW97" s="104"/>
-      <c r="AX97" s="89"/>
-      <c r="AY97" s="40"/>
-      <c r="AZ97" s="40"/>
-      <c r="BA97" s="40"/>
-      <c r="BB97" s="94"/>
+      <c r="T97" s="88"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="88"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="43"/>
+      <c r="AC97" s="93"/>
+      <c r="AD97" s="95"/>
+      <c r="AE97" s="44"/>
+      <c r="AF97" s="44"/>
+      <c r="AG97" s="44"/>
+      <c r="AH97" s="98"/>
+      <c r="AI97" s="88"/>
+      <c r="AJ97" s="43"/>
+      <c r="AK97" s="43"/>
+      <c r="AL97" s="43"/>
+      <c r="AM97" s="93"/>
+      <c r="AN97" s="88"/>
+      <c r="AO97" s="43"/>
+      <c r="AP97" s="43"/>
+      <c r="AQ97" s="43"/>
+      <c r="AR97" s="93"/>
+      <c r="AS97" s="101"/>
+      <c r="AT97" s="45"/>
+      <c r="AU97" s="45"/>
+      <c r="AV97" s="45"/>
+      <c r="AW97" s="103"/>
+      <c r="AX97" s="88"/>
+      <c r="AY97" s="43"/>
+      <c r="AZ97" s="43"/>
+      <c r="BA97" s="43"/>
+      <c r="BB97" s="93"/>
       <c r="BC97" s="29"/>
     </row>
     <row r="98" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B98" s="30">
-        <v>4.13</v>
+      <c r="B98" s="111">
+        <v>4.12</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D98" s="77"/>
       <c r="E98" s="107"/>
       <c r="F98" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G98" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H98" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I98" s="155">
-        <v>0</v>
-      </c>
-      <c r="J98" s="36"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="85"/>
-      <c r="O98" s="81"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="112">
+        <v>0</v>
+      </c>
+      <c r="H98" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="120">
+        <v>0</v>
+      </c>
+      <c r="J98" s="33"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="84"/>
+      <c r="O98" s="41"/>
       <c r="P98" s="41"/>
       <c r="Q98" s="41"/>
       <c r="R98" s="41"/>
       <c r="S98" s="90"/>
-      <c r="T98" s="89"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="94"/>
-      <c r="Y98" s="89"/>
-      <c r="Z98" s="40"/>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="40"/>
-      <c r="AC98" s="94"/>
-      <c r="AD98" s="96"/>
-      <c r="AE98" s="46"/>
-      <c r="AF98" s="46"/>
-      <c r="AG98" s="46"/>
-      <c r="AH98" s="100"/>
-      <c r="AI98" s="89"/>
-      <c r="AJ98" s="40"/>
-      <c r="AK98" s="40"/>
-      <c r="AL98" s="40"/>
-      <c r="AM98" s="94"/>
-      <c r="AN98" s="89"/>
-      <c r="AO98" s="40"/>
-      <c r="AP98" s="40"/>
-      <c r="AQ98" s="40"/>
-      <c r="AR98" s="94"/>
-      <c r="AS98" s="102"/>
-      <c r="AT98" s="47"/>
-      <c r="AU98" s="47"/>
-      <c r="AV98" s="47"/>
-      <c r="AW98" s="104"/>
-      <c r="AX98" s="89"/>
-      <c r="AY98" s="40"/>
-      <c r="AZ98" s="40"/>
-      <c r="BA98" s="40"/>
-      <c r="BB98" s="94"/>
+      <c r="T98" s="88"/>
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="93"/>
+      <c r="Y98" s="88"/>
+      <c r="Z98" s="43"/>
+      <c r="AA98" s="43"/>
+      <c r="AB98" s="43"/>
+      <c r="AC98" s="93"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="44"/>
+      <c r="AF98" s="44"/>
+      <c r="AG98" s="44"/>
+      <c r="AH98" s="98"/>
+      <c r="AI98" s="88"/>
+      <c r="AJ98" s="43"/>
+      <c r="AK98" s="43"/>
+      <c r="AL98" s="43"/>
+      <c r="AM98" s="93"/>
+      <c r="AN98" s="88"/>
+      <c r="AO98" s="43"/>
+      <c r="AP98" s="43"/>
+      <c r="AQ98" s="43"/>
+      <c r="AR98" s="93"/>
+      <c r="AS98" s="101"/>
+      <c r="AT98" s="45"/>
+      <c r="AU98" s="45"/>
+      <c r="AV98" s="45"/>
+      <c r="AW98" s="103"/>
+      <c r="AX98" s="88"/>
+      <c r="AY98" s="43"/>
+      <c r="AZ98" s="43"/>
+      <c r="BA98" s="43"/>
+      <c r="BB98" s="93"/>
       <c r="BC98" s="29"/>
     </row>
     <row r="99" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B99" s="30"/>
       <c r="C99" s="31"/>
       <c r="D99" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E99" s="107" t="s">
-        <v>86</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E99" s="107"/>
       <c r="F99" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G99" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H99" s="154" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I99" s="155">
-        <v>0</v>
-      </c>
-      <c r="J99" s="36"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="85"/>
-      <c r="O99" s="81"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="112">
+        <v>0</v>
+      </c>
+      <c r="H99" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="120">
+        <v>0</v>
+      </c>
+      <c r="J99" s="33"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="41"/>
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="41"/>
       <c r="S99" s="90"/>
-      <c r="T99" s="89"/>
-      <c r="U99" s="156"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="94"/>
-      <c r="Y99" s="89"/>
-      <c r="Z99" s="40"/>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="94"/>
-      <c r="AD99" s="96"/>
-      <c r="AE99" s="46"/>
-      <c r="AF99" s="46"/>
-      <c r="AG99" s="46"/>
-      <c r="AH99" s="100"/>
-      <c r="AI99" s="89"/>
-      <c r="AJ99" s="40"/>
-      <c r="AK99" s="40"/>
-      <c r="AL99" s="40"/>
-      <c r="AM99" s="94"/>
-      <c r="AN99" s="89"/>
-      <c r="AO99" s="40"/>
-      <c r="AP99" s="40"/>
-      <c r="AQ99" s="40"/>
-      <c r="AR99" s="94"/>
-      <c r="AS99" s="102"/>
-      <c r="AT99" s="47"/>
-      <c r="AU99" s="47"/>
-      <c r="AV99" s="47"/>
-      <c r="AW99" s="104"/>
-      <c r="AX99" s="89"/>
-      <c r="AY99" s="40"/>
-      <c r="AZ99" s="40"/>
-      <c r="BA99" s="40"/>
-      <c r="BB99" s="94"/>
+      <c r="T99" s="88"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="93"/>
+      <c r="Y99" s="88"/>
+      <c r="Z99" s="43"/>
+      <c r="AA99" s="43"/>
+      <c r="AB99" s="43"/>
+      <c r="AC99" s="93"/>
+      <c r="AD99" s="95"/>
+      <c r="AE99" s="44"/>
+      <c r="AF99" s="44"/>
+      <c r="AG99" s="44"/>
+      <c r="AH99" s="98"/>
+      <c r="AI99" s="88"/>
+      <c r="AJ99" s="43"/>
+      <c r="AK99" s="43"/>
+      <c r="AL99" s="43"/>
+      <c r="AM99" s="93"/>
+      <c r="AN99" s="88"/>
+      <c r="AO99" s="43"/>
+      <c r="AP99" s="43"/>
+      <c r="AQ99" s="43"/>
+      <c r="AR99" s="93"/>
+      <c r="AS99" s="101"/>
+      <c r="AT99" s="45"/>
+      <c r="AU99" s="45"/>
+      <c r="AV99" s="45"/>
+      <c r="AW99" s="103"/>
+      <c r="AX99" s="88"/>
+      <c r="AY99" s="43"/>
+      <c r="AZ99" s="43"/>
+      <c r="BA99" s="43"/>
+      <c r="BB99" s="93"/>
       <c r="BC99" s="29"/>
     </row>
     <row r="100" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B100" s="78"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="31"/>
       <c r="D100" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="107" t="s">
-        <v>86</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E100" s="107"/>
       <c r="F100" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G100" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H100" s="154" t="e">
-        <f t="shared" ref="H100:H113" si="6">NETWORKDAYS(F100,G100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I100" s="155">
-        <v>0</v>
-      </c>
-      <c r="J100" s="36"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="112">
+        <v>0</v>
+      </c>
+      <c r="H100" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="120">
+        <v>0</v>
+      </c>
+      <c r="J100" s="33"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="84"/>
       <c r="O100" s="81"/>
       <c r="P100" s="41"/>
       <c r="Q100" s="41"/>
       <c r="R100" s="41"/>
       <c r="S100" s="90"/>
-      <c r="T100" s="89"/>
-      <c r="U100" s="156"/>
-      <c r="V100" s="40"/>
-      <c r="W100" s="40"/>
-      <c r="X100" s="94"/>
-      <c r="Y100" s="89"/>
-      <c r="Z100" s="40"/>
-      <c r="AA100" s="40"/>
-      <c r="AB100" s="40"/>
-      <c r="AC100" s="94"/>
-      <c r="AD100" s="96"/>
-      <c r="AE100" s="46"/>
-      <c r="AF100" s="46"/>
-      <c r="AG100" s="46"/>
-      <c r="AH100" s="100"/>
-      <c r="AI100" s="89"/>
-      <c r="AJ100" s="40"/>
-      <c r="AK100" s="40"/>
-      <c r="AL100" s="40"/>
-      <c r="AM100" s="94"/>
-      <c r="AN100" s="89"/>
-      <c r="AO100" s="40"/>
-      <c r="AP100" s="40"/>
-      <c r="AQ100" s="40"/>
-      <c r="AR100" s="94"/>
-      <c r="AS100" s="102"/>
-      <c r="AT100" s="47"/>
-      <c r="AU100" s="47"/>
-      <c r="AV100" s="47"/>
-      <c r="AW100" s="104"/>
-      <c r="AX100" s="89"/>
-      <c r="AY100" s="40"/>
-      <c r="AZ100" s="40"/>
-      <c r="BA100" s="40"/>
-      <c r="BB100" s="94"/>
+      <c r="T100" s="88"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="93"/>
+      <c r="Y100" s="88"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="43"/>
+      <c r="AC100" s="93"/>
+      <c r="AD100" s="95"/>
+      <c r="AE100" s="44"/>
+      <c r="AF100" s="44"/>
+      <c r="AG100" s="44"/>
+      <c r="AH100" s="98"/>
+      <c r="AI100" s="88"/>
+      <c r="AJ100" s="43"/>
+      <c r="AK100" s="43"/>
+      <c r="AL100" s="43"/>
+      <c r="AM100" s="93"/>
+      <c r="AN100" s="88"/>
+      <c r="AO100" s="43"/>
+      <c r="AP100" s="43"/>
+      <c r="AQ100" s="43"/>
+      <c r="AR100" s="93"/>
+      <c r="AS100" s="101"/>
+      <c r="AT100" s="45"/>
+      <c r="AU100" s="45"/>
+      <c r="AV100" s="45"/>
+      <c r="AW100" s="103"/>
+      <c r="AX100" s="88"/>
+      <c r="AY100" s="43"/>
+      <c r="AZ100" s="43"/>
+      <c r="BA100" s="43"/>
+      <c r="BB100" s="93"/>
       <c r="BC100" s="29"/>
     </row>
     <row r="101" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B101" s="78"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="31"/>
       <c r="D101" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="107" t="s">
-        <v>86</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E101" s="107"/>
       <c r="F101" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G101" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H101" s="154" t="e">
+        <v>0</v>
+      </c>
+      <c r="G101" s="112">
+        <v>0</v>
+      </c>
+      <c r="H101" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I101" s="155">
-        <v>0</v>
-      </c>
-      <c r="J101" s="36"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="120">
+        <v>0</v>
+      </c>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="84"/>
       <c r="O101" s="81"/>
       <c r="P101" s="41"/>
       <c r="Q101" s="41"/>
       <c r="R101" s="41"/>
       <c r="S101" s="90"/>
-      <c r="T101" s="89"/>
-      <c r="U101" s="156"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="94"/>
-      <c r="Y101" s="89"/>
-      <c r="Z101" s="40"/>
-      <c r="AA101" s="40"/>
-      <c r="AB101" s="40"/>
-      <c r="AC101" s="94"/>
-      <c r="AD101" s="96"/>
-      <c r="AE101" s="46"/>
-      <c r="AF101" s="46"/>
-      <c r="AG101" s="46"/>
-      <c r="AH101" s="100"/>
-      <c r="AI101" s="89"/>
-      <c r="AJ101" s="40"/>
-      <c r="AK101" s="40"/>
-      <c r="AL101" s="40"/>
-      <c r="AM101" s="94"/>
-      <c r="AN101" s="89"/>
-      <c r="AO101" s="40"/>
-      <c r="AP101" s="40"/>
-      <c r="AQ101" s="40"/>
-      <c r="AR101" s="94"/>
-      <c r="AS101" s="102"/>
-      <c r="AT101" s="47"/>
-      <c r="AU101" s="47"/>
-      <c r="AV101" s="47"/>
-      <c r="AW101" s="104"/>
-      <c r="AX101" s="89"/>
-      <c r="AY101" s="40"/>
-      <c r="AZ101" s="40"/>
-      <c r="BA101" s="40"/>
-      <c r="BB101" s="94"/>
+      <c r="T101" s="88"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="93"/>
+      <c r="Y101" s="88"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="93"/>
+      <c r="AD101" s="95"/>
+      <c r="AE101" s="44"/>
+      <c r="AF101" s="44"/>
+      <c r="AG101" s="44"/>
+      <c r="AH101" s="98"/>
+      <c r="AI101" s="88"/>
+      <c r="AJ101" s="43"/>
+      <c r="AK101" s="43"/>
+      <c r="AL101" s="43"/>
+      <c r="AM101" s="93"/>
+      <c r="AN101" s="88"/>
+      <c r="AO101" s="43"/>
+      <c r="AP101" s="43"/>
+      <c r="AQ101" s="43"/>
+      <c r="AR101" s="93"/>
+      <c r="AS101" s="101"/>
+      <c r="AT101" s="45"/>
+      <c r="AU101" s="45"/>
+      <c r="AV101" s="45"/>
+      <c r="AW101" s="103"/>
+      <c r="AX101" s="88"/>
+      <c r="AY101" s="43"/>
+      <c r="AZ101" s="43"/>
+      <c r="BA101" s="43"/>
+      <c r="BB101" s="93"/>
       <c r="BC101" s="29"/>
     </row>
     <row r="102" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B102" s="30">
-        <v>4.1399999999999997</v>
+        <v>4.13</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D102" s="77"/>
       <c r="E102" s="107"/>
@@ -9677,65 +9709,65 @@
       <c r="G102" s="112">
         <v>0</v>
       </c>
-      <c r="H102" s="154">
+      <c r="H102" s="119">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I102" s="155">
-        <v>0</v>
-      </c>
-      <c r="J102" s="36"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="85"/>
+      <c r="I102" s="120">
+        <v>0</v>
+      </c>
+      <c r="J102" s="33"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="84"/>
       <c r="O102" s="81"/>
       <c r="P102" s="41"/>
       <c r="Q102" s="41"/>
       <c r="R102" s="41"/>
       <c r="S102" s="90"/>
-      <c r="T102" s="89"/>
-      <c r="U102" s="40"/>
-      <c r="V102" s="40"/>
-      <c r="W102" s="40"/>
-      <c r="X102" s="94"/>
-      <c r="Y102" s="89"/>
-      <c r="Z102" s="40"/>
-      <c r="AA102" s="40"/>
-      <c r="AB102" s="40"/>
-      <c r="AC102" s="94"/>
-      <c r="AD102" s="96"/>
-      <c r="AE102" s="46"/>
-      <c r="AF102" s="46"/>
-      <c r="AG102" s="46"/>
-      <c r="AH102" s="100"/>
-      <c r="AI102" s="89"/>
-      <c r="AJ102" s="40"/>
-      <c r="AK102" s="40"/>
-      <c r="AL102" s="40"/>
-      <c r="AM102" s="94"/>
-      <c r="AN102" s="89"/>
-      <c r="AO102" s="40"/>
-      <c r="AP102" s="40"/>
-      <c r="AQ102" s="40"/>
-      <c r="AR102" s="94"/>
-      <c r="AS102" s="102"/>
-      <c r="AT102" s="47"/>
-      <c r="AU102" s="47"/>
-      <c r="AV102" s="47"/>
-      <c r="AW102" s="104"/>
-      <c r="AX102" s="89"/>
-      <c r="AY102" s="40"/>
-      <c r="AZ102" s="40"/>
-      <c r="BA102" s="40"/>
-      <c r="BB102" s="94"/>
+      <c r="T102" s="88"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="93"/>
+      <c r="Y102" s="88"/>
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="43"/>
+      <c r="AB102" s="43"/>
+      <c r="AC102" s="93"/>
+      <c r="AD102" s="95"/>
+      <c r="AE102" s="44"/>
+      <c r="AF102" s="44"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="98"/>
+      <c r="AI102" s="88"/>
+      <c r="AJ102" s="43"/>
+      <c r="AK102" s="43"/>
+      <c r="AL102" s="43"/>
+      <c r="AM102" s="93"/>
+      <c r="AN102" s="88"/>
+      <c r="AO102" s="43"/>
+      <c r="AP102" s="43"/>
+      <c r="AQ102" s="43"/>
+      <c r="AR102" s="93"/>
+      <c r="AS102" s="101"/>
+      <c r="AT102" s="45"/>
+      <c r="AU102" s="45"/>
+      <c r="AV102" s="45"/>
+      <c r="AW102" s="103"/>
+      <c r="AX102" s="88"/>
+      <c r="AY102" s="43"/>
+      <c r="AZ102" s="43"/>
+      <c r="BA102" s="43"/>
+      <c r="BB102" s="93"/>
       <c r="BC102" s="29"/>
     </row>
     <row r="103" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B103" s="78"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="77" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E103" s="107"/>
       <c r="F103" s="112">
@@ -9744,65 +9776,65 @@
       <c r="G103" s="112">
         <v>0</v>
       </c>
-      <c r="H103" s="154">
-        <f>NETWORKDAYS(F103,G103)</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="155">
-        <v>0</v>
-      </c>
-      <c r="J103" s="36"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="85"/>
+      <c r="H103" s="119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="120">
+        <v>0</v>
+      </c>
+      <c r="J103" s="33"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="84"/>
       <c r="O103" s="81"/>
       <c r="P103" s="41"/>
       <c r="Q103" s="41"/>
       <c r="R103" s="41"/>
       <c r="S103" s="90"/>
-      <c r="T103" s="89"/>
-      <c r="U103" s="40"/>
-      <c r="V103" s="40"/>
-      <c r="W103" s="40"/>
-      <c r="X103" s="94"/>
-      <c r="Y103" s="89"/>
-      <c r="Z103" s="40"/>
-      <c r="AA103" s="40"/>
-      <c r="AB103" s="40"/>
-      <c r="AC103" s="94"/>
-      <c r="AD103" s="96"/>
-      <c r="AE103" s="46"/>
-      <c r="AF103" s="46"/>
-      <c r="AG103" s="46"/>
-      <c r="AH103" s="100"/>
-      <c r="AI103" s="89"/>
-      <c r="AJ103" s="40"/>
-      <c r="AK103" s="40"/>
-      <c r="AL103" s="40"/>
-      <c r="AM103" s="94"/>
-      <c r="AN103" s="89"/>
-      <c r="AO103" s="40"/>
-      <c r="AP103" s="40"/>
-      <c r="AQ103" s="40"/>
-      <c r="AR103" s="94"/>
-      <c r="AS103" s="102"/>
-      <c r="AT103" s="47"/>
-      <c r="AU103" s="47"/>
-      <c r="AV103" s="47"/>
-      <c r="AW103" s="104"/>
-      <c r="AX103" s="89"/>
-      <c r="AY103" s="40"/>
-      <c r="AZ103" s="40"/>
-      <c r="BA103" s="40"/>
-      <c r="BB103" s="94"/>
+      <c r="T103" s="88"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="93"/>
+      <c r="Y103" s="88"/>
+      <c r="Z103" s="43"/>
+      <c r="AA103" s="43"/>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="93"/>
+      <c r="AD103" s="95"/>
+      <c r="AE103" s="44"/>
+      <c r="AF103" s="44"/>
+      <c r="AG103" s="44"/>
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="88"/>
+      <c r="AJ103" s="43"/>
+      <c r="AK103" s="43"/>
+      <c r="AL103" s="43"/>
+      <c r="AM103" s="93"/>
+      <c r="AN103" s="88"/>
+      <c r="AO103" s="43"/>
+      <c r="AP103" s="43"/>
+      <c r="AQ103" s="43"/>
+      <c r="AR103" s="93"/>
+      <c r="AS103" s="101"/>
+      <c r="AT103" s="45"/>
+      <c r="AU103" s="45"/>
+      <c r="AV103" s="45"/>
+      <c r="AW103" s="103"/>
+      <c r="AX103" s="88"/>
+      <c r="AY103" s="43"/>
+      <c r="AZ103" s="43"/>
+      <c r="BA103" s="43"/>
+      <c r="BB103" s="93"/>
       <c r="BC103" s="29"/>
     </row>
     <row r="104" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B104" s="78"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="77" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E104" s="107"/>
       <c r="F104" s="112">
@@ -9811,65 +9843,65 @@
       <c r="G104" s="112">
         <v>0</v>
       </c>
-      <c r="H104" s="154">
+      <c r="H104" s="119">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I104" s="155">
-        <v>0</v>
-      </c>
-      <c r="J104" s="36"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="85"/>
+      <c r="I104" s="120">
+        <v>0</v>
+      </c>
+      <c r="J104" s="33"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="84"/>
       <c r="O104" s="81"/>
       <c r="P104" s="41"/>
       <c r="Q104" s="41"/>
       <c r="R104" s="41"/>
       <c r="S104" s="90"/>
-      <c r="T104" s="89"/>
-      <c r="U104" s="40"/>
-      <c r="V104" s="40"/>
-      <c r="W104" s="40"/>
-      <c r="X104" s="94"/>
-      <c r="Y104" s="89"/>
-      <c r="Z104" s="40"/>
-      <c r="AA104" s="40"/>
-      <c r="AB104" s="40"/>
-      <c r="AC104" s="94"/>
-      <c r="AD104" s="96"/>
-      <c r="AE104" s="46"/>
-      <c r="AF104" s="46"/>
-      <c r="AG104" s="46"/>
-      <c r="AH104" s="100"/>
-      <c r="AI104" s="89"/>
-      <c r="AJ104" s="40"/>
-      <c r="AK104" s="40"/>
-      <c r="AL104" s="40"/>
-      <c r="AM104" s="94"/>
-      <c r="AN104" s="89"/>
-      <c r="AO104" s="40"/>
-      <c r="AP104" s="40"/>
-      <c r="AQ104" s="40"/>
-      <c r="AR104" s="94"/>
-      <c r="AS104" s="102"/>
-      <c r="AT104" s="47"/>
-      <c r="AU104" s="47"/>
-      <c r="AV104" s="47"/>
-      <c r="AW104" s="104"/>
-      <c r="AX104" s="89"/>
-      <c r="AY104" s="40"/>
-      <c r="AZ104" s="40"/>
-      <c r="BA104" s="40"/>
-      <c r="BB104" s="94"/>
+      <c r="T104" s="88"/>
+      <c r="U104" s="43"/>
+      <c r="V104" s="43"/>
+      <c r="W104" s="43"/>
+      <c r="X104" s="93"/>
+      <c r="Y104" s="88"/>
+      <c r="Z104" s="43"/>
+      <c r="AA104" s="43"/>
+      <c r="AB104" s="43"/>
+      <c r="AC104" s="93"/>
+      <c r="AD104" s="95"/>
+      <c r="AE104" s="44"/>
+      <c r="AF104" s="44"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="98"/>
+      <c r="AI104" s="88"/>
+      <c r="AJ104" s="43"/>
+      <c r="AK104" s="43"/>
+      <c r="AL104" s="43"/>
+      <c r="AM104" s="93"/>
+      <c r="AN104" s="88"/>
+      <c r="AO104" s="43"/>
+      <c r="AP104" s="43"/>
+      <c r="AQ104" s="43"/>
+      <c r="AR104" s="93"/>
+      <c r="AS104" s="101"/>
+      <c r="AT104" s="45"/>
+      <c r="AU104" s="45"/>
+      <c r="AV104" s="45"/>
+      <c r="AW104" s="103"/>
+      <c r="AX104" s="88"/>
+      <c r="AY104" s="43"/>
+      <c r="AZ104" s="43"/>
+      <c r="BA104" s="43"/>
+      <c r="BB104" s="93"/>
       <c r="BC104" s="29"/>
     </row>
     <row r="105" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B105" s="78"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="77" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E105" s="107"/>
       <c r="F105" s="112">
@@ -9878,11 +9910,11 @@
       <c r="G105" s="112">
         <v>0</v>
       </c>
-      <c r="H105" s="154">
+      <c r="H105" s="119">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I105" s="155">
+      <c r="I105" s="120">
         <v>0</v>
       </c>
       <c r="J105" s="36"/>
@@ -9933,23 +9965,25 @@
       <c r="BC105" s="29"/>
     </row>
     <row r="106" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B106" s="78"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="77" t="s">
-        <v>67</v>
-      </c>
+      <c r="B106" s="30">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="77"/>
       <c r="E106" s="107"/>
       <c r="F106" s="112">
-        <v>0</v>
-      </c>
-      <c r="G106" s="112">
-        <v>0</v>
-      </c>
-      <c r="H106" s="154">
+        <v>45573</v>
+      </c>
+      <c r="G106" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="119" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="155">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I106" s="120">
         <v>0</v>
       </c>
       <c r="J106" s="36"/>
@@ -10000,25 +10034,25 @@
       <c r="BC106" s="29"/>
     </row>
     <row r="107" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B107" s="111">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="107"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="F107" s="112">
-        <v>0</v>
-      </c>
-      <c r="G107" s="112">
-        <v>0</v>
-      </c>
-      <c r="H107" s="154">
+        <v>45573</v>
+      </c>
+      <c r="G107" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H107" s="119" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="155">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I107" s="120">
         <v>0</v>
       </c>
       <c r="J107" s="36"/>
@@ -10032,7 +10066,7 @@
       <c r="R107" s="41"/>
       <c r="S107" s="90"/>
       <c r="T107" s="89"/>
-      <c r="U107" s="40"/>
+      <c r="U107" s="121"/>
       <c r="V107" s="40"/>
       <c r="W107" s="40"/>
       <c r="X107" s="94"/>
@@ -10069,23 +10103,25 @@
       <c r="BC107" s="29"/>
     </row>
     <row r="108" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B108" s="30"/>
+      <c r="B108" s="78"/>
       <c r="C108" s="31"/>
       <c r="D108" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E108" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="E108" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="F108" s="112">
-        <v>0</v>
-      </c>
-      <c r="G108" s="112">
-        <v>0</v>
-      </c>
-      <c r="H108" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="155">
+        <v>45573</v>
+      </c>
+      <c r="G108" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H108" s="119" t="e">
+        <f t="shared" ref="H108:H121" si="7">NETWORKDAYS(F108,G108)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I108" s="120">
         <v>0</v>
       </c>
       <c r="J108" s="36"/>
@@ -10099,7 +10135,7 @@
       <c r="R108" s="41"/>
       <c r="S108" s="90"/>
       <c r="T108" s="89"/>
-      <c r="U108" s="40"/>
+      <c r="U108" s="121"/>
       <c r="V108" s="40"/>
       <c r="W108" s="40"/>
       <c r="X108" s="94"/>
@@ -10139,20 +10175,22 @@
       <c r="B109" s="78"/>
       <c r="C109" s="31"/>
       <c r="D109" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="107"/>
+        <v>63</v>
+      </c>
+      <c r="E109" s="107" t="s">
+        <v>86</v>
+      </c>
       <c r="F109" s="112">
-        <v>0</v>
-      </c>
-      <c r="G109" s="112">
-        <v>0</v>
-      </c>
-      <c r="H109" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="155">
+        <v>45573</v>
+      </c>
+      <c r="G109" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I109" s="120">
         <v>0</v>
       </c>
       <c r="J109" s="36"/>
@@ -10166,7 +10204,7 @@
       <c r="R109" s="41"/>
       <c r="S109" s="90"/>
       <c r="T109" s="89"/>
-      <c r="U109" s="40"/>
+      <c r="U109" s="121"/>
       <c r="V109" s="40"/>
       <c r="W109" s="40"/>
       <c r="X109" s="94"/>
@@ -10203,11 +10241,13 @@
       <c r="BC109" s="29"/>
     </row>
     <row r="110" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B110" s="78"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="77" t="s">
-        <v>70</v>
-      </c>
+      <c r="B110" s="111">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110" s="77"/>
       <c r="E110" s="107"/>
       <c r="F110" s="112">
         <v>0</v>
@@ -10215,11 +10255,11 @@
       <c r="G110" s="112">
         <v>0</v>
       </c>
-      <c r="H110" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="155">
+      <c r="H110" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="120">
         <v>0</v>
       </c>
       <c r="J110" s="36"/>
@@ -10270,25 +10310,23 @@
       <c r="BC110" s="29"/>
     </row>
     <row r="111" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B111" s="78">
-        <v>4.16</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="107"/>
       <c r="F111" s="112">
         <v>0</v>
       </c>
       <c r="G111" s="112">
         <v>0</v>
       </c>
-      <c r="H111" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="155">
+      <c r="H111" s="119">
+        <f>NETWORKDAYS(F111,G111)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="120">
         <v>0</v>
       </c>
       <c r="J111" s="36"/>
@@ -10339,10 +10377,10 @@
       <c r="BC111" s="29"/>
     </row>
     <row r="112" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B112" s="30"/>
+      <c r="B112" s="78"/>
       <c r="C112" s="31"/>
       <c r="D112" s="77" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E112" s="107"/>
       <c r="F112" s="112">
@@ -10351,11 +10389,11 @@
       <c r="G112" s="112">
         <v>0</v>
       </c>
-      <c r="H112" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="155">
+      <c r="H112" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="120">
         <v>0</v>
       </c>
       <c r="J112" s="36"/>
@@ -10406,205 +10444,757 @@
       <c r="BC112" s="29"/>
     </row>
     <row r="113" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B113" s="78">
-        <v>4.17</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="107"/>
       <c r="F113" s="112">
         <v>0</v>
       </c>
       <c r="G113" s="112">
         <v>0</v>
       </c>
-      <c r="H113" s="154">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="155">
-        <v>0</v>
-      </c>
-      <c r="J113" s="33"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="84"/>
+      <c r="H113" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="120">
+        <v>0</v>
+      </c>
+      <c r="J113" s="36"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="85"/>
       <c r="O113" s="81"/>
       <c r="P113" s="41"/>
       <c r="Q113" s="41"/>
       <c r="R113" s="41"/>
       <c r="S113" s="90"/>
-      <c r="T113" s="88"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="43"/>
-      <c r="W113" s="43"/>
-      <c r="X113" s="93"/>
-      <c r="Y113" s="95"/>
-      <c r="Z113" s="44"/>
-      <c r="AA113" s="44"/>
-      <c r="AB113" s="44"/>
-      <c r="AC113" s="98"/>
-      <c r="AD113" s="95"/>
-      <c r="AE113" s="44"/>
-      <c r="AF113" s="44"/>
-      <c r="AG113" s="44"/>
-      <c r="AH113" s="98"/>
-      <c r="AI113" s="95"/>
-      <c r="AJ113" s="44"/>
-      <c r="AK113" s="44"/>
-      <c r="AL113" s="44"/>
-      <c r="AM113" s="98"/>
-      <c r="AN113" s="95"/>
-      <c r="AO113" s="44"/>
-      <c r="AP113" s="44"/>
-      <c r="AQ113" s="44"/>
-      <c r="AR113" s="98"/>
-      <c r="AS113" s="95"/>
-      <c r="AT113" s="44"/>
-      <c r="AU113" s="44"/>
-      <c r="AV113" s="44"/>
-      <c r="AW113" s="98"/>
-      <c r="AX113" s="95"/>
-      <c r="AY113" s="44"/>
-      <c r="AZ113" s="44"/>
-      <c r="BA113" s="44"/>
-      <c r="BB113" s="98"/>
+      <c r="T113" s="89"/>
+      <c r="U113" s="40"/>
+      <c r="V113" s="40"/>
+      <c r="W113" s="40"/>
+      <c r="X113" s="94"/>
+      <c r="Y113" s="89"/>
+      <c r="Z113" s="40"/>
+      <c r="AA113" s="40"/>
+      <c r="AB113" s="40"/>
+      <c r="AC113" s="94"/>
+      <c r="AD113" s="96"/>
+      <c r="AE113" s="46"/>
+      <c r="AF113" s="46"/>
+      <c r="AG113" s="46"/>
+      <c r="AH113" s="100"/>
+      <c r="AI113" s="89"/>
+      <c r="AJ113" s="40"/>
+      <c r="AK113" s="40"/>
+      <c r="AL113" s="40"/>
+      <c r="AM113" s="94"/>
+      <c r="AN113" s="89"/>
+      <c r="AO113" s="40"/>
+      <c r="AP113" s="40"/>
+      <c r="AQ113" s="40"/>
+      <c r="AR113" s="94"/>
+      <c r="AS113" s="102"/>
+      <c r="AT113" s="47"/>
+      <c r="AU113" s="47"/>
+      <c r="AV113" s="47"/>
+      <c r="AW113" s="104"/>
+      <c r="AX113" s="89"/>
+      <c r="AY113" s="40"/>
+      <c r="AZ113" s="40"/>
+      <c r="BA113" s="40"/>
+      <c r="BB113" s="94"/>
       <c r="BC113" s="29"/>
     </row>
-    <row r="114" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B114" s="52">
-        <v>5</v>
-      </c>
-      <c r="C114" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="53"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="55"/>
-      <c r="O114" s="55"/>
-      <c r="P114" s="55"/>
-      <c r="Q114" s="55"/>
-      <c r="R114" s="55"/>
-      <c r="S114" s="55"/>
-      <c r="T114" s="55"/>
-      <c r="U114" s="55"/>
-      <c r="V114" s="55"/>
-      <c r="W114" s="55"/>
-      <c r="X114" s="55"/>
-      <c r="Y114" s="55"/>
-      <c r="Z114" s="55"/>
-      <c r="AA114" s="55"/>
-      <c r="AB114" s="55"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="55"/>
-      <c r="AI114" s="55"/>
-      <c r="AJ114" s="55"/>
-      <c r="AK114" s="55"/>
-      <c r="AL114" s="55"/>
-      <c r="AM114" s="55"/>
-      <c r="AN114" s="55"/>
-      <c r="AO114" s="55"/>
-      <c r="AP114" s="55"/>
-      <c r="AQ114" s="55"/>
-      <c r="AR114" s="55"/>
-      <c r="AS114" s="55"/>
-      <c r="AT114" s="55"/>
-      <c r="AU114" s="55"/>
-      <c r="AV114" s="55"/>
-      <c r="AW114" s="55"/>
-      <c r="AX114" s="55"/>
-      <c r="AY114" s="55"/>
-      <c r="AZ114" s="55"/>
-      <c r="BA114" s="55"/>
-      <c r="BB114" s="55"/>
-      <c r="BC114" s="51"/>
-    </row>
-    <row r="115" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B115" s="69">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C115" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="79"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="66">
-        <v>45564</v>
-      </c>
-      <c r="G115" s="66">
-        <v>45394</v>
-      </c>
-      <c r="H115" s="67">
-        <f>NETWORKDAYS(F115,G115)</f>
-        <v>-121</v>
-      </c>
-      <c r="I115" s="68">
-        <v>1</v>
-      </c>
-      <c r="J115" s="33"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="84"/>
+    <row r="114" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B114" s="78"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="107"/>
+      <c r="F114" s="112">
+        <v>0</v>
+      </c>
+      <c r="G114" s="112">
+        <v>0</v>
+      </c>
+      <c r="H114" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="120">
+        <v>0</v>
+      </c>
+      <c r="J114" s="36"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="85"/>
+      <c r="O114" s="81"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="90"/>
+      <c r="T114" s="89"/>
+      <c r="U114" s="40"/>
+      <c r="V114" s="40"/>
+      <c r="W114" s="40"/>
+      <c r="X114" s="94"/>
+      <c r="Y114" s="89"/>
+      <c r="Z114" s="40"/>
+      <c r="AA114" s="40"/>
+      <c r="AB114" s="40"/>
+      <c r="AC114" s="94"/>
+      <c r="AD114" s="96"/>
+      <c r="AE114" s="46"/>
+      <c r="AF114" s="46"/>
+      <c r="AG114" s="46"/>
+      <c r="AH114" s="100"/>
+      <c r="AI114" s="89"/>
+      <c r="AJ114" s="40"/>
+      <c r="AK114" s="40"/>
+      <c r="AL114" s="40"/>
+      <c r="AM114" s="94"/>
+      <c r="AN114" s="89"/>
+      <c r="AO114" s="40"/>
+      <c r="AP114" s="40"/>
+      <c r="AQ114" s="40"/>
+      <c r="AR114" s="94"/>
+      <c r="AS114" s="102"/>
+      <c r="AT114" s="47"/>
+      <c r="AU114" s="47"/>
+      <c r="AV114" s="47"/>
+      <c r="AW114" s="104"/>
+      <c r="AX114" s="89"/>
+      <c r="AY114" s="40"/>
+      <c r="AZ114" s="40"/>
+      <c r="BA114" s="40"/>
+      <c r="BB114" s="94"/>
+      <c r="BC114" s="29"/>
+    </row>
+    <row r="115" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B115" s="78">
+        <v>4.16</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="77"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="112">
+        <v>0</v>
+      </c>
+      <c r="G115" s="112">
+        <v>0</v>
+      </c>
+      <c r="H115" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="120">
+        <v>0</v>
+      </c>
+      <c r="J115" s="36"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="85"/>
       <c r="O115" s="81"/>
       <c r="P115" s="41"/>
       <c r="Q115" s="41"/>
       <c r="R115" s="41"/>
       <c r="S115" s="90"/>
-      <c r="T115" s="88"/>
-      <c r="U115" s="43"/>
-      <c r="V115" s="43"/>
-      <c r="W115" s="43"/>
-      <c r="X115" s="93"/>
-      <c r="Y115" s="88"/>
-      <c r="Z115" s="43"/>
-      <c r="AA115" s="43"/>
-      <c r="AB115" s="43"/>
-      <c r="AC115" s="93"/>
-      <c r="AD115" s="95"/>
-      <c r="AE115" s="44"/>
-      <c r="AF115" s="44"/>
-      <c r="AG115" s="44"/>
-      <c r="AH115" s="98"/>
-      <c r="AI115" s="88"/>
-      <c r="AJ115" s="43"/>
-      <c r="AK115" s="43"/>
-      <c r="AL115" s="43"/>
-      <c r="AM115" s="43"/>
-      <c r="AN115" s="43"/>
-      <c r="AO115" s="43"/>
-      <c r="AP115" s="43"/>
-      <c r="AQ115" s="43"/>
-      <c r="AR115" s="43"/>
-      <c r="AS115" s="43"/>
-      <c r="AT115" s="43"/>
-      <c r="AU115" s="43"/>
-      <c r="AV115" s="43"/>
-      <c r="AW115" s="43"/>
-      <c r="AX115" s="43"/>
-      <c r="AY115" s="43"/>
-      <c r="AZ115" s="43"/>
-      <c r="BA115" s="43"/>
-      <c r="BB115" s="43"/>
+      <c r="T115" s="89"/>
+      <c r="U115" s="40"/>
+      <c r="V115" s="40"/>
+      <c r="W115" s="40"/>
+      <c r="X115" s="94"/>
+      <c r="Y115" s="89"/>
+      <c r="Z115" s="40"/>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+      <c r="AC115" s="94"/>
+      <c r="AD115" s="96"/>
+      <c r="AE115" s="46"/>
+      <c r="AF115" s="46"/>
+      <c r="AG115" s="46"/>
+      <c r="AH115" s="100"/>
+      <c r="AI115" s="89"/>
+      <c r="AJ115" s="40"/>
+      <c r="AK115" s="40"/>
+      <c r="AL115" s="40"/>
+      <c r="AM115" s="94"/>
+      <c r="AN115" s="89"/>
+      <c r="AO115" s="40"/>
+      <c r="AP115" s="40"/>
+      <c r="AQ115" s="40"/>
+      <c r="AR115" s="94"/>
+      <c r="AS115" s="102"/>
+      <c r="AT115" s="47"/>
+      <c r="AU115" s="47"/>
+      <c r="AV115" s="47"/>
+      <c r="AW115" s="104"/>
+      <c r="AX115" s="89"/>
+      <c r="AY115" s="40"/>
+      <c r="AZ115" s="40"/>
+      <c r="BA115" s="40"/>
+      <c r="BB115" s="94"/>
       <c r="BC115" s="29"/>
+    </row>
+    <row r="116" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" s="107"/>
+      <c r="F116" s="112">
+        <v>0</v>
+      </c>
+      <c r="G116" s="112">
+        <v>0</v>
+      </c>
+      <c r="H116" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="120">
+        <v>0</v>
+      </c>
+      <c r="J116" s="36"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="85"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="41"/>
+      <c r="S116" s="90"/>
+      <c r="T116" s="89"/>
+      <c r="U116" s="40"/>
+      <c r="V116" s="40"/>
+      <c r="W116" s="40"/>
+      <c r="X116" s="94"/>
+      <c r="Y116" s="89"/>
+      <c r="Z116" s="40"/>
+      <c r="AA116" s="40"/>
+      <c r="AB116" s="40"/>
+      <c r="AC116" s="94"/>
+      <c r="AD116" s="96"/>
+      <c r="AE116" s="46"/>
+      <c r="AF116" s="46"/>
+      <c r="AG116" s="46"/>
+      <c r="AH116" s="100"/>
+      <c r="AI116" s="89"/>
+      <c r="AJ116" s="40"/>
+      <c r="AK116" s="40"/>
+      <c r="AL116" s="40"/>
+      <c r="AM116" s="94"/>
+      <c r="AN116" s="89"/>
+      <c r="AO116" s="40"/>
+      <c r="AP116" s="40"/>
+      <c r="AQ116" s="40"/>
+      <c r="AR116" s="94"/>
+      <c r="AS116" s="102"/>
+      <c r="AT116" s="47"/>
+      <c r="AU116" s="47"/>
+      <c r="AV116" s="47"/>
+      <c r="AW116" s="104"/>
+      <c r="AX116" s="89"/>
+      <c r="AY116" s="40"/>
+      <c r="AZ116" s="40"/>
+      <c r="BA116" s="40"/>
+      <c r="BB116" s="94"/>
+      <c r="BC116" s="29"/>
+    </row>
+    <row r="117" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B117" s="78"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="107"/>
+      <c r="F117" s="112">
+        <v>0</v>
+      </c>
+      <c r="G117" s="112">
+        <v>0</v>
+      </c>
+      <c r="H117" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="120">
+        <v>0</v>
+      </c>
+      <c r="J117" s="36"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="85"/>
+      <c r="O117" s="81"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="90"/>
+      <c r="T117" s="89"/>
+      <c r="U117" s="40"/>
+      <c r="V117" s="40"/>
+      <c r="W117" s="40"/>
+      <c r="X117" s="94"/>
+      <c r="Y117" s="89"/>
+      <c r="Z117" s="40"/>
+      <c r="AA117" s="40"/>
+      <c r="AB117" s="40"/>
+      <c r="AC117" s="94"/>
+      <c r="AD117" s="96"/>
+      <c r="AE117" s="46"/>
+      <c r="AF117" s="46"/>
+      <c r="AG117" s="46"/>
+      <c r="AH117" s="100"/>
+      <c r="AI117" s="89"/>
+      <c r="AJ117" s="40"/>
+      <c r="AK117" s="40"/>
+      <c r="AL117" s="40"/>
+      <c r="AM117" s="94"/>
+      <c r="AN117" s="89"/>
+      <c r="AO117" s="40"/>
+      <c r="AP117" s="40"/>
+      <c r="AQ117" s="40"/>
+      <c r="AR117" s="94"/>
+      <c r="AS117" s="102"/>
+      <c r="AT117" s="47"/>
+      <c r="AU117" s="47"/>
+      <c r="AV117" s="47"/>
+      <c r="AW117" s="104"/>
+      <c r="AX117" s="89"/>
+      <c r="AY117" s="40"/>
+      <c r="AZ117" s="40"/>
+      <c r="BA117" s="40"/>
+      <c r="BB117" s="94"/>
+      <c r="BC117" s="29"/>
+    </row>
+    <row r="118" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B118" s="78"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E118" s="107"/>
+      <c r="F118" s="112">
+        <v>0</v>
+      </c>
+      <c r="G118" s="112">
+        <v>0</v>
+      </c>
+      <c r="H118" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="120">
+        <v>0</v>
+      </c>
+      <c r="J118" s="36"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="85"/>
+      <c r="O118" s="81"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="41"/>
+      <c r="S118" s="90"/>
+      <c r="T118" s="89"/>
+      <c r="U118" s="40"/>
+      <c r="V118" s="40"/>
+      <c r="W118" s="40"/>
+      <c r="X118" s="94"/>
+      <c r="Y118" s="89"/>
+      <c r="Z118" s="40"/>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+      <c r="AC118" s="94"/>
+      <c r="AD118" s="96"/>
+      <c r="AE118" s="46"/>
+      <c r="AF118" s="46"/>
+      <c r="AG118" s="46"/>
+      <c r="AH118" s="100"/>
+      <c r="AI118" s="89"/>
+      <c r="AJ118" s="40"/>
+      <c r="AK118" s="40"/>
+      <c r="AL118" s="40"/>
+      <c r="AM118" s="94"/>
+      <c r="AN118" s="89"/>
+      <c r="AO118" s="40"/>
+      <c r="AP118" s="40"/>
+      <c r="AQ118" s="40"/>
+      <c r="AR118" s="94"/>
+      <c r="AS118" s="102"/>
+      <c r="AT118" s="47"/>
+      <c r="AU118" s="47"/>
+      <c r="AV118" s="47"/>
+      <c r="AW118" s="104"/>
+      <c r="AX118" s="89"/>
+      <c r="AY118" s="40"/>
+      <c r="AZ118" s="40"/>
+      <c r="BA118" s="40"/>
+      <c r="BB118" s="94"/>
+      <c r="BC118" s="29"/>
+    </row>
+    <row r="119" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B119" s="78">
+        <v>4.17</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="112">
+        <v>0</v>
+      </c>
+      <c r="G119" s="112">
+        <v>0</v>
+      </c>
+      <c r="H119" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="120">
+        <v>0</v>
+      </c>
+      <c r="J119" s="36"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="85"/>
+      <c r="O119" s="81"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="41"/>
+      <c r="S119" s="90"/>
+      <c r="T119" s="89"/>
+      <c r="U119" s="40"/>
+      <c r="V119" s="40"/>
+      <c r="W119" s="40"/>
+      <c r="X119" s="94"/>
+      <c r="Y119" s="89"/>
+      <c r="Z119" s="40"/>
+      <c r="AA119" s="40"/>
+      <c r="AB119" s="40"/>
+      <c r="AC119" s="94"/>
+      <c r="AD119" s="96"/>
+      <c r="AE119" s="46"/>
+      <c r="AF119" s="46"/>
+      <c r="AG119" s="46"/>
+      <c r="AH119" s="100"/>
+      <c r="AI119" s="89"/>
+      <c r="AJ119" s="40"/>
+      <c r="AK119" s="40"/>
+      <c r="AL119" s="40"/>
+      <c r="AM119" s="94"/>
+      <c r="AN119" s="89"/>
+      <c r="AO119" s="40"/>
+      <c r="AP119" s="40"/>
+      <c r="AQ119" s="40"/>
+      <c r="AR119" s="94"/>
+      <c r="AS119" s="102"/>
+      <c r="AT119" s="47"/>
+      <c r="AU119" s="47"/>
+      <c r="AV119" s="47"/>
+      <c r="AW119" s="104"/>
+      <c r="AX119" s="89"/>
+      <c r="AY119" s="40"/>
+      <c r="AZ119" s="40"/>
+      <c r="BA119" s="40"/>
+      <c r="BB119" s="94"/>
+      <c r="BC119" s="29"/>
+    </row>
+    <row r="120" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B120" s="30"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="107"/>
+      <c r="F120" s="112">
+        <v>0</v>
+      </c>
+      <c r="G120" s="112">
+        <v>0</v>
+      </c>
+      <c r="H120" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="36"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="85"/>
+      <c r="O120" s="81"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="41"/>
+      <c r="S120" s="90"/>
+      <c r="T120" s="89"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="94"/>
+      <c r="Y120" s="89"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="94"/>
+      <c r="AD120" s="96"/>
+      <c r="AE120" s="46"/>
+      <c r="AF120" s="46"/>
+      <c r="AG120" s="46"/>
+      <c r="AH120" s="100"/>
+      <c r="AI120" s="89"/>
+      <c r="AJ120" s="40"/>
+      <c r="AK120" s="40"/>
+      <c r="AL120" s="40"/>
+      <c r="AM120" s="94"/>
+      <c r="AN120" s="89"/>
+      <c r="AO120" s="40"/>
+      <c r="AP120" s="40"/>
+      <c r="AQ120" s="40"/>
+      <c r="AR120" s="94"/>
+      <c r="AS120" s="102"/>
+      <c r="AT120" s="47"/>
+      <c r="AU120" s="47"/>
+      <c r="AV120" s="47"/>
+      <c r="AW120" s="104"/>
+      <c r="AX120" s="89"/>
+      <c r="AY120" s="40"/>
+      <c r="AZ120" s="40"/>
+      <c r="BA120" s="40"/>
+      <c r="BB120" s="94"/>
+      <c r="BC120" s="29"/>
+    </row>
+    <row r="121" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B121" s="78">
+        <v>4.17</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="112">
+        <v>0</v>
+      </c>
+      <c r="G121" s="112">
+        <v>0</v>
+      </c>
+      <c r="H121" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="120">
+        <v>0</v>
+      </c>
+      <c r="J121" s="33"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="84"/>
+      <c r="O121" s="81"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
+      <c r="R121" s="41"/>
+      <c r="S121" s="90"/>
+      <c r="T121" s="88"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
+      <c r="X121" s="93"/>
+      <c r="Y121" s="95"/>
+      <c r="Z121" s="44"/>
+      <c r="AA121" s="44"/>
+      <c r="AB121" s="44"/>
+      <c r="AC121" s="98"/>
+      <c r="AD121" s="95"/>
+      <c r="AE121" s="44"/>
+      <c r="AF121" s="44"/>
+      <c r="AG121" s="44"/>
+      <c r="AH121" s="98"/>
+      <c r="AI121" s="95"/>
+      <c r="AJ121" s="44"/>
+      <c r="AK121" s="44"/>
+      <c r="AL121" s="44"/>
+      <c r="AM121" s="98"/>
+      <c r="AN121" s="95"/>
+      <c r="AO121" s="44"/>
+      <c r="AP121" s="44"/>
+      <c r="AQ121" s="44"/>
+      <c r="AR121" s="98"/>
+      <c r="AS121" s="95"/>
+      <c r="AT121" s="44"/>
+      <c r="AU121" s="44"/>
+      <c r="AV121" s="44"/>
+      <c r="AW121" s="98"/>
+      <c r="AX121" s="95"/>
+      <c r="AY121" s="44"/>
+      <c r="AZ121" s="44"/>
+      <c r="BA121" s="44"/>
+      <c r="BB121" s="98"/>
+      <c r="BC121" s="29"/>
+    </row>
+    <row r="122" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B122" s="52">
+        <v>5</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="53"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="57"/>
+      <c r="M122" s="57"/>
+      <c r="N122" s="55"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="55"/>
+      <c r="Q122" s="55"/>
+      <c r="R122" s="55"/>
+      <c r="S122" s="55"/>
+      <c r="T122" s="55"/>
+      <c r="U122" s="55"/>
+      <c r="V122" s="55"/>
+      <c r="W122" s="55"/>
+      <c r="X122" s="55"/>
+      <c r="Y122" s="55"/>
+      <c r="Z122" s="55"/>
+      <c r="AA122" s="55"/>
+      <c r="AB122" s="55"/>
+      <c r="AC122" s="55"/>
+      <c r="AD122" s="55"/>
+      <c r="AE122" s="55"/>
+      <c r="AF122" s="55"/>
+      <c r="AG122" s="55"/>
+      <c r="AH122" s="55"/>
+      <c r="AI122" s="55"/>
+      <c r="AJ122" s="55"/>
+      <c r="AK122" s="55"/>
+      <c r="AL122" s="55"/>
+      <c r="AM122" s="55"/>
+      <c r="AN122" s="55"/>
+      <c r="AO122" s="55"/>
+      <c r="AP122" s="55"/>
+      <c r="AQ122" s="55"/>
+      <c r="AR122" s="55"/>
+      <c r="AS122" s="55"/>
+      <c r="AT122" s="55"/>
+      <c r="AU122" s="55"/>
+      <c r="AV122" s="55"/>
+      <c r="AW122" s="55"/>
+      <c r="AX122" s="55"/>
+      <c r="AY122" s="55"/>
+      <c r="AZ122" s="55"/>
+      <c r="BA122" s="55"/>
+      <c r="BB122" s="55"/>
+      <c r="BC122" s="51"/>
+    </row>
+    <row r="123" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B123" s="69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C123" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="79"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="66">
+        <v>45564</v>
+      </c>
+      <c r="G123" s="66">
+        <v>45394</v>
+      </c>
+      <c r="H123" s="67">
+        <f>NETWORKDAYS(F123,G123)</f>
+        <v>-121</v>
+      </c>
+      <c r="I123" s="68">
+        <v>1</v>
+      </c>
+      <c r="J123" s="33"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="84"/>
+      <c r="O123" s="81"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="90"/>
+      <c r="T123" s="88"/>
+      <c r="U123" s="43"/>
+      <c r="V123" s="43"/>
+      <c r="W123" s="43"/>
+      <c r="X123" s="93"/>
+      <c r="Y123" s="88"/>
+      <c r="Z123" s="43"/>
+      <c r="AA123" s="43"/>
+      <c r="AB123" s="43"/>
+      <c r="AC123" s="93"/>
+      <c r="AD123" s="95"/>
+      <c r="AE123" s="44"/>
+      <c r="AF123" s="44"/>
+      <c r="AG123" s="44"/>
+      <c r="AH123" s="98"/>
+      <c r="AI123" s="88"/>
+      <c r="AJ123" s="43"/>
+      <c r="AK123" s="43"/>
+      <c r="AL123" s="43"/>
+      <c r="AM123" s="43"/>
+      <c r="AN123" s="43"/>
+      <c r="AO123" s="43"/>
+      <c r="AP123" s="43"/>
+      <c r="AQ123" s="43"/>
+      <c r="AR123" s="43"/>
+      <c r="AS123" s="43"/>
+      <c r="AT123" s="43"/>
+      <c r="AU123" s="43"/>
+      <c r="AV123" s="43"/>
+      <c r="AW123" s="43"/>
+      <c r="AX123" s="43"/>
+      <c r="AY123" s="43"/>
+      <c r="AZ123" s="43"/>
+      <c r="BA123" s="43"/>
+      <c r="BB123" s="43"/>
+      <c r="BC123" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -10621,18 +11211,6 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC86FE5-B4E9-4A96-A3E8-4698D82870F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$123</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1290,11 +1289,15 @@
     <t>주소 무결성 검사</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
@@ -2341,66 +2344,20 @@
     <xf numFmtId="0" fontId="42" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2425,6 +2382,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2440,7 +2401,49 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2470,9 +2473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2510,9 +2513,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2547,7 +2550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2582,7 +2585,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2755,15 +2758,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:BC123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2837,40 +2840,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2951,41 +2954,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="157" t="s">
+      <c r="C4" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="155" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3015,40 +3018,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="127" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="153">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="139">
         <v>45611</v>
       </c>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="138"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3190,160 +3193,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="J8" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="134" t="s">
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134" t="s">
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="138" t="s">
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="142" t="s">
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
-      <c r="AI8" s="142" t="s">
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="142"/>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="142"/>
-      <c r="AM8" s="144"/>
-      <c r="AN8" s="146" t="s">
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="127"/>
+      <c r="AN8" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="147"/>
-      <c r="AP8" s="147"/>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="123" t="s">
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="123"/>
-      <c r="AV8" s="123"/>
-      <c r="AW8" s="123"/>
-      <c r="AX8" s="123" t="s">
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="144"/>
+      <c r="AV8" s="144"/>
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="123"/>
-      <c r="AZ8" s="123"/>
-      <c r="BA8" s="123"/>
-      <c r="BB8" s="123"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="144"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="144"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="143"/>
-      <c r="AK9" s="143"/>
-      <c r="AL9" s="143"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="149"/>
-      <c r="AQ9" s="149"/>
-      <c r="AR9" s="149"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
-      <c r="AX9" s="124"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
-      <c r="BB9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="132"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="145"/>
+      <c r="BA9" s="145"/>
+      <c r="BB9" s="145"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>53</v>
       </c>
       <c r="E64" s="107" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="F64" s="112">
         <v>45575</v>
@@ -8221,9 +8224,9 @@
       <c r="P80" s="41"/>
       <c r="Q80" s="41"/>
       <c r="R80" s="41"/>
-      <c r="S80" s="158"/>
-      <c r="T80" s="158"/>
-      <c r="U80" s="158"/>
+      <c r="S80" s="123"/>
+      <c r="T80" s="123"/>
+      <c r="U80" s="123"/>
       <c r="V80" s="43"/>
       <c r="W80" s="121"/>
       <c r="X80" s="122"/>
@@ -8290,9 +8293,9 @@
       <c r="P81" s="41"/>
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
-      <c r="S81" s="158"/>
-      <c r="T81" s="158"/>
-      <c r="U81" s="158"/>
+      <c r="S81" s="123"/>
+      <c r="T81" s="123"/>
+      <c r="U81" s="123"/>
       <c r="V81" s="43"/>
       <c r="W81" s="121"/>
       <c r="X81" s="122"/>
@@ -8749,7 +8752,7 @@
         <v>135</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F88" s="112">
         <v>45576</v>
@@ -11183,18 +11186,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11211,6 +11202,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="164">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1291,6 +1291,14 @@
   </si>
   <si>
     <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2347,17 +2355,66 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,10 +2439,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2400,51 +2453,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2765,8 +2773,8 @@
   </sheetPr>
   <dimension ref="B1:BC123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2840,40 +2848,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2954,41 +2962,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="143" t="s">
+      <c r="C4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="140" t="s">
+      <c r="J4" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="141" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3018,40 +3026,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="146" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="139">
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="154">
         <v>45611</v>
       </c>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="138"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3193,160 +3201,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="124" t="s">
+      <c r="I8" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="151" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151" t="s">
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="155" t="s">
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="126" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126" t="s">
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="130" t="s">
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="143"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="131"/>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="131"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="144" t="s">
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="148"/>
+      <c r="AR8" s="148"/>
+      <c r="AS8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144" t="s">
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="144"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+      <c r="BB8" s="124"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="132"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="133"/>
-      <c r="AR9" s="133"/>
-      <c r="AS9" s="145"/>
-      <c r="AT9" s="145"/>
-      <c r="AU9" s="145"/>
-      <c r="AV9" s="145"/>
-      <c r="AW9" s="145"/>
-      <c r="AX9" s="145"/>
-      <c r="AY9" s="145"/>
-      <c r="AZ9" s="145"/>
-      <c r="BA9" s="145"/>
-      <c r="BB9" s="145"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="149"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
+      <c r="AQ9" s="150"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="125"/>
+      <c r="AU9" s="125"/>
+      <c r="AV9" s="125"/>
+      <c r="AW9" s="125"/>
+      <c r="AX9" s="125"/>
+      <c r="AY9" s="125"/>
+      <c r="AZ9" s="125"/>
+      <c r="BA9" s="125"/>
+      <c r="BB9" s="125"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4847,7 +4855,9 @@
       <c r="D31" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="107"/>
+      <c r="E31" s="107" t="s">
+        <v>163</v>
+      </c>
       <c r="F31" s="112">
         <v>0</v>
       </c>
@@ -4914,7 +4924,9 @@
       <c r="D32" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="107"/>
+      <c r="E32" s="107" t="s">
+        <v>162</v>
+      </c>
       <c r="F32" s="112">
         <v>0</v>
       </c>
@@ -11186,6 +11198,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11202,18 +11226,6 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1083,222 +1083,254 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구성도</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 확인/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Css/Js/Common Include화</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 무결성 검사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 이력</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 고정 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 게시판</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 수량 조절</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매(결제)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 Q&amp;A</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관 상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 입력 항목</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 값 체크</t>
+  </si>
+  <si>
+    <t>회원 상태 변경</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS 마케팅 동의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 회원 확인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900-01-00</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARS 전화주문</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상세 내역</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 무결성 검사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민, 박지수, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <t>이청민</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 구성도</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 확인/수정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 Css/Js/Common Include화</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 무결성 검사</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 이력</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 조회</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 고정 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 게시판</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 선택</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 수량 조절</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매(결제)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 수단 선택</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 리뷰</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 Q&amp;A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 담기</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관 상품</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>새소식</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>성분 사전</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 가입 입력 항목</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 값 체크</t>
-  </si>
-  <si>
-    <t>회원 상태 변경</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS 마케팅 동의</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 회원 확인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 저장</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900-01-00</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARS 전화주문</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>신상품</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 삭제</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상세 내역</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 무결성 검사</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2355,66 +2387,17 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2439,6 +2422,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2453,6 +2440,51 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2774,7 +2806,7 @@
   <dimension ref="B1:BC123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2848,40 +2880,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2962,41 +2994,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="158" t="s">
+      <c r="C4" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="156" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3026,40 +3058,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="128" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="154">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="139">
         <v>45611</v>
       </c>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="138"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3201,160 +3233,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H8" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="126" t="s">
+      <c r="I8" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="135" t="s">
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135" t="s">
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="135"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="139" t="s">
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="143" t="s">
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143" t="s">
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="143"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="147" t="s">
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="127"/>
+      <c r="AN8" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="124" t="s">
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124" t="s">
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="144"/>
+      <c r="AV8" s="144"/>
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="144"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="144"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="144"/>
-      <c r="AJ9" s="144"/>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="125"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="125"/>
-      <c r="AW9" s="125"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="125"/>
-      <c r="AZ9" s="125"/>
-      <c r="BA9" s="125"/>
-      <c r="BB9" s="125"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="132"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="145"/>
+      <c r="BA9" s="145"/>
+      <c r="BB9" s="145"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4245,7 +4277,7 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="77" t="s">
@@ -4585,7 +4617,7 @@
       <c r="B27" s="30"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="107" t="s">
         <v>49</v>
@@ -4598,7 +4630,7 @@
       </c>
       <c r="H27" s="119"/>
       <c r="I27" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="34"/>
@@ -4652,7 +4684,7 @@
         <v>4.2</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="107"/>
@@ -4660,11 +4692,11 @@
         <v>45565</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="119"/>
       <c r="I28" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4672,21 +4704,21 @@
       <c r="M28" s="35"/>
       <c r="N28" s="84"/>
       <c r="O28" s="114"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
       <c r="R28" s="41"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="43"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="95"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="114"/>
+      <c r="AA28" s="114"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="114"/>
+      <c r="AD28" s="114"/>
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44"/>
@@ -4717,7 +4749,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="77"/>
       <c r="D29" s="77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="112">
@@ -4784,10 +4816,10 @@
       <c r="B30" s="30"/>
       <c r="C30" s="77"/>
       <c r="D30" s="77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F30" s="112">
         <v>45565</v>
@@ -4853,23 +4885,23 @@
       <c r="B31" s="30"/>
       <c r="C31" s="77"/>
       <c r="D31" s="77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="112">
-        <v>0</v>
-      </c>
-      <c r="G31" s="112">
-        <v>0</v>
-      </c>
-      <c r="H31" s="119">
+        <v>45582</v>
+      </c>
+      <c r="G31" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="119" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
@@ -4884,14 +4916,14 @@
       <c r="T31" s="88"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="95"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
       <c r="AG31" s="44"/>
@@ -4922,23 +4954,23 @@
       <c r="B32" s="30"/>
       <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="112">
-        <v>0</v>
-      </c>
-      <c r="G32" s="112">
-        <v>0</v>
-      </c>
-      <c r="H32" s="119">
+        <v>45582</v>
+      </c>
+      <c r="G32" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="119" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="34"/>
@@ -4953,14 +4985,14 @@
       <c r="T32" s="88"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="95"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
       <c r="AG32" s="44"/>
@@ -5016,10 +5048,10 @@
       <c r="N33" s="84"/>
       <c r="O33" s="81"/>
       <c r="P33" s="113"/>
-      <c r="Q33" s="41"/>
+      <c r="Q33" s="113"/>
       <c r="R33" s="41"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="88"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
       <c r="W33" s="43"/>
@@ -5060,7 +5092,7 @@
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E34" s="105" t="s">
         <v>104</v>
@@ -5129,7 +5161,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E35" s="105" t="s">
         <v>104</v>
@@ -5198,7 +5230,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="105" t="s">
         <v>104</v>
@@ -5279,7 +5311,7 @@
         <v>45569</v>
       </c>
       <c r="H37" s="119">
-        <f t="shared" ref="H37" si="5">NETWORKDAYS(F37,G37)</f>
+        <f t="shared" ref="H37:H38" si="5">NETWORKDAYS(F37,G37)</f>
         <v>4</v>
       </c>
       <c r="I37" s="120">
@@ -5336,7 +5368,7 @@
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E38" s="105" t="s">
         <v>104</v>
@@ -5347,8 +5379,13 @@
       <c r="G38" s="112">
         <v>45569</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="120"/>
+      <c r="H38" s="119">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I38" s="120">
+        <v>1</v>
+      </c>
       <c r="J38" s="33"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35"/>
@@ -5400,7 +5437,7 @@
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39" s="105" t="s">
         <v>104</v>
@@ -5469,7 +5506,7 @@
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
       <c r="D40" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="105" t="s">
         <v>104</v>
@@ -5676,7 +5713,7 @@
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" s="105" t="s">
         <v>104</v>
@@ -5745,7 +5782,7 @@
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E44" s="105" t="s">
         <v>104</v>
@@ -5843,10 +5880,10 @@
       <c r="R45" s="41"/>
       <c r="S45" s="90"/>
       <c r="T45" s="113"/>
-      <c r="U45" s="40"/>
+      <c r="U45" s="113"/>
       <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="94"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
       <c r="Y45" s="89"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -5886,7 +5923,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F46" s="112">
         <v>45572</v>
@@ -5955,7 +5992,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47" s="112">
         <v>45572</v>
@@ -6021,10 +6058,10 @@
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F48" s="112">
         <v>45572</v>
@@ -6093,7 +6130,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F49" s="112">
         <v>45572</v>
@@ -6162,7 +6199,7 @@
         <v>79</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F50" s="112">
         <v>45572</v>
@@ -6234,17 +6271,17 @@
       <c r="D51" s="77"/>
       <c r="E51" s="107"/>
       <c r="F51" s="112">
-        <v>0</v>
-      </c>
-      <c r="G51" s="112">
-        <v>0</v>
-      </c>
-      <c r="H51" s="119">
+        <v>45580</v>
+      </c>
+      <c r="G51" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="119" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I51" s="120">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="37"/>
@@ -6262,11 +6299,11 @@
       <c r="W51" s="40"/>
       <c r="X51" s="94"/>
       <c r="Y51" s="89"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="94"/>
-      <c r="AD51" s="96"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="113"/>
+      <c r="AC51" s="113"/>
+      <c r="AD51" s="113"/>
       <c r="AE51" s="46"/>
       <c r="AF51" s="46"/>
       <c r="AG51" s="46"/>
@@ -6297,9 +6334,11 @@
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="107"/>
+        <v>120</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>171</v>
+      </c>
       <c r="F52" s="112">
         <v>0</v>
       </c>
@@ -6364,21 +6403,23 @@
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="107"/>
+        <v>112</v>
+      </c>
+      <c r="E53" s="107" t="s">
+        <v>170</v>
+      </c>
       <c r="F53" s="112">
-        <v>0</v>
+        <v>45580</v>
       </c>
       <c r="G53" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="H53" s="119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="36"/>
       <c r="K53" s="37"/>
@@ -6396,9 +6437,9 @@
       <c r="W53" s="40"/>
       <c r="X53" s="94"/>
       <c r="Y53" s="89"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
+      <c r="Z53" s="113"/>
+      <c r="AA53" s="113"/>
+      <c r="AB53" s="113"/>
       <c r="AC53" s="94"/>
       <c r="AD53" s="96"/>
       <c r="AE53" s="46"/>
@@ -6567,19 +6608,21 @@
       <c r="D56" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="107"/>
+      <c r="E56" s="107" t="s">
+        <v>169</v>
+      </c>
       <c r="F56" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G56" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="H56" s="119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="36"/>
       <c r="K56" s="37"/>
@@ -6599,9 +6642,9 @@
       <c r="Y56" s="89"/>
       <c r="Z56" s="40"/>
       <c r="AA56" s="40"/>
-      <c r="AB56" s="40"/>
-      <c r="AC56" s="94"/>
-      <c r="AD56" s="96"/>
+      <c r="AB56" s="113"/>
+      <c r="AC56" s="113"/>
+      <c r="AD56" s="113"/>
       <c r="AE56" s="46"/>
       <c r="AF56" s="46"/>
       <c r="AG56" s="46"/>
@@ -6634,19 +6677,21 @@
       <c r="D57" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="107"/>
+      <c r="E57" s="107" t="s">
+        <v>168</v>
+      </c>
       <c r="F57" s="112">
-        <v>0</v>
+        <v>45580</v>
       </c>
       <c r="G57" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="H57" s="119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="36"/>
       <c r="K57" s="37"/>
@@ -6664,9 +6709,9 @@
       <c r="W57" s="40"/>
       <c r="X57" s="94"/>
       <c r="Y57" s="89"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="113"/>
       <c r="AC57" s="94"/>
       <c r="AD57" s="96"/>
       <c r="AE57" s="46"/>
@@ -6766,21 +6811,23 @@
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="107"/>
+        <v>166</v>
+      </c>
+      <c r="E59" s="107" t="s">
+        <v>167</v>
+      </c>
       <c r="F59" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G59" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="H59" s="119">
         <f>NETWORKDAYS(F59,G59)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="36"/>
       <c r="K59" s="37"/>
@@ -6800,9 +6847,9 @@
       <c r="Y59" s="89"/>
       <c r="Z59" s="40"/>
       <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-      <c r="AC59" s="94"/>
-      <c r="AD59" s="96"/>
+      <c r="AB59" s="113"/>
+      <c r="AC59" s="113"/>
+      <c r="AD59" s="113"/>
       <c r="AE59" s="46"/>
       <c r="AF59" s="46"/>
       <c r="AG59" s="46"/>
@@ -6833,14 +6880,14 @@
       <c r="B60" s="30"/>
       <c r="C60" s="31"/>
       <c r="D60" s="77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" s="107"/>
       <c r="F60" s="112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H60" s="119" t="e">
         <f>NETWORKDAYS(F60,G60)</f>
@@ -6975,15 +7022,15 @@
       <c r="F62" s="112">
         <v>45575</v>
       </c>
-      <c r="G62" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="119" t="e">
+      <c r="G62" s="112">
+        <v>45581</v>
+      </c>
+      <c r="H62" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I62" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="34"/>
@@ -7000,9 +7047,9 @@
       <c r="V62" s="43"/>
       <c r="W62" s="113"/>
       <c r="X62" s="113"/>
-      <c r="Y62" s="95"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
+      <c r="Y62" s="113"/>
+      <c r="Z62" s="113"/>
+      <c r="AA62" s="113"/>
       <c r="AB62" s="44"/>
       <c r="AC62" s="98"/>
       <c r="AD62" s="95"/>
@@ -7039,20 +7086,20 @@
         <v>82</v>
       </c>
       <c r="E63" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="112">
         <v>45575</v>
       </c>
-      <c r="G63" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="119" t="e">
+      <c r="G63" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H63" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="I63" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="34"/>
@@ -7069,8 +7116,8 @@
       <c r="V63" s="43"/>
       <c r="W63" s="113"/>
       <c r="X63" s="113"/>
-      <c r="Y63" s="95"/>
-      <c r="Z63" s="44"/>
+      <c r="Y63" s="113"/>
+      <c r="Z63" s="113"/>
       <c r="AA63" s="44"/>
       <c r="AB63" s="44"/>
       <c r="AC63" s="98"/>
@@ -7108,20 +7155,20 @@
         <v>53</v>
       </c>
       <c r="E64" s="107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F64" s="112">
         <v>45575</v>
       </c>
-      <c r="G64" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H64" s="119" t="e">
+      <c r="G64" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H64" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I64" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="34"/>
@@ -7138,7 +7185,7 @@
       <c r="V64" s="43"/>
       <c r="W64" s="113"/>
       <c r="X64" s="113"/>
-      <c r="Y64" s="95"/>
+      <c r="Y64" s="113"/>
       <c r="Z64" s="44"/>
       <c r="AA64" s="44"/>
       <c r="AB64" s="44"/>
@@ -7177,20 +7224,20 @@
         <v>54</v>
       </c>
       <c r="E65" s="107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="112">
         <v>45575</v>
       </c>
-      <c r="G65" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H65" s="119" t="e">
+      <c r="G65" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H65" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I65" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="34"/>
@@ -7207,7 +7254,7 @@
       <c r="V65" s="43"/>
       <c r="W65" s="113"/>
       <c r="X65" s="113"/>
-      <c r="Y65" s="95"/>
+      <c r="Y65" s="113"/>
       <c r="Z65" s="44"/>
       <c r="AA65" s="44"/>
       <c r="AB65" s="44"/>
@@ -7246,20 +7293,20 @@
         <v>73</v>
       </c>
       <c r="E66" s="107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F66" s="112">
         <v>45575</v>
       </c>
-      <c r="G66" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="119" t="e">
+      <c r="G66" s="112">
+        <v>45581</v>
+      </c>
+      <c r="H66" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I66" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J66" s="33"/>
       <c r="K66" s="34"/>
@@ -7276,9 +7323,9 @@
       <c r="V66" s="43"/>
       <c r="W66" s="113"/>
       <c r="X66" s="113"/>
-      <c r="Y66" s="96"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="46"/>
+      <c r="Y66" s="113"/>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="113"/>
       <c r="AB66" s="46"/>
       <c r="AC66" s="100"/>
       <c r="AD66" s="96"/>
@@ -7320,15 +7367,15 @@
       <c r="F67" s="112">
         <v>45573</v>
       </c>
-      <c r="G67" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="H67" s="119" t="e">
+      <c r="G67" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H67" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I67" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="34"/>
@@ -7345,11 +7392,11 @@
       <c r="V67" s="43"/>
       <c r="W67" s="113"/>
       <c r="X67" s="113"/>
-      <c r="Y67" s="96"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="100"/>
+      <c r="Y67" s="113"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="113"/>
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="113"/>
       <c r="AD67" s="96"/>
       <c r="AE67" s="46"/>
       <c r="AF67" s="46"/>
@@ -7381,7 +7428,7 @@
       <c r="B68" s="30"/>
       <c r="C68" s="31"/>
       <c r="D68" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" s="107" t="s">
         <v>102</v>
@@ -7450,7 +7497,7 @@
       <c r="B69" s="30"/>
       <c r="C69" s="31"/>
       <c r="D69" s="77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" s="107" t="s">
         <v>100</v>
@@ -7519,7 +7566,7 @@
       <c r="B70" s="30"/>
       <c r="C70" s="31"/>
       <c r="D70" s="77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="107" t="s">
         <v>100</v>
@@ -7588,7 +7635,7 @@
       <c r="B71" s="30"/>
       <c r="C71" s="31"/>
       <c r="D71" s="77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71" s="107" t="s">
         <v>100</v>
@@ -7657,23 +7704,23 @@
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E72" s="107" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F72" s="112">
         <v>45573</v>
       </c>
-      <c r="G72" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H72" s="119" t="e">
+      <c r="G72" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H72" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I72" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="34"/>
@@ -7690,11 +7737,11 @@
       <c r="V72" s="43"/>
       <c r="W72" s="121"/>
       <c r="X72" s="122"/>
-      <c r="Y72" s="95"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
-      <c r="AB72" s="44"/>
-      <c r="AC72" s="98"/>
+      <c r="Y72" s="122"/>
+      <c r="Z72" s="122"/>
+      <c r="AA72" s="122"/>
+      <c r="AB72" s="122"/>
+      <c r="AC72" s="122"/>
       <c r="AD72" s="95"/>
       <c r="AE72" s="44"/>
       <c r="AF72" s="44"/>
@@ -7726,23 +7773,23 @@
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E73" s="107" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F73" s="112">
-        <v>0</v>
+        <v>45573</v>
       </c>
       <c r="G73" s="112">
-        <v>0</v>
+        <v>45583</v>
       </c>
       <c r="H73" s="119">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I73" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="34"/>
@@ -7755,15 +7802,15 @@
       <c r="R73" s="41"/>
       <c r="S73" s="90"/>
       <c r="T73" s="88"/>
-      <c r="U73" s="43"/>
+      <c r="U73" s="122"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="93"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="44"/>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="44"/>
-      <c r="AC73" s="98"/>
+      <c r="W73" s="122"/>
+      <c r="X73" s="122"/>
+      <c r="Y73" s="122"/>
+      <c r="Z73" s="122"/>
+      <c r="AA73" s="122"/>
+      <c r="AB73" s="122"/>
+      <c r="AC73" s="122"/>
       <c r="AD73" s="95"/>
       <c r="AE73" s="44"/>
       <c r="AF73" s="44"/>
@@ -7864,7 +7911,7 @@
       <c r="B75" s="30"/>
       <c r="C75" s="77"/>
       <c r="D75" s="77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E75" s="107" t="s">
         <v>100</v>
@@ -7897,12 +7944,12 @@
       <c r="V75" s="43"/>
       <c r="W75" s="121"/>
       <c r="X75" s="121"/>
-      <c r="Y75" s="96"/>
-      <c r="Z75" s="46"/>
-      <c r="AA75" s="46"/>
-      <c r="AB75" s="46"/>
-      <c r="AC75" s="100"/>
-      <c r="AD75" s="96"/>
+      <c r="Y75" s="121"/>
+      <c r="Z75" s="121"/>
+      <c r="AA75" s="121"/>
+      <c r="AB75" s="121"/>
+      <c r="AC75" s="121"/>
+      <c r="AD75" s="121"/>
       <c r="AE75" s="46"/>
       <c r="AF75" s="46"/>
       <c r="AG75" s="46"/>
@@ -7933,7 +7980,7 @@
       <c r="B76" s="30"/>
       <c r="C76" s="77"/>
       <c r="D76" s="77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E76" s="107" t="s">
         <v>100</v>
@@ -7941,15 +7988,15 @@
       <c r="F76" s="112">
         <v>45572</v>
       </c>
-      <c r="G76" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="119" t="e">
+      <c r="G76" s="112">
+        <v>45581</v>
+      </c>
+      <c r="H76" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="I76" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="34"/>
@@ -7966,9 +8013,9 @@
       <c r="V76" s="43"/>
       <c r="W76" s="121"/>
       <c r="X76" s="121"/>
-      <c r="Y76" s="96"/>
-      <c r="Z76" s="46"/>
-      <c r="AA76" s="46"/>
+      <c r="Y76" s="121"/>
+      <c r="Z76" s="121"/>
+      <c r="AA76" s="121"/>
       <c r="AB76" s="46"/>
       <c r="AC76" s="100"/>
       <c r="AD76" s="96"/>
@@ -8002,7 +8049,7 @@
       <c r="B77" s="30"/>
       <c r="C77" s="77"/>
       <c r="D77" s="77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E77" s="107" t="s">
         <v>100</v>
@@ -8035,12 +8082,12 @@
       <c r="V77" s="43"/>
       <c r="W77" s="121"/>
       <c r="X77" s="121"/>
-      <c r="Y77" s="96"/>
-      <c r="Z77" s="46"/>
-      <c r="AA77" s="46"/>
-      <c r="AB77" s="46"/>
-      <c r="AC77" s="100"/>
-      <c r="AD77" s="96"/>
+      <c r="Y77" s="121"/>
+      <c r="Z77" s="121"/>
+      <c r="AA77" s="121"/>
+      <c r="AB77" s="121"/>
+      <c r="AC77" s="121"/>
+      <c r="AD77" s="121"/>
       <c r="AE77" s="46"/>
       <c r="AF77" s="46"/>
       <c r="AG77" s="46"/>
@@ -8071,7 +8118,7 @@
       <c r="B78" s="30"/>
       <c r="C78" s="77"/>
       <c r="D78" s="77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E78" s="107" t="s">
         <v>100</v>
@@ -8140,7 +8187,7 @@
       <c r="B79" s="30"/>
       <c r="C79" s="77"/>
       <c r="D79" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E79" s="107" t="s">
         <v>100</v>
@@ -8148,15 +8195,15 @@
       <c r="F79" s="112">
         <v>45573</v>
       </c>
-      <c r="G79" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H79" s="119" t="e">
+      <c r="G79" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H79" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I79" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="34"/>
@@ -8173,11 +8220,11 @@
       <c r="V79" s="43"/>
       <c r="W79" s="121"/>
       <c r="X79" s="121"/>
-      <c r="Y79" s="96"/>
-      <c r="Z79" s="46"/>
-      <c r="AA79" s="46"/>
-      <c r="AB79" s="46"/>
-      <c r="AC79" s="100"/>
+      <c r="Y79" s="121"/>
+      <c r="Z79" s="121"/>
+      <c r="AA79" s="121"/>
+      <c r="AB79" s="121"/>
+      <c r="AC79" s="121"/>
       <c r="AD79" s="96"/>
       <c r="AE79" s="46"/>
       <c r="AF79" s="46"/>
@@ -8209,7 +8256,7 @@
       <c r="B80" s="30"/>
       <c r="C80" s="77"/>
       <c r="D80" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E80" s="107" t="s">
         <v>100</v>
@@ -8278,7 +8325,7 @@
       <c r="B81" s="30"/>
       <c r="C81" s="77"/>
       <c r="D81" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E81" s="107" t="s">
         <v>100</v>
@@ -8347,7 +8394,7 @@
       <c r="B82" s="30"/>
       <c r="C82" s="77"/>
       <c r="D82" s="77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E82" s="107" t="s">
         <v>100</v>
@@ -8416,7 +8463,7 @@
       <c r="B83" s="30"/>
       <c r="C83" s="31"/>
       <c r="D83" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E83" s="107" t="s">
         <v>43</v>
@@ -8554,10 +8601,10 @@
       <c r="B85" s="30"/>
       <c r="C85" s="31"/>
       <c r="D85" s="77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F85" s="112">
         <v>45565</v>
@@ -8639,7 +8686,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="34"/>
@@ -8656,7 +8703,7 @@
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
       <c r="X86" s="121"/>
-      <c r="Y86" s="96"/>
+      <c r="Y86" s="43"/>
       <c r="Z86" s="46"/>
       <c r="AA86" s="46"/>
       <c r="AB86" s="46"/>
@@ -8692,7 +8739,7 @@
       <c r="B87" s="30"/>
       <c r="C87" s="31"/>
       <c r="D87" s="107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E87" s="107" t="s">
         <v>86</v>
@@ -8700,15 +8747,15 @@
       <c r="F87" s="112">
         <v>45576</v>
       </c>
-      <c r="G87" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" s="119" t="e">
+      <c r="G87" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H87" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I87" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="34"/>
@@ -8725,7 +8772,7 @@
       <c r="V87" s="43"/>
       <c r="W87" s="43"/>
       <c r="X87" s="121"/>
-      <c r="Y87" s="96"/>
+      <c r="Y87" s="121"/>
       <c r="Z87" s="46"/>
       <c r="AA87" s="46"/>
       <c r="AB87" s="46"/>
@@ -8761,23 +8808,23 @@
       <c r="B88" s="30"/>
       <c r="C88" s="31"/>
       <c r="D88" s="107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F88" s="112">
         <v>45576</v>
       </c>
-      <c r="G88" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H88" s="119" t="e">
+      <c r="G88" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H88" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I88" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="34"/>
@@ -8794,8 +8841,8 @@
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
       <c r="X88" s="121"/>
-      <c r="Y88" s="96"/>
-      <c r="Z88" s="46"/>
+      <c r="Y88" s="121"/>
+      <c r="Z88" s="121"/>
       <c r="AA88" s="46"/>
       <c r="AB88" s="46"/>
       <c r="AC88" s="100"/>
@@ -8897,23 +8944,23 @@
       <c r="B90" s="30"/>
       <c r="C90" s="31"/>
       <c r="D90" s="107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="118" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F90" s="112">
         <v>45576</v>
       </c>
-      <c r="G90" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" s="119" t="e">
+      <c r="G90" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H90" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I90" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="34"/>
@@ -8930,8 +8977,8 @@
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
       <c r="X90" s="121"/>
-      <c r="Y90" s="96"/>
-      <c r="Z90" s="46"/>
+      <c r="Y90" s="121"/>
+      <c r="Z90" s="121"/>
       <c r="AA90" s="46"/>
       <c r="AB90" s="46"/>
       <c r="AC90" s="100"/>
@@ -9034,22 +9081,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C92" s="117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="107"/>
       <c r="E92" s="60"/>
       <c r="F92" s="112">
         <v>45576</v>
       </c>
-      <c r="G92" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H92" s="119" t="e">
+      <c r="G92" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H92" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I92" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="33"/>
       <c r="K92" s="34"/>
@@ -9102,7 +9149,7 @@
       <c r="B93" s="30"/>
       <c r="C93" s="117"/>
       <c r="D93" s="107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93" s="107" t="s">
         <v>86</v>
@@ -9110,15 +9157,15 @@
       <c r="F93" s="112">
         <v>45576</v>
       </c>
-      <c r="G93" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" s="119" t="e">
+      <c r="G93" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H93" s="119">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I93" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="33"/>
       <c r="K93" s="34"/>
@@ -9135,7 +9182,7 @@
       <c r="V93" s="43"/>
       <c r="W93" s="43"/>
       <c r="X93" s="121"/>
-      <c r="Y93" s="96"/>
+      <c r="Y93" s="121"/>
       <c r="Z93" s="46"/>
       <c r="AA93" s="46"/>
       <c r="AB93" s="46"/>
@@ -9180,14 +9227,14 @@
         <v>45565</v>
       </c>
       <c r="G94" s="112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H94" s="119" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="34"/>
@@ -9195,21 +9242,21 @@
       <c r="M94" s="35"/>
       <c r="N94" s="84"/>
       <c r="O94" s="121"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
+      <c r="P94" s="121"/>
+      <c r="Q94" s="121"/>
       <c r="R94" s="41"/>
-      <c r="S94" s="90"/>
-      <c r="T94" s="88"/>
-      <c r="U94" s="43"/>
+      <c r="S94" s="121"/>
+      <c r="T94" s="121"/>
+      <c r="U94" s="121"/>
       <c r="V94" s="43"/>
-      <c r="W94" s="43"/>
-      <c r="X94" s="93"/>
-      <c r="Y94" s="88"/>
-      <c r="Z94" s="43"/>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="43"/>
-      <c r="AC94" s="93"/>
-      <c r="AD94" s="95"/>
+      <c r="W94" s="121"/>
+      <c r="X94" s="121"/>
+      <c r="Y94" s="121"/>
+      <c r="Z94" s="121"/>
+      <c r="AA94" s="121"/>
+      <c r="AB94" s="121"/>
+      <c r="AC94" s="121"/>
+      <c r="AD94" s="121"/>
       <c r="AE94" s="44"/>
       <c r="AF94" s="44"/>
       <c r="AG94" s="44"/>
@@ -9240,21 +9287,23 @@
       <c r="B95" s="30"/>
       <c r="C95" s="31"/>
       <c r="D95" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="107"/>
+        <v>114</v>
+      </c>
+      <c r="E95" s="107" t="s">
+        <v>164</v>
+      </c>
       <c r="F95" s="112">
-        <v>0</v>
-      </c>
-      <c r="G95" s="112">
-        <v>0</v>
-      </c>
-      <c r="H95" s="119">
+        <v>45582</v>
+      </c>
+      <c r="G95" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" s="119" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I95" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="34"/>
@@ -9274,9 +9323,9 @@
       <c r="Y95" s="88"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="93"/>
-      <c r="AD95" s="95"/>
+      <c r="AB95" s="121"/>
+      <c r="AC95" s="121"/>
+      <c r="AD95" s="121"/>
       <c r="AE95" s="44"/>
       <c r="AF95" s="44"/>
       <c r="AG95" s="44"/>
@@ -9307,18 +9356,18 @@
       <c r="B96" s="30"/>
       <c r="C96" s="31"/>
       <c r="D96" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E96" s="107"/>
       <c r="F96" s="112">
         <v>0</v>
       </c>
-      <c r="G96" s="112">
-        <v>0</v>
-      </c>
-      <c r="H96" s="119">
+      <c r="G96" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96" s="119" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I96" s="120">
         <v>0</v>
@@ -9374,23 +9423,23 @@
       <c r="B97" s="30"/>
       <c r="C97" s="31"/>
       <c r="D97" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" s="107" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="F97" s="112">
         <v>45565</v>
       </c>
       <c r="G97" s="112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H97" s="119" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="34"/>
@@ -9398,21 +9447,21 @@
       <c r="M97" s="35"/>
       <c r="N97" s="84"/>
       <c r="O97" s="121"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
+      <c r="P97" s="121"/>
+      <c r="Q97" s="121"/>
       <c r="R97" s="41"/>
-      <c r="S97" s="90"/>
-      <c r="T97" s="88"/>
-      <c r="U97" s="43"/>
+      <c r="S97" s="121"/>
+      <c r="T97" s="121"/>
+      <c r="U97" s="121"/>
       <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="93"/>
-      <c r="Y97" s="88"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="93"/>
-      <c r="AD97" s="95"/>
+      <c r="W97" s="121"/>
+      <c r="X97" s="121"/>
+      <c r="Y97" s="121"/>
+      <c r="Z97" s="121"/>
+      <c r="AA97" s="121"/>
+      <c r="AB97" s="121"/>
+      <c r="AC97" s="121"/>
+      <c r="AD97" s="121"/>
       <c r="AE97" s="44"/>
       <c r="AF97" s="44"/>
       <c r="AG97" s="44"/>
@@ -9992,7 +10041,7 @@
         <v>45573</v>
       </c>
       <c r="G106" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H106" s="119" t="e">
         <f t="shared" si="6"/>
@@ -10061,7 +10110,7 @@
         <v>45573</v>
       </c>
       <c r="G107" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H107" s="119" t="e">
         <f t="shared" si="6"/>
@@ -10130,7 +10179,7 @@
         <v>45573</v>
       </c>
       <c r="G108" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H108" s="119" t="e">
         <f t="shared" ref="H108:H121" si="7">NETWORKDAYS(F108,G108)</f>
@@ -10199,7 +10248,7 @@
         <v>45573</v>
       </c>
       <c r="G109" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H109" s="119" t="e">
         <f t="shared" si="7"/>
@@ -11198,18 +11247,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11226,6 +11263,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1203,10 +1203,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>김민선, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>필수 값 체크</t>
   </si>
   <si>
@@ -1302,14 +1298,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>박지수, 김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이청민, 박지수, 김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰 조회</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1331,6 +1319,74 @@
   </si>
   <si>
     <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선,박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선,박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이청민</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2387,17 +2443,66 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2422,10 +2527,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2440,51 +2541,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,8 +2861,8 @@
   </sheetPr>
   <dimension ref="B1:BC123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2880,40 +2936,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -2994,41 +3050,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="143" t="s">
+      <c r="C4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="140" t="s">
+      <c r="J4" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="141" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3058,40 +3114,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="146" t="s">
+      <c r="D5" s="129"/>
+      <c r="E5" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="139">
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="154">
         <v>45611</v>
       </c>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="138"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3233,160 +3289,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="124" t="s">
+      <c r="I8" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="151" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151" t="s">
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="155" t="s">
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="126" t="s">
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126" t="s">
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="130" t="s">
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="143"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="131"/>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="131"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="144" t="s">
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="148"/>
+      <c r="AR8" s="148"/>
+      <c r="AS8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144" t="s">
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="144"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+      <c r="BB8" s="124"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="132"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="133"/>
-      <c r="AR9" s="133"/>
-      <c r="AS9" s="145"/>
-      <c r="AT9" s="145"/>
-      <c r="AU9" s="145"/>
-      <c r="AV9" s="145"/>
-      <c r="AW9" s="145"/>
-      <c r="AX9" s="145"/>
-      <c r="AY9" s="145"/>
-      <c r="AZ9" s="145"/>
-      <c r="BA9" s="145"/>
-      <c r="BB9" s="145"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="149"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
+      <c r="AQ9" s="150"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="125"/>
+      <c r="AT9" s="125"/>
+      <c r="AU9" s="125"/>
+      <c r="AV9" s="125"/>
+      <c r="AW9" s="125"/>
+      <c r="AX9" s="125"/>
+      <c r="AY9" s="125"/>
+      <c r="AZ9" s="125"/>
+      <c r="BA9" s="125"/>
+      <c r="BB9" s="125"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4684,7 +4740,7 @@
         <v>4.2</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="107"/>
@@ -4692,7 +4748,7 @@
         <v>45565</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="119"/>
       <c r="I28" s="120">
@@ -4749,7 +4805,7 @@
       <c r="B29" s="30"/>
       <c r="C29" s="77"/>
       <c r="D29" s="77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="112">
@@ -4816,10 +4872,10 @@
       <c r="B30" s="30"/>
       <c r="C30" s="77"/>
       <c r="D30" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F30" s="112">
         <v>45565</v>
@@ -4885,10 +4941,10 @@
       <c r="B31" s="30"/>
       <c r="C31" s="77"/>
       <c r="D31" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="112">
         <v>45582</v>
@@ -4954,10 +5010,10 @@
       <c r="B32" s="30"/>
       <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32" s="112">
         <v>45582</v>
@@ -5161,7 +5217,7 @@
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="105" t="s">
         <v>104</v>
@@ -5230,7 +5286,7 @@
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="105" t="s">
         <v>104</v>
@@ -5368,7 +5424,7 @@
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="105" t="s">
         <v>104</v>
@@ -5437,7 +5493,7 @@
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="105" t="s">
         <v>104</v>
@@ -5713,7 +5769,7 @@
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="105" t="s">
         <v>104</v>
@@ -5782,7 +5838,7 @@
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="105" t="s">
         <v>104</v>
@@ -5923,7 +5979,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="107" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F46" s="112">
         <v>45572</v>
@@ -5992,7 +6048,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F47" s="112">
         <v>45572</v>
@@ -6058,7 +6114,7 @@
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>136</v>
@@ -6337,7 +6393,7 @@
         <v>120</v>
       </c>
       <c r="E52" s="107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F52" s="112">
         <v>0</v>
@@ -6406,7 +6462,7 @@
         <v>112</v>
       </c>
       <c r="E53" s="107" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F53" s="112">
         <v>45580</v>
@@ -6609,7 +6665,7 @@
         <v>77</v>
       </c>
       <c r="E56" s="107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F56" s="112">
         <v>45582</v>
@@ -6678,7 +6734,7 @@
         <v>50</v>
       </c>
       <c r="E57" s="107" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F57" s="112">
         <v>45580</v>
@@ -6811,10 +6867,10 @@
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E59" s="107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F59" s="112">
         <v>45582</v>
@@ -6884,10 +6940,10 @@
       </c>
       <c r="E60" s="107"/>
       <c r="F60" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="119" t="e">
         <f>NETWORKDAYS(F60,G60)</f>
@@ -7155,7 +7211,7 @@
         <v>53</v>
       </c>
       <c r="E64" s="107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="112">
         <v>45575</v>
@@ -7293,7 +7349,7 @@
         <v>73</v>
       </c>
       <c r="E66" s="107" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="F66" s="112">
         <v>45575</v>
@@ -7428,7 +7484,7 @@
       <c r="B68" s="30"/>
       <c r="C68" s="31"/>
       <c r="D68" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="107" t="s">
         <v>102</v>
@@ -7635,7 +7691,7 @@
       <c r="B71" s="30"/>
       <c r="C71" s="31"/>
       <c r="D71" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="107" t="s">
         <v>100</v>
@@ -7707,7 +7763,7 @@
         <v>125</v>
       </c>
       <c r="E72" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" s="112">
         <v>45573</v>
@@ -7776,7 +7832,7 @@
         <v>126</v>
       </c>
       <c r="E73" s="107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F73" s="112">
         <v>45573</v>
@@ -8256,7 +8312,7 @@
       <c r="B80" s="30"/>
       <c r="C80" s="77"/>
       <c r="D80" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" s="107" t="s">
         <v>100</v>
@@ -8325,7 +8381,7 @@
       <c r="B81" s="30"/>
       <c r="C81" s="77"/>
       <c r="D81" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" s="107" t="s">
         <v>100</v>
@@ -8947,7 +9003,7 @@
         <v>113</v>
       </c>
       <c r="E90" s="118" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F90" s="112">
         <v>45576</v>
@@ -9290,7 +9346,7 @@
         <v>114</v>
       </c>
       <c r="E95" s="107" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F95" s="112">
         <v>45582</v>
@@ -9426,7 +9482,7 @@
         <v>110</v>
       </c>
       <c r="E97" s="107" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F97" s="112">
         <v>45565</v>
@@ -9563,7 +9619,9 @@
       <c r="D99" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="107"/>
+      <c r="E99" s="107" t="s">
+        <v>174</v>
+      </c>
       <c r="F99" s="112">
         <v>0</v>
       </c>
@@ -9630,7 +9688,9 @@
       <c r="D100" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="107"/>
+      <c r="E100" s="107" t="s">
+        <v>175</v>
+      </c>
       <c r="F100" s="112">
         <v>0</v>
       </c>
@@ -9833,7 +9893,9 @@
       <c r="D103" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="107"/>
+      <c r="E103" s="107" t="s">
+        <v>176</v>
+      </c>
       <c r="F103" s="112">
         <v>0</v>
       </c>
@@ -9900,7 +9962,9 @@
       <c r="D104" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E104" s="107"/>
+      <c r="E104" s="107" t="s">
+        <v>177</v>
+      </c>
       <c r="F104" s="112">
         <v>0</v>
       </c>
@@ -9967,7 +10031,9 @@
       <c r="D105" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="107"/>
+      <c r="E105" s="107" t="s">
+        <v>178</v>
+      </c>
       <c r="F105" s="112">
         <v>0</v>
       </c>
@@ -11247,6 +11313,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11263,18 +11341,6 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$123</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$124</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="189">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -239,14 +239,6 @@
   </si>
   <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 확인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일 발송</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -373,9 +365,6 @@
     <t>회원 탈퇴</t>
   </si>
   <si>
-    <t>문의 이력</t>
-  </si>
-  <si>
     <t>맞춤 건강 추천 결과표</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -400,9 +389,6 @@
   <si>
     <t>회원 관리</t>
     <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 상세 정보 관리</t>
   </si>
   <si>
     <t>상품 상태 관리</t>
@@ -421,10 +407,6 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>주문 상태 분석</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>맞춤 건강 통계 분석</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -435,20 +417,12 @@
   <si>
     <t>매출 통계 분석</t>
     <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 전체 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>주문 정보 자동화</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>주문 상태 관리</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -471,9 +445,6 @@
     <t>비밀번호 무결성 검사</t>
   </si>
   <si>
-    <t>찜 조회</t>
-  </si>
-  <si>
     <t>필수 약관 동의</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -482,27 +453,11 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>구매 이력</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 변경</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>고객 문의</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명 검색</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -749,37 +704,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인터셉터</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>회원</t>
     </r>
     <r>
@@ -1123,14 +1047,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 이력</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>상단 고정 정보</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1159,10 +1075,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>상품 리뷰</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>찜</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1206,10 +1118,6 @@
     <t>필수 값 체크</t>
   </si>
   <si>
-    <t>회원 상태 변경</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 인증</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1226,10 +1134,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>1900-01-00</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 화면</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1246,7 +1150,23 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>신상품</t>
+    <t>포인트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상세 내역</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 무결성 검사</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1254,34 +1174,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 삭제</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상세 내역</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 무결성 검사</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>박지수</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1295,10 +1187,6 @@
   </si>
   <si>
     <t>진유혁, 김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 조회</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1374,10 +1262,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>박지수</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1387,6 +1271,138 @@
   </si>
   <si>
     <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 신상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 인기상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 검색</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 상품 검색</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 조회/등록</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 조회/등록/수정/삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품후기 조회/등록/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 후기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별/연령별 가입자 통계 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 평점</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 상품 조회/등록/수정</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2086,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2443,66 +2459,18 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,6 +2495,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2541,6 +2513,57 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2859,10 +2882,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:BC123"/>
+  <dimension ref="B1:BC124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2936,40 +2959,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="C2" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -3050,41 +3073,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="158" t="s">
+      <c r="D4" s="139"/>
+      <c r="E4" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="155" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3114,40 +3137,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="154">
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="140">
         <v>45611</v>
       </c>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3289,160 +3312,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H8" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="126" t="s">
+      <c r="I8" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="135" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135" t="s">
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="135"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="139" t="s">
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="143" t="s">
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143" t="s">
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="143"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="147" t="s">
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="128"/>
+      <c r="AN8" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="124" t="s">
+      <c r="AO8" s="132"/>
+      <c r="AP8" s="132"/>
+      <c r="AQ8" s="132"/>
+      <c r="AR8" s="132"/>
+      <c r="AS8" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124" t="s">
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="145"/>
+      <c r="BA8" s="145"/>
+      <c r="BB8" s="145"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="144"/>
-      <c r="AJ9" s="144"/>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="125"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="125"/>
-      <c r="AW9" s="125"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="125"/>
-      <c r="AZ9" s="125"/>
-      <c r="BA9" s="125"/>
-      <c r="BB9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="130"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="134"/>
+      <c r="AP9" s="134"/>
+      <c r="AQ9" s="134"/>
+      <c r="AR9" s="134"/>
+      <c r="AS9" s="146"/>
+      <c r="AT9" s="146"/>
+      <c r="AU9" s="146"/>
+      <c r="AV9" s="146"/>
+      <c r="AW9" s="146"/>
+      <c r="AX9" s="146"/>
+      <c r="AY9" s="146"/>
+      <c r="AZ9" s="146"/>
+      <c r="BA9" s="146"/>
+      <c r="BB9" s="146"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -3649,7 +3672,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="66">
         <v>45558</v>
@@ -3776,11 +3799,11 @@
         <v>2.1</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="60">
         <v>45558</v>
@@ -3847,11 +3870,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="60">
         <v>45559</v>
@@ -3918,11 +3941,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="66">
         <v>45560</v>
@@ -4049,11 +4072,11 @@
         <v>3.1</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="60">
         <v>45565</v>
@@ -4120,11 +4143,11 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="60">
         <v>45561</v>
@@ -4195,7 +4218,7 @@
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="60">
         <v>45561</v>
@@ -4262,11 +4285,11 @@
         <v>3.4</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="60">
         <v>45561</v>
@@ -4333,11 +4356,11 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="77" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F22" s="60">
         <v>45565</v>
@@ -4404,11 +4427,11 @@
         <v>3.6</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F23" s="60">
         <v>45565</v>
@@ -4479,13 +4502,13 @@
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="115" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="F24" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="112" t="s">
+        <v>175</v>
       </c>
       <c r="H24" s="67" t="e">
         <f t="shared" ref="H24" si="2">NETWORKDAYS(F24,G24)</f>
@@ -4605,7 +4628,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D26" s="77"/>
       <c r="E26" s="107"/>
@@ -4673,10 +4696,10 @@
       <c r="B27" s="30"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="112">
         <v>45565</v>
@@ -4684,7 +4707,10 @@
       <c r="G27" s="112">
         <v>45565</v>
       </c>
-      <c r="H27" s="119"/>
+      <c r="H27" s="119">
+        <f t="shared" ref="H27:H30" si="3">NETWORKDAYS(F27,G27)</f>
+        <v>1</v>
+      </c>
       <c r="I27" s="120">
         <v>1</v>
       </c>
@@ -4740,19 +4766,22 @@
         <v>4.2</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D28" s="77"/>
       <c r="E28" s="107"/>
       <c r="F28" s="112">
         <v>45565</v>
       </c>
-      <c r="G28" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="119"/>
+      <c r="G28" s="112">
+        <v>45596</v>
+      </c>
+      <c r="H28" s="119">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="I28" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
@@ -4775,9 +4804,9 @@
       <c r="AB28" s="114"/>
       <c r="AC28" s="114"/>
       <c r="AD28" s="114"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="114"/>
       <c r="AH28" s="98"/>
       <c r="AI28" s="88"/>
       <c r="AJ28" s="43"/>
@@ -4801,50 +4830,52 @@
       <c r="BB28" s="93"/>
       <c r="BC28" s="29"/>
     </row>
-    <row r="29" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B29" s="30"/>
       <c r="C29" s="77"/>
       <c r="D29" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="107"/>
+        <v>162</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>163</v>
+      </c>
       <c r="F29" s="112">
-        <v>0</v>
+        <v>45595</v>
       </c>
       <c r="G29" s="112">
-        <v>0</v>
+        <v>45596</v>
       </c>
       <c r="H29" s="119">
-        <f t="shared" ref="H29:H32" si="3">NETWORKDAYS(F29,G29)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I29" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="84"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
       <c r="R29" s="41"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="43"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
       <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="95"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
       <c r="AH29" s="98"/>
       <c r="AI29" s="88"/>
       <c r="AJ29" s="43"/>
@@ -4868,24 +4899,24 @@
       <c r="BB29" s="93"/>
       <c r="BC29" s="29"/>
     </row>
-    <row r="30" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B30" s="30"/>
       <c r="C30" s="77"/>
       <c r="D30" s="77" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F30" s="112">
-        <v>45565</v>
+        <v>45595</v>
       </c>
       <c r="G30" s="112">
-        <v>45567</v>
+        <v>45596</v>
       </c>
       <c r="H30" s="119">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="120">
         <v>1</v>
@@ -4895,25 +4926,25 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="84"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
       <c r="R30" s="41"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
       <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="95"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
       <c r="AH30" s="98"/>
       <c r="AI30" s="88"/>
       <c r="AJ30" s="43"/>
@@ -4941,23 +4972,23 @@
       <c r="B31" s="30"/>
       <c r="C31" s="77"/>
       <c r="D31" s="77" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F31" s="112">
-        <v>45582</v>
-      </c>
-      <c r="G31" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="119" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>45595</v>
+      </c>
+      <c r="G31" s="112">
+        <v>45596</v>
+      </c>
+      <c r="H31" s="119">
+        <f t="shared" ref="H31:H34" si="4">NETWORKDAYS(F31,G31)</f>
+        <v>2</v>
       </c>
       <c r="I31" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
@@ -4972,17 +5003,17 @@
       <c r="T31" s="88"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="95"/>
       <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
       <c r="AH31" s="98"/>
       <c r="AI31" s="88"/>
       <c r="AJ31" s="43"/>
@@ -5010,48 +5041,48 @@
       <c r="B32" s="30"/>
       <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F32" s="112">
-        <v>45582</v>
-      </c>
-      <c r="G32" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="119" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>45565</v>
+      </c>
+      <c r="G32" s="112">
+        <v>45596</v>
+      </c>
+      <c r="H32" s="119">
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="I32" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="84"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
       <c r="Z32" s="114"/>
       <c r="AA32" s="114"/>
       <c r="AB32" s="114"/>
       <c r="AC32" s="114"/>
       <c r="AD32" s="114"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="114"/>
       <c r="AH32" s="98"/>
       <c r="AI32" s="88"/>
       <c r="AJ32" s="43"/>
@@ -5076,23 +5107,23 @@
       <c r="BC32" s="29"/>
     </row>
     <row r="33" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B33" s="30">
-        <v>4.3</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="107"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="107" t="s">
+        <v>139</v>
+      </c>
       <c r="F33" s="112">
-        <v>45566</v>
+        <v>45582</v>
       </c>
       <c r="G33" s="112">
-        <v>45572</v>
+        <v>45593</v>
       </c>
       <c r="H33" s="119">
-        <f>NETWORKDAYS(F33,G33)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="I33" s="120">
         <v>1</v>
@@ -5102,22 +5133,22 @@
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
       <c r="N33" s="84"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="95"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
       <c r="AG33" s="44"/>
@@ -5146,22 +5177,22 @@
     </row>
     <row r="34" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="105" t="s">
-        <v>104</v>
-      </c>
       <c r="F34" s="112">
-        <v>45566</v>
+        <v>45582</v>
       </c>
       <c r="G34" s="112">
-        <v>45567</v>
+        <v>45593</v>
       </c>
       <c r="H34" s="119">
-        <f t="shared" ref="H34:H36" si="4">NETWORKDAYS(F34,G34)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="I34" s="120">
         <v>1</v>
@@ -5171,22 +5202,22 @@
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="84"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
       <c r="R34" s="41"/>
       <c r="S34" s="90"/>
       <c r="T34" s="88"/>
       <c r="U34" s="43"/>
       <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="95"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
       <c r="AE34" s="44"/>
       <c r="AF34" s="44"/>
       <c r="AG34" s="44"/>
@@ -5214,23 +5245,23 @@
       <c r="BC34" s="29"/>
     </row>
     <row r="35" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="105" t="s">
-        <v>104</v>
-      </c>
+      <c r="B35" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="112">
         <v>45566</v>
       </c>
       <c r="G35" s="112">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="H35" s="119">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>NETWORKDAYS(F35,G35)</f>
+        <v>5</v>
       </c>
       <c r="I35" s="120">
         <v>1</v>
@@ -5244,8 +5275,8 @@
       <c r="P35" s="113"/>
       <c r="Q35" s="113"/>
       <c r="R35" s="41"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="88"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
       <c r="U35" s="43"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
@@ -5255,7 +5286,9 @@
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="93"/>
-      <c r="AD35" s="95"/>
+      <c r="AD35" s="95">
+        <v>28</v>
+      </c>
       <c r="AE35" s="44"/>
       <c r="AF35" s="44"/>
       <c r="AG35" s="44"/>
@@ -5286,20 +5319,20 @@
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="77" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E36" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F36" s="112">
         <v>45566</v>
       </c>
       <c r="G36" s="112">
-        <v>45569</v>
+        <v>45567</v>
       </c>
       <c r="H36" s="119">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="H36:H38" si="5">NETWORKDAYS(F36,G36)</f>
+        <v>2</v>
       </c>
       <c r="I36" s="120">
         <v>1</v>
@@ -5313,7 +5346,7 @@
       <c r="P36" s="113"/>
       <c r="Q36" s="113"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="113"/>
+      <c r="S36" s="90"/>
       <c r="T36" s="88"/>
       <c r="U36" s="43"/>
       <c r="V36" s="43"/>
@@ -5355,20 +5388,20 @@
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="77" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F37" s="112">
         <v>45566</v>
       </c>
       <c r="G37" s="112">
-        <v>45569</v>
+        <v>45567</v>
       </c>
       <c r="H37" s="119">
-        <f t="shared" ref="H37:H38" si="5">NETWORKDAYS(F37,G37)</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I37" s="120">
         <v>1</v>
@@ -5382,7 +5415,7 @@
       <c r="P37" s="113"/>
       <c r="Q37" s="113"/>
       <c r="R37" s="41"/>
-      <c r="S37" s="113"/>
+      <c r="S37" s="90"/>
       <c r="T37" s="88"/>
       <c r="U37" s="43"/>
       <c r="V37" s="43"/>
@@ -5424,10 +5457,10 @@
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="77" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E38" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F38" s="112">
         <v>45566</v>
@@ -5493,10 +5526,10 @@
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="77" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="E39" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F39" s="112">
         <v>45566</v>
@@ -5505,7 +5538,7 @@
         <v>45569</v>
       </c>
       <c r="H39" s="119">
-        <f>NETWORKDAYS(F39,G39)</f>
+        <f t="shared" ref="H39:H40" si="6">NETWORKDAYS(F39,G39)</f>
         <v>4</v>
       </c>
       <c r="I39" s="120">
@@ -5562,19 +5595,19 @@
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
       <c r="D40" s="77" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E40" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F40" s="112">
         <v>45566</v>
       </c>
       <c r="G40" s="112">
-        <v>45570</v>
+        <v>45569</v>
       </c>
       <c r="H40" s="119">
-        <f>NETWORKDAYS(F40,G40)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I40" s="120">
@@ -5590,7 +5623,7 @@
       <c r="Q40" s="113"/>
       <c r="R40" s="41"/>
       <c r="S40" s="113"/>
-      <c r="T40" s="41"/>
+      <c r="T40" s="88"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43"/>
       <c r="W40" s="43"/>
@@ -5631,16 +5664,16 @@
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="77" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E41" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F41" s="112">
         <v>45566</v>
       </c>
       <c r="G41" s="112">
-        <v>45570</v>
+        <v>45569</v>
       </c>
       <c r="H41" s="119">
         <f>NETWORKDAYS(F41,G41)</f>
@@ -5659,7 +5692,7 @@
       <c r="Q41" s="113"/>
       <c r="R41" s="41"/>
       <c r="S41" s="113"/>
-      <c r="T41" s="41"/>
+      <c r="T41" s="88"/>
       <c r="U41" s="43"/>
       <c r="V41" s="43"/>
       <c r="W41" s="43"/>
@@ -5700,20 +5733,20 @@
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="77" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E42" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F42" s="112">
         <v>45566</v>
       </c>
       <c r="G42" s="112">
-        <v>45572</v>
+        <v>45570</v>
       </c>
       <c r="H42" s="119">
-        <f t="shared" ref="H42:H107" si="6">NETWORKDAYS(F42,G42)</f>
-        <v>5</v>
+        <f>NETWORKDAYS(F42,G42)</f>
+        <v>4</v>
       </c>
       <c r="I42" s="120">
         <v>1</v>
@@ -5728,8 +5761,8 @@
       <c r="Q42" s="113"/>
       <c r="R42" s="41"/>
       <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="43"/>
       <c r="V42" s="43"/>
       <c r="W42" s="43"/>
       <c r="X42" s="93"/>
@@ -5769,20 +5802,20 @@
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="77" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E43" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F43" s="112">
         <v>45566</v>
       </c>
       <c r="G43" s="112">
-        <v>45572</v>
+        <v>45570</v>
       </c>
       <c r="H43" s="119">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>NETWORKDAYS(F43,G43)</f>
+        <v>4</v>
       </c>
       <c r="I43" s="120">
         <v>1</v>
@@ -5797,8 +5830,8 @@
       <c r="Q43" s="113"/>
       <c r="R43" s="41"/>
       <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="43"/>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
       <c r="X43" s="93"/>
@@ -5838,10 +5871,10 @@
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="77" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E44" s="105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F44" s="112">
         <v>45566</v>
@@ -5850,7 +5883,7 @@
         <v>45572</v>
       </c>
       <c r="H44" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H44:H110" si="7">NETWORKDAYS(F44,G44)</f>
         <v>5</v>
       </c>
       <c r="I44" s="120">
@@ -5904,92 +5937,92 @@
       <c r="BC44" s="29"/>
     </row>
     <row r="45" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B45" s="30">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C45" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="107"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="105" t="s">
+        <v>91</v>
+      </c>
       <c r="F45" s="112">
+        <v>45566</v>
+      </c>
+      <c r="G45" s="112">
         <v>45572</v>
       </c>
-      <c r="G45" s="112">
-        <v>45576</v>
-      </c>
       <c r="H45" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I45" s="120">
         <v>1</v>
       </c>
-      <c r="J45" s="36"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="85"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="84"/>
       <c r="O45" s="81"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
       <c r="R45" s="41"/>
-      <c r="S45" s="90"/>
+      <c r="S45" s="113"/>
       <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="100"/>
-      <c r="AI45" s="89"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="40"/>
-      <c r="AL45" s="40"/>
-      <c r="AM45" s="94"/>
-      <c r="AN45" s="89"/>
-      <c r="AO45" s="40"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="40"/>
-      <c r="AR45" s="94"/>
-      <c r="AS45" s="102"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="104"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="40"/>
-      <c r="AZ45" s="40"/>
-      <c r="BA45" s="40"/>
-      <c r="BB45" s="94"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="93"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="88"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="93"/>
+      <c r="AS45" s="101"/>
+      <c r="AT45" s="45"/>
+      <c r="AU45" s="45"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="103"/>
+      <c r="AX45" s="88"/>
+      <c r="AY45" s="43"/>
+      <c r="AZ45" s="43"/>
+      <c r="BA45" s="43"/>
+      <c r="BB45" s="93"/>
       <c r="BC45" s="29"/>
     </row>
     <row r="46" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B46" s="30"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="107" t="s">
-        <v>170</v>
-      </c>
+      <c r="B46" s="30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="107"/>
       <c r="F46" s="112">
         <v>45572</v>
       </c>
       <c r="G46" s="112">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="H46" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I46" s="120">
         <v>1</v>
@@ -6007,8 +6040,8 @@
       <c r="T46" s="113"/>
       <c r="U46" s="113"/>
       <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="94"/>
+      <c r="W46" s="113"/>
+      <c r="X46" s="113"/>
       <c r="Y46" s="89"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -6043,12 +6076,12 @@
     </row>
     <row r="47" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="77" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="F47" s="112">
         <v>45572</v>
@@ -6057,7 +6090,7 @@
         <v>45573</v>
       </c>
       <c r="H47" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I47" s="120">
@@ -6114,20 +6147,20 @@
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="77" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E48" s="107" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F48" s="112">
         <v>45572</v>
       </c>
       <c r="G48" s="112">
-        <v>45576</v>
+        <v>45573</v>
       </c>
       <c r="H48" s="119">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I48" s="120">
         <v>1</v>
@@ -6145,8 +6178,8 @@
       <c r="T48" s="113"/>
       <c r="U48" s="113"/>
       <c r="V48" s="40"/>
-      <c r="W48" s="113"/>
-      <c r="X48" s="113"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="94"/>
       <c r="Y48" s="89"/>
       <c r="Z48" s="40"/>
       <c r="AA48" s="40"/>
@@ -6183,10 +6216,10 @@
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="77" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E49" s="107" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F49" s="112">
         <v>45572</v>
@@ -6195,7 +6228,7 @@
         <v>45576</v>
       </c>
       <c r="H49" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I49" s="120">
@@ -6252,10 +6285,10 @@
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="77" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F50" s="112">
         <v>45572</v>
@@ -6264,7 +6297,7 @@
         <v>45576</v>
       </c>
       <c r="H50" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I50" s="120">
@@ -6318,26 +6351,26 @@
       <c r="BC50" s="29"/>
     </row>
     <row r="51" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B51" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="107"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="107" t="s">
+        <v>120</v>
+      </c>
       <c r="F51" s="112">
-        <v>45580</v>
-      </c>
-      <c r="G51" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45572</v>
+      </c>
+      <c r="G51" s="112">
+        <v>45576</v>
+      </c>
+      <c r="H51" s="119">
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I51" s="120">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="37"/>
@@ -6349,17 +6382,17 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
       <c r="S51" s="90"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="40"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
       <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="94"/>
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
       <c r="Y51" s="89"/>
-      <c r="Z51" s="113"/>
-      <c r="AA51" s="113"/>
-      <c r="AB51" s="113"/>
-      <c r="AC51" s="113"/>
-      <c r="AD51" s="113"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="94"/>
+      <c r="AD51" s="96"/>
       <c r="AE51" s="46"/>
       <c r="AF51" s="46"/>
       <c r="AG51" s="46"/>
@@ -6387,26 +6420,26 @@
       <c r="BC51" s="29"/>
     </row>
     <row r="52" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>168</v>
-      </c>
+      <c r="B52" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="77"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="112">
-        <v>0</v>
-      </c>
-      <c r="G52" s="112">
-        <v>0</v>
-      </c>
-      <c r="H52" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45580</v>
+      </c>
+      <c r="G52" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I52" s="120">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J52" s="36"/>
       <c r="K52" s="37"/>
@@ -6424,11 +6457,11 @@
       <c r="W52" s="40"/>
       <c r="X52" s="94"/>
       <c r="Y52" s="89"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="94"/>
-      <c r="AD52" s="96"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
+      <c r="AD52" s="113"/>
       <c r="AE52" s="46"/>
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
@@ -6459,19 +6492,19 @@
       <c r="B53" s="30"/>
       <c r="C53" s="31"/>
       <c r="D53" s="77" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="E53" s="107" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F53" s="112">
-        <v>45580</v>
+        <v>45588</v>
       </c>
       <c r="G53" s="112">
-        <v>45582</v>
+        <v>45590</v>
       </c>
       <c r="H53" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I53" s="120">
@@ -6493,10 +6526,10 @@
       <c r="W53" s="40"/>
       <c r="X53" s="94"/>
       <c r="Y53" s="89"/>
-      <c r="Z53" s="113"/>
+      <c r="Z53" s="40"/>
       <c r="AA53" s="113"/>
       <c r="AB53" s="113"/>
-      <c r="AC53" s="94"/>
+      <c r="AC53" s="113"/>
       <c r="AD53" s="96"/>
       <c r="AE53" s="46"/>
       <c r="AF53" s="46"/>
@@ -6528,21 +6561,23 @@
       <c r="B54" s="30"/>
       <c r="C54" s="31"/>
       <c r="D54" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="107"/>
+        <v>99</v>
+      </c>
+      <c r="E54" s="107" t="s">
+        <v>145</v>
+      </c>
       <c r="F54" s="112">
-        <v>0</v>
+        <v>45580</v>
       </c>
       <c r="G54" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="H54" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I54" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="37"/>
@@ -6560,9 +6595,9 @@
       <c r="W54" s="40"/>
       <c r="X54" s="94"/>
       <c r="Y54" s="89"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="40"/>
+      <c r="Z54" s="113"/>
+      <c r="AA54" s="113"/>
+      <c r="AB54" s="113"/>
       <c r="AC54" s="94"/>
       <c r="AD54" s="96"/>
       <c r="AE54" s="46"/>
@@ -6591,25 +6626,27 @@
       <c r="BB54" s="94"/>
       <c r="BC54" s="29"/>
     </row>
-    <row r="55" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="55" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
       <c r="D55" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="107"/>
+        <v>169</v>
+      </c>
+      <c r="E55" s="107" t="s">
+        <v>146</v>
+      </c>
       <c r="F55" s="112">
-        <v>0</v>
-      </c>
-      <c r="G55" s="112">
-        <v>0</v>
-      </c>
-      <c r="H55" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45596</v>
+      </c>
+      <c r="G55" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I55" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="36"/>
       <c r="K55" s="37"/>
@@ -6627,9 +6664,9 @@
       <c r="W55" s="40"/>
       <c r="X55" s="94"/>
       <c r="Y55" s="89"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="40"/>
+      <c r="Z55" s="94"/>
+      <c r="AA55" s="94"/>
+      <c r="AB55" s="94"/>
       <c r="AC55" s="94"/>
       <c r="AD55" s="96"/>
       <c r="AE55" s="46"/>
@@ -6662,20 +6699,20 @@
       <c r="B56" s="30"/>
       <c r="C56" s="31"/>
       <c r="D56" s="77" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E56" s="107" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F56" s="112">
-        <v>45582</v>
+        <v>45587</v>
       </c>
       <c r="G56" s="112">
-        <v>45586</v>
+        <v>45594</v>
       </c>
       <c r="H56" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="I56" s="120">
         <v>1</v>
@@ -6698,9 +6735,9 @@
       <c r="Y56" s="89"/>
       <c r="Z56" s="40"/>
       <c r="AA56" s="40"/>
-      <c r="AB56" s="113"/>
-      <c r="AC56" s="113"/>
-      <c r="AD56" s="113"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="94"/>
+      <c r="AD56" s="96"/>
       <c r="AE56" s="46"/>
       <c r="AF56" s="46"/>
       <c r="AG56" s="46"/>
@@ -6731,19 +6768,19 @@
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="77" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E57" s="107" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F57" s="112">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="G57" s="112">
-        <v>45582</v>
+        <v>45586</v>
       </c>
       <c r="H57" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I57" s="120">
@@ -6765,9 +6802,9 @@
       <c r="W57" s="40"/>
       <c r="X57" s="94"/>
       <c r="Y57" s="89"/>
-      <c r="Z57" s="113"/>
-      <c r="AA57" s="113"/>
-      <c r="AB57" s="113"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
       <c r="AC57" s="94"/>
       <c r="AD57" s="96"/>
       <c r="AE57" s="46"/>
@@ -6800,21 +6837,23 @@
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="107"/>
+        <v>164</v>
+      </c>
+      <c r="E58" s="107" t="s">
+        <v>183</v>
+      </c>
       <c r="F58" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G58" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="H58" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I58" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="36"/>
       <c r="K58" s="37"/>
@@ -6834,9 +6873,9 @@
       <c r="Y58" s="89"/>
       <c r="Z58" s="40"/>
       <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="94"/>
-      <c r="AD58" s="96"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
+      <c r="AD58" s="113"/>
       <c r="AE58" s="46"/>
       <c r="AF58" s="46"/>
       <c r="AG58" s="46"/>
@@ -6867,19 +6906,19 @@
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="77" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="E59" s="107" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F59" s="112">
+        <v>45580</v>
+      </c>
+      <c r="G59" s="112">
         <v>45582</v>
       </c>
-      <c r="G59" s="112">
-        <v>45586</v>
-      </c>
       <c r="H59" s="119">
-        <f>NETWORKDAYS(F59,G59)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I59" s="120">
@@ -6901,11 +6940,11 @@
       <c r="W59" s="40"/>
       <c r="X59" s="94"/>
       <c r="Y59" s="89"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
+      <c r="Z59" s="113"/>
+      <c r="AA59" s="113"/>
       <c r="AB59" s="113"/>
-      <c r="AC59" s="113"/>
-      <c r="AD59" s="113"/>
+      <c r="AC59" s="94"/>
+      <c r="AD59" s="96"/>
       <c r="AE59" s="46"/>
       <c r="AF59" s="46"/>
       <c r="AG59" s="46"/>
@@ -6936,21 +6975,23 @@
       <c r="B60" s="30"/>
       <c r="C60" s="31"/>
       <c r="D60" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="H60" s="119" t="e">
-        <f>NETWORKDAYS(F60,G60)</f>
-        <v>#VALUE!</v>
+        <v>167</v>
+      </c>
+      <c r="E60" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="112">
+        <v>45593</v>
+      </c>
+      <c r="G60" s="112">
+        <v>45595</v>
+      </c>
+      <c r="H60" s="119">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I60" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="36"/>
       <c r="K60" s="37"/>
@@ -7003,21 +7044,23 @@
       <c r="B61" s="30"/>
       <c r="C61" s="31"/>
       <c r="D61" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="107"/>
+        <v>171</v>
+      </c>
+      <c r="E61" s="107" t="s">
+        <v>142</v>
+      </c>
       <c r="F61" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G61" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="H61" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>NETWORKDAYS(F61,G61)</f>
+        <v>3</v>
       </c>
       <c r="I61" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="36"/>
       <c r="K61" s="37"/>
@@ -7037,9 +7080,9 @@
       <c r="Y61" s="89"/>
       <c r="Z61" s="40"/>
       <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="94"/>
-      <c r="AD61" s="96"/>
+      <c r="AB61" s="113"/>
+      <c r="AC61" s="113"/>
+      <c r="AD61" s="113"/>
       <c r="AE61" s="46"/>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46"/>
@@ -7066,231 +7109,229 @@
       <c r="BB61" s="94"/>
       <c r="BC61" s="29"/>
     </row>
-    <row r="62" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B62" s="30">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="107"/>
+    <row r="62" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="107" t="s">
+        <v>41</v>
+      </c>
       <c r="F62" s="112">
-        <v>45575</v>
+        <v>45593</v>
       </c>
       <c r="G62" s="112">
-        <v>45581</v>
+        <v>45595</v>
       </c>
       <c r="H62" s="119">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" ref="H62:H64" si="8">NETWORKDAYS(F62,G62)</f>
+        <v>3</v>
       </c>
       <c r="I62" s="120">
         <v>1</v>
       </c>
-      <c r="J62" s="33"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="84"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="85"/>
       <c r="O62" s="81"/>
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
       <c r="S62" s="90"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="113"/>
-      <c r="X62" s="113"/>
-      <c r="Y62" s="113"/>
-      <c r="Z62" s="113"/>
-      <c r="AA62" s="113"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="98"/>
-      <c r="AD62" s="95"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="98"/>
-      <c r="AI62" s="95"/>
-      <c r="AJ62" s="44"/>
-      <c r="AK62" s="44"/>
-      <c r="AL62" s="44"/>
-      <c r="AM62" s="98"/>
-      <c r="AN62" s="95"/>
-      <c r="AO62" s="44"/>
-      <c r="AP62" s="44"/>
-      <c r="AQ62" s="44"/>
-      <c r="AR62" s="98"/>
-      <c r="AS62" s="95"/>
-      <c r="AT62" s="44"/>
-      <c r="AU62" s="44"/>
-      <c r="AV62" s="44"/>
-      <c r="AW62" s="98"/>
-      <c r="AX62" s="95"/>
-      <c r="AY62" s="44"/>
-      <c r="AZ62" s="44"/>
-      <c r="BA62" s="44"/>
-      <c r="BB62" s="98"/>
+      <c r="T62" s="89"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="94"/>
+      <c r="Y62" s="89"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="46"/>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="100"/>
+      <c r="AI62" s="89"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="40"/>
+      <c r="AL62" s="40"/>
+      <c r="AM62" s="94"/>
+      <c r="AN62" s="89"/>
+      <c r="AO62" s="40"/>
+      <c r="AP62" s="40"/>
+      <c r="AQ62" s="40"/>
+      <c r="AR62" s="94"/>
+      <c r="AS62" s="102"/>
+      <c r="AT62" s="47"/>
+      <c r="AU62" s="47"/>
+      <c r="AV62" s="47"/>
+      <c r="AW62" s="104"/>
+      <c r="AX62" s="89"/>
+      <c r="AY62" s="40"/>
+      <c r="AZ62" s="40"/>
+      <c r="BA62" s="40"/>
+      <c r="BB62" s="94"/>
       <c r="BC62" s="29"/>
     </row>
     <row r="63" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B63" s="30"/>
       <c r="C63" s="31"/>
       <c r="D63" s="77" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E63" s="107" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F63" s="112">
-        <v>45575</v>
+        <v>45582</v>
       </c>
       <c r="G63" s="112">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="H63" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I63" s="120">
         <v>1</v>
       </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="84"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="85"/>
       <c r="O63" s="81"/>
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
       <c r="S63" s="90"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="113"/>
-      <c r="X63" s="113"/>
-      <c r="Y63" s="113"/>
-      <c r="Z63" s="113"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="98"/>
-      <c r="AD63" s="95"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="98"/>
-      <c r="AI63" s="95"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="44"/>
-      <c r="AM63" s="98"/>
-      <c r="AN63" s="95"/>
-      <c r="AO63" s="44"/>
-      <c r="AP63" s="44"/>
-      <c r="AQ63" s="44"/>
-      <c r="AR63" s="98"/>
-      <c r="AS63" s="95"/>
-      <c r="AT63" s="44"/>
-      <c r="AU63" s="44"/>
-      <c r="AV63" s="44"/>
-      <c r="AW63" s="98"/>
-      <c r="AX63" s="95"/>
-      <c r="AY63" s="44"/>
-      <c r="AZ63" s="44"/>
-      <c r="BA63" s="44"/>
-      <c r="BB63" s="98"/>
+      <c r="T63" s="89"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="94"/>
+      <c r="Y63" s="89"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+      <c r="AC63" s="94"/>
+      <c r="AD63" s="96"/>
+      <c r="AE63" s="46"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="89"/>
+      <c r="AJ63" s="40"/>
+      <c r="AK63" s="40"/>
+      <c r="AL63" s="40"/>
+      <c r="AM63" s="94"/>
+      <c r="AN63" s="89"/>
+      <c r="AO63" s="40"/>
+      <c r="AP63" s="40"/>
+      <c r="AQ63" s="40"/>
+      <c r="AR63" s="94"/>
+      <c r="AS63" s="102"/>
+      <c r="AT63" s="47"/>
+      <c r="AU63" s="47"/>
+      <c r="AV63" s="47"/>
+      <c r="AW63" s="104"/>
+      <c r="AX63" s="89"/>
+      <c r="AY63" s="40"/>
+      <c r="AZ63" s="40"/>
+      <c r="BA63" s="40"/>
+      <c r="BB63" s="94"/>
       <c r="BC63" s="29"/>
     </row>
     <row r="64" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B64" s="30"/>
       <c r="C64" s="31"/>
       <c r="D64" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="112">
-        <v>45575</v>
-      </c>
-      <c r="G64" s="112">
-        <v>45579</v>
-      </c>
-      <c r="H64" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E64" s="107"/>
+      <c r="F64" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="H64" s="119" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I64" s="120">
-        <v>1</v>
-      </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="85"/>
       <c r="O64" s="81"/>
       <c r="P64" s="41"/>
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
       <c r="S64" s="90"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="113"/>
-      <c r="X64" s="113"/>
-      <c r="Y64" s="113"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="98"/>
-      <c r="AD64" s="95"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="98"/>
-      <c r="AI64" s="95"/>
-      <c r="AJ64" s="44"/>
-      <c r="AK64" s="44"/>
-      <c r="AL64" s="44"/>
-      <c r="AM64" s="98"/>
-      <c r="AN64" s="95"/>
-      <c r="AO64" s="44"/>
-      <c r="AP64" s="44"/>
-      <c r="AQ64" s="44"/>
-      <c r="AR64" s="98"/>
-      <c r="AS64" s="95"/>
-      <c r="AT64" s="44"/>
-      <c r="AU64" s="44"/>
-      <c r="AV64" s="44"/>
-      <c r="AW64" s="98"/>
-      <c r="AX64" s="95"/>
-      <c r="AY64" s="44"/>
-      <c r="AZ64" s="44"/>
-      <c r="BA64" s="44"/>
-      <c r="BB64" s="98"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="94"/>
+      <c r="Y64" s="89"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+      <c r="AB64" s="40"/>
+      <c r="AC64" s="94"/>
+      <c r="AD64" s="96"/>
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="100"/>
+      <c r="AI64" s="89"/>
+      <c r="AJ64" s="40"/>
+      <c r="AK64" s="40"/>
+      <c r="AL64" s="40"/>
+      <c r="AM64" s="94"/>
+      <c r="AN64" s="89"/>
+      <c r="AO64" s="40"/>
+      <c r="AP64" s="40"/>
+      <c r="AQ64" s="40"/>
+      <c r="AR64" s="94"/>
+      <c r="AS64" s="102"/>
+      <c r="AT64" s="47"/>
+      <c r="AU64" s="47"/>
+      <c r="AV64" s="47"/>
+      <c r="AW64" s="104"/>
+      <c r="AX64" s="89"/>
+      <c r="AY64" s="40"/>
+      <c r="AZ64" s="40"/>
+      <c r="BA64" s="40"/>
+      <c r="BB64" s="94"/>
       <c r="BC64" s="29"/>
     </row>
     <row r="65" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="107" t="s">
-        <v>137</v>
-      </c>
+      <c r="B65" s="30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="77"/>
+      <c r="E65" s="107"/>
       <c r="F65" s="112">
         <v>45575</v>
       </c>
       <c r="G65" s="112">
-        <v>45579</v>
+        <v>45581</v>
       </c>
       <c r="H65" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I65" s="120">
         <v>1</v>
@@ -7311,8 +7352,8 @@
       <c r="W65" s="113"/>
       <c r="X65" s="113"/>
       <c r="Y65" s="113"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="113"/>
       <c r="AB65" s="44"/>
       <c r="AC65" s="98"/>
       <c r="AD65" s="95"/>
@@ -7342,24 +7383,24 @@
       <c r="BB65" s="98"/>
       <c r="BC65" s="29"/>
     </row>
-    <row r="66" spans="2:55" ht="16.899999999999999" customHeight="1" outlineLevel="1">
+    <row r="66" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
       <c r="D66" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="107" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="F66" s="112">
         <v>45575</v>
       </c>
       <c r="G66" s="112">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="H66" s="119">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I66" s="120">
         <v>1</v>
@@ -7381,54 +7422,54 @@
       <c r="X66" s="113"/>
       <c r="Y66" s="113"/>
       <c r="Z66" s="113"/>
-      <c r="AA66" s="113"/>
-      <c r="AB66" s="46"/>
-      <c r="AC66" s="100"/>
-      <c r="AD66" s="96"/>
-      <c r="AE66" s="46"/>
-      <c r="AF66" s="46"/>
-      <c r="AG66" s="46"/>
-      <c r="AH66" s="100"/>
-      <c r="AI66" s="96"/>
-      <c r="AJ66" s="46"/>
-      <c r="AK66" s="46"/>
-      <c r="AL66" s="46"/>
-      <c r="AM66" s="100"/>
-      <c r="AN66" s="96"/>
-      <c r="AO66" s="46"/>
-      <c r="AP66" s="46"/>
-      <c r="AQ66" s="46"/>
-      <c r="AR66" s="100"/>
-      <c r="AS66" s="96"/>
-      <c r="AT66" s="46"/>
-      <c r="AU66" s="46"/>
-      <c r="AV66" s="46"/>
-      <c r="AW66" s="100"/>
-      <c r="AX66" s="96"/>
-      <c r="AY66" s="46"/>
-      <c r="AZ66" s="46"/>
-      <c r="BA66" s="46"/>
-      <c r="BB66" s="100"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="98"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="98"/>
+      <c r="AI66" s="95"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="44"/>
+      <c r="AM66" s="98"/>
+      <c r="AN66" s="95"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="44"/>
+      <c r="AQ66" s="44"/>
+      <c r="AR66" s="98"/>
+      <c r="AS66" s="95"/>
+      <c r="AT66" s="44"/>
+      <c r="AU66" s="44"/>
+      <c r="AV66" s="44"/>
+      <c r="AW66" s="98"/>
+      <c r="AX66" s="95"/>
+      <c r="AY66" s="44"/>
+      <c r="AZ66" s="44"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="98"/>
       <c r="BC66" s="29"/>
     </row>
     <row r="67" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B67" s="30">
-        <v>4.7</v>
-      </c>
-      <c r="C67" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="107"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="107" t="s">
+        <v>137</v>
+      </c>
       <c r="F67" s="112">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="G67" s="112">
-        <v>45583</v>
+        <v>45579</v>
       </c>
       <c r="H67" s="119">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I67" s="120">
         <v>1</v>
@@ -7444,60 +7485,60 @@
       <c r="R67" s="41"/>
       <c r="S67" s="90"/>
       <c r="T67" s="88"/>
-      <c r="U67" s="113"/>
+      <c r="U67" s="43"/>
       <c r="V67" s="43"/>
       <c r="W67" s="113"/>
       <c r="X67" s="113"/>
       <c r="Y67" s="113"/>
-      <c r="Z67" s="113"/>
-      <c r="AA67" s="113"/>
-      <c r="AB67" s="113"/>
-      <c r="AC67" s="113"/>
-      <c r="AD67" s="96"/>
-      <c r="AE67" s="46"/>
-      <c r="AF67" s="46"/>
-      <c r="AG67" s="46"/>
-      <c r="AH67" s="100"/>
-      <c r="AI67" s="96"/>
-      <c r="AJ67" s="46"/>
-      <c r="AK67" s="46"/>
-      <c r="AL67" s="46"/>
-      <c r="AM67" s="100"/>
-      <c r="AN67" s="96"/>
-      <c r="AO67" s="46"/>
-      <c r="AP67" s="46"/>
-      <c r="AQ67" s="46"/>
-      <c r="AR67" s="100"/>
-      <c r="AS67" s="96"/>
-      <c r="AT67" s="46"/>
-      <c r="AU67" s="46"/>
-      <c r="AV67" s="46"/>
-      <c r="AW67" s="100"/>
-      <c r="AX67" s="96"/>
-      <c r="AY67" s="46"/>
-      <c r="AZ67" s="46"/>
-      <c r="BA67" s="46"/>
-      <c r="BB67" s="100"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="98"/>
+      <c r="AD67" s="95"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="98"/>
+      <c r="AI67" s="95"/>
+      <c r="AJ67" s="44"/>
+      <c r="AK67" s="44"/>
+      <c r="AL67" s="44"/>
+      <c r="AM67" s="98"/>
+      <c r="AN67" s="95"/>
+      <c r="AO67" s="44"/>
+      <c r="AP67" s="44"/>
+      <c r="AQ67" s="44"/>
+      <c r="AR67" s="98"/>
+      <c r="AS67" s="95"/>
+      <c r="AT67" s="44"/>
+      <c r="AU67" s="44"/>
+      <c r="AV67" s="44"/>
+      <c r="AW67" s="98"/>
+      <c r="AX67" s="95"/>
+      <c r="AY67" s="44"/>
+      <c r="AZ67" s="44"/>
+      <c r="BA67" s="44"/>
+      <c r="BB67" s="98"/>
       <c r="BC67" s="29"/>
     </row>
     <row r="68" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B68" s="30"/>
       <c r="C68" s="31"/>
       <c r="D68" s="77" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="E68" s="107" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F68" s="112">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="G68" s="112">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="H68" s="119">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I68" s="120">
         <v>1</v>
@@ -7507,66 +7548,66 @@
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
       <c r="N68" s="84"/>
-      <c r="O68" s="41"/>
+      <c r="O68" s="81"/>
       <c r="P68" s="41"/>
       <c r="Q68" s="41"/>
       <c r="R68" s="41"/>
       <c r="S68" s="90"/>
       <c r="T68" s="88"/>
-      <c r="U68" s="113"/>
+      <c r="U68" s="43"/>
       <c r="V68" s="43"/>
       <c r="W68" s="113"/>
       <c r="X68" s="113"/>
-      <c r="Y68" s="96"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="46"/>
-      <c r="AB68" s="46"/>
-      <c r="AC68" s="100"/>
-      <c r="AD68" s="96"/>
-      <c r="AE68" s="46"/>
-      <c r="AF68" s="46"/>
-      <c r="AG68" s="46"/>
-      <c r="AH68" s="100"/>
-      <c r="AI68" s="96"/>
-      <c r="AJ68" s="46"/>
-      <c r="AK68" s="46"/>
-      <c r="AL68" s="46"/>
-      <c r="AM68" s="100"/>
-      <c r="AN68" s="96"/>
-      <c r="AO68" s="46"/>
-      <c r="AP68" s="46"/>
-      <c r="AQ68" s="46"/>
-      <c r="AR68" s="100"/>
-      <c r="AS68" s="96"/>
-      <c r="AT68" s="46"/>
-      <c r="AU68" s="46"/>
-      <c r="AV68" s="46"/>
-      <c r="AW68" s="100"/>
-      <c r="AX68" s="96"/>
-      <c r="AY68" s="46"/>
-      <c r="AZ68" s="46"/>
-      <c r="BA68" s="46"/>
-      <c r="BB68" s="100"/>
+      <c r="Y68" s="113"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="98"/>
+      <c r="AD68" s="95"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="98"/>
+      <c r="AI68" s="95"/>
+      <c r="AJ68" s="44"/>
+      <c r="AK68" s="44"/>
+      <c r="AL68" s="44"/>
+      <c r="AM68" s="98"/>
+      <c r="AN68" s="95"/>
+      <c r="AO68" s="44"/>
+      <c r="AP68" s="44"/>
+      <c r="AQ68" s="44"/>
+      <c r="AR68" s="98"/>
+      <c r="AS68" s="95"/>
+      <c r="AT68" s="44"/>
+      <c r="AU68" s="44"/>
+      <c r="AV68" s="44"/>
+      <c r="AW68" s="98"/>
+      <c r="AX68" s="95"/>
+      <c r="AY68" s="44"/>
+      <c r="AZ68" s="44"/>
+      <c r="BA68" s="44"/>
+      <c r="BB68" s="98"/>
       <c r="BC68" s="29"/>
     </row>
     <row r="69" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="107" t="s">
-        <v>100</v>
-      </c>
+      <c r="B69" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="C69" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="77"/>
+      <c r="E69" s="107"/>
       <c r="F69" s="112">
         <v>45573</v>
       </c>
       <c r="G69" s="112">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="H69" s="119">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="I69" s="120">
         <v>1</v>
@@ -7576,7 +7617,7 @@
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
       <c r="N69" s="84"/>
-      <c r="O69" s="41"/>
+      <c r="O69" s="81"/>
       <c r="P69" s="41"/>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
@@ -7586,11 +7627,11 @@
       <c r="V69" s="43"/>
       <c r="W69" s="113"/>
       <c r="X69" s="113"/>
-      <c r="Y69" s="96"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="46"/>
-      <c r="AB69" s="46"/>
-      <c r="AC69" s="100"/>
+      <c r="Y69" s="113"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="113"/>
+      <c r="AB69" s="113"/>
+      <c r="AC69" s="113"/>
       <c r="AD69" s="96"/>
       <c r="AE69" s="46"/>
       <c r="AF69" s="46"/>
@@ -7622,10 +7663,10 @@
       <c r="B70" s="30"/>
       <c r="C70" s="31"/>
       <c r="D70" s="77" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E70" s="107" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F70" s="112">
         <v>45573</v>
@@ -7634,7 +7675,7 @@
         <v>45576</v>
       </c>
       <c r="H70" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I70" s="120">
@@ -7691,10 +7732,10 @@
       <c r="B71" s="30"/>
       <c r="C71" s="31"/>
       <c r="D71" s="77" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E71" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F71" s="112">
         <v>45573</v>
@@ -7703,7 +7744,7 @@
         <v>45576</v>
       </c>
       <c r="H71" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I71" s="120">
@@ -7760,20 +7801,20 @@
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="77" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E72" s="107" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F72" s="112">
         <v>45573</v>
       </c>
       <c r="G72" s="112">
-        <v>45583</v>
+        <v>45576</v>
       </c>
       <c r="H72" s="119">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I72" s="120">
         <v>1</v>
@@ -7789,60 +7830,60 @@
       <c r="R72" s="41"/>
       <c r="S72" s="90"/>
       <c r="T72" s="88"/>
-      <c r="U72" s="121"/>
+      <c r="U72" s="113"/>
       <c r="V72" s="43"/>
-      <c r="W72" s="121"/>
-      <c r="X72" s="122"/>
-      <c r="Y72" s="122"/>
-      <c r="Z72" s="122"/>
-      <c r="AA72" s="122"/>
-      <c r="AB72" s="122"/>
-      <c r="AC72" s="122"/>
-      <c r="AD72" s="95"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AH72" s="98"/>
-      <c r="AI72" s="95"/>
-      <c r="AJ72" s="44"/>
-      <c r="AK72" s="44"/>
-      <c r="AL72" s="44"/>
-      <c r="AM72" s="98"/>
-      <c r="AN72" s="95"/>
-      <c r="AO72" s="44"/>
-      <c r="AP72" s="44"/>
-      <c r="AQ72" s="44"/>
-      <c r="AR72" s="98"/>
-      <c r="AS72" s="95"/>
-      <c r="AT72" s="44"/>
-      <c r="AU72" s="44"/>
-      <c r="AV72" s="44"/>
-      <c r="AW72" s="98"/>
-      <c r="AX72" s="95"/>
-      <c r="AY72" s="44"/>
-      <c r="AZ72" s="44"/>
-      <c r="BA72" s="44"/>
-      <c r="BB72" s="98"/>
+      <c r="W72" s="113"/>
+      <c r="X72" s="113"/>
+      <c r="Y72" s="96"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="100"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="46"/>
+      <c r="AG72" s="46"/>
+      <c r="AH72" s="100"/>
+      <c r="AI72" s="96"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="100"/>
+      <c r="AN72" s="96"/>
+      <c r="AO72" s="46"/>
+      <c r="AP72" s="46"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="100"/>
+      <c r="AS72" s="96"/>
+      <c r="AT72" s="46"/>
+      <c r="AU72" s="46"/>
+      <c r="AV72" s="46"/>
+      <c r="AW72" s="100"/>
+      <c r="AX72" s="96"/>
+      <c r="AY72" s="46"/>
+      <c r="AZ72" s="46"/>
+      <c r="BA72" s="46"/>
+      <c r="BB72" s="100"/>
       <c r="BC72" s="29"/>
     </row>
     <row r="73" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="77" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E73" s="107" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="F73" s="112">
         <v>45573</v>
       </c>
       <c r="G73" s="112">
-        <v>45583</v>
+        <v>45576</v>
       </c>
       <c r="H73" s="119">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I73" s="120">
         <v>1</v>
@@ -7858,198 +7899,198 @@
       <c r="R73" s="41"/>
       <c r="S73" s="90"/>
       <c r="T73" s="88"/>
-      <c r="U73" s="122"/>
+      <c r="U73" s="113"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="122"/>
-      <c r="X73" s="122"/>
-      <c r="Y73" s="122"/>
-      <c r="Z73" s="122"/>
-      <c r="AA73" s="122"/>
-      <c r="AB73" s="122"/>
-      <c r="AC73" s="122"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="44"/>
-      <c r="AF73" s="44"/>
-      <c r="AG73" s="44"/>
-      <c r="AH73" s="98"/>
-      <c r="AI73" s="95"/>
-      <c r="AJ73" s="44"/>
-      <c r="AK73" s="44"/>
-      <c r="AL73" s="44"/>
-      <c r="AM73" s="98"/>
-      <c r="AN73" s="95"/>
-      <c r="AO73" s="44"/>
-      <c r="AP73" s="44"/>
-      <c r="AQ73" s="44"/>
-      <c r="AR73" s="98"/>
-      <c r="AS73" s="95"/>
-      <c r="AT73" s="44"/>
-      <c r="AU73" s="44"/>
-      <c r="AV73" s="44"/>
-      <c r="AW73" s="98"/>
-      <c r="AX73" s="95"/>
-      <c r="AY73" s="44"/>
-      <c r="AZ73" s="44"/>
-      <c r="BA73" s="44"/>
-      <c r="BB73" s="98"/>
+      <c r="W73" s="113"/>
+      <c r="X73" s="113"/>
+      <c r="Y73" s="96"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="100"/>
+      <c r="AD73" s="96"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="100"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="46"/>
+      <c r="AM73" s="100"/>
+      <c r="AN73" s="96"/>
+      <c r="AO73" s="46"/>
+      <c r="AP73" s="46"/>
+      <c r="AQ73" s="46"/>
+      <c r="AR73" s="100"/>
+      <c r="AS73" s="96"/>
+      <c r="AT73" s="46"/>
+      <c r="AU73" s="46"/>
+      <c r="AV73" s="46"/>
+      <c r="AW73" s="100"/>
+      <c r="AX73" s="96"/>
+      <c r="AY73" s="46"/>
+      <c r="AZ73" s="46"/>
+      <c r="BA73" s="46"/>
+      <c r="BB73" s="100"/>
       <c r="BC73" s="29"/>
     </row>
     <row r="74" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B74" s="30">
-        <v>4.8</v>
-      </c>
-      <c r="C74" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="107"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="107" t="s">
+        <v>140</v>
+      </c>
       <c r="F74" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G74" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45573</v>
+      </c>
+      <c r="G74" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H74" s="119">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="I74" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="34"/>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
       <c r="N74" s="84"/>
-      <c r="O74" s="81"/>
+      <c r="O74" s="41"/>
       <c r="P74" s="41"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="41"/>
       <c r="S74" s="90"/>
       <c r="T74" s="88"/>
-      <c r="U74" s="43"/>
+      <c r="U74" s="121"/>
       <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="93"/>
-      <c r="Y74" s="96"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="46"/>
-      <c r="AC74" s="100"/>
-      <c r="AD74" s="96"/>
-      <c r="AE74" s="46"/>
-      <c r="AF74" s="46"/>
-      <c r="AG74" s="46"/>
-      <c r="AH74" s="100"/>
-      <c r="AI74" s="96"/>
-      <c r="AJ74" s="46"/>
-      <c r="AK74" s="46"/>
-      <c r="AL74" s="46"/>
-      <c r="AM74" s="100"/>
-      <c r="AN74" s="96"/>
-      <c r="AO74" s="46"/>
-      <c r="AP74" s="46"/>
-      <c r="AQ74" s="46"/>
-      <c r="AR74" s="100"/>
-      <c r="AS74" s="96"/>
-      <c r="AT74" s="46"/>
-      <c r="AU74" s="46"/>
-      <c r="AV74" s="46"/>
-      <c r="AW74" s="100"/>
-      <c r="AX74" s="96"/>
-      <c r="AY74" s="46"/>
-      <c r="AZ74" s="46"/>
-      <c r="BA74" s="46"/>
-      <c r="BB74" s="100"/>
+      <c r="W74" s="121"/>
+      <c r="X74" s="122"/>
+      <c r="Y74" s="122"/>
+      <c r="Z74" s="122"/>
+      <c r="AA74" s="122"/>
+      <c r="AB74" s="122"/>
+      <c r="AC74" s="122"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="44"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="44"/>
+      <c r="AH74" s="98"/>
+      <c r="AI74" s="95"/>
+      <c r="AJ74" s="44"/>
+      <c r="AK74" s="44"/>
+      <c r="AL74" s="44"/>
+      <c r="AM74" s="98"/>
+      <c r="AN74" s="95"/>
+      <c r="AO74" s="44"/>
+      <c r="AP74" s="44"/>
+      <c r="AQ74" s="44"/>
+      <c r="AR74" s="98"/>
+      <c r="AS74" s="95"/>
+      <c r="AT74" s="44"/>
+      <c r="AU74" s="44"/>
+      <c r="AV74" s="44"/>
+      <c r="AW74" s="98"/>
+      <c r="AX74" s="95"/>
+      <c r="AY74" s="44"/>
+      <c r="AZ74" s="44"/>
+      <c r="BA74" s="44"/>
+      <c r="BB74" s="98"/>
       <c r="BC74" s="29"/>
     </row>
     <row r="75" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B75" s="30"/>
-      <c r="C75" s="77"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="77" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E75" s="107" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F75" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G75" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45573</v>
+      </c>
+      <c r="G75" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H75" s="119">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="I75" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="34"/>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
       <c r="N75" s="84"/>
-      <c r="O75" s="81"/>
+      <c r="O75" s="41"/>
       <c r="P75" s="41"/>
       <c r="Q75" s="41"/>
       <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="121"/>
-      <c r="U75" s="121"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="122"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="121"/>
-      <c r="X75" s="121"/>
-      <c r="Y75" s="121"/>
-      <c r="Z75" s="121"/>
-      <c r="AA75" s="121"/>
-      <c r="AB75" s="121"/>
-      <c r="AC75" s="121"/>
-      <c r="AD75" s="121"/>
-      <c r="AE75" s="46"/>
-      <c r="AF75" s="46"/>
-      <c r="AG75" s="46"/>
-      <c r="AH75" s="100"/>
-      <c r="AI75" s="96"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="46"/>
-      <c r="AL75" s="46"/>
-      <c r="AM75" s="100"/>
-      <c r="AN75" s="96"/>
-      <c r="AO75" s="46"/>
-      <c r="AP75" s="46"/>
-      <c r="AQ75" s="46"/>
-      <c r="AR75" s="100"/>
-      <c r="AS75" s="96"/>
-      <c r="AT75" s="46"/>
-      <c r="AU75" s="46"/>
-      <c r="AV75" s="46"/>
-      <c r="AW75" s="100"/>
-      <c r="AX75" s="96"/>
-      <c r="AY75" s="46"/>
-      <c r="AZ75" s="46"/>
-      <c r="BA75" s="46"/>
-      <c r="BB75" s="100"/>
+      <c r="W75" s="122"/>
+      <c r="X75" s="122"/>
+      <c r="Y75" s="122"/>
+      <c r="Z75" s="122"/>
+      <c r="AA75" s="122"/>
+      <c r="AB75" s="122"/>
+      <c r="AC75" s="122"/>
+      <c r="AD75" s="95"/>
+      <c r="AE75" s="44"/>
+      <c r="AF75" s="44"/>
+      <c r="AG75" s="44"/>
+      <c r="AH75" s="98"/>
+      <c r="AI75" s="95"/>
+      <c r="AJ75" s="44"/>
+      <c r="AK75" s="44"/>
+      <c r="AL75" s="44"/>
+      <c r="AM75" s="98"/>
+      <c r="AN75" s="95"/>
+      <c r="AO75" s="44"/>
+      <c r="AP75" s="44"/>
+      <c r="AQ75" s="44"/>
+      <c r="AR75" s="98"/>
+      <c r="AS75" s="95"/>
+      <c r="AT75" s="44"/>
+      <c r="AU75" s="44"/>
+      <c r="AV75" s="44"/>
+      <c r="AW75" s="98"/>
+      <c r="AX75" s="95"/>
+      <c r="AY75" s="44"/>
+      <c r="AZ75" s="44"/>
+      <c r="BA75" s="44"/>
+      <c r="BB75" s="98"/>
       <c r="BC75" s="29"/>
     </row>
     <row r="76" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B76" s="30"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="107" t="s">
-        <v>100</v>
-      </c>
+      <c r="B76" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="77"/>
+      <c r="E76" s="107"/>
       <c r="F76" s="112">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="G76" s="112">
-        <v>45581</v>
+        <v>45593</v>
       </c>
       <c r="H76" s="119">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="I76" s="120">
         <v>1</v>
@@ -8063,15 +8104,15 @@
       <c r="P76" s="41"/>
       <c r="Q76" s="41"/>
       <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="121"/>
-      <c r="U76" s="121"/>
+      <c r="S76" s="90"/>
+      <c r="T76" s="88"/>
+      <c r="U76" s="43"/>
       <c r="V76" s="43"/>
-      <c r="W76" s="121"/>
-      <c r="X76" s="121"/>
-      <c r="Y76" s="121"/>
-      <c r="Z76" s="121"/>
-      <c r="AA76" s="121"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="93"/>
+      <c r="Y76" s="96"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
       <c r="AB76" s="46"/>
       <c r="AC76" s="100"/>
       <c r="AD76" s="96"/>
@@ -8101,27 +8142,27 @@
       <c r="BB76" s="100"/>
       <c r="BC76" s="29"/>
     </row>
-    <row r="77" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="77" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B77" s="30"/>
       <c r="C77" s="77"/>
       <c r="D77" s="77" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="E77" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F77" s="112">
-        <v>45572</v>
-      </c>
-      <c r="G77" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H77" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45590</v>
+      </c>
+      <c r="G77" s="112">
+        <v>45594</v>
+      </c>
+      <c r="H77" s="119">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I77" s="120">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="34"/>
@@ -8132,18 +8173,18 @@
       <c r="P77" s="41"/>
       <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="121"/>
-      <c r="U77" s="121"/>
+      <c r="S77" s="123"/>
+      <c r="T77" s="88"/>
+      <c r="U77" s="43"/>
       <c r="V77" s="43"/>
-      <c r="W77" s="121"/>
-      <c r="X77" s="121"/>
-      <c r="Y77" s="121"/>
-      <c r="Z77" s="121"/>
-      <c r="AA77" s="121"/>
-      <c r="AB77" s="121"/>
-      <c r="AC77" s="121"/>
-      <c r="AD77" s="121"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="160"/>
+      <c r="Y77" s="95"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="161"/>
+      <c r="AD77" s="95"/>
       <c r="AE77" s="46"/>
       <c r="AF77" s="46"/>
       <c r="AG77" s="46"/>
@@ -8170,24 +8211,24 @@
       <c r="BB77" s="100"/>
       <c r="BC77" s="29"/>
     </row>
-    <row r="78" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="78" spans="2:55" s="124" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B78" s="30"/>
       <c r="C78" s="77"/>
       <c r="D78" s="77" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="E78" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F78" s="112">
         <v>45572</v>
       </c>
       <c r="G78" s="112">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="H78" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="I78" s="120">
         <v>1</v>
@@ -8201,18 +8242,18 @@
       <c r="P78" s="41"/>
       <c r="Q78" s="41"/>
       <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
+      <c r="S78" s="123"/>
       <c r="T78" s="121"/>
       <c r="U78" s="121"/>
       <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="93"/>
-      <c r="Y78" s="96"/>
-      <c r="Z78" s="46"/>
-      <c r="AA78" s="46"/>
-      <c r="AB78" s="46"/>
-      <c r="AC78" s="100"/>
-      <c r="AD78" s="96"/>
+      <c r="W78" s="121"/>
+      <c r="X78" s="121"/>
+      <c r="Y78" s="121"/>
+      <c r="Z78" s="121"/>
+      <c r="AA78" s="121"/>
+      <c r="AB78" s="121"/>
+      <c r="AC78" s="121"/>
+      <c r="AD78" s="121"/>
       <c r="AE78" s="46"/>
       <c r="AF78" s="46"/>
       <c r="AG78" s="46"/>
@@ -8243,20 +8284,20 @@
       <c r="B79" s="30"/>
       <c r="C79" s="77"/>
       <c r="D79" s="77" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="E79" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F79" s="112">
-        <v>45573</v>
+        <v>45572</v>
       </c>
       <c r="G79" s="112">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="H79" s="119">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="I79" s="120">
         <v>1</v>
@@ -8270,8 +8311,8 @@
       <c r="P79" s="41"/>
       <c r="Q79" s="41"/>
       <c r="R79" s="41"/>
-      <c r="S79" s="90"/>
-      <c r="T79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="121"/>
       <c r="U79" s="121"/>
       <c r="V79" s="43"/>
       <c r="W79" s="121"/>
@@ -8281,7 +8322,7 @@
       <c r="AA79" s="121"/>
       <c r="AB79" s="121"/>
       <c r="AC79" s="121"/>
-      <c r="AD79" s="96"/>
+      <c r="AD79" s="121"/>
       <c r="AE79" s="46"/>
       <c r="AF79" s="46"/>
       <c r="AG79" s="46"/>
@@ -8312,20 +8353,20 @@
       <c r="B80" s="30"/>
       <c r="C80" s="77"/>
       <c r="D80" s="77" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="E80" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F80" s="112">
-        <v>45575</v>
+        <v>45572</v>
       </c>
       <c r="G80" s="112">
-        <v>45576</v>
+        <v>45581</v>
       </c>
       <c r="H80" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="I80" s="120">
         <v>1</v>
@@ -8339,15 +8380,15 @@
       <c r="P80" s="41"/>
       <c r="Q80" s="41"/>
       <c r="R80" s="41"/>
-      <c r="S80" s="123"/>
-      <c r="T80" s="123"/>
-      <c r="U80" s="123"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="121"/>
+      <c r="U80" s="121"/>
       <c r="V80" s="43"/>
       <c r="W80" s="121"/>
-      <c r="X80" s="122"/>
-      <c r="Y80" s="96"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="46"/>
+      <c r="X80" s="121"/>
+      <c r="Y80" s="121"/>
+      <c r="Z80" s="121"/>
+      <c r="AA80" s="121"/>
       <c r="AB80" s="46"/>
       <c r="AC80" s="100"/>
       <c r="AD80" s="96"/>
@@ -8381,20 +8422,20 @@
       <c r="B81" s="30"/>
       <c r="C81" s="77"/>
       <c r="D81" s="77" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="E81" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F81" s="112">
-        <v>45575</v>
+        <v>45572</v>
       </c>
       <c r="G81" s="112">
-        <v>45576</v>
+        <v>45593</v>
       </c>
       <c r="H81" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="I81" s="120">
         <v>1</v>
@@ -8408,18 +8449,18 @@
       <c r="P81" s="41"/>
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
-      <c r="S81" s="123"/>
-      <c r="T81" s="123"/>
-      <c r="U81" s="123"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="121"/>
+      <c r="U81" s="121"/>
       <c r="V81" s="43"/>
       <c r="W81" s="121"/>
-      <c r="X81" s="122"/>
-      <c r="Y81" s="96"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="100"/>
-      <c r="AD81" s="96"/>
+      <c r="X81" s="121"/>
+      <c r="Y81" s="121"/>
+      <c r="Z81" s="121"/>
+      <c r="AA81" s="121"/>
+      <c r="AB81" s="121"/>
+      <c r="AC81" s="121"/>
+      <c r="AD81" s="121"/>
       <c r="AE81" s="46"/>
       <c r="AF81" s="46"/>
       <c r="AG81" s="46"/>
@@ -8450,20 +8491,20 @@
       <c r="B82" s="30"/>
       <c r="C82" s="77"/>
       <c r="D82" s="77" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E82" s="107" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F82" s="112">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="G82" s="112">
-        <v>45569</v>
+        <v>45573</v>
       </c>
       <c r="H82" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I82" s="120">
         <v>1</v>
@@ -8475,11 +8516,11 @@
       <c r="N82" s="84"/>
       <c r="O82" s="81"/>
       <c r="P82" s="41"/>
-      <c r="Q82" s="121"/>
+      <c r="Q82" s="41"/>
       <c r="R82" s="41"/>
-      <c r="S82" s="121"/>
-      <c r="T82" s="88"/>
-      <c r="U82" s="43"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="121"/>
+      <c r="U82" s="121"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
       <c r="X82" s="93"/>
@@ -8517,22 +8558,22 @@
     </row>
     <row r="83" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="77"/>
       <c r="D83" s="77" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E83" s="107" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F83" s="112">
-        <v>45567</v>
+        <v>45573</v>
       </c>
       <c r="G83" s="112">
-        <v>45569</v>
+        <v>45583</v>
       </c>
       <c r="H83" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="I83" s="120">
         <v>1</v>
@@ -8542,21 +8583,21 @@
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="84"/>
-      <c r="O83" s="41"/>
+      <c r="O83" s="81"/>
       <c r="P83" s="41"/>
-      <c r="Q83" s="121"/>
+      <c r="Q83" s="41"/>
       <c r="R83" s="41"/>
-      <c r="S83" s="121"/>
-      <c r="T83" s="88"/>
-      <c r="U83" s="43"/>
+      <c r="S83" s="90"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="121"/>
       <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="93"/>
-      <c r="Y83" s="96"/>
-      <c r="Z83" s="46"/>
-      <c r="AA83" s="46"/>
-      <c r="AB83" s="46"/>
-      <c r="AC83" s="100"/>
+      <c r="W83" s="121"/>
+      <c r="X83" s="121"/>
+      <c r="Y83" s="121"/>
+      <c r="Z83" s="121"/>
+      <c r="AA83" s="121"/>
+      <c r="AB83" s="121"/>
+      <c r="AC83" s="121"/>
       <c r="AD83" s="96"/>
       <c r="AE83" s="46"/>
       <c r="AF83" s="46"/>
@@ -8586,21 +8627,21 @@
     </row>
     <row r="84" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
+      <c r="C84" s="77"/>
       <c r="D84" s="77" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="E84" s="107" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F84" s="112">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="G84" s="112">
-        <v>45567</v>
+        <v>45576</v>
       </c>
       <c r="H84" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I84" s="120">
@@ -8611,16 +8652,16 @@
       <c r="L84" s="35"/>
       <c r="M84" s="35"/>
       <c r="N84" s="84"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="121"/>
-      <c r="Q84" s="121"/>
+      <c r="O84" s="81"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
       <c r="R84" s="41"/>
-      <c r="S84" s="90"/>
-      <c r="T84" s="88"/>
-      <c r="U84" s="43"/>
+      <c r="S84" s="123"/>
+      <c r="T84" s="123"/>
+      <c r="U84" s="123"/>
       <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="93"/>
+      <c r="W84" s="121"/>
+      <c r="X84" s="122"/>
       <c r="Y84" s="96"/>
       <c r="Z84" s="46"/>
       <c r="AA84" s="46"/>
@@ -8655,22 +8696,22 @@
     </row>
     <row r="85" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="77" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E85" s="107" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F85" s="112">
-        <v>45565</v>
+        <v>45575</v>
       </c>
       <c r="G85" s="112">
-        <v>45567</v>
+        <v>45576</v>
       </c>
       <c r="H85" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I85" s="120">
         <v>1</v>
@@ -8680,16 +8721,16 @@
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
       <c r="N85" s="84"/>
-      <c r="O85" s="121"/>
-      <c r="P85" s="121"/>
-      <c r="Q85" s="121"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
       <c r="R85" s="41"/>
-      <c r="S85" s="90"/>
-      <c r="T85" s="88"/>
-      <c r="U85" s="43"/>
+      <c r="S85" s="123"/>
+      <c r="T85" s="123"/>
+      <c r="U85" s="123"/>
       <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
-      <c r="X85" s="93"/>
+      <c r="W85" s="121"/>
+      <c r="X85" s="122"/>
       <c r="Y85" s="96"/>
       <c r="Z85" s="46"/>
       <c r="AA85" s="46"/>
@@ -8723,26 +8764,26 @@
       <c r="BC85" s="29"/>
     </row>
     <row r="86" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B86" s="30">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="107"/>
-      <c r="E86" s="60"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="107" t="s">
+        <v>87</v>
+      </c>
       <c r="F86" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G86" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45567</v>
+      </c>
+      <c r="G86" s="112">
+        <v>45569</v>
+      </c>
+      <c r="H86" s="119">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I86" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="34"/>
@@ -8751,15 +8792,15 @@
       <c r="N86" s="84"/>
       <c r="O86" s="81"/>
       <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
+      <c r="Q86" s="121"/>
       <c r="R86" s="41"/>
-      <c r="S86" s="90"/>
+      <c r="S86" s="121"/>
       <c r="T86" s="88"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="121"/>
-      <c r="Y86" s="43"/>
+      <c r="X86" s="93"/>
+      <c r="Y86" s="96"/>
       <c r="Z86" s="46"/>
       <c r="AA86" s="46"/>
       <c r="AB86" s="46"/>
@@ -8794,21 +8835,21 @@
     <row r="87" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B87" s="30"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="107" t="s">
-        <v>134</v>
+      <c r="D87" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="E87" s="107" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F87" s="112">
-        <v>45576</v>
+        <v>45567</v>
       </c>
       <c r="G87" s="112">
-        <v>45579</v>
+        <v>45569</v>
       </c>
       <c r="H87" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I87" s="120">
         <v>1</v>
@@ -8818,17 +8859,17 @@
       <c r="L87" s="35"/>
       <c r="M87" s="35"/>
       <c r="N87" s="84"/>
-      <c r="O87" s="81"/>
+      <c r="O87" s="41"/>
       <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
+      <c r="Q87" s="121"/>
       <c r="R87" s="41"/>
-      <c r="S87" s="90"/>
+      <c r="S87" s="121"/>
       <c r="T87" s="88"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
       <c r="W87" s="43"/>
-      <c r="X87" s="121"/>
-      <c r="Y87" s="121"/>
+      <c r="X87" s="93"/>
+      <c r="Y87" s="96"/>
       <c r="Z87" s="46"/>
       <c r="AA87" s="46"/>
       <c r="AB87" s="46"/>
@@ -8863,21 +8904,21 @@
     <row r="88" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B88" s="30"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="112" t="s">
-        <v>137</v>
+      <c r="D88" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="107" t="s">
+        <v>41</v>
       </c>
       <c r="F88" s="112">
-        <v>45576</v>
+        <v>45566</v>
       </c>
       <c r="G88" s="112">
-        <v>45580</v>
+        <v>45567</v>
       </c>
       <c r="H88" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I88" s="120">
         <v>1</v>
@@ -8887,18 +8928,18 @@
       <c r="L88" s="35"/>
       <c r="M88" s="35"/>
       <c r="N88" s="84"/>
-      <c r="O88" s="81"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="121"/>
+      <c r="Q88" s="121"/>
       <c r="R88" s="41"/>
       <c r="S88" s="90"/>
       <c r="T88" s="88"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="121"/>
-      <c r="Y88" s="121"/>
-      <c r="Z88" s="121"/>
+      <c r="X88" s="93"/>
+      <c r="Y88" s="96"/>
+      <c r="Z88" s="46"/>
       <c r="AA88" s="46"/>
       <c r="AB88" s="46"/>
       <c r="AC88" s="100"/>
@@ -8932,31 +8973,33 @@
     <row r="89" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B89" s="30"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="60"/>
+      <c r="D89" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="107" t="s">
+        <v>103</v>
+      </c>
       <c r="F89" s="112">
-        <v>0</v>
+        <v>45565</v>
       </c>
       <c r="G89" s="112">
-        <v>0</v>
+        <v>45567</v>
       </c>
       <c r="H89" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I89" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="34"/>
       <c r="L89" s="35"/>
       <c r="M89" s="35"/>
       <c r="N89" s="84"/>
-      <c r="O89" s="81"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
+      <c r="O89" s="121"/>
+      <c r="P89" s="121"/>
+      <c r="Q89" s="121"/>
       <c r="R89" s="41"/>
       <c r="S89" s="90"/>
       <c r="T89" s="88"/>
@@ -8997,26 +9040,26 @@
       <c r="BC89" s="29"/>
     </row>
     <row r="90" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="E90" s="118" t="s">
-        <v>172</v>
-      </c>
+      <c r="B90" s="30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="107"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="112">
         <v>45576</v>
       </c>
-      <c r="G90" s="112">
-        <v>45580</v>
-      </c>
-      <c r="H90" s="119">
-        <f t="shared" si="6"/>
-        <v>3</v>
+      <c r="G90" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I90" s="120">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="34"/>
@@ -9033,8 +9076,8 @@
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
       <c r="X90" s="121"/>
-      <c r="Y90" s="121"/>
-      <c r="Z90" s="121"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="46"/>
       <c r="AA90" s="46"/>
       <c r="AB90" s="46"/>
       <c r="AC90" s="100"/>
@@ -9069,21 +9112,23 @@
       <c r="B91" s="30"/>
       <c r="C91" s="31"/>
       <c r="D91" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="60"/>
+        <v>118</v>
+      </c>
+      <c r="E91" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F91" s="112">
-        <v>0</v>
+        <v>45576</v>
       </c>
       <c r="G91" s="112">
-        <v>0</v>
+        <v>45579</v>
       </c>
       <c r="H91" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I91" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="33"/>
       <c r="K91" s="34"/>
@@ -9099,8 +9144,8 @@
       <c r="U91" s="43"/>
       <c r="V91" s="43"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="93"/>
-      <c r="Y91" s="96"/>
+      <c r="X91" s="121"/>
+      <c r="Y91" s="121"/>
       <c r="Z91" s="46"/>
       <c r="AA91" s="46"/>
       <c r="AB91" s="46"/>
@@ -9133,23 +9178,23 @@
       <c r="BC91" s="29"/>
     </row>
     <row r="92" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B92" s="111">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C92" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="107"/>
-      <c r="E92" s="60"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="112" t="s">
+        <v>121</v>
+      </c>
       <c r="F92" s="112">
         <v>45576</v>
       </c>
       <c r="G92" s="112">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="H92" s="119">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I92" s="120">
         <v>1</v>
@@ -9169,8 +9214,8 @@
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
       <c r="X92" s="121"/>
-      <c r="Y92" s="96"/>
-      <c r="Z92" s="46"/>
+      <c r="Y92" s="121"/>
+      <c r="Z92" s="121"/>
       <c r="AA92" s="46"/>
       <c r="AB92" s="46"/>
       <c r="AC92" s="100"/>
@@ -9203,21 +9248,21 @@
     </row>
     <row r="93" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B93" s="30"/>
-      <c r="C93" s="117"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="107" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="E93" s="112" t="s">
+        <v>173</v>
       </c>
       <c r="F93" s="112">
-        <v>45576</v>
+        <v>45590</v>
       </c>
       <c r="G93" s="112">
-        <v>45579</v>
+        <v>45593</v>
       </c>
       <c r="H93" s="119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I93" s="120">
@@ -9237,8 +9282,8 @@
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="121"/>
-      <c r="Y93" s="121"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="96"/>
       <c r="Z93" s="46"/>
       <c r="AA93" s="46"/>
       <c r="AB93" s="46"/>
@@ -9271,95 +9316,93 @@
       <c r="BC93" s="29"/>
     </row>
     <row r="94" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B94" s="30">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="77"/>
-      <c r="E94" s="107"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="118" t="s">
+        <v>150</v>
+      </c>
       <c r="F94" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G94" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45576</v>
+      </c>
+      <c r="G94" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H94" s="119">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I94" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="34"/>
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
       <c r="N94" s="84"/>
-      <c r="O94" s="121"/>
-      <c r="P94" s="121"/>
-      <c r="Q94" s="121"/>
+      <c r="O94" s="81"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="41"/>
       <c r="R94" s="41"/>
-      <c r="S94" s="121"/>
-      <c r="T94" s="121"/>
-      <c r="U94" s="121"/>
+      <c r="S94" s="90"/>
+      <c r="T94" s="88"/>
+      <c r="U94" s="43"/>
       <c r="V94" s="43"/>
-      <c r="W94" s="121"/>
+      <c r="W94" s="43"/>
       <c r="X94" s="121"/>
       <c r="Y94" s="121"/>
       <c r="Z94" s="121"/>
-      <c r="AA94" s="121"/>
-      <c r="AB94" s="121"/>
-      <c r="AC94" s="121"/>
-      <c r="AD94" s="121"/>
-      <c r="AE94" s="44"/>
-      <c r="AF94" s="44"/>
-      <c r="AG94" s="44"/>
-      <c r="AH94" s="98"/>
-      <c r="AI94" s="88"/>
-      <c r="AJ94" s="43"/>
-      <c r="AK94" s="43"/>
-      <c r="AL94" s="43"/>
-      <c r="AM94" s="93"/>
-      <c r="AN94" s="88"/>
-      <c r="AO94" s="43"/>
-      <c r="AP94" s="43"/>
-      <c r="AQ94" s="43"/>
-      <c r="AR94" s="93"/>
-      <c r="AS94" s="101"/>
-      <c r="AT94" s="45"/>
-      <c r="AU94" s="45"/>
-      <c r="AV94" s="45"/>
-      <c r="AW94" s="103"/>
-      <c r="AX94" s="88"/>
-      <c r="AY94" s="43"/>
-      <c r="AZ94" s="43"/>
-      <c r="BA94" s="43"/>
-      <c r="BB94" s="93"/>
+      <c r="AA94" s="46"/>
+      <c r="AB94" s="46"/>
+      <c r="AC94" s="100"/>
+      <c r="AD94" s="96"/>
+      <c r="AE94" s="46"/>
+      <c r="AF94" s="46"/>
+      <c r="AG94" s="46"/>
+      <c r="AH94" s="100"/>
+      <c r="AI94" s="96"/>
+      <c r="AJ94" s="46"/>
+      <c r="AK94" s="46"/>
+      <c r="AL94" s="46"/>
+      <c r="AM94" s="100"/>
+      <c r="AN94" s="96"/>
+      <c r="AO94" s="46"/>
+      <c r="AP94" s="46"/>
+      <c r="AQ94" s="46"/>
+      <c r="AR94" s="100"/>
+      <c r="AS94" s="96"/>
+      <c r="AT94" s="46"/>
+      <c r="AU94" s="46"/>
+      <c r="AV94" s="46"/>
+      <c r="AW94" s="100"/>
+      <c r="AX94" s="96"/>
+      <c r="AY94" s="46"/>
+      <c r="AZ94" s="46"/>
+      <c r="BA94" s="46"/>
+      <c r="BB94" s="100"/>
       <c r="BC94" s="29"/>
     </row>
     <row r="95" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B95" s="30"/>
       <c r="C95" s="31"/>
-      <c r="D95" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="F95" s="112">
-        <v>45582</v>
+      <c r="D95" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="60"/>
+      <c r="F95" s="112" t="s">
+        <v>175</v>
       </c>
       <c r="G95" s="112" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="H95" s="119" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="34"/>
@@ -9376,57 +9419,59 @@
       <c r="V95" s="43"/>
       <c r="W95" s="43"/>
       <c r="X95" s="93"/>
-      <c r="Y95" s="88"/>
-      <c r="Z95" s="43"/>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="121"/>
-      <c r="AC95" s="121"/>
-      <c r="AD95" s="121"/>
-      <c r="AE95" s="44"/>
-      <c r="AF95" s="44"/>
-      <c r="AG95" s="44"/>
-      <c r="AH95" s="98"/>
-      <c r="AI95" s="88"/>
-      <c r="AJ95" s="43"/>
-      <c r="AK95" s="43"/>
-      <c r="AL95" s="43"/>
-      <c r="AM95" s="93"/>
-      <c r="AN95" s="88"/>
-      <c r="AO95" s="43"/>
-      <c r="AP95" s="43"/>
-      <c r="AQ95" s="43"/>
-      <c r="AR95" s="93"/>
-      <c r="AS95" s="101"/>
-      <c r="AT95" s="45"/>
-      <c r="AU95" s="45"/>
-      <c r="AV95" s="45"/>
-      <c r="AW95" s="103"/>
-      <c r="AX95" s="88"/>
-      <c r="AY95" s="43"/>
-      <c r="AZ95" s="43"/>
-      <c r="BA95" s="43"/>
-      <c r="BB95" s="93"/>
+      <c r="Y95" s="96"/>
+      <c r="Z95" s="46"/>
+      <c r="AA95" s="46"/>
+      <c r="AB95" s="46"/>
+      <c r="AC95" s="100"/>
+      <c r="AD95" s="96"/>
+      <c r="AE95" s="46"/>
+      <c r="AF95" s="46"/>
+      <c r="AG95" s="46"/>
+      <c r="AH95" s="100"/>
+      <c r="AI95" s="96"/>
+      <c r="AJ95" s="46"/>
+      <c r="AK95" s="46"/>
+      <c r="AL95" s="46"/>
+      <c r="AM95" s="100"/>
+      <c r="AN95" s="96"/>
+      <c r="AO95" s="46"/>
+      <c r="AP95" s="46"/>
+      <c r="AQ95" s="46"/>
+      <c r="AR95" s="100"/>
+      <c r="AS95" s="96"/>
+      <c r="AT95" s="46"/>
+      <c r="AU95" s="46"/>
+      <c r="AV95" s="46"/>
+      <c r="AW95" s="100"/>
+      <c r="AX95" s="96"/>
+      <c r="AY95" s="46"/>
+      <c r="AZ95" s="46"/>
+      <c r="BA95" s="46"/>
+      <c r="BB95" s="100"/>
       <c r="BC95" s="29"/>
     </row>
     <row r="96" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="107"/>
+      <c r="B96" s="111">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C96" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="107"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="112">
-        <v>0</v>
-      </c>
-      <c r="G96" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H96" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45576</v>
+      </c>
+      <c r="G96" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H96" s="119">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I96" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="34"/>
@@ -9442,151 +9487,151 @@
       <c r="U96" s="43"/>
       <c r="V96" s="43"/>
       <c r="W96" s="43"/>
-      <c r="X96" s="93"/>
-      <c r="Y96" s="88"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="93"/>
-      <c r="AD96" s="95"/>
-      <c r="AE96" s="44"/>
-      <c r="AF96" s="44"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="98"/>
-      <c r="AI96" s="88"/>
-      <c r="AJ96" s="43"/>
-      <c r="AK96" s="43"/>
-      <c r="AL96" s="43"/>
-      <c r="AM96" s="93"/>
-      <c r="AN96" s="88"/>
-      <c r="AO96" s="43"/>
-      <c r="AP96" s="43"/>
-      <c r="AQ96" s="43"/>
-      <c r="AR96" s="93"/>
-      <c r="AS96" s="101"/>
-      <c r="AT96" s="45"/>
-      <c r="AU96" s="45"/>
-      <c r="AV96" s="45"/>
-      <c r="AW96" s="103"/>
-      <c r="AX96" s="88"/>
-      <c r="AY96" s="43"/>
-      <c r="AZ96" s="43"/>
-      <c r="BA96" s="43"/>
-      <c r="BB96" s="93"/>
+      <c r="X96" s="121"/>
+      <c r="Y96" s="96"/>
+      <c r="Z96" s="46"/>
+      <c r="AA96" s="46"/>
+      <c r="AB96" s="46"/>
+      <c r="AC96" s="100"/>
+      <c r="AD96" s="96"/>
+      <c r="AE96" s="46"/>
+      <c r="AF96" s="46"/>
+      <c r="AG96" s="46"/>
+      <c r="AH96" s="100"/>
+      <c r="AI96" s="96"/>
+      <c r="AJ96" s="46"/>
+      <c r="AK96" s="46"/>
+      <c r="AL96" s="46"/>
+      <c r="AM96" s="100"/>
+      <c r="AN96" s="96"/>
+      <c r="AO96" s="46"/>
+      <c r="AP96" s="46"/>
+      <c r="AQ96" s="46"/>
+      <c r="AR96" s="100"/>
+      <c r="AS96" s="96"/>
+      <c r="AT96" s="46"/>
+      <c r="AU96" s="46"/>
+      <c r="AV96" s="46"/>
+      <c r="AW96" s="100"/>
+      <c r="AX96" s="96"/>
+      <c r="AY96" s="46"/>
+      <c r="AZ96" s="46"/>
+      <c r="BA96" s="46"/>
+      <c r="BB96" s="100"/>
       <c r="BC96" s="29"/>
     </row>
     <row r="97" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="77" t="s">
-        <v>110</v>
+      <c r="C97" s="117"/>
+      <c r="D97" s="107" t="s">
+        <v>119</v>
       </c>
       <c r="E97" s="107" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F97" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G97" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="H97" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45576</v>
+      </c>
+      <c r="G97" s="112">
+        <v>45579</v>
+      </c>
+      <c r="H97" s="119">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="I97" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="34"/>
       <c r="L97" s="35"/>
       <c r="M97" s="35"/>
       <c r="N97" s="84"/>
-      <c r="O97" s="121"/>
-      <c r="P97" s="121"/>
-      <c r="Q97" s="121"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="41"/>
       <c r="R97" s="41"/>
-      <c r="S97" s="121"/>
-      <c r="T97" s="121"/>
-      <c r="U97" s="121"/>
+      <c r="S97" s="90"/>
+      <c r="T97" s="88"/>
+      <c r="U97" s="43"/>
       <c r="V97" s="43"/>
-      <c r="W97" s="121"/>
+      <c r="W97" s="43"/>
       <c r="X97" s="121"/>
       <c r="Y97" s="121"/>
-      <c r="Z97" s="121"/>
-      <c r="AA97" s="121"/>
-      <c r="AB97" s="121"/>
-      <c r="AC97" s="121"/>
-      <c r="AD97" s="121"/>
-      <c r="AE97" s="44"/>
-      <c r="AF97" s="44"/>
-      <c r="AG97" s="44"/>
-      <c r="AH97" s="98"/>
-      <c r="AI97" s="88"/>
-      <c r="AJ97" s="43"/>
-      <c r="AK97" s="43"/>
-      <c r="AL97" s="43"/>
-      <c r="AM97" s="93"/>
-      <c r="AN97" s="88"/>
-      <c r="AO97" s="43"/>
-      <c r="AP97" s="43"/>
-      <c r="AQ97" s="43"/>
-      <c r="AR97" s="93"/>
-      <c r="AS97" s="101"/>
-      <c r="AT97" s="45"/>
-      <c r="AU97" s="45"/>
-      <c r="AV97" s="45"/>
-      <c r="AW97" s="103"/>
-      <c r="AX97" s="88"/>
-      <c r="AY97" s="43"/>
-      <c r="AZ97" s="43"/>
-      <c r="BA97" s="43"/>
-      <c r="BB97" s="93"/>
+      <c r="Z97" s="46"/>
+      <c r="AA97" s="46"/>
+      <c r="AB97" s="46"/>
+      <c r="AC97" s="100"/>
+      <c r="AD97" s="96"/>
+      <c r="AE97" s="46"/>
+      <c r="AF97" s="46"/>
+      <c r="AG97" s="46"/>
+      <c r="AH97" s="100"/>
+      <c r="AI97" s="96"/>
+      <c r="AJ97" s="46"/>
+      <c r="AK97" s="46"/>
+      <c r="AL97" s="46"/>
+      <c r="AM97" s="100"/>
+      <c r="AN97" s="96"/>
+      <c r="AO97" s="46"/>
+      <c r="AP97" s="46"/>
+      <c r="AQ97" s="46"/>
+      <c r="AR97" s="100"/>
+      <c r="AS97" s="96"/>
+      <c r="AT97" s="46"/>
+      <c r="AU97" s="46"/>
+      <c r="AV97" s="46"/>
+      <c r="AW97" s="100"/>
+      <c r="AX97" s="96"/>
+      <c r="AY97" s="46"/>
+      <c r="AZ97" s="46"/>
+      <c r="BA97" s="46"/>
+      <c r="BB97" s="100"/>
       <c r="BC97" s="29"/>
     </row>
     <row r="98" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B98" s="111">
-        <v>4.12</v>
+      <c r="B98" s="30">
+        <v>4.1100000000000003</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D98" s="77"/>
       <c r="E98" s="107"/>
       <c r="F98" s="112">
-        <v>0</v>
-      </c>
-      <c r="G98" s="112">
-        <v>0</v>
-      </c>
-      <c r="H98" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45565</v>
+      </c>
+      <c r="G98" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I98" s="120">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J98" s="33"/>
       <c r="K98" s="34"/>
       <c r="L98" s="35"/>
       <c r="M98" s="35"/>
       <c r="N98" s="84"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
+      <c r="O98" s="121"/>
+      <c r="P98" s="121"/>
+      <c r="Q98" s="121"/>
       <c r="R98" s="41"/>
-      <c r="S98" s="90"/>
-      <c r="T98" s="88"/>
-      <c r="U98" s="43"/>
+      <c r="S98" s="121"/>
+      <c r="T98" s="121"/>
+      <c r="U98" s="121"/>
       <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="93"/>
-      <c r="Y98" s="88"/>
-      <c r="Z98" s="43"/>
-      <c r="AA98" s="43"/>
-      <c r="AB98" s="43"/>
-      <c r="AC98" s="93"/>
-      <c r="AD98" s="95"/>
+      <c r="W98" s="121"/>
+      <c r="X98" s="121"/>
+      <c r="Y98" s="121"/>
+      <c r="Z98" s="121"/>
+      <c r="AA98" s="121"/>
+      <c r="AB98" s="121"/>
+      <c r="AC98" s="121"/>
+      <c r="AD98" s="121"/>
       <c r="AE98" s="44"/>
       <c r="AF98" s="44"/>
       <c r="AG98" s="44"/>
@@ -9617,30 +9662,30 @@
       <c r="B99" s="30"/>
       <c r="C99" s="31"/>
       <c r="D99" s="77" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E99" s="107" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="F99" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G99" s="112">
-        <v>0</v>
+        <v>45587</v>
       </c>
       <c r="H99" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I99" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="33"/>
       <c r="K99" s="34"/>
       <c r="L99" s="35"/>
       <c r="M99" s="35"/>
       <c r="N99" s="84"/>
-      <c r="O99" s="41"/>
+      <c r="O99" s="81"/>
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="41"/>
@@ -9653,9 +9698,9 @@
       <c r="Y99" s="88"/>
       <c r="Z99" s="43"/>
       <c r="AA99" s="43"/>
-      <c r="AB99" s="43"/>
-      <c r="AC99" s="93"/>
-      <c r="AD99" s="95"/>
+      <c r="AB99" s="121"/>
+      <c r="AC99" s="121"/>
+      <c r="AD99" s="121"/>
       <c r="AE99" s="44"/>
       <c r="AF99" s="44"/>
       <c r="AG99" s="44"/>
@@ -9686,23 +9731,23 @@
       <c r="B100" s="30"/>
       <c r="C100" s="31"/>
       <c r="D100" s="77" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E100" s="107" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="F100" s="112">
-        <v>0</v>
-      </c>
-      <c r="G100" s="112">
-        <v>0</v>
-      </c>
-      <c r="H100" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45595</v>
+      </c>
+      <c r="G100" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="119" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I100" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J100" s="33"/>
       <c r="K100" s="34"/>
@@ -9755,43 +9800,45 @@
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
       <c r="D101" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="107"/>
+        <v>97</v>
+      </c>
+      <c r="E101" s="107" t="s">
+        <v>147</v>
+      </c>
       <c r="F101" s="112">
-        <v>0</v>
+        <v>45565</v>
       </c>
       <c r="G101" s="112">
-        <v>0</v>
+        <v>45587</v>
       </c>
       <c r="H101" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="I101" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="34"/>
       <c r="L101" s="35"/>
       <c r="M101" s="35"/>
       <c r="N101" s="84"/>
-      <c r="O101" s="81"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
+      <c r="O101" s="121"/>
+      <c r="P101" s="121"/>
+      <c r="Q101" s="121"/>
       <c r="R101" s="41"/>
-      <c r="S101" s="90"/>
-      <c r="T101" s="88"/>
-      <c r="U101" s="43"/>
+      <c r="S101" s="121"/>
+      <c r="T101" s="121"/>
+      <c r="U101" s="121"/>
       <c r="V101" s="43"/>
-      <c r="W101" s="43"/>
-      <c r="X101" s="93"/>
-      <c r="Y101" s="88"/>
-      <c r="Z101" s="43"/>
-      <c r="AA101" s="43"/>
-      <c r="AB101" s="43"/>
-      <c r="AC101" s="93"/>
-      <c r="AD101" s="95"/>
+      <c r="W101" s="121"/>
+      <c r="X101" s="121"/>
+      <c r="Y101" s="121"/>
+      <c r="Z101" s="121"/>
+      <c r="AA101" s="121"/>
+      <c r="AB101" s="121"/>
+      <c r="AC101" s="121"/>
+      <c r="AD101" s="121"/>
       <c r="AE101" s="44"/>
       <c r="AF101" s="44"/>
       <c r="AG101" s="44"/>
@@ -9819,33 +9866,33 @@
       <c r="BC101" s="29"/>
     </row>
     <row r="102" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B102" s="30">
-        <v>4.13</v>
+      <c r="B102" s="111">
+        <v>4.12</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D102" s="77"/>
       <c r="E102" s="107"/>
       <c r="F102" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="G102" s="112">
-        <v>0</v>
+        <v>45590</v>
       </c>
       <c r="H102" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I102" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="34"/>
       <c r="L102" s="35"/>
       <c r="M102" s="35"/>
       <c r="N102" s="84"/>
-      <c r="O102" s="81"/>
+      <c r="O102" s="41"/>
       <c r="P102" s="41"/>
       <c r="Q102" s="41"/>
       <c r="R102" s="41"/>
@@ -9891,30 +9938,30 @@
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="77" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E103" s="107" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F103" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="G103" s="112">
-        <v>0</v>
+        <v>45589</v>
       </c>
       <c r="H103" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I103" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="34"/>
       <c r="L103" s="35"/>
       <c r="M103" s="35"/>
       <c r="N103" s="84"/>
-      <c r="O103" s="81"/>
+      <c r="O103" s="41"/>
       <c r="P103" s="41"/>
       <c r="Q103" s="41"/>
       <c r="R103" s="41"/>
@@ -9960,23 +10007,23 @@
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="77" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E104" s="107" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F104" s="112">
-        <v>0</v>
+        <v>45586</v>
       </c>
       <c r="G104" s="112">
-        <v>0</v>
+        <v>45590</v>
       </c>
       <c r="H104" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="I104" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="34"/>
@@ -10026,233 +10073,233 @@
       <c r="BC104" s="29"/>
     </row>
     <row r="105" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" s="107" t="s">
-        <v>178</v>
-      </c>
+      <c r="B105" s="30">
+        <v>4.13</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="77"/>
+      <c r="E105" s="107"/>
       <c r="F105" s="112">
-        <v>0</v>
+        <v>45582</v>
       </c>
       <c r="G105" s="112">
-        <v>0</v>
+        <v>45595</v>
       </c>
       <c r="H105" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="I105" s="120">
-        <v>0</v>
-      </c>
-      <c r="J105" s="36"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="33"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="84"/>
       <c r="O105" s="81"/>
       <c r="P105" s="41"/>
       <c r="Q105" s="41"/>
       <c r="R105" s="41"/>
       <c r="S105" s="90"/>
-      <c r="T105" s="89"/>
-      <c r="U105" s="40"/>
-      <c r="V105" s="40"/>
-      <c r="W105" s="40"/>
-      <c r="X105" s="94"/>
-      <c r="Y105" s="89"/>
-      <c r="Z105" s="40"/>
-      <c r="AA105" s="40"/>
-      <c r="AB105" s="40"/>
-      <c r="AC105" s="94"/>
-      <c r="AD105" s="96"/>
-      <c r="AE105" s="46"/>
-      <c r="AF105" s="46"/>
-      <c r="AG105" s="46"/>
-      <c r="AH105" s="100"/>
-      <c r="AI105" s="89"/>
-      <c r="AJ105" s="40"/>
-      <c r="AK105" s="40"/>
-      <c r="AL105" s="40"/>
-      <c r="AM105" s="94"/>
-      <c r="AN105" s="89"/>
-      <c r="AO105" s="40"/>
-      <c r="AP105" s="40"/>
-      <c r="AQ105" s="40"/>
-      <c r="AR105" s="94"/>
-      <c r="AS105" s="102"/>
-      <c r="AT105" s="47"/>
-      <c r="AU105" s="47"/>
-      <c r="AV105" s="47"/>
-      <c r="AW105" s="104"/>
-      <c r="AX105" s="89"/>
-      <c r="AY105" s="40"/>
-      <c r="AZ105" s="40"/>
-      <c r="BA105" s="40"/>
-      <c r="BB105" s="94"/>
+      <c r="T105" s="88"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="93"/>
+      <c r="Y105" s="88"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="93"/>
+      <c r="AD105" s="95"/>
+      <c r="AE105" s="44"/>
+      <c r="AF105" s="44"/>
+      <c r="AG105" s="44"/>
+      <c r="AH105" s="98"/>
+      <c r="AI105" s="88"/>
+      <c r="AJ105" s="43"/>
+      <c r="AK105" s="43"/>
+      <c r="AL105" s="43"/>
+      <c r="AM105" s="93"/>
+      <c r="AN105" s="88"/>
+      <c r="AO105" s="43"/>
+      <c r="AP105" s="43"/>
+      <c r="AQ105" s="43"/>
+      <c r="AR105" s="93"/>
+      <c r="AS105" s="101"/>
+      <c r="AT105" s="45"/>
+      <c r="AU105" s="45"/>
+      <c r="AV105" s="45"/>
+      <c r="AW105" s="103"/>
+      <c r="AX105" s="88"/>
+      <c r="AY105" s="43"/>
+      <c r="AZ105" s="43"/>
+      <c r="BA105" s="43"/>
+      <c r="BB105" s="93"/>
       <c r="BC105" s="29"/>
     </row>
     <row r="106" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B106" s="30">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="77"/>
-      <c r="E106" s="107"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="107" t="s">
+        <v>153</v>
+      </c>
       <c r="F106" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G106" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H106" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45588</v>
+      </c>
+      <c r="G106" s="112">
+        <v>45590</v>
+      </c>
+      <c r="H106" s="119">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I106" s="120">
-        <v>0</v>
-      </c>
-      <c r="J106" s="36"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="J106" s="33"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="84"/>
       <c r="O106" s="81"/>
       <c r="P106" s="41"/>
       <c r="Q106" s="41"/>
       <c r="R106" s="41"/>
       <c r="S106" s="90"/>
-      <c r="T106" s="89"/>
-      <c r="U106" s="40"/>
-      <c r="V106" s="40"/>
-      <c r="W106" s="40"/>
-      <c r="X106" s="94"/>
-      <c r="Y106" s="89"/>
-      <c r="Z106" s="40"/>
-      <c r="AA106" s="40"/>
-      <c r="AB106" s="40"/>
-      <c r="AC106" s="94"/>
-      <c r="AD106" s="96"/>
-      <c r="AE106" s="46"/>
-      <c r="AF106" s="46"/>
-      <c r="AG106" s="46"/>
-      <c r="AH106" s="100"/>
-      <c r="AI106" s="89"/>
-      <c r="AJ106" s="40"/>
-      <c r="AK106" s="40"/>
-      <c r="AL106" s="40"/>
-      <c r="AM106" s="94"/>
-      <c r="AN106" s="89"/>
-      <c r="AO106" s="40"/>
-      <c r="AP106" s="40"/>
-      <c r="AQ106" s="40"/>
-      <c r="AR106" s="94"/>
-      <c r="AS106" s="102"/>
-      <c r="AT106" s="47"/>
-      <c r="AU106" s="47"/>
-      <c r="AV106" s="47"/>
-      <c r="AW106" s="104"/>
-      <c r="AX106" s="89"/>
-      <c r="AY106" s="40"/>
-      <c r="AZ106" s="40"/>
-      <c r="BA106" s="40"/>
-      <c r="BB106" s="94"/>
+      <c r="T106" s="88"/>
+      <c r="U106" s="43"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
+      <c r="X106" s="93"/>
+      <c r="Y106" s="88"/>
+      <c r="Z106" s="43"/>
+      <c r="AA106" s="43"/>
+      <c r="AB106" s="43"/>
+      <c r="AC106" s="93"/>
+      <c r="AD106" s="95"/>
+      <c r="AE106" s="44"/>
+      <c r="AF106" s="44"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="98"/>
+      <c r="AI106" s="88"/>
+      <c r="AJ106" s="43"/>
+      <c r="AK106" s="43"/>
+      <c r="AL106" s="43"/>
+      <c r="AM106" s="93"/>
+      <c r="AN106" s="88"/>
+      <c r="AO106" s="43"/>
+      <c r="AP106" s="43"/>
+      <c r="AQ106" s="43"/>
+      <c r="AR106" s="93"/>
+      <c r="AS106" s="101"/>
+      <c r="AT106" s="45"/>
+      <c r="AU106" s="45"/>
+      <c r="AV106" s="45"/>
+      <c r="AW106" s="103"/>
+      <c r="AX106" s="88"/>
+      <c r="AY106" s="43"/>
+      <c r="AZ106" s="43"/>
+      <c r="BA106" s="43"/>
+      <c r="BB106" s="93"/>
       <c r="BC106" s="29"/>
     </row>
     <row r="107" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="77" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E107" s="107" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F107" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G107" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H107" s="119" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>45590</v>
+      </c>
+      <c r="G107" s="112">
+        <v>45595</v>
+      </c>
+      <c r="H107" s="119">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I107" s="120">
-        <v>0</v>
-      </c>
-      <c r="J107" s="36"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="J107" s="33"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="84"/>
       <c r="O107" s="81"/>
       <c r="P107" s="41"/>
       <c r="Q107" s="41"/>
       <c r="R107" s="41"/>
       <c r="S107" s="90"/>
-      <c r="T107" s="89"/>
-      <c r="U107" s="121"/>
-      <c r="V107" s="40"/>
-      <c r="W107" s="40"/>
-      <c r="X107" s="94"/>
-      <c r="Y107" s="89"/>
-      <c r="Z107" s="40"/>
-      <c r="AA107" s="40"/>
-      <c r="AB107" s="40"/>
-      <c r="AC107" s="94"/>
-      <c r="AD107" s="96"/>
-      <c r="AE107" s="46"/>
-      <c r="AF107" s="46"/>
-      <c r="AG107" s="46"/>
-      <c r="AH107" s="100"/>
-      <c r="AI107" s="89"/>
-      <c r="AJ107" s="40"/>
-      <c r="AK107" s="40"/>
-      <c r="AL107" s="40"/>
-      <c r="AM107" s="94"/>
-      <c r="AN107" s="89"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="40"/>
-      <c r="AR107" s="94"/>
-      <c r="AS107" s="102"/>
-      <c r="AT107" s="47"/>
-      <c r="AU107" s="47"/>
-      <c r="AV107" s="47"/>
-      <c r="AW107" s="104"/>
-      <c r="AX107" s="89"/>
-      <c r="AY107" s="40"/>
-      <c r="AZ107" s="40"/>
-      <c r="BA107" s="40"/>
-      <c r="BB107" s="94"/>
+      <c r="T107" s="88"/>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43"/>
+      <c r="W107" s="43"/>
+      <c r="X107" s="93"/>
+      <c r="Y107" s="88"/>
+      <c r="Z107" s="43"/>
+      <c r="AA107" s="43"/>
+      <c r="AB107" s="43"/>
+      <c r="AC107" s="93"/>
+      <c r="AD107" s="95"/>
+      <c r="AE107" s="44"/>
+      <c r="AF107" s="44"/>
+      <c r="AG107" s="44"/>
+      <c r="AH107" s="98"/>
+      <c r="AI107" s="88"/>
+      <c r="AJ107" s="43"/>
+      <c r="AK107" s="43"/>
+      <c r="AL107" s="43"/>
+      <c r="AM107" s="93"/>
+      <c r="AN107" s="88"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
+      <c r="AQ107" s="43"/>
+      <c r="AR107" s="93"/>
+      <c r="AS107" s="101"/>
+      <c r="AT107" s="45"/>
+      <c r="AU107" s="45"/>
+      <c r="AV107" s="45"/>
+      <c r="AW107" s="103"/>
+      <c r="AX107" s="88"/>
+      <c r="AY107" s="43"/>
+      <c r="AZ107" s="43"/>
+      <c r="BA107" s="43"/>
+      <c r="BB107" s="93"/>
       <c r="BC107" s="29"/>
     </row>
     <row r="108" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B108" s="78"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E108" s="107" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="F108" s="112">
-        <v>45573</v>
-      </c>
-      <c r="G108" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H108" s="119" t="e">
-        <f t="shared" ref="H108:H121" si="7">NETWORKDAYS(F108,G108)</f>
-        <v>#VALUE!</v>
+        <v>45582</v>
+      </c>
+      <c r="G108" s="112">
+        <v>45595</v>
+      </c>
+      <c r="H108" s="119">
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="I108" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="36"/>
       <c r="K108" s="37"/>
@@ -10265,7 +10312,7 @@
       <c r="R108" s="41"/>
       <c r="S108" s="90"/>
       <c r="T108" s="89"/>
-      <c r="U108" s="121"/>
+      <c r="U108" s="40"/>
       <c r="V108" s="40"/>
       <c r="W108" s="40"/>
       <c r="X108" s="94"/>
@@ -10302,26 +10349,26 @@
       <c r="BC108" s="29"/>
     </row>
     <row r="109" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B109" s="78"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="107" t="s">
-        <v>86</v>
-      </c>
+      <c r="B109" s="30">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="77"/>
+      <c r="E109" s="107"/>
       <c r="F109" s="112">
         <v>45573</v>
       </c>
-      <c r="G109" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="H109" s="119" t="e">
+      <c r="G109" s="112">
+        <v>45590</v>
+      </c>
+      <c r="H109" s="119">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I109" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="36"/>
       <c r="K109" s="37"/>
@@ -10334,7 +10381,7 @@
       <c r="R109" s="41"/>
       <c r="S109" s="90"/>
       <c r="T109" s="89"/>
-      <c r="U109" s="121"/>
+      <c r="U109" s="40"/>
       <c r="V109" s="40"/>
       <c r="W109" s="40"/>
       <c r="X109" s="94"/>
@@ -10371,26 +10418,26 @@
       <c r="BC109" s="29"/>
     </row>
     <row r="110" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B110" s="111">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="77"/>
-      <c r="E110" s="107"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F110" s="112">
-        <v>0</v>
+        <v>45573</v>
       </c>
       <c r="G110" s="112">
-        <v>0</v>
+        <v>45590</v>
       </c>
       <c r="H110" s="119">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I110" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="36"/>
       <c r="K110" s="37"/>
@@ -10403,7 +10450,7 @@
       <c r="R110" s="41"/>
       <c r="S110" s="90"/>
       <c r="T110" s="89"/>
-      <c r="U110" s="40"/>
+      <c r="U110" s="121"/>
       <c r="V110" s="40"/>
       <c r="W110" s="40"/>
       <c r="X110" s="94"/>
@@ -10443,21 +10490,23 @@
       <c r="B111" s="78"/>
       <c r="C111" s="31"/>
       <c r="D111" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="E111" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="E111" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F111" s="112">
-        <v>0</v>
+        <v>45573</v>
       </c>
       <c r="G111" s="112">
-        <v>0</v>
+        <v>45581</v>
       </c>
       <c r="H111" s="119">
-        <f>NETWORKDAYS(F111,G111)</f>
-        <v>0</v>
+        <f t="shared" ref="H111:H122" si="9">NETWORKDAYS(F111,G111)</f>
+        <v>7</v>
       </c>
       <c r="I111" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="36"/>
       <c r="K111" s="37"/>
@@ -10470,7 +10519,7 @@
       <c r="R111" s="41"/>
       <c r="S111" s="90"/>
       <c r="T111" s="89"/>
-      <c r="U111" s="40"/>
+      <c r="U111" s="121"/>
       <c r="V111" s="40"/>
       <c r="W111" s="40"/>
       <c r="X111" s="94"/>
@@ -10510,21 +10559,23 @@
       <c r="B112" s="78"/>
       <c r="C112" s="31"/>
       <c r="D112" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E112" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="E112" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F112" s="112">
-        <v>0</v>
+        <v>45573</v>
       </c>
       <c r="G112" s="112">
-        <v>0</v>
+        <v>45583</v>
       </c>
       <c r="H112" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="I112" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="36"/>
       <c r="K112" s="37"/>
@@ -10537,7 +10588,7 @@
       <c r="R112" s="41"/>
       <c r="S112" s="90"/>
       <c r="T112" s="89"/>
-      <c r="U112" s="40"/>
+      <c r="U112" s="121"/>
       <c r="V112" s="40"/>
       <c r="W112" s="40"/>
       <c r="X112" s="94"/>
@@ -10574,24 +10625,26 @@
       <c r="BC112" s="29"/>
     </row>
     <row r="113" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B113" s="78"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="77" t="s">
-        <v>66</v>
-      </c>
+      <c r="B113" s="111">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113" s="77"/>
       <c r="E113" s="107"/>
       <c r="F113" s="112">
-        <v>0</v>
-      </c>
-      <c r="G113" s="112">
-        <v>0</v>
-      </c>
-      <c r="H113" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45590</v>
+      </c>
+      <c r="G113" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="H113" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I113" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J113" s="36"/>
       <c r="K113" s="37"/>
@@ -10644,21 +10697,23 @@
       <c r="B114" s="78"/>
       <c r="C114" s="31"/>
       <c r="D114" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E114" s="107"/>
+        <v>174</v>
+      </c>
+      <c r="E114" s="107" t="s">
+        <v>155</v>
+      </c>
       <c r="F114" s="112">
-        <v>0</v>
+        <v>45593</v>
       </c>
       <c r="G114" s="112">
-        <v>0</v>
+        <v>45596</v>
       </c>
       <c r="H114" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="I114" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="36"/>
       <c r="K114" s="37"/>
@@ -10708,23 +10763,21 @@
       <c r="BC114" s="29"/>
     </row>
     <row r="115" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B115" s="78">
-        <v>4.16</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D115" s="77"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="77" t="s">
+        <v>60</v>
+      </c>
       <c r="E115" s="107"/>
-      <c r="F115" s="112">
-        <v>0</v>
-      </c>
-      <c r="G115" s="112">
-        <v>0</v>
-      </c>
-      <c r="H115" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="F115" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H115" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I115" s="120">
         <v>0</v>
@@ -10777,24 +10830,26 @@
       <c r="BC115" s="29"/>
     </row>
     <row r="116" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B116" s="30"/>
+      <c r="B116" s="78"/>
       <c r="C116" s="31"/>
       <c r="D116" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E116" s="107"/>
+        <v>61</v>
+      </c>
+      <c r="E116" s="107" t="s">
+        <v>155</v>
+      </c>
       <c r="F116" s="112">
-        <v>0</v>
-      </c>
-      <c r="G116" s="112">
-        <v>0</v>
-      </c>
-      <c r="H116" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45593</v>
+      </c>
+      <c r="G116" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="120">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J116" s="36"/>
       <c r="K116" s="37"/>
@@ -10847,21 +10902,23 @@
       <c r="B117" s="78"/>
       <c r="C117" s="31"/>
       <c r="D117" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E117" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="E117" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F117" s="112">
-        <v>0</v>
-      </c>
-      <c r="G117" s="112">
-        <v>0</v>
-      </c>
-      <c r="H117" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45590</v>
+      </c>
+      <c r="G117" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="H117" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="120">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J117" s="36"/>
       <c r="K117" s="37"/>
@@ -10911,24 +10968,26 @@
       <c r="BC117" s="29"/>
     </row>
     <row r="118" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B118" s="78"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="77" t="s">
-        <v>70</v>
-      </c>
+      <c r="B118" s="78">
+        <v>4.16</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="77"/>
       <c r="E118" s="107"/>
       <c r="F118" s="112">
-        <v>0</v>
-      </c>
-      <c r="G118" s="112">
-        <v>0</v>
-      </c>
-      <c r="H118" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45587</v>
+      </c>
+      <c r="G118" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="H118" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I118" s="120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J118" s="36"/>
       <c r="K118" s="37"/>
@@ -10978,26 +11037,26 @@
       <c r="BC118" s="29"/>
     </row>
     <row r="119" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B119" s="78">
-        <v>4.17</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" s="107" t="s">
+        <v>152</v>
+      </c>
       <c r="F119" s="112">
-        <v>0</v>
+        <v>45587</v>
       </c>
       <c r="G119" s="112">
-        <v>0</v>
+        <v>45594</v>
       </c>
       <c r="H119" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="I119" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="36"/>
       <c r="K119" s="37"/>
@@ -11047,21 +11106,23 @@
       <c r="BC119" s="29"/>
     </row>
     <row r="120" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B120" s="30"/>
+      <c r="B120" s="78"/>
       <c r="C120" s="31"/>
       <c r="D120" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="107"/>
-      <c r="F120" s="112">
-        <v>0</v>
-      </c>
-      <c r="G120" s="112">
-        <v>0</v>
-      </c>
-      <c r="H120" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="E120" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F120" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="H120" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I120" s="120">
         <v>0</v>
@@ -11114,217 +11175,274 @@
       <c r="BC120" s="29"/>
     </row>
     <row r="121" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B121" s="78">
-        <v>4.17</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121" s="107" t="s">
+        <v>152</v>
+      </c>
       <c r="F121" s="112">
-        <v>0</v>
-      </c>
-      <c r="G121" s="112">
-        <v>0</v>
-      </c>
-      <c r="H121" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45593</v>
+      </c>
+      <c r="G121" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="H121" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I121" s="120">
-        <v>0</v>
-      </c>
-      <c r="J121" s="33"/>
-      <c r="K121" s="34"/>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="84"/>
+        <v>0.7</v>
+      </c>
+      <c r="J121" s="36"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="85"/>
       <c r="O121" s="81"/>
       <c r="P121" s="41"/>
       <c r="Q121" s="41"/>
       <c r="R121" s="41"/>
       <c r="S121" s="90"/>
-      <c r="T121" s="88"/>
-      <c r="U121" s="43"/>
-      <c r="V121" s="43"/>
-      <c r="W121" s="43"/>
-      <c r="X121" s="93"/>
-      <c r="Y121" s="95"/>
-      <c r="Z121" s="44"/>
-      <c r="AA121" s="44"/>
-      <c r="AB121" s="44"/>
-      <c r="AC121" s="98"/>
-      <c r="AD121" s="95"/>
-      <c r="AE121" s="44"/>
-      <c r="AF121" s="44"/>
-      <c r="AG121" s="44"/>
-      <c r="AH121" s="98"/>
-      <c r="AI121" s="95"/>
-      <c r="AJ121" s="44"/>
-      <c r="AK121" s="44"/>
-      <c r="AL121" s="44"/>
-      <c r="AM121" s="98"/>
-      <c r="AN121" s="95"/>
-      <c r="AO121" s="44"/>
-      <c r="AP121" s="44"/>
-      <c r="AQ121" s="44"/>
-      <c r="AR121" s="98"/>
-      <c r="AS121" s="95"/>
-      <c r="AT121" s="44"/>
-      <c r="AU121" s="44"/>
-      <c r="AV121" s="44"/>
-      <c r="AW121" s="98"/>
-      <c r="AX121" s="95"/>
-      <c r="AY121" s="44"/>
-      <c r="AZ121" s="44"/>
-      <c r="BA121" s="44"/>
-      <c r="BB121" s="98"/>
+      <c r="T121" s="89"/>
+      <c r="U121" s="40"/>
+      <c r="V121" s="40"/>
+      <c r="W121" s="40"/>
+      <c r="X121" s="94"/>
+      <c r="Y121" s="89"/>
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="40"/>
+      <c r="AC121" s="94"/>
+      <c r="AD121" s="96"/>
+      <c r="AE121" s="46"/>
+      <c r="AF121" s="46"/>
+      <c r="AG121" s="46"/>
+      <c r="AH121" s="100"/>
+      <c r="AI121" s="89"/>
+      <c r="AJ121" s="40"/>
+      <c r="AK121" s="40"/>
+      <c r="AL121" s="40"/>
+      <c r="AM121" s="94"/>
+      <c r="AN121" s="89"/>
+      <c r="AO121" s="40"/>
+      <c r="AP121" s="40"/>
+      <c r="AQ121" s="40"/>
+      <c r="AR121" s="94"/>
+      <c r="AS121" s="102"/>
+      <c r="AT121" s="47"/>
+      <c r="AU121" s="47"/>
+      <c r="AV121" s="47"/>
+      <c r="AW121" s="104"/>
+      <c r="AX121" s="89"/>
+      <c r="AY121" s="40"/>
+      <c r="AZ121" s="40"/>
+      <c r="BA121" s="40"/>
+      <c r="BB121" s="94"/>
       <c r="BC121" s="29"/>
     </row>
-    <row r="122" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B122" s="52">
+    <row r="122" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B122" s="78">
+        <v>4.17</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H122" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I122" s="120">
+        <v>0</v>
+      </c>
+      <c r="J122" s="33"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="84"/>
+      <c r="O122" s="81"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="90"/>
+      <c r="T122" s="88"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
+      <c r="X122" s="93"/>
+      <c r="Y122" s="95"/>
+      <c r="Z122" s="44"/>
+      <c r="AA122" s="44"/>
+      <c r="AB122" s="44"/>
+      <c r="AC122" s="98"/>
+      <c r="AD122" s="95"/>
+      <c r="AE122" s="44"/>
+      <c r="AF122" s="44"/>
+      <c r="AG122" s="44"/>
+      <c r="AH122" s="98"/>
+      <c r="AI122" s="95"/>
+      <c r="AJ122" s="44"/>
+      <c r="AK122" s="44"/>
+      <c r="AL122" s="44"/>
+      <c r="AM122" s="98"/>
+      <c r="AN122" s="95"/>
+      <c r="AO122" s="44"/>
+      <c r="AP122" s="44"/>
+      <c r="AQ122" s="44"/>
+      <c r="AR122" s="98"/>
+      <c r="AS122" s="95"/>
+      <c r="AT122" s="44"/>
+      <c r="AU122" s="44"/>
+      <c r="AV122" s="44"/>
+      <c r="AW122" s="98"/>
+      <c r="AX122" s="95"/>
+      <c r="AY122" s="44"/>
+      <c r="AZ122" s="44"/>
+      <c r="BA122" s="44"/>
+      <c r="BB122" s="98"/>
+      <c r="BC122" s="29"/>
+    </row>
+    <row r="123" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B123" s="52">
         <v>5</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C123" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="53"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="57"/>
-      <c r="N122" s="55"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="55"/>
-      <c r="Q122" s="55"/>
-      <c r="R122" s="55"/>
-      <c r="S122" s="55"/>
-      <c r="T122" s="55"/>
-      <c r="U122" s="55"/>
-      <c r="V122" s="55"/>
-      <c r="W122" s="55"/>
-      <c r="X122" s="55"/>
-      <c r="Y122" s="55"/>
-      <c r="Z122" s="55"/>
-      <c r="AA122" s="55"/>
-      <c r="AB122" s="55"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="55"/>
-      <c r="AI122" s="55"/>
-      <c r="AJ122" s="55"/>
-      <c r="AK122" s="55"/>
-      <c r="AL122" s="55"/>
-      <c r="AM122" s="55"/>
-      <c r="AN122" s="55"/>
-      <c r="AO122" s="55"/>
-      <c r="AP122" s="55"/>
-      <c r="AQ122" s="55"/>
-      <c r="AR122" s="55"/>
-      <c r="AS122" s="55"/>
-      <c r="AT122" s="55"/>
-      <c r="AU122" s="55"/>
-      <c r="AV122" s="55"/>
-      <c r="AW122" s="55"/>
-      <c r="AX122" s="55"/>
-      <c r="AY122" s="55"/>
-      <c r="AZ122" s="55"/>
-      <c r="BA122" s="55"/>
-      <c r="BB122" s="55"/>
-      <c r="BC122" s="51"/>
-    </row>
-    <row r="123" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B123" s="69">
+      <c r="D123" s="53"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="57"/>
+      <c r="M123" s="57"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="55"/>
+      <c r="Q123" s="55"/>
+      <c r="R123" s="55"/>
+      <c r="S123" s="55"/>
+      <c r="T123" s="55"/>
+      <c r="U123" s="55"/>
+      <c r="V123" s="55"/>
+      <c r="W123" s="55"/>
+      <c r="X123" s="55"/>
+      <c r="Y123" s="55"/>
+      <c r="Z123" s="55"/>
+      <c r="AA123" s="55"/>
+      <c r="AB123" s="55"/>
+      <c r="AC123" s="55"/>
+      <c r="AD123" s="55"/>
+      <c r="AE123" s="55"/>
+      <c r="AF123" s="55"/>
+      <c r="AG123" s="55"/>
+      <c r="AH123" s="55"/>
+      <c r="AI123" s="55"/>
+      <c r="AJ123" s="55"/>
+      <c r="AK123" s="55"/>
+      <c r="AL123" s="55"/>
+      <c r="AM123" s="55"/>
+      <c r="AN123" s="55"/>
+      <c r="AO123" s="55"/>
+      <c r="AP123" s="55"/>
+      <c r="AQ123" s="55"/>
+      <c r="AR123" s="55"/>
+      <c r="AS123" s="55"/>
+      <c r="AT123" s="55"/>
+      <c r="AU123" s="55"/>
+      <c r="AV123" s="55"/>
+      <c r="AW123" s="55"/>
+      <c r="AX123" s="55"/>
+      <c r="AY123" s="55"/>
+      <c r="AZ123" s="55"/>
+      <c r="BA123" s="55"/>
+      <c r="BB123" s="55"/>
+      <c r="BC123" s="51"/>
+    </row>
+    <row r="124" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B124" s="69">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C123" s="79" t="s">
+      <c r="C124" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="79"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="66">
+      <c r="D124" s="79"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="66">
         <v>45564</v>
       </c>
-      <c r="G123" s="66">
+      <c r="G124" s="66">
         <v>45394</v>
       </c>
-      <c r="H123" s="67">
-        <f>NETWORKDAYS(F123,G123)</f>
+      <c r="H124" s="67">
+        <f>NETWORKDAYS(F124,G124)</f>
         <v>-121</v>
       </c>
-      <c r="I123" s="68">
+      <c r="I124" s="68">
         <v>1</v>
       </c>
-      <c r="J123" s="33"/>
-      <c r="K123" s="34"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="84"/>
-      <c r="O123" s="81"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="90"/>
-      <c r="T123" s="88"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
-      <c r="W123" s="43"/>
-      <c r="X123" s="93"/>
-      <c r="Y123" s="88"/>
-      <c r="Z123" s="43"/>
-      <c r="AA123" s="43"/>
-      <c r="AB123" s="43"/>
-      <c r="AC123" s="93"/>
-      <c r="AD123" s="95"/>
-      <c r="AE123" s="44"/>
-      <c r="AF123" s="44"/>
-      <c r="AG123" s="44"/>
-      <c r="AH123" s="98"/>
-      <c r="AI123" s="88"/>
-      <c r="AJ123" s="43"/>
-      <c r="AK123" s="43"/>
-      <c r="AL123" s="43"/>
-      <c r="AM123" s="43"/>
-      <c r="AN123" s="43"/>
-      <c r="AO123" s="43"/>
-      <c r="AP123" s="43"/>
-      <c r="AQ123" s="43"/>
-      <c r="AR123" s="43"/>
-      <c r="AS123" s="43"/>
-      <c r="AT123" s="43"/>
-      <c r="AU123" s="43"/>
-      <c r="AV123" s="43"/>
-      <c r="AW123" s="43"/>
-      <c r="AX123" s="43"/>
-      <c r="AY123" s="43"/>
-      <c r="AZ123" s="43"/>
-      <c r="BA123" s="43"/>
-      <c r="BB123" s="43"/>
-      <c r="BC123" s="29"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="84"/>
+      <c r="O124" s="81"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="90"/>
+      <c r="T124" s="88"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43"/>
+      <c r="W124" s="43"/>
+      <c r="X124" s="93"/>
+      <c r="Y124" s="88"/>
+      <c r="Z124" s="43"/>
+      <c r="AA124" s="43"/>
+      <c r="AB124" s="43"/>
+      <c r="AC124" s="93"/>
+      <c r="AD124" s="95"/>
+      <c r="AE124" s="44"/>
+      <c r="AF124" s="44"/>
+      <c r="AG124" s="44"/>
+      <c r="AH124" s="98"/>
+      <c r="AI124" s="88"/>
+      <c r="AJ124" s="43"/>
+      <c r="AK124" s="43"/>
+      <c r="AL124" s="43"/>
+      <c r="AM124" s="43"/>
+      <c r="AN124" s="43"/>
+      <c r="AO124" s="43"/>
+      <c r="AP124" s="43"/>
+      <c r="AQ124" s="43"/>
+      <c r="AR124" s="43"/>
+      <c r="AS124" s="43"/>
+      <c r="AT124" s="43"/>
+      <c r="AU124" s="43"/>
+      <c r="AV124" s="43"/>
+      <c r="AW124" s="43"/>
+      <c r="AX124" s="43"/>
+      <c r="AY124" s="43"/>
+      <c r="AZ124" s="43"/>
+      <c r="BA124" s="43"/>
+      <c r="BB124" s="43"/>
+      <c r="BC124" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11341,6 +11459,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="195">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1403,6 +1403,30 @@
   </si>
   <si>
     <t>인기 상품 조회/등록/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 화면</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 배송지</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 변경</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 요청사항</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액/수량</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 사용/적립</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2102,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2460,17 +2484,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,10 +2575,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2513,57 +2589,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2882,10 +2907,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:BC124"/>
+  <dimension ref="B1:BC130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2959,40 +2984,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -3073,41 +3098,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="144" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="141" t="s">
+      <c r="J4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="142" t="s">
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3137,40 +3162,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="147" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140">
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="158">
         <v>45611</v>
       </c>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3312,160 +3337,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H8" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="148" t="s">
+      <c r="J8" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="152" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152" t="s">
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="156" t="s">
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="127" t="s">
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127" t="s">
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="147"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="131" t="s">
+      <c r="AJ8" s="147"/>
+      <c r="AK8" s="147"/>
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="149"/>
+      <c r="AN8" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="132"/>
-      <c r="AP8" s="132"/>
-      <c r="AQ8" s="132"/>
-      <c r="AR8" s="132"/>
-      <c r="AS8" s="145" t="s">
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="145"/>
-      <c r="AU8" s="145"/>
-      <c r="AV8" s="145"/>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145" t="s">
+      <c r="AT8" s="128"/>
+      <c r="AU8" s="128"/>
+      <c r="AV8" s="128"/>
+      <c r="AW8" s="128"/>
+      <c r="AX8" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="145"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="145"/>
+      <c r="AY8" s="128"/>
+      <c r="AZ8" s="128"/>
+      <c r="BA8" s="128"/>
+      <c r="BB8" s="128"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="129"/>
-      <c r="AJ9" s="129"/>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="130"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="134"/>
-      <c r="AP9" s="134"/>
-      <c r="AQ9" s="134"/>
-      <c r="AR9" s="134"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
-      <c r="AX9" s="146"/>
-      <c r="AY9" s="146"/>
-      <c r="AZ9" s="146"/>
-      <c r="BA9" s="146"/>
-      <c r="BB9" s="146"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="148"/>
+      <c r="AL9" s="148"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="154"/>
+      <c r="AP9" s="154"/>
+      <c r="AQ9" s="154"/>
+      <c r="AR9" s="154"/>
+      <c r="AS9" s="129"/>
+      <c r="AT9" s="129"/>
+      <c r="AU9" s="129"/>
+      <c r="AV9" s="129"/>
+      <c r="AW9" s="129"/>
+      <c r="AX9" s="129"/>
+      <c r="AY9" s="129"/>
+      <c r="AZ9" s="129"/>
+      <c r="BA9" s="129"/>
+      <c r="BB9" s="129"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +5908,7 @@
         <v>45572</v>
       </c>
       <c r="H44" s="119">
-        <f t="shared" ref="H44:H110" si="7">NETWORKDAYS(F44,G44)</f>
+        <f t="shared" ref="H44:H116" si="7">NETWORKDAYS(F44,G44)</f>
         <v>5</v>
       </c>
       <c r="I44" s="120">
@@ -8178,12 +8203,12 @@
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
       <c r="W77" s="43"/>
-      <c r="X77" s="160"/>
+      <c r="X77" s="126"/>
       <c r="Y77" s="95"/>
       <c r="Z77" s="44"/>
       <c r="AA77" s="44"/>
       <c r="AB77" s="44"/>
-      <c r="AC77" s="161"/>
+      <c r="AC77" s="127"/>
       <c r="AD77" s="95"/>
       <c r="AE77" s="46"/>
       <c r="AF77" s="46"/>
@@ -9039,34 +9064,34 @@
       <c r="BB89" s="100"/>
       <c r="BC89" s="29"/>
     </row>
-    <row r="90" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="90" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B90" s="30">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="107"/>
-      <c r="E90" s="60"/>
+      <c r="C90" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="77"/>
+      <c r="E90" s="107"/>
       <c r="F90" s="112">
-        <v>45576</v>
-      </c>
-      <c r="G90" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="H90" s="119" t="e">
+        <v>45581</v>
+      </c>
+      <c r="G90" s="112">
+        <v>45596</v>
+      </c>
+      <c r="H90" s="119">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="I90" s="120">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="34"/>
       <c r="L90" s="35"/>
       <c r="M90" s="35"/>
       <c r="N90" s="84"/>
-      <c r="O90" s="81"/>
+      <c r="O90" s="41"/>
       <c r="P90" s="41"/>
       <c r="Q90" s="41"/>
       <c r="R90" s="41"/>
@@ -9075,8 +9100,8 @@
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="121"/>
-      <c r="Y90" s="43"/>
+      <c r="X90" s="126"/>
+      <c r="Y90" s="95"/>
       <c r="Z90" s="46"/>
       <c r="AA90" s="46"/>
       <c r="AB90" s="46"/>
@@ -9108,24 +9133,24 @@
       <c r="BB90" s="100"/>
       <c r="BC90" s="29"/>
     </row>
-    <row r="91" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="91" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="107" t="s">
-        <v>118</v>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77" t="s">
+        <v>190</v>
       </c>
       <c r="E91" s="107" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F91" s="112">
-        <v>45576</v>
+        <v>45581</v>
       </c>
       <c r="G91" s="112">
-        <v>45579</v>
+        <v>45595</v>
       </c>
       <c r="H91" s="119">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I91" s="120">
         <v>1</v>
@@ -9144,8 +9169,8 @@
       <c r="U91" s="43"/>
       <c r="V91" s="43"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="121"/>
-      <c r="Y91" s="121"/>
+      <c r="X91" s="126"/>
+      <c r="Y91" s="95"/>
       <c r="Z91" s="46"/>
       <c r="AA91" s="46"/>
       <c r="AB91" s="46"/>
@@ -9177,24 +9202,24 @@
       <c r="BB91" s="100"/>
       <c r="BC91" s="29"/>
     </row>
-    <row r="92" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="92" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="112" t="s">
-        <v>121</v>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="107" t="s">
+        <v>41</v>
       </c>
       <c r="F92" s="112">
-        <v>45576</v>
+        <v>45590</v>
       </c>
       <c r="G92" s="112">
-        <v>45580</v>
+        <v>45595</v>
       </c>
       <c r="H92" s="119">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I92" s="120">
         <v>1</v>
@@ -9213,9 +9238,9 @@
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="121"/>
-      <c r="Y92" s="121"/>
-      <c r="Z92" s="121"/>
+      <c r="X92" s="126"/>
+      <c r="Y92" s="95"/>
+      <c r="Z92" s="46"/>
       <c r="AA92" s="46"/>
       <c r="AB92" s="46"/>
       <c r="AC92" s="100"/>
@@ -9246,20 +9271,20 @@
       <c r="BB92" s="100"/>
       <c r="BC92" s="29"/>
     </row>
-    <row r="93" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="93" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E93" s="112" t="s">
-        <v>173</v>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="107" t="s">
+        <v>41</v>
       </c>
       <c r="F93" s="112">
-        <v>45590</v>
+        <v>45595</v>
       </c>
       <c r="G93" s="112">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="H93" s="119">
         <f t="shared" si="7"/>
@@ -9282,8 +9307,8 @@
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="93"/>
-      <c r="Y93" s="96"/>
+      <c r="X93" s="126"/>
+      <c r="Y93" s="95"/>
       <c r="Z93" s="46"/>
       <c r="AA93" s="46"/>
       <c r="AB93" s="46"/>
@@ -9315,24 +9340,24 @@
       <c r="BB93" s="100"/>
       <c r="BC93" s="29"/>
     </row>
-    <row r="94" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="94" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="118" t="s">
-        <v>150</v>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="107" t="s">
+        <v>41</v>
       </c>
       <c r="F94" s="112">
-        <v>45576</v>
+        <v>45581</v>
       </c>
       <c r="G94" s="112">
-        <v>45580</v>
+        <v>45586</v>
       </c>
       <c r="H94" s="119">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" s="120">
         <v>1</v>
@@ -9351,9 +9376,9 @@
       <c r="U94" s="43"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="121"/>
-      <c r="Y94" s="121"/>
-      <c r="Z94" s="121"/>
+      <c r="X94" s="126"/>
+      <c r="Y94" s="95"/>
+      <c r="Z94" s="46"/>
       <c r="AA94" s="46"/>
       <c r="AB94" s="46"/>
       <c r="AC94" s="100"/>
@@ -9384,25 +9409,27 @@
       <c r="BB94" s="100"/>
       <c r="BC94" s="29"/>
     </row>
-    <row r="95" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="95" spans="2:55" s="125" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="60"/>
-      <c r="F95" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="G95" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="H95" s="119" t="e">
+      <c r="C95" s="77"/>
+      <c r="D95" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="112">
+        <v>45581</v>
+      </c>
+      <c r="G95" s="112">
+        <v>45586</v>
+      </c>
+      <c r="H95" s="119">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="I95" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="34"/>
@@ -9418,8 +9445,8 @@
       <c r="U95" s="43"/>
       <c r="V95" s="43"/>
       <c r="W95" s="43"/>
-      <c r="X95" s="93"/>
-      <c r="Y95" s="96"/>
+      <c r="X95" s="126"/>
+      <c r="Y95" s="95"/>
       <c r="Z95" s="46"/>
       <c r="AA95" s="46"/>
       <c r="AB95" s="46"/>
@@ -9455,23 +9482,23 @@
       <c r="B96" s="111">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C96" s="117" t="s">
-        <v>119</v>
+      <c r="C96" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="D96" s="107"/>
       <c r="E96" s="60"/>
       <c r="F96" s="112">
         <v>45576</v>
       </c>
-      <c r="G96" s="112">
-        <v>45579</v>
-      </c>
-      <c r="H96" s="119">
+      <c r="G96" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="119" t="e">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I96" s="120">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="34"/>
@@ -9488,7 +9515,7 @@
       <c r="V96" s="43"/>
       <c r="W96" s="43"/>
       <c r="X96" s="121"/>
-      <c r="Y96" s="96"/>
+      <c r="Y96" s="43"/>
       <c r="Z96" s="46"/>
       <c r="AA96" s="46"/>
       <c r="AB96" s="46"/>
@@ -9522,9 +9549,9 @@
     </row>
     <row r="97" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B97" s="30"/>
-      <c r="C97" s="117"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E97" s="107" t="s">
         <v>74</v>
@@ -9590,92 +9617,92 @@
       <c r="BC97" s="29"/>
     </row>
     <row r="98" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B98" s="30">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="77"/>
-      <c r="E98" s="107"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>121</v>
+      </c>
       <c r="F98" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G98" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="H98" s="119" t="e">
+        <v>45576</v>
+      </c>
+      <c r="G98" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H98" s="119">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I98" s="120">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J98" s="33"/>
       <c r="K98" s="34"/>
       <c r="L98" s="35"/>
       <c r="M98" s="35"/>
       <c r="N98" s="84"/>
-      <c r="O98" s="121"/>
-      <c r="P98" s="121"/>
-      <c r="Q98" s="121"/>
+      <c r="O98" s="81"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
       <c r="R98" s="41"/>
-      <c r="S98" s="121"/>
-      <c r="T98" s="121"/>
-      <c r="U98" s="121"/>
+      <c r="S98" s="90"/>
+      <c r="T98" s="88"/>
+      <c r="U98" s="43"/>
       <c r="V98" s="43"/>
-      <c r="W98" s="121"/>
+      <c r="W98" s="43"/>
       <c r="X98" s="121"/>
       <c r="Y98" s="121"/>
       <c r="Z98" s="121"/>
-      <c r="AA98" s="121"/>
-      <c r="AB98" s="121"/>
-      <c r="AC98" s="121"/>
-      <c r="AD98" s="121"/>
-      <c r="AE98" s="44"/>
-      <c r="AF98" s="44"/>
-      <c r="AG98" s="44"/>
-      <c r="AH98" s="98"/>
-      <c r="AI98" s="88"/>
-      <c r="AJ98" s="43"/>
-      <c r="AK98" s="43"/>
-      <c r="AL98" s="43"/>
-      <c r="AM98" s="93"/>
-      <c r="AN98" s="88"/>
-      <c r="AO98" s="43"/>
-      <c r="AP98" s="43"/>
-      <c r="AQ98" s="43"/>
-      <c r="AR98" s="93"/>
-      <c r="AS98" s="101"/>
-      <c r="AT98" s="45"/>
-      <c r="AU98" s="45"/>
-      <c r="AV98" s="45"/>
-      <c r="AW98" s="103"/>
-      <c r="AX98" s="88"/>
-      <c r="AY98" s="43"/>
-      <c r="AZ98" s="43"/>
-      <c r="BA98" s="43"/>
-      <c r="BB98" s="93"/>
+      <c r="AA98" s="46"/>
+      <c r="AB98" s="46"/>
+      <c r="AC98" s="100"/>
+      <c r="AD98" s="96"/>
+      <c r="AE98" s="46"/>
+      <c r="AF98" s="46"/>
+      <c r="AG98" s="46"/>
+      <c r="AH98" s="100"/>
+      <c r="AI98" s="96"/>
+      <c r="AJ98" s="46"/>
+      <c r="AK98" s="46"/>
+      <c r="AL98" s="46"/>
+      <c r="AM98" s="100"/>
+      <c r="AN98" s="96"/>
+      <c r="AO98" s="46"/>
+      <c r="AP98" s="46"/>
+      <c r="AQ98" s="46"/>
+      <c r="AR98" s="100"/>
+      <c r="AS98" s="96"/>
+      <c r="AT98" s="46"/>
+      <c r="AU98" s="46"/>
+      <c r="AV98" s="46"/>
+      <c r="AW98" s="100"/>
+      <c r="AX98" s="96"/>
+      <c r="AY98" s="46"/>
+      <c r="AZ98" s="46"/>
+      <c r="BA98" s="46"/>
+      <c r="BB98" s="100"/>
       <c r="BC98" s="29"/>
     </row>
     <row r="99" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B99" s="30"/>
       <c r="C99" s="31"/>
-      <c r="D99" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" s="107" t="s">
-        <v>121</v>
+      <c r="D99" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>173</v>
       </c>
       <c r="F99" s="112">
-        <v>45582</v>
+        <v>45590</v>
       </c>
       <c r="G99" s="112">
-        <v>45587</v>
+        <v>45593</v>
       </c>
       <c r="H99" s="119">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" s="120">
         <v>1</v>
@@ -9695,59 +9722,59 @@
       <c r="V99" s="43"/>
       <c r="W99" s="43"/>
       <c r="X99" s="93"/>
-      <c r="Y99" s="88"/>
-      <c r="Z99" s="43"/>
-      <c r="AA99" s="43"/>
-      <c r="AB99" s="121"/>
-      <c r="AC99" s="121"/>
-      <c r="AD99" s="121"/>
-      <c r="AE99" s="44"/>
-      <c r="AF99" s="44"/>
-      <c r="AG99" s="44"/>
-      <c r="AH99" s="98"/>
-      <c r="AI99" s="88"/>
-      <c r="AJ99" s="43"/>
-      <c r="AK99" s="43"/>
-      <c r="AL99" s="43"/>
-      <c r="AM99" s="93"/>
-      <c r="AN99" s="88"/>
-      <c r="AO99" s="43"/>
-      <c r="AP99" s="43"/>
-      <c r="AQ99" s="43"/>
-      <c r="AR99" s="93"/>
-      <c r="AS99" s="101"/>
-      <c r="AT99" s="45"/>
-      <c r="AU99" s="45"/>
-      <c r="AV99" s="45"/>
-      <c r="AW99" s="103"/>
-      <c r="AX99" s="88"/>
-      <c r="AY99" s="43"/>
-      <c r="AZ99" s="43"/>
-      <c r="BA99" s="43"/>
-      <c r="BB99" s="93"/>
+      <c r="Y99" s="96"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="100"/>
+      <c r="AD99" s="96"/>
+      <c r="AE99" s="46"/>
+      <c r="AF99" s="46"/>
+      <c r="AG99" s="46"/>
+      <c r="AH99" s="100"/>
+      <c r="AI99" s="96"/>
+      <c r="AJ99" s="46"/>
+      <c r="AK99" s="46"/>
+      <c r="AL99" s="46"/>
+      <c r="AM99" s="100"/>
+      <c r="AN99" s="96"/>
+      <c r="AO99" s="46"/>
+      <c r="AP99" s="46"/>
+      <c r="AQ99" s="46"/>
+      <c r="AR99" s="100"/>
+      <c r="AS99" s="96"/>
+      <c r="AT99" s="46"/>
+      <c r="AU99" s="46"/>
+      <c r="AV99" s="46"/>
+      <c r="AW99" s="100"/>
+      <c r="AX99" s="96"/>
+      <c r="AY99" s="46"/>
+      <c r="AZ99" s="46"/>
+      <c r="BA99" s="46"/>
+      <c r="BB99" s="100"/>
       <c r="BC99" s="29"/>
     </row>
     <row r="100" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B100" s="30"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E100" s="107" t="s">
-        <v>121</v>
+      <c r="D100" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="118" t="s">
+        <v>150</v>
       </c>
       <c r="F100" s="112">
-        <v>45595</v>
-      </c>
-      <c r="G100" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="H100" s="119" t="e">
+        <v>45576</v>
+      </c>
+      <c r="G100" s="112">
+        <v>45580</v>
+      </c>
+      <c r="H100" s="119">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I100" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J100" s="33"/>
       <c r="K100" s="34"/>
@@ -9763,126 +9790,124 @@
       <c r="U100" s="43"/>
       <c r="V100" s="43"/>
       <c r="W100" s="43"/>
-      <c r="X100" s="93"/>
-      <c r="Y100" s="88"/>
-      <c r="Z100" s="43"/>
-      <c r="AA100" s="43"/>
-      <c r="AB100" s="43"/>
-      <c r="AC100" s="93"/>
-      <c r="AD100" s="95"/>
-      <c r="AE100" s="44"/>
-      <c r="AF100" s="44"/>
-      <c r="AG100" s="44"/>
-      <c r="AH100" s="98"/>
-      <c r="AI100" s="88"/>
-      <c r="AJ100" s="43"/>
-      <c r="AK100" s="43"/>
-      <c r="AL100" s="43"/>
-      <c r="AM100" s="93"/>
-      <c r="AN100" s="88"/>
-      <c r="AO100" s="43"/>
-      <c r="AP100" s="43"/>
-      <c r="AQ100" s="43"/>
-      <c r="AR100" s="93"/>
-      <c r="AS100" s="101"/>
-      <c r="AT100" s="45"/>
-      <c r="AU100" s="45"/>
-      <c r="AV100" s="45"/>
-      <c r="AW100" s="103"/>
-      <c r="AX100" s="88"/>
-      <c r="AY100" s="43"/>
-      <c r="AZ100" s="43"/>
-      <c r="BA100" s="43"/>
-      <c r="BB100" s="93"/>
+      <c r="X100" s="121"/>
+      <c r="Y100" s="121"/>
+      <c r="Z100" s="121"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="100"/>
+      <c r="AD100" s="96"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="100"/>
+      <c r="AI100" s="96"/>
+      <c r="AJ100" s="46"/>
+      <c r="AK100" s="46"/>
+      <c r="AL100" s="46"/>
+      <c r="AM100" s="100"/>
+      <c r="AN100" s="96"/>
+      <c r="AO100" s="46"/>
+      <c r="AP100" s="46"/>
+      <c r="AQ100" s="46"/>
+      <c r="AR100" s="100"/>
+      <c r="AS100" s="96"/>
+      <c r="AT100" s="46"/>
+      <c r="AU100" s="46"/>
+      <c r="AV100" s="46"/>
+      <c r="AW100" s="100"/>
+      <c r="AX100" s="96"/>
+      <c r="AY100" s="46"/>
+      <c r="AZ100" s="46"/>
+      <c r="BA100" s="46"/>
+      <c r="BB100" s="100"/>
       <c r="BC100" s="29"/>
     </row>
     <row r="101" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B101" s="30"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F101" s="112">
-        <v>45565</v>
-      </c>
-      <c r="G101" s="112">
-        <v>45587</v>
-      </c>
-      <c r="H101" s="119">
+      <c r="D101" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="60"/>
+      <c r="F101" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="119" t="e">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I101" s="120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="34"/>
       <c r="L101" s="35"/>
       <c r="M101" s="35"/>
       <c r="N101" s="84"/>
-      <c r="O101" s="121"/>
-      <c r="P101" s="121"/>
-      <c r="Q101" s="121"/>
+      <c r="O101" s="81"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
       <c r="R101" s="41"/>
-      <c r="S101" s="121"/>
-      <c r="T101" s="121"/>
-      <c r="U101" s="121"/>
+      <c r="S101" s="90"/>
+      <c r="T101" s="88"/>
+      <c r="U101" s="43"/>
       <c r="V101" s="43"/>
-      <c r="W101" s="121"/>
-      <c r="X101" s="121"/>
-      <c r="Y101" s="121"/>
-      <c r="Z101" s="121"/>
-      <c r="AA101" s="121"/>
-      <c r="AB101" s="121"/>
-      <c r="AC101" s="121"/>
-      <c r="AD101" s="121"/>
-      <c r="AE101" s="44"/>
-      <c r="AF101" s="44"/>
-      <c r="AG101" s="44"/>
-      <c r="AH101" s="98"/>
-      <c r="AI101" s="88"/>
-      <c r="AJ101" s="43"/>
-      <c r="AK101" s="43"/>
-      <c r="AL101" s="43"/>
-      <c r="AM101" s="93"/>
-      <c r="AN101" s="88"/>
-      <c r="AO101" s="43"/>
-      <c r="AP101" s="43"/>
-      <c r="AQ101" s="43"/>
-      <c r="AR101" s="93"/>
-      <c r="AS101" s="101"/>
-      <c r="AT101" s="45"/>
-      <c r="AU101" s="45"/>
-      <c r="AV101" s="45"/>
-      <c r="AW101" s="103"/>
-      <c r="AX101" s="88"/>
-      <c r="AY101" s="43"/>
-      <c r="AZ101" s="43"/>
-      <c r="BA101" s="43"/>
-      <c r="BB101" s="93"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="93"/>
+      <c r="Y101" s="96"/>
+      <c r="Z101" s="46"/>
+      <c r="AA101" s="46"/>
+      <c r="AB101" s="46"/>
+      <c r="AC101" s="100"/>
+      <c r="AD101" s="96"/>
+      <c r="AE101" s="46"/>
+      <c r="AF101" s="46"/>
+      <c r="AG101" s="46"/>
+      <c r="AH101" s="100"/>
+      <c r="AI101" s="96"/>
+      <c r="AJ101" s="46"/>
+      <c r="AK101" s="46"/>
+      <c r="AL101" s="46"/>
+      <c r="AM101" s="100"/>
+      <c r="AN101" s="96"/>
+      <c r="AO101" s="46"/>
+      <c r="AP101" s="46"/>
+      <c r="AQ101" s="46"/>
+      <c r="AR101" s="100"/>
+      <c r="AS101" s="96"/>
+      <c r="AT101" s="46"/>
+      <c r="AU101" s="46"/>
+      <c r="AV101" s="46"/>
+      <c r="AW101" s="100"/>
+      <c r="AX101" s="96"/>
+      <c r="AY101" s="46"/>
+      <c r="AZ101" s="46"/>
+      <c r="BA101" s="46"/>
+      <c r="BB101" s="100"/>
       <c r="BC101" s="29"/>
     </row>
     <row r="102" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B102" s="111">
-        <v>4.12</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="77"/>
-      <c r="E102" s="107"/>
+      <c r="B102" s="30">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C102" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" s="107"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="112">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="G102" s="112">
-        <v>45590</v>
+        <v>45579</v>
       </c>
       <c r="H102" s="119">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102" s="120">
         <v>1</v>
@@ -9892,7 +9917,7 @@
       <c r="L102" s="35"/>
       <c r="M102" s="35"/>
       <c r="N102" s="84"/>
-      <c r="O102" s="41"/>
+      <c r="O102" s="81"/>
       <c r="P102" s="41"/>
       <c r="Q102" s="41"/>
       <c r="R102" s="41"/>
@@ -9901,57 +9926,57 @@
       <c r="U102" s="43"/>
       <c r="V102" s="43"/>
       <c r="W102" s="43"/>
-      <c r="X102" s="93"/>
-      <c r="Y102" s="88"/>
-      <c r="Z102" s="43"/>
-      <c r="AA102" s="43"/>
-      <c r="AB102" s="43"/>
-      <c r="AC102" s="93"/>
-      <c r="AD102" s="95"/>
-      <c r="AE102" s="44"/>
-      <c r="AF102" s="44"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="98"/>
-      <c r="AI102" s="88"/>
-      <c r="AJ102" s="43"/>
-      <c r="AK102" s="43"/>
-      <c r="AL102" s="43"/>
-      <c r="AM102" s="93"/>
-      <c r="AN102" s="88"/>
-      <c r="AO102" s="43"/>
-      <c r="AP102" s="43"/>
-      <c r="AQ102" s="43"/>
-      <c r="AR102" s="93"/>
-      <c r="AS102" s="101"/>
-      <c r="AT102" s="45"/>
-      <c r="AU102" s="45"/>
-      <c r="AV102" s="45"/>
-      <c r="AW102" s="103"/>
-      <c r="AX102" s="88"/>
-      <c r="AY102" s="43"/>
-      <c r="AZ102" s="43"/>
-      <c r="BA102" s="43"/>
-      <c r="BB102" s="93"/>
+      <c r="X102" s="121"/>
+      <c r="Y102" s="96"/>
+      <c r="Z102" s="46"/>
+      <c r="AA102" s="46"/>
+      <c r="AB102" s="46"/>
+      <c r="AC102" s="100"/>
+      <c r="AD102" s="96"/>
+      <c r="AE102" s="46"/>
+      <c r="AF102" s="46"/>
+      <c r="AG102" s="46"/>
+      <c r="AH102" s="100"/>
+      <c r="AI102" s="96"/>
+      <c r="AJ102" s="46"/>
+      <c r="AK102" s="46"/>
+      <c r="AL102" s="46"/>
+      <c r="AM102" s="100"/>
+      <c r="AN102" s="96"/>
+      <c r="AO102" s="46"/>
+      <c r="AP102" s="46"/>
+      <c r="AQ102" s="46"/>
+      <c r="AR102" s="100"/>
+      <c r="AS102" s="96"/>
+      <c r="AT102" s="46"/>
+      <c r="AU102" s="46"/>
+      <c r="AV102" s="46"/>
+      <c r="AW102" s="100"/>
+      <c r="AX102" s="96"/>
+      <c r="AY102" s="46"/>
+      <c r="AZ102" s="46"/>
+      <c r="BA102" s="46"/>
+      <c r="BB102" s="100"/>
       <c r="BC102" s="29"/>
     </row>
     <row r="103" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="77" t="s">
-        <v>54</v>
+      <c r="C103" s="117"/>
+      <c r="D103" s="107" t="s">
+        <v>119</v>
       </c>
       <c r="E103" s="107" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="F103" s="112">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="G103" s="112">
-        <v>45589</v>
+        <v>45579</v>
       </c>
       <c r="H103" s="119">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103" s="120">
         <v>1</v>
@@ -9961,7 +9986,7 @@
       <c r="L103" s="35"/>
       <c r="M103" s="35"/>
       <c r="N103" s="84"/>
-      <c r="O103" s="41"/>
+      <c r="O103" s="81"/>
       <c r="P103" s="41"/>
       <c r="Q103" s="41"/>
       <c r="R103" s="41"/>
@@ -9970,82 +9995,82 @@
       <c r="U103" s="43"/>
       <c r="V103" s="43"/>
       <c r="W103" s="43"/>
-      <c r="X103" s="93"/>
-      <c r="Y103" s="88"/>
-      <c r="Z103" s="43"/>
-      <c r="AA103" s="43"/>
-      <c r="AB103" s="43"/>
-      <c r="AC103" s="93"/>
-      <c r="AD103" s="95"/>
-      <c r="AE103" s="44"/>
-      <c r="AF103" s="44"/>
-      <c r="AG103" s="44"/>
-      <c r="AH103" s="98"/>
-      <c r="AI103" s="88"/>
-      <c r="AJ103" s="43"/>
-      <c r="AK103" s="43"/>
-      <c r="AL103" s="43"/>
-      <c r="AM103" s="93"/>
-      <c r="AN103" s="88"/>
-      <c r="AO103" s="43"/>
-      <c r="AP103" s="43"/>
-      <c r="AQ103" s="43"/>
-      <c r="AR103" s="93"/>
-      <c r="AS103" s="101"/>
-      <c r="AT103" s="45"/>
-      <c r="AU103" s="45"/>
-      <c r="AV103" s="45"/>
-      <c r="AW103" s="103"/>
-      <c r="AX103" s="88"/>
-      <c r="AY103" s="43"/>
-      <c r="AZ103" s="43"/>
-      <c r="BA103" s="43"/>
-      <c r="BB103" s="93"/>
+      <c r="X103" s="121"/>
+      <c r="Y103" s="121"/>
+      <c r="Z103" s="46"/>
+      <c r="AA103" s="46"/>
+      <c r="AB103" s="46"/>
+      <c r="AC103" s="100"/>
+      <c r="AD103" s="96"/>
+      <c r="AE103" s="46"/>
+      <c r="AF103" s="46"/>
+      <c r="AG103" s="46"/>
+      <c r="AH103" s="100"/>
+      <c r="AI103" s="96"/>
+      <c r="AJ103" s="46"/>
+      <c r="AK103" s="46"/>
+      <c r="AL103" s="46"/>
+      <c r="AM103" s="100"/>
+      <c r="AN103" s="96"/>
+      <c r="AO103" s="46"/>
+      <c r="AP103" s="46"/>
+      <c r="AQ103" s="46"/>
+      <c r="AR103" s="100"/>
+      <c r="AS103" s="96"/>
+      <c r="AT103" s="46"/>
+      <c r="AU103" s="46"/>
+      <c r="AV103" s="46"/>
+      <c r="AW103" s="100"/>
+      <c r="AX103" s="96"/>
+      <c r="AY103" s="46"/>
+      <c r="AZ103" s="46"/>
+      <c r="BA103" s="46"/>
+      <c r="BB103" s="100"/>
       <c r="BC103" s="29"/>
     </row>
     <row r="104" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="107" t="s">
-        <v>152</v>
-      </c>
+      <c r="B104" s="111">
+        <v>4.12</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="77"/>
+      <c r="E104" s="107"/>
       <c r="F104" s="112">
-        <v>45586</v>
-      </c>
-      <c r="G104" s="112">
-        <v>45590</v>
-      </c>
-      <c r="H104" s="119">
+        <v>45565</v>
+      </c>
+      <c r="G104" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104" s="119" t="e">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="120">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="34"/>
       <c r="L104" s="35"/>
       <c r="M104" s="35"/>
       <c r="N104" s="84"/>
-      <c r="O104" s="81"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
+      <c r="O104" s="121"/>
+      <c r="P104" s="121"/>
+      <c r="Q104" s="121"/>
       <c r="R104" s="41"/>
-      <c r="S104" s="90"/>
-      <c r="T104" s="88"/>
-      <c r="U104" s="43"/>
+      <c r="S104" s="121"/>
+      <c r="T104" s="121"/>
+      <c r="U104" s="121"/>
       <c r="V104" s="43"/>
-      <c r="W104" s="43"/>
-      <c r="X104" s="93"/>
-      <c r="Y104" s="88"/>
-      <c r="Z104" s="43"/>
-      <c r="AA104" s="43"/>
-      <c r="AB104" s="43"/>
-      <c r="AC104" s="93"/>
-      <c r="AD104" s="95"/>
+      <c r="W104" s="121"/>
+      <c r="X104" s="121"/>
+      <c r="Y104" s="121"/>
+      <c r="Z104" s="121"/>
+      <c r="AA104" s="121"/>
+      <c r="AB104" s="121"/>
+      <c r="AC104" s="121"/>
+      <c r="AD104" s="121"/>
       <c r="AE104" s="44"/>
       <c r="AF104" s="44"/>
       <c r="AG104" s="44"/>
@@ -10073,23 +10098,23 @@
       <c r="BC104" s="29"/>
     </row>
     <row r="105" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B105" s="30">
-        <v>4.13</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="107"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="107" t="s">
+        <v>121</v>
+      </c>
       <c r="F105" s="112">
         <v>45582</v>
       </c>
       <c r="G105" s="112">
-        <v>45595</v>
+        <v>45587</v>
       </c>
       <c r="H105" s="119">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I105" s="120">
         <v>1</v>
@@ -10112,9 +10137,9 @@
       <c r="Y105" s="88"/>
       <c r="Z105" s="43"/>
       <c r="AA105" s="43"/>
-      <c r="AB105" s="43"/>
-      <c r="AC105" s="93"/>
-      <c r="AD105" s="95"/>
+      <c r="AB105" s="121"/>
+      <c r="AC105" s="121"/>
+      <c r="AD105" s="121"/>
       <c r="AE105" s="44"/>
       <c r="AF105" s="44"/>
       <c r="AG105" s="44"/>
@@ -10145,23 +10170,23 @@
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="77" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="E106" s="107" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F106" s="112">
-        <v>45588</v>
-      </c>
-      <c r="G106" s="112">
-        <v>45590</v>
-      </c>
-      <c r="H106" s="119">
+        <v>45595</v>
+      </c>
+      <c r="G106" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="H106" s="119" t="e">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I106" s="120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="34"/>
@@ -10214,20 +10239,20 @@
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="77" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E107" s="107" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F107" s="112">
-        <v>45590</v>
+        <v>45565</v>
       </c>
       <c r="G107" s="112">
-        <v>45595</v>
+        <v>45587</v>
       </c>
       <c r="H107" s="119">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I107" s="120">
         <v>1</v>
@@ -10237,22 +10262,22 @@
       <c r="L107" s="35"/>
       <c r="M107" s="35"/>
       <c r="N107" s="84"/>
-      <c r="O107" s="81"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
+      <c r="O107" s="121"/>
+      <c r="P107" s="121"/>
+      <c r="Q107" s="121"/>
       <c r="R107" s="41"/>
-      <c r="S107" s="90"/>
-      <c r="T107" s="88"/>
-      <c r="U107" s="43"/>
+      <c r="S107" s="121"/>
+      <c r="T107" s="121"/>
+      <c r="U107" s="121"/>
       <c r="V107" s="43"/>
-      <c r="W107" s="43"/>
-      <c r="X107" s="93"/>
-      <c r="Y107" s="88"/>
-      <c r="Z107" s="43"/>
-      <c r="AA107" s="43"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="93"/>
-      <c r="AD107" s="95"/>
+      <c r="W107" s="121"/>
+      <c r="X107" s="121"/>
+      <c r="Y107" s="121"/>
+      <c r="Z107" s="121"/>
+      <c r="AA107" s="121"/>
+      <c r="AB107" s="121"/>
+      <c r="AC107" s="121"/>
+      <c r="AD107" s="121"/>
       <c r="AE107" s="44"/>
       <c r="AF107" s="44"/>
       <c r="AG107" s="44"/>
@@ -10280,437 +10305,437 @@
       <c r="BC107" s="29"/>
     </row>
     <row r="108" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B108" s="30"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" s="107" t="s">
-        <v>155</v>
-      </c>
+      <c r="B108" s="30">
+        <v>4.13</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="77"/>
+      <c r="E108" s="107"/>
       <c r="F108" s="112">
-        <v>45582</v>
+        <v>45586</v>
       </c>
       <c r="G108" s="112">
-        <v>45595</v>
+        <v>45590</v>
       </c>
       <c r="H108" s="119">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I108" s="120">
         <v>1</v>
       </c>
-      <c r="J108" s="36"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="85"/>
-      <c r="O108" s="81"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="84"/>
+      <c r="O108" s="41"/>
       <c r="P108" s="41"/>
       <c r="Q108" s="41"/>
       <c r="R108" s="41"/>
       <c r="S108" s="90"/>
-      <c r="T108" s="89"/>
-      <c r="U108" s="40"/>
-      <c r="V108" s="40"/>
-      <c r="W108" s="40"/>
-      <c r="X108" s="94"/>
-      <c r="Y108" s="89"/>
-      <c r="Z108" s="40"/>
-      <c r="AA108" s="40"/>
-      <c r="AB108" s="40"/>
-      <c r="AC108" s="94"/>
-      <c r="AD108" s="96"/>
-      <c r="AE108" s="46"/>
-      <c r="AF108" s="46"/>
-      <c r="AG108" s="46"/>
-      <c r="AH108" s="100"/>
-      <c r="AI108" s="89"/>
-      <c r="AJ108" s="40"/>
-      <c r="AK108" s="40"/>
-      <c r="AL108" s="40"/>
-      <c r="AM108" s="94"/>
-      <c r="AN108" s="89"/>
-      <c r="AO108" s="40"/>
-      <c r="AP108" s="40"/>
-      <c r="AQ108" s="40"/>
-      <c r="AR108" s="94"/>
-      <c r="AS108" s="102"/>
-      <c r="AT108" s="47"/>
-      <c r="AU108" s="47"/>
-      <c r="AV108" s="47"/>
-      <c r="AW108" s="104"/>
-      <c r="AX108" s="89"/>
-      <c r="AY108" s="40"/>
-      <c r="AZ108" s="40"/>
-      <c r="BA108" s="40"/>
-      <c r="BB108" s="94"/>
+      <c r="T108" s="88"/>
+      <c r="U108" s="43"/>
+      <c r="V108" s="43"/>
+      <c r="W108" s="43"/>
+      <c r="X108" s="93"/>
+      <c r="Y108" s="88"/>
+      <c r="Z108" s="43"/>
+      <c r="AA108" s="43"/>
+      <c r="AB108" s="43"/>
+      <c r="AC108" s="93"/>
+      <c r="AD108" s="95"/>
+      <c r="AE108" s="44"/>
+      <c r="AF108" s="44"/>
+      <c r="AG108" s="44"/>
+      <c r="AH108" s="98"/>
+      <c r="AI108" s="88"/>
+      <c r="AJ108" s="43"/>
+      <c r="AK108" s="43"/>
+      <c r="AL108" s="43"/>
+      <c r="AM108" s="93"/>
+      <c r="AN108" s="88"/>
+      <c r="AO108" s="43"/>
+      <c r="AP108" s="43"/>
+      <c r="AQ108" s="43"/>
+      <c r="AR108" s="93"/>
+      <c r="AS108" s="101"/>
+      <c r="AT108" s="45"/>
+      <c r="AU108" s="45"/>
+      <c r="AV108" s="45"/>
+      <c r="AW108" s="103"/>
+      <c r="AX108" s="88"/>
+      <c r="AY108" s="43"/>
+      <c r="AZ108" s="43"/>
+      <c r="BA108" s="43"/>
+      <c r="BB108" s="93"/>
       <c r="BC108" s="29"/>
     </row>
     <row r="109" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B109" s="30">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D109" s="77"/>
-      <c r="E109" s="107"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" s="107" t="s">
+        <v>151</v>
+      </c>
       <c r="F109" s="112">
-        <v>45573</v>
+        <v>45586</v>
       </c>
       <c r="G109" s="112">
-        <v>45590</v>
+        <v>45589</v>
       </c>
       <c r="H109" s="119">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I109" s="120">
         <v>1</v>
       </c>
-      <c r="J109" s="36"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="85"/>
-      <c r="O109" s="81"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="84"/>
+      <c r="O109" s="41"/>
       <c r="P109" s="41"/>
       <c r="Q109" s="41"/>
       <c r="R109" s="41"/>
       <c r="S109" s="90"/>
-      <c r="T109" s="89"/>
-      <c r="U109" s="40"/>
-      <c r="V109" s="40"/>
-      <c r="W109" s="40"/>
-      <c r="X109" s="94"/>
-      <c r="Y109" s="89"/>
-      <c r="Z109" s="40"/>
-      <c r="AA109" s="40"/>
-      <c r="AB109" s="40"/>
-      <c r="AC109" s="94"/>
-      <c r="AD109" s="96"/>
-      <c r="AE109" s="46"/>
-      <c r="AF109" s="46"/>
-      <c r="AG109" s="46"/>
-      <c r="AH109" s="100"/>
-      <c r="AI109" s="89"/>
-      <c r="AJ109" s="40"/>
-      <c r="AK109" s="40"/>
-      <c r="AL109" s="40"/>
-      <c r="AM109" s="94"/>
-      <c r="AN109" s="89"/>
-      <c r="AO109" s="40"/>
-      <c r="AP109" s="40"/>
-      <c r="AQ109" s="40"/>
-      <c r="AR109" s="94"/>
-      <c r="AS109" s="102"/>
-      <c r="AT109" s="47"/>
-      <c r="AU109" s="47"/>
-      <c r="AV109" s="47"/>
-      <c r="AW109" s="104"/>
-      <c r="AX109" s="89"/>
-      <c r="AY109" s="40"/>
-      <c r="AZ109" s="40"/>
-      <c r="BA109" s="40"/>
-      <c r="BB109" s="94"/>
+      <c r="T109" s="88"/>
+      <c r="U109" s="43"/>
+      <c r="V109" s="43"/>
+      <c r="W109" s="43"/>
+      <c r="X109" s="93"/>
+      <c r="Y109" s="88"/>
+      <c r="Z109" s="43"/>
+      <c r="AA109" s="43"/>
+      <c r="AB109" s="43"/>
+      <c r="AC109" s="93"/>
+      <c r="AD109" s="95"/>
+      <c r="AE109" s="44"/>
+      <c r="AF109" s="44"/>
+      <c r="AG109" s="44"/>
+      <c r="AH109" s="98"/>
+      <c r="AI109" s="88"/>
+      <c r="AJ109" s="43"/>
+      <c r="AK109" s="43"/>
+      <c r="AL109" s="43"/>
+      <c r="AM109" s="93"/>
+      <c r="AN109" s="88"/>
+      <c r="AO109" s="43"/>
+      <c r="AP109" s="43"/>
+      <c r="AQ109" s="43"/>
+      <c r="AR109" s="93"/>
+      <c r="AS109" s="101"/>
+      <c r="AT109" s="45"/>
+      <c r="AU109" s="45"/>
+      <c r="AV109" s="45"/>
+      <c r="AW109" s="103"/>
+      <c r="AX109" s="88"/>
+      <c r="AY109" s="43"/>
+      <c r="AZ109" s="43"/>
+      <c r="BA109" s="43"/>
+      <c r="BB109" s="93"/>
       <c r="BC109" s="29"/>
     </row>
     <row r="110" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="B110" s="30"/>
       <c r="C110" s="31"/>
       <c r="D110" s="77" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E110" s="107" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F110" s="112">
-        <v>45573</v>
+        <v>45586</v>
       </c>
       <c r="G110" s="112">
         <v>45590</v>
       </c>
       <c r="H110" s="119">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I110" s="120">
         <v>1</v>
       </c>
-      <c r="J110" s="36"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="85"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="84"/>
       <c r="O110" s="81"/>
       <c r="P110" s="41"/>
       <c r="Q110" s="41"/>
       <c r="R110" s="41"/>
       <c r="S110" s="90"/>
-      <c r="T110" s="89"/>
-      <c r="U110" s="121"/>
-      <c r="V110" s="40"/>
-      <c r="W110" s="40"/>
-      <c r="X110" s="94"/>
-      <c r="Y110" s="89"/>
-      <c r="Z110" s="40"/>
-      <c r="AA110" s="40"/>
-      <c r="AB110" s="40"/>
-      <c r="AC110" s="94"/>
-      <c r="AD110" s="96"/>
-      <c r="AE110" s="46"/>
-      <c r="AF110" s="46"/>
-      <c r="AG110" s="46"/>
-      <c r="AH110" s="100"/>
-      <c r="AI110" s="89"/>
-      <c r="AJ110" s="40"/>
-      <c r="AK110" s="40"/>
-      <c r="AL110" s="40"/>
-      <c r="AM110" s="94"/>
-      <c r="AN110" s="89"/>
-      <c r="AO110" s="40"/>
-      <c r="AP110" s="40"/>
-      <c r="AQ110" s="40"/>
-      <c r="AR110" s="94"/>
-      <c r="AS110" s="102"/>
-      <c r="AT110" s="47"/>
-      <c r="AU110" s="47"/>
-      <c r="AV110" s="47"/>
-      <c r="AW110" s="104"/>
-      <c r="AX110" s="89"/>
-      <c r="AY110" s="40"/>
-      <c r="AZ110" s="40"/>
-      <c r="BA110" s="40"/>
-      <c r="BB110" s="94"/>
+      <c r="T110" s="88"/>
+      <c r="U110" s="43"/>
+      <c r="V110" s="43"/>
+      <c r="W110" s="43"/>
+      <c r="X110" s="93"/>
+      <c r="Y110" s="88"/>
+      <c r="Z110" s="43"/>
+      <c r="AA110" s="43"/>
+      <c r="AB110" s="43"/>
+      <c r="AC110" s="93"/>
+      <c r="AD110" s="95"/>
+      <c r="AE110" s="44"/>
+      <c r="AF110" s="44"/>
+      <c r="AG110" s="44"/>
+      <c r="AH110" s="98"/>
+      <c r="AI110" s="88"/>
+      <c r="AJ110" s="43"/>
+      <c r="AK110" s="43"/>
+      <c r="AL110" s="43"/>
+      <c r="AM110" s="93"/>
+      <c r="AN110" s="88"/>
+      <c r="AO110" s="43"/>
+      <c r="AP110" s="43"/>
+      <c r="AQ110" s="43"/>
+      <c r="AR110" s="93"/>
+      <c r="AS110" s="101"/>
+      <c r="AT110" s="45"/>
+      <c r="AU110" s="45"/>
+      <c r="AV110" s="45"/>
+      <c r="AW110" s="103"/>
+      <c r="AX110" s="88"/>
+      <c r="AY110" s="43"/>
+      <c r="AZ110" s="43"/>
+      <c r="BA110" s="43"/>
+      <c r="BB110" s="93"/>
       <c r="BC110" s="29"/>
     </row>
     <row r="111" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B111" s="78"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="107" t="s">
-        <v>74</v>
-      </c>
+      <c r="B111" s="30">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="77"/>
+      <c r="E111" s="107"/>
       <c r="F111" s="112">
-        <v>45573</v>
+        <v>45582</v>
       </c>
       <c r="G111" s="112">
-        <v>45581</v>
+        <v>45595</v>
       </c>
       <c r="H111" s="119">
-        <f t="shared" ref="H111:H122" si="9">NETWORKDAYS(F111,G111)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="I111" s="120">
         <v>1</v>
       </c>
-      <c r="J111" s="36"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="85"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="84"/>
       <c r="O111" s="81"/>
       <c r="P111" s="41"/>
       <c r="Q111" s="41"/>
       <c r="R111" s="41"/>
       <c r="S111" s="90"/>
-      <c r="T111" s="89"/>
-      <c r="U111" s="121"/>
-      <c r="V111" s="40"/>
-      <c r="W111" s="40"/>
-      <c r="X111" s="94"/>
-      <c r="Y111" s="89"/>
-      <c r="Z111" s="40"/>
-      <c r="AA111" s="40"/>
-      <c r="AB111" s="40"/>
-      <c r="AC111" s="94"/>
-      <c r="AD111" s="96"/>
-      <c r="AE111" s="46"/>
-      <c r="AF111" s="46"/>
-      <c r="AG111" s="46"/>
-      <c r="AH111" s="100"/>
-      <c r="AI111" s="89"/>
-      <c r="AJ111" s="40"/>
-      <c r="AK111" s="40"/>
-      <c r="AL111" s="40"/>
-      <c r="AM111" s="94"/>
-      <c r="AN111" s="89"/>
-      <c r="AO111" s="40"/>
-      <c r="AP111" s="40"/>
-      <c r="AQ111" s="40"/>
-      <c r="AR111" s="94"/>
-      <c r="AS111" s="102"/>
-      <c r="AT111" s="47"/>
-      <c r="AU111" s="47"/>
-      <c r="AV111" s="47"/>
-      <c r="AW111" s="104"/>
-      <c r="AX111" s="89"/>
-      <c r="AY111" s="40"/>
-      <c r="AZ111" s="40"/>
-      <c r="BA111" s="40"/>
-      <c r="BB111" s="94"/>
+      <c r="T111" s="88"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="93"/>
+      <c r="Y111" s="88"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+      <c r="AB111" s="43"/>
+      <c r="AC111" s="93"/>
+      <c r="AD111" s="95"/>
+      <c r="AE111" s="44"/>
+      <c r="AF111" s="44"/>
+      <c r="AG111" s="44"/>
+      <c r="AH111" s="98"/>
+      <c r="AI111" s="88"/>
+      <c r="AJ111" s="43"/>
+      <c r="AK111" s="43"/>
+      <c r="AL111" s="43"/>
+      <c r="AM111" s="93"/>
+      <c r="AN111" s="88"/>
+      <c r="AO111" s="43"/>
+      <c r="AP111" s="43"/>
+      <c r="AQ111" s="43"/>
+      <c r="AR111" s="93"/>
+      <c r="AS111" s="101"/>
+      <c r="AT111" s="45"/>
+      <c r="AU111" s="45"/>
+      <c r="AV111" s="45"/>
+      <c r="AW111" s="103"/>
+      <c r="AX111" s="88"/>
+      <c r="AY111" s="43"/>
+      <c r="AZ111" s="43"/>
+      <c r="BA111" s="43"/>
+      <c r="BB111" s="93"/>
       <c r="BC111" s="29"/>
     </row>
     <row r="112" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B112" s="78"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="31"/>
       <c r="D112" s="77" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="E112" s="107" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F112" s="112">
-        <v>45573</v>
+        <v>45588</v>
       </c>
       <c r="G112" s="112">
-        <v>45583</v>
+        <v>45590</v>
       </c>
       <c r="H112" s="119">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="I112" s="120">
         <v>1</v>
       </c>
-      <c r="J112" s="36"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="85"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="84"/>
       <c r="O112" s="81"/>
       <c r="P112" s="41"/>
       <c r="Q112" s="41"/>
       <c r="R112" s="41"/>
       <c r="S112" s="90"/>
-      <c r="T112" s="89"/>
-      <c r="U112" s="121"/>
-      <c r="V112" s="40"/>
-      <c r="W112" s="40"/>
-      <c r="X112" s="94"/>
-      <c r="Y112" s="89"/>
-      <c r="Z112" s="40"/>
-      <c r="AA112" s="40"/>
-      <c r="AB112" s="40"/>
-      <c r="AC112" s="94"/>
-      <c r="AD112" s="96"/>
-      <c r="AE112" s="46"/>
-      <c r="AF112" s="46"/>
-      <c r="AG112" s="46"/>
-      <c r="AH112" s="100"/>
-      <c r="AI112" s="89"/>
-      <c r="AJ112" s="40"/>
-      <c r="AK112" s="40"/>
-      <c r="AL112" s="40"/>
-      <c r="AM112" s="94"/>
-      <c r="AN112" s="89"/>
-      <c r="AO112" s="40"/>
-      <c r="AP112" s="40"/>
-      <c r="AQ112" s="40"/>
-      <c r="AR112" s="94"/>
-      <c r="AS112" s="102"/>
-      <c r="AT112" s="47"/>
-      <c r="AU112" s="47"/>
-      <c r="AV112" s="47"/>
-      <c r="AW112" s="104"/>
-      <c r="AX112" s="89"/>
-      <c r="AY112" s="40"/>
-      <c r="AZ112" s="40"/>
-      <c r="BA112" s="40"/>
-      <c r="BB112" s="94"/>
+      <c r="T112" s="88"/>
+      <c r="U112" s="43"/>
+      <c r="V112" s="43"/>
+      <c r="W112" s="43"/>
+      <c r="X112" s="93"/>
+      <c r="Y112" s="88"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="43"/>
+      <c r="AB112" s="43"/>
+      <c r="AC112" s="93"/>
+      <c r="AD112" s="95"/>
+      <c r="AE112" s="44"/>
+      <c r="AF112" s="44"/>
+      <c r="AG112" s="44"/>
+      <c r="AH112" s="98"/>
+      <c r="AI112" s="88"/>
+      <c r="AJ112" s="43"/>
+      <c r="AK112" s="43"/>
+      <c r="AL112" s="43"/>
+      <c r="AM112" s="93"/>
+      <c r="AN112" s="88"/>
+      <c r="AO112" s="43"/>
+      <c r="AP112" s="43"/>
+      <c r="AQ112" s="43"/>
+      <c r="AR112" s="93"/>
+      <c r="AS112" s="101"/>
+      <c r="AT112" s="45"/>
+      <c r="AU112" s="45"/>
+      <c r="AV112" s="45"/>
+      <c r="AW112" s="103"/>
+      <c r="AX112" s="88"/>
+      <c r="AY112" s="43"/>
+      <c r="AZ112" s="43"/>
+      <c r="BA112" s="43"/>
+      <c r="BB112" s="93"/>
       <c r="BC112" s="29"/>
     </row>
     <row r="113" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B113" s="111">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" s="77"/>
-      <c r="E113" s="107"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="107" t="s">
+        <v>154</v>
+      </c>
       <c r="F113" s="112">
         <v>45590</v>
       </c>
-      <c r="G113" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="H113" s="119" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+      <c r="G113" s="112">
+        <v>45595</v>
+      </c>
+      <c r="H113" s="119">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I113" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="J113" s="36"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="J113" s="33"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="84"/>
       <c r="O113" s="81"/>
       <c r="P113" s="41"/>
       <c r="Q113" s="41"/>
       <c r="R113" s="41"/>
       <c r="S113" s="90"/>
-      <c r="T113" s="89"/>
-      <c r="U113" s="40"/>
-      <c r="V113" s="40"/>
-      <c r="W113" s="40"/>
-      <c r="X113" s="94"/>
-      <c r="Y113" s="89"/>
-      <c r="Z113" s="40"/>
-      <c r="AA113" s="40"/>
-      <c r="AB113" s="40"/>
-      <c r="AC113" s="94"/>
-      <c r="AD113" s="96"/>
-      <c r="AE113" s="46"/>
-      <c r="AF113" s="46"/>
-      <c r="AG113" s="46"/>
-      <c r="AH113" s="100"/>
-      <c r="AI113" s="89"/>
-      <c r="AJ113" s="40"/>
-      <c r="AK113" s="40"/>
-      <c r="AL113" s="40"/>
-      <c r="AM113" s="94"/>
-      <c r="AN113" s="89"/>
-      <c r="AO113" s="40"/>
-      <c r="AP113" s="40"/>
-      <c r="AQ113" s="40"/>
-      <c r="AR113" s="94"/>
-      <c r="AS113" s="102"/>
-      <c r="AT113" s="47"/>
-      <c r="AU113" s="47"/>
-      <c r="AV113" s="47"/>
-      <c r="AW113" s="104"/>
-      <c r="AX113" s="89"/>
-      <c r="AY113" s="40"/>
-      <c r="AZ113" s="40"/>
-      <c r="BA113" s="40"/>
-      <c r="BB113" s="94"/>
+      <c r="T113" s="88"/>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="43"/>
+      <c r="X113" s="93"/>
+      <c r="Y113" s="88"/>
+      <c r="Z113" s="43"/>
+      <c r="AA113" s="43"/>
+      <c r="AB113" s="43"/>
+      <c r="AC113" s="93"/>
+      <c r="AD113" s="95"/>
+      <c r="AE113" s="44"/>
+      <c r="AF113" s="44"/>
+      <c r="AG113" s="44"/>
+      <c r="AH113" s="98"/>
+      <c r="AI113" s="88"/>
+      <c r="AJ113" s="43"/>
+      <c r="AK113" s="43"/>
+      <c r="AL113" s="43"/>
+      <c r="AM113" s="93"/>
+      <c r="AN113" s="88"/>
+      <c r="AO113" s="43"/>
+      <c r="AP113" s="43"/>
+      <c r="AQ113" s="43"/>
+      <c r="AR113" s="93"/>
+      <c r="AS113" s="101"/>
+      <c r="AT113" s="45"/>
+      <c r="AU113" s="45"/>
+      <c r="AV113" s="45"/>
+      <c r="AW113" s="103"/>
+      <c r="AX113" s="88"/>
+      <c r="AY113" s="43"/>
+      <c r="AZ113" s="43"/>
+      <c r="BA113" s="43"/>
+      <c r="BB113" s="93"/>
       <c r="BC113" s="29"/>
     </row>
     <row r="114" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B114" s="78"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="31"/>
       <c r="D114" s="77" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="E114" s="107" t="s">
         <v>155</v>
       </c>
       <c r="F114" s="112">
-        <v>45593</v>
+        <v>45582</v>
       </c>
       <c r="G114" s="112">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="H114" s="119">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="I114" s="120">
         <v>1</v>
@@ -10763,24 +10788,26 @@
       <c r="BC114" s="29"/>
     </row>
     <row r="115" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B115" s="78"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="77" t="s">
-        <v>60</v>
-      </c>
+      <c r="B115" s="111">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="77"/>
       <c r="E115" s="107"/>
-      <c r="F115" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="G115" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="H115" s="119" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+      <c r="F115" s="112">
+        <v>45573</v>
+      </c>
+      <c r="G115" s="112">
+        <v>45590</v>
+      </c>
+      <c r="H115" s="119">
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="I115" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="36"/>
       <c r="K115" s="37"/>
@@ -10830,26 +10857,26 @@
       <c r="BC115" s="29"/>
     </row>
     <row r="116" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B116" s="78"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="31"/>
       <c r="D116" s="77" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E116" s="107" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="F116" s="112">
-        <v>45593</v>
-      </c>
-      <c r="G116" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="H116" s="119" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>45573</v>
+      </c>
+      <c r="G116" s="112">
+        <v>45590</v>
+      </c>
+      <c r="H116" s="119">
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="I116" s="120">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J116" s="36"/>
       <c r="K116" s="37"/>
@@ -10862,7 +10889,7 @@
       <c r="R116" s="41"/>
       <c r="S116" s="90"/>
       <c r="T116" s="89"/>
-      <c r="U116" s="40"/>
+      <c r="U116" s="121"/>
       <c r="V116" s="40"/>
       <c r="W116" s="40"/>
       <c r="X116" s="94"/>
@@ -10902,23 +10929,23 @@
       <c r="B117" s="78"/>
       <c r="C117" s="31"/>
       <c r="D117" s="77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E117" s="107" t="s">
         <v>74</v>
       </c>
       <c r="F117" s="112">
-        <v>45590</v>
-      </c>
-      <c r="G117" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="H117" s="119" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>45573</v>
+      </c>
+      <c r="G117" s="112">
+        <v>45581</v>
+      </c>
+      <c r="H117" s="119">
+        <f t="shared" ref="H117:H128" si="9">NETWORKDAYS(F117,G117)</f>
+        <v>7</v>
       </c>
       <c r="I117" s="120">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J117" s="36"/>
       <c r="K117" s="37"/>
@@ -10931,7 +10958,7 @@
       <c r="R117" s="41"/>
       <c r="S117" s="90"/>
       <c r="T117" s="89"/>
-      <c r="U117" s="40"/>
+      <c r="U117" s="121"/>
       <c r="V117" s="40"/>
       <c r="W117" s="40"/>
       <c r="X117" s="94"/>
@@ -10968,26 +10995,26 @@
       <c r="BC117" s="29"/>
     </row>
     <row r="118" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B118" s="78">
-        <v>4.16</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="77"/>
-      <c r="E118" s="107"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="107" t="s">
+        <v>74</v>
+      </c>
       <c r="F118" s="112">
-        <v>45587</v>
-      </c>
-      <c r="G118" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="H118" s="119" t="e">
+        <v>45573</v>
+      </c>
+      <c r="G118" s="112">
+        <v>45583</v>
+      </c>
+      <c r="H118" s="119">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I118" s="120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J118" s="36"/>
       <c r="K118" s="37"/>
@@ -11000,7 +11027,7 @@
       <c r="R118" s="41"/>
       <c r="S118" s="90"/>
       <c r="T118" s="89"/>
-      <c r="U118" s="40"/>
+      <c r="U118" s="121"/>
       <c r="V118" s="40"/>
       <c r="W118" s="40"/>
       <c r="X118" s="94"/>
@@ -11037,26 +11064,26 @@
       <c r="BC118" s="29"/>
     </row>
     <row r="119" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B119" s="30"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="E119" s="107" t="s">
-        <v>152</v>
-      </c>
+      <c r="B119" s="78">
+        <v>4.16</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="77"/>
+      <c r="E119" s="107"/>
       <c r="F119" s="112">
-        <v>45587</v>
-      </c>
-      <c r="G119" s="112">
-        <v>45594</v>
-      </c>
-      <c r="H119" s="119">
+        <v>45590</v>
+      </c>
+      <c r="G119" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="H119" s="119" t="e">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I119" s="120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J119" s="36"/>
       <c r="K119" s="37"/>
@@ -11109,23 +11136,23 @@
       <c r="B120" s="78"/>
       <c r="C120" s="31"/>
       <c r="D120" s="77" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="E120" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="F120" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="G120" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="H120" s="119" t="e">
+        <v>155</v>
+      </c>
+      <c r="F120" s="112">
+        <v>45593</v>
+      </c>
+      <c r="G120" s="112">
+        <v>45596</v>
+      </c>
+      <c r="H120" s="119">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="I120" s="120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="36"/>
       <c r="K120" s="37"/>
@@ -11178,23 +11205,21 @@
       <c r="B121" s="78"/>
       <c r="C121" s="31"/>
       <c r="D121" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="E121" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="F121" s="112">
-        <v>45593</v>
+        <v>60</v>
+      </c>
+      <c r="E121" s="107"/>
+      <c r="F121" s="112" t="s">
+        <v>176</v>
       </c>
       <c r="G121" s="112" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H121" s="119" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="120">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J121" s="36"/>
       <c r="K121" s="37"/>
@@ -11244,205 +11269,631 @@
       <c r="BC121" s="29"/>
     </row>
     <row r="122" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B122" s="78">
-        <v>4.17</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="112" t="s">
-        <v>176</v>
+      <c r="B122" s="78"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E122" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F122" s="112">
+        <v>45593</v>
       </c>
       <c r="G122" s="112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H122" s="119" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="120">
-        <v>0</v>
-      </c>
-      <c r="J122" s="33"/>
-      <c r="K122" s="34"/>
-      <c r="L122" s="35"/>
-      <c r="M122" s="35"/>
-      <c r="N122" s="84"/>
+        <v>0.3</v>
+      </c>
+      <c r="J122" s="36"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="85"/>
       <c r="O122" s="81"/>
       <c r="P122" s="41"/>
       <c r="Q122" s="41"/>
       <c r="R122" s="41"/>
       <c r="S122" s="90"/>
-      <c r="T122" s="88"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="43"/>
-      <c r="X122" s="93"/>
-      <c r="Y122" s="95"/>
-      <c r="Z122" s="44"/>
-      <c r="AA122" s="44"/>
-      <c r="AB122" s="44"/>
-      <c r="AC122" s="98"/>
-      <c r="AD122" s="95"/>
-      <c r="AE122" s="44"/>
-      <c r="AF122" s="44"/>
-      <c r="AG122" s="44"/>
-      <c r="AH122" s="98"/>
-      <c r="AI122" s="95"/>
-      <c r="AJ122" s="44"/>
-      <c r="AK122" s="44"/>
-      <c r="AL122" s="44"/>
-      <c r="AM122" s="98"/>
-      <c r="AN122" s="95"/>
-      <c r="AO122" s="44"/>
-      <c r="AP122" s="44"/>
-      <c r="AQ122" s="44"/>
-      <c r="AR122" s="98"/>
-      <c r="AS122" s="95"/>
-      <c r="AT122" s="44"/>
-      <c r="AU122" s="44"/>
-      <c r="AV122" s="44"/>
-      <c r="AW122" s="98"/>
-      <c r="AX122" s="95"/>
-      <c r="AY122" s="44"/>
-      <c r="AZ122" s="44"/>
-      <c r="BA122" s="44"/>
-      <c r="BB122" s="98"/>
+      <c r="T122" s="89"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="94"/>
+      <c r="Y122" s="89"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="94"/>
+      <c r="AD122" s="96"/>
+      <c r="AE122" s="46"/>
+      <c r="AF122" s="46"/>
+      <c r="AG122" s="46"/>
+      <c r="AH122" s="100"/>
+      <c r="AI122" s="89"/>
+      <c r="AJ122" s="40"/>
+      <c r="AK122" s="40"/>
+      <c r="AL122" s="40"/>
+      <c r="AM122" s="94"/>
+      <c r="AN122" s="89"/>
+      <c r="AO122" s="40"/>
+      <c r="AP122" s="40"/>
+      <c r="AQ122" s="40"/>
+      <c r="AR122" s="94"/>
+      <c r="AS122" s="102"/>
+      <c r="AT122" s="47"/>
+      <c r="AU122" s="47"/>
+      <c r="AV122" s="47"/>
+      <c r="AW122" s="104"/>
+      <c r="AX122" s="89"/>
+      <c r="AY122" s="40"/>
+      <c r="AZ122" s="40"/>
+      <c r="BA122" s="40"/>
+      <c r="BB122" s="94"/>
       <c r="BC122" s="29"/>
     </row>
-    <row r="123" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
-      <c r="B123" s="52">
-        <v>5</v>
-      </c>
-      <c r="C123" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="53"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="57"/>
-      <c r="N123" s="55"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="55"/>
-      <c r="Q123" s="55"/>
-      <c r="R123" s="55"/>
-      <c r="S123" s="55"/>
-      <c r="T123" s="55"/>
-      <c r="U123" s="55"/>
-      <c r="V123" s="55"/>
-      <c r="W123" s="55"/>
-      <c r="X123" s="55"/>
-      <c r="Y123" s="55"/>
-      <c r="Z123" s="55"/>
-      <c r="AA123" s="55"/>
-      <c r="AB123" s="55"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="55"/>
-      <c r="AI123" s="55"/>
-      <c r="AJ123" s="55"/>
-      <c r="AK123" s="55"/>
-      <c r="AL123" s="55"/>
-      <c r="AM123" s="55"/>
-      <c r="AN123" s="55"/>
-      <c r="AO123" s="55"/>
-      <c r="AP123" s="55"/>
-      <c r="AQ123" s="55"/>
-      <c r="AR123" s="55"/>
-      <c r="AS123" s="55"/>
-      <c r="AT123" s="55"/>
-      <c r="AU123" s="55"/>
-      <c r="AV123" s="55"/>
-      <c r="AW123" s="55"/>
-      <c r="AX123" s="55"/>
-      <c r="AY123" s="55"/>
-      <c r="AZ123" s="55"/>
-      <c r="BA123" s="55"/>
-      <c r="BB123" s="55"/>
-      <c r="BC123" s="51"/>
-    </row>
-    <row r="124" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B124" s="69">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C124" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" s="79"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="66">
-        <v>45564</v>
-      </c>
-      <c r="G124" s="66">
-        <v>45394</v>
-      </c>
-      <c r="H124" s="67">
-        <f>NETWORKDAYS(F124,G124)</f>
-        <v>-121</v>
-      </c>
-      <c r="I124" s="68">
-        <v>1</v>
-      </c>
-      <c r="J124" s="33"/>
-      <c r="K124" s="34"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="84"/>
+    <row r="123" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B123" s="78"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="112">
+        <v>45590</v>
+      </c>
+      <c r="G123" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="H123" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I123" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="J123" s="36"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38"/>
+      <c r="N123" s="85"/>
+      <c r="O123" s="81"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="90"/>
+      <c r="T123" s="89"/>
+      <c r="U123" s="40"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="94"/>
+      <c r="Y123" s="89"/>
+      <c r="Z123" s="40"/>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="40"/>
+      <c r="AC123" s="94"/>
+      <c r="AD123" s="96"/>
+      <c r="AE123" s="46"/>
+      <c r="AF123" s="46"/>
+      <c r="AG123" s="46"/>
+      <c r="AH123" s="100"/>
+      <c r="AI123" s="89"/>
+      <c r="AJ123" s="40"/>
+      <c r="AK123" s="40"/>
+      <c r="AL123" s="40"/>
+      <c r="AM123" s="94"/>
+      <c r="AN123" s="89"/>
+      <c r="AO123" s="40"/>
+      <c r="AP123" s="40"/>
+      <c r="AQ123" s="40"/>
+      <c r="AR123" s="94"/>
+      <c r="AS123" s="102"/>
+      <c r="AT123" s="47"/>
+      <c r="AU123" s="47"/>
+      <c r="AV123" s="47"/>
+      <c r="AW123" s="104"/>
+      <c r="AX123" s="89"/>
+      <c r="AY123" s="40"/>
+      <c r="AZ123" s="40"/>
+      <c r="BA123" s="40"/>
+      <c r="BB123" s="94"/>
+      <c r="BC123" s="29"/>
+    </row>
+    <row r="124" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B124" s="78">
+        <v>4.17</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="77"/>
+      <c r="E124" s="107"/>
+      <c r="F124" s="112">
+        <v>45587</v>
+      </c>
+      <c r="G124" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="H124" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I124" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="J124" s="36"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="85"/>
       <c r="O124" s="81"/>
       <c r="P124" s="41"/>
       <c r="Q124" s="41"/>
       <c r="R124" s="41"/>
       <c r="S124" s="90"/>
-      <c r="T124" s="88"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43"/>
-      <c r="W124" s="43"/>
-      <c r="X124" s="93"/>
-      <c r="Y124" s="88"/>
-      <c r="Z124" s="43"/>
-      <c r="AA124" s="43"/>
-      <c r="AB124" s="43"/>
-      <c r="AC124" s="93"/>
-      <c r="AD124" s="95"/>
-      <c r="AE124" s="44"/>
-      <c r="AF124" s="44"/>
-      <c r="AG124" s="44"/>
-      <c r="AH124" s="98"/>
-      <c r="AI124" s="88"/>
-      <c r="AJ124" s="43"/>
-      <c r="AK124" s="43"/>
-      <c r="AL124" s="43"/>
-      <c r="AM124" s="43"/>
-      <c r="AN124" s="43"/>
-      <c r="AO124" s="43"/>
-      <c r="AP124" s="43"/>
-      <c r="AQ124" s="43"/>
-      <c r="AR124" s="43"/>
-      <c r="AS124" s="43"/>
-      <c r="AT124" s="43"/>
-      <c r="AU124" s="43"/>
-      <c r="AV124" s="43"/>
-      <c r="AW124" s="43"/>
-      <c r="AX124" s="43"/>
-      <c r="AY124" s="43"/>
-      <c r="AZ124" s="43"/>
-      <c r="BA124" s="43"/>
-      <c r="BB124" s="43"/>
+      <c r="T124" s="89"/>
+      <c r="U124" s="40"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
+      <c r="X124" s="94"/>
+      <c r="Y124" s="89"/>
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="40"/>
+      <c r="AC124" s="94"/>
+      <c r="AD124" s="96"/>
+      <c r="AE124" s="46"/>
+      <c r="AF124" s="46"/>
+      <c r="AG124" s="46"/>
+      <c r="AH124" s="100"/>
+      <c r="AI124" s="89"/>
+      <c r="AJ124" s="40"/>
+      <c r="AK124" s="40"/>
+      <c r="AL124" s="40"/>
+      <c r="AM124" s="94"/>
+      <c r="AN124" s="89"/>
+      <c r="AO124" s="40"/>
+      <c r="AP124" s="40"/>
+      <c r="AQ124" s="40"/>
+      <c r="AR124" s="94"/>
+      <c r="AS124" s="102"/>
+      <c r="AT124" s="47"/>
+      <c r="AU124" s="47"/>
+      <c r="AV124" s="47"/>
+      <c r="AW124" s="104"/>
+      <c r="AX124" s="89"/>
+      <c r="AY124" s="40"/>
+      <c r="AZ124" s="40"/>
+      <c r="BA124" s="40"/>
+      <c r="BB124" s="94"/>
       <c r="BC124" s="29"/>
+    </row>
+    <row r="125" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B125" s="30"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E125" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F125" s="112">
+        <v>45587</v>
+      </c>
+      <c r="G125" s="112">
+        <v>45594</v>
+      </c>
+      <c r="H125" s="119">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I125" s="120">
+        <v>1</v>
+      </c>
+      <c r="J125" s="36"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="85"/>
+      <c r="O125" s="81"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="41"/>
+      <c r="R125" s="41"/>
+      <c r="S125" s="90"/>
+      <c r="T125" s="89"/>
+      <c r="U125" s="40"/>
+      <c r="V125" s="40"/>
+      <c r="W125" s="40"/>
+      <c r="X125" s="94"/>
+      <c r="Y125" s="89"/>
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="40"/>
+      <c r="AB125" s="40"/>
+      <c r="AC125" s="94"/>
+      <c r="AD125" s="96"/>
+      <c r="AE125" s="46"/>
+      <c r="AF125" s="46"/>
+      <c r="AG125" s="46"/>
+      <c r="AH125" s="100"/>
+      <c r="AI125" s="89"/>
+      <c r="AJ125" s="40"/>
+      <c r="AK125" s="40"/>
+      <c r="AL125" s="40"/>
+      <c r="AM125" s="94"/>
+      <c r="AN125" s="89"/>
+      <c r="AO125" s="40"/>
+      <c r="AP125" s="40"/>
+      <c r="AQ125" s="40"/>
+      <c r="AR125" s="94"/>
+      <c r="AS125" s="102"/>
+      <c r="AT125" s="47"/>
+      <c r="AU125" s="47"/>
+      <c r="AV125" s="47"/>
+      <c r="AW125" s="104"/>
+      <c r="AX125" s="89"/>
+      <c r="AY125" s="40"/>
+      <c r="AZ125" s="40"/>
+      <c r="BA125" s="40"/>
+      <c r="BB125" s="94"/>
+      <c r="BC125" s="29"/>
+    </row>
+    <row r="126" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B126" s="78"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F126" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G126" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="H126" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I126" s="120">
+        <v>0</v>
+      </c>
+      <c r="J126" s="36"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="85"/>
+      <c r="O126" s="81"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="41"/>
+      <c r="R126" s="41"/>
+      <c r="S126" s="90"/>
+      <c r="T126" s="89"/>
+      <c r="U126" s="40"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
+      <c r="X126" s="94"/>
+      <c r="Y126" s="89"/>
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="40"/>
+      <c r="AC126" s="94"/>
+      <c r="AD126" s="96"/>
+      <c r="AE126" s="46"/>
+      <c r="AF126" s="46"/>
+      <c r="AG126" s="46"/>
+      <c r="AH126" s="100"/>
+      <c r="AI126" s="89"/>
+      <c r="AJ126" s="40"/>
+      <c r="AK126" s="40"/>
+      <c r="AL126" s="40"/>
+      <c r="AM126" s="94"/>
+      <c r="AN126" s="89"/>
+      <c r="AO126" s="40"/>
+      <c r="AP126" s="40"/>
+      <c r="AQ126" s="40"/>
+      <c r="AR126" s="94"/>
+      <c r="AS126" s="102"/>
+      <c r="AT126" s="47"/>
+      <c r="AU126" s="47"/>
+      <c r="AV126" s="47"/>
+      <c r="AW126" s="104"/>
+      <c r="AX126" s="89"/>
+      <c r="AY126" s="40"/>
+      <c r="AZ126" s="40"/>
+      <c r="BA126" s="40"/>
+      <c r="BB126" s="94"/>
+      <c r="BC126" s="29"/>
+    </row>
+    <row r="127" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B127" s="78"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="112">
+        <v>45593</v>
+      </c>
+      <c r="G127" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I127" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="J127" s="36"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="38"/>
+      <c r="M127" s="38"/>
+      <c r="N127" s="85"/>
+      <c r="O127" s="81"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="41"/>
+      <c r="R127" s="41"/>
+      <c r="S127" s="90"/>
+      <c r="T127" s="89"/>
+      <c r="U127" s="40"/>
+      <c r="V127" s="40"/>
+      <c r="W127" s="40"/>
+      <c r="X127" s="94"/>
+      <c r="Y127" s="89"/>
+      <c r="Z127" s="40"/>
+      <c r="AA127" s="40"/>
+      <c r="AB127" s="40"/>
+      <c r="AC127" s="94"/>
+      <c r="AD127" s="96"/>
+      <c r="AE127" s="46"/>
+      <c r="AF127" s="46"/>
+      <c r="AG127" s="46"/>
+      <c r="AH127" s="100"/>
+      <c r="AI127" s="89"/>
+      <c r="AJ127" s="40"/>
+      <c r="AK127" s="40"/>
+      <c r="AL127" s="40"/>
+      <c r="AM127" s="94"/>
+      <c r="AN127" s="89"/>
+      <c r="AO127" s="40"/>
+      <c r="AP127" s="40"/>
+      <c r="AQ127" s="40"/>
+      <c r="AR127" s="94"/>
+      <c r="AS127" s="102"/>
+      <c r="AT127" s="47"/>
+      <c r="AU127" s="47"/>
+      <c r="AV127" s="47"/>
+      <c r="AW127" s="104"/>
+      <c r="AX127" s="89"/>
+      <c r="AY127" s="40"/>
+      <c r="AZ127" s="40"/>
+      <c r="BA127" s="40"/>
+      <c r="BB127" s="94"/>
+      <c r="BC127" s="29"/>
+    </row>
+    <row r="128" spans="2:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="B128" s="78">
+        <v>4.18</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G128" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H128" s="119" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I128" s="120">
+        <v>0</v>
+      </c>
+      <c r="J128" s="33"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="84"/>
+      <c r="O128" s="81"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
+      <c r="R128" s="41"/>
+      <c r="S128" s="90"/>
+      <c r="T128" s="88"/>
+      <c r="U128" s="43"/>
+      <c r="V128" s="43"/>
+      <c r="W128" s="43"/>
+      <c r="X128" s="93"/>
+      <c r="Y128" s="95"/>
+      <c r="Z128" s="44"/>
+      <c r="AA128" s="44"/>
+      <c r="AB128" s="44"/>
+      <c r="AC128" s="98"/>
+      <c r="AD128" s="95"/>
+      <c r="AE128" s="44"/>
+      <c r="AF128" s="44"/>
+      <c r="AG128" s="44"/>
+      <c r="AH128" s="98"/>
+      <c r="AI128" s="95"/>
+      <c r="AJ128" s="44"/>
+      <c r="AK128" s="44"/>
+      <c r="AL128" s="44"/>
+      <c r="AM128" s="98"/>
+      <c r="AN128" s="95"/>
+      <c r="AO128" s="44"/>
+      <c r="AP128" s="44"/>
+      <c r="AQ128" s="44"/>
+      <c r="AR128" s="98"/>
+      <c r="AS128" s="95"/>
+      <c r="AT128" s="44"/>
+      <c r="AU128" s="44"/>
+      <c r="AV128" s="44"/>
+      <c r="AW128" s="98"/>
+      <c r="AX128" s="95"/>
+      <c r="AY128" s="44"/>
+      <c r="AZ128" s="44"/>
+      <c r="BA128" s="44"/>
+      <c r="BB128" s="98"/>
+      <c r="BC128" s="29"/>
+    </row>
+    <row r="129" spans="2:55" s="58" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="B129" s="52">
+        <v>5</v>
+      </c>
+      <c r="C129" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="53"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="57"/>
+      <c r="M129" s="57"/>
+      <c r="N129" s="55"/>
+      <c r="O129" s="55"/>
+      <c r="P129" s="55"/>
+      <c r="Q129" s="55"/>
+      <c r="R129" s="55"/>
+      <c r="S129" s="55"/>
+      <c r="T129" s="55"/>
+      <c r="U129" s="55"/>
+      <c r="V129" s="55"/>
+      <c r="W129" s="55"/>
+      <c r="X129" s="55"/>
+      <c r="Y129" s="55"/>
+      <c r="Z129" s="55"/>
+      <c r="AA129" s="55"/>
+      <c r="AB129" s="55"/>
+      <c r="AC129" s="55"/>
+      <c r="AD129" s="55"/>
+      <c r="AE129" s="55"/>
+      <c r="AF129" s="55"/>
+      <c r="AG129" s="55"/>
+      <c r="AH129" s="55"/>
+      <c r="AI129" s="55"/>
+      <c r="AJ129" s="55"/>
+      <c r="AK129" s="55"/>
+      <c r="AL129" s="55"/>
+      <c r="AM129" s="55"/>
+      <c r="AN129" s="55"/>
+      <c r="AO129" s="55"/>
+      <c r="AP129" s="55"/>
+      <c r="AQ129" s="55"/>
+      <c r="AR129" s="55"/>
+      <c r="AS129" s="55"/>
+      <c r="AT129" s="55"/>
+      <c r="AU129" s="55"/>
+      <c r="AV129" s="55"/>
+      <c r="AW129" s="55"/>
+      <c r="AX129" s="55"/>
+      <c r="AY129" s="55"/>
+      <c r="AZ129" s="55"/>
+      <c r="BA129" s="55"/>
+      <c r="BB129" s="55"/>
+      <c r="BC129" s="51"/>
+    </row>
+    <row r="130" spans="2:55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B130" s="69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C130" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="79"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="66">
+        <v>45564</v>
+      </c>
+      <c r="G130" s="66">
+        <v>45394</v>
+      </c>
+      <c r="H130" s="67">
+        <f>NETWORKDAYS(F130,G130)</f>
+        <v>-121</v>
+      </c>
+      <c r="I130" s="68">
+        <v>1</v>
+      </c>
+      <c r="J130" s="33"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="84"/>
+      <c r="O130" s="81"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="41"/>
+      <c r="S130" s="90"/>
+      <c r="T130" s="88"/>
+      <c r="U130" s="43"/>
+      <c r="V130" s="43"/>
+      <c r="W130" s="43"/>
+      <c r="X130" s="93"/>
+      <c r="Y130" s="88"/>
+      <c r="Z130" s="43"/>
+      <c r="AA130" s="43"/>
+      <c r="AB130" s="43"/>
+      <c r="AC130" s="93"/>
+      <c r="AD130" s="95"/>
+      <c r="AE130" s="44"/>
+      <c r="AF130" s="44"/>
+      <c r="AG130" s="44"/>
+      <c r="AH130" s="98"/>
+      <c r="AI130" s="88"/>
+      <c r="AJ130" s="43"/>
+      <c r="AK130" s="43"/>
+      <c r="AL130" s="43"/>
+      <c r="AM130" s="43"/>
+      <c r="AN130" s="43"/>
+      <c r="AO130" s="43"/>
+      <c r="AP130" s="43"/>
+      <c r="AQ130" s="43"/>
+      <c r="AR130" s="43"/>
+      <c r="AS130" s="43"/>
+      <c r="AT130" s="43"/>
+      <c r="AU130" s="43"/>
+      <c r="AV130" s="43"/>
+      <c r="AW130" s="43"/>
+      <c r="AX130" s="43"/>
+      <c r="AY130" s="43"/>
+      <c r="AZ130" s="43"/>
+      <c r="BA130" s="43"/>
+      <c r="BB130" s="43"/>
+      <c r="BC130" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11459,18 +11910,6 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="197">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1427,6 +1427,14 @@
   </si>
   <si>
     <t>포인트 사용/적립</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수,이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 진유혁</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2491,66 +2499,17 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,6 +2534,10 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2589,6 +2552,51 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2909,8 +2917,8 @@
   </sheetPr>
   <dimension ref="B1:BC130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2984,40 +2992,40 @@
     </row>
     <row r="2" spans="2:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
@@ -3098,41 +3106,41 @@
     </row>
     <row r="4" spans="2:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="162" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="159" t="s">
+      <c r="J4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="160" t="s">
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -3162,40 +3170,40 @@
     </row>
     <row r="5" spans="2:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="132" t="s">
+      <c r="D5" s="142"/>
+      <c r="E5" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="158">
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="143">
         <v>45611</v>
       </c>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="1"/>
@@ -3337,160 +3345,160 @@
       <c r="BC7" s="21"/>
     </row>
     <row r="8" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="I8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="139" t="s">
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139" t="s">
+      <c r="P8" s="155"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="143" t="s">
+      <c r="U8" s="155"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="155"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="147" t="s">
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="147" t="s">
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="130"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="147"/>
-      <c r="AK8" s="147"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="149"/>
-      <c r="AN8" s="151" t="s">
+      <c r="AJ8" s="130"/>
+      <c r="AK8" s="130"/>
+      <c r="AL8" s="130"/>
+      <c r="AM8" s="131"/>
+      <c r="AN8" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="AO8" s="152"/>
-      <c r="AP8" s="152"/>
-      <c r="AQ8" s="152"/>
-      <c r="AR8" s="152"/>
-      <c r="AS8" s="128" t="s">
+      <c r="AO8" s="135"/>
+      <c r="AP8" s="135"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="135"/>
+      <c r="AS8" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="128"/>
-      <c r="AU8" s="128"/>
-      <c r="AV8" s="128"/>
-      <c r="AW8" s="128"/>
-      <c r="AX8" s="128" t="s">
+      <c r="AT8" s="148"/>
+      <c r="AU8" s="148"/>
+      <c r="AV8" s="148"/>
+      <c r="AW8" s="148"/>
+      <c r="AX8" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="128"/>
-      <c r="AZ8" s="128"/>
-      <c r="BA8" s="128"/>
-      <c r="BB8" s="128"/>
+      <c r="AY8" s="148"/>
+      <c r="AZ8" s="148"/>
+      <c r="BA8" s="148"/>
+      <c r="BB8" s="148"/>
       <c r="BC8" s="21"/>
     </row>
     <row r="9" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="148"/>
-      <c r="AL9" s="148"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="154"/>
-      <c r="AP9" s="154"/>
-      <c r="AQ9" s="154"/>
-      <c r="AR9" s="154"/>
-      <c r="AS9" s="129"/>
-      <c r="AT9" s="129"/>
-      <c r="AU9" s="129"/>
-      <c r="AV9" s="129"/>
-      <c r="AW9" s="129"/>
-      <c r="AX9" s="129"/>
-      <c r="AY9" s="129"/>
-      <c r="AZ9" s="129"/>
-      <c r="BA9" s="129"/>
-      <c r="BB9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="132"/>
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="133"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="137"/>
+      <c r="AP9" s="137"/>
+      <c r="AQ9" s="137"/>
+      <c r="AR9" s="137"/>
+      <c r="AS9" s="149"/>
+      <c r="AT9" s="149"/>
+      <c r="AU9" s="149"/>
+      <c r="AV9" s="149"/>
+      <c r="AW9" s="149"/>
+      <c r="AX9" s="149"/>
+      <c r="AY9" s="149"/>
+      <c r="AZ9" s="149"/>
+      <c r="BA9" s="149"/>
+      <c r="BB9" s="149"/>
       <c r="BC9" s="24"/>
     </row>
     <row r="10" spans="2:55" ht="17.25" customHeight="1">
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
       <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>118</v>
       </c>
       <c r="E97" s="107" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="F97" s="112">
         <v>45576</v>
@@ -11551,7 +11559,7 @@
         <v>63</v>
       </c>
       <c r="E126" s="107" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="F126" s="112" t="s">
         <v>176</v>
@@ -11882,18 +11890,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AX8:BB9"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
@@ -11910,6 +11906,18 @@
     <mergeCell ref="T8:X9"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/resource/20.begin/220.schedule/221.WBS.xlsx
+++ b/resource/20.begin/220.schedule/221.WBS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\20.begin\220.schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6A0BD-41B6-4DF9-BE85-65B10D84ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturn" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Saturn!$B$1:$BB$130</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -1007,218 +1008,398 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
+    <t>관리자 로그인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구성도</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 확인/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 무결성 검사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 고정 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 게시판</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 수량 조절</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매(결제)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단 선택</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 Q&amp;A</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관 상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 입력 항목</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 값 체크</t>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS 마케팅 동의</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 회원 확인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARS 전화주문</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상세 내역</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 무결성 검사</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁, 김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선,박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선,박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지수</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 신상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 인기상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 검색</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 상품 검색</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 상품</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 조회/등록</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 조회/등록/수정/삭제</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 후기</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별/연령별 가입자 통계 분석</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <t>진행중</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 로그인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 구성도</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 확인/수정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 Css/Js/Common Include화</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 무결성 검사</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 고정 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 게시판</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 선택</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 수량 조절</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매(결제)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 수단 선택</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 정보</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 Q&amp;A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 담기</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관 상품</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>새소식</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>성분 사전</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 가입 입력 항목</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 값 체크</t>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS 마케팅 동의</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 회원 확인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 저장</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARS 전화주문</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 삭제</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상세 내역</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 무결성 검사</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁, 김민선</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>이청민</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>진유혁</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선,박지수</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민선,박지수</t>
+    <t>상품 등록 수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 관리</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>이청민, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 평점</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 상품 조회/등록/수정</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 화면</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 배송지</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 변경</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 요청사항</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액/수량</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 사용/적립</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민선, 진유혁</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진유혁, 김민선, 박지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이청민</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1239,7 +1420,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>